--- a/data/backup/AutoVC.xlsx
+++ b/data/backup/AutoVC.xlsx
@@ -15,8 +15,8 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Testes!$A$1:$AG$47</definedName>
-    <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="3" hidden="1"><![CDATA[REPT(LOCAL_YEAR_FORMAT,4)&LOCAL_DATE_SEPARATOR&REPT(LOCAL_MONTH_FORMAT,2)&LOCAL_DATE_SEPARATOR&REPT(LOCAL_DAY_FORMAT,2)&" "&REPT(LOCAL_HOUR_FORMAT,2)&LOCAL_TIME_SEPARATOR&REPT(LOCAL_MINUTE_FORMAT,2)&LOCAL_TIME_SEPARATOR&REPT([0]!LOCAL_SECOND_FORMAT,2)]]></definedName>
-    <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1"><![CDATA[REPT(LOCAL_YEAR_FORMAT,4)&LOCAL_DATE_SEPARATOR&REPT(LOCAL_MONTH_FORMAT,2)&LOCAL_DATE_SEPARATOR&REPT(LOCAL_DAY_FORMAT,2)&" "&REPT(LOCAL_HOUR_FORMAT,2)&LOCAL_TIME_SEPARATOR&REPT(LOCAL_MINUTE_FORMAT,2)&LOCAL_TIME_SEPARATOR&REPT(LOCAL_SECOND_FORMAT,2)]]></definedName>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="3" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT([0]!LOCAL_SECOND_FORMAT,2)</definedName>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_SECOND_FORMAT" hidden="1">" "</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1673" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1665" uniqueCount="338">
   <si>
     <t>Telefone</t>
   </si>
@@ -1105,15 +1105,6 @@
   </si>
   <si>
     <t>Falha ao logar com email</t>
-  </si>
-  <si>
-    <t>00:01:32</t>
-  </si>
-  <si>
-    <t>Falha ao verificar login</t>
-  </si>
-  <si>
-    <t>00:00:27</t>
   </si>
   <si>
     <t>00:01:43</t>
@@ -1585,7 +1576,7 @@
     <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1779,6 +1770,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -8421,46 +8413,46 @@
   <sheetPr codeName="Plan3"/>
   <dimension ref="A1:AI62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="O2" sqref="O2"/>
+      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="10" width="7.42578125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="10" width="32.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="75" width="131.42578125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="31" width="11.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="10" width="43.5703125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="10" width="35.7109375" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="10" width="11.0" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="10" width="11.7109375" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="10" width="14.0" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="8" width="10.7109375" collapsed="true"/>
-    <col min="11" max="12" bestFit="true" customWidth="true" style="10" width="12.7109375" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" style="10" width="26.85546875" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" style="10" width="15.140625" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" style="10" width="23.28515625" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" style="10" width="8.28515625" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" style="10" width="12.0" collapsed="true"/>
-    <col min="18" max="18" customWidth="true" style="10" width="23.5703125" collapsed="true"/>
-    <col min="19" max="20" customWidth="true" style="10" width="15.0" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" style="10" width="12.0" collapsed="true"/>
-    <col min="22" max="22" customWidth="true" style="10" width="15.140625" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" style="10" width="13.28515625" collapsed="true"/>
-    <col min="24" max="24" customWidth="true" style="10" width="23.85546875" collapsed="true"/>
-    <col min="25" max="25" customWidth="true" style="10" width="24.5703125" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" style="10" width="19.140625" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" style="10" width="17.5703125" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" style="10" width="25.7109375" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" style="10" width="17.7109375" collapsed="true"/>
-    <col min="30" max="30" customWidth="true" style="10" width="19.28515625" collapsed="true"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" style="10" width="24.0" collapsed="true"/>
-    <col min="32" max="32" customWidth="true" style="14" width="14.0" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" style="14" width="15.28515625" collapsed="true"/>
-    <col min="34" max="16384" style="14" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="7.42578125" style="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.7109375" style="10" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="131.42578125" style="75" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.85546875" style="31" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="43.5703125" style="10" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="35.7109375" style="10" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11" style="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="11.7109375" style="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14" style="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="10.7109375" style="8" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="12" width="12.7109375" style="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="26.85546875" style="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="15.140625" style="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="23.28515625" style="10" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="8.28515625" style="10" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="12" style="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="23.5703125" style="10" customWidth="1" collapsed="1"/>
+    <col min="19" max="20" width="15" style="10" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="12" style="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="15.140625" style="10" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="13.28515625" style="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="23.85546875" style="10" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="24.5703125" style="10" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="19.140625" style="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="17.5703125" style="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="25.7109375" style="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="17.7109375" style="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="19.28515625" style="10" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="24" style="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="14" style="14" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="15.28515625" style="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="16384" width="9.140625" style="14" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" s="13" customFormat="1">
@@ -8575,7 +8567,7 @@
         <v>142</v>
       </c>
       <c r="D2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>117</v>
@@ -8587,7 +8579,7 @@
         <v>247</v>
       </c>
       <c r="H2" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="I2" t="s">
         <v>329</v>
@@ -8672,7 +8664,7 @@
       <c r="B3" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="97" t="s">
+      <c r="C3" s="107" t="s">
         <v>147</v>
       </c>
       <c r="D3" t="s">
@@ -8682,13 +8674,13 @@
         <v>117</v>
       </c>
       <c r="F3" t="s">
-        <v>336</v>
+        <v>117</v>
       </c>
       <c r="G3" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H3" t="s">
-        <v>337</v>
+        <v>267</v>
       </c>
       <c r="I3" t="s">
         <v>329</v>
@@ -9983,7 +9975,7 @@
         <v>334</v>
       </c>
       <c r="D16" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>117</v>
@@ -13008,43 +13000,43 @@
       <c r="J47" s="22"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
-      <c r="M47" s="110" t="s">
+      <c r="M47" s="111" t="s">
         <v>157</v>
       </c>
-      <c r="N47" s="110"/>
-      <c r="O47" s="111" t="s">
+      <c r="N47" s="111"/>
+      <c r="O47" s="112" t="s">
         <v>195</v>
       </c>
-      <c r="P47" s="111"/>
-      <c r="Q47" s="111"/>
-      <c r="R47" s="111"/>
-      <c r="S47" s="111"/>
-      <c r="T47" s="111"/>
-      <c r="U47" s="111"/>
-      <c r="V47" s="113" t="s">
+      <c r="P47" s="112"/>
+      <c r="Q47" s="112"/>
+      <c r="R47" s="112"/>
+      <c r="S47" s="112"/>
+      <c r="T47" s="112"/>
+      <c r="U47" s="112"/>
+      <c r="V47" s="114" t="s">
         <v>53</v>
       </c>
-      <c r="W47" s="113"/>
-      <c r="X47" s="109" t="s">
+      <c r="W47" s="114"/>
+      <c r="X47" s="110" t="s">
         <v>14</v>
       </c>
-      <c r="Y47" s="109"/>
-      <c r="Z47" s="112" t="s">
+      <c r="Y47" s="110"/>
+      <c r="Z47" s="113" t="s">
         <v>16</v>
       </c>
-      <c r="AA47" s="112"/>
+      <c r="AA47" s="113"/>
       <c r="AB47" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="AC47" s="114" t="s">
+      <c r="AC47" s="115" t="s">
         <v>218</v>
       </c>
-      <c r="AD47" s="115"/>
-      <c r="AE47" s="116"/>
-      <c r="AF47" s="107" t="s">
+      <c r="AD47" s="116"/>
+      <c r="AE47" s="117"/>
+      <c r="AF47" s="108" t="s">
         <v>155</v>
       </c>
-      <c r="AG47" s="108"/>
+      <c r="AG47" s="109"/>
     </row>
     <row r="49" spans="2:35">
       <c r="B49" s="87" t="s">
@@ -15894,16 +15886,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="39" width="1.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="39" width="14.5703125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="39" width="15.85546875" collapsed="true"/>
-    <col min="4" max="5" customWidth="true" style="39" width="15.85546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="39" width="19.28515625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="39" width="1.5703125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="39" width="15.85546875" collapsed="true"/>
-    <col min="9" max="12" customWidth="true" style="39" width="13.42578125" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" style="39" width="1.5703125" collapsed="true"/>
-    <col min="14" max="16384" style="39" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="1.5703125" style="39" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.5703125" style="39" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.85546875" style="39" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="5" width="15.85546875" style="39" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="19.28515625" style="39" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="1.5703125" style="39" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="15.85546875" style="39" customWidth="1" collapsed="1"/>
+    <col min="9" max="12" width="13.42578125" style="39" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="1.5703125" style="39" customWidth="1" collapsed="1"/>
+    <col min="14" max="16384" width="9.140625" style="39" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="7.5" customHeight="1">
@@ -15931,11 +15923,11 @@
       <c r="E2" s="43"/>
       <c r="F2" s="43"/>
       <c r="G2" s="43"/>
-      <c r="H2" s="118"/>
-      <c r="I2" s="118"/>
-      <c r="J2" s="118"/>
-      <c r="K2" s="118"/>
-      <c r="L2" s="118"/>
+      <c r="H2" s="119"/>
+      <c r="I2" s="119"/>
+      <c r="J2" s="119"/>
+      <c r="K2" s="119"/>
+      <c r="L2" s="119"/>
       <c r="M2" s="46"/>
     </row>
     <row r="3" spans="1:13" ht="7.5" customHeight="1">
@@ -15955,21 +15947,21 @@
     </row>
     <row r="4" spans="1:13" s="63" customFormat="1" ht="26.25" customHeight="1">
       <c r="A4" s="62"/>
-      <c r="B4" s="119" t="s">
+      <c r="B4" s="120" t="s">
         <v>171</v>
       </c>
-      <c r="C4" s="119"/>
-      <c r="D4" s="119"/>
-      <c r="E4" s="119"/>
-      <c r="F4" s="119"/>
+      <c r="C4" s="120"/>
+      <c r="D4" s="120"/>
+      <c r="E4" s="120"/>
+      <c r="F4" s="120"/>
       <c r="G4" s="62"/>
-      <c r="H4" s="119" t="s">
+      <c r="H4" s="120" t="s">
         <v>172</v>
       </c>
-      <c r="I4" s="119"/>
-      <c r="J4" s="119"/>
-      <c r="K4" s="119"/>
-      <c r="L4" s="119"/>
+      <c r="I4" s="120"/>
+      <c r="J4" s="120"/>
+      <c r="K4" s="120"/>
+      <c r="L4" s="120"/>
       <c r="M4" s="62"/>
     </row>
     <row r="5" spans="1:13" ht="15">
@@ -15989,12 +15981,12 @@
     </row>
     <row r="6" spans="1:13" ht="30" customHeight="1">
       <c r="A6" s="46"/>
-      <c r="B6" s="121" t="s">
+      <c r="B6" s="122" t="s">
         <v>188</v>
       </c>
-      <c r="C6" s="120"/>
-      <c r="D6" s="120"/>
-      <c r="E6" s="120"/>
+      <c r="C6" s="121"/>
+      <c r="D6" s="121"/>
+      <c r="E6" s="121"/>
       <c r="F6" s="53">
         <f>(J11+K11)/I11</f>
         <v>0.90697674418604646</v>
@@ -16017,10 +16009,10 @@
     </row>
     <row r="7" spans="1:13" ht="25.5">
       <c r="A7" s="46"/>
-      <c r="B7" s="121"/>
-      <c r="C7" s="120"/>
-      <c r="D7" s="120"/>
-      <c r="E7" s="120"/>
+      <c r="B7" s="122"/>
+      <c r="C7" s="121"/>
+      <c r="D7" s="121"/>
+      <c r="E7" s="121"/>
       <c r="F7" s="54" t="s">
         <v>186</v>
       </c>
@@ -16051,9 +16043,9 @@
         <f>COUNTIF(Testes!A3:A46,"&lt;&gt;"&amp;"")</f>
         <v>44</v>
       </c>
-      <c r="C8" s="120"/>
-      <c r="D8" s="120"/>
-      <c r="E8" s="120"/>
+      <c r="C8" s="121"/>
+      <c r="D8" s="121"/>
+      <c r="E8" s="121"/>
       <c r="F8" s="56"/>
       <c r="G8" s="46"/>
       <c r="H8" s="50" t="s">
@@ -16079,9 +16071,9 @@
     <row r="9" spans="1:13" ht="23.25">
       <c r="A9" s="46"/>
       <c r="B9" s="57"/>
-      <c r="C9" s="120"/>
-      <c r="D9" s="120"/>
-      <c r="E9" s="120"/>
+      <c r="C9" s="121"/>
+      <c r="D9" s="121"/>
+      <c r="E9" s="121"/>
       <c r="F9" s="58">
         <f>SUM(Testes!H3:H46)</f>
         <v>0</v>
@@ -16122,7 +16114,7 @@
         <f>K11</f>
         <v>8</v>
       </c>
-      <c r="F10" s="117" t="s">
+      <c r="F10" s="118" t="s">
         <v>189</v>
       </c>
       <c r="G10" s="47"/>
@@ -16145,7 +16137,7 @@
       <c r="E11" s="59" t="s">
         <v>174</v>
       </c>
-      <c r="F11" s="117"/>
+      <c r="F11" s="118"/>
       <c r="G11" s="47"/>
       <c r="H11" s="41" t="s">
         <v>185</v>
@@ -16247,9 +16239,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="29.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="38.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="8.85546875" collapsed="true"/>
+    <col min="2" max="2" width="29.5703125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="38.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="8.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -16402,29 +16394,29 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="10" width="35.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="10" width="9.28515625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="10" width="7.85546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="10" width="25.5703125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="14" width="12.0" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="14" width="20.140625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="14" width="21.5703125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="14" width="19.28515625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="14" width="15.5703125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="14" width="20.28515625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" style="14" width="13.85546875" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" style="14" width="19.0" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" style="14" width="8.5703125" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" style="14" width="3.42578125" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" style="14" width="18.5703125" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" style="14" width="13.5703125" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" style="14" width="12.0" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" style="14" width="24.5703125" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" style="14" width="13.85546875" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" style="14" width="11.85546875" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" style="14" width="20.140625" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" style="14" width="20.42578125" collapsed="true"/>
-    <col min="23" max="16384" style="14" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="35.5703125" style="10" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="9.28515625" style="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="7.85546875" style="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="25.5703125" style="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12" style="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="20.140625" style="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="21.5703125" style="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="19.28515625" style="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="15.5703125" style="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="20.28515625" style="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="13.85546875" style="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="19" style="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="8.5703125" style="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="3.42578125" style="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="18.5703125" style="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="13.5703125" style="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="12" style="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="24.5703125" style="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="13.85546875" style="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="11.85546875" style="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="20.140625" style="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="20.42578125" style="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="16384" width="9.140625" style="14" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" s="13" customFormat="1">
@@ -16815,30 +16807,30 @@
       <c r="D32" s="12"/>
     </row>
     <row r="33" spans="1:22">
-      <c r="A33" s="122" t="s">
+      <c r="A33" s="123" t="s">
         <v>100</v>
       </c>
-      <c r="B33" s="122"/>
-      <c r="C33" s="122"/>
-      <c r="D33" s="122"/>
-      <c r="E33" s="122"/>
-      <c r="F33" s="122"/>
-      <c r="G33" s="122"/>
-      <c r="H33" s="122"/>
-      <c r="I33" s="122"/>
-      <c r="J33" s="122"/>
-      <c r="K33" s="122"/>
-      <c r="L33" s="122"/>
-      <c r="M33" s="122"/>
-      <c r="N33" s="122"/>
-      <c r="O33" s="122"/>
-      <c r="P33" s="122"/>
-      <c r="Q33" s="122"/>
-      <c r="R33" s="122"/>
-      <c r="S33" s="122"/>
-      <c r="T33" s="122"/>
-      <c r="U33" s="122"/>
-      <c r="V33" s="122"/>
+      <c r="B33" s="123"/>
+      <c r="C33" s="123"/>
+      <c r="D33" s="123"/>
+      <c r="E33" s="123"/>
+      <c r="F33" s="123"/>
+      <c r="G33" s="123"/>
+      <c r="H33" s="123"/>
+      <c r="I33" s="123"/>
+      <c r="J33" s="123"/>
+      <c r="K33" s="123"/>
+      <c r="L33" s="123"/>
+      <c r="M33" s="123"/>
+      <c r="N33" s="123"/>
+      <c r="O33" s="123"/>
+      <c r="P33" s="123"/>
+      <c r="Q33" s="123"/>
+      <c r="R33" s="123"/>
+      <c r="S33" s="123"/>
+      <c r="T33" s="123"/>
+      <c r="U33" s="123"/>
+      <c r="V33" s="123"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -16878,11 +16870,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="11.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="61.42578125" collapsed="true"/>
+    <col min="2" max="2" width="10.5703125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.7109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11.28515625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="61.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">

--- a/data/backup/AutoVC.xlsx
+++ b/data/backup/AutoVC.xlsx
@@ -61,6 +61,20 @@
         </r>
       </text>
     </comment>
+    <comment ref="B25" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>é necessário ter viagens para confirmar</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="Q37" authorId="0" shapeId="0">
       <text>
         <r>
@@ -92,7 +106,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1665" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1665" uniqueCount="342">
   <si>
     <t>Telefone</t>
   </si>
@@ -437,9 +451,6 @@
     <t>Selecionar ranking por kms.  Validar que ranking está vindo ordenado pelo score dos usuários, de acordo com as faixas de kms abaixo. - 0 á 100 - 301 á 500</t>
   </si>
   <si>
-    <t>Selecionar ranking geral.  Validar que ranking está vindo ordenado pelo score dos usuários.</t>
-  </si>
-  <si>
     <t>Aplicar filtro de somente viagens como motorista.  Validar que o sistema apreentará somente viagens realizadas como motorista.</t>
   </si>
   <si>
@@ -965,18 +976,6 @@
     <t>00:00:37</t>
   </si>
   <si>
-    <t>00:00:41</t>
-  </si>
-  <si>
-    <t>15/06/2021</t>
-  </si>
-  <si>
-    <t>16/06/2021</t>
-  </si>
-  <si>
-    <t>Ínicio - 10:39 hs.] recebido[Ínicio - 12:56 hs.] Viagem validada com sucesso</t>
-  </si>
-  <si>
     <t>00:00:34</t>
   </si>
   <si>
@@ -986,39 +985,21 @@
     <t>Não desenvolvido /Relogar na aplicação e verificar se o avatar selecionado anteriormente foi mantido.</t>
   </si>
   <si>
-    <t>22/06/2021</t>
-  </si>
-  <si>
     <t>00:01:37</t>
   </si>
   <si>
     <t>Logar com usuário novo - Validar que no card "Meus cupons de desconto e brindes" não está disponível nenhum brinde para resgate</t>
   </si>
   <si>
-    <t>00:00:35</t>
-  </si>
-  <si>
     <t>23/06/2021</t>
   </si>
   <si>
-    <t>00:00:53</t>
-  </si>
-  <si>
-    <t>00:00:42</t>
-  </si>
-  <si>
     <t>Ínicio - 08:57 hs.</t>
   </si>
   <si>
-    <t>Chegada - 09:01 hs.</t>
-  </si>
-  <si>
     <t>03 minutos e 28 segundos</t>
   </si>
   <si>
-    <t>00:00:38</t>
-  </si>
-  <si>
     <t>Falha ao gerar cupom</t>
   </si>
   <si>
@@ -1040,27 +1021,12 @@
     <t>falha ao pular tour inicial</t>
   </si>
   <si>
-    <t>00:01:09</t>
-  </si>
-  <si>
-    <t>00:01:29</t>
-  </si>
-  <si>
     <t>00:01:02</t>
   </si>
   <si>
-    <t>00:00:47</t>
-  </si>
-  <si>
-    <t>00:01:13</t>
-  </si>
-  <si>
     <t>00:01:47</t>
   </si>
   <si>
-    <t>00:00:36</t>
-  </si>
-  <si>
     <t>00:01:38</t>
   </si>
   <si>
@@ -1071,12 +1037,6 @@
   </si>
   <si>
     <t>00:01:25</t>
-  </si>
-  <si>
-    <t>27/07/2021</t>
-  </si>
-  <si>
-    <t>00:01:11</t>
   </si>
   <si>
     <t>Falha ao instanciar driver
@@ -1101,13 +1061,79 @@
     <t>Verificação de possíveis testes</t>
   </si>
   <si>
-    <t>1.0.0.1647728</t>
-  </si>
-  <si>
-    <t>Falha ao logar com email</t>
-  </si>
-  <si>
-    <t>00:01:43</t>
+    <t>00:00:05</t>
+  </si>
+  <si>
+    <t>29/07/2021</t>
+  </si>
+  <si>
+    <t>00:01:22</t>
+  </si>
+  <si>
+    <t>00:00:49</t>
+  </si>
+  <si>
+    <t>00:01:01</t>
+  </si>
+  <si>
+    <t>00:00:53</t>
+  </si>
+  <si>
+    <t>00:01:33</t>
+  </si>
+  <si>
+    <t>00:01:12</t>
+  </si>
+  <si>
+    <t>Falha ao abrir manifestação</t>
+  </si>
+  <si>
+    <t>00:02:08</t>
+  </si>
+  <si>
+    <t>00:01:31</t>
+  </si>
+  <si>
+    <t>Falha ao concordar com os termos</t>
+  </si>
+  <si>
+    <t>Selecionar ranking geral.  Validar que ranking está vindo ordenado pelo score dos usuários. ( todos os testes de filtro, os filtros são aplicados mas não é feita validação de ordem de score)</t>
+  </si>
+  <si>
+    <t>00:00:54</t>
+  </si>
+  <si>
+    <t>00:00:48</t>
+  </si>
+  <si>
+    <t>Inicio esperado[Ínicio - 08:57 hs.] recebido[Ínicio - 18:56 hs.]</t>
+  </si>
+  <si>
+    <t>Chegada - 18:56 hs.</t>
+  </si>
+  <si>
+    <t>00:01:48</t>
+  </si>
+  <si>
+    <t>00:01:00</t>
+  </si>
+  <si>
+    <t>00:02:01</t>
+  </si>
+  <si>
+    <t>00:00:36</t>
+  </si>
+  <si>
+    <t>00:01:34</t>
+  </si>
+  <si>
+    <t>Versão incorreta. Esperada[1.0.0.1647728] - Encontrada[1.0.0.1659227]</t>
+  </si>
+  <si>
+    <t>00:00:42</t>
+  </si>
+  <si>
+    <t>1.0.0.1659227</t>
   </si>
 </sst>
 </file>
@@ -1118,7 +1144,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="35">
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1332,35 +1358,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFFFF00"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="4"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFF00"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="21">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1481,6 +1485,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="7">
     <border>
@@ -1576,7 +1586,7 @@
     <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1744,25 +1754,15 @@
     </xf>
     <xf numFmtId="0" fontId="24" fillId="18" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="27" fillId="18" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="18" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="0" xfId="2" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="28" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="27" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="27" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="33" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="31" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="34" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1771,6 +1771,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1827,7 +1836,17 @@
     <cellStyle name="Porcentagem" xfId="3" builtinId="5"/>
     <cellStyle name="Vírgula" xfId="4" builtinId="3"/>
   </cellStyles>
-  <dxfs count="687">
+  <dxfs count="689">
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C6500"/>
@@ -8103,8 +8122,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="686"/>
-      <tableStyleElement type="headerRow" dxfId="685"/>
+      <tableStyleElement type="wholeTable" dxfId="688"/>
+      <tableStyleElement type="headerRow" dxfId="687"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -8416,7 +8435,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8457,40 +8476,40 @@
   <sheetData>
     <row r="1" spans="1:33" s="13" customFormat="1">
       <c r="A1" s="22" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C1" s="74" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="E1" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="F1" s="22" t="s">
+        <v>227</v>
+      </c>
+      <c r="G1" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="F1" s="22" t="s">
-        <v>228</v>
-      </c>
-      <c r="G1" s="22" t="s">
+      <c r="H1" s="22" t="s">
+        <v>189</v>
+      </c>
+      <c r="I1" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="H1" s="22" t="s">
-        <v>190</v>
-      </c>
-      <c r="I1" s="22" t="s">
+      <c r="J1" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="J1" s="22" t="s">
-        <v>133</v>
-      </c>
       <c r="K1" s="22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L1" s="22" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>6</v>
@@ -8499,7 +8518,7 @@
         <v>7</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="P1" s="3" t="s">
         <v>15</v>
@@ -8541,581 +8560,581 @@
         <v>17</v>
       </c>
       <c r="AC1" s="69" t="s">
+        <v>215</v>
+      </c>
+      <c r="AD1" s="69" t="s">
         <v>216</v>
       </c>
-      <c r="AD1" s="69" t="s">
-        <v>217</v>
-      </c>
       <c r="AE1" s="69" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AF1" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AG1" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="2" spans="1:33">
       <c r="A2" s="15" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B2" s="86" t="s">
         <v>23</v>
       </c>
       <c r="C2" s="77" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D2" t="s">
         <v>135</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F2" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="G2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H2" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="I2" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="J2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K2" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="L2" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="L2" s="24" t="s">
-        <v>136</v>
-      </c>
       <c r="M2" s="79" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O2" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P2" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q2" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="R2" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="S2" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="T2" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="U2" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="V2" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="W2" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="X2" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Y2" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="Z2" s="106" t="s">
-        <v>335</v>
+        <v>137</v>
+      </c>
+      <c r="Z2" s="98" t="s">
+        <v>341</v>
       </c>
       <c r="AA2" s="11">
         <v>44096</v>
       </c>
       <c r="AB2" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AC2" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AD2" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AE2" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AF2" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AG2" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:33">
       <c r="A3" s="15" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B3" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="107" t="s">
-        <v>147</v>
+      <c r="C3" s="99" t="s">
+        <v>146</v>
       </c>
       <c r="D3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F3" t="s">
+        <v>116</v>
+      </c>
+      <c r="G3" t="s">
+        <v>247</v>
+      </c>
+      <c r="H3" t="s">
+        <v>266</v>
+      </c>
+      <c r="I3" t="s">
+        <v>311</v>
+      </c>
+      <c r="J3" t="s">
+        <v>139</v>
+      </c>
+      <c r="K3" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="F3" t="s">
-        <v>117</v>
-      </c>
-      <c r="G3" t="s">
-        <v>248</v>
-      </c>
-      <c r="H3" t="s">
-        <v>267</v>
-      </c>
-      <c r="I3" t="s">
-        <v>329</v>
-      </c>
-      <c r="J3" t="s">
-        <v>140</v>
-      </c>
-      <c r="K3" s="24" t="s">
-        <v>136</v>
-      </c>
       <c r="L3" s="24" t="s">
-        <v>136</v>
-      </c>
-      <c r="M3" s="104" t="s">
-        <v>331</v>
+        <v>135</v>
+      </c>
+      <c r="M3" s="96" t="s">
+        <v>313</v>
       </c>
       <c r="N3" s="10" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O3" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P3" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q3" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="R3" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="S3" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="T3" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="U3" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="V3" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="W3" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="X3" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Y3" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Z3" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AA3" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AB3" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AC3" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AD3" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AE3" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AF3" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AG3" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:33">
       <c r="A4" s="15" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>333</v>
-      </c>
-      <c r="C4" s="97" t="s">
-        <v>147</v>
+        <v>315</v>
+      </c>
+      <c r="C4" s="99" t="s">
+        <v>146</v>
       </c>
       <c r="D4" t="s">
+        <v>134</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F4" t="s">
+        <v>116</v>
+      </c>
+      <c r="G4" t="s">
+        <v>247</v>
+      </c>
+      <c r="H4" t="s">
+        <v>319</v>
+      </c>
+      <c r="I4" t="s">
+        <v>318</v>
+      </c>
+      <c r="J4" t="s">
+        <v>139</v>
+      </c>
+      <c r="K4" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="F4" t="s">
-        <v>117</v>
-      </c>
-      <c r="G4" t="s">
-        <v>248</v>
-      </c>
-      <c r="H4" t="s">
-        <v>327</v>
-      </c>
-      <c r="I4" t="s">
-        <v>326</v>
-      </c>
-      <c r="J4" t="s">
-        <v>140</v>
-      </c>
-      <c r="K4" s="24" t="s">
-        <v>136</v>
-      </c>
       <c r="L4" s="24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M4" s="75" t="s">
-        <v>330</v>
+        <v>312</v>
       </c>
       <c r="N4" s="10" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O4" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P4" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q4" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="R4" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="S4" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="T4" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="U4" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="V4" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="W4" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="X4" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Y4" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Z4" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AA4" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AB4" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AC4" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AD4" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AE4" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AF4" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AG4" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:33">
       <c r="A5" s="15" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B5" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="C5" s="100" t="s">
         <v>197</v>
       </c>
-      <c r="C5" s="98" t="s">
-        <v>198</v>
-      </c>
       <c r="D5" t="s">
+        <v>134</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F5" t="s">
+        <v>303</v>
+      </c>
+      <c r="G5" t="s">
+        <v>246</v>
+      </c>
+      <c r="H5" t="s">
+        <v>302</v>
+      </c>
+      <c r="I5" t="s">
+        <v>294</v>
+      </c>
+      <c r="J5" t="s">
+        <v>139</v>
+      </c>
+      <c r="K5" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="F5" t="s">
-        <v>314</v>
-      </c>
-      <c r="G5" t="s">
-        <v>247</v>
-      </c>
-      <c r="H5" t="s">
-        <v>313</v>
-      </c>
-      <c r="I5" t="s">
-        <v>301</v>
-      </c>
-      <c r="J5" t="s">
-        <v>140</v>
-      </c>
-      <c r="K5" s="24" t="s">
-        <v>136</v>
-      </c>
       <c r="L5" s="24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M5" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N5" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O5" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P5" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q5" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="R5" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="S5" s="68" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="T5" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="U5" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="V5" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="W5" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="X5" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Y5" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Z5" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AA5" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AB5" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AC5" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AD5" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AE5" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AF5" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AG5" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:33">
       <c r="A6" s="15" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B6" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="98" t="s">
+      <c r="C6" s="100" t="s">
         <v>19</v>
       </c>
       <c r="D6" t="s">
+        <v>134</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G6" t="s">
+        <v>247</v>
+      </c>
+      <c r="H6" t="s">
+        <v>302</v>
+      </c>
+      <c r="I6" t="s">
+        <v>294</v>
+      </c>
+      <c r="J6" t="s">
+        <v>139</v>
+      </c>
+      <c r="K6" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="F6" t="s">
-        <v>117</v>
-      </c>
-      <c r="G6" t="s">
-        <v>248</v>
-      </c>
-      <c r="H6" t="s">
-        <v>313</v>
-      </c>
-      <c r="I6" t="s">
-        <v>301</v>
-      </c>
-      <c r="J6" t="s">
-        <v>140</v>
-      </c>
-      <c r="K6" s="24" t="s">
-        <v>136</v>
-      </c>
       <c r="L6" s="24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N6" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O6" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P6" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q6" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="R6" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="S6" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="T6" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="U6" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="V6" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="W6" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="X6" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Y6" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Z6" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AA6" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AB6" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AC6" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AD6" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AE6" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AF6" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AG6" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:33">
       <c r="A7" s="15" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B7" s="72" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="98" t="s">
-        <v>149</v>
+      <c r="C7" s="100" t="s">
+        <v>148</v>
       </c>
       <c r="D7" t="s">
+        <v>134</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F7" t="s">
+        <v>310</v>
+      </c>
+      <c r="G7" t="s">
+        <v>246</v>
+      </c>
+      <c r="H7" t="s">
+        <v>258</v>
+      </c>
+      <c r="I7" t="s">
+        <v>311</v>
+      </c>
+      <c r="J7" t="s">
+        <v>139</v>
+      </c>
+      <c r="K7" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="E7" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="F7" t="s">
-        <v>328</v>
-      </c>
-      <c r="G7" t="s">
-        <v>247</v>
-      </c>
-      <c r="H7" t="s">
-        <v>259</v>
-      </c>
-      <c r="I7" t="s">
-        <v>329</v>
-      </c>
-      <c r="J7" t="s">
-        <v>140</v>
-      </c>
-      <c r="K7" s="24" t="s">
-        <v>136</v>
-      </c>
       <c r="L7" s="24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M7" s="68" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N7" s="68" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O7" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P7" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q7" s="9"/>
-      <c r="R7" s="94" t="s">
-        <v>311</v>
+      <c r="R7" s="91" t="s">
+        <v>300</v>
       </c>
       <c r="S7" s="7" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="T7" t="s">
         <v>4</v>
@@ -9124,97 +9143,97 @@
         <v>5</v>
       </c>
       <c r="V7" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="W7" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="X7" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Y7" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Z7" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AA7" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AB7" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AC7" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AD7" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AE7" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AF7" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AG7" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:33">
       <c r="A8" s="15" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B8" s="85" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="98" t="s">
+      <c r="C8" s="77" t="s">
         <v>20</v>
       </c>
       <c r="D8" t="s">
+        <v>134</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="F8" t="s">
+        <v>157</v>
+      </c>
+      <c r="G8" t="s">
+        <v>247</v>
+      </c>
+      <c r="H8" t="s">
+        <v>319</v>
+      </c>
+      <c r="I8" t="s">
+        <v>318</v>
+      </c>
+      <c r="J8" t="s">
+        <v>139</v>
+      </c>
+      <c r="K8" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="E8" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="F8" t="s">
-        <v>158</v>
-      </c>
-      <c r="G8" t="s">
-        <v>248</v>
-      </c>
-      <c r="H8" t="s">
-        <v>315</v>
-      </c>
-      <c r="I8" t="s">
-        <v>301</v>
-      </c>
-      <c r="J8" t="s">
-        <v>140</v>
-      </c>
-      <c r="K8" s="24" t="s">
-        <v>136</v>
-      </c>
       <c r="L8" s="24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M8" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N8" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O8" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P8" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q8" s="9"/>
       <c r="R8" t="s">
         <v>3</v>
       </c>
       <c r="S8" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="T8" t="s">
         <v>4</v>
@@ -9223,97 +9242,97 @@
         <v>70971335036</v>
       </c>
       <c r="V8" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="W8" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="X8" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Y8" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Z8" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AA8" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AB8" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AC8" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AD8" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AE8" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AF8" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AG8" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:33">
       <c r="A9" s="15" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B9" s="85" t="s">
-        <v>254</v>
-      </c>
-      <c r="C9" s="98" t="s">
+        <v>253</v>
+      </c>
+      <c r="C9" s="77" t="s">
         <v>22</v>
       </c>
       <c r="D9" t="s">
+        <v>134</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="F9" t="s">
+        <v>263</v>
+      </c>
+      <c r="G9" t="s">
+        <v>247</v>
+      </c>
+      <c r="H9" t="s">
+        <v>306</v>
+      </c>
+      <c r="I9" t="s">
+        <v>318</v>
+      </c>
+      <c r="J9" t="s">
+        <v>139</v>
+      </c>
+      <c r="K9" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="E9" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="F9" t="s">
-        <v>264</v>
-      </c>
-      <c r="G9" t="s">
-        <v>248</v>
-      </c>
-      <c r="H9" t="s">
-        <v>316</v>
-      </c>
-      <c r="I9" t="s">
-        <v>301</v>
-      </c>
-      <c r="J9" t="s">
-        <v>140</v>
-      </c>
-      <c r="K9" s="24" t="s">
-        <v>136</v>
-      </c>
       <c r="L9" s="24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M9" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N9" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O9" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P9" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q9" s="9"/>
       <c r="R9" s="64" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="S9" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="T9" s="70" t="s">
         <v>4</v>
@@ -9322,444 +9341,444 @@
         <v>5</v>
       </c>
       <c r="V9" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="W9" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="X9" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Y9" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Z9" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AA9" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AB9" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AC9" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AD9" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AE9" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AF9" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AG9" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:33">
       <c r="A10" s="15" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="97" t="s">
+      <c r="C10" s="99" t="s">
         <v>102</v>
       </c>
       <c r="D10" t="s">
+        <v>134</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F10" t="s">
+        <v>116</v>
+      </c>
+      <c r="G10" t="s">
+        <v>247</v>
+      </c>
+      <c r="H10" t="s">
+        <v>304</v>
+      </c>
+      <c r="I10" t="s">
+        <v>318</v>
+      </c>
+      <c r="J10" t="s">
+        <v>139</v>
+      </c>
+      <c r="K10" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="E10" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="F10" t="s">
-        <v>117</v>
-      </c>
-      <c r="G10" t="s">
-        <v>248</v>
-      </c>
-      <c r="H10" t="s">
-        <v>302</v>
-      </c>
-      <c r="I10" t="s">
-        <v>301</v>
-      </c>
-      <c r="J10" t="s">
-        <v>140</v>
-      </c>
-      <c r="K10" s="24" t="s">
-        <v>136</v>
-      </c>
       <c r="L10" s="68" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M10" s="79" t="s">
+        <v>270</v>
+      </c>
+      <c r="N10" s="80" t="s">
         <v>271</v>
       </c>
-      <c r="N10" s="80" t="s">
-        <v>272</v>
-      </c>
       <c r="O10" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P10" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q10" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="R10" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="S10" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="T10" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="U10" s="19" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="V10" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="W10" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="X10" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Y10" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Z10" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AA10" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AB10" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AC10" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AD10" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AE10" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AF10" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AG10" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:33">
       <c r="A11" s="15" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>194</v>
-      </c>
-      <c r="C11" s="98" t="s">
+        <v>193</v>
+      </c>
+      <c r="C11" s="77" t="s">
         <v>38</v>
       </c>
       <c r="D11" t="s">
+        <v>134</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F11" t="s">
+        <v>116</v>
+      </c>
+      <c r="G11" t="s">
+        <v>247</v>
+      </c>
+      <c r="H11" t="s">
+        <v>320</v>
+      </c>
+      <c r="I11" t="s">
+        <v>318</v>
+      </c>
+      <c r="J11" t="s">
+        <v>139</v>
+      </c>
+      <c r="K11" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="E11" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="F11" t="s">
-        <v>117</v>
-      </c>
-      <c r="G11" t="s">
-        <v>248</v>
-      </c>
-      <c r="H11" t="s">
-        <v>257</v>
-      </c>
-      <c r="I11" t="s">
-        <v>301</v>
-      </c>
-      <c r="J11" t="s">
-        <v>140</v>
-      </c>
-      <c r="K11" s="24" t="s">
-        <v>136</v>
-      </c>
       <c r="L11" s="24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M11" s="79" t="s">
+        <v>270</v>
+      </c>
+      <c r="N11" s="80" t="s">
         <v>271</v>
       </c>
-      <c r="N11" s="80" t="s">
-        <v>272</v>
-      </c>
       <c r="O11" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P11" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q11" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="R11" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="S11" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="T11" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="U11" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="V11" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="W11" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="X11" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Y11" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Z11" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AA11" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AB11" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AC11" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AD11" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AE11" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AF11" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AG11" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12" spans="1:33">
       <c r="A12" s="15" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B12" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="99" t="s">
+      <c r="C12" s="101" t="s">
         <v>40</v>
       </c>
       <c r="D12" t="s">
+        <v>134</v>
+      </c>
+      <c r="E12" s="71" t="s">
+        <v>116</v>
+      </c>
+      <c r="F12" t="s">
+        <v>116</v>
+      </c>
+      <c r="G12" t="s">
+        <v>247</v>
+      </c>
+      <c r="H12" t="s">
+        <v>321</v>
+      </c>
+      <c r="I12" t="s">
+        <v>318</v>
+      </c>
+      <c r="J12" t="s">
+        <v>139</v>
+      </c>
+      <c r="K12" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="E12" s="71" t="s">
-        <v>117</v>
-      </c>
-      <c r="F12" t="s">
-        <v>117</v>
-      </c>
-      <c r="G12" t="s">
-        <v>248</v>
-      </c>
-      <c r="H12" t="s">
-        <v>317</v>
-      </c>
-      <c r="I12" t="s">
-        <v>301</v>
-      </c>
-      <c r="J12" t="s">
-        <v>140</v>
-      </c>
-      <c r="K12" s="24" t="s">
-        <v>136</v>
-      </c>
       <c r="L12" s="24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M12" s="79" t="s">
+        <v>270</v>
+      </c>
+      <c r="N12" s="80" t="s">
         <v>271</v>
       </c>
-      <c r="N12" s="80" t="s">
-        <v>272</v>
-      </c>
       <c r="O12" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P12" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q12" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="R12" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="S12" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="T12" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="U12" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="V12" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="W12" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="X12" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Y12" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Z12" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AA12" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AB12" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AC12" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AD12" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AE12" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AF12" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AG12" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13" spans="1:33">
       <c r="A13" s="15" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B13" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="98" t="s">
+      <c r="C13" s="77" t="s">
         <v>41</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="102" t="s">
+        <v>134</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F13" t="s">
+        <v>116</v>
+      </c>
+      <c r="G13" t="s">
+        <v>247</v>
+      </c>
+      <c r="H13" t="s">
+        <v>322</v>
+      </c>
+      <c r="I13" t="s">
+        <v>318</v>
+      </c>
+      <c r="J13" t="s">
+        <v>139</v>
+      </c>
+      <c r="K13" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="E13" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="F13" t="s">
-        <v>117</v>
-      </c>
-      <c r="G13" t="s">
-        <v>248</v>
-      </c>
-      <c r="H13" t="s">
-        <v>318</v>
-      </c>
-      <c r="I13" t="s">
-        <v>301</v>
-      </c>
-      <c r="J13" t="s">
-        <v>140</v>
-      </c>
-      <c r="K13" s="24" t="s">
-        <v>136</v>
-      </c>
       <c r="L13" s="24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M13" s="79" t="s">
+        <v>270</v>
+      </c>
+      <c r="N13" s="80" t="s">
         <v>271</v>
       </c>
-      <c r="N13" s="80" t="s">
-        <v>272</v>
-      </c>
       <c r="O13" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P13" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q13" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="R13" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="S13" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="T13" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="U13" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="V13" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="W13" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="X13" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Y13" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Z13" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AA13" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AB13" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AC13" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AD13" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AE13" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AF13" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AG13" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14" spans="1:33">
@@ -9767,100 +9786,100 @@
         <v>21</v>
       </c>
       <c r="B14" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="C14" s="77" t="s">
         <v>145</v>
       </c>
-      <c r="C14" s="98" t="s">
-        <v>146</v>
-      </c>
       <c r="D14" t="s">
+        <v>134</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F14" t="s">
+        <v>116</v>
+      </c>
+      <c r="G14" t="s">
+        <v>247</v>
+      </c>
+      <c r="H14" t="s">
+        <v>323</v>
+      </c>
+      <c r="I14" t="s">
+        <v>318</v>
+      </c>
+      <c r="J14" t="s">
+        <v>139</v>
+      </c>
+      <c r="K14" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="E14" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="F14" t="s">
-        <v>117</v>
-      </c>
-      <c r="G14" t="s">
-        <v>248</v>
-      </c>
-      <c r="H14" t="s">
-        <v>267</v>
-      </c>
-      <c r="I14" t="s">
-        <v>301</v>
-      </c>
-      <c r="J14" t="s">
-        <v>140</v>
-      </c>
-      <c r="K14" s="24" t="s">
-        <v>136</v>
-      </c>
       <c r="L14" s="24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="M14" s="79" t="s">
+        <v>270</v>
+      </c>
+      <c r="N14" s="80" t="s">
         <v>271</v>
       </c>
-      <c r="N14" s="80" t="s">
-        <v>272</v>
-      </c>
       <c r="O14" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P14" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q14" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="R14" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="S14" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="T14" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="U14" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="V14" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="W14" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="X14" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Y14" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Z14" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AA14" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AB14" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AC14" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AD14" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AE14" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AF14" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AG14" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="15" spans="1:33">
@@ -9870,204 +9889,204 @@
       <c r="B15" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="C15" s="98" t="s">
-        <v>299</v>
+      <c r="C15" s="77" t="s">
+        <v>293</v>
       </c>
       <c r="D15" t="s">
+        <v>134</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F15" t="s">
+        <v>116</v>
+      </c>
+      <c r="G15" t="s">
+        <v>247</v>
+      </c>
+      <c r="H15" t="s">
+        <v>324</v>
+      </c>
+      <c r="I15" t="s">
+        <v>318</v>
+      </c>
+      <c r="J15" t="s">
+        <v>139</v>
+      </c>
+      <c r="K15" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="E15" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="F15" t="s">
-        <v>117</v>
-      </c>
-      <c r="G15" t="s">
+      <c r="L15" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="M15" s="79" t="s">
         <v>248</v>
       </c>
-      <c r="H15" t="s">
-        <v>319</v>
-      </c>
-      <c r="I15" t="s">
-        <v>301</v>
-      </c>
-      <c r="J15" t="s">
-        <v>140</v>
-      </c>
-      <c r="K15" s="24" t="s">
-        <v>136</v>
-      </c>
-      <c r="L15" s="24" t="s">
-        <v>136</v>
-      </c>
-      <c r="M15" s="79" t="s">
-        <v>249</v>
-      </c>
       <c r="N15" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O15" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P15" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q15" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="R15" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="S15" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="T15" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="U15" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="V15" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="W15" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="X15" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Y15" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Z15" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AA15" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AB15" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AC15" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AD15" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AE15" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AF15" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AG15" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="16" spans="1:33">
       <c r="A16" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="B16" s="105" t="s">
-        <v>332</v>
-      </c>
-      <c r="C16" s="98" t="s">
-        <v>334</v>
+      <c r="B16" s="97" t="s">
+        <v>314</v>
+      </c>
+      <c r="C16" s="94" t="s">
+        <v>316</v>
       </c>
       <c r="D16" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F16" t="s">
-        <v>117</v>
+        <v>310</v>
       </c>
       <c r="G16" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H16" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I16" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="J16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K16" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="L16" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="L16" s="24" t="s">
-        <v>136</v>
-      </c>
-      <c r="M16" s="96" t="s">
-        <v>330</v>
+      <c r="M16" s="93" t="s">
+        <v>312</v>
       </c>
       <c r="N16" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O16" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P16" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q16" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="R16" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="S16" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="T16" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="U16" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="V16" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="W16" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="X16" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Y16" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Z16" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AA16" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AB16" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AC16" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AD16" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AE16" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AF16" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AG16" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="17" spans="1:33">
       <c r="A17" s="15" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B17" s="18" t="s">
         <v>44</v>
@@ -10076,91 +10095,91 @@
         <v>45</v>
       </c>
       <c r="D17" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F17"/>
       <c r="G17"/>
       <c r="H17"/>
       <c r="I17"/>
       <c r="J17" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K17" s="24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L17" s="24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M17" s="79" t="s">
+        <v>270</v>
+      </c>
+      <c r="N17" s="80" t="s">
         <v>271</v>
       </c>
-      <c r="N17" s="80" t="s">
-        <v>272</v>
-      </c>
       <c r="O17" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P17" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q17" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="R17" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="S17" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="T17" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="U17" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="V17" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="W17" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="X17" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Y17" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Z17" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AA17" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AB17" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AC17" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AD17" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AE17" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AF17" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AG17" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="18" spans="1:33">
       <c r="A18" s="15" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B18" s="18" t="s">
         <v>46</v>
@@ -10169,86 +10188,86 @@
         <v>49</v>
       </c>
       <c r="D18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F18"/>
       <c r="G18"/>
       <c r="H18"/>
       <c r="I18"/>
       <c r="J18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K18" s="24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L18" s="24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M18" s="79" t="s">
+        <v>270</v>
+      </c>
+      <c r="N18" s="80" t="s">
         <v>271</v>
       </c>
-      <c r="N18" s="80" t="s">
-        <v>272</v>
-      </c>
       <c r="O18" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P18" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q18" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="R18" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="S18" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="T18" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="U18" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="V18" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="W18" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="X18" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Y18" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Z18" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AA18" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AB18" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AC18" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AD18" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AE18" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AF18" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AG18" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="19" spans="1:33">
@@ -10262,86 +10281,86 @@
         <v>106</v>
       </c>
       <c r="D19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F19"/>
       <c r="G19"/>
       <c r="H19"/>
       <c r="I19"/>
       <c r="J19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K19" s="24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L19" s="24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M19" s="79" t="s">
+        <v>270</v>
+      </c>
+      <c r="N19" s="80" t="s">
         <v>271</v>
       </c>
-      <c r="N19" s="80" t="s">
-        <v>272</v>
-      </c>
       <c r="O19" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P19" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q19" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="R19" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="S19" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="T19" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="U19" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="V19" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="W19" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="X19" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Y19" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Z19" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AA19" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AB19" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AC19" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AD19" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AE19" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AF19" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AG19" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="20" spans="1:33">
@@ -10351,68 +10370,68 @@
       <c r="B20" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="98" t="s">
+      <c r="C20" s="100" t="s">
         <v>60</v>
       </c>
       <c r="D20" t="s">
+        <v>134</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F20" t="s">
+        <v>325</v>
+      </c>
+      <c r="G20" t="s">
+        <v>246</v>
+      </c>
+      <c r="H20" t="s">
+        <v>326</v>
+      </c>
+      <c r="I20" t="s">
+        <v>318</v>
+      </c>
+      <c r="J20" t="s">
+        <v>139</v>
+      </c>
+      <c r="K20" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="E20" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="F20" t="s">
-        <v>117</v>
-      </c>
-      <c r="G20" t="s">
-        <v>248</v>
-      </c>
-      <c r="H20" t="s">
-        <v>320</v>
-      </c>
-      <c r="I20" t="s">
-        <v>301</v>
-      </c>
-      <c r="J20" t="s">
-        <v>140</v>
-      </c>
-      <c r="K20" s="24" t="s">
-        <v>136</v>
-      </c>
       <c r="L20" s="24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M20" s="79" t="s">
+        <v>270</v>
+      </c>
+      <c r="N20" s="80" t="s">
         <v>271</v>
       </c>
-      <c r="N20" s="80" t="s">
-        <v>272</v>
-      </c>
       <c r="O20" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P20" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q20" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="R20" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="S20" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="T20" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="U20" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="V20" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="W20" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="X20" t="s">
         <v>12</v>
@@ -10421,634 +10440,634 @@
         <v>13</v>
       </c>
       <c r="Z20" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AA20" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AB20" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AC20" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AD20" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AE20" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AF20" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AG20" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="21" spans="1:33">
       <c r="A21" s="15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B21" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="C21" s="100" t="s">
-        <v>114</v>
+      <c r="C21" s="103" t="s">
+        <v>329</v>
       </c>
       <c r="D21" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F21" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G21" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H21" t="s">
-        <v>294</v>
+        <v>327</v>
       </c>
       <c r="I21" t="s">
-        <v>297</v>
+        <v>318</v>
       </c>
       <c r="J21" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K21" s="24" t="s">
         <v>135</v>
       </c>
       <c r="L21" s="24" t="s">
-        <v>136</v>
-      </c>
-      <c r="M21" s="79" t="s">
+        <v>135</v>
+      </c>
+      <c r="M21" s="96" t="s">
+        <v>313</v>
+      </c>
+      <c r="N21" s="80" t="s">
         <v>271</v>
       </c>
-      <c r="N21" s="80" t="s">
-        <v>272</v>
-      </c>
       <c r="O21" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P21" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q21" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="R21" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="S21" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="T21" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="U21" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="V21" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="W21" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="X21" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Y21" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Z21" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AA21" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AB21" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AC21" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AD21" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AE21" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AF21" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AG21" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="22" spans="1:33">
       <c r="A22" s="15" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B22" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="C22" s="100" t="s">
+      <c r="C22" s="105" t="s">
         <v>58</v>
       </c>
       <c r="D22" t="s">
+        <v>134</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F22" t="s">
+        <v>116</v>
+      </c>
+      <c r="G22" t="s">
+        <v>247</v>
+      </c>
+      <c r="H22" t="s">
+        <v>288</v>
+      </c>
+      <c r="I22" t="s">
+        <v>318</v>
+      </c>
+      <c r="J22" t="s">
+        <v>139</v>
+      </c>
+      <c r="K22" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="L22" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="E22" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="F22" t="s">
-        <v>117</v>
-      </c>
-      <c r="G22" t="s">
-        <v>248</v>
-      </c>
-      <c r="H22" t="s">
-        <v>300</v>
-      </c>
-      <c r="I22" t="s">
-        <v>297</v>
-      </c>
-      <c r="J22" t="s">
-        <v>140</v>
-      </c>
-      <c r="K22" s="24" t="s">
-        <v>135</v>
-      </c>
-      <c r="L22" s="24" t="s">
-        <v>136</v>
-      </c>
       <c r="M22" s="79" t="s">
+        <v>270</v>
+      </c>
+      <c r="N22" s="80" t="s">
         <v>271</v>
       </c>
-      <c r="N22" s="80" t="s">
-        <v>272</v>
-      </c>
       <c r="O22" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P22" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q22" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="R22" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="S22" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="T22" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="U22" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="V22" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="W22" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="X22" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Y22" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Z22" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AA22" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AB22" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AC22" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AD22" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AE22" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AF22" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AG22" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="23" spans="1:33">
       <c r="A23" s="15" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="C23" s="100" t="s">
+        <v>123</v>
+      </c>
+      <c r="C23" s="105" t="s">
         <v>59</v>
       </c>
       <c r="D23" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F23" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G23" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H23" t="s">
         <v>289</v>
       </c>
       <c r="I23" t="s">
-        <v>291</v>
+        <v>318</v>
       </c>
       <c r="J23" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K23" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="L23" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="L23" s="24" t="s">
-        <v>136</v>
-      </c>
       <c r="M23" s="79" t="s">
+        <v>270</v>
+      </c>
+      <c r="N23" s="80" t="s">
         <v>271</v>
       </c>
-      <c r="N23" s="80" t="s">
-        <v>272</v>
-      </c>
       <c r="O23" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P23" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q23" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="R23" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="S23" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="T23" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="U23" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="V23" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="W23" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="X23" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Y23" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Z23" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AA23" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AB23" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AC23" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AD23" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AE23" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AF23" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AG23" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="24" spans="1:33">
       <c r="A24" s="15" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B24" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="C24" s="100" t="s">
+      <c r="C24" s="105" t="s">
         <v>113</v>
       </c>
       <c r="D24" t="s">
+        <v>134</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F24" t="s">
+        <v>116</v>
+      </c>
+      <c r="G24" t="s">
+        <v>247</v>
+      </c>
+      <c r="H24" t="s">
+        <v>258</v>
+      </c>
+      <c r="I24" t="s">
+        <v>318</v>
+      </c>
+      <c r="J24" t="s">
+        <v>139</v>
+      </c>
+      <c r="K24" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="L24" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="E24" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="F24" t="s">
-        <v>117</v>
-      </c>
-      <c r="G24" t="s">
-        <v>248</v>
-      </c>
-      <c r="H24" t="s">
-        <v>259</v>
-      </c>
-      <c r="I24" t="s">
-        <v>297</v>
-      </c>
-      <c r="J24" t="s">
-        <v>140</v>
-      </c>
-      <c r="K24" s="24" t="s">
-        <v>135</v>
-      </c>
-      <c r="L24" s="24" t="s">
-        <v>136</v>
-      </c>
       <c r="M24" s="79" t="s">
+        <v>270</v>
+      </c>
+      <c r="N24" s="80" t="s">
         <v>271</v>
       </c>
-      <c r="N24" s="80" t="s">
-        <v>272</v>
-      </c>
       <c r="O24" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P24" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q24" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="R24" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="S24" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="T24" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="U24" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="V24" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="W24" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="X24" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Y24" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Z24" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AA24" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AB24" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AC24" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AD24" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AE24" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AF24" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AG24" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="25" spans="1:33">
       <c r="A25" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="B25" s="86" t="s">
-        <v>213</v>
-      </c>
-      <c r="C25" s="101" t="s">
-        <v>201</v>
+      <c r="B25" s="97" t="s">
+        <v>212</v>
+      </c>
+      <c r="C25" s="95" t="s">
+        <v>200</v>
       </c>
       <c r="D25" t="s">
+        <v>134</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F25" t="s">
+        <v>328</v>
+      </c>
+      <c r="G25" t="s">
+        <v>246</v>
+      </c>
+      <c r="H25" t="s">
+        <v>304</v>
+      </c>
+      <c r="I25" t="s">
+        <v>318</v>
+      </c>
+      <c r="J25" t="s">
+        <v>139</v>
+      </c>
+      <c r="K25" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="L25" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="E25" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="F25" t="s">
-        <v>273</v>
-      </c>
-      <c r="G25" t="s">
-        <v>247</v>
-      </c>
-      <c r="H25" t="s">
-        <v>274</v>
-      </c>
-      <c r="I25" t="s">
-        <v>292</v>
-      </c>
-      <c r="J25" t="s">
-        <v>140</v>
-      </c>
-      <c r="K25" s="24" t="s">
-        <v>135</v>
-      </c>
-      <c r="L25" s="24" t="s">
-        <v>136</v>
-      </c>
       <c r="M25" s="79" t="s">
+        <v>270</v>
+      </c>
+      <c r="N25" s="80" t="s">
         <v>271</v>
       </c>
-      <c r="N25" s="80" t="s">
-        <v>272</v>
-      </c>
       <c r="O25" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P25" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q25" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="R25" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="S25" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="T25" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="U25" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="V25" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="W25" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="X25" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Y25" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Z25" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AA25" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AB25" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AC25" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AD25" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AE25" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AF25" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AG25" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="26" spans="1:33">
       <c r="A26" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="B26" s="86" t="s">
-        <v>212</v>
-      </c>
-      <c r="C26" s="101" t="s">
-        <v>202</v>
+      <c r="B26" s="97" t="s">
+        <v>211</v>
+      </c>
+      <c r="C26" s="95" t="s">
+        <v>201</v>
       </c>
       <c r="D26" t="s">
+        <v>134</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F26" t="s">
+        <v>272</v>
+      </c>
+      <c r="G26" t="s">
+        <v>246</v>
+      </c>
+      <c r="H26" t="s">
+        <v>273</v>
+      </c>
+      <c r="I26" t="s">
+        <v>318</v>
+      </c>
+      <c r="J26" t="s">
+        <v>139</v>
+      </c>
+      <c r="K26" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="L26" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="E26" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="F26" t="s">
-        <v>273</v>
-      </c>
-      <c r="G26" t="s">
-        <v>247</v>
-      </c>
-      <c r="H26" t="s">
-        <v>290</v>
-      </c>
-      <c r="I26" t="s">
-        <v>292</v>
-      </c>
-      <c r="J26" t="s">
-        <v>140</v>
-      </c>
-      <c r="K26" s="24" t="s">
-        <v>135</v>
-      </c>
-      <c r="L26" s="24" t="s">
-        <v>136</v>
-      </c>
       <c r="M26" s="79" t="s">
+        <v>270</v>
+      </c>
+      <c r="N26" s="80" t="s">
         <v>271</v>
       </c>
-      <c r="N26" s="80" t="s">
-        <v>272</v>
-      </c>
       <c r="O26" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P26" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q26" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="R26" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="S26" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="T26" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="U26" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="V26" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="W26" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="X26" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Y26" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Z26" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AA26" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AB26" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AC26" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AD26" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AE26" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AF26" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AG26" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="27" spans="1:33">
@@ -11056,100 +11075,100 @@
         <v>48</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>265</v>
-      </c>
-      <c r="C27" s="97" t="s">
-        <v>115</v>
+        <v>264</v>
+      </c>
+      <c r="C27" s="99" t="s">
+        <v>114</v>
       </c>
       <c r="D27" t="s">
+        <v>134</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F27" t="s">
+        <v>116</v>
+      </c>
+      <c r="G27" t="s">
+        <v>247</v>
+      </c>
+      <c r="H27" t="s">
+        <v>330</v>
+      </c>
+      <c r="I27" t="s">
+        <v>318</v>
+      </c>
+      <c r="J27" t="s">
+        <v>139</v>
+      </c>
+      <c r="K27" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="L27" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="E27" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="F27" t="s">
-        <v>117</v>
-      </c>
-      <c r="G27" t="s">
-        <v>248</v>
-      </c>
-      <c r="H27" t="s">
-        <v>257</v>
-      </c>
-      <c r="I27" t="s">
-        <v>301</v>
-      </c>
-      <c r="J27" t="s">
-        <v>140</v>
-      </c>
-      <c r="K27" s="24" t="s">
-        <v>135</v>
-      </c>
-      <c r="L27" s="24" t="s">
-        <v>136</v>
-      </c>
       <c r="M27" s="68" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N27" s="68" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O27" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P27" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q27" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="R27" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="S27" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="T27" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="U27" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="V27" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="W27" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="X27" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Y27" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Z27" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AA27" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AB27" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AC27" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AD27" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AE27" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AF27" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AG27" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="28" spans="1:33">
@@ -11157,201 +11176,201 @@
         <v>50</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>266</v>
-      </c>
-      <c r="C28" s="98" t="s">
+        <v>265</v>
+      </c>
+      <c r="C28" s="77" t="s">
+        <v>115</v>
+      </c>
+      <c r="D28" t="s">
+        <v>134</v>
+      </c>
+      <c r="E28" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="D28" t="s">
+      <c r="F28" t="s">
+        <v>116</v>
+      </c>
+      <c r="G28" t="s">
+        <v>247</v>
+      </c>
+      <c r="H28" t="s">
+        <v>331</v>
+      </c>
+      <c r="I28" t="s">
+        <v>318</v>
+      </c>
+      <c r="J28" t="s">
+        <v>139</v>
+      </c>
+      <c r="K28" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="L28" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="E28" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="F28" t="s">
-        <v>117</v>
-      </c>
-      <c r="G28" t="s">
-        <v>248</v>
-      </c>
-      <c r="H28" t="s">
-        <v>303</v>
-      </c>
-      <c r="I28" t="s">
-        <v>301</v>
-      </c>
-      <c r="J28" t="s">
-        <v>140</v>
-      </c>
-      <c r="K28" s="24" t="s">
-        <v>135</v>
-      </c>
-      <c r="L28" s="24" t="s">
-        <v>136</v>
-      </c>
       <c r="M28" s="65" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="N28" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O28" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P28" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q28" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="R28" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="S28" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="T28" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="U28" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="V28" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="W28" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="X28" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Y28" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Z28" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AA28" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AB28" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AC28" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AD28" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AE28" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AF28" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AG28" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="29" spans="1:33">
       <c r="A29" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="B29" s="86" t="s">
-        <v>215</v>
-      </c>
-      <c r="C29" s="98" t="s">
-        <v>229</v>
+      <c r="B29" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="C29" s="77" t="s">
+        <v>228</v>
       </c>
       <c r="D29" t="s">
-        <v>135</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>293</v>
+        <v>134</v>
+      </c>
+      <c r="E29" t="s">
+        <v>332</v>
       </c>
       <c r="F29" t="s">
-        <v>293</v>
+        <v>332</v>
       </c>
       <c r="G29" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H29" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="I29" t="s">
-        <v>301</v>
+        <v>318</v>
       </c>
       <c r="J29" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K29" s="24" t="s">
         <v>135</v>
       </c>
       <c r="L29" s="24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M29" s="79" t="s">
+        <v>270</v>
+      </c>
+      <c r="N29" s="80" t="s">
         <v>271</v>
       </c>
-      <c r="N29" s="80" t="s">
-        <v>272</v>
-      </c>
       <c r="O29" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P29" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q29" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="R29" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="S29" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="T29" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="U29" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="V29" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="W29" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="X29" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Y29" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Z29" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AA29" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AB29" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AC29" s="8" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="AD29" s="8" t="s">
-        <v>305</v>
+        <v>333</v>
       </c>
       <c r="AE29" s="8" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="AF29" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AG29" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="30" spans="1:33">
@@ -11359,114 +11378,114 @@
         <v>108</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="C30" s="98" t="s">
-        <v>295</v>
+        <v>118</v>
+      </c>
+      <c r="C30" s="77" t="s">
+        <v>290</v>
       </c>
       <c r="D30" t="s">
+        <v>134</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F30" t="s">
+        <v>116</v>
+      </c>
+      <c r="G30" t="s">
+        <v>247</v>
+      </c>
+      <c r="H30" t="s">
+        <v>334</v>
+      </c>
+      <c r="I30" t="s">
+        <v>318</v>
+      </c>
+      <c r="J30" t="s">
+        <v>139</v>
+      </c>
+      <c r="K30" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="L30" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="E30" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="F30" t="s">
-        <v>117</v>
-      </c>
-      <c r="G30" t="s">
+      <c r="M30" s="82" t="s">
         <v>248</v>
       </c>
-      <c r="H30" t="s">
-        <v>322</v>
-      </c>
-      <c r="I30" t="s">
-        <v>301</v>
-      </c>
-      <c r="J30" t="s">
-        <v>140</v>
-      </c>
-      <c r="K30" s="24" t="s">
-        <v>136</v>
-      </c>
-      <c r="L30" s="24" t="s">
-        <v>136</v>
-      </c>
-      <c r="M30" s="82" t="s">
-        <v>249</v>
-      </c>
       <c r="N30" s="83" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O30" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P30" s="19">
         <v>3</v>
       </c>
       <c r="Q30" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="R30" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="S30" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="T30" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="U30" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="V30" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="W30" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="X30" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Y30" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Z30" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AA30" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AB30" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AC30" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AD30" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AE30" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AF30" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AG30" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="31" spans="1:33">
       <c r="A31" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="B31" s="86" t="s">
-        <v>281</v>
+      <c r="B31" s="97" t="s">
+        <v>280</v>
       </c>
       <c r="C31" s="78" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="D31" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E31" s="6"/>
       <c r="F31"/>
@@ -11502,497 +11521,497 @@
       <c r="A32" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="B32" s="86" t="s">
-        <v>121</v>
-      </c>
-      <c r="C32" s="98" t="s">
-        <v>269</v>
+      <c r="B32" s="97" t="s">
+        <v>120</v>
+      </c>
+      <c r="C32" s="77" t="s">
+        <v>268</v>
       </c>
       <c r="D32" t="s">
+        <v>134</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F32" t="s">
+        <v>116</v>
+      </c>
+      <c r="G32" t="s">
+        <v>247</v>
+      </c>
+      <c r="H32" t="s">
+        <v>305</v>
+      </c>
+      <c r="I32" t="s">
+        <v>294</v>
+      </c>
+      <c r="J32" t="s">
+        <v>139</v>
+      </c>
+      <c r="K32" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="E32" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="F32" t="s">
-        <v>117</v>
-      </c>
-      <c r="G32" t="s">
+      <c r="L32" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="M32" s="79" t="s">
         <v>248</v>
       </c>
-      <c r="H32" t="s">
-        <v>320</v>
-      </c>
-      <c r="I32" t="s">
-        <v>301</v>
-      </c>
-      <c r="J32" t="s">
-        <v>140</v>
-      </c>
-      <c r="K32" s="24" t="s">
-        <v>136</v>
-      </c>
-      <c r="L32" s="24" t="s">
-        <v>136</v>
-      </c>
-      <c r="M32" s="79" t="s">
-        <v>249</v>
-      </c>
       <c r="N32" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O32" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P32" s="68" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q32" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="R32" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="S32" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="T32" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="U32" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="W32" s="10" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="X32" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Y32" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Z32" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AA32" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AB32" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AC32" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AD32" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AE32" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AF32" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AG32" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="33" spans="1:33">
       <c r="A33" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="B33" s="86" t="s">
-        <v>268</v>
-      </c>
-      <c r="C33" s="98" t="s">
-        <v>270</v>
+      <c r="B33" s="97" t="s">
+        <v>267</v>
+      </c>
+      <c r="C33" s="77" t="s">
+        <v>269</v>
       </c>
       <c r="D33" t="s">
+        <v>134</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F33" t="s">
+        <v>116</v>
+      </c>
+      <c r="G33" t="s">
+        <v>247</v>
+      </c>
+      <c r="H33" t="s">
+        <v>289</v>
+      </c>
+      <c r="I33" t="s">
+        <v>294</v>
+      </c>
+      <c r="J33" t="s">
+        <v>139</v>
+      </c>
+      <c r="K33" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="L33" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="E33" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="F33" t="s">
-        <v>117</v>
-      </c>
-      <c r="G33" t="s">
+      <c r="M33" s="79" t="s">
         <v>248</v>
       </c>
-      <c r="H33" t="s">
-        <v>294</v>
-      </c>
-      <c r="I33" t="s">
-        <v>301</v>
-      </c>
-      <c r="J33" t="s">
-        <v>140</v>
-      </c>
-      <c r="K33" s="24" t="s">
-        <v>135</v>
-      </c>
-      <c r="L33" s="24" t="s">
-        <v>136</v>
-      </c>
-      <c r="M33" s="79" t="s">
-        <v>249</v>
-      </c>
-      <c r="N33" s="89" t="s">
-        <v>203</v>
+      <c r="N33" s="87" t="s">
+        <v>202</v>
       </c>
       <c r="O33" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P33" s="68" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q33" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="R33" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="S33" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="T33" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="U33" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="W33" s="10" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="X33" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Y33" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Z33" s="68" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AA33" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AB33" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AC33" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AD33" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AE33" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AF33" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AG33" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="34" spans="1:33">
       <c r="A34" s="15" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B34" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C34" s="98" t="s">
+      <c r="C34" s="77" t="s">
         <v>30</v>
       </c>
       <c r="D34" t="s">
+        <v>134</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F34" t="s">
+        <v>116</v>
+      </c>
+      <c r="G34" t="s">
+        <v>247</v>
+      </c>
+      <c r="H34" t="s">
+        <v>335</v>
+      </c>
+      <c r="I34" t="s">
+        <v>318</v>
+      </c>
+      <c r="J34" t="s">
+        <v>139</v>
+      </c>
+      <c r="K34" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="E34" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="F34" t="s">
-        <v>117</v>
-      </c>
-      <c r="G34" t="s">
-        <v>248</v>
-      </c>
-      <c r="H34" t="s">
-        <v>323</v>
-      </c>
-      <c r="I34" t="s">
-        <v>301</v>
-      </c>
-      <c r="J34" t="s">
-        <v>140</v>
-      </c>
-      <c r="K34" s="24" t="s">
-        <v>136</v>
-      </c>
       <c r="L34" s="24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M34" s="79" t="s">
+        <v>270</v>
+      </c>
+      <c r="N34" s="80" t="s">
         <v>271</v>
       </c>
-      <c r="N34" s="80" t="s">
-        <v>272</v>
-      </c>
       <c r="O34" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P34" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q34" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="R34" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="S34" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="T34" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="U34" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="V34" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="W34" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="X34" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Y34" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Z34" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AA34" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AB34" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AC34" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AD34" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AE34" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AF34" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AG34" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="35" spans="1:33">
       <c r="A35" s="15" t="s">
-        <v>285</v>
-      </c>
-      <c r="B35" s="18" t="s">
+        <v>284</v>
+      </c>
+      <c r="B35" s="97" t="s">
         <v>52</v>
       </c>
-      <c r="C35" s="102" t="s">
-        <v>223</v>
+      <c r="C35" s="106" t="s">
+        <v>222</v>
       </c>
       <c r="D35" t="s">
+        <v>134</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F35" t="s">
+        <v>259</v>
+      </c>
+      <c r="G35" t="s">
+        <v>246</v>
+      </c>
+      <c r="H35" t="s">
+        <v>260</v>
+      </c>
+      <c r="I35" t="s">
+        <v>257</v>
+      </c>
+      <c r="J35" t="s">
+        <v>139</v>
+      </c>
+      <c r="K35" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="L35" s="24" t="s">
         <v>135</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="F35" t="s">
-        <v>260</v>
-      </c>
-      <c r="G35" t="s">
-        <v>247</v>
-      </c>
-      <c r="H35" t="s">
-        <v>261</v>
-      </c>
-      <c r="I35" t="s">
-        <v>258</v>
-      </c>
-      <c r="J35" t="s">
-        <v>140</v>
-      </c>
-      <c r="K35" s="24" t="s">
-        <v>135</v>
-      </c>
-      <c r="L35" s="24" t="s">
-        <v>136</v>
       </c>
       <c r="M35" s="65"/>
       <c r="N35" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O35" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P35" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q35" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="R35" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="S35" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="T35" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="U35" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="V35" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="W35" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="X35" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Y35" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Z35" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AA35" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AB35" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AC35" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AD35" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AE35" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AF35" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AG35" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="36" spans="1:33">
       <c r="A36" s="15" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B36" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="C36" s="77" t="s">
         <v>221</v>
       </c>
-      <c r="C36" s="97" t="s">
-        <v>222</v>
-      </c>
       <c r="D36" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F36" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G36" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H36" t="s">
-        <v>267</v>
+        <v>336</v>
       </c>
       <c r="I36" t="s">
-        <v>301</v>
+        <v>318</v>
       </c>
       <c r="J36" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K36" s="24" t="s">
         <v>135</v>
       </c>
       <c r="L36" s="24" t="s">
-        <v>136</v>
-      </c>
-      <c r="M36" s="82" t="s">
-        <v>249</v>
-      </c>
-      <c r="N36" s="91" t="s">
-        <v>203</v>
+        <v>135</v>
+      </c>
+      <c r="M36" s="96" t="s">
+        <v>313</v>
+      </c>
+      <c r="N36" s="80" t="s">
+        <v>271</v>
       </c>
       <c r="O36" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P36" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q36" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="R36" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="S36" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="T36" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="U36" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="V36" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="W36" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="X36" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Y36" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Z36" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AA36" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AB36" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AC36" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AD36" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AE36" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AF36" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AG36" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="37" spans="1:33">
@@ -12000,49 +12019,49 @@
         <v>57</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="C37" s="103" t="s">
+        <v>124</v>
+      </c>
+      <c r="C37" s="105" t="s">
         <v>51</v>
       </c>
       <c r="D37" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F37" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G37" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H37" t="s">
-        <v>307</v>
+        <v>337</v>
       </c>
       <c r="I37" t="s">
-        <v>301</v>
-      </c>
-      <c r="J37" s="90" t="s">
+        <v>318</v>
+      </c>
+      <c r="J37" s="88" t="s">
         <v>54</v>
       </c>
       <c r="K37" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L37" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M37" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N37" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O37" s="82" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="P37" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q37" s="84">
         <v>34998713322</v>
@@ -12051,609 +12070,609 @@
         <v>3</v>
       </c>
       <c r="S37" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="T37" s="90" t="s">
+        <v>202</v>
+      </c>
+      <c r="T37" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="U37" s="90" t="s">
+      <c r="U37" s="88" t="s">
         <v>5</v>
       </c>
       <c r="V37" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="W37" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="X37" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Y37" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Z37" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AA37" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AB37" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AC37" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AD37" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AE37" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AF37" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AG37" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="38" spans="1:33">
       <c r="A38" s="15" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="B38" s="86" t="s">
         <v>61</v>
       </c>
-      <c r="C38" s="98" t="s">
+      <c r="C38" s="94" t="s">
         <v>62</v>
       </c>
       <c r="D38" t="s">
+        <v>134</v>
+      </c>
+      <c r="E38" s="71" t="s">
+        <v>116</v>
+      </c>
+      <c r="F38" t="s">
+        <v>116</v>
+      </c>
+      <c r="G38" t="s">
+        <v>247</v>
+      </c>
+      <c r="H38" t="s">
+        <v>292</v>
+      </c>
+      <c r="I38" t="s">
+        <v>294</v>
+      </c>
+      <c r="J38" t="s">
+        <v>139</v>
+      </c>
+      <c r="K38" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="E38" s="71" t="s">
-        <v>117</v>
-      </c>
-      <c r="F38" t="s">
-        <v>117</v>
-      </c>
-      <c r="G38" t="s">
-        <v>248</v>
-      </c>
-      <c r="H38" t="s">
-        <v>298</v>
-      </c>
-      <c r="I38" t="s">
-        <v>301</v>
-      </c>
-      <c r="J38" t="s">
-        <v>140</v>
-      </c>
-      <c r="K38" s="24" t="s">
-        <v>136</v>
-      </c>
       <c r="L38" s="24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M38" s="79" t="s">
+        <v>270</v>
+      </c>
+      <c r="N38" s="80" t="s">
         <v>271</v>
       </c>
-      <c r="N38" s="80" t="s">
-        <v>272</v>
-      </c>
       <c r="O38" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P38" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q38" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="R38" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="S38" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="T38" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="U38" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="V38" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="W38" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="X38" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Y38" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Z38" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AA38" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="AB38" s="94" t="s">
-        <v>311</v>
+        <v>137</v>
+      </c>
+      <c r="AB38" s="75" t="s">
+        <v>312</v>
       </c>
       <c r="AC38" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AD38" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AE38" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AF38" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AG38" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="39" spans="1:33">
       <c r="A39" s="15" t="s">
-        <v>200</v>
-      </c>
-      <c r="B39" s="93" t="s">
+        <v>199</v>
+      </c>
+      <c r="B39" s="90" t="s">
         <v>63</v>
       </c>
-      <c r="C39" s="98" t="s">
+      <c r="C39" s="94" t="s">
         <v>64</v>
       </c>
       <c r="D39" t="s">
+        <v>134</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F39" t="s">
+        <v>308</v>
+      </c>
+      <c r="G39" t="s">
+        <v>246</v>
+      </c>
+      <c r="H39" t="s">
+        <v>338</v>
+      </c>
+      <c r="I39" t="s">
+        <v>318</v>
+      </c>
+      <c r="J39" t="s">
+        <v>139</v>
+      </c>
+      <c r="K39" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="E39" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="F39" t="s">
-        <v>324</v>
-      </c>
-      <c r="G39" t="s">
-        <v>247</v>
-      </c>
-      <c r="H39" t="s">
-        <v>325</v>
-      </c>
-      <c r="I39" t="s">
-        <v>301</v>
-      </c>
-      <c r="J39" t="s">
-        <v>140</v>
-      </c>
-      <c r="K39" s="24" t="s">
-        <v>136</v>
-      </c>
       <c r="L39" s="24" t="s">
-        <v>136</v>
-      </c>
-      <c r="M39" s="94" t="s">
-        <v>311</v>
-      </c>
-      <c r="N39" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="M39" s="93" t="s">
         <v>312</v>
       </c>
+      <c r="N39" s="80" t="s">
+        <v>271</v>
+      </c>
       <c r="O39" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P39" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q39" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="R39" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="S39" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="T39" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="U39" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="V39" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="W39" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="X39" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Y39" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Z39" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AA39" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AB39" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AC39" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AD39" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AE39" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AF39" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AG39" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="40" spans="1:33">
       <c r="A40" s="15" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B40" s="86" t="s">
+        <v>121</v>
+      </c>
+      <c r="C40" s="81" t="s">
         <v>122</v>
       </c>
-      <c r="C40" s="81" t="s">
-        <v>123</v>
-      </c>
       <c r="D40" t="s">
+        <v>134</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F40" t="s">
+        <v>297</v>
+      </c>
+      <c r="G40" t="s">
+        <v>246</v>
+      </c>
+      <c r="H40" t="s">
+        <v>299</v>
+      </c>
+      <c r="I40" t="s">
+        <v>294</v>
+      </c>
+      <c r="J40" t="s">
+        <v>139</v>
+      </c>
+      <c r="K40" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="E40" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="F40" t="s">
-        <v>308</v>
-      </c>
-      <c r="G40" t="s">
-        <v>247</v>
-      </c>
-      <c r="H40" t="s">
-        <v>310</v>
-      </c>
-      <c r="I40" t="s">
-        <v>301</v>
-      </c>
-      <c r="J40" t="s">
-        <v>140</v>
-      </c>
-      <c r="K40" s="24" t="s">
-        <v>136</v>
-      </c>
       <c r="L40" s="24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M40" s="79" t="s">
+        <v>270</v>
+      </c>
+      <c r="N40" s="80" t="s">
         <v>271</v>
       </c>
-      <c r="N40" s="80" t="s">
-        <v>272</v>
-      </c>
       <c r="O40" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P40" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q40" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="R40" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="S40" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="T40" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="U40" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="V40" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="W40" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="X40" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Y40" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Z40" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AA40" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AB40" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AC40" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AD40" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AE40" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AF40" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AG40" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="41" spans="1:33">
       <c r="A41" s="15" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B41" s="18" t="s">
         <v>94</v>
       </c>
       <c r="C41" s="81" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D41" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F41" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G41" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H41" t="s">
+        <v>256</v>
+      </c>
+      <c r="I41" t="s">
         <v>257</v>
-      </c>
-      <c r="I41" t="s">
-        <v>258</v>
       </c>
       <c r="J41" t="s">
         <v>54</v>
       </c>
       <c r="K41" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L41" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M41" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N41" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O41" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P41" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q41" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="R41" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="S41" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="T41" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="U41" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="V41" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="W41" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="X41" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Y41" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Z41" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AA41" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AB41" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AC41" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AD41" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AE41" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AF41" s="19" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AG41" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="42" spans="1:33">
       <c r="A42" s="15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B42" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C42" s="98" t="s">
-        <v>209</v>
+      <c r="C42" s="94" t="s">
+        <v>208</v>
       </c>
       <c r="D42" t="s">
+        <v>134</v>
+      </c>
+      <c r="E42" s="67" t="s">
+        <v>213</v>
+      </c>
+      <c r="F42" t="s">
+        <v>213</v>
+      </c>
+      <c r="G42" t="s">
+        <v>247</v>
+      </c>
+      <c r="H42" t="s">
+        <v>307</v>
+      </c>
+      <c r="I42" t="s">
+        <v>294</v>
+      </c>
+      <c r="J42" t="s">
+        <v>139</v>
+      </c>
+      <c r="K42" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="E42" s="67" t="s">
-        <v>214</v>
-      </c>
-      <c r="F42" t="s">
-        <v>214</v>
-      </c>
-      <c r="G42" t="s">
-        <v>248</v>
-      </c>
-      <c r="H42" t="s">
-        <v>323</v>
-      </c>
-      <c r="I42" t="s">
-        <v>301</v>
-      </c>
-      <c r="J42" t="s">
-        <v>140</v>
-      </c>
-      <c r="K42" s="24" t="s">
-        <v>136</v>
-      </c>
       <c r="L42" s="24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M42" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N42" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O42" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P42" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q42" s="32"/>
       <c r="R42" t="s">
         <v>3</v>
       </c>
       <c r="S42" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="T42" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="U42" t="s">
         <v>5</v>
       </c>
       <c r="V42" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="W42" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="X42" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Y42" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Z42" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AA42" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AB42" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AC42" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AD42" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AE42" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AF42" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AG42" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="43" spans="1:33">
       <c r="A43" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B43" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C43" s="98" t="s">
-        <v>208</v>
+      <c r="C43" s="94" t="s">
+        <v>207</v>
       </c>
       <c r="D43" t="s">
+        <v>134</v>
+      </c>
+      <c r="E43" s="66" t="s">
+        <v>181</v>
+      </c>
+      <c r="F43" t="s">
+        <v>181</v>
+      </c>
+      <c r="G43" t="s">
+        <v>247</v>
+      </c>
+      <c r="H43" t="s">
+        <v>249</v>
+      </c>
+      <c r="I43" t="s">
+        <v>294</v>
+      </c>
+      <c r="J43" t="s">
+        <v>139</v>
+      </c>
+      <c r="K43" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="E43" s="66" t="s">
-        <v>182</v>
-      </c>
-      <c r="F43" t="s">
-        <v>182</v>
-      </c>
-      <c r="G43" t="s">
-        <v>248</v>
-      </c>
-      <c r="H43" t="s">
-        <v>250</v>
-      </c>
-      <c r="I43" t="s">
-        <v>301</v>
-      </c>
-      <c r="J43" t="s">
-        <v>140</v>
-      </c>
-      <c r="K43" s="24" t="s">
-        <v>136</v>
-      </c>
       <c r="L43" s="24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M43" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N43" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O43" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P43" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q43" s="32"/>
       <c r="R43" t="s">
         <v>3</v>
       </c>
       <c r="S43" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="T43" t="s">
         <v>4</v>
@@ -12662,97 +12681,97 @@
         <v>5</v>
       </c>
       <c r="V43" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="W43" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="X43" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Y43" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Z43" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AA43" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AB43" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AC43" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AD43" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AE43" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AF43" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AG43" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="44" spans="1:33">
       <c r="A44" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="B44" s="92" t="s">
+        <v>119</v>
+      </c>
+      <c r="B44" s="89" t="s">
+        <v>254</v>
+      </c>
+      <c r="C44" s="94" t="s">
+        <v>209</v>
+      </c>
+      <c r="D44" t="s">
+        <v>134</v>
+      </c>
+      <c r="E44" t="s">
         <v>255</v>
       </c>
-      <c r="C44" s="98" t="s">
-        <v>210</v>
-      </c>
-      <c r="D44" t="s">
+      <c r="F44" t="s">
+        <v>255</v>
+      </c>
+      <c r="G44" t="s">
+        <v>247</v>
+      </c>
+      <c r="H44" t="s">
+        <v>309</v>
+      </c>
+      <c r="I44" t="s">
+        <v>294</v>
+      </c>
+      <c r="J44" t="s">
+        <v>139</v>
+      </c>
+      <c r="K44" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="E44" t="s">
-        <v>256</v>
-      </c>
-      <c r="F44" t="s">
-        <v>256</v>
-      </c>
-      <c r="G44" t="s">
-        <v>248</v>
-      </c>
-      <c r="H44" t="s">
-        <v>325</v>
-      </c>
-      <c r="I44" t="s">
-        <v>301</v>
-      </c>
-      <c r="J44" t="s">
-        <v>140</v>
-      </c>
-      <c r="K44" s="24" t="s">
-        <v>136</v>
-      </c>
       <c r="L44" s="24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M44" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N44" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O44" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P44" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q44" s="32"/>
       <c r="R44" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="S44" s="80" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="T44" t="s">
         <v>4</v>
@@ -12761,97 +12780,97 @@
         <v>5</v>
       </c>
       <c r="V44" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="W44" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="X44" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Y44" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Z44" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AA44" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AB44" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AC44" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AD44" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AE44" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AF44" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AG44" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="45" spans="1:33">
       <c r="A45" s="15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B45" s="18" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C45" s="81" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D45" t="s">
+        <v>134</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F45" t="s">
+        <v>252</v>
+      </c>
+      <c r="G45" t="s">
+        <v>246</v>
+      </c>
+      <c r="H45" t="s">
+        <v>249</v>
+      </c>
+      <c r="I45" t="s">
+        <v>250</v>
+      </c>
+      <c r="J45" t="s">
+        <v>139</v>
+      </c>
+      <c r="K45" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="L45" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="E45" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="F45" t="s">
-        <v>253</v>
-      </c>
-      <c r="G45" t="s">
-        <v>247</v>
-      </c>
-      <c r="H45" t="s">
-        <v>250</v>
-      </c>
-      <c r="I45" t="s">
-        <v>251</v>
-      </c>
-      <c r="J45" t="s">
-        <v>140</v>
-      </c>
-      <c r="K45" s="24" t="s">
-        <v>135</v>
-      </c>
-      <c r="L45" s="24" t="s">
-        <v>136</v>
-      </c>
       <c r="M45" s="79" t="s">
+        <v>270</v>
+      </c>
+      <c r="N45" s="80" t="s">
         <v>271</v>
       </c>
-      <c r="N45" s="80" t="s">
-        <v>272</v>
-      </c>
       <c r="O45" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P45" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q45" s="32"/>
       <c r="R45" t="s">
         <v>3</v>
       </c>
       <c r="S45" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="T45" t="s">
         <v>4</v>
@@ -12860,89 +12879,89 @@
         <v>5</v>
       </c>
       <c r="V45" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="W45" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="X45" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Y45" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Z45" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AA45" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AB45" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AC45" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AD45" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AE45" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AF45" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AG45" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="46" spans="1:33">
       <c r="A46" s="15" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B46" s="18" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C46" s="81" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D46" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F46"/>
       <c r="G46"/>
       <c r="H46"/>
       <c r="I46"/>
       <c r="J46" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K46" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="L46" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="L46" s="24" t="s">
-        <v>136</v>
-      </c>
       <c r="M46" s="79" t="s">
+        <v>270</v>
+      </c>
+      <c r="N46" s="80" t="s">
         <v>271</v>
       </c>
-      <c r="N46" s="80" t="s">
-        <v>272</v>
-      </c>
       <c r="O46" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P46" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q46" s="32"/>
       <c r="R46" t="s">
         <v>3</v>
       </c>
       <c r="S46" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="T46" t="s">
         <v>4</v>
@@ -12951,40 +12970,40 @@
         <v>5</v>
       </c>
       <c r="V46" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="W46" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="X46" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Y46" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Z46" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AA46" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AB46" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AC46" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AD46" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AE46" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AF46" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AG46" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="47" spans="1:33">
@@ -13000,57 +13019,57 @@
       <c r="J47" s="22"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
-      <c r="M47" s="111" t="s">
-        <v>157</v>
-      </c>
-      <c r="N47" s="111"/>
-      <c r="O47" s="112" t="s">
-        <v>195</v>
-      </c>
-      <c r="P47" s="112"/>
-      <c r="Q47" s="112"/>
-      <c r="R47" s="112"/>
-      <c r="S47" s="112"/>
-      <c r="T47" s="112"/>
-      <c r="U47" s="112"/>
-      <c r="V47" s="114" t="s">
+      <c r="M47" s="110" t="s">
+        <v>156</v>
+      </c>
+      <c r="N47" s="110"/>
+      <c r="O47" s="111" t="s">
+        <v>194</v>
+      </c>
+      <c r="P47" s="111"/>
+      <c r="Q47" s="111"/>
+      <c r="R47" s="111"/>
+      <c r="S47" s="111"/>
+      <c r="T47" s="111"/>
+      <c r="U47" s="111"/>
+      <c r="V47" s="113" t="s">
         <v>53</v>
       </c>
-      <c r="W47" s="114"/>
-      <c r="X47" s="110" t="s">
+      <c r="W47" s="113"/>
+      <c r="X47" s="109" t="s">
         <v>14</v>
       </c>
-      <c r="Y47" s="110"/>
-      <c r="Z47" s="113" t="s">
+      <c r="Y47" s="109"/>
+      <c r="Z47" s="112" t="s">
         <v>16</v>
       </c>
-      <c r="AA47" s="113"/>
+      <c r="AA47" s="112"/>
       <c r="AB47" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="AC47" s="115" t="s">
-        <v>218</v>
-      </c>
-      <c r="AD47" s="116"/>
-      <c r="AE47" s="117"/>
-      <c r="AF47" s="108" t="s">
-        <v>155</v>
-      </c>
-      <c r="AG47" s="109"/>
+      <c r="AC47" s="114" t="s">
+        <v>217</v>
+      </c>
+      <c r="AD47" s="115"/>
+      <c r="AE47" s="116"/>
+      <c r="AF47" s="107" t="s">
+        <v>154</v>
+      </c>
+      <c r="AG47" s="108"/>
     </row>
     <row r="49" spans="2:35">
-      <c r="B49" s="87" t="s">
-        <v>199</v>
-      </c>
-      <c r="C49" s="88"/>
+      <c r="B49" s="104" t="s">
+        <v>198</v>
+      </c>
+      <c r="C49" s="78"/>
       <c r="AI49" s="42"/>
     </row>
     <row r="50" spans="2:35">
       <c r="B50" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="C50" s="75" t="s">
         <v>262</v>
-      </c>
-      <c r="C50" s="75" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="51" spans="2:35" ht="18">
@@ -13061,19 +13080,19 @@
     </row>
     <row r="53" spans="2:35">
       <c r="C53" s="75" t="s">
-        <v>330</v>
+        <v>312</v>
       </c>
       <c r="D53" s="31" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="54" spans="2:35">
       <c r="B54" s="65"/>
-      <c r="C54" s="95" t="s">
-        <v>331</v>
+      <c r="C54" s="92" t="s">
+        <v>313</v>
       </c>
       <c r="D54" s="31" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="62" spans="2:35" ht="18">
@@ -13091,896 +13110,904 @@
     <mergeCell ref="AC47:AE47"/>
   </mergeCells>
   <conditionalFormatting sqref="I8 F10:H10 F12:H15 F5:H6 F45:H45 F43:H43 G42:I42 F26:H27 G8:H15 F36:I41 F30:I34 F17:H24">
-    <cfRule type="containsText" dxfId="684" priority="2078" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="686" priority="2080" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",F5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="683" priority="2079" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="685" priority="2081" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",F5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I34">
-    <cfRule type="containsText" dxfId="682" priority="2070" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="684" priority="2072" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",I34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="681" priority="2071" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="683" priority="2073" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",I34)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="containsText" dxfId="680" priority="2062" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="682" priority="2064" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",I5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="679" priority="2063" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="681" priority="2065" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",I5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="containsText" dxfId="678" priority="2054" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="680" priority="2056" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",I6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="677" priority="2055" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="679" priority="2057" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",I6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="containsText" dxfId="676" priority="2050" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="678" priority="2052" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",I9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="675" priority="2051" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="677" priority="2053" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",I9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="containsText" dxfId="674" priority="2042" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="676" priority="2044" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",I10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="673" priority="2043" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="675" priority="2045" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",I10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11:I12">
-    <cfRule type="containsText" dxfId="672" priority="2034" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="674" priority="2036" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",I11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="671" priority="2035" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="673" priority="2037" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",I11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13">
-    <cfRule type="containsText" dxfId="670" priority="2030" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="672" priority="2032" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",I13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="669" priority="2031" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="671" priority="2033" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",I13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I14">
-    <cfRule type="containsText" dxfId="668" priority="2026" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="670" priority="2028" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",I14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="667" priority="2027" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="669" priority="2029" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",I14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I36">
-    <cfRule type="containsText" dxfId="666" priority="2022" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="668" priority="2024" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",I36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="665" priority="2023" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="667" priority="2025" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",I36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I18">
-    <cfRule type="containsText" dxfId="664" priority="2018" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="666" priority="2020" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",I18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="663" priority="2019" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="665" priority="2021" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",I18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I17">
-    <cfRule type="containsText" dxfId="662" priority="2014" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="664" priority="2016" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",I17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="661" priority="2015" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="663" priority="2017" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",I17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20">
-    <cfRule type="containsText" dxfId="660" priority="2010" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="662" priority="2012" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",I20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="659" priority="2011" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="661" priority="2013" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",I20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I21">
-    <cfRule type="containsText" dxfId="658" priority="2004" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="660" priority="2006" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",I21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="657" priority="2005" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="659" priority="2007" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",I21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I22">
-    <cfRule type="containsText" dxfId="656" priority="2000" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="658" priority="2002" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",I22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="655" priority="2001" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="657" priority="2003" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",I22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I23">
-    <cfRule type="containsText" dxfId="654" priority="1996" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="656" priority="1998" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",I23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="653" priority="1997" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="655" priority="1999" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",I23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I37">
-    <cfRule type="containsText" dxfId="652" priority="1992" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="654" priority="1994" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",I37)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="651" priority="1993" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="653" priority="1995" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",I37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I38">
-    <cfRule type="containsText" dxfId="650" priority="1984" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="652" priority="1986" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",I38)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="649" priority="1985" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="651" priority="1987" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",I38)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I41">
-    <cfRule type="containsText" dxfId="648" priority="1976" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="650" priority="1978" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",I41)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="647" priority="1977" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="649" priority="1979" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",I41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I39">
-    <cfRule type="containsText" dxfId="646" priority="1972" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="648" priority="1974" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",I39)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="645" priority="1973" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="647" priority="1975" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",I39)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15">
-    <cfRule type="containsText" dxfId="644" priority="1968" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="646" priority="1970" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",I15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="643" priority="1969" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="645" priority="1971" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",I15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I19">
-    <cfRule type="containsText" dxfId="642" priority="1964" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="644" priority="1966" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",I19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="641" priority="1965" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="643" priority="1967" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",I19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I24">
-    <cfRule type="containsText" dxfId="640" priority="1960" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="642" priority="1962" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",I24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="639" priority="1961" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="641" priority="1963" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",I24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I27">
-    <cfRule type="containsText" dxfId="638" priority="1956" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="640" priority="1958" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",I27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="637" priority="1957" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="639" priority="1959" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",I27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I26">
-    <cfRule type="containsText" dxfId="636" priority="1952" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="638" priority="1954" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",I26)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="635" priority="1953" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="637" priority="1955" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",I26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I30:I31">
-    <cfRule type="containsText" dxfId="634" priority="1948" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="636" priority="1950" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",I30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="633" priority="1949" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="635" priority="1951" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",I30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I32:I33">
-    <cfRule type="containsText" dxfId="632" priority="1944" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="634" priority="1946" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",I32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="631" priority="1945" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="633" priority="1947" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",I32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I40">
-    <cfRule type="containsText" dxfId="630" priority="1940" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="632" priority="1942" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",I40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="629" priority="1941" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="631" priority="1943" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",I40)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I45">
-    <cfRule type="containsText" dxfId="628" priority="1932" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="630" priority="1934" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",I45)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="627" priority="1933" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="629" priority="1935" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",I45)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I43">
-    <cfRule type="containsText" dxfId="626" priority="1904" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="628" priority="1906" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",I43)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="625" priority="1905" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="627" priority="1907" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",I43)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8:L15 K5:L6 K38:L39 K43:L43 L26:L27 L36 L30:L34 D20:D30 L17:L24 K17:K19">
-    <cfRule type="containsText" dxfId="624" priority="1896" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="626" priority="1898" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="623" priority="1897" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="625" priority="1899" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L45">
-    <cfRule type="containsText" dxfId="622" priority="1880" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="624" priority="1882" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",L45)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="621" priority="1881" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="623" priority="1883" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",L45)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K26:K27">
+    <cfRule type="containsText" dxfId="622" priority="1794" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",K26)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="621" priority="1795" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",K26)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K45">
     <cfRule type="containsText" dxfId="620" priority="1792" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",K26)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Sim",K45)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="619" priority="1793" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",K26)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K45">
-    <cfRule type="containsText" dxfId="618" priority="1790" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",K45)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="617" priority="1791" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",K45)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8:J9 J5:J6 J26:J27 J36 J11:J15 J30:J34 J17:J24">
-    <cfRule type="containsText" dxfId="616" priority="1783" operator="containsText" text="Android">
+    <cfRule type="containsText" dxfId="618" priority="1785" operator="containsText" text="Android">
       <formula>NOT(ISERROR(SEARCH("Android",J5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8:J9 J5:J6 J26:J27 J36 J11:J15 J30:J34 J17:J24">
-    <cfRule type="containsText" dxfId="615" priority="1781" operator="containsText" text="Web">
+    <cfRule type="containsText" dxfId="617" priority="1783" operator="containsText" text="Web">
       <formula>NOT(ISERROR(SEARCH("Web",J5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="614" priority="1782" operator="containsText" text="iOS">
+    <cfRule type="containsText" dxfId="616" priority="1784" operator="containsText" text="iOS">
       <formula>NOT(ISERROR(SEARCH("iOS",J5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J38">
-    <cfRule type="containsText" dxfId="613" priority="1774" operator="containsText" text="Android">
+    <cfRule type="containsText" dxfId="615" priority="1776" operator="containsText" text="Android">
       <formula>NOT(ISERROR(SEARCH("Android",J38)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J38">
-    <cfRule type="containsText" dxfId="612" priority="1772" operator="containsText" text="Web">
+    <cfRule type="containsText" dxfId="614" priority="1774" operator="containsText" text="Web">
       <formula>NOT(ISERROR(SEARCH("Web",J38)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="611" priority="1773" operator="containsText" text="iOS">
+    <cfRule type="containsText" dxfId="613" priority="1775" operator="containsText" text="iOS">
       <formula>NOT(ISERROR(SEARCH("iOS",J38)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J39">
-    <cfRule type="containsText" dxfId="610" priority="1771" operator="containsText" text="Android">
+    <cfRule type="containsText" dxfId="612" priority="1773" operator="containsText" text="Android">
       <formula>NOT(ISERROR(SEARCH("Android",J39)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J39">
-    <cfRule type="containsText" dxfId="609" priority="1769" operator="containsText" text="Web">
+    <cfRule type="containsText" dxfId="611" priority="1771" operator="containsText" text="Web">
       <formula>NOT(ISERROR(SEARCH("Web",J39)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="608" priority="1770" operator="containsText" text="iOS">
+    <cfRule type="containsText" dxfId="610" priority="1772" operator="containsText" text="iOS">
       <formula>NOT(ISERROR(SEARCH("iOS",J39)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J45">
-    <cfRule type="containsText" dxfId="607" priority="1759" operator="containsText" text="Android">
+    <cfRule type="containsText" dxfId="609" priority="1761" operator="containsText" text="Android">
       <formula>NOT(ISERROR(SEARCH("Android",J45)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J45">
-    <cfRule type="containsText" dxfId="606" priority="1757" operator="containsText" text="Web">
+    <cfRule type="containsText" dxfId="608" priority="1759" operator="containsText" text="Web">
       <formula>NOT(ISERROR(SEARCH("Web",J45)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="605" priority="1758" operator="containsText" text="iOS">
+    <cfRule type="containsText" dxfId="607" priority="1760" operator="containsText" text="iOS">
       <formula>NOT(ISERROR(SEARCH("iOS",J45)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J43">
-    <cfRule type="containsText" dxfId="604" priority="1756" operator="containsText" text="Android">
+    <cfRule type="containsText" dxfId="606" priority="1758" operator="containsText" text="Android">
       <formula>NOT(ISERROR(SEARCH("Android",J43)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J43">
-    <cfRule type="containsText" dxfId="603" priority="1754" operator="containsText" text="Web">
+    <cfRule type="containsText" dxfId="605" priority="1756" operator="containsText" text="Web">
       <formula>NOT(ISERROR(SEARCH("Web",J43)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="602" priority="1755" operator="containsText" text="iOS">
+    <cfRule type="containsText" dxfId="604" priority="1757" operator="containsText" text="iOS">
       <formula>NOT(ISERROR(SEARCH("iOS",J43)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J37">
-    <cfRule type="containsText" dxfId="601" priority="1753" operator="containsText" text="Android">
+    <cfRule type="containsText" dxfId="603" priority="1755" operator="containsText" text="Android">
       <formula>NOT(ISERROR(SEARCH("Android",J37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J37">
-    <cfRule type="containsText" dxfId="600" priority="1751" operator="containsText" text="Web">
+    <cfRule type="containsText" dxfId="602" priority="1753" operator="containsText" text="Web">
       <formula>NOT(ISERROR(SEARCH("Web",J37)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="599" priority="1752" operator="containsText" text="iOS">
+    <cfRule type="containsText" dxfId="601" priority="1754" operator="containsText" text="iOS">
       <formula>NOT(ISERROR(SEARCH("iOS",J37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J41">
-    <cfRule type="containsText" dxfId="598" priority="1747" operator="containsText" text="Android">
+    <cfRule type="containsText" dxfId="600" priority="1749" operator="containsText" text="Android">
       <formula>NOT(ISERROR(SEARCH("Android",J41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J41">
-    <cfRule type="containsText" dxfId="597" priority="1745" operator="containsText" text="Web">
+    <cfRule type="containsText" dxfId="599" priority="1747" operator="containsText" text="Web">
       <formula>NOT(ISERROR(SEARCH("Web",J41)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="596" priority="1746" operator="containsText" text="iOS">
+    <cfRule type="containsText" dxfId="598" priority="1748" operator="containsText" text="iOS">
       <formula>NOT(ISERROR(SEARCH("iOS",J41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
+    <cfRule type="containsText" dxfId="597" priority="1741" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",I12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="596" priority="1742" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",I12)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13">
     <cfRule type="containsText" dxfId="595" priority="1739" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",I12)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Passed",I13)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="594" priority="1740" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",I12)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13">
-    <cfRule type="containsText" dxfId="593" priority="1737" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",I13)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="592" priority="1738" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",I13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K32:K33">
+    <cfRule type="containsText" dxfId="593" priority="1737" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",K32)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="592" priority="1738" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",K32)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K30:K31">
     <cfRule type="containsText" dxfId="591" priority="1735" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",K32)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Sim",K30)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="590" priority="1736" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",K32)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K30:K31">
-    <cfRule type="containsText" dxfId="589" priority="1733" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",K30)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="588" priority="1734" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",K30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J40">
-    <cfRule type="containsText" dxfId="587" priority="1732" operator="containsText" text="Android">
+    <cfRule type="containsText" dxfId="589" priority="1734" operator="containsText" text="Android">
       <formula>NOT(ISERROR(SEARCH("Android",J40)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J40">
-    <cfRule type="containsText" dxfId="586" priority="1730" operator="containsText" text="Web">
+    <cfRule type="containsText" dxfId="588" priority="1732" operator="containsText" text="Web">
       <formula>NOT(ISERROR(SEARCH("Web",J40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="585" priority="1731" operator="containsText" text="iOS">
+    <cfRule type="containsText" dxfId="587" priority="1733" operator="containsText" text="iOS">
       <formula>NOT(ISERROR(SEARCH("iOS",J40)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L40">
-    <cfRule type="containsText" dxfId="584" priority="1726" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="586" priority="1728" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",L40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="583" priority="1727" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="585" priority="1729" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",L40)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K40">
-    <cfRule type="containsText" dxfId="582" priority="1636" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="584" priority="1638" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",K40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="581" priority="1637" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="583" priority="1639" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",K40)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H42">
+    <cfRule type="containsText" dxfId="582" priority="1634" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",H42)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="581" priority="1635" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",H42)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I42">
     <cfRule type="containsText" dxfId="580" priority="1632" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",H42)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Passed",I42)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="579" priority="1633" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",H42)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I42">
-    <cfRule type="containsText" dxfId="578" priority="1630" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",I42)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="577" priority="1631" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",I42)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L42">
+    <cfRule type="containsText" dxfId="578" priority="1630" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",L42)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="577" priority="1631" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",L42)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K42">
     <cfRule type="containsText" dxfId="576" priority="1628" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",L42)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Sim",K42)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="575" priority="1629" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",L42)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K42">
-    <cfRule type="containsText" dxfId="574" priority="1626" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",K42)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="573" priority="1627" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",K42)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J42">
-    <cfRule type="containsText" dxfId="572" priority="1625" operator="containsText" text="Android">
+    <cfRule type="containsText" dxfId="574" priority="1627" operator="containsText" text="Android">
       <formula>NOT(ISERROR(SEARCH("Android",J42)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J42">
-    <cfRule type="containsText" dxfId="571" priority="1623" operator="containsText" text="Web">
+    <cfRule type="containsText" dxfId="573" priority="1625" operator="containsText" text="Web">
       <formula>NOT(ISERROR(SEARCH("Web",J42)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="570" priority="1624" operator="containsText" text="iOS">
+    <cfRule type="containsText" dxfId="572" priority="1626" operator="containsText" text="iOS">
       <formula>NOT(ISERROR(SEARCH("iOS",J42)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G42">
-    <cfRule type="containsText" dxfId="569" priority="1602" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="571" priority="1604" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",G42)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="568" priority="1603" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="570" priority="1605" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",G42)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7:H7">
-    <cfRule type="containsText" dxfId="567" priority="1589" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="569" priority="1591" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",G7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="566" priority="1590" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="568" priority="1592" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",G7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7 I7">
-    <cfRule type="containsText" dxfId="565" priority="1585" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="567" priority="1587" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",F7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="564" priority="1586" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="566" priority="1588" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",F7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K7:L7">
-    <cfRule type="containsText" dxfId="563" priority="1583" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="565" priority="1585" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",K7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="562" priority="1584" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="564" priority="1586" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",K7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7">
-    <cfRule type="containsText" dxfId="561" priority="1582" operator="containsText" text="Android">
+    <cfRule type="containsText" dxfId="563" priority="1584" operator="containsText" text="Android">
       <formula>NOT(ISERROR(SEARCH("Android",J7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7">
-    <cfRule type="containsText" dxfId="560" priority="1580" operator="containsText" text="Web">
+    <cfRule type="containsText" dxfId="562" priority="1582" operator="containsText" text="Web">
       <formula>NOT(ISERROR(SEARCH("Web",J7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="559" priority="1581" operator="containsText" text="iOS">
+    <cfRule type="containsText" dxfId="561" priority="1583" operator="containsText" text="iOS">
       <formula>NOT(ISERROR(SEARCH("iOS",J7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:H3">
+    <cfRule type="containsText" dxfId="560" priority="1570" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",F3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="559" priority="1571" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",F3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3">
     <cfRule type="containsText" dxfId="558" priority="1568" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",F3)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Passed",I3)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="557" priority="1569" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",F3)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I3">
-    <cfRule type="containsText" dxfId="556" priority="1566" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",I3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="555" priority="1567" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",I3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:L3">
-    <cfRule type="containsText" dxfId="554" priority="1564" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="556" priority="1566" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",K3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="553" priority="1565" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="555" priority="1567" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",K3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3">
-    <cfRule type="containsText" dxfId="552" priority="1563" operator="containsText" text="Android">
+    <cfRule type="containsText" dxfId="554" priority="1565" operator="containsText" text="Android">
       <formula>NOT(ISERROR(SEARCH("Android",J3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3">
-    <cfRule type="containsText" dxfId="551" priority="1561" operator="containsText" text="Web">
+    <cfRule type="containsText" dxfId="553" priority="1563" operator="containsText" text="Web">
       <formula>NOT(ISERROR(SEARCH("Web",J3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="550" priority="1562" operator="containsText" text="iOS">
+    <cfRule type="containsText" dxfId="552" priority="1564" operator="containsText" text="iOS">
       <formula>NOT(ISERROR(SEARCH("iOS",J3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F28:H28">
+    <cfRule type="containsText" dxfId="551" priority="1559" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",F28)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="550" priority="1560" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",F28)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I28">
     <cfRule type="containsText" dxfId="549" priority="1557" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",F28)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Passed",I28)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="548" priority="1558" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",F28)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I28">
-    <cfRule type="containsText" dxfId="547" priority="1555" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",I28)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="546" priority="1556" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",I28)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L28">
+    <cfRule type="containsText" dxfId="547" priority="1555" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",L28)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="546" priority="1556" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",L28)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K28">
     <cfRule type="containsText" dxfId="545" priority="1553" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",L28)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Sim",K28)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="544" priority="1554" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",L28)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K28">
-    <cfRule type="containsText" dxfId="543" priority="1551" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",K28)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="542" priority="1552" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",K28)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J28">
-    <cfRule type="containsText" dxfId="541" priority="1550" operator="containsText" text="Android">
+    <cfRule type="containsText" dxfId="543" priority="1552" operator="containsText" text="Android">
       <formula>NOT(ISERROR(SEARCH("Android",J28)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J28">
-    <cfRule type="containsText" dxfId="540" priority="1548" operator="containsText" text="Web">
+    <cfRule type="containsText" dxfId="542" priority="1550" operator="containsText" text="Web">
       <formula>NOT(ISERROR(SEARCH("Web",J28)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="539" priority="1549" operator="containsText" text="iOS">
+    <cfRule type="containsText" dxfId="541" priority="1551" operator="containsText" text="iOS">
       <formula>NOT(ISERROR(SEARCH("iOS",J28)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25:H25">
+    <cfRule type="containsText" dxfId="540" priority="1548" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",F25)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="539" priority="1549" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",F25)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I25">
     <cfRule type="containsText" dxfId="538" priority="1546" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",F25)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Passed",I25)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="537" priority="1547" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",F25)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I25">
-    <cfRule type="containsText" dxfId="536" priority="1544" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",I25)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="535" priority="1545" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",I25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L25">
+    <cfRule type="containsText" dxfId="536" priority="1544" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",L25)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="535" priority="1545" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",L25)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K25">
     <cfRule type="containsText" dxfId="534" priority="1542" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",L25)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Sim",K25)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="533" priority="1543" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",L25)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K25">
-    <cfRule type="containsText" dxfId="532" priority="1540" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",K25)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="531" priority="1541" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",K25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J25">
-    <cfRule type="containsText" dxfId="530" priority="1539" operator="containsText" text="Android">
+    <cfRule type="containsText" dxfId="532" priority="1541" operator="containsText" text="Android">
       <formula>NOT(ISERROR(SEARCH("Android",J25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J25">
-    <cfRule type="containsText" dxfId="529" priority="1537" operator="containsText" text="Web">
+    <cfRule type="containsText" dxfId="531" priority="1539" operator="containsText" text="Web">
       <formula>NOT(ISERROR(SEARCH("Web",J25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="528" priority="1538" operator="containsText" text="iOS">
+    <cfRule type="containsText" dxfId="530" priority="1540" operator="containsText" text="iOS">
       <formula>NOT(ISERROR(SEARCH("iOS",J25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K20">
+    <cfRule type="containsText" dxfId="529" priority="1531" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",K20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="528" priority="1532" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",K20)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K21">
     <cfRule type="containsText" dxfId="527" priority="1529" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",K20)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Sim",K21)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="526" priority="1530" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",K20)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K21">
-    <cfRule type="containsText" dxfId="525" priority="1527" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",K21)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="524" priority="1528" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",K21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F44:H44">
+    <cfRule type="containsText" dxfId="525" priority="1527" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",F44)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="524" priority="1528" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",F44)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I44">
     <cfRule type="containsText" dxfId="523" priority="1525" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",F44)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Passed",I44)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="522" priority="1526" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",F44)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I44">
-    <cfRule type="containsText" dxfId="521" priority="1523" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",I44)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="520" priority="1524" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",I44)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L44">
+    <cfRule type="containsText" dxfId="521" priority="1521" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",L44)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="520" priority="1522" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",L44)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K44">
     <cfRule type="containsText" dxfId="519" priority="1519" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",L44)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Sim",K44)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="518" priority="1520" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",L44)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K44">
-    <cfRule type="containsText" dxfId="517" priority="1517" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",K44)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="516" priority="1518" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",K44)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J44">
-    <cfRule type="containsText" dxfId="515" priority="1516" operator="containsText" text="Android">
+    <cfRule type="containsText" dxfId="517" priority="1518" operator="containsText" text="Android">
       <formula>NOT(ISERROR(SEARCH("Android",J44)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J44">
-    <cfRule type="containsText" dxfId="514" priority="1514" operator="containsText" text="Web">
+    <cfRule type="containsText" dxfId="516" priority="1516" operator="containsText" text="Web">
       <formula>NOT(ISERROR(SEARCH("Web",J44)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="513" priority="1515" operator="containsText" text="iOS">
+    <cfRule type="containsText" dxfId="515" priority="1517" operator="containsText" text="iOS">
       <formula>NOT(ISERROR(SEARCH("iOS",J44)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G41">
-    <cfRule type="containsText" dxfId="512" priority="1479" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="514" priority="1481" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",G41)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="511" priority="1480" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="513" priority="1482" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",G41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E44">
-    <cfRule type="containsText" dxfId="510" priority="1473" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="512" priority="1475" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",E44)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="509" priority="1474" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="511" priority="1476" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",E44)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K34">
-    <cfRule type="containsText" dxfId="508" priority="1471" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="510" priority="1473" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",K34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="507" priority="1472" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="509" priority="1474" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",K34)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K24">
+    <cfRule type="containsText" dxfId="508" priority="1413" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",K24)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="507" priority="1414" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",K24)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K23">
     <cfRule type="containsText" dxfId="506" priority="1411" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",K24)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Sim",K23)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="505" priority="1412" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",K24)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K23">
+      <formula>NOT(ISERROR(SEARCH("Não",K23)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K22">
     <cfRule type="containsText" dxfId="504" priority="1409" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",K23)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Sim",K22)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="503" priority="1410" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",K23)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K22">
-    <cfRule type="containsText" dxfId="502" priority="1407" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",K22)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="501" priority="1408" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",K22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29:H29">
+    <cfRule type="containsText" dxfId="502" priority="1407" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",F29)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="501" priority="1408" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",F29)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I29">
     <cfRule type="containsText" dxfId="500" priority="1405" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",F29)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Passed",I29)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="499" priority="1406" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",F29)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I29">
-    <cfRule type="containsText" dxfId="498" priority="1403" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",I29)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="497" priority="1404" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",I29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L29">
+    <cfRule type="containsText" dxfId="498" priority="1403" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",L29)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="497" priority="1404" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",L29)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K29">
     <cfRule type="containsText" dxfId="496" priority="1401" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",L29)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Sim",K29)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="495" priority="1402" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",L29)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K29">
-    <cfRule type="containsText" dxfId="494" priority="1399" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",K29)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="493" priority="1400" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",K29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J29">
-    <cfRule type="containsText" dxfId="492" priority="1398" operator="containsText" text="Android">
+    <cfRule type="containsText" dxfId="494" priority="1400" operator="containsText" text="Android">
       <formula>NOT(ISERROR(SEARCH("Android",J29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J29">
-    <cfRule type="containsText" dxfId="491" priority="1396" operator="containsText" text="Web">
+    <cfRule type="containsText" dxfId="493" priority="1398" operator="containsText" text="Web">
       <formula>NOT(ISERROR(SEARCH("Web",J29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="490" priority="1397" operator="containsText" text="iOS">
+    <cfRule type="containsText" dxfId="492" priority="1399" operator="containsText" text="iOS">
       <formula>NOT(ISERROR(SEARCH("iOS",J29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F35:I35">
+    <cfRule type="containsText" dxfId="491" priority="1382" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",F35)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="490" priority="1383" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",F35)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I35">
     <cfRule type="containsText" dxfId="489" priority="1380" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",F35)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Passed",I35)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="488" priority="1381" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",F35)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I35">
-    <cfRule type="containsText" dxfId="487" priority="1378" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",I35)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="486" priority="1379" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",I35)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L35">
-    <cfRule type="containsText" dxfId="485" priority="1376" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="487" priority="1378" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",L35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="484" priority="1377" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="486" priority="1379" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",L35)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J35">
-    <cfRule type="containsText" dxfId="483" priority="1375" operator="containsText" text="Android">
+    <cfRule type="containsText" dxfId="485" priority="1377" operator="containsText" text="Android">
       <formula>NOT(ISERROR(SEARCH("Android",J35)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J35">
-    <cfRule type="containsText" dxfId="482" priority="1373" operator="containsText" text="Web">
+    <cfRule type="containsText" dxfId="484" priority="1375" operator="containsText" text="Web">
       <formula>NOT(ISERROR(SEARCH("Web",J35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="481" priority="1374" operator="containsText" text="iOS">
+    <cfRule type="containsText" dxfId="483" priority="1376" operator="containsText" text="iOS">
       <formula>NOT(ISERROR(SEARCH("iOS",J35)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K36">
-    <cfRule type="containsText" dxfId="480" priority="1365" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="482" priority="1367" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",K36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="479" priority="1366" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="481" priority="1368" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",K36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F46:H46">
+    <cfRule type="containsText" dxfId="480" priority="1361" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",F46)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="479" priority="1362" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",F46)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I46">
     <cfRule type="containsText" dxfId="478" priority="1359" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",F46)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Passed",I46)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="477" priority="1360" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",F46)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I46">
-    <cfRule type="containsText" dxfId="476" priority="1357" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",I46)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="475" priority="1358" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",I46)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L46">
+    <cfRule type="containsText" dxfId="476" priority="1355" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",L46)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="475" priority="1356" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",L46)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K46">
     <cfRule type="containsText" dxfId="474" priority="1353" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",L46)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Sim",K46)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="473" priority="1354" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",L46)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K46">
-    <cfRule type="containsText" dxfId="472" priority="1351" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",K46)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="471" priority="1352" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",K46)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J46">
-    <cfRule type="containsText" dxfId="470" priority="1350" operator="containsText" text="Android">
+    <cfRule type="containsText" dxfId="472" priority="1352" operator="containsText" text="Android">
       <formula>NOT(ISERROR(SEARCH("Android",J46)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J46">
-    <cfRule type="containsText" dxfId="469" priority="1348" operator="containsText" text="Web">
+    <cfRule type="containsText" dxfId="471" priority="1350" operator="containsText" text="Web">
       <formula>NOT(ISERROR(SEARCH("Web",J46)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="468" priority="1349" operator="containsText" text="iOS">
+    <cfRule type="containsText" dxfId="470" priority="1351" operator="containsText" text="iOS">
       <formula>NOT(ISERROR(SEARCH("iOS",J46)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K35">
-    <cfRule type="containsText" dxfId="467" priority="1330" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="469" priority="1332" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",K35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="466" priority="1331" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="468" priority="1333" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",K35)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D31:D46 D3 D5:D15">
+    <cfRule type="containsText" dxfId="467" priority="923" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="466" priority="924" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31:D46 D3 D5:D15">
@@ -14192,10 +14219,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31:D46 D3 D5:D15">
-    <cfRule type="containsText" dxfId="413" priority="869" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="413" priority="651" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="412" priority="870" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="412" priority="652" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14407,65 +14434,65 @@
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D31:D46 D3 D5:D15">
-    <cfRule type="containsText" dxfId="359" priority="597" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="358" priority="598" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="H2">
+    <cfRule type="containsText" dxfId="359" priority="595" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",H2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="358" priority="596" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",H2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2">
     <cfRule type="containsText" dxfId="357" priority="593" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",H2)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Passed",I2)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="356" priority="594" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",H2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I2">
-    <cfRule type="containsText" dxfId="355" priority="591" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",I2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="354" priority="592" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",I2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2">
-    <cfRule type="containsText" dxfId="353" priority="589" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="355" priority="591" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",L2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="352" priority="590" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="354" priority="592" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",L2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2">
-    <cfRule type="containsText" dxfId="351" priority="588" operator="containsText" text="Android">
+    <cfRule type="containsText" dxfId="353" priority="590" operator="containsText" text="Android">
       <formula>NOT(ISERROR(SEARCH("Android",J2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2">
-    <cfRule type="containsText" dxfId="350" priority="586" operator="containsText" text="Web">
+    <cfRule type="containsText" dxfId="352" priority="588" operator="containsText" text="Web">
       <formula>NOT(ISERROR(SEARCH("Web",J2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="349" priority="587" operator="containsText" text="iOS">
+    <cfRule type="containsText" dxfId="351" priority="589" operator="containsText" text="iOS">
       <formula>NOT(ISERROR(SEARCH("iOS",J2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2">
-    <cfRule type="containsText" dxfId="348" priority="584" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="350" priority="586" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",G2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="347" priority="585" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="349" priority="587" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",G2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2">
+    <cfRule type="containsText" dxfId="348" priority="584" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",K2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="347" priority="585" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",K2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2">
     <cfRule type="containsText" dxfId="346" priority="582" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",K2)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Sim",D2)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="345" priority="583" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",K2)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Não",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
@@ -14676,12 +14703,12 @@
       <formula>NOT(ISERROR(SEARCH("Não",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2">
-    <cfRule type="containsText" dxfId="292" priority="528" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="291" priority="529" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D2)))</formula>
+  <conditionalFormatting sqref="D17:D19">
+    <cfRule type="containsText" dxfId="292" priority="411" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",D17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="291" priority="412" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",D17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:D19">
@@ -14892,62 +14919,62 @@
       <formula>NOT(ISERROR(SEARCH("Não",D17)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D17:D19">
-    <cfRule type="containsText" dxfId="238" priority="357" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D17)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="237" priority="358" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D17)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="J10">
-    <cfRule type="containsText" dxfId="236" priority="356" operator="containsText" text="Android">
+    <cfRule type="containsText" dxfId="238" priority="358" operator="containsText" text="Android">
       <formula>NOT(ISERROR(SEARCH("Android",J10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J10">
-    <cfRule type="containsText" dxfId="235" priority="354" operator="containsText" text="Web">
+    <cfRule type="containsText" dxfId="237" priority="356" operator="containsText" text="Web">
       <formula>NOT(ISERROR(SEARCH("Web",J10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="234" priority="355" operator="containsText" text="iOS">
+    <cfRule type="containsText" dxfId="236" priority="357" operator="containsText" text="iOS">
       <formula>NOT(ISERROR(SEARCH("iOS",J10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:H4">
+    <cfRule type="containsText" dxfId="235" priority="235" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",F4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="234" priority="236" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",F4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I4">
     <cfRule type="containsText" dxfId="233" priority="233" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",F4)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Passed",I4)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="232" priority="234" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",F4)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I4">
-    <cfRule type="containsText" dxfId="231" priority="231" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",I4)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="230" priority="232" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",I4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:L4">
-    <cfRule type="containsText" dxfId="229" priority="229" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="231" priority="231" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",K4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="228" priority="230" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="230" priority="232" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",K4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4">
-    <cfRule type="containsText" dxfId="227" priority="228" operator="containsText" text="Android">
+    <cfRule type="containsText" dxfId="229" priority="230" operator="containsText" text="Android">
       <formula>NOT(ISERROR(SEARCH("Android",J4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4">
-    <cfRule type="containsText" dxfId="226" priority="226" operator="containsText" text="Web">
+    <cfRule type="containsText" dxfId="228" priority="228" operator="containsText" text="Web">
       <formula>NOT(ISERROR(SEARCH("Web",J4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="225" priority="227" operator="containsText" text="iOS">
+    <cfRule type="containsText" dxfId="227" priority="229" operator="containsText" text="iOS">
       <formula>NOT(ISERROR(SEARCH("iOS",J4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4">
+    <cfRule type="containsText" dxfId="226" priority="226" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="225" priority="227" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
@@ -15374,49 +15401,49 @@
       <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="118" priority="118" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="117" priority="119" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="F16:H16">
+    <cfRule type="containsText" dxfId="118" priority="118" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",F16)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="117" priority="119" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",F16)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I16">
     <cfRule type="containsText" dxfId="116" priority="116" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",F16)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Passed",I16)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="115" priority="117" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",F16)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I16">
-    <cfRule type="containsText" dxfId="114" priority="114" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",I16)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="113" priority="115" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",I16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K16:L16">
-    <cfRule type="containsText" dxfId="112" priority="112" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="114" priority="114" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",K16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="111" priority="113" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="113" priority="115" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",K16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J16">
-    <cfRule type="containsText" dxfId="110" priority="111" operator="containsText" text="Android">
+    <cfRule type="containsText" dxfId="112" priority="113" operator="containsText" text="Android">
       <formula>NOT(ISERROR(SEARCH("Android",J16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J16">
-    <cfRule type="containsText" dxfId="109" priority="109" operator="containsText" text="Web">
+    <cfRule type="containsText" dxfId="111" priority="111" operator="containsText" text="Web">
       <formula>NOT(ISERROR(SEARCH("Web",J16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="108" priority="110" operator="containsText" text="iOS">
+    <cfRule type="containsText" dxfId="110" priority="112" operator="containsText" text="iOS">
       <formula>NOT(ISERROR(SEARCH("iOS",J16)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16">
+    <cfRule type="containsText" dxfId="109" priority="109" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",D16)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="108" priority="110" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",D16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
@@ -15843,12 +15870,12 @@
       <formula>NOT(ISERROR(SEARCH("Não",D16)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D16">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D16)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D16)))</formula>
+  <conditionalFormatting sqref="E29">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",E29)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",E29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
@@ -15863,11 +15890,11 @@
     <hyperlink ref="R37" r:id="rId1" display="michael-net@hotmail.com"/>
     <hyperlink ref="M28" r:id="rId2"/>
     <hyperlink ref="O37" r:id="rId3"/>
-    <hyperlink ref="AB38" r:id="rId4"/>
-    <hyperlink ref="R7" r:id="rId5"/>
-    <hyperlink ref="M39" r:id="rId6"/>
-    <hyperlink ref="C54" r:id="rId7"/>
-    <hyperlink ref="M3" r:id="rId8"/>
+    <hyperlink ref="R7" r:id="rId4"/>
+    <hyperlink ref="C54" r:id="rId5"/>
+    <hyperlink ref="M3" r:id="rId6"/>
+    <hyperlink ref="M21" r:id="rId7"/>
+    <hyperlink ref="M36" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
@@ -15918,16 +15945,16 @@
       <c r="B2" s="44"/>
       <c r="C2" s="44"/>
       <c r="D2" s="45" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E2" s="43"/>
       <c r="F2" s="43"/>
       <c r="G2" s="43"/>
-      <c r="H2" s="119"/>
-      <c r="I2" s="119"/>
-      <c r="J2" s="119"/>
-      <c r="K2" s="119"/>
-      <c r="L2" s="119"/>
+      <c r="H2" s="118"/>
+      <c r="I2" s="118"/>
+      <c r="J2" s="118"/>
+      <c r="K2" s="118"/>
+      <c r="L2" s="118"/>
       <c r="M2" s="46"/>
     </row>
     <row r="3" spans="1:13" ht="7.5" customHeight="1">
@@ -15947,21 +15974,21 @@
     </row>
     <row r="4" spans="1:13" s="63" customFormat="1" ht="26.25" customHeight="1">
       <c r="A4" s="62"/>
-      <c r="B4" s="120" t="s">
+      <c r="B4" s="119" t="s">
+        <v>170</v>
+      </c>
+      <c r="C4" s="119"/>
+      <c r="D4" s="119"/>
+      <c r="E4" s="119"/>
+      <c r="F4" s="119"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="119" t="s">
         <v>171</v>
       </c>
-      <c r="C4" s="120"/>
-      <c r="D4" s="120"/>
-      <c r="E4" s="120"/>
-      <c r="F4" s="120"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="120" t="s">
-        <v>172</v>
-      </c>
-      <c r="I4" s="120"/>
-      <c r="J4" s="120"/>
-      <c r="K4" s="120"/>
-      <c r="L4" s="120"/>
+      <c r="I4" s="119"/>
+      <c r="J4" s="119"/>
+      <c r="K4" s="119"/>
+      <c r="L4" s="119"/>
       <c r="M4" s="62"/>
     </row>
     <row r="5" spans="1:13" ht="15">
@@ -15981,12 +16008,12 @@
     </row>
     <row r="6" spans="1:13" ht="30" customHeight="1">
       <c r="A6" s="46"/>
-      <c r="B6" s="122" t="s">
-        <v>188</v>
-      </c>
-      <c r="C6" s="121"/>
-      <c r="D6" s="121"/>
-      <c r="E6" s="121"/>
+      <c r="B6" s="121" t="s">
+        <v>187</v>
+      </c>
+      <c r="C6" s="120"/>
+      <c r="D6" s="120"/>
+      <c r="E6" s="120"/>
       <c r="F6" s="53">
         <f>(J11+K11)/I11</f>
         <v>0.90697674418604646</v>
@@ -15994,31 +16021,31 @@
       <c r="G6" s="46"/>
       <c r="H6" s="40"/>
       <c r="I6" s="49" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J6" s="49" t="s">
+        <v>172</v>
+      </c>
+      <c r="K6" s="49" t="s">
         <v>173</v>
       </c>
-      <c r="K6" s="49" t="s">
+      <c r="L6" s="49" t="s">
         <v>174</v>
-      </c>
-      <c r="L6" s="49" t="s">
-        <v>175</v>
       </c>
       <c r="M6" s="46"/>
     </row>
     <row r="7" spans="1:13" ht="25.5">
       <c r="A7" s="46"/>
-      <c r="B7" s="122"/>
-      <c r="C7" s="121"/>
-      <c r="D7" s="121"/>
-      <c r="E7" s="121"/>
+      <c r="B7" s="121"/>
+      <c r="C7" s="120"/>
+      <c r="D7" s="120"/>
+      <c r="E7" s="120"/>
       <c r="F7" s="54" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G7" s="46"/>
       <c r="H7" s="50" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I7" s="41">
         <f>COUNTIF(Testes!J3:J46,"Android")</f>
@@ -16043,13 +16070,13 @@
         <f>COUNTIF(Testes!A3:A46,"&lt;&gt;"&amp;"")</f>
         <v>44</v>
       </c>
-      <c r="C8" s="121"/>
-      <c r="D8" s="121"/>
-      <c r="E8" s="121"/>
+      <c r="C8" s="120"/>
+      <c r="D8" s="120"/>
+      <c r="E8" s="120"/>
       <c r="F8" s="56"/>
       <c r="G8" s="46"/>
       <c r="H8" s="50" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I8" s="41">
         <f>COUNTIF(Testes!J3:J46,"iOS")</f>
@@ -16071,9 +16098,9 @@
     <row r="9" spans="1:13" ht="23.25">
       <c r="A9" s="46"/>
       <c r="B9" s="57"/>
-      <c r="C9" s="121"/>
-      <c r="D9" s="121"/>
-      <c r="E9" s="121"/>
+      <c r="C9" s="120"/>
+      <c r="D9" s="120"/>
+      <c r="E9" s="120"/>
       <c r="F9" s="58">
         <f>SUM(Testes!H3:H46)</f>
         <v>0</v>
@@ -16114,8 +16141,8 @@
         <f>K11</f>
         <v>8</v>
       </c>
-      <c r="F10" s="118" t="s">
-        <v>189</v>
+      <c r="F10" s="117" t="s">
+        <v>188</v>
       </c>
       <c r="G10" s="47"/>
       <c r="H10" s="51"/>
@@ -16129,18 +16156,18 @@
       <c r="A11" s="47"/>
       <c r="B11" s="57"/>
       <c r="C11" s="59" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D11" s="59" t="s">
+        <v>172</v>
+      </c>
+      <c r="E11" s="59" t="s">
         <v>173</v>
       </c>
-      <c r="E11" s="59" t="s">
-        <v>174</v>
-      </c>
-      <c r="F11" s="118"/>
+      <c r="F11" s="117"/>
       <c r="G11" s="47"/>
       <c r="H11" s="41" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I11" s="41">
         <f>SUM(I7:I9)</f>
@@ -16246,13 +16273,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="35" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B1" s="34" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C1" s="34" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -16260,10 +16287,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -16271,10 +16298,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -16282,10 +16309,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -16293,10 +16320,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -16304,10 +16331,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -16315,23 +16342,23 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="36" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="36" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -16339,10 +16366,10 @@
     </row>
     <row r="11" spans="1:3" ht="30">
       <c r="A11" s="38" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B11" s="37" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -16350,15 +16377,15 @@
         <v>43</v>
       </c>
       <c r="B13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -16366,7 +16393,7 @@
         <v>65</v>
       </c>
       <c r="B15" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -16374,7 +16401,7 @@
         <v>66</v>
       </c>
       <c r="B16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -16430,7 +16457,7 @@
         <v>98</v>
       </c>
       <c r="D1" s="23" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>2</v>
@@ -16448,7 +16475,7 @@
         <v>70</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>71</v>
@@ -16489,22 +16516,22 @@
     </row>
     <row r="2" spans="1:22">
       <c r="A2" s="33" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B2" s="25" t="s">
         <v>96</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E2" s="27" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F2" s="32" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G2" s="28" t="s">
         <v>83</v>
@@ -16516,10 +16543,10 @@
         <v>84</v>
       </c>
       <c r="J2" s="28" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K2" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L2" s="10" t="s">
         <v>85</v>
@@ -16537,10 +16564,10 @@
         <v>89</v>
       </c>
       <c r="Q2" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="R2" s="10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="S2" s="10" t="s">
         <v>90</v>
@@ -16557,40 +16584,40 @@
     </row>
     <row r="3" spans="1:22">
       <c r="A3" s="33" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D3" s="26" t="s">
+        <v>231</v>
+      </c>
+      <c r="E3" s="27" t="s">
         <v>232</v>
       </c>
-      <c r="E3" s="27" t="s">
-        <v>233</v>
-      </c>
       <c r="F3" s="32" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G3" s="28" t="s">
         <v>83</v>
       </c>
       <c r="H3" s="28" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I3" s="28" t="s">
         <v>84</v>
       </c>
       <c r="J3" s="28" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K3" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L3" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M3" s="6" t="s">
         <v>86</v>
@@ -16605,10 +16632,10 @@
         <v>89</v>
       </c>
       <c r="Q3" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="R3" s="10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="S3" s="10" t="s">
         <v>90</v>
@@ -16807,30 +16834,30 @@
       <c r="D32" s="12"/>
     </row>
     <row r="33" spans="1:22">
-      <c r="A33" s="123" t="s">
+      <c r="A33" s="122" t="s">
         <v>100</v>
       </c>
-      <c r="B33" s="123"/>
-      <c r="C33" s="123"/>
-      <c r="D33" s="123"/>
-      <c r="E33" s="123"/>
-      <c r="F33" s="123"/>
-      <c r="G33" s="123"/>
-      <c r="H33" s="123"/>
-      <c r="I33" s="123"/>
-      <c r="J33" s="123"/>
-      <c r="K33" s="123"/>
-      <c r="L33" s="123"/>
-      <c r="M33" s="123"/>
-      <c r="N33" s="123"/>
-      <c r="O33" s="123"/>
-      <c r="P33" s="123"/>
-      <c r="Q33" s="123"/>
-      <c r="R33" s="123"/>
-      <c r="S33" s="123"/>
-      <c r="T33" s="123"/>
-      <c r="U33" s="123"/>
-      <c r="V33" s="123"/>
+      <c r="B33" s="122"/>
+      <c r="C33" s="122"/>
+      <c r="D33" s="122"/>
+      <c r="E33" s="122"/>
+      <c r="F33" s="122"/>
+      <c r="G33" s="122"/>
+      <c r="H33" s="122"/>
+      <c r="I33" s="122"/>
+      <c r="J33" s="122"/>
+      <c r="K33" s="122"/>
+      <c r="L33" s="122"/>
+      <c r="M33" s="122"/>
+      <c r="N33" s="122"/>
+      <c r="O33" s="122"/>
+      <c r="P33" s="122"/>
+      <c r="Q33" s="122"/>
+      <c r="R33" s="122"/>
+      <c r="S33" s="122"/>
+      <c r="T33" s="122"/>
+      <c r="U33" s="122"/>
+      <c r="V33" s="122"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/data/backup/AutoVC.xlsx
+++ b/data/backup/AutoVC.xlsx
@@ -1079,9 +1079,6 @@
     <t>00:01:34</t>
   </si>
   <si>
-    <t>00:00:42</t>
-  </si>
-  <si>
     <t>1.0.0.1659227</t>
   </si>
   <si>
@@ -1242,6 +1239,9 @@
   </si>
   <si>
     <t>00:01:11</t>
+  </si>
+  <si>
+    <t>00:01:43</t>
   </si>
 </sst>
 </file>
@@ -9649,7 +9649,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9800,7 +9800,7 @@
         <v>138</v>
       </c>
       <c r="D2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>113</v>
@@ -9812,7 +9812,7 @@
         <v>238</v>
       </c>
       <c r="H2" t="s">
-        <v>323</v>
+        <v>377</v>
       </c>
       <c r="I2" t="s">
         <v>303</v>
@@ -9866,7 +9866,7 @@
         <v>134</v>
       </c>
       <c r="Z2" s="92" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AA2" s="10">
         <v>44096</v>
@@ -9898,7 +9898,7 @@
         <v>30</v>
       </c>
       <c r="C3" s="93" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D3" t="s">
         <v>131</v>
@@ -9999,10 +9999,10 @@
         <v>301</v>
       </c>
       <c r="C4" s="93" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>113</v>
@@ -10014,7 +10014,7 @@
         <v>238</v>
       </c>
       <c r="H4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I4" t="s">
         <v>303</v>
@@ -10097,10 +10097,10 @@
         <v>227</v>
       </c>
       <c r="B5" s="105" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C5" s="93" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D5" t="s">
         <v>131</v>
@@ -10129,11 +10129,11 @@
       <c r="L5" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="M5" s="90" t="s">
-        <v>300</v>
-      </c>
-      <c r="N5" s="9" t="s">
-        <v>260</v>
+      <c r="M5" s="76" t="s">
+        <v>239</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>195</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>134</v>
@@ -13251,7 +13251,7 @@
         <v>238</v>
       </c>
       <c r="H37" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I37" t="s">
         <v>303</v>
@@ -13272,7 +13272,7 @@
         <v>134</v>
       </c>
       <c r="O37" s="79" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="P37" s="7" t="s">
         <v>134</v>
@@ -13756,7 +13756,7 @@
         <v>238</v>
       </c>
       <c r="H42" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I42" t="s">
         <v>303</v>
@@ -13954,7 +13954,7 @@
         <v>238</v>
       </c>
       <c r="H44" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I44" t="s">
         <v>303</v>
@@ -14038,7 +14038,7 @@
         <v>215</v>
       </c>
       <c r="C45" s="75" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D45" t="s">
         <v>131</v>
@@ -14053,7 +14053,7 @@
         <v>237</v>
       </c>
       <c r="H45" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I45" t="s">
         <v>303</v>
@@ -14131,13 +14131,13 @@
     </row>
     <row r="46" spans="1:33">
       <c r="A46" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B46" s="91" t="s">
         <v>214</v>
       </c>
       <c r="C46" s="75" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D46" t="s">
         <v>131</v>
@@ -14222,13 +14222,13 @@
     </row>
     <row r="47" spans="1:33">
       <c r="A47" s="14" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B47" s="103" t="s">
+        <v>331</v>
+      </c>
+      <c r="C47" s="103" t="s">
         <v>332</v>
-      </c>
-      <c r="C47" s="103" t="s">
-        <v>333</v>
       </c>
       <c r="D47" t="s">
         <v>131</v>
@@ -14323,13 +14323,13 @@
     </row>
     <row r="48" spans="1:33">
       <c r="A48" s="14" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B48" s="103" t="s">
+        <v>350</v>
+      </c>
+      <c r="C48" s="103" t="s">
         <v>351</v>
-      </c>
-      <c r="C48" s="103" t="s">
-        <v>352</v>
       </c>
       <c r="D48"/>
       <c r="E48" s="5"/>
@@ -14364,13 +14364,13 @@
     </row>
     <row r="49" spans="1:33">
       <c r="A49" s="14" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B49" s="103" t="s">
+        <v>352</v>
+      </c>
+      <c r="C49" s="103" t="s">
         <v>353</v>
-      </c>
-      <c r="C49" s="103" t="s">
-        <v>354</v>
       </c>
       <c r="D49"/>
       <c r="E49" s="5"/>
@@ -14405,13 +14405,13 @@
     </row>
     <row r="50" spans="1:33">
       <c r="A50" s="14" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B50" s="103" t="s">
+        <v>354</v>
+      </c>
+      <c r="C50" s="103" t="s">
         <v>355</v>
-      </c>
-      <c r="C50" s="103" t="s">
-        <v>356</v>
       </c>
       <c r="D50"/>
       <c r="E50" s="5"/>
@@ -14446,13 +14446,13 @@
     </row>
     <row r="51" spans="1:33">
       <c r="A51" s="14" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B51" s="103" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C51" s="103" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D51"/>
       <c r="E51" s="5"/>
@@ -14490,10 +14490,10 @@
         <v>62</v>
       </c>
       <c r="B52" s="103" t="s">
+        <v>357</v>
+      </c>
+      <c r="C52" s="103" t="s">
         <v>358</v>
-      </c>
-      <c r="C52" s="103" t="s">
-        <v>359</v>
       </c>
       <c r="D52"/>
       <c r="E52" s="5"/>
@@ -14531,10 +14531,10 @@
         <v>63</v>
       </c>
       <c r="B53" s="103" t="s">
+        <v>359</v>
+      </c>
+      <c r="C53" s="103" t="s">
         <v>360</v>
-      </c>
-      <c r="C53" s="103" t="s">
-        <v>361</v>
       </c>
       <c r="D53"/>
       <c r="E53" s="5"/>
@@ -14569,13 +14569,13 @@
     </row>
     <row r="54" spans="1:33">
       <c r="A54" s="14" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B54" s="103" t="s">
+        <v>361</v>
+      </c>
+      <c r="C54" s="103" t="s">
         <v>362</v>
-      </c>
-      <c r="C54" s="103" t="s">
-        <v>363</v>
       </c>
       <c r="D54"/>
       <c r="E54" s="5"/>
@@ -14610,13 +14610,13 @@
     </row>
     <row r="55" spans="1:33">
       <c r="A55" s="14" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B55" s="103" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C55" s="103" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D55"/>
       <c r="E55" s="5"/>
@@ -14651,13 +14651,13 @@
     </row>
     <row r="56" spans="1:33">
       <c r="A56" s="14" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B56" s="103" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C56" s="103" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D56"/>
       <c r="E56" s="5"/>
@@ -14692,13 +14692,13 @@
     </row>
     <row r="57" spans="1:33">
       <c r="A57" s="14" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B57" s="103" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C57" s="103" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D57"/>
       <c r="E57" s="5"/>
@@ -14733,13 +14733,13 @@
     </row>
     <row r="58" spans="1:33">
       <c r="A58" s="14" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B58" s="103" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C58" s="103" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D58"/>
       <c r="E58" s="5"/>
@@ -14774,13 +14774,13 @@
     </row>
     <row r="59" spans="1:33">
       <c r="A59" s="14" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B59" s="103" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C59" s="103" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D59"/>
       <c r="E59" s="5"/>
@@ -14815,13 +14815,13 @@
     </row>
     <row r="60" spans="1:33">
       <c r="A60" s="14" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B60" s="103" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C60" s="103" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D60"/>
       <c r="E60" s="5"/>
@@ -14856,13 +14856,13 @@
     </row>
     <row r="61" spans="1:33">
       <c r="A61" s="14" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B61" s="103" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C61" s="103" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D61"/>
       <c r="E61" s="5"/>
@@ -14897,13 +14897,13 @@
     </row>
     <row r="62" spans="1:33">
       <c r="A62" s="14" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B62" s="103" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C62" s="103" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D62"/>
       <c r="E62" s="5"/>
@@ -14938,13 +14938,13 @@
     </row>
     <row r="63" spans="1:33">
       <c r="A63" s="14" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B63" s="103" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C63" s="103" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D63"/>
       <c r="E63" s="5"/>
@@ -14979,7 +14979,7 @@
     </row>
     <row r="64" spans="1:33">
       <c r="A64" s="14" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B64" s="102"/>
       <c r="D64"/>
@@ -18307,11 +18307,10 @@
     <hyperlink ref="M21" r:id="rId6"/>
     <hyperlink ref="M36" r:id="rId7"/>
     <hyperlink ref="M45" r:id="rId8"/>
-    <hyperlink ref="M5" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
-  <legacyDrawing r:id="rId11"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
+  <legacyDrawing r:id="rId10"/>
 </worksheet>
 </file>
 

--- a/data/backup/AutoVC.xlsx
+++ b/data/backup/AutoVC.xlsx
@@ -14,7 +14,7 @@
     <sheet name="Montagem" sheetId="12" state="hidden" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Testes!$A$1:$AG$47</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Testes!$A$1:$AG$48</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="3" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT([0]!LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_SECOND_FORMAT" hidden="1">" "</definedName>
@@ -106,7 +106,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1739" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2317" uniqueCount="424">
   <si>
     <t>Telefone</t>
   </si>
@@ -1242,6 +1242,144 @@
   </si>
   <si>
     <t>00:01:43</t>
+  </si>
+  <si>
+    <t>30/07/2021</t>
+  </si>
+  <si>
+    <t>Usuário sem viagem - Brindes</t>
+  </si>
+  <si>
+    <t>Captura tela dos cards</t>
+  </si>
+  <si>
+    <t>Usuário sem viagem - Cupons</t>
+  </si>
+  <si>
+    <t>Captura tela dos cupons</t>
+  </si>
+  <si>
+    <t>CT63</t>
+  </si>
+  <si>
+    <t>CT64</t>
+  </si>
+  <si>
+    <t>CT65</t>
+  </si>
+  <si>
+    <t>00:00:06</t>
+  </si>
+  <si>
+    <t>28/07/2022</t>
+  </si>
+  <si>
+    <t>00:00:07</t>
+  </si>
+  <si>
+    <t>28/07/2023</t>
+  </si>
+  <si>
+    <t>00:00:08</t>
+  </si>
+  <si>
+    <t>28/07/2024</t>
+  </si>
+  <si>
+    <t>00:00:09</t>
+  </si>
+  <si>
+    <t>28/07/2025</t>
+  </si>
+  <si>
+    <t>00:00:10</t>
+  </si>
+  <si>
+    <t>28/07/2026</t>
+  </si>
+  <si>
+    <t>00:00:11</t>
+  </si>
+  <si>
+    <t>28/07/2027</t>
+  </si>
+  <si>
+    <t>00:00:12</t>
+  </si>
+  <si>
+    <t>28/07/2028</t>
+  </si>
+  <si>
+    <t>00:00:13</t>
+  </si>
+  <si>
+    <t>28/07/2029</t>
+  </si>
+  <si>
+    <t>00:00:14</t>
+  </si>
+  <si>
+    <t>28/07/2030</t>
+  </si>
+  <si>
+    <t>00:00:15</t>
+  </si>
+  <si>
+    <t>28/07/2031</t>
+  </si>
+  <si>
+    <t>00:00:16</t>
+  </si>
+  <si>
+    <t>28/07/2032</t>
+  </si>
+  <si>
+    <t>00:00:17</t>
+  </si>
+  <si>
+    <t>28/07/2033</t>
+  </si>
+  <si>
+    <t>00:00:18</t>
+  </si>
+  <si>
+    <t>28/07/2034</t>
+  </si>
+  <si>
+    <t>00:00:19</t>
+  </si>
+  <si>
+    <t>28/07/2035</t>
+  </si>
+  <si>
+    <t>00:00:20</t>
+  </si>
+  <si>
+    <t>28/07/2036</t>
+  </si>
+  <si>
+    <t>00:00:21</t>
+  </si>
+  <si>
+    <t>28/07/2037</t>
+  </si>
+  <si>
+    <t>00:00:22</t>
+  </si>
+  <si>
+    <t>28/07/2038</t>
+  </si>
+  <si>
+    <t>00:00:23</t>
+  </si>
+  <si>
+    <t>28/07/2039</t>
+  </si>
+  <si>
+    <t>Usuario sem viagem - Cards</t>
+  </si>
+  <si>
+    <t>00:00:42</t>
   </si>
 </sst>
 </file>
@@ -1479,7 +1617,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="23">
+  <fills count="25">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1612,6 +1750,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="5">
     <border>
@@ -1683,7 +1833,7 @@
     <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1871,9 +2021,16 @@
     <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="16" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="32" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="32" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1900,7 +2057,1157 @@
     <cellStyle name="Porcentagem" xfId="3" builtinId="5"/>
     <cellStyle name="Vírgula" xfId="4" builtinId="3"/>
   </cellStyles>
-  <dxfs count="806">
+  <dxfs count="923">
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C6500"/>
@@ -9336,8 +10643,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="805"/>
-      <tableStyleElement type="headerRow" dxfId="804"/>
+      <tableStyleElement type="wholeTable" dxfId="922"/>
+      <tableStyleElement type="headerRow" dxfId="921"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -9644,18 +10951,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Plan3"/>
-  <dimension ref="A1:AI79"/>
+  <dimension ref="A1:AI82"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomLeft" activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="7.42578125" style="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="46" style="9" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="38.85546875" style="9" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="121.140625" style="73" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="9.5703125" style="29" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="43.5703125" style="9" customWidth="1" collapsed="1"/>
@@ -9894,7 +11201,7 @@
       <c r="A3" s="14" t="s">
         <v>227</v>
       </c>
-      <c r="B3" s="105" t="s">
+      <c r="B3" s="104" t="s">
         <v>30</v>
       </c>
       <c r="C3" s="93" t="s">
@@ -9995,14 +11302,14 @@
       <c r="A4" s="14" t="s">
         <v>264</v>
       </c>
-      <c r="B4" s="105" t="s">
+      <c r="B4" s="104" t="s">
         <v>301</v>
       </c>
       <c r="C4" s="93" t="s">
         <v>374</v>
       </c>
       <c r="D4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>113</v>
@@ -10017,7 +11324,7 @@
         <v>376</v>
       </c>
       <c r="I4" t="s">
-        <v>303</v>
+        <v>378</v>
       </c>
       <c r="J4" t="s">
         <v>136</v>
@@ -10094,9 +11401,9 @@
     </row>
     <row r="5" spans="1:33">
       <c r="A5" s="14" t="s">
-        <v>227</v>
-      </c>
-      <c r="B5" s="105" t="s">
+        <v>265</v>
+      </c>
+      <c r="B5" s="104" t="s">
         <v>372</v>
       </c>
       <c r="C5" s="93" t="s">
@@ -10195,7 +11502,7 @@
     </row>
     <row r="6" spans="1:33">
       <c r="A6" s="14" t="s">
-        <v>265</v>
+        <v>228</v>
       </c>
       <c r="B6" s="16" t="s">
         <v>189</v>
@@ -10296,7 +11603,7 @@
     </row>
     <row r="7" spans="1:33">
       <c r="A7" s="14" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B7" s="70" t="s">
         <v>29</v>
@@ -10397,7 +11704,7 @@
     </row>
     <row r="8" spans="1:33">
       <c r="A8" s="14" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B8" s="70" t="s">
         <v>31</v>
@@ -10496,7 +11803,7 @@
     </row>
     <row r="9" spans="1:33">
       <c r="A9" s="14" t="s">
-        <v>230</v>
+        <v>266</v>
       </c>
       <c r="B9" s="82" t="s">
         <v>31</v>
@@ -10595,7 +11902,7 @@
     </row>
     <row r="10" spans="1:33">
       <c r="A10" s="14" t="s">
-        <v>266</v>
+        <v>231</v>
       </c>
       <c r="B10" s="82" t="s">
         <v>242</v>
@@ -10694,7 +12001,7 @@
     </row>
     <row r="11" spans="1:33">
       <c r="A11" s="14" t="s">
-        <v>231</v>
+        <v>267</v>
       </c>
       <c r="B11" s="16" t="s">
         <v>33</v>
@@ -10795,7 +12102,7 @@
     </row>
     <row r="12" spans="1:33">
       <c r="A12" s="14" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B12" s="16" t="s">
         <v>187</v>
@@ -10896,7 +12203,7 @@
     </row>
     <row r="13" spans="1:33">
       <c r="A13" s="14" t="s">
-        <v>268</v>
+        <v>19</v>
       </c>
       <c r="B13" s="16" t="s">
         <v>37</v>
@@ -10997,7 +12304,7 @@
     </row>
     <row r="14" spans="1:33">
       <c r="A14" s="14" t="s">
-        <v>19</v>
+        <v>98</v>
       </c>
       <c r="B14" s="16" t="s">
         <v>40</v>
@@ -11098,7 +12405,7 @@
     </row>
     <row r="15" spans="1:33">
       <c r="A15" s="14" t="s">
-        <v>98</v>
+        <v>196</v>
       </c>
       <c r="B15" s="16" t="s">
         <v>141</v>
@@ -11199,7 +12506,7 @@
     </row>
     <row r="16" spans="1:33">
       <c r="A16" s="14" t="s">
-        <v>196</v>
+        <v>232</v>
       </c>
       <c r="B16" s="16" t="s">
         <v>101</v>
@@ -11300,7 +12607,7 @@
     </row>
     <row r="17" spans="1:33">
       <c r="A17" s="14" t="s">
-        <v>232</v>
+        <v>32</v>
       </c>
       <c r="B17" s="16" t="s">
         <v>42</v>
@@ -11393,7 +12700,7 @@
     </row>
     <row r="18" spans="1:33">
       <c r="A18" s="14" t="s">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="B18" s="16" t="s">
         <v>44</v>
@@ -11486,7 +12793,7 @@
     </row>
     <row r="19" spans="1:33">
       <c r="A19" s="14" t="s">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="B19" s="16" t="s">
         <v>102</v>
@@ -11579,7 +12886,7 @@
     </row>
     <row r="20" spans="1:33">
       <c r="A20" s="14" t="s">
-        <v>140</v>
+        <v>270</v>
       </c>
       <c r="B20" s="16" t="s">
         <v>14</v>
@@ -11680,7 +12987,7 @@
     </row>
     <row r="21" spans="1:33">
       <c r="A21" s="14" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B21" s="16" t="s">
         <v>52</v>
@@ -11781,7 +13088,7 @@
     </row>
     <row r="22" spans="1:33">
       <c r="A22" s="14" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B22" s="16" t="s">
         <v>53</v>
@@ -11882,7 +13189,7 @@
     </row>
     <row r="23" spans="1:33">
       <c r="A23" s="14" t="s">
-        <v>272</v>
+        <v>41</v>
       </c>
       <c r="B23" s="16" t="s">
         <v>120</v>
@@ -11983,7 +13290,7 @@
     </row>
     <row r="24" spans="1:33">
       <c r="A24" s="14" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B24" s="16" t="s">
         <v>109</v>
@@ -12084,7 +13391,7 @@
     </row>
     <row r="25" spans="1:33">
       <c r="A25" s="14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B25" s="91" t="s">
         <v>204</v>
@@ -12185,7 +13492,7 @@
     </row>
     <row r="26" spans="1:33">
       <c r="A26" s="14" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B26" s="91" t="s">
         <v>203</v>
@@ -12286,7 +13593,7 @@
     </row>
     <row r="27" spans="1:33">
       <c r="A27" s="14" t="s">
-        <v>48</v>
+        <v>104</v>
       </c>
       <c r="B27" s="16" t="s">
         <v>253</v>
@@ -12387,7 +13694,7 @@
     </row>
     <row r="28" spans="1:33">
       <c r="A28" s="14" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B28" s="16" t="s">
         <v>254</v>
@@ -12488,7 +13795,7 @@
     </row>
     <row r="29" spans="1:33">
       <c r="A29" s="14" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B29" s="16" t="s">
         <v>206</v>
@@ -12589,7 +13896,7 @@
     </row>
     <row r="30" spans="1:33">
       <c r="A30" s="14" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B30" s="16" t="s">
         <v>115</v>
@@ -12690,7 +13997,7 @@
     </row>
     <row r="31" spans="1:33">
       <c r="A31" s="14" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B31" s="91" t="s">
         <v>269</v>
@@ -12733,7 +14040,7 @@
     </row>
     <row r="32" spans="1:33">
       <c r="A32" s="14" t="s">
-        <v>108</v>
+        <v>197</v>
       </c>
       <c r="B32" s="91" t="s">
         <v>117</v>
@@ -12831,7 +14138,7 @@
     </row>
     <row r="33" spans="1:33">
       <c r="A33" s="14" t="s">
-        <v>197</v>
+        <v>273</v>
       </c>
       <c r="B33" s="91" t="s">
         <v>256</v>
@@ -12929,7 +14236,7 @@
     </row>
     <row r="34" spans="1:33">
       <c r="A34" s="14" t="s">
-        <v>273</v>
+        <v>233</v>
       </c>
       <c r="B34" s="16" t="s">
         <v>27</v>
@@ -13030,7 +14337,7 @@
     </row>
     <row r="35" spans="1:33">
       <c r="A35" s="14" t="s">
-        <v>233</v>
+        <v>54</v>
       </c>
       <c r="B35" s="91" t="s">
         <v>50</v>
@@ -13129,7 +14436,7 @@
     </row>
     <row r="36" spans="1:33">
       <c r="A36" s="14" t="s">
-        <v>54</v>
+        <v>287</v>
       </c>
       <c r="B36" s="16" t="s">
         <v>211</v>
@@ -13230,7 +14537,7 @@
     </row>
     <row r="37" spans="1:33">
       <c r="A37" s="14" t="s">
-        <v>287</v>
+        <v>192</v>
       </c>
       <c r="B37" s="16" t="s">
         <v>121</v>
@@ -13331,7 +14638,7 @@
     </row>
     <row r="38" spans="1:33">
       <c r="A38" s="14" t="s">
-        <v>192</v>
+        <v>274</v>
       </c>
       <c r="B38" s="91" t="s">
         <v>58</v>
@@ -13432,7 +14739,7 @@
     </row>
     <row r="39" spans="1:33">
       <c r="A39" s="14" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B39" s="101" t="s">
         <v>60</v>
@@ -13533,7 +14840,7 @@
     </row>
     <row r="40" spans="1:33">
       <c r="A40" s="14" t="s">
-        <v>275</v>
+        <v>184</v>
       </c>
       <c r="B40" s="83" t="s">
         <v>118</v>
@@ -13634,9 +14941,9 @@
     </row>
     <row r="41" spans="1:33">
       <c r="A41" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="B41" s="104" t="s">
+        <v>114</v>
+      </c>
+      <c r="B41" s="103" t="s">
         <v>91</v>
       </c>
       <c r="C41" s="94" t="s">
@@ -13735,7 +15042,7 @@
     </row>
     <row r="42" spans="1:33">
       <c r="A42" s="14" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B42" s="16" t="s">
         <v>31</v>
@@ -13834,7 +15141,7 @@
     </row>
     <row r="43" spans="1:33">
       <c r="A43" s="14" t="s">
-        <v>116</v>
+        <v>210</v>
       </c>
       <c r="B43" s="16" t="s">
         <v>31</v>
@@ -13933,7 +15240,7 @@
     </row>
     <row r="44" spans="1:33">
       <c r="A44" s="14" t="s">
-        <v>210</v>
+        <v>234</v>
       </c>
       <c r="B44" s="16" t="s">
         <v>243</v>
@@ -14032,7 +15339,7 @@
     </row>
     <row r="45" spans="1:33">
       <c r="A45" s="14" t="s">
-        <v>234</v>
+        <v>333</v>
       </c>
       <c r="B45" s="91" t="s">
         <v>215</v>
@@ -14131,7 +15438,7 @@
     </row>
     <row r="46" spans="1:33">
       <c r="A46" s="14" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B46" s="91" t="s">
         <v>214</v>
@@ -14221,32 +15528,32 @@
       </c>
     </row>
     <row r="47" spans="1:33">
-      <c r="A47" s="14" t="s">
-        <v>334</v>
-      </c>
-      <c r="B47" s="103" t="s">
-        <v>331</v>
-      </c>
-      <c r="C47" s="103" t="s">
-        <v>332</v>
+      <c r="A47" s="107" t="s">
+        <v>335</v>
+      </c>
+      <c r="B47" s="105" t="s">
+        <v>422</v>
+      </c>
+      <c r="C47" s="105" t="s">
+        <v>380</v>
       </c>
       <c r="D47" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>113</v>
       </c>
       <c r="F47" t="s">
-        <v>297</v>
+        <v>113</v>
       </c>
       <c r="G47" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H47" t="s">
-        <v>302</v>
+        <v>423</v>
       </c>
       <c r="I47" t="s">
-        <v>298</v>
+        <v>378</v>
       </c>
       <c r="J47" t="s">
         <v>136</v>
@@ -14260,8 +15567,8 @@
       <c r="M47" s="88" t="s">
         <v>299</v>
       </c>
-      <c r="N47" s="6" t="s">
-        <v>195</v>
+      <c r="N47" s="77" t="s">
+        <v>260</v>
       </c>
       <c r="O47" s="7" t="s">
         <v>134</v>
@@ -14323,3978 +15630,5708 @@
     </row>
     <row r="48" spans="1:33">
       <c r="A48" s="14" t="s">
-        <v>335</v>
-      </c>
-      <c r="B48" s="103" t="s">
-        <v>350</v>
-      </c>
-      <c r="C48" s="103" t="s">
-        <v>351</v>
-      </c>
-      <c r="D48"/>
-      <c r="E48" s="5"/>
-      <c r="F48"/>
-      <c r="G48"/>
-      <c r="H48"/>
-      <c r="I48"/>
-      <c r="J48"/>
-      <c r="K48" s="22"/>
-      <c r="L48" s="22"/>
-      <c r="M48" s="88"/>
-      <c r="N48" s="6"/>
-      <c r="O48" s="7"/>
-      <c r="P48" s="7"/>
-      <c r="Q48" s="7"/>
-      <c r="R48" s="7"/>
-      <c r="S48" s="7"/>
-      <c r="T48" s="7"/>
-      <c r="U48" s="7"/>
-      <c r="V48" s="7"/>
-      <c r="W48" s="7"/>
-      <c r="X48" s="7"/>
-      <c r="Y48" s="7"/>
-      <c r="Z48" s="7"/>
-      <c r="AA48" s="7"/>
-      <c r="AB48" s="7"/>
-      <c r="AC48" s="7"/>
-      <c r="AD48" s="7"/>
-      <c r="AE48" s="7"/>
-      <c r="AF48" s="7"/>
-      <c r="AG48" s="7"/>
+        <v>336</v>
+      </c>
+      <c r="B48" s="105" t="s">
+        <v>331</v>
+      </c>
+      <c r="C48" s="105" t="s">
+        <v>332</v>
+      </c>
+      <c r="D48" t="s">
+        <v>131</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="F48" t="s">
+        <v>297</v>
+      </c>
+      <c r="G48" t="s">
+        <v>237</v>
+      </c>
+      <c r="H48" t="s">
+        <v>302</v>
+      </c>
+      <c r="I48" t="s">
+        <v>298</v>
+      </c>
+      <c r="J48" t="s">
+        <v>136</v>
+      </c>
+      <c r="K48" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="L48" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="M48" s="88" t="s">
+        <v>299</v>
+      </c>
+      <c r="N48" s="77" t="s">
+        <v>260</v>
+      </c>
+      <c r="O48" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="P48" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q48" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="R48" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="S48" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="T48" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="U48" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="V48" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="W48" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="X48" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y48" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z48" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA48" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB48" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="AC48" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="AD48" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="AE48" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="AF48" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="AG48" s="7" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="49" spans="1:33">
       <c r="A49" s="14" t="s">
-        <v>336</v>
-      </c>
-      <c r="B49" s="103" t="s">
-        <v>352</v>
-      </c>
-      <c r="C49" s="103" t="s">
-        <v>353</v>
-      </c>
-      <c r="D49"/>
-      <c r="E49" s="5"/>
-      <c r="F49"/>
-      <c r="G49"/>
-      <c r="H49"/>
-      <c r="I49"/>
-      <c r="J49"/>
-      <c r="K49" s="22"/>
-      <c r="L49" s="22"/>
-      <c r="M49" s="88"/>
-      <c r="N49" s="6"/>
-      <c r="O49" s="7"/>
-      <c r="P49" s="7"/>
-      <c r="Q49" s="7"/>
-      <c r="R49" s="7"/>
-      <c r="S49" s="7"/>
-      <c r="T49" s="7"/>
-      <c r="U49" s="7"/>
-      <c r="V49" s="7"/>
-      <c r="W49" s="7"/>
-      <c r="X49" s="7"/>
-      <c r="Y49" s="7"/>
-      <c r="Z49" s="7"/>
-      <c r="AA49" s="7"/>
-      <c r="AB49" s="7"/>
-      <c r="AC49" s="7"/>
-      <c r="AD49" s="7"/>
-      <c r="AE49" s="7"/>
-      <c r="AF49" s="7"/>
-      <c r="AG49" s="7"/>
+        <v>337</v>
+      </c>
+      <c r="B49" s="105" t="s">
+        <v>350</v>
+      </c>
+      <c r="C49" s="105" t="s">
+        <v>351</v>
+      </c>
+      <c r="D49" t="s">
+        <v>131</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="F49" t="s">
+        <v>297</v>
+      </c>
+      <c r="G49" t="s">
+        <v>237</v>
+      </c>
+      <c r="H49" t="s">
+        <v>386</v>
+      </c>
+      <c r="I49" t="s">
+        <v>387</v>
+      </c>
+      <c r="J49" t="s">
+        <v>136</v>
+      </c>
+      <c r="K49" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="L49" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="M49" s="88" t="s">
+        <v>299</v>
+      </c>
+      <c r="N49" s="77" t="s">
+        <v>260</v>
+      </c>
+      <c r="O49" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="P49" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q49" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="R49" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="S49" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="T49" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="U49" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="V49" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="W49" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="X49" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y49" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z49" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA49" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB49" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="AC49" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="AD49" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="AE49" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="AF49" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="AG49" s="7" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="50" spans="1:33">
       <c r="A50" s="14" t="s">
-        <v>337</v>
-      </c>
-      <c r="B50" s="103" t="s">
-        <v>354</v>
-      </c>
-      <c r="C50" s="103" t="s">
-        <v>355</v>
-      </c>
-      <c r="D50"/>
-      <c r="E50" s="5"/>
-      <c r="F50"/>
-      <c r="G50"/>
-      <c r="H50"/>
-      <c r="I50"/>
-      <c r="J50"/>
-      <c r="K50" s="22"/>
-      <c r="L50" s="22"/>
-      <c r="M50" s="88"/>
-      <c r="N50" s="6"/>
-      <c r="O50" s="7"/>
-      <c r="P50" s="7"/>
-      <c r="Q50" s="7"/>
-      <c r="R50" s="7"/>
-      <c r="S50" s="7"/>
-      <c r="T50" s="7"/>
-      <c r="U50" s="7"/>
-      <c r="V50" s="7"/>
-      <c r="W50" s="7"/>
-      <c r="X50" s="7"/>
-      <c r="Y50" s="7"/>
-      <c r="Z50" s="7"/>
-      <c r="AA50" s="7"/>
-      <c r="AB50" s="7"/>
-      <c r="AC50" s="7"/>
-      <c r="AD50" s="7"/>
-      <c r="AE50" s="7"/>
-      <c r="AF50" s="7"/>
-      <c r="AG50" s="7"/>
+        <v>338</v>
+      </c>
+      <c r="B50" s="105" t="s">
+        <v>352</v>
+      </c>
+      <c r="C50" s="105" t="s">
+        <v>353</v>
+      </c>
+      <c r="D50" t="s">
+        <v>131</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="F50" t="s">
+        <v>297</v>
+      </c>
+      <c r="G50" t="s">
+        <v>237</v>
+      </c>
+      <c r="H50" t="s">
+        <v>388</v>
+      </c>
+      <c r="I50" t="s">
+        <v>389</v>
+      </c>
+      <c r="J50" t="s">
+        <v>136</v>
+      </c>
+      <c r="K50" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="L50" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="M50" s="88" t="s">
+        <v>299</v>
+      </c>
+      <c r="N50" s="77" t="s">
+        <v>260</v>
+      </c>
+      <c r="O50" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="P50" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q50" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="R50" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="S50" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="T50" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="U50" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="V50" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="W50" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="X50" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y50" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z50" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA50" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB50" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="AC50" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="AD50" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="AE50" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="AF50" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="AG50" s="7" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="51" spans="1:33">
       <c r="A51" s="14" t="s">
-        <v>338</v>
-      </c>
-      <c r="B51" s="103" t="s">
-        <v>356</v>
-      </c>
-      <c r="C51" s="103" t="s">
+        <v>62</v>
+      </c>
+      <c r="B51" s="105" t="s">
+        <v>354</v>
+      </c>
+      <c r="C51" s="105" t="s">
         <v>355</v>
       </c>
-      <c r="D51"/>
-      <c r="E51" s="5"/>
-      <c r="F51"/>
-      <c r="G51"/>
-      <c r="H51"/>
-      <c r="I51"/>
-      <c r="J51"/>
-      <c r="K51" s="22"/>
-      <c r="L51" s="22"/>
-      <c r="M51" s="88"/>
-      <c r="N51" s="6"/>
-      <c r="O51" s="7"/>
-      <c r="P51" s="7"/>
-      <c r="Q51" s="7"/>
-      <c r="R51" s="7"/>
-      <c r="S51" s="7"/>
-      <c r="T51" s="7"/>
-      <c r="U51" s="7"/>
-      <c r="V51" s="7"/>
-      <c r="W51" s="7"/>
-      <c r="X51" s="7"/>
-      <c r="Y51" s="7"/>
-      <c r="Z51" s="7"/>
-      <c r="AA51" s="7"/>
-      <c r="AB51" s="7"/>
-      <c r="AC51" s="7"/>
-      <c r="AD51" s="7"/>
-      <c r="AE51" s="7"/>
-      <c r="AF51" s="7"/>
-      <c r="AG51" s="7"/>
+      <c r="D51" t="s">
+        <v>131</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="F51" t="s">
+        <v>297</v>
+      </c>
+      <c r="G51" t="s">
+        <v>237</v>
+      </c>
+      <c r="H51" t="s">
+        <v>390</v>
+      </c>
+      <c r="I51" t="s">
+        <v>391</v>
+      </c>
+      <c r="J51" t="s">
+        <v>136</v>
+      </c>
+      <c r="K51" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="L51" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="M51" s="88" t="s">
+        <v>299</v>
+      </c>
+      <c r="N51" s="77" t="s">
+        <v>260</v>
+      </c>
+      <c r="O51" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="P51" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q51" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="R51" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="S51" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="T51" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="U51" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="V51" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="W51" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="X51" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y51" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z51" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA51" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB51" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="AC51" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="AD51" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="AE51" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="AF51" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="AG51" s="7" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="52" spans="1:33">
       <c r="A52" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="B52" s="103" t="s">
-        <v>357</v>
-      </c>
-      <c r="C52" s="103" t="s">
-        <v>358</v>
-      </c>
-      <c r="D52"/>
-      <c r="E52" s="5"/>
-      <c r="F52"/>
-      <c r="G52"/>
-      <c r="H52"/>
-      <c r="I52"/>
-      <c r="J52"/>
-      <c r="K52" s="22"/>
-      <c r="L52" s="22"/>
-      <c r="M52" s="88"/>
-      <c r="N52" s="6"/>
-      <c r="O52" s="7"/>
-      <c r="P52" s="7"/>
-      <c r="Q52" s="7"/>
-      <c r="R52" s="7"/>
-      <c r="S52" s="7"/>
-      <c r="T52" s="7"/>
-      <c r="U52" s="7"/>
-      <c r="V52" s="7"/>
-      <c r="W52" s="7"/>
-      <c r="X52" s="7"/>
-      <c r="Y52" s="7"/>
-      <c r="Z52" s="7"/>
-      <c r="AA52" s="7"/>
-      <c r="AB52" s="7"/>
-      <c r="AC52" s="7"/>
-      <c r="AD52" s="7"/>
-      <c r="AE52" s="7"/>
-      <c r="AF52" s="7"/>
-      <c r="AG52" s="7"/>
+        <v>63</v>
+      </c>
+      <c r="B52" s="105" t="s">
+        <v>356</v>
+      </c>
+      <c r="C52" s="105" t="s">
+        <v>355</v>
+      </c>
+      <c r="D52" t="s">
+        <v>131</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="F52" t="s">
+        <v>297</v>
+      </c>
+      <c r="G52" t="s">
+        <v>237</v>
+      </c>
+      <c r="H52" t="s">
+        <v>392</v>
+      </c>
+      <c r="I52" t="s">
+        <v>393</v>
+      </c>
+      <c r="J52" t="s">
+        <v>136</v>
+      </c>
+      <c r="K52" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="L52" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="M52" s="88" t="s">
+        <v>299</v>
+      </c>
+      <c r="N52" s="77" t="s">
+        <v>260</v>
+      </c>
+      <c r="O52" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="P52" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q52" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="R52" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="S52" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="T52" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="U52" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="V52" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="W52" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="X52" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y52" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z52" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA52" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB52" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="AC52" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="AD52" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="AE52" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="AF52" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="AG52" s="7" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="53" spans="1:33">
       <c r="A53" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="B53" s="103" t="s">
-        <v>359</v>
-      </c>
-      <c r="C53" s="103" t="s">
-        <v>360</v>
-      </c>
-      <c r="D53"/>
-      <c r="E53" s="5"/>
-      <c r="F53"/>
-      <c r="G53"/>
-      <c r="H53"/>
-      <c r="I53"/>
-      <c r="J53"/>
-      <c r="K53" s="22"/>
-      <c r="L53" s="22"/>
-      <c r="M53" s="88"/>
-      <c r="N53" s="6"/>
-      <c r="O53" s="7"/>
-      <c r="P53" s="7"/>
-      <c r="Q53" s="7"/>
-      <c r="R53" s="7"/>
-      <c r="S53" s="7"/>
-      <c r="T53" s="7"/>
-      <c r="U53" s="7"/>
-      <c r="V53" s="7"/>
-      <c r="W53" s="7"/>
-      <c r="X53" s="7"/>
-      <c r="Y53" s="7"/>
-      <c r="Z53" s="7"/>
-      <c r="AA53" s="7"/>
-      <c r="AB53" s="7"/>
-      <c r="AC53" s="7"/>
-      <c r="AD53" s="7"/>
-      <c r="AE53" s="7"/>
-      <c r="AF53" s="7"/>
-      <c r="AG53" s="7"/>
+        <v>339</v>
+      </c>
+      <c r="B53" s="105" t="s">
+        <v>357</v>
+      </c>
+      <c r="C53" s="105" t="s">
+        <v>358</v>
+      </c>
+      <c r="D53" t="s">
+        <v>131</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="F53" t="s">
+        <v>297</v>
+      </c>
+      <c r="G53" t="s">
+        <v>237</v>
+      </c>
+      <c r="H53" t="s">
+        <v>394</v>
+      </c>
+      <c r="I53" t="s">
+        <v>395</v>
+      </c>
+      <c r="J53" t="s">
+        <v>136</v>
+      </c>
+      <c r="K53" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="L53" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="M53" s="88" t="s">
+        <v>299</v>
+      </c>
+      <c r="N53" s="77" t="s">
+        <v>260</v>
+      </c>
+      <c r="O53" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="P53" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q53" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="R53" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="S53" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="T53" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="U53" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="V53" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="W53" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="X53" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y53" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z53" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA53" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB53" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="AC53" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="AD53" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="AE53" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="AF53" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="AG53" s="7" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="54" spans="1:33">
       <c r="A54" s="14" t="s">
-        <v>339</v>
-      </c>
-      <c r="B54" s="103" t="s">
-        <v>361</v>
-      </c>
-      <c r="C54" s="103" t="s">
-        <v>362</v>
-      </c>
-      <c r="D54"/>
-      <c r="E54" s="5"/>
-      <c r="F54"/>
-      <c r="G54"/>
-      <c r="H54"/>
-      <c r="I54"/>
-      <c r="J54"/>
-      <c r="K54" s="22"/>
-      <c r="L54" s="22"/>
-      <c r="M54" s="88"/>
-      <c r="N54" s="6"/>
-      <c r="O54" s="7"/>
-      <c r="P54" s="7"/>
-      <c r="Q54" s="7"/>
-      <c r="R54" s="7"/>
-      <c r="S54" s="7"/>
-      <c r="T54" s="7"/>
-      <c r="U54" s="7"/>
-      <c r="V54" s="7"/>
-      <c r="W54" s="7"/>
-      <c r="X54" s="7"/>
-      <c r="Y54" s="7"/>
-      <c r="Z54" s="7"/>
-      <c r="AA54" s="7"/>
-      <c r="AB54" s="7"/>
-      <c r="AC54" s="7"/>
-      <c r="AD54" s="7"/>
-      <c r="AE54" s="7"/>
-      <c r="AF54" s="7"/>
-      <c r="AG54" s="7"/>
+        <v>340</v>
+      </c>
+      <c r="B54" s="105" t="s">
+        <v>359</v>
+      </c>
+      <c r="C54" s="105" t="s">
+        <v>360</v>
+      </c>
+      <c r="D54" t="s">
+        <v>131</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="F54" t="s">
+        <v>297</v>
+      </c>
+      <c r="G54" t="s">
+        <v>237</v>
+      </c>
+      <c r="H54" t="s">
+        <v>396</v>
+      </c>
+      <c r="I54" t="s">
+        <v>397</v>
+      </c>
+      <c r="J54" t="s">
+        <v>136</v>
+      </c>
+      <c r="K54" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="L54" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="M54" s="88" t="s">
+        <v>299</v>
+      </c>
+      <c r="N54" s="77" t="s">
+        <v>260</v>
+      </c>
+      <c r="O54" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="P54" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q54" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="R54" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="S54" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="T54" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="U54" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="V54" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="W54" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="X54" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y54" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z54" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA54" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB54" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="AC54" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="AD54" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="AE54" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="AF54" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="AG54" s="7" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="55" spans="1:33">
-      <c r="A55" s="14" t="s">
-        <v>340</v>
-      </c>
-      <c r="B55" s="103" t="s">
-        <v>363</v>
-      </c>
-      <c r="C55" s="103" t="s">
-        <v>362</v>
-      </c>
-      <c r="D55"/>
-      <c r="E55" s="5"/>
-      <c r="F55"/>
-      <c r="G55"/>
-      <c r="H55"/>
-      <c r="I55"/>
-      <c r="J55"/>
-      <c r="K55" s="22"/>
-      <c r="L55" s="22"/>
-      <c r="M55" s="88"/>
-      <c r="N55" s="6"/>
-      <c r="O55" s="7"/>
-      <c r="P55" s="7"/>
-      <c r="Q55" s="7"/>
-      <c r="R55" s="7"/>
-      <c r="S55" s="7"/>
-      <c r="T55" s="7"/>
-      <c r="U55" s="7"/>
-      <c r="V55" s="7"/>
-      <c r="W55" s="7"/>
-      <c r="X55" s="7"/>
-      <c r="Y55" s="7"/>
-      <c r="Z55" s="7"/>
-      <c r="AA55" s="7"/>
-      <c r="AB55" s="7"/>
-      <c r="AC55" s="7"/>
-      <c r="AD55" s="7"/>
-      <c r="AE55" s="7"/>
-      <c r="AF55" s="7"/>
-      <c r="AG55" s="7"/>
+      <c r="A55" s="107" t="s">
+        <v>341</v>
+      </c>
+      <c r="B55" s="106" t="s">
+        <v>379</v>
+      </c>
+      <c r="C55" s="106" t="s">
+        <v>380</v>
+      </c>
+      <c r="D55" t="s">
+        <v>131</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="F55" t="s">
+        <v>297</v>
+      </c>
+      <c r="G55" t="s">
+        <v>237</v>
+      </c>
+      <c r="H55" t="s">
+        <v>398</v>
+      </c>
+      <c r="I55" t="s">
+        <v>399</v>
+      </c>
+      <c r="J55" t="s">
+        <v>136</v>
+      </c>
+      <c r="K55" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="L55" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="M55" s="88" t="s">
+        <v>299</v>
+      </c>
+      <c r="N55" s="77" t="s">
+        <v>260</v>
+      </c>
+      <c r="O55" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="P55" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q55" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="R55" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="S55" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="T55" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="U55" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="V55" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="W55" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="X55" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y55" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z55" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA55" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB55" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="AC55" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="AD55" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="AE55" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="AF55" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="AG55" s="7" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="56" spans="1:33">
       <c r="A56" s="14" t="s">
-        <v>341</v>
-      </c>
-      <c r="B56" s="103" t="s">
-        <v>364</v>
-      </c>
-      <c r="C56" s="103" t="s">
+        <v>342</v>
+      </c>
+      <c r="B56" s="106" t="s">
+        <v>361</v>
+      </c>
+      <c r="C56" s="106" t="s">
         <v>362</v>
       </c>
-      <c r="D56"/>
-      <c r="E56" s="5"/>
-      <c r="F56"/>
-      <c r="G56"/>
-      <c r="H56"/>
-      <c r="I56"/>
-      <c r="J56"/>
-      <c r="K56" s="22"/>
-      <c r="L56" s="22"/>
-      <c r="M56" s="88"/>
-      <c r="N56" s="6"/>
-      <c r="O56" s="7"/>
-      <c r="P56" s="7"/>
-      <c r="Q56" s="7"/>
-      <c r="R56" s="7"/>
-      <c r="S56" s="7"/>
-      <c r="T56" s="7"/>
-      <c r="U56" s="7"/>
-      <c r="V56" s="7"/>
-      <c r="W56" s="7"/>
-      <c r="X56" s="7"/>
-      <c r="Y56" s="7"/>
-      <c r="Z56" s="7"/>
-      <c r="AA56" s="7"/>
-      <c r="AB56" s="7"/>
-      <c r="AC56" s="7"/>
-      <c r="AD56" s="7"/>
-      <c r="AE56" s="7"/>
-      <c r="AF56" s="7"/>
-      <c r="AG56" s="7"/>
+      <c r="D56" t="s">
+        <v>131</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="F56" t="s">
+        <v>297</v>
+      </c>
+      <c r="G56" t="s">
+        <v>237</v>
+      </c>
+      <c r="H56" t="s">
+        <v>400</v>
+      </c>
+      <c r="I56" t="s">
+        <v>401</v>
+      </c>
+      <c r="J56" t="s">
+        <v>136</v>
+      </c>
+      <c r="K56" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="L56" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="M56" s="88" t="s">
+        <v>299</v>
+      </c>
+      <c r="N56" s="77" t="s">
+        <v>260</v>
+      </c>
+      <c r="O56" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="P56" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q56" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="R56" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="S56" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="T56" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="U56" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="V56" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="W56" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="X56" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y56" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z56" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA56" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB56" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="AC56" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="AD56" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="AE56" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="AF56" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="AG56" s="7" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="57" spans="1:33">
       <c r="A57" s="14" t="s">
-        <v>342</v>
-      </c>
-      <c r="B57" s="103" t="s">
-        <v>365</v>
-      </c>
-      <c r="C57" s="103" t="s">
+        <v>343</v>
+      </c>
+      <c r="B57" s="106" t="s">
+        <v>363</v>
+      </c>
+      <c r="C57" s="106" t="s">
         <v>362</v>
       </c>
-      <c r="D57"/>
-      <c r="E57" s="5"/>
-      <c r="F57"/>
-      <c r="G57"/>
-      <c r="H57"/>
-      <c r="I57"/>
-      <c r="J57"/>
-      <c r="K57" s="22"/>
-      <c r="L57" s="22"/>
-      <c r="M57" s="88"/>
-      <c r="N57" s="6"/>
-      <c r="O57" s="7"/>
-      <c r="P57" s="7"/>
-      <c r="Q57" s="7"/>
-      <c r="R57" s="7"/>
-      <c r="S57" s="7"/>
-      <c r="T57" s="7"/>
-      <c r="U57" s="7"/>
-      <c r="V57" s="7"/>
-      <c r="W57" s="7"/>
-      <c r="X57" s="7"/>
-      <c r="Y57" s="7"/>
-      <c r="Z57" s="7"/>
-      <c r="AA57" s="7"/>
-      <c r="AB57" s="7"/>
-      <c r="AC57" s="7"/>
-      <c r="AD57" s="7"/>
-      <c r="AE57" s="7"/>
-      <c r="AF57" s="7"/>
-      <c r="AG57" s="7"/>
+      <c r="D57" t="s">
+        <v>131</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="F57" t="s">
+        <v>297</v>
+      </c>
+      <c r="G57" t="s">
+        <v>237</v>
+      </c>
+      <c r="H57" t="s">
+        <v>402</v>
+      </c>
+      <c r="I57" t="s">
+        <v>403</v>
+      </c>
+      <c r="J57" t="s">
+        <v>136</v>
+      </c>
+      <c r="K57" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="L57" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="M57" s="88" t="s">
+        <v>299</v>
+      </c>
+      <c r="N57" s="77" t="s">
+        <v>260</v>
+      </c>
+      <c r="O57" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="P57" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q57" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="R57" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="S57" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="T57" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="U57" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="V57" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="W57" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="X57" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y57" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z57" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA57" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB57" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="AC57" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="AD57" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="AE57" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="AF57" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="AG57" s="7" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="58" spans="1:33">
-      <c r="A58" s="14" t="s">
-        <v>343</v>
-      </c>
-      <c r="B58" s="103" t="s">
-        <v>366</v>
-      </c>
-      <c r="C58" s="103" t="s">
+      <c r="A58" s="108" t="s">
+        <v>344</v>
+      </c>
+      <c r="B58" s="106" t="s">
+        <v>364</v>
+      </c>
+      <c r="C58" s="106" t="s">
         <v>362</v>
       </c>
-      <c r="D58"/>
-      <c r="E58" s="5"/>
-      <c r="F58"/>
-      <c r="G58"/>
-      <c r="H58"/>
-      <c r="I58"/>
-      <c r="J58"/>
-      <c r="K58" s="22"/>
-      <c r="L58" s="22"/>
-      <c r="M58" s="88"/>
-      <c r="N58" s="6"/>
-      <c r="O58" s="7"/>
-      <c r="P58" s="7"/>
-      <c r="Q58" s="7"/>
-      <c r="R58" s="7"/>
-      <c r="S58" s="7"/>
-      <c r="T58" s="7"/>
-      <c r="U58" s="7"/>
-      <c r="V58" s="7"/>
-      <c r="W58" s="7"/>
-      <c r="X58" s="7"/>
-      <c r="Y58" s="7"/>
-      <c r="Z58" s="7"/>
-      <c r="AA58" s="7"/>
-      <c r="AB58" s="7"/>
-      <c r="AC58" s="7"/>
-      <c r="AD58" s="7"/>
-      <c r="AE58" s="7"/>
-      <c r="AF58" s="7"/>
-      <c r="AG58" s="7"/>
+      <c r="D58" t="s">
+        <v>131</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="F58" t="s">
+        <v>297</v>
+      </c>
+      <c r="G58" t="s">
+        <v>237</v>
+      </c>
+      <c r="H58" t="s">
+        <v>404</v>
+      </c>
+      <c r="I58" t="s">
+        <v>405</v>
+      </c>
+      <c r="J58" t="s">
+        <v>136</v>
+      </c>
+      <c r="K58" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="L58" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="M58" s="88" t="s">
+        <v>299</v>
+      </c>
+      <c r="N58" s="77" t="s">
+        <v>260</v>
+      </c>
+      <c r="O58" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="P58" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q58" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="R58" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="S58" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="T58" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="U58" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="V58" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="W58" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="X58" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y58" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z58" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA58" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB58" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="AC58" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="AD58" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="AE58" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="AF58" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="AG58" s="7" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="59" spans="1:33">
       <c r="A59" s="14" t="s">
-        <v>344</v>
-      </c>
-      <c r="B59" s="103" t="s">
-        <v>367</v>
-      </c>
-      <c r="C59" s="103" t="s">
+        <v>345</v>
+      </c>
+      <c r="B59" s="106" t="s">
+        <v>365</v>
+      </c>
+      <c r="C59" s="106" t="s">
         <v>362</v>
       </c>
-      <c r="D59"/>
-      <c r="E59" s="5"/>
-      <c r="F59"/>
-      <c r="G59"/>
-      <c r="H59"/>
-      <c r="I59"/>
-      <c r="J59"/>
-      <c r="K59" s="22"/>
-      <c r="L59" s="22"/>
-      <c r="M59" s="88"/>
-      <c r="N59" s="6"/>
-      <c r="O59" s="7"/>
-      <c r="P59" s="7"/>
-      <c r="Q59" s="7"/>
-      <c r="R59" s="7"/>
-      <c r="S59" s="7"/>
-      <c r="T59" s="7"/>
-      <c r="U59" s="7"/>
-      <c r="V59" s="7"/>
-      <c r="W59" s="7"/>
-      <c r="X59" s="7"/>
-      <c r="Y59" s="7"/>
-      <c r="Z59" s="7"/>
-      <c r="AA59" s="7"/>
-      <c r="AB59" s="7"/>
-      <c r="AC59" s="7"/>
-      <c r="AD59" s="7"/>
-      <c r="AE59" s="7"/>
-      <c r="AF59" s="7"/>
-      <c r="AG59" s="7"/>
+      <c r="D59" t="s">
+        <v>131</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="F59" t="s">
+        <v>297</v>
+      </c>
+      <c r="G59" t="s">
+        <v>237</v>
+      </c>
+      <c r="H59" t="s">
+        <v>406</v>
+      </c>
+      <c r="I59" t="s">
+        <v>407</v>
+      </c>
+      <c r="J59" t="s">
+        <v>136</v>
+      </c>
+      <c r="K59" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="L59" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="M59" s="88" t="s">
+        <v>299</v>
+      </c>
+      <c r="N59" s="77" t="s">
+        <v>260</v>
+      </c>
+      <c r="O59" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="P59" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q59" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="R59" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="S59" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="T59" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="U59" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="V59" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="W59" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="X59" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y59" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z59" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA59" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB59" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="AC59" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="AD59" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="AE59" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="AF59" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="AG59" s="7" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="60" spans="1:33">
       <c r="A60" s="14" t="s">
-        <v>345</v>
-      </c>
-      <c r="B60" s="103" t="s">
-        <v>368</v>
-      </c>
-      <c r="C60" s="103" t="s">
+        <v>346</v>
+      </c>
+      <c r="B60" s="106" t="s">
+        <v>366</v>
+      </c>
+      <c r="C60" s="106" t="s">
         <v>362</v>
       </c>
-      <c r="D60"/>
-      <c r="E60" s="5"/>
-      <c r="F60"/>
-      <c r="G60"/>
-      <c r="H60"/>
-      <c r="I60"/>
-      <c r="J60"/>
-      <c r="K60" s="22"/>
-      <c r="L60" s="22"/>
-      <c r="M60" s="88"/>
-      <c r="N60" s="6"/>
-      <c r="O60" s="7"/>
-      <c r="P60" s="7"/>
-      <c r="Q60" s="7"/>
-      <c r="R60" s="7"/>
-      <c r="S60" s="7"/>
-      <c r="T60" s="7"/>
-      <c r="U60" s="7"/>
-      <c r="V60" s="7"/>
-      <c r="W60" s="7"/>
-      <c r="X60" s="7"/>
-      <c r="Y60" s="7"/>
-      <c r="Z60" s="7"/>
-      <c r="AA60" s="7"/>
-      <c r="AB60" s="7"/>
-      <c r="AC60" s="7"/>
-      <c r="AD60" s="7"/>
-      <c r="AE60" s="7"/>
-      <c r="AF60" s="7"/>
-      <c r="AG60" s="7"/>
+      <c r="D60" t="s">
+        <v>131</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="F60" t="s">
+        <v>297</v>
+      </c>
+      <c r="G60" t="s">
+        <v>237</v>
+      </c>
+      <c r="H60" t="s">
+        <v>408</v>
+      </c>
+      <c r="I60" t="s">
+        <v>409</v>
+      </c>
+      <c r="J60" t="s">
+        <v>136</v>
+      </c>
+      <c r="K60" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="L60" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="M60" s="88" t="s">
+        <v>299</v>
+      </c>
+      <c r="N60" s="77" t="s">
+        <v>260</v>
+      </c>
+      <c r="O60" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="P60" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q60" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="R60" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="S60" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="T60" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="U60" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="V60" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="W60" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="X60" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y60" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z60" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA60" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB60" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="AC60" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="AD60" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="AE60" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="AF60" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="AG60" s="7" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="61" spans="1:33">
       <c r="A61" s="14" t="s">
-        <v>346</v>
-      </c>
-      <c r="B61" s="103" t="s">
-        <v>369</v>
-      </c>
-      <c r="C61" s="103" t="s">
+        <v>347</v>
+      </c>
+      <c r="B61" s="106" t="s">
+        <v>367</v>
+      </c>
+      <c r="C61" s="106" t="s">
         <v>362</v>
       </c>
-      <c r="D61"/>
-      <c r="E61" s="5"/>
-      <c r="F61"/>
-      <c r="G61"/>
-      <c r="H61"/>
-      <c r="I61"/>
-      <c r="J61"/>
-      <c r="K61" s="22"/>
-      <c r="L61" s="22"/>
-      <c r="M61" s="88"/>
-      <c r="N61" s="6"/>
-      <c r="O61" s="7"/>
-      <c r="P61" s="7"/>
-      <c r="Q61" s="7"/>
-      <c r="R61" s="7"/>
-      <c r="S61" s="7"/>
-      <c r="T61" s="7"/>
-      <c r="U61" s="7"/>
-      <c r="V61" s="7"/>
-      <c r="W61" s="7"/>
-      <c r="X61" s="7"/>
-      <c r="Y61" s="7"/>
-      <c r="Z61" s="7"/>
-      <c r="AA61" s="7"/>
-      <c r="AB61" s="7"/>
-      <c r="AC61" s="7"/>
-      <c r="AD61" s="7"/>
-      <c r="AE61" s="7"/>
-      <c r="AF61" s="7"/>
-      <c r="AG61" s="7"/>
+      <c r="D61" t="s">
+        <v>131</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="F61" t="s">
+        <v>297</v>
+      </c>
+      <c r="G61" t="s">
+        <v>237</v>
+      </c>
+      <c r="H61" t="s">
+        <v>410</v>
+      </c>
+      <c r="I61" t="s">
+        <v>411</v>
+      </c>
+      <c r="J61" t="s">
+        <v>136</v>
+      </c>
+      <c r="K61" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="L61" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="M61" s="88" t="s">
+        <v>299</v>
+      </c>
+      <c r="N61" s="77" t="s">
+        <v>260</v>
+      </c>
+      <c r="O61" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="P61" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q61" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="R61" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="S61" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="T61" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="U61" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="V61" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="W61" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="X61" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y61" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z61" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA61" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB61" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="AC61" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="AD61" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="AE61" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="AF61" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="AG61" s="7" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="62" spans="1:33">
-      <c r="A62" s="14" t="s">
-        <v>347</v>
-      </c>
-      <c r="B62" s="103" t="s">
-        <v>370</v>
-      </c>
-      <c r="C62" s="103" t="s">
-        <v>362</v>
-      </c>
-      <c r="D62"/>
-      <c r="E62" s="5"/>
-      <c r="F62"/>
-      <c r="G62"/>
-      <c r="H62"/>
-      <c r="I62"/>
-      <c r="J62"/>
-      <c r="K62" s="22"/>
-      <c r="L62" s="22"/>
-      <c r="M62" s="88"/>
-      <c r="N62" s="6"/>
-      <c r="O62" s="7"/>
-      <c r="P62" s="7"/>
-      <c r="Q62" s="7"/>
-      <c r="R62" s="7"/>
-      <c r="S62" s="7"/>
-      <c r="T62" s="7"/>
-      <c r="U62" s="7"/>
-      <c r="V62" s="7"/>
-      <c r="W62" s="7"/>
-      <c r="X62" s="7"/>
-      <c r="Y62" s="7"/>
-      <c r="Z62" s="7"/>
-      <c r="AA62" s="7"/>
-      <c r="AB62" s="7"/>
-      <c r="AC62" s="7"/>
-      <c r="AD62" s="7"/>
-      <c r="AE62" s="7"/>
-      <c r="AF62" s="7"/>
-      <c r="AG62" s="7"/>
+      <c r="A62" s="107" t="s">
+        <v>348</v>
+      </c>
+      <c r="B62" s="105" t="s">
+        <v>381</v>
+      </c>
+      <c r="C62" s="105" t="s">
+        <v>382</v>
+      </c>
+      <c r="D62" t="s">
+        <v>131</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="F62" t="s">
+        <v>297</v>
+      </c>
+      <c r="G62" t="s">
+        <v>237</v>
+      </c>
+      <c r="H62" t="s">
+        <v>412</v>
+      </c>
+      <c r="I62" t="s">
+        <v>413</v>
+      </c>
+      <c r="J62" t="s">
+        <v>136</v>
+      </c>
+      <c r="K62" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="L62" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="M62" s="88" t="s">
+        <v>299</v>
+      </c>
+      <c r="N62" s="77" t="s">
+        <v>260</v>
+      </c>
+      <c r="O62" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="P62" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q62" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="R62" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="S62" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="T62" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="U62" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="V62" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="W62" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="X62" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y62" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z62" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA62" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB62" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="AC62" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="AD62" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="AE62" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="AF62" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="AG62" s="7" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="63" spans="1:33">
       <c r="A63" s="14" t="s">
-        <v>348</v>
-      </c>
-      <c r="B63" s="103" t="s">
-        <v>371</v>
-      </c>
-      <c r="C63" s="103" t="s">
+        <v>349</v>
+      </c>
+      <c r="B63" s="105" t="s">
+        <v>368</v>
+      </c>
+      <c r="C63" s="105" t="s">
         <v>362</v>
       </c>
-      <c r="D63"/>
-      <c r="E63" s="5"/>
-      <c r="F63"/>
-      <c r="G63"/>
-      <c r="H63"/>
-      <c r="I63"/>
-      <c r="J63"/>
-      <c r="K63" s="22"/>
-      <c r="L63" s="22"/>
-      <c r="M63" s="88"/>
-      <c r="N63" s="6"/>
-      <c r="O63" s="7"/>
-      <c r="P63" s="7"/>
-      <c r="Q63" s="7"/>
-      <c r="R63" s="7"/>
-      <c r="S63" s="7"/>
-      <c r="T63" s="7"/>
-      <c r="U63" s="7"/>
-      <c r="V63" s="7"/>
-      <c r="W63" s="7"/>
-      <c r="X63" s="7"/>
-      <c r="Y63" s="7"/>
-      <c r="Z63" s="7"/>
-      <c r="AA63" s="7"/>
-      <c r="AB63" s="7"/>
-      <c r="AC63" s="7"/>
-      <c r="AD63" s="7"/>
-      <c r="AE63" s="7"/>
-      <c r="AF63" s="7"/>
-      <c r="AG63" s="7"/>
+      <c r="D63" t="s">
+        <v>131</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="F63" t="s">
+        <v>297</v>
+      </c>
+      <c r="G63" t="s">
+        <v>237</v>
+      </c>
+      <c r="H63" t="s">
+        <v>414</v>
+      </c>
+      <c r="I63" t="s">
+        <v>415</v>
+      </c>
+      <c r="J63" t="s">
+        <v>136</v>
+      </c>
+      <c r="K63" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="L63" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="M63" s="88" t="s">
+        <v>299</v>
+      </c>
+      <c r="N63" s="77" t="s">
+        <v>260</v>
+      </c>
+      <c r="O63" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="P63" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q63" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="R63" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="S63" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="T63" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="U63" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="V63" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="W63" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="X63" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y63" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z63" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA63" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB63" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="AC63" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="AD63" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="AE63" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="AF63" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="AG63" s="7" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="64" spans="1:33">
       <c r="A64" s="14" t="s">
-        <v>349</v>
-      </c>
-      <c r="B64" s="102"/>
-      <c r="D64"/>
-      <c r="E64" s="5"/>
-      <c r="F64"/>
-      <c r="G64"/>
-      <c r="H64"/>
-      <c r="I64"/>
-      <c r="J64"/>
-      <c r="K64" s="22"/>
-      <c r="L64" s="22"/>
-      <c r="M64" s="88"/>
-      <c r="N64" s="6"/>
-      <c r="O64" s="7"/>
-      <c r="P64" s="7"/>
-      <c r="Q64" s="7"/>
-      <c r="R64" s="7"/>
-      <c r="S64" s="7"/>
-      <c r="T64" s="7"/>
-      <c r="U64" s="7"/>
-      <c r="V64" s="7"/>
-      <c r="W64" s="7"/>
-      <c r="X64" s="7"/>
-      <c r="Y64" s="7"/>
-      <c r="Z64" s="7"/>
-      <c r="AA64" s="7"/>
-      <c r="AB64" s="7"/>
-      <c r="AC64" s="7"/>
-      <c r="AD64" s="7"/>
-      <c r="AE64" s="7"/>
-      <c r="AF64" s="7"/>
-      <c r="AG64" s="7"/>
+        <v>383</v>
+      </c>
+      <c r="B64" s="105" t="s">
+        <v>369</v>
+      </c>
+      <c r="C64" s="105" t="s">
+        <v>362</v>
+      </c>
+      <c r="D64" t="s">
+        <v>131</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="F64" t="s">
+        <v>297</v>
+      </c>
+      <c r="G64" t="s">
+        <v>237</v>
+      </c>
+      <c r="H64" t="s">
+        <v>416</v>
+      </c>
+      <c r="I64" t="s">
+        <v>417</v>
+      </c>
+      <c r="J64" t="s">
+        <v>136</v>
+      </c>
+      <c r="K64" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="L64" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="M64" s="88" t="s">
+        <v>299</v>
+      </c>
+      <c r="N64" s="77" t="s">
+        <v>260</v>
+      </c>
+      <c r="O64" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="P64" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q64" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="R64" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="S64" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="T64" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="U64" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="V64" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="W64" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="X64" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y64" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z64" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA64" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB64" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="AC64" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="AD64" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="AE64" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="AF64" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="AG64" s="7" t="s">
+        <v>134</v>
+      </c>
     </row>
-    <row r="66" spans="2:35">
-      <c r="B66" s="98" t="s">
+    <row r="65" spans="1:35">
+      <c r="A65" s="14" t="s">
+        <v>384</v>
+      </c>
+      <c r="B65" s="105" t="s">
+        <v>370</v>
+      </c>
+      <c r="C65" s="105" t="s">
+        <v>362</v>
+      </c>
+      <c r="D65" t="s">
+        <v>131</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="F65" t="s">
+        <v>297</v>
+      </c>
+      <c r="G65" t="s">
+        <v>237</v>
+      </c>
+      <c r="H65" t="s">
+        <v>418</v>
+      </c>
+      <c r="I65" t="s">
+        <v>419</v>
+      </c>
+      <c r="J65" t="s">
+        <v>136</v>
+      </c>
+      <c r="K65" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="L65" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="M65" s="88" t="s">
+        <v>299</v>
+      </c>
+      <c r="N65" s="77" t="s">
+        <v>260</v>
+      </c>
+      <c r="O65" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="P65" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q65" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="R65" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="S65" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="T65" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="U65" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="V65" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="W65" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="X65" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y65" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z65" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA65" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB65" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="AC65" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="AD65" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="AE65" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="AF65" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="AG65" s="7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="66" spans="1:35">
+      <c r="A66" s="14" t="s">
+        <v>385</v>
+      </c>
+      <c r="B66" s="105" t="s">
+        <v>371</v>
+      </c>
+      <c r="C66" s="105" t="s">
+        <v>362</v>
+      </c>
+      <c r="D66" t="s">
+        <v>131</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="F66" t="s">
+        <v>297</v>
+      </c>
+      <c r="G66" t="s">
+        <v>237</v>
+      </c>
+      <c r="H66" t="s">
+        <v>420</v>
+      </c>
+      <c r="I66" t="s">
+        <v>421</v>
+      </c>
+      <c r="J66" t="s">
+        <v>136</v>
+      </c>
+      <c r="K66" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="L66" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="M66" s="88" t="s">
+        <v>299</v>
+      </c>
+      <c r="N66" s="77" t="s">
+        <v>260</v>
+      </c>
+      <c r="O66" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="P66" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q66" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="R66" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="S66" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="T66" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="U66" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="V66" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="W66" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="X66" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y66" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z66" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA66" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB66" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="AC66" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="AD66" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="AE66" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="AF66" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="AG66" s="7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="67" spans="1:35">
+      <c r="A67" s="102"/>
+      <c r="B67" s="102"/>
+      <c r="D67"/>
+      <c r="E67" s="5"/>
+      <c r="F67"/>
+      <c r="G67"/>
+      <c r="H67"/>
+      <c r="I67"/>
+      <c r="J67"/>
+      <c r="K67" s="22"/>
+      <c r="L67" s="22"/>
+      <c r="M67" s="88"/>
+      <c r="N67" s="6"/>
+      <c r="O67" s="7"/>
+      <c r="P67" s="7"/>
+      <c r="Q67" s="7"/>
+      <c r="R67" s="7"/>
+      <c r="S67" s="7"/>
+      <c r="T67" s="7"/>
+      <c r="U67" s="7"/>
+      <c r="V67" s="7"/>
+      <c r="W67" s="7"/>
+      <c r="X67" s="7"/>
+      <c r="Y67" s="7"/>
+      <c r="Z67" s="7"/>
+      <c r="AA67" s="7"/>
+      <c r="AB67" s="7"/>
+      <c r="AC67" s="7"/>
+      <c r="AD67" s="7"/>
+      <c r="AE67" s="7"/>
+      <c r="AF67" s="7"/>
+      <c r="AG67" s="7"/>
+    </row>
+    <row r="69" spans="1:35">
+      <c r="B69" s="98" t="s">
         <v>191</v>
       </c>
-      <c r="C66" s="75"/>
-      <c r="AI66" s="40"/>
+      <c r="C69" s="75"/>
+      <c r="AI69" s="40"/>
     </row>
-    <row r="67" spans="2:35">
-      <c r="B67" s="9" t="s">
+    <row r="70" spans="1:35">
+      <c r="B70" s="9" t="s">
         <v>250</v>
       </c>
-      <c r="C67" s="73" t="s">
+      <c r="C70" s="73" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="68" spans="2:35">
-      <c r="B68" s="73" t="s">
+    <row r="71" spans="1:35">
+      <c r="B71" s="73" t="s">
         <v>299</v>
       </c>
-      <c r="C68" s="29" t="s">
+      <c r="C71" s="29" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="69" spans="2:35">
-      <c r="B69" s="87" t="s">
+    <row r="72" spans="1:35">
+      <c r="B72" s="87" t="s">
         <v>300</v>
       </c>
-      <c r="C69" s="29" t="s">
+      <c r="C72" s="29" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="71" spans="2:35">
-      <c r="B71" s="63"/>
+    <row r="74" spans="1:35">
+      <c r="B74" s="63"/>
     </row>
-    <row r="79" spans="2:35" ht="18">
-      <c r="B79" s="71"/>
+    <row r="82" spans="2:2" ht="18">
+      <c r="B82" s="71"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AG47"/>
+  <autoFilter ref="A1:AG48"/>
   <conditionalFormatting sqref="I9 F11:H11 F6:H7 F45:H45 F43:H43 G42:I42 F26:H27 G9:H16 F36:I41 F30:I34 F13:H24">
-    <cfRule type="containsText" dxfId="803" priority="2197" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="920" priority="2314" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",F6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="802" priority="2198" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="919" priority="2315" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",F6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I34">
-    <cfRule type="containsText" dxfId="801" priority="2189" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="918" priority="2306" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",I34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="800" priority="2190" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="917" priority="2307" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",I34)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="containsText" dxfId="799" priority="2181" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="916" priority="2298" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",I6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="798" priority="2182" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="915" priority="2299" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",I6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="containsText" dxfId="797" priority="2173" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="914" priority="2290" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",I7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="796" priority="2174" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="913" priority="2291" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",I7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="containsText" dxfId="795" priority="2169" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="912" priority="2286" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",I10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="794" priority="2170" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="911" priority="2287" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",I10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="containsText" dxfId="793" priority="2161" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="910" priority="2278" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",I11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="792" priority="2162" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="909" priority="2279" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",I11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12:I13">
-    <cfRule type="containsText" dxfId="791" priority="2153" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="908" priority="2270" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",I12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="790" priority="2154" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="907" priority="2271" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",I12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I14">
-    <cfRule type="containsText" dxfId="789" priority="2149" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="906" priority="2266" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",I14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="788" priority="2150" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="905" priority="2267" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",I14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15">
-    <cfRule type="containsText" dxfId="787" priority="2145" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="904" priority="2262" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",I15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="786" priority="2146" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="903" priority="2263" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",I15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I36">
-    <cfRule type="containsText" dxfId="785" priority="2141" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="902" priority="2258" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",I36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="784" priority="2142" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="901" priority="2259" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",I36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I18">
-    <cfRule type="containsText" dxfId="783" priority="2137" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="900" priority="2254" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",I18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="782" priority="2138" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="899" priority="2255" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",I18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I17">
-    <cfRule type="containsText" dxfId="781" priority="2133" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="898" priority="2250" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",I17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="780" priority="2134" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="897" priority="2251" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",I17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20">
-    <cfRule type="containsText" dxfId="779" priority="2129" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="896" priority="2246" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",I20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="778" priority="2130" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="895" priority="2247" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",I20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I21">
-    <cfRule type="containsText" dxfId="777" priority="2123" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="894" priority="2240" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",I21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="776" priority="2124" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="893" priority="2241" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",I21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I22">
-    <cfRule type="containsText" dxfId="775" priority="2119" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="892" priority="2236" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",I22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="774" priority="2120" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="891" priority="2237" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",I22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I23">
-    <cfRule type="containsText" dxfId="773" priority="2115" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="890" priority="2232" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",I23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="772" priority="2116" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="889" priority="2233" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",I23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I37">
-    <cfRule type="containsText" dxfId="771" priority="2111" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="888" priority="2228" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",I37)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="770" priority="2112" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="887" priority="2229" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",I37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I38">
-    <cfRule type="containsText" dxfId="769" priority="2103" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="886" priority="2220" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",I38)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="768" priority="2104" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="885" priority="2221" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",I38)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I41">
-    <cfRule type="containsText" dxfId="767" priority="2095" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="884" priority="2212" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",I41)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="766" priority="2096" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="883" priority="2213" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",I41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I39">
-    <cfRule type="containsText" dxfId="765" priority="2091" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="882" priority="2208" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",I39)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="764" priority="2092" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="881" priority="2209" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",I39)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I16">
-    <cfRule type="containsText" dxfId="763" priority="2087" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="880" priority="2204" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",I16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="762" priority="2088" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="879" priority="2205" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",I16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I19">
-    <cfRule type="containsText" dxfId="761" priority="2083" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="878" priority="2200" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",I19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="760" priority="2084" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="877" priority="2201" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",I19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I24">
-    <cfRule type="containsText" dxfId="759" priority="2079" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="876" priority="2196" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",I24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="758" priority="2080" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="875" priority="2197" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",I24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I27">
-    <cfRule type="containsText" dxfId="757" priority="2075" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="874" priority="2192" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",I27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="756" priority="2076" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="873" priority="2193" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",I27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I26">
-    <cfRule type="containsText" dxfId="755" priority="2071" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="872" priority="2188" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",I26)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="754" priority="2072" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="871" priority="2189" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",I26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I30:I31">
-    <cfRule type="containsText" dxfId="753" priority="2067" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="870" priority="2184" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",I30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="752" priority="2068" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="869" priority="2185" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",I30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I32:I33">
-    <cfRule type="containsText" dxfId="751" priority="2063" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="868" priority="2180" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",I32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="750" priority="2064" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="867" priority="2181" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",I32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I40">
-    <cfRule type="containsText" dxfId="749" priority="2059" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="866" priority="2176" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",I40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="748" priority="2060" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="865" priority="2177" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",I40)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I45">
-    <cfRule type="containsText" dxfId="747" priority="2051" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="864" priority="2168" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",I45)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="746" priority="2052" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="863" priority="2169" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",I45)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I43">
-    <cfRule type="containsText" dxfId="745" priority="2023" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="862" priority="2140" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",I43)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="744" priority="2024" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="861" priority="2141" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",I43)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K9:L16 K6:L7 K38:L39 K43:L43 L26:L27 L36 L30:L34 D20:D30 L17:L24 K17:K19">
-    <cfRule type="containsText" dxfId="743" priority="2015" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="860" priority="2132" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="742" priority="2016" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="859" priority="2133" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L45">
-    <cfRule type="containsText" dxfId="741" priority="1999" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="858" priority="2116" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",L45)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="740" priority="2000" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="857" priority="2117" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",L45)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K26:K27">
-    <cfRule type="containsText" dxfId="739" priority="1911" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="856" priority="2028" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",K26)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="738" priority="1912" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="855" priority="2029" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",K26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K45">
-    <cfRule type="containsText" dxfId="737" priority="1909" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="854" priority="2026" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",K45)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="736" priority="1910" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="853" priority="2027" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",K45)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J9:J10 J6:J7 J26:J27 J36 J30:J34 J12:J24">
-    <cfRule type="containsText" dxfId="735" priority="1902" operator="containsText" text="Android">
+    <cfRule type="containsText" dxfId="852" priority="2019" operator="containsText" text="Android">
       <formula>NOT(ISERROR(SEARCH("Android",J6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J9:J10 J6:J7 J26:J27 J36 J30:J34 J12:J24">
-    <cfRule type="containsText" dxfId="734" priority="1900" operator="containsText" text="Web">
+    <cfRule type="containsText" dxfId="851" priority="2017" operator="containsText" text="Web">
       <formula>NOT(ISERROR(SEARCH("Web",J6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="733" priority="1901" operator="containsText" text="iOS">
+    <cfRule type="containsText" dxfId="850" priority="2018" operator="containsText" text="iOS">
       <formula>NOT(ISERROR(SEARCH("iOS",J6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J38">
-    <cfRule type="containsText" dxfId="732" priority="1893" operator="containsText" text="Android">
+    <cfRule type="containsText" dxfId="849" priority="2010" operator="containsText" text="Android">
       <formula>NOT(ISERROR(SEARCH("Android",J38)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J38">
-    <cfRule type="containsText" dxfId="731" priority="1891" operator="containsText" text="Web">
+    <cfRule type="containsText" dxfId="848" priority="2008" operator="containsText" text="Web">
       <formula>NOT(ISERROR(SEARCH("Web",J38)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="730" priority="1892" operator="containsText" text="iOS">
+    <cfRule type="containsText" dxfId="847" priority="2009" operator="containsText" text="iOS">
       <formula>NOT(ISERROR(SEARCH("iOS",J38)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J39">
-    <cfRule type="containsText" dxfId="729" priority="1890" operator="containsText" text="Android">
+    <cfRule type="containsText" dxfId="846" priority="2007" operator="containsText" text="Android">
       <formula>NOT(ISERROR(SEARCH("Android",J39)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J39">
-    <cfRule type="containsText" dxfId="728" priority="1888" operator="containsText" text="Web">
+    <cfRule type="containsText" dxfId="845" priority="2005" operator="containsText" text="Web">
       <formula>NOT(ISERROR(SEARCH("Web",J39)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="727" priority="1889" operator="containsText" text="iOS">
+    <cfRule type="containsText" dxfId="844" priority="2006" operator="containsText" text="iOS">
       <formula>NOT(ISERROR(SEARCH("iOS",J39)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J45">
-    <cfRule type="containsText" dxfId="726" priority="1878" operator="containsText" text="Android">
+    <cfRule type="containsText" dxfId="843" priority="1995" operator="containsText" text="Android">
       <formula>NOT(ISERROR(SEARCH("Android",J45)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J45">
-    <cfRule type="containsText" dxfId="725" priority="1876" operator="containsText" text="Web">
+    <cfRule type="containsText" dxfId="842" priority="1993" operator="containsText" text="Web">
       <formula>NOT(ISERROR(SEARCH("Web",J45)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="724" priority="1877" operator="containsText" text="iOS">
+    <cfRule type="containsText" dxfId="841" priority="1994" operator="containsText" text="iOS">
       <formula>NOT(ISERROR(SEARCH("iOS",J45)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J43">
-    <cfRule type="containsText" dxfId="723" priority="1875" operator="containsText" text="Android">
+    <cfRule type="containsText" dxfId="840" priority="1992" operator="containsText" text="Android">
       <formula>NOT(ISERROR(SEARCH("Android",J43)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J43">
-    <cfRule type="containsText" dxfId="722" priority="1873" operator="containsText" text="Web">
+    <cfRule type="containsText" dxfId="839" priority="1990" operator="containsText" text="Web">
       <formula>NOT(ISERROR(SEARCH("Web",J43)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="721" priority="1874" operator="containsText" text="iOS">
+    <cfRule type="containsText" dxfId="838" priority="1991" operator="containsText" text="iOS">
       <formula>NOT(ISERROR(SEARCH("iOS",J43)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J37">
-    <cfRule type="containsText" dxfId="720" priority="1872" operator="containsText" text="Android">
+    <cfRule type="containsText" dxfId="837" priority="1989" operator="containsText" text="Android">
       <formula>NOT(ISERROR(SEARCH("Android",J37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J37">
-    <cfRule type="containsText" dxfId="719" priority="1870" operator="containsText" text="Web">
+    <cfRule type="containsText" dxfId="836" priority="1987" operator="containsText" text="Web">
       <formula>NOT(ISERROR(SEARCH("Web",J37)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="718" priority="1871" operator="containsText" text="iOS">
+    <cfRule type="containsText" dxfId="835" priority="1988" operator="containsText" text="iOS">
       <formula>NOT(ISERROR(SEARCH("iOS",J37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J41">
-    <cfRule type="containsText" dxfId="717" priority="1866" operator="containsText" text="Android">
+    <cfRule type="containsText" dxfId="834" priority="1983" operator="containsText" text="Android">
       <formula>NOT(ISERROR(SEARCH("Android",J41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J41">
-    <cfRule type="containsText" dxfId="716" priority="1864" operator="containsText" text="Web">
+    <cfRule type="containsText" dxfId="833" priority="1981" operator="containsText" text="Web">
       <formula>NOT(ISERROR(SEARCH("Web",J41)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="715" priority="1865" operator="containsText" text="iOS">
+    <cfRule type="containsText" dxfId="832" priority="1982" operator="containsText" text="iOS">
       <formula>NOT(ISERROR(SEARCH("iOS",J41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13">
-    <cfRule type="containsText" dxfId="714" priority="1858" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="831" priority="1975" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",I13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="713" priority="1859" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="830" priority="1976" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",I13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I14">
-    <cfRule type="containsText" dxfId="712" priority="1856" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="829" priority="1973" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",I14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="711" priority="1857" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="828" priority="1974" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",I14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K32:K33">
-    <cfRule type="containsText" dxfId="710" priority="1854" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="827" priority="1971" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",K32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="709" priority="1855" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="826" priority="1972" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",K32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K30:K31">
-    <cfRule type="containsText" dxfId="708" priority="1852" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="825" priority="1969" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",K30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="707" priority="1853" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="824" priority="1970" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",K30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J40">
-    <cfRule type="containsText" dxfId="706" priority="1851" operator="containsText" text="Android">
+    <cfRule type="containsText" dxfId="823" priority="1968" operator="containsText" text="Android">
       <formula>NOT(ISERROR(SEARCH("Android",J40)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J40">
-    <cfRule type="containsText" dxfId="705" priority="1849" operator="containsText" text="Web">
+    <cfRule type="containsText" dxfId="822" priority="1966" operator="containsText" text="Web">
       <formula>NOT(ISERROR(SEARCH("Web",J40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="704" priority="1850" operator="containsText" text="iOS">
+    <cfRule type="containsText" dxfId="821" priority="1967" operator="containsText" text="iOS">
       <formula>NOT(ISERROR(SEARCH("iOS",J40)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L40">
-    <cfRule type="containsText" dxfId="703" priority="1845" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="820" priority="1962" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",L40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="702" priority="1846" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="819" priority="1963" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",L40)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K40">
-    <cfRule type="containsText" dxfId="701" priority="1755" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="818" priority="1872" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",K40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="700" priority="1756" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="817" priority="1873" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",K40)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H42">
-    <cfRule type="containsText" dxfId="699" priority="1751" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="816" priority="1868" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",H42)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="698" priority="1752" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="815" priority="1869" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",H42)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I42">
-    <cfRule type="containsText" dxfId="697" priority="1749" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="814" priority="1866" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",I42)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="696" priority="1750" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="813" priority="1867" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",I42)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L42">
-    <cfRule type="containsText" dxfId="695" priority="1747" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="812" priority="1864" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",L42)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="694" priority="1748" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="811" priority="1865" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",L42)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K42">
-    <cfRule type="containsText" dxfId="693" priority="1745" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="810" priority="1862" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",K42)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="692" priority="1746" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="809" priority="1863" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",K42)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J42">
-    <cfRule type="containsText" dxfId="691" priority="1744" operator="containsText" text="Android">
+    <cfRule type="containsText" dxfId="808" priority="1861" operator="containsText" text="Android">
       <formula>NOT(ISERROR(SEARCH("Android",J42)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J42">
-    <cfRule type="containsText" dxfId="690" priority="1742" operator="containsText" text="Web">
+    <cfRule type="containsText" dxfId="807" priority="1859" operator="containsText" text="Web">
       <formula>NOT(ISERROR(SEARCH("Web",J42)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="689" priority="1743" operator="containsText" text="iOS">
+    <cfRule type="containsText" dxfId="806" priority="1860" operator="containsText" text="iOS">
       <formula>NOT(ISERROR(SEARCH("iOS",J42)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G42">
-    <cfRule type="containsText" dxfId="688" priority="1721" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="805" priority="1838" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",G42)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="687" priority="1722" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="804" priority="1839" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",G42)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8:H8">
-    <cfRule type="containsText" dxfId="686" priority="1708" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="803" priority="1825" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",G8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="685" priority="1709" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="802" priority="1826" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",G8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8 I8">
-    <cfRule type="containsText" dxfId="684" priority="1704" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="801" priority="1821" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",F8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="683" priority="1705" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="800" priority="1822" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",F8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8:L8">
-    <cfRule type="containsText" dxfId="682" priority="1702" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="799" priority="1819" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",K8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="681" priority="1703" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="798" priority="1820" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",K8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8">
-    <cfRule type="containsText" dxfId="680" priority="1701" operator="containsText" text="Android">
+    <cfRule type="containsText" dxfId="797" priority="1818" operator="containsText" text="Android">
       <formula>NOT(ISERROR(SEARCH("Android",J8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8">
-    <cfRule type="containsText" dxfId="679" priority="1699" operator="containsText" text="Web">
+    <cfRule type="containsText" dxfId="796" priority="1816" operator="containsText" text="Web">
       <formula>NOT(ISERROR(SEARCH("Web",J8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="678" priority="1700" operator="containsText" text="iOS">
+    <cfRule type="containsText" dxfId="795" priority="1817" operator="containsText" text="iOS">
       <formula>NOT(ISERROR(SEARCH("iOS",J8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:H3">
-    <cfRule type="containsText" dxfId="677" priority="1687" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="794" priority="1804" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",F3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="676" priority="1688" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="793" priority="1805" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",F3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="containsText" dxfId="675" priority="1685" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="792" priority="1802" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",I3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="674" priority="1686" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="791" priority="1803" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",I3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:L3">
-    <cfRule type="containsText" dxfId="673" priority="1683" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="790" priority="1800" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",K3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="672" priority="1684" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="789" priority="1801" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",K3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3">
-    <cfRule type="containsText" dxfId="671" priority="1682" operator="containsText" text="Android">
+    <cfRule type="containsText" dxfId="788" priority="1799" operator="containsText" text="Android">
       <formula>NOT(ISERROR(SEARCH("Android",J3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3">
-    <cfRule type="containsText" dxfId="670" priority="1680" operator="containsText" text="Web">
+    <cfRule type="containsText" dxfId="787" priority="1797" operator="containsText" text="Web">
       <formula>NOT(ISERROR(SEARCH("Web",J3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="669" priority="1681" operator="containsText" text="iOS">
+    <cfRule type="containsText" dxfId="786" priority="1798" operator="containsText" text="iOS">
       <formula>NOT(ISERROR(SEARCH("iOS",J3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F28:H28">
-    <cfRule type="containsText" dxfId="668" priority="1676" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="785" priority="1793" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",F28)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="667" priority="1677" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="784" priority="1794" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",F28)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I28">
-    <cfRule type="containsText" dxfId="666" priority="1674" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="783" priority="1791" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",I28)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="665" priority="1675" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="782" priority="1792" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",I28)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L28">
-    <cfRule type="containsText" dxfId="664" priority="1672" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="781" priority="1789" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",L28)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="663" priority="1673" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="780" priority="1790" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",L28)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K28">
-    <cfRule type="containsText" dxfId="662" priority="1670" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="779" priority="1787" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",K28)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="661" priority="1671" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="778" priority="1788" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",K28)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J28">
-    <cfRule type="containsText" dxfId="660" priority="1669" operator="containsText" text="Android">
+    <cfRule type="containsText" dxfId="777" priority="1786" operator="containsText" text="Android">
       <formula>NOT(ISERROR(SEARCH("Android",J28)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J28">
-    <cfRule type="containsText" dxfId="659" priority="1667" operator="containsText" text="Web">
+    <cfRule type="containsText" dxfId="776" priority="1784" operator="containsText" text="Web">
       <formula>NOT(ISERROR(SEARCH("Web",J28)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="658" priority="1668" operator="containsText" text="iOS">
+    <cfRule type="containsText" dxfId="775" priority="1785" operator="containsText" text="iOS">
       <formula>NOT(ISERROR(SEARCH("iOS",J28)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25:H25">
-    <cfRule type="containsText" dxfId="657" priority="1665" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="774" priority="1782" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",F25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="656" priority="1666" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="773" priority="1783" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",F25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I25">
-    <cfRule type="containsText" dxfId="655" priority="1663" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="772" priority="1780" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",I25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="654" priority="1664" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="771" priority="1781" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",I25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L25">
-    <cfRule type="containsText" dxfId="653" priority="1661" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="770" priority="1778" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",L25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="652" priority="1662" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="769" priority="1779" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",L25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K25">
-    <cfRule type="containsText" dxfId="651" priority="1659" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="768" priority="1776" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",K25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="650" priority="1660" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="767" priority="1777" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",K25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J25">
-    <cfRule type="containsText" dxfId="649" priority="1658" operator="containsText" text="Android">
+    <cfRule type="containsText" dxfId="766" priority="1775" operator="containsText" text="Android">
       <formula>NOT(ISERROR(SEARCH("Android",J25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J25">
-    <cfRule type="containsText" dxfId="648" priority="1656" operator="containsText" text="Web">
+    <cfRule type="containsText" dxfId="765" priority="1773" operator="containsText" text="Web">
       <formula>NOT(ISERROR(SEARCH("Web",J25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="647" priority="1657" operator="containsText" text="iOS">
+    <cfRule type="containsText" dxfId="764" priority="1774" operator="containsText" text="iOS">
       <formula>NOT(ISERROR(SEARCH("iOS",J25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K20">
-    <cfRule type="containsText" dxfId="646" priority="1648" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="763" priority="1765" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",K20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="645" priority="1649" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="762" priority="1766" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",K20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K21">
-    <cfRule type="containsText" dxfId="644" priority="1646" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="761" priority="1763" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",K21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="643" priority="1647" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="760" priority="1764" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",K21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F44:H44">
-    <cfRule type="containsText" dxfId="642" priority="1644" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="759" priority="1761" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",F44)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="641" priority="1645" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="758" priority="1762" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",F44)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I44">
-    <cfRule type="containsText" dxfId="640" priority="1642" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="757" priority="1759" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",I44)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="639" priority="1643" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="756" priority="1760" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",I44)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L44">
-    <cfRule type="containsText" dxfId="638" priority="1638" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="755" priority="1755" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",L44)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="637" priority="1639" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="754" priority="1756" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",L44)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K44">
-    <cfRule type="containsText" dxfId="636" priority="1636" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="753" priority="1753" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",K44)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="635" priority="1637" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="752" priority="1754" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",K44)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J44">
-    <cfRule type="containsText" dxfId="634" priority="1635" operator="containsText" text="Android">
+    <cfRule type="containsText" dxfId="751" priority="1752" operator="containsText" text="Android">
       <formula>NOT(ISERROR(SEARCH("Android",J44)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J44">
-    <cfRule type="containsText" dxfId="633" priority="1633" operator="containsText" text="Web">
+    <cfRule type="containsText" dxfId="750" priority="1750" operator="containsText" text="Web">
       <formula>NOT(ISERROR(SEARCH("Web",J44)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="632" priority="1634" operator="containsText" text="iOS">
+    <cfRule type="containsText" dxfId="749" priority="1751" operator="containsText" text="iOS">
       <formula>NOT(ISERROR(SEARCH("iOS",J44)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G41">
-    <cfRule type="containsText" dxfId="631" priority="1598" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="748" priority="1715" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",G41)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="630" priority="1599" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="747" priority="1716" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",G41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E44">
-    <cfRule type="containsText" dxfId="629" priority="1592" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="746" priority="1709" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",E44)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="628" priority="1593" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="745" priority="1710" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",E44)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K34">
-    <cfRule type="containsText" dxfId="627" priority="1590" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="744" priority="1707" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",K34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="626" priority="1591" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="743" priority="1708" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",K34)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K24">
-    <cfRule type="containsText" dxfId="625" priority="1530" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="742" priority="1647" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",K24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="624" priority="1531" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="741" priority="1648" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",K24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K23">
-    <cfRule type="containsText" dxfId="623" priority="1528" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="740" priority="1645" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",K23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="622" priority="1529" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="739" priority="1646" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",K23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K22">
-    <cfRule type="containsText" dxfId="621" priority="1526" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="738" priority="1643" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",K22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="620" priority="1527" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="737" priority="1644" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",K22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29:H29">
-    <cfRule type="containsText" dxfId="619" priority="1524" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="736" priority="1641" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",F29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="618" priority="1525" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="735" priority="1642" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",F29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I29">
-    <cfRule type="containsText" dxfId="617" priority="1522" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="734" priority="1639" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",I29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="616" priority="1523" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="733" priority="1640" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",I29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L29">
-    <cfRule type="containsText" dxfId="615" priority="1520" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="732" priority="1637" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",L29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="614" priority="1521" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="731" priority="1638" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",L29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K29">
-    <cfRule type="containsText" dxfId="613" priority="1518" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="730" priority="1635" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",K29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="612" priority="1519" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="729" priority="1636" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",K29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J29">
-    <cfRule type="containsText" dxfId="611" priority="1517" operator="containsText" text="Android">
+    <cfRule type="containsText" dxfId="728" priority="1634" operator="containsText" text="Android">
       <formula>NOT(ISERROR(SEARCH("Android",J29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J29">
-    <cfRule type="containsText" dxfId="610" priority="1515" operator="containsText" text="Web">
+    <cfRule type="containsText" dxfId="727" priority="1632" operator="containsText" text="Web">
       <formula>NOT(ISERROR(SEARCH("Web",J29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="609" priority="1516" operator="containsText" text="iOS">
+    <cfRule type="containsText" dxfId="726" priority="1633" operator="containsText" text="iOS">
       <formula>NOT(ISERROR(SEARCH("iOS",J29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F35:I35">
-    <cfRule type="containsText" dxfId="608" priority="1499" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="725" priority="1616" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",F35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="607" priority="1500" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="724" priority="1617" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",F35)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I35">
-    <cfRule type="containsText" dxfId="606" priority="1497" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="723" priority="1614" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",I35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="605" priority="1498" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="722" priority="1615" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",I35)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L35">
-    <cfRule type="containsText" dxfId="604" priority="1495" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="721" priority="1612" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",L35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="603" priority="1496" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="720" priority="1613" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",L35)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J35">
-    <cfRule type="containsText" dxfId="602" priority="1494" operator="containsText" text="Android">
+    <cfRule type="containsText" dxfId="719" priority="1611" operator="containsText" text="Android">
       <formula>NOT(ISERROR(SEARCH("Android",J35)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J35">
-    <cfRule type="containsText" dxfId="601" priority="1492" operator="containsText" text="Web">
+    <cfRule type="containsText" dxfId="718" priority="1609" operator="containsText" text="Web">
       <formula>NOT(ISERROR(SEARCH("Web",J35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="600" priority="1493" operator="containsText" text="iOS">
+    <cfRule type="containsText" dxfId="717" priority="1610" operator="containsText" text="iOS">
       <formula>NOT(ISERROR(SEARCH("iOS",J35)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K36">
-    <cfRule type="containsText" dxfId="599" priority="1484" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="716" priority="1601" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",K36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="598" priority="1485" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="715" priority="1602" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",K36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F46:H46">
-    <cfRule type="containsText" dxfId="597" priority="1478" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="714" priority="1595" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",F46)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="596" priority="1479" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="713" priority="1596" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",F46)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I46">
-    <cfRule type="containsText" dxfId="595" priority="1476" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="712" priority="1593" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",I46)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="594" priority="1477" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="711" priority="1594" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",I46)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L46">
-    <cfRule type="containsText" dxfId="593" priority="1472" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="710" priority="1589" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",L46)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="592" priority="1473" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="709" priority="1590" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",L46)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K46">
-    <cfRule type="containsText" dxfId="591" priority="1470" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="708" priority="1587" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",K46)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="590" priority="1471" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="707" priority="1588" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",K46)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J46">
-    <cfRule type="containsText" dxfId="589" priority="1469" operator="containsText" text="Android">
+    <cfRule type="containsText" dxfId="706" priority="1586" operator="containsText" text="Android">
       <formula>NOT(ISERROR(SEARCH("Android",J46)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J46">
-    <cfRule type="containsText" dxfId="588" priority="1467" operator="containsText" text="Web">
+    <cfRule type="containsText" dxfId="705" priority="1584" operator="containsText" text="Web">
       <formula>NOT(ISERROR(SEARCH("Web",J46)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="587" priority="1468" operator="containsText" text="iOS">
+    <cfRule type="containsText" dxfId="704" priority="1585" operator="containsText" text="iOS">
       <formula>NOT(ISERROR(SEARCH("iOS",J46)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K35">
-    <cfRule type="containsText" dxfId="586" priority="1449" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="703" priority="1566" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",K35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="585" priority="1450" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="702" priority="1567" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",K35)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31:D46 D3 D6:D16">
-    <cfRule type="containsText" dxfId="584" priority="1040" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="701" priority="1157" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="583" priority="1041" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="700" priority="1158" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31:D46 D3 D6:D16">
-    <cfRule type="containsText" dxfId="582" priority="1038" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="699" priority="1155" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="581" priority="1039" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="698" priority="1156" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31:D46 D3 D6:D16">
-    <cfRule type="containsText" dxfId="580" priority="1036" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="697" priority="1153" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="579" priority="1037" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="696" priority="1154" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31:D46 D3 D6:D16">
-    <cfRule type="containsText" dxfId="578" priority="1034" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="695" priority="1151" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="577" priority="1035" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="694" priority="1152" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31:D46 D3 D6:D16">
-    <cfRule type="containsText" dxfId="576" priority="1032" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="693" priority="1149" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="575" priority="1033" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="692" priority="1150" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31:D46 D3 D6:D16">
-    <cfRule type="containsText" dxfId="574" priority="1030" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="691" priority="1147" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="573" priority="1031" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="690" priority="1148" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31:D46 D3 D6:D16">
-    <cfRule type="containsText" dxfId="572" priority="1028" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="689" priority="1145" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="571" priority="1029" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="688" priority="1146" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31:D46 D3 D6:D16">
-    <cfRule type="containsText" dxfId="570" priority="1026" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="687" priority="1143" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="569" priority="1027" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="686" priority="1144" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31:D46 D3 D6:D16">
-    <cfRule type="containsText" dxfId="568" priority="1024" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="685" priority="1141" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="567" priority="1025" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="684" priority="1142" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31:D46 D3 D6:D16">
-    <cfRule type="containsText" dxfId="566" priority="1022" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="683" priority="1139" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="565" priority="1023" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="682" priority="1140" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31:D46 D3 D6:D16">
-    <cfRule type="containsText" dxfId="564" priority="1020" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="681" priority="1137" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="563" priority="1021" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="680" priority="1138" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31:D46 D3 D6:D16">
-    <cfRule type="containsText" dxfId="562" priority="1018" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="679" priority="1135" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="561" priority="1019" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="678" priority="1136" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31:D46 D3 D6:D16">
-    <cfRule type="containsText" dxfId="560" priority="1016" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="677" priority="1133" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="559" priority="1017" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="676" priority="1134" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31:D46 D3 D6:D16">
-    <cfRule type="containsText" dxfId="558" priority="1014" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="675" priority="1131" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="557" priority="1015" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="674" priority="1132" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31:D46 D3 D6:D16">
-    <cfRule type="containsText" dxfId="556" priority="1012" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="673" priority="1129" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="555" priority="1013" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="672" priority="1130" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31:D46 D3 D6:D16">
-    <cfRule type="containsText" dxfId="554" priority="1010" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="671" priority="1127" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="553" priority="1011" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="670" priority="1128" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31:D46 D3 D6:D16">
-    <cfRule type="containsText" dxfId="552" priority="1008" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="669" priority="1125" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="551" priority="1009" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="668" priority="1126" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31:D46 D3 D6:D16">
-    <cfRule type="containsText" dxfId="550" priority="1006" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="667" priority="1123" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="549" priority="1007" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="666" priority="1124" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31:D46 D3 D6:D16">
-    <cfRule type="containsText" dxfId="548" priority="1004" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="665" priority="1121" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="547" priority="1005" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="664" priority="1122" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31:D46 D3 D6:D16">
-    <cfRule type="containsText" dxfId="546" priority="1002" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="663" priority="1119" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="545" priority="1003" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="662" priority="1120" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31:D46 D3 D6:D16">
-    <cfRule type="containsText" dxfId="544" priority="1000" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="661" priority="1117" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="543" priority="1001" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="660" priority="1118" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31:D46 D3 D6:D16">
-    <cfRule type="containsText" dxfId="542" priority="998" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="659" priority="1115" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="541" priority="999" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="658" priority="1116" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31:D46 D3 D6:D16">
-    <cfRule type="containsText" dxfId="540" priority="996" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="657" priority="1113" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="539" priority="997" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="656" priority="1114" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31:D46 D3 D6:D16">
-    <cfRule type="containsText" dxfId="538" priority="994" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="655" priority="1111" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="537" priority="995" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="654" priority="1112" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31:D46 D3 D6:D16">
-    <cfRule type="containsText" dxfId="536" priority="992" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="653" priority="1109" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="535" priority="993" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="652" priority="1110" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31:D46 D3 D6:D16">
-    <cfRule type="containsText" dxfId="534" priority="990" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="651" priority="1107" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="533" priority="991" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="650" priority="1108" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31:D46 D3 D6:D16">
-    <cfRule type="containsText" dxfId="532" priority="988" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="649" priority="1105" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="531" priority="989" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="648" priority="1106" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31:D46 D3 D6:D16">
-    <cfRule type="containsText" dxfId="530" priority="768" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="647" priority="885" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="529" priority="769" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="646" priority="886" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31:D46 D3 D6:D16">
-    <cfRule type="containsText" dxfId="528" priority="766" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="645" priority="883" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="527" priority="767" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="644" priority="884" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31:D46 D3 D6:D16">
-    <cfRule type="containsText" dxfId="526" priority="764" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="643" priority="881" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="525" priority="765" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="642" priority="882" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31:D46 D3 D6:D16">
-    <cfRule type="containsText" dxfId="524" priority="762" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="641" priority="879" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="523" priority="763" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="640" priority="880" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31:D46 D3 D6:D16">
-    <cfRule type="containsText" dxfId="522" priority="760" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="639" priority="877" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="521" priority="761" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="638" priority="878" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31:D46 D3 D6:D16">
-    <cfRule type="containsText" dxfId="520" priority="758" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="637" priority="875" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="519" priority="759" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="636" priority="876" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31:D46 D3 D6:D16">
-    <cfRule type="containsText" dxfId="518" priority="756" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="635" priority="873" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="517" priority="757" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="634" priority="874" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31:D46 D3 D6:D16">
-    <cfRule type="containsText" dxfId="516" priority="754" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="633" priority="871" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="515" priority="755" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="632" priority="872" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31:D46 D3 D6:D16">
-    <cfRule type="containsText" dxfId="514" priority="752" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="631" priority="869" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="513" priority="753" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="630" priority="870" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31:D46 D3 D6:D16">
-    <cfRule type="containsText" dxfId="512" priority="750" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="629" priority="867" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="511" priority="751" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="628" priority="868" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31:D46 D3 D6:D16">
-    <cfRule type="containsText" dxfId="510" priority="748" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="627" priority="865" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="509" priority="749" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="626" priority="866" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31:D46 D3 D6:D16">
-    <cfRule type="containsText" dxfId="508" priority="746" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="625" priority="863" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="507" priority="747" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="624" priority="864" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31:D46 D3 D6:D16">
-    <cfRule type="containsText" dxfId="506" priority="744" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="623" priority="861" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="505" priority="745" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="622" priority="862" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31:D46 D3 D6:D16">
-    <cfRule type="containsText" dxfId="504" priority="742" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="621" priority="859" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="503" priority="743" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="620" priority="860" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31:D46 D3 D6:D16">
-    <cfRule type="containsText" dxfId="502" priority="740" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="619" priority="857" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="501" priority="741" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="618" priority="858" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31:D46 D3 D6:D16">
-    <cfRule type="containsText" dxfId="500" priority="738" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="617" priority="855" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="499" priority="739" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="616" priority="856" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31:D46 D3 D6:D16">
-    <cfRule type="containsText" dxfId="498" priority="736" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="615" priority="853" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="497" priority="737" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="614" priority="854" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31:D46 D3 D6:D16">
-    <cfRule type="containsText" dxfId="496" priority="734" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="613" priority="851" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="495" priority="735" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="612" priority="852" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31:D46 D3 D6:D16">
-    <cfRule type="containsText" dxfId="494" priority="732" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="611" priority="849" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="493" priority="733" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="610" priority="850" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31:D46 D3 D6:D16">
-    <cfRule type="containsText" dxfId="492" priority="730" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="609" priority="847" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="491" priority="731" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="608" priority="848" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31:D46 D3 D6:D16">
-    <cfRule type="containsText" dxfId="490" priority="728" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="607" priority="845" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="489" priority="729" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="606" priority="846" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31:D46 D3 D6:D16">
-    <cfRule type="containsText" dxfId="488" priority="726" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="605" priority="843" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="487" priority="727" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="604" priority="844" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31:D46 D3 D6:D16">
-    <cfRule type="containsText" dxfId="486" priority="724" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="603" priority="841" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="485" priority="725" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="602" priority="842" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31:D46 D3 D6:D16">
-    <cfRule type="containsText" dxfId="484" priority="722" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="601" priority="839" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="483" priority="723" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="600" priority="840" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31:D46 D3 D6:D16">
-    <cfRule type="containsText" dxfId="482" priority="720" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="599" priority="837" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="481" priority="721" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="598" priority="838" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31:D46 D3 D6:D16">
-    <cfRule type="containsText" dxfId="480" priority="718" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="597" priority="835" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="479" priority="719" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="596" priority="836" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31:D46 D3 D6:D16">
-    <cfRule type="containsText" dxfId="478" priority="716" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="595" priority="833" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="477" priority="717" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="594" priority="834" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2">
-    <cfRule type="containsText" dxfId="476" priority="712" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="593" priority="829" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",H2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="475" priority="713" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="592" priority="830" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",H2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2">
-    <cfRule type="containsText" dxfId="474" priority="710" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="591" priority="827" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",I2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="473" priority="711" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="590" priority="828" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",I2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2">
-    <cfRule type="containsText" dxfId="472" priority="708" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="589" priority="825" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",L2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="471" priority="709" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="588" priority="826" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",L2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2">
-    <cfRule type="containsText" dxfId="470" priority="707" operator="containsText" text="Android">
+    <cfRule type="containsText" dxfId="587" priority="824" operator="containsText" text="Android">
       <formula>NOT(ISERROR(SEARCH("Android",J2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2">
-    <cfRule type="containsText" dxfId="469" priority="705" operator="containsText" text="Web">
+    <cfRule type="containsText" dxfId="586" priority="822" operator="containsText" text="Web">
       <formula>NOT(ISERROR(SEARCH("Web",J2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="468" priority="706" operator="containsText" text="iOS">
+    <cfRule type="containsText" dxfId="585" priority="823" operator="containsText" text="iOS">
       <formula>NOT(ISERROR(SEARCH("iOS",J2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2">
-    <cfRule type="containsText" dxfId="467" priority="703" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="584" priority="820" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",G2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="466" priority="704" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="583" priority="821" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",G2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2">
-    <cfRule type="containsText" dxfId="465" priority="701" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="582" priority="818" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",K2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="464" priority="702" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="581" priority="819" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",K2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="containsText" dxfId="463" priority="699" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="580" priority="816" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="462" priority="700" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="579" priority="817" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="containsText" dxfId="461" priority="697" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="578" priority="814" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="460" priority="698" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="577" priority="815" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="containsText" dxfId="459" priority="695" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="576" priority="812" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="458" priority="696" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="575" priority="813" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="containsText" dxfId="457" priority="693" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="574" priority="810" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="456" priority="694" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="573" priority="811" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="containsText" dxfId="455" priority="691" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="572" priority="808" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="454" priority="692" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="571" priority="809" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="containsText" dxfId="453" priority="689" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="570" priority="806" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="452" priority="690" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="569" priority="807" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="containsText" dxfId="451" priority="687" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="568" priority="804" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="450" priority="688" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="567" priority="805" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="containsText" dxfId="449" priority="685" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="566" priority="802" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="448" priority="686" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="565" priority="803" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="containsText" dxfId="447" priority="683" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="564" priority="800" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="446" priority="684" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="563" priority="801" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="containsText" dxfId="445" priority="681" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="562" priority="798" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="444" priority="682" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="561" priority="799" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="containsText" dxfId="443" priority="679" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="560" priority="796" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="442" priority="680" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="559" priority="797" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="containsText" dxfId="441" priority="677" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="558" priority="794" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="440" priority="678" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="557" priority="795" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="containsText" dxfId="439" priority="675" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="556" priority="792" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="438" priority="676" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="555" priority="793" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="containsText" dxfId="437" priority="673" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="554" priority="790" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="436" priority="674" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="553" priority="791" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="containsText" dxfId="435" priority="671" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="552" priority="788" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="434" priority="672" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="551" priority="789" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="containsText" dxfId="433" priority="669" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="550" priority="786" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="432" priority="670" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="549" priority="787" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="containsText" dxfId="431" priority="667" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="548" priority="784" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="430" priority="668" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="547" priority="785" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="containsText" dxfId="429" priority="665" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="546" priority="782" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="428" priority="666" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="545" priority="783" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="containsText" dxfId="427" priority="663" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="544" priority="780" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="426" priority="664" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="543" priority="781" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="containsText" dxfId="425" priority="661" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="542" priority="778" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="424" priority="662" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="541" priority="779" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="containsText" dxfId="423" priority="659" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="540" priority="776" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="422" priority="660" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="539" priority="777" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="containsText" dxfId="421" priority="657" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="538" priority="774" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="420" priority="658" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="537" priority="775" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="containsText" dxfId="419" priority="655" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="536" priority="772" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="418" priority="656" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="535" priority="773" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="containsText" dxfId="417" priority="653" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="534" priority="770" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="416" priority="654" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="533" priority="771" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="containsText" dxfId="415" priority="651" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="532" priority="768" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="414" priority="652" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="531" priority="769" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="containsText" dxfId="413" priority="649" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="530" priority="766" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="412" priority="650" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="529" priority="767" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="containsText" dxfId="411" priority="647" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="528" priority="764" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="410" priority="648" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="527" priority="765" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:D19">
-    <cfRule type="containsText" dxfId="409" priority="528" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="526" priority="645" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="408" priority="529" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="525" priority="646" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:D19">
-    <cfRule type="containsText" dxfId="407" priority="526" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="524" priority="643" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="406" priority="527" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="523" priority="644" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:D19">
-    <cfRule type="containsText" dxfId="405" priority="524" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="522" priority="641" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="404" priority="525" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="521" priority="642" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:D19">
-    <cfRule type="containsText" dxfId="403" priority="522" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="520" priority="639" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="402" priority="523" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="519" priority="640" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:D19">
-    <cfRule type="containsText" dxfId="401" priority="520" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="518" priority="637" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="400" priority="521" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="517" priority="638" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:D19">
-    <cfRule type="containsText" dxfId="399" priority="518" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="516" priority="635" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="398" priority="519" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="515" priority="636" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:D19">
-    <cfRule type="containsText" dxfId="397" priority="516" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="514" priority="633" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="396" priority="517" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="513" priority="634" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:D19">
-    <cfRule type="containsText" dxfId="395" priority="514" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="512" priority="631" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="394" priority="515" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="511" priority="632" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:D19">
-    <cfRule type="containsText" dxfId="393" priority="512" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="510" priority="629" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="392" priority="513" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="509" priority="630" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:D19">
-    <cfRule type="containsText" dxfId="391" priority="510" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="508" priority="627" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="390" priority="511" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="507" priority="628" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:D19">
-    <cfRule type="containsText" dxfId="389" priority="508" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="506" priority="625" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="388" priority="509" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="505" priority="626" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:D19">
-    <cfRule type="containsText" dxfId="387" priority="506" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="504" priority="623" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="386" priority="507" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="503" priority="624" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:D19">
-    <cfRule type="containsText" dxfId="385" priority="504" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="502" priority="621" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="384" priority="505" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="501" priority="622" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:D19">
-    <cfRule type="containsText" dxfId="383" priority="502" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="500" priority="619" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="382" priority="503" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="499" priority="620" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:D19">
-    <cfRule type="containsText" dxfId="381" priority="500" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="498" priority="617" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="380" priority="501" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="497" priority="618" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:D19">
-    <cfRule type="containsText" dxfId="379" priority="498" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="496" priority="615" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="378" priority="499" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="495" priority="616" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:D19">
-    <cfRule type="containsText" dxfId="377" priority="496" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="494" priority="613" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="376" priority="497" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="493" priority="614" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:D19">
-    <cfRule type="containsText" dxfId="375" priority="494" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="492" priority="611" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="374" priority="495" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="491" priority="612" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:D19">
-    <cfRule type="containsText" dxfId="373" priority="492" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="490" priority="609" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="372" priority="493" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="489" priority="610" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:D19">
-    <cfRule type="containsText" dxfId="371" priority="490" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="488" priority="607" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="370" priority="491" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="487" priority="608" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:D19">
-    <cfRule type="containsText" dxfId="369" priority="488" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="486" priority="605" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="368" priority="489" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="485" priority="606" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:D19">
-    <cfRule type="containsText" dxfId="367" priority="486" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="484" priority="603" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="366" priority="487" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="483" priority="604" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:D19">
-    <cfRule type="containsText" dxfId="365" priority="484" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="482" priority="601" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="364" priority="485" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="481" priority="602" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:D19">
-    <cfRule type="containsText" dxfId="363" priority="482" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="480" priority="599" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="362" priority="483" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="479" priority="600" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:D19">
-    <cfRule type="containsText" dxfId="361" priority="480" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="478" priority="597" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="360" priority="481" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="477" priority="598" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:D19">
-    <cfRule type="containsText" dxfId="359" priority="478" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="476" priority="595" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="358" priority="479" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="475" priority="596" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:D19">
-    <cfRule type="containsText" dxfId="357" priority="476" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="474" priority="593" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="356" priority="477" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="473" priority="594" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11">
-    <cfRule type="containsText" dxfId="355" priority="475" operator="containsText" text="Android">
+    <cfRule type="containsText" dxfId="472" priority="592" operator="containsText" text="Android">
       <formula>NOT(ISERROR(SEARCH("Android",J11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11">
-    <cfRule type="containsText" dxfId="354" priority="473" operator="containsText" text="Web">
+    <cfRule type="containsText" dxfId="471" priority="590" operator="containsText" text="Web">
       <formula>NOT(ISERROR(SEARCH("Web",J11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="353" priority="474" operator="containsText" text="iOS">
+    <cfRule type="containsText" dxfId="470" priority="591" operator="containsText" text="iOS">
       <formula>NOT(ISERROR(SEARCH("iOS",J11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:H4">
+    <cfRule type="containsText" dxfId="469" priority="469" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",F4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="468" priority="470" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",F4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I4">
+    <cfRule type="containsText" dxfId="467" priority="467" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",I4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="466" priority="468" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",I4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K4:L4">
+    <cfRule type="containsText" dxfId="465" priority="465" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",K4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="464" priority="466" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",K4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J4">
+    <cfRule type="containsText" dxfId="463" priority="464" operator="containsText" text="Android">
+      <formula>NOT(ISERROR(SEARCH("Android",J4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J4">
+    <cfRule type="containsText" dxfId="462" priority="462" operator="containsText" text="Web">
+      <formula>NOT(ISERROR(SEARCH("Web",J4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="461" priority="463" operator="containsText" text="iOS">
+      <formula>NOT(ISERROR(SEARCH("iOS",J4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4">
+    <cfRule type="containsText" dxfId="460" priority="460" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="459" priority="461" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4">
+    <cfRule type="containsText" dxfId="458" priority="458" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="457" priority="459" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4">
+    <cfRule type="containsText" dxfId="456" priority="456" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="455" priority="457" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4">
+    <cfRule type="containsText" dxfId="454" priority="454" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="453" priority="455" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4">
+    <cfRule type="containsText" dxfId="452" priority="452" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="451" priority="453" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4">
+    <cfRule type="containsText" dxfId="450" priority="450" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="449" priority="451" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4">
+    <cfRule type="containsText" dxfId="448" priority="448" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="447" priority="449" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4">
+    <cfRule type="containsText" dxfId="446" priority="446" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="445" priority="447" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4">
+    <cfRule type="containsText" dxfId="444" priority="444" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="443" priority="445" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4">
+    <cfRule type="containsText" dxfId="442" priority="442" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="441" priority="443" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4">
+    <cfRule type="containsText" dxfId="440" priority="440" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="439" priority="441" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4">
+    <cfRule type="containsText" dxfId="438" priority="438" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="437" priority="439" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4">
+    <cfRule type="containsText" dxfId="436" priority="436" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="435" priority="437" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4">
+    <cfRule type="containsText" dxfId="434" priority="434" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="433" priority="435" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4">
+    <cfRule type="containsText" dxfId="432" priority="432" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="431" priority="433" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4">
+    <cfRule type="containsText" dxfId="430" priority="430" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="429" priority="431" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4">
+    <cfRule type="containsText" dxfId="428" priority="428" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="427" priority="429" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4">
+    <cfRule type="containsText" dxfId="426" priority="426" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="425" priority="427" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4">
+    <cfRule type="containsText" dxfId="424" priority="424" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="423" priority="425" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4">
+    <cfRule type="containsText" dxfId="422" priority="422" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="421" priority="423" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4">
+    <cfRule type="containsText" dxfId="420" priority="420" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="419" priority="421" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4">
+    <cfRule type="containsText" dxfId="418" priority="418" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="417" priority="419" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4">
+    <cfRule type="containsText" dxfId="416" priority="416" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="415" priority="417" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4">
+    <cfRule type="containsText" dxfId="414" priority="414" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="413" priority="415" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4">
+    <cfRule type="containsText" dxfId="412" priority="412" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="411" priority="413" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4">
+    <cfRule type="containsText" dxfId="410" priority="410" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="409" priority="411" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4">
+    <cfRule type="containsText" dxfId="408" priority="408" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="407" priority="409" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4">
+    <cfRule type="containsText" dxfId="406" priority="406" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="405" priority="407" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4">
+    <cfRule type="containsText" dxfId="404" priority="404" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="403" priority="405" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4">
+    <cfRule type="containsText" dxfId="402" priority="402" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="401" priority="403" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4">
+    <cfRule type="containsText" dxfId="400" priority="400" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="399" priority="401" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4">
+    <cfRule type="containsText" dxfId="398" priority="398" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="397" priority="399" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4">
+    <cfRule type="containsText" dxfId="396" priority="396" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="395" priority="397" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4">
+    <cfRule type="containsText" dxfId="394" priority="394" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="393" priority="395" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4">
+    <cfRule type="containsText" dxfId="392" priority="392" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="391" priority="393" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4">
+    <cfRule type="containsText" dxfId="390" priority="390" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="389" priority="391" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4">
+    <cfRule type="containsText" dxfId="388" priority="388" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="387" priority="389" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4">
+    <cfRule type="containsText" dxfId="386" priority="386" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="385" priority="387" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4">
+    <cfRule type="containsText" dxfId="384" priority="384" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="383" priority="385" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4">
+    <cfRule type="containsText" dxfId="382" priority="382" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="381" priority="383" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4">
+    <cfRule type="containsText" dxfId="380" priority="380" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="379" priority="381" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4">
+    <cfRule type="containsText" dxfId="378" priority="378" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="377" priority="379" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4">
+    <cfRule type="containsText" dxfId="376" priority="376" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="375" priority="377" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4">
+    <cfRule type="containsText" dxfId="374" priority="374" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="373" priority="375" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4">
+    <cfRule type="containsText" dxfId="372" priority="372" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="371" priority="373" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4">
+    <cfRule type="containsText" dxfId="370" priority="370" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="369" priority="371" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4">
+    <cfRule type="containsText" dxfId="368" priority="368" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="367" priority="369" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4">
+    <cfRule type="containsText" dxfId="366" priority="366" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="365" priority="367" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4">
+    <cfRule type="containsText" dxfId="364" priority="364" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="363" priority="365" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4">
+    <cfRule type="containsText" dxfId="362" priority="362" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="361" priority="363" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4">
+    <cfRule type="containsText" dxfId="360" priority="360" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="359" priority="361" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4">
+    <cfRule type="containsText" dxfId="358" priority="358" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="357" priority="359" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4">
+    <cfRule type="containsText" dxfId="356" priority="356" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="355" priority="357" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4">
+    <cfRule type="containsText" dxfId="354" priority="354" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="353" priority="355" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F48:H67">
     <cfRule type="containsText" dxfId="352" priority="352" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",F4)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Passed",F48)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="351" priority="353" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",F4)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I4">
+      <formula>NOT(ISERROR(SEARCH("Failed",F48)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I48:I67">
     <cfRule type="containsText" dxfId="350" priority="350" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",I4)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Passed",I48)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="349" priority="351" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",I4)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K4:L4">
+      <formula>NOT(ISERROR(SEARCH("Failed",I48)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K48:L67">
     <cfRule type="containsText" dxfId="348" priority="348" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",K4)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Sim",K48)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="347" priority="349" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",K4)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J4">
+      <formula>NOT(ISERROR(SEARCH("Não",K48)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J48:J67">
     <cfRule type="containsText" dxfId="346" priority="347" operator="containsText" text="Android">
-      <formula>NOT(ISERROR(SEARCH("Android",J4)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J4">
+      <formula>NOT(ISERROR(SEARCH("Android",J48)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J48:J67">
     <cfRule type="containsText" dxfId="345" priority="345" operator="containsText" text="Web">
-      <formula>NOT(ISERROR(SEARCH("Web",J4)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Web",J48)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="344" priority="346" operator="containsText" text="iOS">
-      <formula>NOT(ISERROR(SEARCH("iOS",J4)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D4">
+      <formula>NOT(ISERROR(SEARCH("iOS",J48)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D48:D67">
     <cfRule type="containsText" dxfId="343" priority="343" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Sim",D48)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="342" priority="344" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D4">
+      <formula>NOT(ISERROR(SEARCH("Não",D48)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D48:D67">
     <cfRule type="containsText" dxfId="341" priority="341" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Sim",D48)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="340" priority="342" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D4">
+      <formula>NOT(ISERROR(SEARCH("Não",D48)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D48:D67">
     <cfRule type="containsText" dxfId="339" priority="339" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Sim",D48)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="338" priority="340" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D4">
+      <formula>NOT(ISERROR(SEARCH("Não",D48)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D48:D67">
     <cfRule type="containsText" dxfId="337" priority="337" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Sim",D48)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="336" priority="338" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D4">
+      <formula>NOT(ISERROR(SEARCH("Não",D48)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D48:D67">
     <cfRule type="containsText" dxfId="335" priority="335" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Sim",D48)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="334" priority="336" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D4">
+      <formula>NOT(ISERROR(SEARCH("Não",D48)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D48:D67">
     <cfRule type="containsText" dxfId="333" priority="333" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Sim",D48)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="332" priority="334" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D4">
+      <formula>NOT(ISERROR(SEARCH("Não",D48)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D48:D67">
     <cfRule type="containsText" dxfId="331" priority="331" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Sim",D48)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="330" priority="332" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D4">
+      <formula>NOT(ISERROR(SEARCH("Não",D48)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D48:D67">
     <cfRule type="containsText" dxfId="329" priority="329" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Sim",D48)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="328" priority="330" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D4">
+      <formula>NOT(ISERROR(SEARCH("Não",D48)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D48:D67">
     <cfRule type="containsText" dxfId="327" priority="327" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Sim",D48)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="326" priority="328" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D4">
+      <formula>NOT(ISERROR(SEARCH("Não",D48)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D48:D67">
     <cfRule type="containsText" dxfId="325" priority="325" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Sim",D48)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="324" priority="326" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D4">
+      <formula>NOT(ISERROR(SEARCH("Não",D48)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D48:D67">
     <cfRule type="containsText" dxfId="323" priority="323" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Sim",D48)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="322" priority="324" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D4">
+      <formula>NOT(ISERROR(SEARCH("Não",D48)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D48:D67">
     <cfRule type="containsText" dxfId="321" priority="321" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Sim",D48)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="320" priority="322" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D4">
+      <formula>NOT(ISERROR(SEARCH("Não",D48)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D48:D67">
     <cfRule type="containsText" dxfId="319" priority="319" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Sim",D48)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="318" priority="320" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D4">
+      <formula>NOT(ISERROR(SEARCH("Não",D48)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D48:D67">
     <cfRule type="containsText" dxfId="317" priority="317" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Sim",D48)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="316" priority="318" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D4">
+      <formula>NOT(ISERROR(SEARCH("Não",D48)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D48:D67">
     <cfRule type="containsText" dxfId="315" priority="315" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Sim",D48)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="314" priority="316" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D4">
+      <formula>NOT(ISERROR(SEARCH("Não",D48)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D48:D67">
     <cfRule type="containsText" dxfId="313" priority="313" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Sim",D48)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="312" priority="314" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D4">
+      <formula>NOT(ISERROR(SEARCH("Não",D48)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D48:D67">
     <cfRule type="containsText" dxfId="311" priority="311" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Sim",D48)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="310" priority="312" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D4">
+      <formula>NOT(ISERROR(SEARCH("Não",D48)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D48:D67">
     <cfRule type="containsText" dxfId="309" priority="309" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Sim",D48)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="308" priority="310" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D4">
+      <formula>NOT(ISERROR(SEARCH("Não",D48)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D48:D67">
     <cfRule type="containsText" dxfId="307" priority="307" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Sim",D48)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="306" priority="308" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D4">
+      <formula>NOT(ISERROR(SEARCH("Não",D48)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D48:D67">
     <cfRule type="containsText" dxfId="305" priority="305" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Sim",D48)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="304" priority="306" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D4">
+      <formula>NOT(ISERROR(SEARCH("Não",D48)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D48:D67">
     <cfRule type="containsText" dxfId="303" priority="303" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Sim",D48)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="302" priority="304" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D4">
+      <formula>NOT(ISERROR(SEARCH("Não",D48)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D48:D67">
     <cfRule type="containsText" dxfId="301" priority="301" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Sim",D48)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="300" priority="302" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D4">
+      <formula>NOT(ISERROR(SEARCH("Não",D48)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D48:D67">
     <cfRule type="containsText" dxfId="299" priority="299" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Sim",D48)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="298" priority="300" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D4">
+      <formula>NOT(ISERROR(SEARCH("Não",D48)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D48:D67">
     <cfRule type="containsText" dxfId="297" priority="297" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Sim",D48)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="296" priority="298" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D4">
+      <formula>NOT(ISERROR(SEARCH("Não",D48)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D48:D67">
     <cfRule type="containsText" dxfId="295" priority="295" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Sim",D48)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="294" priority="296" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D4">
+      <formula>NOT(ISERROR(SEARCH("Não",D48)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D48:D67">
     <cfRule type="containsText" dxfId="293" priority="293" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Sim",D48)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="292" priority="294" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D4">
+      <formula>NOT(ISERROR(SEARCH("Não",D48)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D48:D67">
     <cfRule type="containsText" dxfId="291" priority="291" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Sim",D48)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="290" priority="292" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D4">
+      <formula>NOT(ISERROR(SEARCH("Não",D48)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D48:D67">
     <cfRule type="containsText" dxfId="289" priority="289" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Sim",D48)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="288" priority="290" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D4">
+      <formula>NOT(ISERROR(SEARCH("Não",D48)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D48:D67">
     <cfRule type="containsText" dxfId="287" priority="287" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Sim",D48)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="286" priority="288" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D4">
+      <formula>NOT(ISERROR(SEARCH("Não",D48)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D48:D67">
     <cfRule type="containsText" dxfId="285" priority="285" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Sim",D48)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="284" priority="286" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D4">
+      <formula>NOT(ISERROR(SEARCH("Não",D48)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D48:D67">
     <cfRule type="containsText" dxfId="283" priority="283" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Sim",D48)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="282" priority="284" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D4">
+      <formula>NOT(ISERROR(SEARCH("Não",D48)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D48:D67">
     <cfRule type="containsText" dxfId="281" priority="281" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Sim",D48)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="280" priority="282" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D4">
+      <formula>NOT(ISERROR(SEARCH("Não",D48)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D48:D67">
     <cfRule type="containsText" dxfId="279" priority="279" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Sim",D48)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="278" priority="280" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D4">
+      <formula>NOT(ISERROR(SEARCH("Não",D48)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D48:D67">
     <cfRule type="containsText" dxfId="277" priority="277" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Sim",D48)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="276" priority="278" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D4">
+      <formula>NOT(ISERROR(SEARCH("Não",D48)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D48:D67">
     <cfRule type="containsText" dxfId="275" priority="275" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Sim",D48)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="274" priority="276" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D4">
+      <formula>NOT(ISERROR(SEARCH("Não",D48)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D48:D67">
     <cfRule type="containsText" dxfId="273" priority="273" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Sim",D48)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="272" priority="274" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D4">
+      <formula>NOT(ISERROR(SEARCH("Não",D48)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D48:D67">
     <cfRule type="containsText" dxfId="271" priority="271" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Sim",D48)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="270" priority="272" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D4">
+      <formula>NOT(ISERROR(SEARCH("Não",D48)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D48:D67">
     <cfRule type="containsText" dxfId="269" priority="269" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Sim",D48)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="268" priority="270" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D4">
+      <formula>NOT(ISERROR(SEARCH("Não",D48)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D48:D67">
     <cfRule type="containsText" dxfId="267" priority="267" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Sim",D48)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="266" priority="268" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D4">
+      <formula>NOT(ISERROR(SEARCH("Não",D48)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D48:D67">
     <cfRule type="containsText" dxfId="265" priority="265" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Sim",D48)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="264" priority="266" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D4">
+      <formula>NOT(ISERROR(SEARCH("Não",D48)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D48:D67">
     <cfRule type="containsText" dxfId="263" priority="263" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Sim",D48)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="262" priority="264" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D4">
+      <formula>NOT(ISERROR(SEARCH("Não",D48)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D48:D67">
     <cfRule type="containsText" dxfId="261" priority="261" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Sim",D48)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="260" priority="262" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D4">
+      <formula>NOT(ISERROR(SEARCH("Não",D48)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D48:D67">
     <cfRule type="containsText" dxfId="259" priority="259" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Sim",D48)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="258" priority="260" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D4">
+      <formula>NOT(ISERROR(SEARCH("Não",D48)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D48:D67">
     <cfRule type="containsText" dxfId="257" priority="257" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Sim",D48)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="256" priority="258" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D4">
+      <formula>NOT(ISERROR(SEARCH("Não",D48)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D48:D67">
     <cfRule type="containsText" dxfId="255" priority="255" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Sim",D48)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="254" priority="256" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D4">
+      <formula>NOT(ISERROR(SEARCH("Não",D48)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D48:D67">
     <cfRule type="containsText" dxfId="253" priority="253" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Sim",D48)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="252" priority="254" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D4">
+      <formula>NOT(ISERROR(SEARCH("Não",D48)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D48:D67">
     <cfRule type="containsText" dxfId="251" priority="251" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Sim",D48)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="250" priority="252" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D4">
+      <formula>NOT(ISERROR(SEARCH("Não",D48)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D48:D67">
     <cfRule type="containsText" dxfId="249" priority="249" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Sim",D48)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="248" priority="250" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D4">
+      <formula>NOT(ISERROR(SEARCH("Não",D48)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D48:D67">
     <cfRule type="containsText" dxfId="247" priority="247" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Sim",D48)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="246" priority="248" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D4">
+      <formula>NOT(ISERROR(SEARCH("Não",D48)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D48:D67">
     <cfRule type="containsText" dxfId="245" priority="245" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Sim",D48)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="244" priority="246" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D4">
+      <formula>NOT(ISERROR(SEARCH("Não",D48)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D48:D67">
     <cfRule type="containsText" dxfId="243" priority="243" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Sim",D48)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="242" priority="244" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D4">
+      <formula>NOT(ISERROR(SEARCH("Não",D48)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D48:D67">
     <cfRule type="containsText" dxfId="241" priority="241" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Sim",D48)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="240" priority="242" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D4">
+      <formula>NOT(ISERROR(SEARCH("Não",D48)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D48:D67">
     <cfRule type="containsText" dxfId="239" priority="239" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Sim",D48)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="238" priority="240" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D4">
+      <formula>NOT(ISERROR(SEARCH("Não",D48)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D48:D67">
     <cfRule type="containsText" dxfId="237" priority="237" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Sim",D48)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="236" priority="238" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F47:H64">
+      <formula>NOT(ISERROR(SEARCH("Não",D48)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E29">
     <cfRule type="containsText" dxfId="235" priority="235" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",E29)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="234" priority="236" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",E29)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5:H5">
+    <cfRule type="containsText" dxfId="233" priority="233" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",F5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="232" priority="234" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",F5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I5">
+    <cfRule type="containsText" dxfId="231" priority="231" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",I5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="230" priority="232" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",I5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K5:L5">
+    <cfRule type="containsText" dxfId="229" priority="229" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",K5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="228" priority="230" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",K5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J5">
+    <cfRule type="containsText" dxfId="227" priority="228" operator="containsText" text="Android">
+      <formula>NOT(ISERROR(SEARCH("Android",J5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J5">
+    <cfRule type="containsText" dxfId="226" priority="226" operator="containsText" text="Web">
+      <formula>NOT(ISERROR(SEARCH("Web",J5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="225" priority="227" operator="containsText" text="iOS">
+      <formula>NOT(ISERROR(SEARCH("iOS",J5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5">
+    <cfRule type="containsText" dxfId="224" priority="224" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",D5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="223" priority="225" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",D5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5">
+    <cfRule type="containsText" dxfId="222" priority="222" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",D5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="221" priority="223" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",D5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5">
+    <cfRule type="containsText" dxfId="220" priority="220" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",D5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="219" priority="221" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",D5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5">
+    <cfRule type="containsText" dxfId="218" priority="218" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",D5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="217" priority="219" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",D5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5">
+    <cfRule type="containsText" dxfId="216" priority="216" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",D5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="215" priority="217" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",D5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5">
+    <cfRule type="containsText" dxfId="214" priority="214" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",D5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="213" priority="215" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",D5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5">
+    <cfRule type="containsText" dxfId="212" priority="212" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",D5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="211" priority="213" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",D5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5">
+    <cfRule type="containsText" dxfId="210" priority="210" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",D5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="209" priority="211" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",D5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5">
+    <cfRule type="containsText" dxfId="208" priority="208" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",D5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="207" priority="209" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",D5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5">
+    <cfRule type="containsText" dxfId="206" priority="206" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",D5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="205" priority="207" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",D5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5">
+    <cfRule type="containsText" dxfId="204" priority="204" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",D5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="203" priority="205" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",D5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5">
+    <cfRule type="containsText" dxfId="202" priority="202" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",D5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="201" priority="203" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",D5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5">
+    <cfRule type="containsText" dxfId="200" priority="200" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",D5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="199" priority="201" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",D5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5">
+    <cfRule type="containsText" dxfId="198" priority="198" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",D5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="197" priority="199" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",D5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5">
+    <cfRule type="containsText" dxfId="196" priority="196" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",D5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="195" priority="197" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",D5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5">
+    <cfRule type="containsText" dxfId="194" priority="194" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",D5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="193" priority="195" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",D5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5">
+    <cfRule type="containsText" dxfId="192" priority="192" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",D5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="191" priority="193" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",D5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5">
+    <cfRule type="containsText" dxfId="190" priority="190" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",D5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="189" priority="191" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",D5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5">
+    <cfRule type="containsText" dxfId="188" priority="188" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",D5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="187" priority="189" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",D5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5">
+    <cfRule type="containsText" dxfId="186" priority="186" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",D5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="185" priority="187" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",D5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5">
+    <cfRule type="containsText" dxfId="184" priority="184" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",D5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="183" priority="185" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",D5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5">
+    <cfRule type="containsText" dxfId="182" priority="182" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",D5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="181" priority="183" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",D5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5">
+    <cfRule type="containsText" dxfId="180" priority="180" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",D5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="179" priority="181" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",D5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5">
+    <cfRule type="containsText" dxfId="178" priority="178" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",D5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="177" priority="179" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",D5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5">
+    <cfRule type="containsText" dxfId="176" priority="176" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",D5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="175" priority="177" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",D5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5">
+    <cfRule type="containsText" dxfId="174" priority="174" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",D5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="173" priority="175" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",D5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5">
+    <cfRule type="containsText" dxfId="172" priority="172" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",D5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="171" priority="173" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",D5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5">
+    <cfRule type="containsText" dxfId="170" priority="170" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",D5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="169" priority="171" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",D5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5">
+    <cfRule type="containsText" dxfId="168" priority="168" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",D5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="167" priority="169" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",D5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5">
+    <cfRule type="containsText" dxfId="166" priority="166" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",D5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="165" priority="167" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",D5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5">
+    <cfRule type="containsText" dxfId="164" priority="164" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",D5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="163" priority="165" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",D5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5">
+    <cfRule type="containsText" dxfId="162" priority="162" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",D5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="161" priority="163" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",D5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5">
+    <cfRule type="containsText" dxfId="160" priority="160" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",D5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="159" priority="161" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",D5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5">
+    <cfRule type="containsText" dxfId="158" priority="158" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",D5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="157" priority="159" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",D5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5">
+    <cfRule type="containsText" dxfId="156" priority="156" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",D5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="155" priority="157" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",D5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5">
+    <cfRule type="containsText" dxfId="154" priority="154" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",D5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="153" priority="155" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",D5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5">
+    <cfRule type="containsText" dxfId="152" priority="152" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",D5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="151" priority="153" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",D5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5">
+    <cfRule type="containsText" dxfId="150" priority="150" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",D5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="149" priority="151" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",D5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5">
+    <cfRule type="containsText" dxfId="148" priority="148" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",D5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="147" priority="149" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",D5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5">
+    <cfRule type="containsText" dxfId="146" priority="146" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",D5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="145" priority="147" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",D5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5">
+    <cfRule type="containsText" dxfId="144" priority="144" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",D5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="143" priority="145" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",D5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5">
+    <cfRule type="containsText" dxfId="142" priority="142" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",D5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="141" priority="143" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",D5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5">
+    <cfRule type="containsText" dxfId="140" priority="140" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",D5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="139" priority="141" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",D5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5">
+    <cfRule type="containsText" dxfId="138" priority="138" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",D5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="137" priority="139" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",D5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5">
+    <cfRule type="containsText" dxfId="136" priority="136" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",D5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="135" priority="137" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",D5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5">
+    <cfRule type="containsText" dxfId="134" priority="134" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",D5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="133" priority="135" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",D5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5">
+    <cfRule type="containsText" dxfId="132" priority="132" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",D5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="131" priority="133" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",D5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5">
+    <cfRule type="containsText" dxfId="130" priority="130" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",D5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="129" priority="131" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",D5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5">
+    <cfRule type="containsText" dxfId="128" priority="128" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",D5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="127" priority="129" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",D5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5">
+    <cfRule type="containsText" dxfId="126" priority="126" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",D5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="125" priority="127" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",D5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5">
+    <cfRule type="containsText" dxfId="124" priority="124" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",D5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="123" priority="125" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",D5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5">
+    <cfRule type="containsText" dxfId="122" priority="122" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",D5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="121" priority="123" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",D5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5">
+    <cfRule type="containsText" dxfId="120" priority="120" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",D5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="119" priority="121" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",D5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5">
+    <cfRule type="containsText" dxfId="118" priority="118" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",D5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="117" priority="119" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",D5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F47:H47">
+    <cfRule type="containsText" dxfId="116" priority="116" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",F47)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="234" priority="236" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="115" priority="117" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",F47)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I47:I64">
-    <cfRule type="containsText" dxfId="233" priority="233" operator="containsText" text="Passed">
+  <conditionalFormatting sqref="I47">
+    <cfRule type="containsText" dxfId="114" priority="114" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",I47)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="232" priority="234" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="113" priority="115" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",I47)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K47:L64">
-    <cfRule type="containsText" dxfId="231" priority="231" operator="containsText" text="Sim">
+  <conditionalFormatting sqref="K47:L47">
+    <cfRule type="containsText" dxfId="112" priority="112" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",K47)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="230" priority="232" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="111" priority="113" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",K47)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J47:J64">
-    <cfRule type="containsText" dxfId="229" priority="230" operator="containsText" text="Android">
+  <conditionalFormatting sqref="J47">
+    <cfRule type="containsText" dxfId="110" priority="111" operator="containsText" text="Android">
       <formula>NOT(ISERROR(SEARCH("Android",J47)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J47:J64">
-    <cfRule type="containsText" dxfId="228" priority="228" operator="containsText" text="Web">
+  <conditionalFormatting sqref="J47">
+    <cfRule type="containsText" dxfId="109" priority="109" operator="containsText" text="Web">
       <formula>NOT(ISERROR(SEARCH("Web",J47)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="227" priority="229" operator="containsText" text="iOS">
+    <cfRule type="containsText" dxfId="108" priority="110" operator="containsText" text="iOS">
       <formula>NOT(ISERROR(SEARCH("iOS",J47)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D47:D64">
-    <cfRule type="containsText" dxfId="226" priority="226" operator="containsText" text="Sim">
+  <conditionalFormatting sqref="D47">
+    <cfRule type="containsText" dxfId="107" priority="107" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D47)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="225" priority="227" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="106" priority="108" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D47)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D47:D64">
-    <cfRule type="containsText" dxfId="224" priority="224" operator="containsText" text="Sim">
+  <conditionalFormatting sqref="D47">
+    <cfRule type="containsText" dxfId="105" priority="105" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D47)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="223" priority="225" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="104" priority="106" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D47)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D47:D64">
-    <cfRule type="containsText" dxfId="222" priority="222" operator="containsText" text="Sim">
+  <conditionalFormatting sqref="D47">
+    <cfRule type="containsText" dxfId="103" priority="103" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D47)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="221" priority="223" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="102" priority="104" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D47)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D47:D64">
-    <cfRule type="containsText" dxfId="220" priority="220" operator="containsText" text="Sim">
+  <conditionalFormatting sqref="D47">
+    <cfRule type="containsText" dxfId="101" priority="101" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D47)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="219" priority="221" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="100" priority="102" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D47)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D47:D64">
-    <cfRule type="containsText" dxfId="218" priority="218" operator="containsText" text="Sim">
+  <conditionalFormatting sqref="D47">
+    <cfRule type="containsText" dxfId="99" priority="99" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D47)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="217" priority="219" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="98" priority="100" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D47)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D47:D64">
-    <cfRule type="containsText" dxfId="216" priority="216" operator="containsText" text="Sim">
+  <conditionalFormatting sqref="D47">
+    <cfRule type="containsText" dxfId="97" priority="97" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D47)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="215" priority="217" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="96" priority="98" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D47)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D47:D64">
-    <cfRule type="containsText" dxfId="214" priority="214" operator="containsText" text="Sim">
+  <conditionalFormatting sqref="D47">
+    <cfRule type="containsText" dxfId="95" priority="95" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D47)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="213" priority="215" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="94" priority="96" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D47)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D47:D64">
-    <cfRule type="containsText" dxfId="212" priority="212" operator="containsText" text="Sim">
+  <conditionalFormatting sqref="D47">
+    <cfRule type="containsText" dxfId="93" priority="93" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D47)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="211" priority="213" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="92" priority="94" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D47)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D47:D64">
-    <cfRule type="containsText" dxfId="210" priority="210" operator="containsText" text="Sim">
+  <conditionalFormatting sqref="D47">
+    <cfRule type="containsText" dxfId="91" priority="91" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D47)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="209" priority="211" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="90" priority="92" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D47)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D47:D64">
-    <cfRule type="containsText" dxfId="208" priority="208" operator="containsText" text="Sim">
+  <conditionalFormatting sqref="D47">
+    <cfRule type="containsText" dxfId="89" priority="89" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D47)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="207" priority="209" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="88" priority="90" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D47)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D47:D64">
-    <cfRule type="containsText" dxfId="206" priority="206" operator="containsText" text="Sim">
+  <conditionalFormatting sqref="D47">
+    <cfRule type="containsText" dxfId="87" priority="87" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D47)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="205" priority="207" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="86" priority="88" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D47)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D47:D64">
-    <cfRule type="containsText" dxfId="204" priority="204" operator="containsText" text="Sim">
+  <conditionalFormatting sqref="D47">
+    <cfRule type="containsText" dxfId="85" priority="85" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D47)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="203" priority="205" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="84" priority="86" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D47)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D47:D64">
-    <cfRule type="containsText" dxfId="202" priority="202" operator="containsText" text="Sim">
+  <conditionalFormatting sqref="D47">
+    <cfRule type="containsText" dxfId="83" priority="83" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D47)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="201" priority="203" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="82" priority="84" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D47)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D47:D64">
-    <cfRule type="containsText" dxfId="200" priority="200" operator="containsText" text="Sim">
+  <conditionalFormatting sqref="D47">
+    <cfRule type="containsText" dxfId="81" priority="81" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D47)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="199" priority="201" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="80" priority="82" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D47)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D47:D64">
-    <cfRule type="containsText" dxfId="198" priority="198" operator="containsText" text="Sim">
+  <conditionalFormatting sqref="D47">
+    <cfRule type="containsText" dxfId="79" priority="79" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D47)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="197" priority="199" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="78" priority="80" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D47)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D47:D64">
-    <cfRule type="containsText" dxfId="196" priority="196" operator="containsText" text="Sim">
+  <conditionalFormatting sqref="D47">
+    <cfRule type="containsText" dxfId="77" priority="77" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D47)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="195" priority="197" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="76" priority="78" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D47)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D47:D64">
-    <cfRule type="containsText" dxfId="194" priority="194" operator="containsText" text="Sim">
+  <conditionalFormatting sqref="D47">
+    <cfRule type="containsText" dxfId="75" priority="75" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D47)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="193" priority="195" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="74" priority="76" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D47)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D47:D64">
-    <cfRule type="containsText" dxfId="192" priority="192" operator="containsText" text="Sim">
+  <conditionalFormatting sqref="D47">
+    <cfRule type="containsText" dxfId="73" priority="73" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D47)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="191" priority="193" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="72" priority="74" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D47)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D47:D64">
-    <cfRule type="containsText" dxfId="190" priority="190" operator="containsText" text="Sim">
+  <conditionalFormatting sqref="D47">
+    <cfRule type="containsText" dxfId="71" priority="71" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D47)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="189" priority="191" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="70" priority="72" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D47)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D47:D64">
-    <cfRule type="containsText" dxfId="188" priority="188" operator="containsText" text="Sim">
+  <conditionalFormatting sqref="D47">
+    <cfRule type="containsText" dxfId="69" priority="69" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D47)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="187" priority="189" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="68" priority="70" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D47)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D47:D64">
-    <cfRule type="containsText" dxfId="186" priority="186" operator="containsText" text="Sim">
+  <conditionalFormatting sqref="D47">
+    <cfRule type="containsText" dxfId="67" priority="67" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D47)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="185" priority="187" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="66" priority="68" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D47)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D47:D64">
-    <cfRule type="containsText" dxfId="184" priority="184" operator="containsText" text="Sim">
+  <conditionalFormatting sqref="D47">
+    <cfRule type="containsText" dxfId="65" priority="65" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D47)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="183" priority="185" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="64" priority="66" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D47)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D47:D64">
-    <cfRule type="containsText" dxfId="182" priority="182" operator="containsText" text="Sim">
+  <conditionalFormatting sqref="D47">
+    <cfRule type="containsText" dxfId="63" priority="63" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D47)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="181" priority="183" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="62" priority="64" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D47)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D47:D64">
-    <cfRule type="containsText" dxfId="180" priority="180" operator="containsText" text="Sim">
+  <conditionalFormatting sqref="D47">
+    <cfRule type="containsText" dxfId="61" priority="61" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D47)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="179" priority="181" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="60" priority="62" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D47)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D47:D64">
-    <cfRule type="containsText" dxfId="178" priority="178" operator="containsText" text="Sim">
+  <conditionalFormatting sqref="D47">
+    <cfRule type="containsText" dxfId="59" priority="59" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D47)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="177" priority="179" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="58" priority="60" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D47)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D47:D64">
-    <cfRule type="containsText" dxfId="176" priority="176" operator="containsText" text="Sim">
+  <conditionalFormatting sqref="D47">
+    <cfRule type="containsText" dxfId="57" priority="57" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D47)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="175" priority="177" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="56" priority="58" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D47)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D47:D64">
-    <cfRule type="containsText" dxfId="174" priority="174" operator="containsText" text="Sim">
+  <conditionalFormatting sqref="D47">
+    <cfRule type="containsText" dxfId="55" priority="55" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D47)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="173" priority="175" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="54" priority="56" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D47)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D47:D64">
-    <cfRule type="containsText" dxfId="172" priority="172" operator="containsText" text="Sim">
+  <conditionalFormatting sqref="D47">
+    <cfRule type="containsText" dxfId="53" priority="53" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D47)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="171" priority="173" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="52" priority="54" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D47)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D47:D64">
-    <cfRule type="containsText" dxfId="170" priority="170" operator="containsText" text="Sim">
+  <conditionalFormatting sqref="D47">
+    <cfRule type="containsText" dxfId="51" priority="51" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D47)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="169" priority="171" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="50" priority="52" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D47)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D47:D64">
-    <cfRule type="containsText" dxfId="168" priority="168" operator="containsText" text="Sim">
+  <conditionalFormatting sqref="D47">
+    <cfRule type="containsText" dxfId="49" priority="49" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D47)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="167" priority="169" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="48" priority="50" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D47)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D47:D64">
-    <cfRule type="containsText" dxfId="166" priority="166" operator="containsText" text="Sim">
+  <conditionalFormatting sqref="D47">
+    <cfRule type="containsText" dxfId="47" priority="47" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D47)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="165" priority="167" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="46" priority="48" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D47)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D47:D64">
-    <cfRule type="containsText" dxfId="164" priority="164" operator="containsText" text="Sim">
+  <conditionalFormatting sqref="D47">
+    <cfRule type="containsText" dxfId="45" priority="45" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D47)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="163" priority="165" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="44" priority="46" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D47)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D47:D64">
-    <cfRule type="containsText" dxfId="162" priority="162" operator="containsText" text="Sim">
+  <conditionalFormatting sqref="D47">
+    <cfRule type="containsText" dxfId="43" priority="43" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D47)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="161" priority="163" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="42" priority="44" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D47)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D47:D64">
-    <cfRule type="containsText" dxfId="160" priority="160" operator="containsText" text="Sim">
+  <conditionalFormatting sqref="D47">
+    <cfRule type="containsText" dxfId="41" priority="41" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D47)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="159" priority="161" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="40" priority="42" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D47)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D47:D64">
-    <cfRule type="containsText" dxfId="158" priority="158" operator="containsText" text="Sim">
+  <conditionalFormatting sqref="D47">
+    <cfRule type="containsText" dxfId="39" priority="39" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D47)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="157" priority="159" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="38" priority="40" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D47)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D47:D64">
-    <cfRule type="containsText" dxfId="156" priority="156" operator="containsText" text="Sim">
+  <conditionalFormatting sqref="D47">
+    <cfRule type="containsText" dxfId="37" priority="37" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D47)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="155" priority="157" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="36" priority="38" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D47)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D47:D64">
-    <cfRule type="containsText" dxfId="154" priority="154" operator="containsText" text="Sim">
+  <conditionalFormatting sqref="D47">
+    <cfRule type="containsText" dxfId="35" priority="35" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D47)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="153" priority="155" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="34" priority="36" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D47)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D47:D64">
-    <cfRule type="containsText" dxfId="152" priority="152" operator="containsText" text="Sim">
+  <conditionalFormatting sqref="D47">
+    <cfRule type="containsText" dxfId="33" priority="33" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D47)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="151" priority="153" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="32" priority="34" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D47)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D47:D64">
-    <cfRule type="containsText" dxfId="150" priority="150" operator="containsText" text="Sim">
+  <conditionalFormatting sqref="D47">
+    <cfRule type="containsText" dxfId="31" priority="31" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D47)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="149" priority="151" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="30" priority="32" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D47)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D47:D64">
-    <cfRule type="containsText" dxfId="148" priority="148" operator="containsText" text="Sim">
+  <conditionalFormatting sqref="D47">
+    <cfRule type="containsText" dxfId="29" priority="29" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D47)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="147" priority="149" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="28" priority="30" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D47)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D47:D64">
-    <cfRule type="containsText" dxfId="146" priority="146" operator="containsText" text="Sim">
+  <conditionalFormatting sqref="D47">
+    <cfRule type="containsText" dxfId="27" priority="27" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D47)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="145" priority="147" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="26" priority="28" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D47)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D47:D64">
-    <cfRule type="containsText" dxfId="144" priority="144" operator="containsText" text="Sim">
+  <conditionalFormatting sqref="D47">
+    <cfRule type="containsText" dxfId="25" priority="25" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D47)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="143" priority="145" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="24" priority="26" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D47)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D47:D64">
-    <cfRule type="containsText" dxfId="142" priority="142" operator="containsText" text="Sim">
+  <conditionalFormatting sqref="D47">
+    <cfRule type="containsText" dxfId="23" priority="23" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D47)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="141" priority="143" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="22" priority="24" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D47)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D47:D64">
-    <cfRule type="containsText" dxfId="140" priority="140" operator="containsText" text="Sim">
+  <conditionalFormatting sqref="D47">
+    <cfRule type="containsText" dxfId="21" priority="21" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D47)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="139" priority="141" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="20" priority="22" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D47)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D47:D64">
-    <cfRule type="containsText" dxfId="138" priority="138" operator="containsText" text="Sim">
+  <conditionalFormatting sqref="D47">
+    <cfRule type="containsText" dxfId="19" priority="19" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D47)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="137" priority="139" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="18" priority="20" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D47)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D47:D64">
-    <cfRule type="containsText" dxfId="136" priority="136" operator="containsText" text="Sim">
+  <conditionalFormatting sqref="D47">
+    <cfRule type="containsText" dxfId="17" priority="17" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D47)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="135" priority="137" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="16" priority="18" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D47)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D47:D64">
-    <cfRule type="containsText" dxfId="134" priority="134" operator="containsText" text="Sim">
+  <conditionalFormatting sqref="D47">
+    <cfRule type="containsText" dxfId="15" priority="15" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D47)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="133" priority="135" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="14" priority="16" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D47)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D47:D64">
-    <cfRule type="containsText" dxfId="132" priority="132" operator="containsText" text="Sim">
+  <conditionalFormatting sqref="D47">
+    <cfRule type="containsText" dxfId="13" priority="13" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D47)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="131" priority="133" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="12" priority="14" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D47)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D47:D64">
-    <cfRule type="containsText" dxfId="130" priority="130" operator="containsText" text="Sim">
+  <conditionalFormatting sqref="D47">
+    <cfRule type="containsText" dxfId="11" priority="11" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D47)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="129" priority="131" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="10" priority="12" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D47)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D47:D64">
-    <cfRule type="containsText" dxfId="128" priority="128" operator="containsText" text="Sim">
+  <conditionalFormatting sqref="D47">
+    <cfRule type="containsText" dxfId="9" priority="9" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D47)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="127" priority="129" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="8" priority="10" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D47)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D47:D64">
-    <cfRule type="containsText" dxfId="126" priority="126" operator="containsText" text="Sim">
+  <conditionalFormatting sqref="D47">
+    <cfRule type="containsText" dxfId="7" priority="7" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D47)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="125" priority="127" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="6" priority="8" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D47)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D47:D64">
-    <cfRule type="containsText" dxfId="124" priority="124" operator="containsText" text="Sim">
+  <conditionalFormatting sqref="D47">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D47)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="123" priority="125" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D47)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D47:D64">
-    <cfRule type="containsText" dxfId="122" priority="122" operator="containsText" text="Sim">
+  <conditionalFormatting sqref="D47">
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D47)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="121" priority="123" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D47)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D47:D64">
-    <cfRule type="containsText" dxfId="120" priority="120" operator="containsText" text="Sim">
+  <conditionalFormatting sqref="D47">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D47)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="119" priority="121" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D47)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E29">
-    <cfRule type="containsText" dxfId="118" priority="118" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",E29)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="117" priority="119" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",E29)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F5:H5">
-    <cfRule type="containsText" dxfId="116" priority="116" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",F5)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="115" priority="117" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",F5)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I5">
-    <cfRule type="containsText" dxfId="114" priority="114" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",I5)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="113" priority="115" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",I5)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K5:L5">
-    <cfRule type="containsText" dxfId="112" priority="112" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",K5)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="111" priority="113" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",K5)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J5">
-    <cfRule type="containsText" dxfId="110" priority="111" operator="containsText" text="Android">
-      <formula>NOT(ISERROR(SEARCH("Android",J5)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J5">
-    <cfRule type="containsText" dxfId="109" priority="109" operator="containsText" text="Web">
-      <formula>NOT(ISERROR(SEARCH("Web",J5)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="108" priority="110" operator="containsText" text="iOS">
-      <formula>NOT(ISERROR(SEARCH("iOS",J5)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5">
-    <cfRule type="containsText" dxfId="107" priority="107" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D5)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="106" priority="108" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D5)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5">
-    <cfRule type="containsText" dxfId="105" priority="105" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D5)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="104" priority="106" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D5)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5">
-    <cfRule type="containsText" dxfId="103" priority="103" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D5)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="102" priority="104" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D5)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5">
-    <cfRule type="containsText" dxfId="101" priority="101" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D5)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="100" priority="102" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D5)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5">
-    <cfRule type="containsText" dxfId="99" priority="99" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D5)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="98" priority="100" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D5)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5">
-    <cfRule type="containsText" dxfId="97" priority="97" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D5)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="96" priority="98" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D5)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5">
-    <cfRule type="containsText" dxfId="95" priority="95" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D5)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="94" priority="96" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D5)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5">
-    <cfRule type="containsText" dxfId="93" priority="93" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D5)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="92" priority="94" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D5)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5">
-    <cfRule type="containsText" dxfId="91" priority="91" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D5)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="90" priority="92" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D5)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5">
-    <cfRule type="containsText" dxfId="89" priority="89" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D5)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="88" priority="90" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D5)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5">
-    <cfRule type="containsText" dxfId="87" priority="87" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D5)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="86" priority="88" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D5)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5">
-    <cfRule type="containsText" dxfId="85" priority="85" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D5)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="84" priority="86" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D5)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5">
-    <cfRule type="containsText" dxfId="83" priority="83" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D5)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="82" priority="84" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D5)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5">
-    <cfRule type="containsText" dxfId="81" priority="81" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D5)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="80" priority="82" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D5)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5">
-    <cfRule type="containsText" dxfId="79" priority="79" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D5)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="78" priority="80" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D5)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5">
-    <cfRule type="containsText" dxfId="77" priority="77" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D5)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="76" priority="78" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D5)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5">
-    <cfRule type="containsText" dxfId="75" priority="75" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D5)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="74" priority="76" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D5)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5">
-    <cfRule type="containsText" dxfId="73" priority="73" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D5)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="72" priority="74" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D5)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5">
-    <cfRule type="containsText" dxfId="71" priority="71" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D5)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="70" priority="72" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D5)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5">
-    <cfRule type="containsText" dxfId="69" priority="69" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D5)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="68" priority="70" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D5)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5">
-    <cfRule type="containsText" dxfId="67" priority="67" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D5)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="66" priority="68" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D5)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5">
-    <cfRule type="containsText" dxfId="65" priority="65" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D5)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="64" priority="66" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D5)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5">
-    <cfRule type="containsText" dxfId="63" priority="63" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D5)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="62" priority="64" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D5)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5">
-    <cfRule type="containsText" dxfId="61" priority="61" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D5)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="60" priority="62" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D5)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5">
-    <cfRule type="containsText" dxfId="59" priority="59" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D5)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="58" priority="60" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D5)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5">
-    <cfRule type="containsText" dxfId="57" priority="57" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D5)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="56" priority="58" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D5)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5">
-    <cfRule type="containsText" dxfId="55" priority="55" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D5)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="54" priority="56" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D5)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5">
-    <cfRule type="containsText" dxfId="53" priority="53" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D5)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="54" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D5)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5">
-    <cfRule type="containsText" dxfId="51" priority="51" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D5)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="50" priority="52" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D5)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5">
-    <cfRule type="containsText" dxfId="49" priority="49" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D5)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="50" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D5)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5">
-    <cfRule type="containsText" dxfId="47" priority="47" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D5)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="48" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D5)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5">
-    <cfRule type="containsText" dxfId="45" priority="45" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D5)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="44" priority="46" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D5)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5">
-    <cfRule type="containsText" dxfId="43" priority="43" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D5)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="44" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D5)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5">
-    <cfRule type="containsText" dxfId="41" priority="41" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D5)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="42" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D5)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5">
-    <cfRule type="containsText" dxfId="39" priority="39" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D5)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="40" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D5)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5">
-    <cfRule type="containsText" dxfId="37" priority="37" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D5)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="38" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D5)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5">
-    <cfRule type="containsText" dxfId="35" priority="35" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D5)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="36" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D5)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5">
-    <cfRule type="containsText" dxfId="33" priority="33" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D5)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="34" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D5)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5">
-    <cfRule type="containsText" dxfId="31" priority="31" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D5)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="32" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D5)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5">
-    <cfRule type="containsText" dxfId="29" priority="29" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D5)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="30" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D5)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5">
-    <cfRule type="containsText" dxfId="27" priority="27" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D5)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="28" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D5)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5">
-    <cfRule type="containsText" dxfId="25" priority="25" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D5)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="26" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D5)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5">
-    <cfRule type="containsText" dxfId="23" priority="23" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D5)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="24" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D5)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5">
-    <cfRule type="containsText" dxfId="21" priority="21" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D5)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="22" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D5)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5">
-    <cfRule type="containsText" dxfId="19" priority="19" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D5)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="20" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D5)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5">
-    <cfRule type="containsText" dxfId="17" priority="17" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D5)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="18" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D5)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5">
-    <cfRule type="containsText" dxfId="15" priority="15" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D5)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="16" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D5)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5">
-    <cfRule type="containsText" dxfId="13" priority="13" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D5)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="14" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D5)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5">
-    <cfRule type="containsText" dxfId="11" priority="11" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D5)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="12" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D5)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5">
-    <cfRule type="containsText" dxfId="9" priority="9" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D5)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="10" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D5)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5">
-    <cfRule type="containsText" dxfId="7" priority="7" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D5)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="8" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D5)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5">
-    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D5)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D5)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5">
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D5)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D5)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D5)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D5)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K38:L40 K42:L64 D2:D64 K2:L36">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K38:L40 K2:L36 K42:L67 D2:D67">
       <formula1>"Sim,Não"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J64">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J67">
       <formula1>"Android,iOS,Web"</formula1>
     </dataValidation>
   </dataValidations>
@@ -18302,7 +21339,7 @@
     <hyperlink ref="R37" r:id="rId1" display="michael-net@hotmail.com"/>
     <hyperlink ref="M28" r:id="rId2"/>
     <hyperlink ref="R8" r:id="rId3"/>
-    <hyperlink ref="B69" r:id="rId4"/>
+    <hyperlink ref="B72" r:id="rId4"/>
     <hyperlink ref="M3" r:id="rId5"/>
     <hyperlink ref="M21" r:id="rId6"/>
     <hyperlink ref="M36" r:id="rId7"/>
@@ -18362,11 +21399,11 @@
       <c r="E2" s="41"/>
       <c r="F2" s="41"/>
       <c r="G2" s="41"/>
-      <c r="H2" s="107"/>
-      <c r="I2" s="107"/>
-      <c r="J2" s="107"/>
-      <c r="K2" s="107"/>
-      <c r="L2" s="107"/>
+      <c r="H2" s="110"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="110"/>
       <c r="M2" s="44"/>
     </row>
     <row r="3" spans="1:13" ht="7.5" customHeight="1">
@@ -18386,21 +21423,21 @@
     </row>
     <row r="4" spans="1:13" s="61" customFormat="1" ht="26.25" customHeight="1">
       <c r="A4" s="60"/>
-      <c r="B4" s="108" t="s">
+      <c r="B4" s="111" t="s">
         <v>164</v>
       </c>
-      <c r="C4" s="108"/>
-      <c r="D4" s="108"/>
-      <c r="E4" s="108"/>
-      <c r="F4" s="108"/>
+      <c r="C4" s="111"/>
+      <c r="D4" s="111"/>
+      <c r="E4" s="111"/>
+      <c r="F4" s="111"/>
       <c r="G4" s="60"/>
-      <c r="H4" s="108" t="s">
+      <c r="H4" s="111" t="s">
         <v>165</v>
       </c>
-      <c r="I4" s="108"/>
-      <c r="J4" s="108"/>
-      <c r="K4" s="108"/>
-      <c r="L4" s="108"/>
+      <c r="I4" s="111"/>
+      <c r="J4" s="111"/>
+      <c r="K4" s="111"/>
+      <c r="L4" s="111"/>
       <c r="M4" s="60"/>
     </row>
     <row r="5" spans="1:13" ht="15">
@@ -18420,12 +21457,12 @@
     </row>
     <row r="6" spans="1:13" ht="30" customHeight="1">
       <c r="A6" s="44"/>
-      <c r="B6" s="110" t="s">
+      <c r="B6" s="113" t="s">
         <v>181</v>
       </c>
-      <c r="C6" s="109"/>
-      <c r="D6" s="109"/>
-      <c r="E6" s="109"/>
+      <c r="C6" s="112"/>
+      <c r="D6" s="112"/>
+      <c r="E6" s="112"/>
       <c r="F6" s="51">
         <f>(J11+K11)/I11</f>
         <v>0.90697674418604646</v>
@@ -18448,10 +21485,10 @@
     </row>
     <row r="7" spans="1:13" ht="25.5">
       <c r="A7" s="44"/>
-      <c r="B7" s="110"/>
-      <c r="C7" s="109"/>
-      <c r="D7" s="109"/>
-      <c r="E7" s="109"/>
+      <c r="B7" s="113"/>
+      <c r="C7" s="112"/>
+      <c r="D7" s="112"/>
+      <c r="E7" s="112"/>
       <c r="F7" s="52" t="s">
         <v>179</v>
       </c>
@@ -18482,9 +21519,9 @@
         <f>COUNTIF(Testes!A3:A46,"&lt;&gt;"&amp;"")</f>
         <v>44</v>
       </c>
-      <c r="C8" s="109"/>
-      <c r="D8" s="109"/>
-      <c r="E8" s="109"/>
+      <c r="C8" s="112"/>
+      <c r="D8" s="112"/>
+      <c r="E8" s="112"/>
       <c r="F8" s="54"/>
       <c r="G8" s="44"/>
       <c r="H8" s="48" t="s">
@@ -18510,9 +21547,9 @@
     <row r="9" spans="1:13" ht="23.25">
       <c r="A9" s="44"/>
       <c r="B9" s="55"/>
-      <c r="C9" s="109"/>
-      <c r="D9" s="109"/>
-      <c r="E9" s="109"/>
+      <c r="C9" s="112"/>
+      <c r="D9" s="112"/>
+      <c r="E9" s="112"/>
       <c r="F9" s="56">
         <f>SUM(Testes!H3:H46)</f>
         <v>0</v>
@@ -18553,7 +21590,7 @@
         <f>K11</f>
         <v>9</v>
       </c>
-      <c r="F10" s="106" t="s">
+      <c r="F10" s="109" t="s">
         <v>182</v>
       </c>
       <c r="G10" s="45"/>
@@ -18576,7 +21613,7 @@
       <c r="E11" s="57" t="s">
         <v>167</v>
       </c>
-      <c r="F11" s="106"/>
+      <c r="F11" s="109"/>
       <c r="G11" s="45"/>
       <c r="H11" s="39" t="s">
         <v>178</v>
@@ -19246,30 +22283,30 @@
       <c r="D32" s="11"/>
     </row>
     <row r="33" spans="1:22">
-      <c r="A33" s="111" t="s">
+      <c r="A33" s="114" t="s">
         <v>97</v>
       </c>
-      <c r="B33" s="111"/>
-      <c r="C33" s="111"/>
-      <c r="D33" s="111"/>
-      <c r="E33" s="111"/>
-      <c r="F33" s="111"/>
-      <c r="G33" s="111"/>
-      <c r="H33" s="111"/>
-      <c r="I33" s="111"/>
-      <c r="J33" s="111"/>
-      <c r="K33" s="111"/>
-      <c r="L33" s="111"/>
-      <c r="M33" s="111"/>
-      <c r="N33" s="111"/>
-      <c r="O33" s="111"/>
-      <c r="P33" s="111"/>
-      <c r="Q33" s="111"/>
-      <c r="R33" s="111"/>
-      <c r="S33" s="111"/>
-      <c r="T33" s="111"/>
-      <c r="U33" s="111"/>
-      <c r="V33" s="111"/>
+      <c r="B33" s="114"/>
+      <c r="C33" s="114"/>
+      <c r="D33" s="114"/>
+      <c r="E33" s="114"/>
+      <c r="F33" s="114"/>
+      <c r="G33" s="114"/>
+      <c r="H33" s="114"/>
+      <c r="I33" s="114"/>
+      <c r="J33" s="114"/>
+      <c r="K33" s="114"/>
+      <c r="L33" s="114"/>
+      <c r="M33" s="114"/>
+      <c r="N33" s="114"/>
+      <c r="O33" s="114"/>
+      <c r="P33" s="114"/>
+      <c r="Q33" s="114"/>
+      <c r="R33" s="114"/>
+      <c r="S33" s="114"/>
+      <c r="T33" s="114"/>
+      <c r="U33" s="114"/>
+      <c r="V33" s="114"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/data/backup/AutoVC.xlsx
+++ b/data/backup/AutoVC.xlsx
@@ -106,7 +106,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2317" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2317" uniqueCount="421">
   <si>
     <t>Telefone</t>
   </si>
@@ -1247,15 +1247,9 @@
     <t>30/07/2021</t>
   </si>
   <si>
-    <t>Usuário sem viagem - Brindes</t>
-  </si>
-  <si>
     <t>Captura tela dos cards</t>
   </si>
   <si>
-    <t>Usuário sem viagem - Cupons</t>
-  </si>
-  <si>
     <t>Captura tela dos cupons</t>
   </si>
   <si>
@@ -1304,12 +1298,6 @@
     <t>28/07/2027</t>
   </si>
   <si>
-    <t>00:00:12</t>
-  </si>
-  <si>
-    <t>28/07/2028</t>
-  </si>
-  <si>
     <t>00:00:13</t>
   </si>
   <si>
@@ -1379,7 +1367,10 @@
     <t>Usuario sem viagem - Cards</t>
   </si>
   <si>
-    <t>00:00:42</t>
+    <t>Usuario sem viagem - Brindes</t>
+  </si>
+  <si>
+    <t>Usuario sem viagem - Cupons</t>
   </si>
 </sst>
 </file>
@@ -10954,9 +10945,9 @@
   <dimension ref="A1:AI82"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="D47" sqref="D47"/>
+      <selection pane="bottomLeft" activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -15532,13 +15523,13 @@
         <v>335</v>
       </c>
       <c r="B47" s="105" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="C47" s="105" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D47" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>113</v>
@@ -15550,7 +15541,7 @@
         <v>238</v>
       </c>
       <c r="H47" t="s">
-        <v>423</v>
+        <v>277</v>
       </c>
       <c r="I47" t="s">
         <v>378</v>
@@ -15752,10 +15743,10 @@
         <v>237</v>
       </c>
       <c r="H49" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I49" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="J49" t="s">
         <v>136</v>
@@ -15853,10 +15844,10 @@
         <v>237</v>
       </c>
       <c r="H50" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="I50" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="J50" t="s">
         <v>136</v>
@@ -15954,10 +15945,10 @@
         <v>237</v>
       </c>
       <c r="H51" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="I51" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="J51" t="s">
         <v>136</v>
@@ -16055,10 +16046,10 @@
         <v>237</v>
       </c>
       <c r="H52" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="I52" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="J52" t="s">
         <v>136</v>
@@ -16156,10 +16147,10 @@
         <v>237</v>
       </c>
       <c r="H53" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="I53" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="J53" t="s">
         <v>136</v>
@@ -16257,10 +16248,10 @@
         <v>237</v>
       </c>
       <c r="H54" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="I54" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="J54" t="s">
         <v>136</v>
@@ -16340,28 +16331,28 @@
         <v>341</v>
       </c>
       <c r="B55" s="106" t="s">
+        <v>419</v>
+      </c>
+      <c r="C55" s="106" t="s">
         <v>379</v>
       </c>
-      <c r="C55" s="106" t="s">
-        <v>380</v>
-      </c>
       <c r="D55" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E55" s="5" t="s">
         <v>113</v>
       </c>
       <c r="F55" t="s">
-        <v>297</v>
+        <v>113</v>
       </c>
       <c r="G55" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H55" t="s">
-        <v>398</v>
+        <v>247</v>
       </c>
       <c r="I55" t="s">
-        <v>399</v>
+        <v>378</v>
       </c>
       <c r="J55" t="s">
         <v>136</v>
@@ -16459,10 +16450,10 @@
         <v>237</v>
       </c>
       <c r="H56" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="I56" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="J56" t="s">
         <v>136</v>
@@ -16560,10 +16551,10 @@
         <v>237</v>
       </c>
       <c r="H57" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="I57" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="J57" t="s">
         <v>136</v>
@@ -16661,10 +16652,10 @@
         <v>237</v>
       </c>
       <c r="H58" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="I58" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="J58" t="s">
         <v>136</v>
@@ -16762,10 +16753,10 @@
         <v>237</v>
       </c>
       <c r="H59" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="I59" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="J59" t="s">
         <v>136</v>
@@ -16863,10 +16854,10 @@
         <v>237</v>
       </c>
       <c r="H60" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="I60" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="J60" t="s">
         <v>136</v>
@@ -16964,10 +16955,10 @@
         <v>237</v>
       </c>
       <c r="H61" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="I61" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="J61" t="s">
         <v>136</v>
@@ -17047,10 +17038,10 @@
         <v>348</v>
       </c>
       <c r="B62" s="105" t="s">
-        <v>381</v>
+        <v>420</v>
       </c>
       <c r="C62" s="105" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D62" t="s">
         <v>131</v>
@@ -17065,10 +17056,10 @@
         <v>237</v>
       </c>
       <c r="H62" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="I62" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="J62" t="s">
         <v>136</v>
@@ -17166,10 +17157,10 @@
         <v>237</v>
       </c>
       <c r="H63" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="I63" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="J63" t="s">
         <v>136</v>
@@ -17246,7 +17237,7 @@
     </row>
     <row r="64" spans="1:33">
       <c r="A64" s="14" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B64" s="105" t="s">
         <v>369</v>
@@ -17267,10 +17258,10 @@
         <v>237</v>
       </c>
       <c r="H64" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="I64" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="J64" t="s">
         <v>136</v>
@@ -17347,7 +17338,7 @@
     </row>
     <row r="65" spans="1:35">
       <c r="A65" s="14" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B65" s="105" t="s">
         <v>370</v>
@@ -17368,10 +17359,10 @@
         <v>237</v>
       </c>
       <c r="H65" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="I65" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="J65" t="s">
         <v>136</v>
@@ -17448,7 +17439,7 @@
     </row>
     <row r="66" spans="1:35">
       <c r="A66" s="14" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B66" s="105" t="s">
         <v>371</v>
@@ -17469,10 +17460,10 @@
         <v>237</v>
       </c>
       <c r="H66" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="I66" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="J66" t="s">
         <v>136</v>

--- a/data/backup/AutoVC.xlsx
+++ b/data/backup/AutoVC.xlsx
@@ -106,7 +106,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2317" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2317" uniqueCount="422">
   <si>
     <t>Telefone</t>
   </si>
@@ -1334,12 +1334,6 @@
     <t>28/07/2034</t>
   </si>
   <si>
-    <t>00:00:19</t>
-  </si>
-  <si>
-    <t>28/07/2035</t>
-  </si>
-  <si>
     <t>00:00:20</t>
   </si>
   <si>
@@ -1371,6 +1365,15 @@
   </si>
   <si>
     <t>Usuario sem viagem - Cupons</t>
+  </si>
+  <si>
+    <t>00:00:36</t>
+  </si>
+  <si>
+    <t>00:00:32</t>
+  </si>
+  <si>
+    <t>00:00:33</t>
   </si>
 </sst>
 </file>
@@ -10945,9 +10948,9 @@
   <dimension ref="A1:AI82"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="D55" sqref="D55"/>
+      <selection pane="bottomLeft" activeCell="C68" sqref="C68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -15523,13 +15526,13 @@
         <v>335</v>
       </c>
       <c r="B47" s="105" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C47" s="105" t="s">
         <v>379</v>
       </c>
       <c r="D47" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>113</v>
@@ -15541,7 +15544,7 @@
         <v>238</v>
       </c>
       <c r="H47" t="s">
-        <v>277</v>
+        <v>419</v>
       </c>
       <c r="I47" t="s">
         <v>378</v>
@@ -16331,7 +16334,7 @@
         <v>341</v>
       </c>
       <c r="B55" s="106" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C55" s="106" t="s">
         <v>379</v>
@@ -16349,7 +16352,7 @@
         <v>238</v>
       </c>
       <c r="H55" t="s">
-        <v>247</v>
+        <v>420</v>
       </c>
       <c r="I55" t="s">
         <v>378</v>
@@ -17038,28 +17041,28 @@
         <v>348</v>
       </c>
       <c r="B62" s="105" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C62" s="105" t="s">
         <v>380</v>
       </c>
       <c r="D62" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E62" s="5" t="s">
         <v>113</v>
       </c>
       <c r="F62" t="s">
-        <v>297</v>
+        <v>113</v>
       </c>
       <c r="G62" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H62" t="s">
-        <v>408</v>
+        <v>421</v>
       </c>
       <c r="I62" t="s">
-        <v>409</v>
+        <v>378</v>
       </c>
       <c r="J62" t="s">
         <v>136</v>
@@ -17157,10 +17160,10 @@
         <v>237</v>
       </c>
       <c r="H63" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="I63" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="J63" t="s">
         <v>136</v>
@@ -17258,10 +17261,10 @@
         <v>237</v>
       </c>
       <c r="H64" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="I64" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="J64" t="s">
         <v>136</v>
@@ -17359,10 +17362,10 @@
         <v>237</v>
       </c>
       <c r="H65" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="I65" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="J65" t="s">
         <v>136</v>
@@ -17460,10 +17463,10 @@
         <v>237</v>
       </c>
       <c r="H66" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="I66" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="J66" t="s">
         <v>136</v>

--- a/data/backup/AutoVC.xlsx
+++ b/data/backup/AutoVC.xlsx
@@ -106,7 +106,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2317" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2317" uniqueCount="423">
   <si>
     <t>Telefone</t>
   </si>
@@ -1367,13 +1367,16 @@
     <t>Usuario sem viagem - Cupons</t>
   </si>
   <si>
+    <t>00:00:38</t>
+  </si>
+  <si>
+    <t>Funcionalidade [Login Email Manipulado 3 viagens &lt;70] não encontrado</t>
+  </si>
+  <si>
+    <t>02/08/2021</t>
+  </si>
+  <si>
     <t>00:00:36</t>
-  </si>
-  <si>
-    <t>00:00:32</t>
-  </si>
-  <si>
-    <t>00:00:33</t>
   </si>
 </sst>
 </file>
@@ -10948,9 +10951,9 @@
   <dimension ref="A1:AI82"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="C68" sqref="C68"/>
+      <selection pane="bottomLeft" activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11404,22 +11407,22 @@
         <v>375</v>
       </c>
       <c r="D5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>113</v>
       </c>
       <c r="F5" t="s">
-        <v>113</v>
+        <v>420</v>
       </c>
       <c r="G5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H5" t="s">
-        <v>255</v>
+        <v>422</v>
       </c>
       <c r="I5" t="s">
-        <v>298</v>
+        <v>421</v>
       </c>
       <c r="J5" t="s">
         <v>136</v>
@@ -15532,7 +15535,7 @@
         <v>379</v>
       </c>
       <c r="D47" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>113</v>
@@ -15544,7 +15547,7 @@
         <v>238</v>
       </c>
       <c r="H47" t="s">
-        <v>419</v>
+        <v>247</v>
       </c>
       <c r="I47" t="s">
         <v>378</v>
@@ -16340,7 +16343,7 @@
         <v>379</v>
       </c>
       <c r="D55" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E55" s="5" t="s">
         <v>113</v>
@@ -16352,7 +16355,7 @@
         <v>238</v>
       </c>
       <c r="H55" t="s">
-        <v>420</v>
+        <v>277</v>
       </c>
       <c r="I55" t="s">
         <v>378</v>
@@ -17047,7 +17050,7 @@
         <v>380</v>
       </c>
       <c r="D62" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E62" s="5" t="s">
         <v>113</v>
@@ -17059,7 +17062,7 @@
         <v>238</v>
       </c>
       <c r="H62" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="I62" t="s">
         <v>378</v>

--- a/data/backup/AutoVC.xlsx
+++ b/data/backup/AutoVC.xlsx
@@ -14,9 +14,9 @@
     <sheet name="Montagem" sheetId="12" state="hidden" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Testes!$A$1:$AG$48</definedName>
-    <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="3" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT([0]!LOCAL_SECOND_FORMAT,2)</definedName>
-    <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Testes!$A$1:$AG$50</definedName>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="3" hidden="1"><![CDATA[REPT(LOCAL_YEAR_FORMAT,4)&LOCAL_DATE_SEPARATOR&REPT(LOCAL_MONTH_FORMAT,2)&LOCAL_DATE_SEPARATOR&REPT(LOCAL_DAY_FORMAT,2)&" "&REPT(LOCAL_HOUR_FORMAT,2)&LOCAL_TIME_SEPARATOR&REPT(LOCAL_MINUTE_FORMAT,2)&LOCAL_TIME_SEPARATOR&REPT([0]!LOCAL_SECOND_FORMAT,2)]]></definedName>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1"><![CDATA[REPT(LOCAL_YEAR_FORMAT,4)&LOCAL_DATE_SEPARATOR&REPT(LOCAL_MONTH_FORMAT,2)&LOCAL_DATE_SEPARATOR&REPT(LOCAL_DAY_FORMAT,2)&" "&REPT(LOCAL_HOUR_FORMAT,2)&LOCAL_TIME_SEPARATOR&REPT(LOCAL_MINUTE_FORMAT,2)&LOCAL_TIME_SEPARATOR&REPT(LOCAL_SECOND_FORMAT,2)]]></definedName>
     <definedName name="LOCAL_SECOND_FORMAT" hidden="1">" "</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -37,7 +37,7 @@
     <author>Autor</author>
   </authors>
   <commentList>
-    <comment ref="C21" authorId="0" shapeId="0">
+    <comment ref="C23" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -61,7 +61,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B25" authorId="0" shapeId="0">
+    <comment ref="B27" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -75,7 +75,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q37" authorId="0" shapeId="0">
+    <comment ref="Q39" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -106,7 +106,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2317" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2345" uniqueCount="424">
   <si>
     <t>Telefone</t>
   </si>
@@ -874,9 +874,6 @@
     <t>Filtro Viagens Passageiro</t>
   </si>
   <si>
-    <t>00:01:27</t>
-  </si>
-  <si>
     <t>Verificar Perfil</t>
   </si>
   <si>
@@ -1088,9 +1085,6 @@
     <t>00:00:35</t>
   </si>
   <si>
-    <t>00:02:18</t>
-  </si>
-  <si>
     <t>Compartilhar cupom de largada com corretor via email   -  ALTERAR TESTE, APENAS ACESSA O SITE PARA RESGATE</t>
   </si>
   <si>
@@ -1370,13 +1364,22 @@
     <t>00:00:38</t>
   </si>
   <si>
-    <t>Funcionalidade [Login Email Manipulado 3 viagens &lt;70] não encontrado</t>
-  </si>
-  <si>
     <t>02/08/2021</t>
   </si>
   <si>
-    <t>00:00:36</t>
+    <t>00:01:30</t>
+  </si>
+  <si>
+    <t>00:01:03</t>
+  </si>
+  <si>
+    <t>Falha ao validar brinde</t>
+  </si>
+  <si>
+    <t>00:01:13</t>
+  </si>
+  <si>
+    <t>00:01:04</t>
   </si>
 </sst>
 </file>
@@ -10948,48 +10951,48 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Plan3"/>
-  <dimension ref="A1:AI82"/>
+  <dimension ref="A1:AI84"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="D63" sqref="D63"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="7.42578125" style="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="38.85546875" style="9" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="121.140625" style="73" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9.5703125" style="29" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="43.5703125" style="9" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="35.7109375" style="9" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11" style="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="11.7109375" style="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14" style="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="10.7109375" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="12" width="12.7109375" style="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="26.85546875" style="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="15.140625" style="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="23.28515625" style="9" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="8.28515625" style="9" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="12" style="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="23.5703125" style="9" customWidth="1" collapsed="1"/>
-    <col min="19" max="20" width="15" style="9" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="12" style="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="15.140625" style="9" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="13.28515625" style="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="23.85546875" style="9" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="24.5703125" style="9" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="19.140625" style="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="17.5703125" style="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="25.7109375" style="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="17.7109375" style="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="19.28515625" style="9" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="24" style="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="14" style="13" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="15.28515625" style="13" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="16384" width="9.140625" style="13" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="9" width="7.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="9" width="38.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="73" width="121.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="29" width="9.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="9" width="43.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="9" width="35.7109375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="9" width="11.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="9" width="11.7109375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="9" width="14.0" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="7" width="10.7109375" collapsed="true"/>
+    <col min="11" max="12" bestFit="true" customWidth="true" style="9" width="12.7109375" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="9" width="26.85546875" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="9" width="15.140625" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="9" width="23.28515625" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" style="9" width="8.28515625" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="9" width="12.0" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" style="9" width="23.5703125" collapsed="true"/>
+    <col min="19" max="20" customWidth="true" style="9" width="15.0" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="9" width="12.0" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" style="9" width="15.140625" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" style="9" width="13.28515625" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" style="9" width="23.85546875" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" style="9" width="24.5703125" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="9" width="19.140625" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="9" width="17.5703125" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" style="9" width="25.7109375" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" style="9" width="17.7109375" collapsed="true"/>
+    <col min="30" max="30" customWidth="true" style="9" width="19.28515625" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" style="9" width="24.0" collapsed="true"/>
+    <col min="32" max="32" customWidth="true" style="13" width="14.0" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" style="13" width="15.28515625" collapsed="true"/>
+    <col min="34" max="16384" style="13" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" s="12" customFormat="1">
@@ -11095,7 +11098,7 @@
     </row>
     <row r="2" spans="1:33">
       <c r="A2" s="14" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B2" s="83" t="s">
         <v>21</v>
@@ -11116,10 +11119,10 @@
         <v>238</v>
       </c>
       <c r="H2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="I2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J2" t="s">
         <v>136</v>
@@ -11170,7 +11173,7 @@
         <v>134</v>
       </c>
       <c r="Z2" s="92" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AA2" s="10">
         <v>44096</v>
@@ -11202,7 +11205,7 @@
         <v>30</v>
       </c>
       <c r="C3" s="93" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D3" t="s">
         <v>131</v>
@@ -11217,10 +11220,10 @@
         <v>238</v>
       </c>
       <c r="H3" t="s">
-        <v>255</v>
+        <v>422</v>
       </c>
       <c r="I3" t="s">
-        <v>298</v>
+        <v>418</v>
       </c>
       <c r="J3" t="s">
         <v>136</v>
@@ -11232,10 +11235,10 @@
         <v>132</v>
       </c>
       <c r="M3" s="90" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="N3" s="9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O3" s="7" t="s">
         <v>134</v>
@@ -11297,13 +11300,13 @@
     </row>
     <row r="4" spans="1:33">
       <c r="A4" s="14" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B4" s="104" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C4" s="93" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D4" t="s">
         <v>131</v>
@@ -11318,10 +11321,10 @@
         <v>238</v>
       </c>
       <c r="H4" t="s">
+        <v>374</v>
+      </c>
+      <c r="I4" t="s">
         <v>376</v>
-      </c>
-      <c r="I4" t="s">
-        <v>378</v>
       </c>
       <c r="J4" t="s">
         <v>136</v>
@@ -11333,10 +11336,10 @@
         <v>132</v>
       </c>
       <c r="M4" s="73" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="N4" s="9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>134</v>
@@ -11398,31 +11401,31 @@
     </row>
     <row r="5" spans="1:33">
       <c r="A5" s="14" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B5" s="104" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C5" s="93" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>113</v>
       </c>
       <c r="F5" t="s">
-        <v>420</v>
+        <v>113</v>
       </c>
       <c r="G5" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H5" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="I5" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="J5" t="s">
         <v>136</v>
@@ -11514,16 +11517,16 @@
         <v>113</v>
       </c>
       <c r="F6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G6" t="s">
         <v>237</v>
       </c>
       <c r="H6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="J6" t="s">
         <v>136</v>
@@ -11621,10 +11624,10 @@
         <v>238</v>
       </c>
       <c r="H7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="J7" t="s">
         <v>136</v>
@@ -11716,7 +11719,7 @@
         <v>113</v>
       </c>
       <c r="F8" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G8" t="s">
         <v>237</v>
@@ -11725,7 +11728,7 @@
         <v>247</v>
       </c>
       <c r="I8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="J8" t="s">
         <v>136</v>
@@ -11750,10 +11753,10 @@
       </c>
       <c r="Q8" s="8"/>
       <c r="R8" s="86" t="s">
+        <v>288</v>
+      </c>
+      <c r="S8" s="6" t="s">
         <v>289</v>
-      </c>
-      <c r="S8" s="6" t="s">
-        <v>290</v>
       </c>
       <c r="T8" t="s">
         <v>4</v>
@@ -11800,7 +11803,7 @@
     </row>
     <row r="9" spans="1:33">
       <c r="A9" s="14" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B9" s="82" t="s">
         <v>31</v>
@@ -11821,10 +11824,10 @@
         <v>238</v>
       </c>
       <c r="H9" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I9" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J9" t="s">
         <v>136</v>
@@ -11920,10 +11923,10 @@
         <v>238</v>
       </c>
       <c r="H10" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I10" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J10" t="s">
         <v>136</v>
@@ -11998,7 +12001,7 @@
     </row>
     <row r="11" spans="1:33">
       <c r="A11" s="14" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B11" s="16" t="s">
         <v>33</v>
@@ -12019,10 +12022,10 @@
         <v>238</v>
       </c>
       <c r="H11" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I11" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J11" t="s">
         <v>136</v>
@@ -12034,10 +12037,10 @@
         <v>132</v>
       </c>
       <c r="M11" s="76" t="s">
+        <v>258</v>
+      </c>
+      <c r="N11" s="77" t="s">
         <v>259</v>
-      </c>
-      <c r="N11" s="77" t="s">
-        <v>260</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>134</v>
@@ -12099,7 +12102,7 @@
     </row>
     <row r="12" spans="1:33">
       <c r="A12" s="14" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B12" s="16" t="s">
         <v>187</v>
@@ -12120,10 +12123,10 @@
         <v>238</v>
       </c>
       <c r="H12" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I12" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J12" t="s">
         <v>136</v>
@@ -12135,10 +12138,10 @@
         <v>132</v>
       </c>
       <c r="M12" s="76" t="s">
+        <v>258</v>
+      </c>
+      <c r="N12" s="77" t="s">
         <v>259</v>
-      </c>
-      <c r="N12" s="77" t="s">
-        <v>260</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>134</v>
@@ -12221,10 +12224,10 @@
         <v>238</v>
       </c>
       <c r="H13" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I13" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J13" t="s">
         <v>136</v>
@@ -12236,10 +12239,10 @@
         <v>132</v>
       </c>
       <c r="M13" s="76" t="s">
+        <v>258</v>
+      </c>
+      <c r="N13" s="77" t="s">
         <v>259</v>
-      </c>
-      <c r="N13" s="77" t="s">
-        <v>260</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>134</v>
@@ -12322,10 +12325,10 @@
         <v>238</v>
       </c>
       <c r="H14" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="I14" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J14" t="s">
         <v>136</v>
@@ -12337,10 +12340,10 @@
         <v>132</v>
       </c>
       <c r="M14" s="76" t="s">
+        <v>258</v>
+      </c>
+      <c r="N14" s="77" t="s">
         <v>259</v>
-      </c>
-      <c r="N14" s="77" t="s">
-        <v>260</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>134</v>
@@ -12423,10 +12426,10 @@
         <v>238</v>
       </c>
       <c r="H15" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I15" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J15" t="s">
         <v>136</v>
@@ -12438,10 +12441,10 @@
         <v>131</v>
       </c>
       <c r="M15" s="76" t="s">
+        <v>258</v>
+      </c>
+      <c r="N15" s="77" t="s">
         <v>259</v>
-      </c>
-      <c r="N15" s="77" t="s">
-        <v>260</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>134</v>
@@ -12509,7 +12512,7 @@
         <v>101</v>
       </c>
       <c r="C16" s="74" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D16" t="s">
         <v>131</v>
@@ -12524,10 +12527,10 @@
         <v>238</v>
       </c>
       <c r="H16" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="I16" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J16" t="s">
         <v>136</v>
@@ -12613,29 +12616,37 @@
         <v>43</v>
       </c>
       <c r="D17" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="F17"/>
-      <c r="G17"/>
-      <c r="H17"/>
-      <c r="I17"/>
+      <c r="F17" t="s">
+        <v>421</v>
+      </c>
+      <c r="G17" t="s">
+        <v>237</v>
+      </c>
+      <c r="H17" t="s">
+        <v>292</v>
+      </c>
+      <c r="I17" t="s">
+        <v>418</v>
+      </c>
       <c r="J17" t="s">
         <v>136</v>
       </c>
       <c r="K17" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L17" s="22" t="s">
         <v>132</v>
       </c>
       <c r="M17" s="76" t="s">
+        <v>258</v>
+      </c>
+      <c r="N17" s="77" t="s">
         <v>259</v>
-      </c>
-      <c r="N17" s="77" t="s">
-        <v>260</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>134</v>
@@ -12697,13 +12708,13 @@
     </row>
     <row r="18" spans="1:33">
       <c r="A18" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="B18" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="C18" s="78" t="s">
-        <v>47</v>
+        <v>331</v>
+      </c>
+      <c r="B18" s="91" t="s">
+        <v>215</v>
+      </c>
+      <c r="C18" s="75" t="s">
+        <v>325</v>
       </c>
       <c r="D18" t="s">
         <v>131</v>
@@ -12711,45 +12722,51 @@
       <c r="E18" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="F18"/>
-      <c r="G18"/>
-      <c r="H18"/>
-      <c r="I18"/>
+      <c r="F18" t="s">
+        <v>241</v>
+      </c>
+      <c r="G18" t="s">
+        <v>237</v>
+      </c>
+      <c r="H18" t="s">
+        <v>420</v>
+      </c>
+      <c r="I18" t="s">
+        <v>418</v>
+      </c>
       <c r="J18" t="s">
         <v>136</v>
       </c>
       <c r="K18" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L18" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="M18" s="76" t="s">
+      <c r="M18" s="90" t="s">
+        <v>299</v>
+      </c>
+      <c r="N18" s="77" t="s">
         <v>259</v>
       </c>
-      <c r="N18" s="77" t="s">
-        <v>260</v>
-      </c>
       <c r="O18" s="7" t="s">
         <v>134</v>
       </c>
       <c r="P18" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="Q18" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="R18" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="S18" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="T18" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="U18" s="7" t="s">
-        <v>134</v>
+      <c r="Q18" s="30"/>
+      <c r="R18" t="s">
+        <v>3</v>
+      </c>
+      <c r="S18" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="T18" t="s">
+        <v>4</v>
+      </c>
+      <c r="U18" t="s">
+        <v>5</v>
       </c>
       <c r="V18" s="7" t="s">
         <v>134</v>
@@ -12790,13 +12807,13 @@
     </row>
     <row r="19" spans="1:33">
       <c r="A19" s="14" t="s">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>102</v>
+        <v>44</v>
       </c>
       <c r="C19" s="78" t="s">
-        <v>103</v>
+        <v>47</v>
       </c>
       <c r="D19" t="s">
         <v>131</v>
@@ -12818,10 +12835,10 @@
         <v>132</v>
       </c>
       <c r="M19" s="76" t="s">
+        <v>258</v>
+      </c>
+      <c r="N19" s="77" t="s">
         <v>259</v>
-      </c>
-      <c r="N19" s="77" t="s">
-        <v>260</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>134</v>
@@ -12883,13 +12900,13 @@
     </row>
     <row r="20" spans="1:33">
       <c r="A20" s="14" t="s">
-        <v>270</v>
-      </c>
-      <c r="B20" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20" s="94" t="s">
-        <v>57</v>
+        <v>332</v>
+      </c>
+      <c r="B20" s="91" t="s">
+        <v>214</v>
+      </c>
+      <c r="C20" s="75" t="s">
+        <v>326</v>
       </c>
       <c r="D20" t="s">
         <v>131</v>
@@ -12897,53 +12914,43 @@
       <c r="E20" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="F20" t="s">
-        <v>310</v>
-      </c>
-      <c r="G20" t="s">
-        <v>237</v>
-      </c>
-      <c r="H20" t="s">
-        <v>311</v>
-      </c>
-      <c r="I20" t="s">
-        <v>303</v>
-      </c>
+      <c r="F20"/>
+      <c r="G20"/>
+      <c r="H20"/>
+      <c r="I20"/>
       <c r="J20" t="s">
         <v>136</v>
       </c>
       <c r="K20" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L20" s="22" t="s">
         <v>132</v>
       </c>
       <c r="M20" s="76" t="s">
+        <v>258</v>
+      </c>
+      <c r="N20" s="77" t="s">
         <v>259</v>
       </c>
-      <c r="N20" s="77" t="s">
-        <v>260</v>
-      </c>
       <c r="O20" s="7" t="s">
         <v>134</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="Q20" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="R20" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="S20" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="T20" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="U20" s="7" t="s">
-        <v>134</v>
+      <c r="Q20" s="30"/>
+      <c r="R20" t="s">
+        <v>3</v>
+      </c>
+      <c r="S20" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="T20" t="s">
+        <v>4</v>
+      </c>
+      <c r="U20" t="s">
+        <v>5</v>
       </c>
       <c r="V20" s="7" t="s">
         <v>134</v>
@@ -12951,11 +12958,11 @@
       <c r="W20" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="X20" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y20" s="9" t="s">
-        <v>13</v>
+      <c r="X20" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y20" s="7" t="s">
+        <v>134</v>
       </c>
       <c r="Z20" s="7" t="s">
         <v>134</v>
@@ -12984,13 +12991,13 @@
     </row>
     <row r="21" spans="1:33">
       <c r="A21" s="14" t="s">
-        <v>271</v>
+        <v>140</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="C21" s="97" t="s">
-        <v>314</v>
+        <v>102</v>
+      </c>
+      <c r="C21" s="78" t="s">
+        <v>103</v>
       </c>
       <c r="D21" t="s">
         <v>131</v>
@@ -12998,18 +13005,10 @@
       <c r="E21" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="F21" t="s">
-        <v>113</v>
-      </c>
-      <c r="G21" t="s">
-        <v>238</v>
-      </c>
-      <c r="H21" t="s">
-        <v>312</v>
-      </c>
-      <c r="I21" t="s">
-        <v>303</v>
-      </c>
+      <c r="F21"/>
+      <c r="G21"/>
+      <c r="H21"/>
+      <c r="I21"/>
       <c r="J21" t="s">
         <v>136</v>
       </c>
@@ -13019,11 +13018,11 @@
       <c r="L21" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="M21" s="90" t="s">
-        <v>300</v>
+      <c r="M21" s="76" t="s">
+        <v>258</v>
       </c>
       <c r="N21" s="77" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>134</v>
@@ -13085,13 +13084,13 @@
     </row>
     <row r="22" spans="1:33">
       <c r="A22" s="14" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="C22" s="99" t="s">
-        <v>55</v>
+        <v>14</v>
+      </c>
+      <c r="C22" s="94" t="s">
+        <v>57</v>
       </c>
       <c r="D22" t="s">
         <v>131</v>
@@ -13100,32 +13099,32 @@
         <v>113</v>
       </c>
       <c r="F22" t="s">
-        <v>113</v>
+        <v>309</v>
       </c>
       <c r="G22" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H22" t="s">
-        <v>277</v>
+        <v>310</v>
       </c>
       <c r="I22" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J22" t="s">
         <v>136</v>
       </c>
       <c r="K22" s="22" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L22" s="22" t="s">
         <v>132</v>
       </c>
       <c r="M22" s="76" t="s">
+        <v>258</v>
+      </c>
+      <c r="N22" s="77" t="s">
         <v>259</v>
       </c>
-      <c r="N22" s="77" t="s">
-        <v>260</v>
-      </c>
       <c r="O22" s="7" t="s">
         <v>134</v>
       </c>
@@ -13153,11 +13152,11 @@
       <c r="W22" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="X22" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="Y22" s="7" t="s">
-        <v>134</v>
+      <c r="X22" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y22" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="Z22" s="7" t="s">
         <v>134</v>
@@ -13186,13 +13185,13 @@
     </row>
     <row r="23" spans="1:33">
       <c r="A23" s="14" t="s">
-        <v>41</v>
+        <v>270</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="C23" s="99" t="s">
-        <v>56</v>
+        <v>52</v>
+      </c>
+      <c r="C23" s="97" t="s">
+        <v>313</v>
       </c>
       <c r="D23" t="s">
         <v>131</v>
@@ -13207,25 +13206,25 @@
         <v>238</v>
       </c>
       <c r="H23" t="s">
-        <v>278</v>
+        <v>311</v>
       </c>
       <c r="I23" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J23" t="s">
         <v>136</v>
       </c>
       <c r="K23" s="22" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L23" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="M23" s="76" t="s">
+      <c r="M23" s="90" t="s">
+        <v>299</v>
+      </c>
+      <c r="N23" s="77" t="s">
         <v>259</v>
-      </c>
-      <c r="N23" s="77" t="s">
-        <v>260</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>134</v>
@@ -13287,13 +13286,13 @@
     </row>
     <row r="24" spans="1:33">
       <c r="A24" s="14" t="s">
-        <v>45</v>
+        <v>271</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>109</v>
+        <v>53</v>
       </c>
       <c r="C24" s="99" t="s">
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="D24" t="s">
         <v>131</v>
@@ -13308,10 +13307,10 @@
         <v>238</v>
       </c>
       <c r="H24" t="s">
-        <v>247</v>
+        <v>276</v>
       </c>
       <c r="I24" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J24" t="s">
         <v>136</v>
@@ -13323,10 +13322,10 @@
         <v>132</v>
       </c>
       <c r="M24" s="76" t="s">
+        <v>258</v>
+      </c>
+      <c r="N24" s="77" t="s">
         <v>259</v>
-      </c>
-      <c r="N24" s="77" t="s">
-        <v>260</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>134</v>
@@ -13388,13 +13387,13 @@
     </row>
     <row r="25" spans="1:33">
       <c r="A25" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B25" s="91" t="s">
-        <v>204</v>
-      </c>
-      <c r="C25" s="89" t="s">
-        <v>193</v>
+        <v>41</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="C25" s="99" t="s">
+        <v>56</v>
       </c>
       <c r="D25" t="s">
         <v>131</v>
@@ -13403,16 +13402,16 @@
         <v>113</v>
       </c>
       <c r="F25" t="s">
-        <v>313</v>
+        <v>113</v>
       </c>
       <c r="G25" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H25" t="s">
-        <v>293</v>
+        <v>277</v>
       </c>
       <c r="I25" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J25" t="s">
         <v>136</v>
@@ -13424,10 +13423,10 @@
         <v>132</v>
       </c>
       <c r="M25" s="76" t="s">
+        <v>258</v>
+      </c>
+      <c r="N25" s="77" t="s">
         <v>259</v>
-      </c>
-      <c r="N25" s="77" t="s">
-        <v>260</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>134</v>
@@ -13489,13 +13488,13 @@
     </row>
     <row r="26" spans="1:33">
       <c r="A26" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B26" s="91" t="s">
-        <v>203</v>
-      </c>
-      <c r="C26" s="89" t="s">
-        <v>194</v>
+        <v>45</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="C26" s="99" t="s">
+        <v>110</v>
       </c>
       <c r="D26" t="s">
         <v>131</v>
@@ -13504,16 +13503,16 @@
         <v>113</v>
       </c>
       <c r="F26" t="s">
-        <v>261</v>
+        <v>113</v>
       </c>
       <c r="G26" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H26" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="I26" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J26" t="s">
         <v>136</v>
@@ -13525,10 +13524,10 @@
         <v>132</v>
       </c>
       <c r="M26" s="76" t="s">
+        <v>258</v>
+      </c>
+      <c r="N26" s="77" t="s">
         <v>259</v>
-      </c>
-      <c r="N26" s="77" t="s">
-        <v>260</v>
       </c>
       <c r="O26" s="7" t="s">
         <v>134</v>
@@ -13590,13 +13589,13 @@
     </row>
     <row r="27" spans="1:33">
       <c r="A27" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="B27" s="16" t="s">
-        <v>253</v>
-      </c>
-      <c r="C27" s="93" t="s">
-        <v>111</v>
+        <v>46</v>
+      </c>
+      <c r="B27" s="91" t="s">
+        <v>204</v>
+      </c>
+      <c r="C27" s="89" t="s">
+        <v>193</v>
       </c>
       <c r="D27" t="s">
         <v>131</v>
@@ -13605,16 +13604,16 @@
         <v>113</v>
       </c>
       <c r="F27" t="s">
-        <v>113</v>
+        <v>312</v>
       </c>
       <c r="G27" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H27" t="s">
-        <v>315</v>
+        <v>292</v>
       </c>
       <c r="I27" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J27" t="s">
         <v>136</v>
@@ -13625,11 +13624,11 @@
       <c r="L27" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="M27" s="66" t="s">
-        <v>134</v>
-      </c>
-      <c r="N27" s="66" t="s">
-        <v>134</v>
+      <c r="M27" s="76" t="s">
+        <v>258</v>
+      </c>
+      <c r="N27" s="77" t="s">
+        <v>259</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>134</v>
@@ -13691,13 +13690,13 @@
     </row>
     <row r="28" spans="1:33">
       <c r="A28" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="B28" s="16" t="s">
-        <v>254</v>
-      </c>
-      <c r="C28" s="74" t="s">
-        <v>112</v>
+        <v>48</v>
+      </c>
+      <c r="B28" s="91" t="s">
+        <v>203</v>
+      </c>
+      <c r="C28" s="89" t="s">
+        <v>194</v>
       </c>
       <c r="D28" t="s">
         <v>131</v>
@@ -13706,16 +13705,16 @@
         <v>113</v>
       </c>
       <c r="F28" t="s">
-        <v>113</v>
+        <v>260</v>
       </c>
       <c r="G28" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H28" t="s">
-        <v>316</v>
+        <v>261</v>
       </c>
       <c r="I28" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J28" t="s">
         <v>136</v>
@@ -13726,11 +13725,11 @@
       <c r="L28" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="M28" s="63" t="s">
-        <v>216</v>
-      </c>
-      <c r="N28" s="6" t="s">
-        <v>195</v>
+      <c r="M28" s="76" t="s">
+        <v>258</v>
+      </c>
+      <c r="N28" s="77" t="s">
+        <v>259</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>134</v>
@@ -13792,46 +13791,46 @@
     </row>
     <row r="29" spans="1:33">
       <c r="A29" s="14" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>206</v>
-      </c>
-      <c r="C29" s="74" t="s">
-        <v>219</v>
+        <v>253</v>
+      </c>
+      <c r="C29" s="93" t="s">
+        <v>111</v>
       </c>
       <c r="D29" t="s">
         <v>131</v>
       </c>
-      <c r="E29" t="s">
-        <v>317</v>
+      <c r="E29" s="5" t="s">
+        <v>113</v>
       </c>
       <c r="F29" t="s">
-        <v>317</v>
+        <v>113</v>
       </c>
       <c r="G29" t="s">
         <v>238</v>
       </c>
       <c r="H29" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="I29" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J29" t="s">
         <v>136</v>
       </c>
       <c r="K29" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L29" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="M29" s="76" t="s">
-        <v>259</v>
-      </c>
-      <c r="N29" s="77" t="s">
-        <v>260</v>
+      <c r="M29" s="66" t="s">
+        <v>134</v>
+      </c>
+      <c r="N29" s="66" t="s">
+        <v>134</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>134</v>
@@ -13876,13 +13875,13 @@
         <v>134</v>
       </c>
       <c r="AC29" s="7" t="s">
-        <v>284</v>
+        <v>134</v>
       </c>
       <c r="AD29" s="7" t="s">
-        <v>318</v>
+        <v>134</v>
       </c>
       <c r="AE29" s="7" t="s">
-        <v>285</v>
+        <v>134</v>
       </c>
       <c r="AF29" s="7" t="s">
         <v>134</v>
@@ -13893,13 +13892,13 @@
     </row>
     <row r="30" spans="1:33">
       <c r="A30" s="14" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>115</v>
+        <v>254</v>
       </c>
       <c r="C30" s="74" t="s">
-        <v>279</v>
+        <v>112</v>
       </c>
       <c r="D30" t="s">
         <v>131</v>
@@ -13914,10 +13913,10 @@
         <v>238</v>
       </c>
       <c r="H30" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="I30" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J30" t="s">
         <v>136</v>
@@ -13928,17 +13927,17 @@
       <c r="L30" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="M30" s="79" t="s">
-        <v>239</v>
-      </c>
-      <c r="N30" s="80" t="s">
+      <c r="M30" s="63" t="s">
+        <v>216</v>
+      </c>
+      <c r="N30" s="6" t="s">
         <v>195</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="P30" s="17">
-        <v>3</v>
+      <c r="P30" s="7" t="s">
+        <v>134</v>
       </c>
       <c r="Q30" s="7" t="s">
         <v>134</v>
@@ -13994,56 +13993,114 @@
     </row>
     <row r="31" spans="1:33">
       <c r="A31" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="B31" s="91" t="s">
-        <v>269</v>
-      </c>
-      <c r="C31" s="75" t="s">
-        <v>280</v>
+        <v>106</v>
+      </c>
+      <c r="B31" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="C31" s="74" t="s">
+        <v>219</v>
       </c>
       <c r="D31" t="s">
         <v>131</v>
       </c>
-      <c r="E31" s="5"/>
-      <c r="F31"/>
-      <c r="G31"/>
-      <c r="H31"/>
-      <c r="I31"/>
-      <c r="J31"/>
-      <c r="K31" s="22"/>
-      <c r="L31" s="22"/>
-      <c r="M31" s="79"/>
-      <c r="N31" s="80"/>
-      <c r="O31" s="7"/>
-      <c r="P31" s="17"/>
-      <c r="Q31" s="7"/>
-      <c r="R31" s="7"/>
-      <c r="S31" s="7"/>
-      <c r="T31" s="7"/>
-      <c r="U31" s="7"/>
-      <c r="V31" s="7"/>
-      <c r="W31" s="7"/>
-      <c r="X31" s="7"/>
-      <c r="Y31" s="7"/>
-      <c r="Z31" s="7"/>
-      <c r="AA31" s="7"/>
-      <c r="AB31" s="7"/>
-      <c r="AC31" s="7"/>
-      <c r="AD31" s="7"/>
-      <c r="AE31" s="7"/>
-      <c r="AF31" s="7"/>
-      <c r="AG31" s="7"/>
+      <c r="E31" t="s">
+        <v>316</v>
+      </c>
+      <c r="F31" t="s">
+        <v>316</v>
+      </c>
+      <c r="G31" t="s">
+        <v>238</v>
+      </c>
+      <c r="H31" t="s">
+        <v>315</v>
+      </c>
+      <c r="I31" t="s">
+        <v>302</v>
+      </c>
+      <c r="J31" t="s">
+        <v>136</v>
+      </c>
+      <c r="K31" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="L31" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="M31" s="76" t="s">
+        <v>258</v>
+      </c>
+      <c r="N31" s="77" t="s">
+        <v>259</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="R31" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="S31" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="T31" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="U31" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="V31" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="W31" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="X31" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y31" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z31" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA31" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB31" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="AC31" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="AD31" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="AE31" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="AF31" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="AG31" s="7" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="32" spans="1:33">
       <c r="A32" s="14" t="s">
-        <v>197</v>
-      </c>
-      <c r="B32" s="91" t="s">
-        <v>117</v>
+        <v>107</v>
+      </c>
+      <c r="B32" s="16" t="s">
+        <v>115</v>
       </c>
       <c r="C32" s="74" t="s">
-        <v>257</v>
+        <v>278</v>
       </c>
       <c r="D32" t="s">
         <v>131</v>
@@ -14058,31 +14115,31 @@
         <v>238</v>
       </c>
       <c r="H32" t="s">
-        <v>294</v>
+        <v>318</v>
       </c>
       <c r="I32" t="s">
-        <v>283</v>
+        <v>302</v>
       </c>
       <c r="J32" t="s">
         <v>136</v>
       </c>
       <c r="K32" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L32" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="M32" s="76" t="s">
+      <c r="M32" s="79" t="s">
         <v>239</v>
       </c>
-      <c r="N32" s="6" t="s">
+      <c r="N32" s="80" t="s">
         <v>195</v>
       </c>
       <c r="O32" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="P32" s="66" t="s">
-        <v>134</v>
+      <c r="P32" s="17">
+        <v>3</v>
       </c>
       <c r="Q32" s="7" t="s">
         <v>134</v>
@@ -14099,8 +14156,11 @@
       <c r="U32" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="W32" s="9" t="s">
-        <v>276</v>
+      <c r="V32" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="W32" s="7" t="s">
+        <v>134</v>
       </c>
       <c r="X32" s="7" t="s">
         <v>134</v>
@@ -14135,111 +14195,56 @@
     </row>
     <row r="33" spans="1:33">
       <c r="A33" s="14" t="s">
-        <v>273</v>
+        <v>108</v>
       </c>
       <c r="B33" s="91" t="s">
-        <v>256</v>
-      </c>
-      <c r="C33" s="74" t="s">
-        <v>258</v>
+        <v>268</v>
+      </c>
+      <c r="C33" s="75" t="s">
+        <v>279</v>
       </c>
       <c r="D33" t="s">
         <v>131</v>
       </c>
-      <c r="E33" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="F33" t="s">
-        <v>113</v>
-      </c>
-      <c r="G33" t="s">
-        <v>238</v>
-      </c>
-      <c r="H33" t="s">
-        <v>278</v>
-      </c>
-      <c r="I33" t="s">
-        <v>283</v>
-      </c>
-      <c r="J33" t="s">
-        <v>136</v>
-      </c>
-      <c r="K33" s="22" t="s">
-        <v>131</v>
-      </c>
-      <c r="L33" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="M33" s="76" t="s">
-        <v>239</v>
-      </c>
-      <c r="N33" s="84" t="s">
-        <v>195</v>
-      </c>
-      <c r="O33" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="P33" s="66" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="R33" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="S33" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="T33" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="U33" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="W33" s="9" t="s">
-        <v>276</v>
-      </c>
-      <c r="X33" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="Y33" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="Z33" s="66" t="s">
-        <v>134</v>
-      </c>
-      <c r="AA33" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="AB33" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="AC33" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="AD33" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="AE33" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="AF33" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="AG33" s="7" t="s">
-        <v>134</v>
-      </c>
+      <c r="E33" s="5"/>
+      <c r="F33"/>
+      <c r="G33"/>
+      <c r="H33"/>
+      <c r="I33"/>
+      <c r="J33"/>
+      <c r="K33" s="22"/>
+      <c r="L33" s="22"/>
+      <c r="M33" s="79"/>
+      <c r="N33" s="80"/>
+      <c r="O33" s="7"/>
+      <c r="P33" s="17"/>
+      <c r="Q33" s="7"/>
+      <c r="R33" s="7"/>
+      <c r="S33" s="7"/>
+      <c r="T33" s="7"/>
+      <c r="U33" s="7"/>
+      <c r="V33" s="7"/>
+      <c r="W33" s="7"/>
+      <c r="X33" s="7"/>
+      <c r="Y33" s="7"/>
+      <c r="Z33" s="7"/>
+      <c r="AA33" s="7"/>
+      <c r="AB33" s="7"/>
+      <c r="AC33" s="7"/>
+      <c r="AD33" s="7"/>
+      <c r="AE33" s="7"/>
+      <c r="AF33" s="7"/>
+      <c r="AG33" s="7"/>
     </row>
     <row r="34" spans="1:33">
       <c r="A34" s="14" t="s">
-        <v>233</v>
-      </c>
-      <c r="B34" s="16" t="s">
-        <v>27</v>
+        <v>197</v>
+      </c>
+      <c r="B34" s="91" t="s">
+        <v>117</v>
       </c>
       <c r="C34" s="74" t="s">
-        <v>28</v>
+        <v>256</v>
       </c>
       <c r="D34" t="s">
         <v>131</v>
@@ -14254,10 +14259,10 @@
         <v>238</v>
       </c>
       <c r="H34" t="s">
-        <v>320</v>
+        <v>293</v>
       </c>
       <c r="I34" t="s">
-        <v>303</v>
+        <v>282</v>
       </c>
       <c r="J34" t="s">
         <v>136</v>
@@ -14269,15 +14274,15 @@
         <v>132</v>
       </c>
       <c r="M34" s="76" t="s">
-        <v>259</v>
-      </c>
-      <c r="N34" s="77" t="s">
-        <v>260</v>
+        <v>239</v>
+      </c>
+      <c r="N34" s="6" t="s">
+        <v>195</v>
       </c>
       <c r="O34" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="P34" s="7" t="s">
+      <c r="P34" s="66" t="s">
         <v>134</v>
       </c>
       <c r="Q34" s="7" t="s">
@@ -14295,11 +14300,8 @@
       <c r="U34" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="V34" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="W34" s="7" t="s">
-        <v>134</v>
+      <c r="W34" s="9" t="s">
+        <v>275</v>
       </c>
       <c r="X34" s="7" t="s">
         <v>134</v>
@@ -14334,13 +14336,13 @@
     </row>
     <row r="35" spans="1:33">
       <c r="A35" s="14" t="s">
-        <v>54</v>
+        <v>272</v>
       </c>
       <c r="B35" s="91" t="s">
-        <v>50</v>
-      </c>
-      <c r="C35" s="100" t="s">
-        <v>213</v>
+        <v>255</v>
+      </c>
+      <c r="C35" s="74" t="s">
+        <v>257</v>
       </c>
       <c r="D35" t="s">
         <v>131</v>
@@ -14349,16 +14351,16 @@
         <v>113</v>
       </c>
       <c r="F35" t="s">
-        <v>248</v>
+        <v>113</v>
       </c>
       <c r="G35" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H35" t="s">
-        <v>249</v>
+        <v>277</v>
       </c>
       <c r="I35" t="s">
-        <v>246</v>
+        <v>282</v>
       </c>
       <c r="J35" t="s">
         <v>136</v>
@@ -14369,14 +14371,16 @@
       <c r="L35" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="M35" s="63"/>
-      <c r="N35" s="6" t="s">
+      <c r="M35" s="76" t="s">
+        <v>239</v>
+      </c>
+      <c r="N35" s="84" t="s">
         <v>195</v>
       </c>
       <c r="O35" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="P35" s="7" t="s">
+      <c r="P35" s="66" t="s">
         <v>134</v>
       </c>
       <c r="Q35" s="7" t="s">
@@ -14394,11 +14398,8 @@
       <c r="U35" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="V35" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="W35" s="7" t="s">
-        <v>134</v>
+      <c r="W35" s="9" t="s">
+        <v>275</v>
       </c>
       <c r="X35" s="7" t="s">
         <v>134</v>
@@ -14406,7 +14407,7 @@
       <c r="Y35" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="Z35" s="7" t="s">
+      <c r="Z35" s="66" t="s">
         <v>134</v>
       </c>
       <c r="AA35" s="7" t="s">
@@ -14433,13 +14434,13 @@
     </row>
     <row r="36" spans="1:33">
       <c r="A36" s="14" t="s">
-        <v>287</v>
+        <v>233</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>211</v>
+        <v>27</v>
       </c>
       <c r="C36" s="74" t="s">
-        <v>212</v>
+        <v>28</v>
       </c>
       <c r="D36" t="s">
         <v>131</v>
@@ -14454,10 +14455,10 @@
         <v>238</v>
       </c>
       <c r="H36" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="I36" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J36" t="s">
         <v>136</v>
@@ -14468,11 +14469,11 @@
       <c r="L36" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="M36" s="90" t="s">
-        <v>300</v>
+      <c r="M36" s="76" t="s">
+        <v>258</v>
       </c>
       <c r="N36" s="77" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O36" s="7" t="s">
         <v>134</v>
@@ -14534,13 +14535,13 @@
     </row>
     <row r="37" spans="1:33">
       <c r="A37" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="B37" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="C37" s="99" t="s">
-        <v>49</v>
+        <v>54</v>
+      </c>
+      <c r="B37" s="91" t="s">
+        <v>50</v>
+      </c>
+      <c r="C37" s="100" t="s">
+        <v>213</v>
       </c>
       <c r="D37" t="s">
         <v>131</v>
@@ -14549,52 +14550,50 @@
         <v>113</v>
       </c>
       <c r="F37" t="s">
-        <v>113</v>
+        <v>248</v>
       </c>
       <c r="G37" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H37" t="s">
-        <v>325</v>
+        <v>249</v>
       </c>
       <c r="I37" t="s">
-        <v>303</v>
-      </c>
-      <c r="J37" s="85" t="s">
-        <v>51</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="M37" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="N37" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="O37" s="79" t="s">
-        <v>324</v>
+        <v>246</v>
+      </c>
+      <c r="J37" t="s">
+        <v>136</v>
+      </c>
+      <c r="K37" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="L37" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="M37" s="63"/>
+      <c r="N37" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="O37" s="7" t="s">
+        <v>134</v>
       </c>
       <c r="P37" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="Q37" s="81">
-        <v>34998713322</v>
-      </c>
-      <c r="R37" s="79" t="s">
-        <v>3</v>
-      </c>
-      <c r="S37" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="T37" s="85" t="s">
-        <v>4</v>
-      </c>
-      <c r="U37" s="85" t="s">
-        <v>5</v>
+      <c r="Q37" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="R37" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="S37" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="T37" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="U37" s="7" t="s">
+        <v>134</v>
       </c>
       <c r="V37" s="7" t="s">
         <v>134</v>
@@ -14635,18 +14634,18 @@
     </row>
     <row r="38" spans="1:33">
       <c r="A38" s="14" t="s">
-        <v>274</v>
-      </c>
-      <c r="B38" s="91" t="s">
-        <v>58</v>
+        <v>286</v>
+      </c>
+      <c r="B38" s="16" t="s">
+        <v>211</v>
       </c>
       <c r="C38" s="74" t="s">
-        <v>59</v>
+        <v>212</v>
       </c>
       <c r="D38" t="s">
         <v>131</v>
       </c>
-      <c r="E38" s="69" t="s">
+      <c r="E38" s="5" t="s">
         <v>113</v>
       </c>
       <c r="F38" t="s">
@@ -14656,10 +14655,10 @@
         <v>238</v>
       </c>
       <c r="H38" t="s">
-        <v>281</v>
+        <v>320</v>
       </c>
       <c r="I38" t="s">
-        <v>283</v>
+        <v>302</v>
       </c>
       <c r="J38" t="s">
         <v>136</v>
@@ -14670,12 +14669,12 @@
       <c r="L38" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="M38" s="76" t="s">
+      <c r="M38" s="90" t="s">
+        <v>299</v>
+      </c>
+      <c r="N38" s="77" t="s">
         <v>259</v>
       </c>
-      <c r="N38" s="77" t="s">
-        <v>260</v>
-      </c>
       <c r="O38" s="7" t="s">
         <v>134</v>
       </c>
@@ -14715,8 +14714,8 @@
       <c r="AA38" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="AB38" s="73" t="s">
-        <v>299</v>
+      <c r="AB38" s="7" t="s">
+        <v>134</v>
       </c>
       <c r="AC38" s="7" t="s">
         <v>134</v>
@@ -14736,13 +14735,13 @@
     </row>
     <row r="39" spans="1:33">
       <c r="A39" s="14" t="s">
-        <v>275</v>
-      </c>
-      <c r="B39" s="101" t="s">
-        <v>60</v>
-      </c>
-      <c r="C39" s="74" t="s">
-        <v>61</v>
+        <v>192</v>
+      </c>
+      <c r="B39" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="C39" s="99" t="s">
+        <v>49</v>
       </c>
       <c r="D39" t="s">
         <v>131</v>
@@ -14751,52 +14750,52 @@
         <v>113</v>
       </c>
       <c r="F39" t="s">
-        <v>296</v>
+        <v>113</v>
       </c>
       <c r="G39" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H39" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="I39" t="s">
-        <v>303</v>
-      </c>
-      <c r="J39" t="s">
-        <v>136</v>
-      </c>
-      <c r="K39" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="L39" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="M39" s="88" t="s">
-        <v>299</v>
-      </c>
-      <c r="N39" s="77" t="s">
-        <v>260</v>
-      </c>
-      <c r="O39" s="7" t="s">
-        <v>134</v>
+        <v>302</v>
+      </c>
+      <c r="J39" s="85" t="s">
+        <v>51</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="L39" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="M39" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="N39" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="O39" s="79" t="s">
+        <v>323</v>
       </c>
       <c r="P39" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="Q39" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="R39" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="S39" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="T39" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="U39" s="7" t="s">
-        <v>134</v>
+      <c r="Q39" s="81">
+        <v>34998713322</v>
+      </c>
+      <c r="R39" s="79" t="s">
+        <v>3</v>
+      </c>
+      <c r="S39" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="T39" s="85" t="s">
+        <v>4</v>
+      </c>
+      <c r="U39" s="85" t="s">
+        <v>5</v>
       </c>
       <c r="V39" s="7" t="s">
         <v>134</v>
@@ -14837,31 +14836,31 @@
     </row>
     <row r="40" spans="1:33">
       <c r="A40" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="B40" s="83" t="s">
-        <v>118</v>
-      </c>
-      <c r="C40" s="78" t="s">
-        <v>119</v>
+        <v>273</v>
+      </c>
+      <c r="B40" s="91" t="s">
+        <v>58</v>
+      </c>
+      <c r="C40" s="74" t="s">
+        <v>59</v>
       </c>
       <c r="D40" t="s">
         <v>131</v>
       </c>
-      <c r="E40" s="5" t="s">
+      <c r="E40" s="69" t="s">
         <v>113</v>
       </c>
       <c r="F40" t="s">
-        <v>286</v>
+        <v>113</v>
       </c>
       <c r="G40" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H40" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="I40" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="J40" t="s">
         <v>136</v>
@@ -14873,11 +14872,11 @@
         <v>132</v>
       </c>
       <c r="M40" s="76" t="s">
+        <v>258</v>
+      </c>
+      <c r="N40" s="77" t="s">
         <v>259</v>
       </c>
-      <c r="N40" s="77" t="s">
-        <v>260</v>
-      </c>
       <c r="O40" s="7" t="s">
         <v>134</v>
       </c>
@@ -14917,8 +14916,8 @@
       <c r="AA40" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="AB40" s="7" t="s">
-        <v>134</v>
+      <c r="AB40" s="73" t="s">
+        <v>298</v>
       </c>
       <c r="AC40" s="7" t="s">
         <v>134</v>
@@ -14938,13 +14937,13 @@
     </row>
     <row r="41" spans="1:33">
       <c r="A41" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="B41" s="103" t="s">
-        <v>91</v>
-      </c>
-      <c r="C41" s="94" t="s">
-        <v>143</v>
+        <v>274</v>
+      </c>
+      <c r="B41" s="101" t="s">
+        <v>60</v>
+      </c>
+      <c r="C41" s="74" t="s">
+        <v>61</v>
       </c>
       <c r="D41" t="s">
         <v>131</v>
@@ -14953,31 +14952,31 @@
         <v>113</v>
       </c>
       <c r="F41" t="s">
-        <v>113</v>
+        <v>295</v>
       </c>
       <c r="G41" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H41" t="s">
-        <v>245</v>
+        <v>321</v>
       </c>
       <c r="I41" t="s">
-        <v>246</v>
+        <v>302</v>
       </c>
       <c r="J41" t="s">
-        <v>51</v>
-      </c>
-      <c r="K41" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="L41" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="M41" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="N41" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
+      </c>
+      <c r="K41" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="L41" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="M41" s="88" t="s">
+        <v>298</v>
+      </c>
+      <c r="N41" s="77" t="s">
+        <v>259</v>
       </c>
       <c r="O41" s="7" t="s">
         <v>134</v>
@@ -15030,40 +15029,40 @@
       <c r="AE41" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="AF41" s="17" t="s">
-        <v>226</v>
-      </c>
-      <c r="AG41" t="s">
-        <v>236</v>
+      <c r="AF41" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="AG41" s="7" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="42" spans="1:33">
       <c r="A42" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="B42" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="C42" s="74" t="s">
-        <v>200</v>
+        <v>184</v>
+      </c>
+      <c r="B42" s="83" t="s">
+        <v>118</v>
+      </c>
+      <c r="C42" s="78" t="s">
+        <v>119</v>
       </c>
       <c r="D42" t="s">
         <v>131</v>
       </c>
-      <c r="E42" s="65" t="s">
-        <v>205</v>
+      <c r="E42" s="5" t="s">
+        <v>113</v>
       </c>
       <c r="F42" t="s">
-        <v>205</v>
+        <v>285</v>
       </c>
       <c r="G42" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H42" t="s">
-        <v>329</v>
+        <v>287</v>
       </c>
       <c r="I42" t="s">
-        <v>303</v>
+        <v>282</v>
       </c>
       <c r="J42" t="s">
         <v>136</v>
@@ -15074,11 +15073,11 @@
       <c r="L42" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="M42" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="N42" s="7" t="s">
-        <v>134</v>
+      <c r="M42" s="76" t="s">
+        <v>258</v>
+      </c>
+      <c r="N42" s="77" t="s">
+        <v>259</v>
       </c>
       <c r="O42" s="7" t="s">
         <v>134</v>
@@ -15086,18 +15085,20 @@
       <c r="P42" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="Q42" s="30"/>
-      <c r="R42" t="s">
-        <v>3</v>
-      </c>
-      <c r="S42" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="T42" t="s">
-        <v>198</v>
-      </c>
-      <c r="U42" t="s">
-        <v>5</v>
+      <c r="Q42" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="R42" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="S42" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="T42" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="U42" s="7" t="s">
+        <v>134</v>
       </c>
       <c r="V42" s="7" t="s">
         <v>134</v>
@@ -15138,40 +15139,40 @@
     </row>
     <row r="43" spans="1:33">
       <c r="A43" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="B43" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="C43" s="74" t="s">
-        <v>199</v>
+        <v>114</v>
+      </c>
+      <c r="B43" s="103" t="s">
+        <v>91</v>
+      </c>
+      <c r="C43" s="94" t="s">
+        <v>143</v>
       </c>
       <c r="D43" t="s">
         <v>131</v>
       </c>
-      <c r="E43" s="64" t="s">
-        <v>175</v>
+      <c r="E43" s="5" t="s">
+        <v>113</v>
       </c>
       <c r="F43" t="s">
-        <v>175</v>
+        <v>113</v>
       </c>
       <c r="G43" t="s">
         <v>238</v>
       </c>
       <c r="H43" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="I43" t="s">
-        <v>303</v>
+        <v>246</v>
       </c>
       <c r="J43" t="s">
-        <v>136</v>
-      </c>
-      <c r="K43" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="L43" s="22" t="s">
-        <v>132</v>
+        <v>51</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="L43" s="7" t="s">
+        <v>134</v>
       </c>
       <c r="M43" s="7" t="s">
         <v>134</v>
@@ -15185,18 +15186,20 @@
       <c r="P43" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="Q43" s="30"/>
-      <c r="R43" t="s">
-        <v>3</v>
-      </c>
-      <c r="S43" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="T43" t="s">
-        <v>4</v>
-      </c>
-      <c r="U43" t="s">
-        <v>5</v>
+      <c r="Q43" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="R43" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="S43" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="T43" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="U43" s="7" t="s">
+        <v>134</v>
       </c>
       <c r="V43" s="7" t="s">
         <v>134</v>
@@ -15228,40 +15231,40 @@
       <c r="AE43" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="AF43" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="AG43" s="7" t="s">
-        <v>134</v>
+      <c r="AF43" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="AG43" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="44" spans="1:33">
       <c r="A44" s="14" t="s">
-        <v>234</v>
+        <v>116</v>
       </c>
       <c r="B44" s="16" t="s">
-        <v>243</v>
+        <v>31</v>
       </c>
       <c r="C44" s="74" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D44" t="s">
         <v>131</v>
       </c>
-      <c r="E44" t="s">
-        <v>244</v>
+      <c r="E44" s="65" t="s">
+        <v>205</v>
       </c>
       <c r="F44" t="s">
-        <v>244</v>
+        <v>205</v>
       </c>
       <c r="G44" t="s">
         <v>238</v>
       </c>
       <c r="H44" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="I44" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J44" t="s">
         <v>136</v>
@@ -15286,13 +15289,13 @@
       </c>
       <c r="Q44" s="30"/>
       <c r="R44" t="s">
-        <v>202</v>
-      </c>
-      <c r="S44" s="77" t="s">
+        <v>3</v>
+      </c>
+      <c r="S44" s="9" t="s">
         <v>195</v>
       </c>
       <c r="T44" t="s">
-        <v>4</v>
+        <v>198</v>
       </c>
       <c r="U44" t="s">
         <v>5</v>
@@ -15336,31 +15339,31 @@
     </row>
     <row r="45" spans="1:33">
       <c r="A45" s="14" t="s">
-        <v>333</v>
-      </c>
-      <c r="B45" s="91" t="s">
-        <v>215</v>
-      </c>
-      <c r="C45" s="75" t="s">
-        <v>327</v>
+        <v>210</v>
+      </c>
+      <c r="B45" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C45" s="74" t="s">
+        <v>199</v>
       </c>
       <c r="D45" t="s">
         <v>131</v>
       </c>
-      <c r="E45" s="5" t="s">
-        <v>113</v>
+      <c r="E45" s="64" t="s">
+        <v>175</v>
       </c>
       <c r="F45" t="s">
-        <v>241</v>
+        <v>175</v>
       </c>
       <c r="G45" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H45" t="s">
-        <v>326</v>
+        <v>240</v>
       </c>
       <c r="I45" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J45" t="s">
         <v>136</v>
@@ -15371,11 +15374,11 @@
       <c r="L45" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="M45" s="90" t="s">
-        <v>300</v>
-      </c>
-      <c r="N45" s="77" t="s">
-        <v>260</v>
+      <c r="M45" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="N45" s="7" t="s">
+        <v>134</v>
       </c>
       <c r="O45" s="7" t="s">
         <v>134</v>
@@ -15388,7 +15391,7 @@
         <v>3</v>
       </c>
       <c r="S45" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="T45" t="s">
         <v>4</v>
@@ -15435,38 +15438,46 @@
     </row>
     <row r="46" spans="1:33">
       <c r="A46" s="14" t="s">
-        <v>334</v>
-      </c>
-      <c r="B46" s="91" t="s">
-        <v>214</v>
-      </c>
-      <c r="C46" s="75" t="s">
-        <v>328</v>
+        <v>234</v>
+      </c>
+      <c r="B46" s="16" t="s">
+        <v>243</v>
+      </c>
+      <c r="C46" s="74" t="s">
+        <v>201</v>
       </c>
       <c r="D46" t="s">
         <v>131</v>
       </c>
-      <c r="E46" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="F46"/>
-      <c r="G46"/>
-      <c r="H46"/>
-      <c r="I46"/>
+      <c r="E46" t="s">
+        <v>244</v>
+      </c>
+      <c r="F46" t="s">
+        <v>244</v>
+      </c>
+      <c r="G46" t="s">
+        <v>238</v>
+      </c>
+      <c r="H46" t="s">
+        <v>328</v>
+      </c>
+      <c r="I46" t="s">
+        <v>302</v>
+      </c>
       <c r="J46" t="s">
         <v>136</v>
       </c>
       <c r="K46" s="22" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L46" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="M46" s="76" t="s">
-        <v>259</v>
-      </c>
-      <c r="N46" s="77" t="s">
-        <v>260</v>
+      <c r="M46" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="N46" s="7" t="s">
+        <v>134</v>
       </c>
       <c r="O46" s="7" t="s">
         <v>134</v>
@@ -15476,10 +15487,10 @@
       </c>
       <c r="Q46" s="30"/>
       <c r="R46" t="s">
-        <v>3</v>
-      </c>
-      <c r="S46" s="5" t="s">
-        <v>123</v>
+        <v>202</v>
+      </c>
+      <c r="S46" s="77" t="s">
+        <v>195</v>
       </c>
       <c r="T46" t="s">
         <v>4</v>
@@ -15524,217 +15535,15 @@
         <v>134</v>
       </c>
     </row>
-    <row r="47" spans="1:33">
-      <c r="A47" s="107" t="s">
-        <v>335</v>
-      </c>
-      <c r="B47" s="105" t="s">
-        <v>416</v>
-      </c>
-      <c r="C47" s="105" t="s">
-        <v>379</v>
-      </c>
-      <c r="D47" t="s">
-        <v>131</v>
-      </c>
-      <c r="E47" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="F47" t="s">
-        <v>113</v>
-      </c>
-      <c r="G47" t="s">
-        <v>238</v>
-      </c>
-      <c r="H47" t="s">
-        <v>247</v>
-      </c>
-      <c r="I47" t="s">
-        <v>378</v>
-      </c>
-      <c r="J47" t="s">
-        <v>136</v>
-      </c>
-      <c r="K47" s="22" t="s">
-        <v>131</v>
-      </c>
-      <c r="L47" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="M47" s="88" t="s">
-        <v>299</v>
-      </c>
-      <c r="N47" s="77" t="s">
-        <v>260</v>
-      </c>
-      <c r="O47" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="P47" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q47" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="R47" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="S47" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="T47" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="U47" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="V47" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="W47" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="X47" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="Y47" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="Z47" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="AA47" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="AB47" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="AC47" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="AD47" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="AE47" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="AF47" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="AG47" s="7" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="48" spans="1:33">
-      <c r="A48" s="14" t="s">
-        <v>336</v>
-      </c>
-      <c r="B48" s="105" t="s">
-        <v>331</v>
-      </c>
-      <c r="C48" s="105" t="s">
-        <v>332</v>
-      </c>
-      <c r="D48" t="s">
-        <v>131</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="F48" t="s">
-        <v>297</v>
-      </c>
-      <c r="G48" t="s">
-        <v>237</v>
-      </c>
-      <c r="H48" t="s">
-        <v>302</v>
-      </c>
-      <c r="I48" t="s">
-        <v>298</v>
-      </c>
-      <c r="J48" t="s">
-        <v>136</v>
-      </c>
-      <c r="K48" s="22" t="s">
-        <v>131</v>
-      </c>
-      <c r="L48" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="M48" s="88" t="s">
-        <v>299</v>
-      </c>
-      <c r="N48" s="77" t="s">
-        <v>260</v>
-      </c>
-      <c r="O48" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="P48" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q48" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="R48" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="S48" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="T48" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="U48" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="V48" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="W48" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="X48" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="Y48" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="Z48" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="AA48" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="AB48" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="AC48" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="AD48" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="AE48" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="AF48" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="AG48" s="7" t="s">
-        <v>134</v>
-      </c>
-    </row>
     <row r="49" spans="1:33">
-      <c r="A49" s="14" t="s">
-        <v>337</v>
+      <c r="A49" s="107" t="s">
+        <v>333</v>
       </c>
       <c r="B49" s="105" t="s">
-        <v>350</v>
+        <v>414</v>
       </c>
       <c r="C49" s="105" t="s">
-        <v>351</v>
+        <v>377</v>
       </c>
       <c r="D49" t="s">
         <v>131</v>
@@ -15743,16 +15552,16 @@
         <v>113</v>
       </c>
       <c r="F49" t="s">
-        <v>297</v>
+        <v>113</v>
       </c>
       <c r="G49" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H49" t="s">
-        <v>384</v>
+        <v>247</v>
       </c>
       <c r="I49" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="J49" t="s">
         <v>136</v>
@@ -15764,10 +15573,10 @@
         <v>132</v>
       </c>
       <c r="M49" s="88" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="N49" s="77" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O49" s="7" t="s">
         <v>134</v>
@@ -15829,13 +15638,13 @@
     </row>
     <row r="50" spans="1:33">
       <c r="A50" s="14" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="B50" s="105" t="s">
-        <v>352</v>
+        <v>329</v>
       </c>
       <c r="C50" s="105" t="s">
-        <v>353</v>
+        <v>330</v>
       </c>
       <c r="D50" t="s">
         <v>131</v>
@@ -15844,16 +15653,16 @@
         <v>113</v>
       </c>
       <c r="F50" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G50" t="s">
         <v>237</v>
       </c>
       <c r="H50" t="s">
-        <v>386</v>
+        <v>301</v>
       </c>
       <c r="I50" t="s">
-        <v>387</v>
+        <v>297</v>
       </c>
       <c r="J50" t="s">
         <v>136</v>
@@ -15865,10 +15674,10 @@
         <v>132</v>
       </c>
       <c r="M50" s="88" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="N50" s="77" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O50" s="7" t="s">
         <v>134</v>
@@ -15930,13 +15739,13 @@
     </row>
     <row r="51" spans="1:33">
       <c r="A51" s="14" t="s">
-        <v>62</v>
+        <v>335</v>
       </c>
       <c r="B51" s="105" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="C51" s="105" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="D51" t="s">
         <v>131</v>
@@ -15945,16 +15754,16 @@
         <v>113</v>
       </c>
       <c r="F51" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G51" t="s">
         <v>237</v>
       </c>
       <c r="H51" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="I51" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="J51" t="s">
         <v>136</v>
@@ -15966,10 +15775,10 @@
         <v>132</v>
       </c>
       <c r="M51" s="88" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="N51" s="77" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O51" s="7" t="s">
         <v>134</v>
@@ -16031,13 +15840,13 @@
     </row>
     <row r="52" spans="1:33">
       <c r="A52" s="14" t="s">
-        <v>63</v>
+        <v>336</v>
       </c>
       <c r="B52" s="105" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="C52" s="105" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="D52" t="s">
         <v>131</v>
@@ -16046,16 +15855,16 @@
         <v>113</v>
       </c>
       <c r="F52" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G52" t="s">
         <v>237</v>
       </c>
       <c r="H52" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="I52" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="J52" t="s">
         <v>136</v>
@@ -16067,10 +15876,10 @@
         <v>132</v>
       </c>
       <c r="M52" s="88" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="N52" s="77" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O52" s="7" t="s">
         <v>134</v>
@@ -16132,13 +15941,13 @@
     </row>
     <row r="53" spans="1:33">
       <c r="A53" s="14" t="s">
-        <v>339</v>
+        <v>62</v>
       </c>
       <c r="B53" s="105" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="C53" s="105" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="D53" t="s">
         <v>131</v>
@@ -16147,16 +15956,16 @@
         <v>113</v>
       </c>
       <c r="F53" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G53" t="s">
         <v>237</v>
       </c>
       <c r="H53" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="I53" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="J53" t="s">
         <v>136</v>
@@ -16168,10 +15977,10 @@
         <v>132</v>
       </c>
       <c r="M53" s="88" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="N53" s="77" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O53" s="7" t="s">
         <v>134</v>
@@ -16233,13 +16042,13 @@
     </row>
     <row r="54" spans="1:33">
       <c r="A54" s="14" t="s">
-        <v>340</v>
+        <v>63</v>
       </c>
       <c r="B54" s="105" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="C54" s="105" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="D54" t="s">
         <v>131</v>
@@ -16248,16 +16057,16 @@
         <v>113</v>
       </c>
       <c r="F54" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G54" t="s">
         <v>237</v>
       </c>
       <c r="H54" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="I54" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="J54" t="s">
         <v>136</v>
@@ -16269,10 +16078,10 @@
         <v>132</v>
       </c>
       <c r="M54" s="88" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="N54" s="77" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O54" s="7" t="s">
         <v>134</v>
@@ -16333,14 +16142,14 @@
       </c>
     </row>
     <row r="55" spans="1:33">
-      <c r="A55" s="107" t="s">
-        <v>341</v>
-      </c>
-      <c r="B55" s="106" t="s">
-        <v>417</v>
-      </c>
-      <c r="C55" s="106" t="s">
-        <v>379</v>
+      <c r="A55" s="14" t="s">
+        <v>337</v>
+      </c>
+      <c r="B55" s="105" t="s">
+        <v>355</v>
+      </c>
+      <c r="C55" s="105" t="s">
+        <v>356</v>
       </c>
       <c r="D55" t="s">
         <v>131</v>
@@ -16349,16 +16158,16 @@
         <v>113</v>
       </c>
       <c r="F55" t="s">
-        <v>113</v>
+        <v>296</v>
       </c>
       <c r="G55" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H55" t="s">
-        <v>277</v>
+        <v>390</v>
       </c>
       <c r="I55" t="s">
-        <v>378</v>
+        <v>391</v>
       </c>
       <c r="J55" t="s">
         <v>136</v>
@@ -16370,10 +16179,10 @@
         <v>132</v>
       </c>
       <c r="M55" s="88" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="N55" s="77" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O55" s="7" t="s">
         <v>134</v>
@@ -16435,13 +16244,13 @@
     </row>
     <row r="56" spans="1:33">
       <c r="A56" s="14" t="s">
-        <v>342</v>
-      </c>
-      <c r="B56" s="106" t="s">
-        <v>361</v>
-      </c>
-      <c r="C56" s="106" t="s">
-        <v>362</v>
+        <v>338</v>
+      </c>
+      <c r="B56" s="105" t="s">
+        <v>357</v>
+      </c>
+      <c r="C56" s="105" t="s">
+        <v>358</v>
       </c>
       <c r="D56" t="s">
         <v>131</v>
@@ -16450,16 +16259,16 @@
         <v>113</v>
       </c>
       <c r="F56" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G56" t="s">
         <v>237</v>
       </c>
       <c r="H56" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="I56" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="J56" t="s">
         <v>136</v>
@@ -16471,10 +16280,10 @@
         <v>132</v>
       </c>
       <c r="M56" s="88" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="N56" s="77" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O56" s="7" t="s">
         <v>134</v>
@@ -16535,14 +16344,14 @@
       </c>
     </row>
     <row r="57" spans="1:33">
-      <c r="A57" s="14" t="s">
-        <v>343</v>
+      <c r="A57" s="107" t="s">
+        <v>339</v>
       </c>
       <c r="B57" s="106" t="s">
-        <v>363</v>
+        <v>415</v>
       </c>
       <c r="C57" s="106" t="s">
-        <v>362</v>
+        <v>377</v>
       </c>
       <c r="D57" t="s">
         <v>131</v>
@@ -16551,16 +16360,16 @@
         <v>113</v>
       </c>
       <c r="F57" t="s">
-        <v>297</v>
+        <v>113</v>
       </c>
       <c r="G57" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H57" t="s">
-        <v>398</v>
+        <v>276</v>
       </c>
       <c r="I57" t="s">
-        <v>399</v>
+        <v>376</v>
       </c>
       <c r="J57" t="s">
         <v>136</v>
@@ -16572,10 +16381,10 @@
         <v>132</v>
       </c>
       <c r="M57" s="88" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="N57" s="77" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O57" s="7" t="s">
         <v>134</v>
@@ -16636,14 +16445,14 @@
       </c>
     </row>
     <row r="58" spans="1:33">
-      <c r="A58" s="108" t="s">
-        <v>344</v>
+      <c r="A58" s="14" t="s">
+        <v>340</v>
       </c>
       <c r="B58" s="106" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="C58" s="106" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D58" t="s">
         <v>131</v>
@@ -16652,16 +16461,16 @@
         <v>113</v>
       </c>
       <c r="F58" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G58" t="s">
         <v>237</v>
       </c>
       <c r="H58" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="I58" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="J58" t="s">
         <v>136</v>
@@ -16673,10 +16482,10 @@
         <v>132</v>
       </c>
       <c r="M58" s="88" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="N58" s="77" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O58" s="7" t="s">
         <v>134</v>
@@ -16738,13 +16547,13 @@
     </row>
     <row r="59" spans="1:33">
       <c r="A59" s="14" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B59" s="106" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="C59" s="106" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D59" t="s">
         <v>131</v>
@@ -16753,16 +16562,16 @@
         <v>113</v>
       </c>
       <c r="F59" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G59" t="s">
         <v>237</v>
       </c>
       <c r="H59" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="I59" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="J59" t="s">
         <v>136</v>
@@ -16774,10 +16583,10 @@
         <v>132</v>
       </c>
       <c r="M59" s="88" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="N59" s="77" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O59" s="7" t="s">
         <v>134</v>
@@ -16838,14 +16647,14 @@
       </c>
     </row>
     <row r="60" spans="1:33">
-      <c r="A60" s="14" t="s">
-        <v>346</v>
+      <c r="A60" s="108" t="s">
+        <v>342</v>
       </c>
       <c r="B60" s="106" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="C60" s="106" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D60" t="s">
         <v>131</v>
@@ -16854,16 +16663,16 @@
         <v>113</v>
       </c>
       <c r="F60" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G60" t="s">
         <v>237</v>
       </c>
       <c r="H60" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="I60" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="J60" t="s">
         <v>136</v>
@@ -16875,10 +16684,10 @@
         <v>132</v>
       </c>
       <c r="M60" s="88" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="N60" s="77" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O60" s="7" t="s">
         <v>134</v>
@@ -16940,13 +16749,13 @@
     </row>
     <row r="61" spans="1:33">
       <c r="A61" s="14" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B61" s="106" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="C61" s="106" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D61" t="s">
         <v>131</v>
@@ -16955,16 +16764,16 @@
         <v>113</v>
       </c>
       <c r="F61" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G61" t="s">
         <v>237</v>
       </c>
       <c r="H61" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="I61" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="J61" t="s">
         <v>136</v>
@@ -16976,10 +16785,10 @@
         <v>132</v>
       </c>
       <c r="M61" s="88" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="N61" s="77" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O61" s="7" t="s">
         <v>134</v>
@@ -17040,14 +16849,14 @@
       </c>
     </row>
     <row r="62" spans="1:33">
-      <c r="A62" s="107" t="s">
-        <v>348</v>
-      </c>
-      <c r="B62" s="105" t="s">
-        <v>418</v>
-      </c>
-      <c r="C62" s="105" t="s">
-        <v>380</v>
+      <c r="A62" s="14" t="s">
+        <v>344</v>
+      </c>
+      <c r="B62" s="106" t="s">
+        <v>364</v>
+      </c>
+      <c r="C62" s="106" t="s">
+        <v>360</v>
       </c>
       <c r="D62" t="s">
         <v>131</v>
@@ -17056,16 +16865,16 @@
         <v>113</v>
       </c>
       <c r="F62" t="s">
-        <v>113</v>
+        <v>296</v>
       </c>
       <c r="G62" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H62" t="s">
-        <v>419</v>
+        <v>402</v>
       </c>
       <c r="I62" t="s">
-        <v>378</v>
+        <v>403</v>
       </c>
       <c r="J62" t="s">
         <v>136</v>
@@ -17077,10 +16886,10 @@
         <v>132</v>
       </c>
       <c r="M62" s="88" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="N62" s="77" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O62" s="7" t="s">
         <v>134</v>
@@ -17142,13 +16951,13 @@
     </row>
     <row r="63" spans="1:33">
       <c r="A63" s="14" t="s">
-        <v>349</v>
-      </c>
-      <c r="B63" s="105" t="s">
-        <v>368</v>
-      </c>
-      <c r="C63" s="105" t="s">
-        <v>362</v>
+        <v>345</v>
+      </c>
+      <c r="B63" s="106" t="s">
+        <v>365</v>
+      </c>
+      <c r="C63" s="106" t="s">
+        <v>360</v>
       </c>
       <c r="D63" t="s">
         <v>131</v>
@@ -17157,16 +16966,16 @@
         <v>113</v>
       </c>
       <c r="F63" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G63" t="s">
         <v>237</v>
       </c>
       <c r="H63" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="I63" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="J63" t="s">
         <v>136</v>
@@ -17178,10 +16987,10 @@
         <v>132</v>
       </c>
       <c r="M63" s="88" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="N63" s="77" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O63" s="7" t="s">
         <v>134</v>
@@ -17242,14 +17051,14 @@
       </c>
     </row>
     <row r="64" spans="1:33">
-      <c r="A64" s="14" t="s">
-        <v>381</v>
+      <c r="A64" s="107" t="s">
+        <v>346</v>
       </c>
       <c r="B64" s="105" t="s">
-        <v>369</v>
+        <v>416</v>
       </c>
       <c r="C64" s="105" t="s">
-        <v>362</v>
+        <v>378</v>
       </c>
       <c r="D64" t="s">
         <v>131</v>
@@ -17258,16 +17067,16 @@
         <v>113</v>
       </c>
       <c r="F64" t="s">
-        <v>297</v>
+        <v>113</v>
       </c>
       <c r="G64" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H64" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="I64" t="s">
-        <v>411</v>
+        <v>376</v>
       </c>
       <c r="J64" t="s">
         <v>136</v>
@@ -17279,10 +17088,10 @@
         <v>132</v>
       </c>
       <c r="M64" s="88" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="N64" s="77" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O64" s="7" t="s">
         <v>134</v>
@@ -17344,13 +17153,13 @@
     </row>
     <row r="65" spans="1:35">
       <c r="A65" s="14" t="s">
-        <v>382</v>
+        <v>347</v>
       </c>
       <c r="B65" s="105" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="C65" s="105" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D65" t="s">
         <v>131</v>
@@ -17359,16 +17168,16 @@
         <v>113</v>
       </c>
       <c r="F65" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G65" t="s">
         <v>237</v>
       </c>
       <c r="H65" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="I65" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="J65" t="s">
         <v>136</v>
@@ -17380,10 +17189,10 @@
         <v>132</v>
       </c>
       <c r="M65" s="88" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="N65" s="77" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O65" s="7" t="s">
         <v>134</v>
@@ -17445,13 +17254,13 @@
     </row>
     <row r="66" spans="1:35">
       <c r="A66" s="14" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="B66" s="105" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="C66" s="105" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D66" t="s">
         <v>131</v>
@@ -17460,16 +17269,16 @@
         <v>113</v>
       </c>
       <c r="F66" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G66" t="s">
         <v>237</v>
       </c>
       <c r="H66" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="I66" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="J66" t="s">
         <v>136</v>
@@ -17481,10 +17290,10 @@
         <v>132</v>
       </c>
       <c r="M66" s="88" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="N66" s="77" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O66" s="7" t="s">
         <v>134</v>
@@ -17545,79 +17354,281 @@
       </c>
     </row>
     <row r="67" spans="1:35">
-      <c r="A67" s="102"/>
-      <c r="B67" s="102"/>
-      <c r="D67"/>
-      <c r="E67" s="5"/>
-      <c r="F67"/>
-      <c r="G67"/>
-      <c r="H67"/>
-      <c r="I67"/>
-      <c r="J67"/>
-      <c r="K67" s="22"/>
-      <c r="L67" s="22"/>
-      <c r="M67" s="88"/>
-      <c r="N67" s="6"/>
-      <c r="O67" s="7"/>
-      <c r="P67" s="7"/>
-      <c r="Q67" s="7"/>
-      <c r="R67" s="7"/>
-      <c r="S67" s="7"/>
-      <c r="T67" s="7"/>
-      <c r="U67" s="7"/>
-      <c r="V67" s="7"/>
-      <c r="W67" s="7"/>
-      <c r="X67" s="7"/>
-      <c r="Y67" s="7"/>
-      <c r="Z67" s="7"/>
-      <c r="AA67" s="7"/>
-      <c r="AB67" s="7"/>
-      <c r="AC67" s="7"/>
-      <c r="AD67" s="7"/>
-      <c r="AE67" s="7"/>
-      <c r="AF67" s="7"/>
-      <c r="AG67" s="7"/>
+      <c r="A67" s="14" t="s">
+        <v>380</v>
+      </c>
+      <c r="B67" s="105" t="s">
+        <v>368</v>
+      </c>
+      <c r="C67" s="105" t="s">
+        <v>360</v>
+      </c>
+      <c r="D67" t="s">
+        <v>131</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="F67" t="s">
+        <v>296</v>
+      </c>
+      <c r="G67" t="s">
+        <v>237</v>
+      </c>
+      <c r="H67" t="s">
+        <v>410</v>
+      </c>
+      <c r="I67" t="s">
+        <v>411</v>
+      </c>
+      <c r="J67" t="s">
+        <v>136</v>
+      </c>
+      <c r="K67" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="L67" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="M67" s="88" t="s">
+        <v>298</v>
+      </c>
+      <c r="N67" s="77" t="s">
+        <v>259</v>
+      </c>
+      <c r="O67" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="P67" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q67" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="R67" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="S67" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="T67" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="U67" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="V67" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="W67" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="X67" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y67" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z67" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA67" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB67" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="AC67" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="AD67" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="AE67" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="AF67" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="AG67" s="7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="68" spans="1:35">
+      <c r="A68" s="14" t="s">
+        <v>381</v>
+      </c>
+      <c r="B68" s="105" t="s">
+        <v>369</v>
+      </c>
+      <c r="C68" s="105" t="s">
+        <v>360</v>
+      </c>
+      <c r="D68" t="s">
+        <v>131</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="F68" t="s">
+        <v>296</v>
+      </c>
+      <c r="G68" t="s">
+        <v>237</v>
+      </c>
+      <c r="H68" t="s">
+        <v>412</v>
+      </c>
+      <c r="I68" t="s">
+        <v>413</v>
+      </c>
+      <c r="J68" t="s">
+        <v>136</v>
+      </c>
+      <c r="K68" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="L68" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="M68" s="88" t="s">
+        <v>298</v>
+      </c>
+      <c r="N68" s="77" t="s">
+        <v>259</v>
+      </c>
+      <c r="O68" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="P68" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q68" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="R68" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="S68" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="T68" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="U68" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="V68" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="W68" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="X68" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y68" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z68" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA68" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB68" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="AC68" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="AD68" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="AE68" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="AF68" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="AG68" s="7" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="69" spans="1:35">
-      <c r="B69" s="98" t="s">
-        <v>191</v>
-      </c>
-      <c r="C69" s="75"/>
-      <c r="AI69" s="40"/>
-    </row>
-    <row r="70" spans="1:35">
-      <c r="B70" s="9" t="s">
-        <v>250</v>
-      </c>
-      <c r="C70" s="73" t="s">
-        <v>251</v>
-      </c>
+      <c r="A69" s="102"/>
+      <c r="B69" s="102"/>
+      <c r="D69"/>
+      <c r="E69" s="5"/>
+      <c r="F69"/>
+      <c r="G69"/>
+      <c r="H69"/>
+      <c r="I69"/>
+      <c r="J69"/>
+      <c r="K69" s="22"/>
+      <c r="L69" s="22"/>
+      <c r="M69" s="88"/>
+      <c r="N69" s="6"/>
+      <c r="O69" s="7"/>
+      <c r="P69" s="7"/>
+      <c r="Q69" s="7"/>
+      <c r="R69" s="7"/>
+      <c r="S69" s="7"/>
+      <c r="T69" s="7"/>
+      <c r="U69" s="7"/>
+      <c r="V69" s="7"/>
+      <c r="W69" s="7"/>
+      <c r="X69" s="7"/>
+      <c r="Y69" s="7"/>
+      <c r="Z69" s="7"/>
+      <c r="AA69" s="7"/>
+      <c r="AB69" s="7"/>
+      <c r="AC69" s="7"/>
+      <c r="AD69" s="7"/>
+      <c r="AE69" s="7"/>
+      <c r="AF69" s="7"/>
+      <c r="AG69" s="7"/>
     </row>
     <row r="71" spans="1:35">
-      <c r="B71" s="73" t="s">
-        <v>299</v>
-      </c>
-      <c r="C71" s="29" t="s">
-        <v>260</v>
-      </c>
+      <c r="B71" s="98" t="s">
+        <v>191</v>
+      </c>
+      <c r="C71" s="75"/>
+      <c r="AI71" s="40"/>
     </row>
     <row r="72" spans="1:35">
-      <c r="B72" s="87" t="s">
-        <v>300</v>
-      </c>
-      <c r="C72" s="29" t="s">
-        <v>260</v>
+      <c r="B72" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="C72" s="73" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="73" spans="1:35">
+      <c r="B73" s="73" t="s">
+        <v>298</v>
+      </c>
+      <c r="C73" s="29" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="74" spans="1:35">
-      <c r="B74" s="63"/>
+      <c r="B74" s="87" t="s">
+        <v>299</v>
+      </c>
+      <c r="C74" s="29" t="s">
+        <v>259</v>
+      </c>
     </row>
-    <row r="82" spans="2:2" ht="18">
-      <c r="B82" s="71"/>
+    <row r="76" spans="1:35">
+      <c r="B76" s="63"/>
+    </row>
+    <row r="84" spans="2:2" ht="18">
+      <c r="B84" s="71"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AG48"/>
-  <conditionalFormatting sqref="I9 F11:H11 F6:H7 F45:H45 F43:H43 G42:I42 F26:H27 G9:H16 F36:I41 F30:I34 F13:H24">
+  <autoFilter ref="A1:AG50"/>
+  <conditionalFormatting sqref="I9 F11:H11 F6:H7 F45:H45 G44:I44 F28:H29 G9:H16 F38:I43 F32:I36 F13:H19 F21:H26">
     <cfRule type="containsText" dxfId="920" priority="2314" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",F6)))</formula>
     </cfRule>
@@ -17625,12 +17636,12 @@
       <formula>NOT(ISERROR(SEARCH("Failed",F6)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I34">
+  <conditionalFormatting sqref="I36">
     <cfRule type="containsText" dxfId="918" priority="2306" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",I34)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Passed",I36)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="917" priority="2307" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",I34)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Failed",I36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
@@ -17689,20 +17700,20 @@
       <formula>NOT(ISERROR(SEARCH("Failed",I15)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I36">
+  <conditionalFormatting sqref="I38">
     <cfRule type="containsText" dxfId="902" priority="2258" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",I36)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Passed",I38)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="901" priority="2259" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",I36)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I18">
+      <formula>NOT(ISERROR(SEARCH("Failed",I38)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I19">
     <cfRule type="containsText" dxfId="900" priority="2254" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",I18)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Passed",I19)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="899" priority="2255" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",I18)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Failed",I19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I17">
@@ -17713,68 +17724,68 @@
       <formula>NOT(ISERROR(SEARCH("Failed",I17)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I20">
+  <conditionalFormatting sqref="I22">
     <cfRule type="containsText" dxfId="896" priority="2246" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",I20)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Passed",I22)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="895" priority="2247" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",I20)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I21">
+      <formula>NOT(ISERROR(SEARCH("Failed",I22)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I23">
     <cfRule type="containsText" dxfId="894" priority="2240" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",I21)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Passed",I23)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="893" priority="2241" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",I21)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I22">
+      <formula>NOT(ISERROR(SEARCH("Failed",I23)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I24">
     <cfRule type="containsText" dxfId="892" priority="2236" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",I22)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Passed",I24)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="891" priority="2237" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",I22)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I23">
+      <formula>NOT(ISERROR(SEARCH("Failed",I24)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I25">
     <cfRule type="containsText" dxfId="890" priority="2232" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",I23)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Passed",I25)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="889" priority="2233" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",I23)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I37">
+      <formula>NOT(ISERROR(SEARCH("Failed",I25)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I39">
     <cfRule type="containsText" dxfId="888" priority="2228" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",I37)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Passed",I39)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="887" priority="2229" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",I37)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I38">
+      <formula>NOT(ISERROR(SEARCH("Failed",I39)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I40">
     <cfRule type="containsText" dxfId="886" priority="2220" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",I38)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Passed",I40)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="885" priority="2221" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",I38)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Failed",I40)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I43">
+    <cfRule type="containsText" dxfId="884" priority="2212" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",I43)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="883" priority="2213" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",I43)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I41">
-    <cfRule type="containsText" dxfId="884" priority="2212" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="882" priority="2208" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",I41)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="883" priority="2213" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="881" priority="2209" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",I41)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I39">
-    <cfRule type="containsText" dxfId="882" priority="2208" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",I39)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="881" priority="2209" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",I39)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I16">
@@ -17785,79 +17796,79 @@
       <formula>NOT(ISERROR(SEARCH("Failed",I16)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I19">
+  <conditionalFormatting sqref="I21">
     <cfRule type="containsText" dxfId="878" priority="2200" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",I19)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Passed",I21)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="877" priority="2201" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",I19)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I24">
+      <formula>NOT(ISERROR(SEARCH("Failed",I21)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I26">
     <cfRule type="containsText" dxfId="876" priority="2196" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",I24)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Passed",I26)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="875" priority="2197" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",I24)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I27">
+      <formula>NOT(ISERROR(SEARCH("Failed",I26)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I29">
     <cfRule type="containsText" dxfId="874" priority="2192" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",I27)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Passed",I29)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="873" priority="2193" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",I27)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I26">
+      <formula>NOT(ISERROR(SEARCH("Failed",I29)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I28">
     <cfRule type="containsText" dxfId="872" priority="2188" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",I26)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Passed",I28)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="871" priority="2189" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",I26)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I30:I31">
+      <formula>NOT(ISERROR(SEARCH("Failed",I28)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I32:I33">
     <cfRule type="containsText" dxfId="870" priority="2184" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",I30)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Passed",I32)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="869" priority="2185" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",I30)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I32:I33">
+      <formula>NOT(ISERROR(SEARCH("Failed",I32)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I34:I35">
     <cfRule type="containsText" dxfId="868" priority="2180" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",I32)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Passed",I34)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="867" priority="2181" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",I32)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I40">
+      <formula>NOT(ISERROR(SEARCH("Failed",I34)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I42">
     <cfRule type="containsText" dxfId="866" priority="2176" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",I40)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Passed",I42)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="865" priority="2177" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",I40)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Failed",I42)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I18">
+    <cfRule type="containsText" dxfId="864" priority="2168" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",I18)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="863" priority="2169" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",I18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I45">
-    <cfRule type="containsText" dxfId="864" priority="2168" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="862" priority="2140" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",I45)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="863" priority="2169" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="861" priority="2141" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",I45)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I43">
-    <cfRule type="containsText" dxfId="862" priority="2140" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",I43)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="861" priority="2141" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",I43)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K9:L16 K6:L7 K38:L39 K43:L43 L26:L27 L36 L30:L34 D20:D30 L17:L24 K17:K19">
+  <conditionalFormatting sqref="K6:L7 K40:L41 K45:L45 L28:L29 L38 L32:L36 K9:L17 K19:L19 D22:D46 D20 D18 L21:L26 K21">
     <cfRule type="containsText" dxfId="860" priority="2132" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D6)))</formula>
     </cfRule>
@@ -17865,36 +17876,36 @@
       <formula>NOT(ISERROR(SEARCH("Não",D6)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L45">
+  <conditionalFormatting sqref="L18">
     <cfRule type="containsText" dxfId="858" priority="2116" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",L45)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Sim",L18)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="857" priority="2117" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",L45)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K26:K27">
+      <formula>NOT(ISERROR(SEARCH("Não",L18)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K28:K29">
     <cfRule type="containsText" dxfId="856" priority="2028" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",K26)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Sim",K28)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="855" priority="2029" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",K26)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K45">
+      <formula>NOT(ISERROR(SEARCH("Não",K28)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K18">
     <cfRule type="containsText" dxfId="854" priority="2026" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",K45)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Sim",K18)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="853" priority="2027" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",K45)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J9:J10 J6:J7 J26:J27 J36 J30:J34 J12:J24">
+      <formula>NOT(ISERROR(SEARCH("Não",K18)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J9:J10 J6:J7 J28:J29 J38 J32:J36 J12:J17 J19 J21:J26">
     <cfRule type="containsText" dxfId="852" priority="2019" operator="containsText" text="Android">
       <formula>NOT(ISERROR(SEARCH("Android",J6)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J9:J10 J6:J7 J26:J27 J36 J30:J34 J12:J24">
+  <conditionalFormatting sqref="J9:J10 J6:J7 J28:J29 J38 J32:J36 J12:J17 J19 J21:J26">
     <cfRule type="containsText" dxfId="851" priority="2017" operator="containsText" text="Web">
       <formula>NOT(ISERROR(SEARCH("Web",J6)))</formula>
     </cfRule>
@@ -17902,82 +17913,82 @@
       <formula>NOT(ISERROR(SEARCH("iOS",J6)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J38">
+  <conditionalFormatting sqref="J40">
     <cfRule type="containsText" dxfId="849" priority="2010" operator="containsText" text="Android">
-      <formula>NOT(ISERROR(SEARCH("Android",J38)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J38">
+      <formula>NOT(ISERROR(SEARCH("Android",J40)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J40">
     <cfRule type="containsText" dxfId="848" priority="2008" operator="containsText" text="Web">
-      <formula>NOT(ISERROR(SEARCH("Web",J38)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Web",J40)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="847" priority="2009" operator="containsText" text="iOS">
-      <formula>NOT(ISERROR(SEARCH("iOS",J38)))</formula>
+      <formula>NOT(ISERROR(SEARCH("iOS",J40)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J41">
+    <cfRule type="containsText" dxfId="846" priority="2007" operator="containsText" text="Android">
+      <formula>NOT(ISERROR(SEARCH("Android",J41)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J41">
+    <cfRule type="containsText" dxfId="845" priority="2005" operator="containsText" text="Web">
+      <formula>NOT(ISERROR(SEARCH("Web",J41)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="844" priority="2006" operator="containsText" text="iOS">
+      <formula>NOT(ISERROR(SEARCH("iOS",J41)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J18">
+    <cfRule type="containsText" dxfId="843" priority="1995" operator="containsText" text="Android">
+      <formula>NOT(ISERROR(SEARCH("Android",J18)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J18">
+    <cfRule type="containsText" dxfId="842" priority="1993" operator="containsText" text="Web">
+      <formula>NOT(ISERROR(SEARCH("Web",J18)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="841" priority="1994" operator="containsText" text="iOS">
+      <formula>NOT(ISERROR(SEARCH("iOS",J18)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J45">
+    <cfRule type="containsText" dxfId="840" priority="1992" operator="containsText" text="Android">
+      <formula>NOT(ISERROR(SEARCH("Android",J45)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J45">
+    <cfRule type="containsText" dxfId="839" priority="1990" operator="containsText" text="Web">
+      <formula>NOT(ISERROR(SEARCH("Web",J45)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="838" priority="1991" operator="containsText" text="iOS">
+      <formula>NOT(ISERROR(SEARCH("iOS",J45)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J39">
-    <cfRule type="containsText" dxfId="846" priority="2007" operator="containsText" text="Android">
+    <cfRule type="containsText" dxfId="837" priority="1989" operator="containsText" text="Android">
       <formula>NOT(ISERROR(SEARCH("Android",J39)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J39">
-    <cfRule type="containsText" dxfId="845" priority="2005" operator="containsText" text="Web">
+    <cfRule type="containsText" dxfId="836" priority="1987" operator="containsText" text="Web">
       <formula>NOT(ISERROR(SEARCH("Web",J39)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="844" priority="2006" operator="containsText" text="iOS">
+    <cfRule type="containsText" dxfId="835" priority="1988" operator="containsText" text="iOS">
       <formula>NOT(ISERROR(SEARCH("iOS",J39)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J45">
-    <cfRule type="containsText" dxfId="843" priority="1995" operator="containsText" text="Android">
-      <formula>NOT(ISERROR(SEARCH("Android",J45)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J45">
-    <cfRule type="containsText" dxfId="842" priority="1993" operator="containsText" text="Web">
-      <formula>NOT(ISERROR(SEARCH("Web",J45)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="841" priority="1994" operator="containsText" text="iOS">
-      <formula>NOT(ISERROR(SEARCH("iOS",J45)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="J43">
-    <cfRule type="containsText" dxfId="840" priority="1992" operator="containsText" text="Android">
+    <cfRule type="containsText" dxfId="834" priority="1983" operator="containsText" text="Android">
       <formula>NOT(ISERROR(SEARCH("Android",J43)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J43">
-    <cfRule type="containsText" dxfId="839" priority="1990" operator="containsText" text="Web">
+    <cfRule type="containsText" dxfId="833" priority="1981" operator="containsText" text="Web">
       <formula>NOT(ISERROR(SEARCH("Web",J43)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="838" priority="1991" operator="containsText" text="iOS">
+    <cfRule type="containsText" dxfId="832" priority="1982" operator="containsText" text="iOS">
       <formula>NOT(ISERROR(SEARCH("iOS",J43)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J37">
-    <cfRule type="containsText" dxfId="837" priority="1989" operator="containsText" text="Android">
-      <formula>NOT(ISERROR(SEARCH("Android",J37)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J37">
-    <cfRule type="containsText" dxfId="836" priority="1987" operator="containsText" text="Web">
-      <formula>NOT(ISERROR(SEARCH("Web",J37)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="835" priority="1988" operator="containsText" text="iOS">
-      <formula>NOT(ISERROR(SEARCH("iOS",J37)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J41">
-    <cfRule type="containsText" dxfId="834" priority="1983" operator="containsText" text="Android">
-      <formula>NOT(ISERROR(SEARCH("Android",J41)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J41">
-    <cfRule type="containsText" dxfId="833" priority="1981" operator="containsText" text="Web">
-      <formula>NOT(ISERROR(SEARCH("Web",J41)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="832" priority="1982" operator="containsText" text="iOS">
-      <formula>NOT(ISERROR(SEARCH("iOS",J41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13">
@@ -17996,102 +18007,102 @@
       <formula>NOT(ISERROR(SEARCH("Failed",I14)))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="K34:K35">
+    <cfRule type="containsText" dxfId="827" priority="1971" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",K34)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="826" priority="1972" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",K34)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="K32:K33">
-    <cfRule type="containsText" dxfId="827" priority="1971" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="825" priority="1969" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",K32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="826" priority="1972" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="824" priority="1970" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",K32)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K30:K31">
-    <cfRule type="containsText" dxfId="825" priority="1969" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",K30)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="824" priority="1970" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",K30)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J40">
+  <conditionalFormatting sqref="J42">
     <cfRule type="containsText" dxfId="823" priority="1968" operator="containsText" text="Android">
-      <formula>NOT(ISERROR(SEARCH("Android",J40)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J40">
+      <formula>NOT(ISERROR(SEARCH("Android",J42)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J42">
     <cfRule type="containsText" dxfId="822" priority="1966" operator="containsText" text="Web">
-      <formula>NOT(ISERROR(SEARCH("Web",J40)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Web",J42)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="821" priority="1967" operator="containsText" text="iOS">
-      <formula>NOT(ISERROR(SEARCH("iOS",J40)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L40">
+      <formula>NOT(ISERROR(SEARCH("iOS",J42)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L42">
     <cfRule type="containsText" dxfId="820" priority="1962" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",L40)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Sim",L42)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="819" priority="1963" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",L40)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K40">
+      <formula>NOT(ISERROR(SEARCH("Não",L42)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K42">
     <cfRule type="containsText" dxfId="818" priority="1872" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",K40)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Sim",K42)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="817" priority="1873" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",K40)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H42">
+      <formula>NOT(ISERROR(SEARCH("Não",K42)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H44">
     <cfRule type="containsText" dxfId="816" priority="1868" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",H42)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Passed",H44)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="815" priority="1869" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",H42)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I42">
+      <formula>NOT(ISERROR(SEARCH("Failed",H44)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I44">
     <cfRule type="containsText" dxfId="814" priority="1866" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",I42)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Passed",I44)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="813" priority="1867" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",I42)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L42">
+      <formula>NOT(ISERROR(SEARCH("Failed",I44)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L44">
     <cfRule type="containsText" dxfId="812" priority="1864" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",L42)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Sim",L44)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="811" priority="1865" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",L42)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K42">
+      <formula>NOT(ISERROR(SEARCH("Não",L44)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K44">
     <cfRule type="containsText" dxfId="810" priority="1862" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",K42)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Sim",K44)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="809" priority="1863" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",K42)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J42">
+      <formula>NOT(ISERROR(SEARCH("Não",K44)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J44">
     <cfRule type="containsText" dxfId="808" priority="1861" operator="containsText" text="Android">
-      <formula>NOT(ISERROR(SEARCH("Android",J42)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J42">
+      <formula>NOT(ISERROR(SEARCH("Android",J44)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J44">
     <cfRule type="containsText" dxfId="807" priority="1859" operator="containsText" text="Web">
-      <formula>NOT(ISERROR(SEARCH("Web",J42)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Web",J44)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="806" priority="1860" operator="containsText" text="iOS">
-      <formula>NOT(ISERROR(SEARCH("iOS",J42)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G42">
+      <formula>NOT(ISERROR(SEARCH("iOS",J44)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G44">
     <cfRule type="containsText" dxfId="805" priority="1838" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",G42)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Passed",G44)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="804" priority="1839" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",G42)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Failed",G44)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8:H8">
@@ -18168,349 +18179,349 @@
       <formula>NOT(ISERROR(SEARCH("iOS",J3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F28:H28">
+  <conditionalFormatting sqref="F30:H30">
     <cfRule type="containsText" dxfId="785" priority="1793" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",F28)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Passed",F30)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="784" priority="1794" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",F28)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I28">
+      <formula>NOT(ISERROR(SEARCH("Failed",F30)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I30">
     <cfRule type="containsText" dxfId="783" priority="1791" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",I28)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Passed",I30)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="782" priority="1792" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",I28)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L28">
+      <formula>NOT(ISERROR(SEARCH("Failed",I30)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L30">
     <cfRule type="containsText" dxfId="781" priority="1789" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",L28)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Sim",L30)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="780" priority="1790" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",L28)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K28">
+      <formula>NOT(ISERROR(SEARCH("Não",L30)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K30">
     <cfRule type="containsText" dxfId="779" priority="1787" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",K28)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Sim",K30)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="778" priority="1788" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",K28)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J28">
+      <formula>NOT(ISERROR(SEARCH("Não",K30)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J30">
     <cfRule type="containsText" dxfId="777" priority="1786" operator="containsText" text="Android">
-      <formula>NOT(ISERROR(SEARCH("Android",J28)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J28">
+      <formula>NOT(ISERROR(SEARCH("Android",J30)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J30">
     <cfRule type="containsText" dxfId="776" priority="1784" operator="containsText" text="Web">
-      <formula>NOT(ISERROR(SEARCH("Web",J28)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Web",J30)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="775" priority="1785" operator="containsText" text="iOS">
-      <formula>NOT(ISERROR(SEARCH("iOS",J28)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F25:H25">
+      <formula>NOT(ISERROR(SEARCH("iOS",J30)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F27:H27">
     <cfRule type="containsText" dxfId="774" priority="1782" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",F25)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Passed",F27)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="773" priority="1783" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",F25)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I25">
+      <formula>NOT(ISERROR(SEARCH("Failed",F27)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I27">
     <cfRule type="containsText" dxfId="772" priority="1780" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",I25)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Passed",I27)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="771" priority="1781" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",I25)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L25">
+      <formula>NOT(ISERROR(SEARCH("Failed",I27)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L27">
     <cfRule type="containsText" dxfId="770" priority="1778" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",L25)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Sim",L27)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="769" priority="1779" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",L25)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Não",L27)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K27">
+    <cfRule type="containsText" dxfId="768" priority="1776" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",K27)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="767" priority="1777" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",K27)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J27">
+    <cfRule type="containsText" dxfId="766" priority="1775" operator="containsText" text="Android">
+      <formula>NOT(ISERROR(SEARCH("Android",J27)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J27">
+    <cfRule type="containsText" dxfId="765" priority="1773" operator="containsText" text="Web">
+      <formula>NOT(ISERROR(SEARCH("Web",J27)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="764" priority="1774" operator="containsText" text="iOS">
+      <formula>NOT(ISERROR(SEARCH("iOS",J27)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K22">
+    <cfRule type="containsText" dxfId="763" priority="1765" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",K22)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="762" priority="1766" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",K22)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K23">
+    <cfRule type="containsText" dxfId="761" priority="1763" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",K23)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="760" priority="1764" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",K23)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F46:H46">
+    <cfRule type="containsText" dxfId="759" priority="1761" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",F46)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="758" priority="1762" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",F46)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I46">
+    <cfRule type="containsText" dxfId="757" priority="1759" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",I46)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="756" priority="1760" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",I46)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L46">
+    <cfRule type="containsText" dxfId="755" priority="1755" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",L46)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="754" priority="1756" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",L46)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K46">
+    <cfRule type="containsText" dxfId="753" priority="1753" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",K46)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="752" priority="1754" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",K46)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J46">
+    <cfRule type="containsText" dxfId="751" priority="1752" operator="containsText" text="Android">
+      <formula>NOT(ISERROR(SEARCH("Android",J46)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J46">
+    <cfRule type="containsText" dxfId="750" priority="1750" operator="containsText" text="Web">
+      <formula>NOT(ISERROR(SEARCH("Web",J46)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="749" priority="1751" operator="containsText" text="iOS">
+      <formula>NOT(ISERROR(SEARCH("iOS",J46)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G43">
+    <cfRule type="containsText" dxfId="748" priority="1715" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",G43)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="747" priority="1716" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",G43)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E46">
+    <cfRule type="containsText" dxfId="746" priority="1709" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",E46)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="745" priority="1710" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",E46)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K36">
+    <cfRule type="containsText" dxfId="744" priority="1707" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",K36)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="743" priority="1708" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",K36)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K26">
+    <cfRule type="containsText" dxfId="742" priority="1647" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",K26)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="741" priority="1648" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",K26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K25">
-    <cfRule type="containsText" dxfId="768" priority="1776" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="740" priority="1645" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",K25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="767" priority="1777" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="739" priority="1646" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",K25)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J25">
-    <cfRule type="containsText" dxfId="766" priority="1775" operator="containsText" text="Android">
-      <formula>NOT(ISERROR(SEARCH("Android",J25)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J25">
-    <cfRule type="containsText" dxfId="765" priority="1773" operator="containsText" text="Web">
-      <formula>NOT(ISERROR(SEARCH("Web",J25)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="764" priority="1774" operator="containsText" text="iOS">
-      <formula>NOT(ISERROR(SEARCH("iOS",J25)))</formula>
+  <conditionalFormatting sqref="K24">
+    <cfRule type="containsText" dxfId="738" priority="1643" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",K24)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="737" priority="1644" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",K24)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F31:H31">
+    <cfRule type="containsText" dxfId="736" priority="1641" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",F31)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="735" priority="1642" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",F31)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I31">
+    <cfRule type="containsText" dxfId="734" priority="1639" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",I31)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="733" priority="1640" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",I31)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L31">
+    <cfRule type="containsText" dxfId="732" priority="1637" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",L31)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="731" priority="1638" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",L31)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K31">
+    <cfRule type="containsText" dxfId="730" priority="1635" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",K31)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="729" priority="1636" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",K31)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J31">
+    <cfRule type="containsText" dxfId="728" priority="1634" operator="containsText" text="Android">
+      <formula>NOT(ISERROR(SEARCH("Android",J31)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J31">
+    <cfRule type="containsText" dxfId="727" priority="1632" operator="containsText" text="Web">
+      <formula>NOT(ISERROR(SEARCH("Web",J31)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="726" priority="1633" operator="containsText" text="iOS">
+      <formula>NOT(ISERROR(SEARCH("iOS",J31)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F37:I37">
+    <cfRule type="containsText" dxfId="725" priority="1616" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",F37)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="724" priority="1617" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",F37)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I37">
+    <cfRule type="containsText" dxfId="723" priority="1614" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",I37)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="722" priority="1615" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",I37)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L37">
+    <cfRule type="containsText" dxfId="721" priority="1612" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",L37)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="720" priority="1613" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",L37)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J37">
+    <cfRule type="containsText" dxfId="719" priority="1611" operator="containsText" text="Android">
+      <formula>NOT(ISERROR(SEARCH("Android",J37)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J37">
+    <cfRule type="containsText" dxfId="718" priority="1609" operator="containsText" text="Web">
+      <formula>NOT(ISERROR(SEARCH("Web",J37)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="717" priority="1610" operator="containsText" text="iOS">
+      <formula>NOT(ISERROR(SEARCH("iOS",J37)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K38">
+    <cfRule type="containsText" dxfId="716" priority="1601" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",K38)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="715" priority="1602" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",K38)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F20:H20">
+    <cfRule type="containsText" dxfId="714" priority="1595" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",F20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="713" priority="1596" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",F20)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I20">
+    <cfRule type="containsText" dxfId="712" priority="1593" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",I20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="711" priority="1594" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",I20)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L20">
+    <cfRule type="containsText" dxfId="710" priority="1589" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",L20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="709" priority="1590" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",L20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K20">
-    <cfRule type="containsText" dxfId="763" priority="1765" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="708" priority="1587" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",K20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="762" priority="1766" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="707" priority="1588" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",K20)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K21">
-    <cfRule type="containsText" dxfId="761" priority="1763" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",K21)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="760" priority="1764" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",K21)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F44:H44">
-    <cfRule type="containsText" dxfId="759" priority="1761" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",F44)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="758" priority="1762" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",F44)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I44">
-    <cfRule type="containsText" dxfId="757" priority="1759" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",I44)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="756" priority="1760" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",I44)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L44">
-    <cfRule type="containsText" dxfId="755" priority="1755" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",L44)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="754" priority="1756" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",L44)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K44">
-    <cfRule type="containsText" dxfId="753" priority="1753" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",K44)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="752" priority="1754" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",K44)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J44">
-    <cfRule type="containsText" dxfId="751" priority="1752" operator="containsText" text="Android">
-      <formula>NOT(ISERROR(SEARCH("Android",J44)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J44">
-    <cfRule type="containsText" dxfId="750" priority="1750" operator="containsText" text="Web">
-      <formula>NOT(ISERROR(SEARCH("Web",J44)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="749" priority="1751" operator="containsText" text="iOS">
-      <formula>NOT(ISERROR(SEARCH("iOS",J44)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G41">
-    <cfRule type="containsText" dxfId="748" priority="1715" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",G41)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="747" priority="1716" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",G41)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E44">
-    <cfRule type="containsText" dxfId="746" priority="1709" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",E44)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="745" priority="1710" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",E44)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K34">
-    <cfRule type="containsText" dxfId="744" priority="1707" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",K34)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="743" priority="1708" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",K34)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K24">
-    <cfRule type="containsText" dxfId="742" priority="1647" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",K24)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="741" priority="1648" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",K24)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K23">
-    <cfRule type="containsText" dxfId="740" priority="1645" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",K23)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="739" priority="1646" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",K23)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K22">
-    <cfRule type="containsText" dxfId="738" priority="1643" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",K22)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="737" priority="1644" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",K22)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F29:H29">
-    <cfRule type="containsText" dxfId="736" priority="1641" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",F29)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="735" priority="1642" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",F29)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I29">
-    <cfRule type="containsText" dxfId="734" priority="1639" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",I29)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="733" priority="1640" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",I29)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L29">
-    <cfRule type="containsText" dxfId="732" priority="1637" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",L29)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="731" priority="1638" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",L29)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K29">
-    <cfRule type="containsText" dxfId="730" priority="1635" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",K29)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="729" priority="1636" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",K29)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J29">
-    <cfRule type="containsText" dxfId="728" priority="1634" operator="containsText" text="Android">
-      <formula>NOT(ISERROR(SEARCH("Android",J29)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J29">
-    <cfRule type="containsText" dxfId="727" priority="1632" operator="containsText" text="Web">
-      <formula>NOT(ISERROR(SEARCH("Web",J29)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="726" priority="1633" operator="containsText" text="iOS">
-      <formula>NOT(ISERROR(SEARCH("iOS",J29)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F35:I35">
-    <cfRule type="containsText" dxfId="725" priority="1616" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",F35)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="724" priority="1617" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",F35)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I35">
-    <cfRule type="containsText" dxfId="723" priority="1614" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",I35)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="722" priority="1615" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",I35)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L35">
-    <cfRule type="containsText" dxfId="721" priority="1612" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",L35)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="720" priority="1613" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",L35)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J35">
-    <cfRule type="containsText" dxfId="719" priority="1611" operator="containsText" text="Android">
-      <formula>NOT(ISERROR(SEARCH("Android",J35)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J35">
-    <cfRule type="containsText" dxfId="718" priority="1609" operator="containsText" text="Web">
-      <formula>NOT(ISERROR(SEARCH("Web",J35)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="717" priority="1610" operator="containsText" text="iOS">
-      <formula>NOT(ISERROR(SEARCH("iOS",J35)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K36">
-    <cfRule type="containsText" dxfId="716" priority="1601" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",K36)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="715" priority="1602" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",K36)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F46:H46">
-    <cfRule type="containsText" dxfId="714" priority="1595" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",F46)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="713" priority="1596" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",F46)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I46">
-    <cfRule type="containsText" dxfId="712" priority="1593" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",I46)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="711" priority="1594" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",I46)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L46">
-    <cfRule type="containsText" dxfId="710" priority="1589" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",L46)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="709" priority="1590" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",L46)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K46">
-    <cfRule type="containsText" dxfId="708" priority="1587" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",K46)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="707" priority="1588" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",K46)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J46">
+  <conditionalFormatting sqref="J20">
     <cfRule type="containsText" dxfId="706" priority="1586" operator="containsText" text="Android">
-      <formula>NOT(ISERROR(SEARCH("Android",J46)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J46">
+      <formula>NOT(ISERROR(SEARCH("Android",J20)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J20">
     <cfRule type="containsText" dxfId="705" priority="1584" operator="containsText" text="Web">
-      <formula>NOT(ISERROR(SEARCH("Web",J46)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Web",J20)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="704" priority="1585" operator="containsText" text="iOS">
-      <formula>NOT(ISERROR(SEARCH("iOS",J46)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K35">
+      <formula>NOT(ISERROR(SEARCH("iOS",J20)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K37">
     <cfRule type="containsText" dxfId="703" priority="1566" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",K35)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Sim",K37)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="702" priority="1567" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",K35)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D31:D46 D3 D6:D16">
+      <formula>NOT(ISERROR(SEARCH("Não",K37)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3 D6:D16">
     <cfRule type="containsText" dxfId="701" priority="1157" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
@@ -18518,7 +18529,7 @@
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D31:D46 D3 D6:D16">
+  <conditionalFormatting sqref="D3 D6:D16">
     <cfRule type="containsText" dxfId="699" priority="1155" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
@@ -18526,7 +18537,7 @@
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D31:D46 D3 D6:D16">
+  <conditionalFormatting sqref="D3 D6:D16">
     <cfRule type="containsText" dxfId="697" priority="1153" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
@@ -18534,7 +18545,7 @@
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D31:D46 D3 D6:D16">
+  <conditionalFormatting sqref="D3 D6:D16">
     <cfRule type="containsText" dxfId="695" priority="1151" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
@@ -18542,7 +18553,7 @@
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D31:D46 D3 D6:D16">
+  <conditionalFormatting sqref="D3 D6:D16">
     <cfRule type="containsText" dxfId="693" priority="1149" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
@@ -18550,7 +18561,7 @@
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D31:D46 D3 D6:D16">
+  <conditionalFormatting sqref="D3 D6:D16">
     <cfRule type="containsText" dxfId="691" priority="1147" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
@@ -18558,7 +18569,7 @@
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D31:D46 D3 D6:D16">
+  <conditionalFormatting sqref="D3 D6:D16">
     <cfRule type="containsText" dxfId="689" priority="1145" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
@@ -18566,7 +18577,7 @@
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D31:D46 D3 D6:D16">
+  <conditionalFormatting sqref="D3 D6:D16">
     <cfRule type="containsText" dxfId="687" priority="1143" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
@@ -18574,7 +18585,7 @@
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D31:D46 D3 D6:D16">
+  <conditionalFormatting sqref="D3 D6:D16">
     <cfRule type="containsText" dxfId="685" priority="1141" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
@@ -18582,7 +18593,7 @@
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D31:D46 D3 D6:D16">
+  <conditionalFormatting sqref="D3 D6:D16">
     <cfRule type="containsText" dxfId="683" priority="1139" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
@@ -18590,7 +18601,7 @@
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D31:D46 D3 D6:D16">
+  <conditionalFormatting sqref="D3 D6:D16">
     <cfRule type="containsText" dxfId="681" priority="1137" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
@@ -18598,7 +18609,7 @@
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D31:D46 D3 D6:D16">
+  <conditionalFormatting sqref="D3 D6:D16">
     <cfRule type="containsText" dxfId="679" priority="1135" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
@@ -18606,7 +18617,7 @@
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D31:D46 D3 D6:D16">
+  <conditionalFormatting sqref="D3 D6:D16">
     <cfRule type="containsText" dxfId="677" priority="1133" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
@@ -18614,7 +18625,7 @@
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D31:D46 D3 D6:D16">
+  <conditionalFormatting sqref="D3 D6:D16">
     <cfRule type="containsText" dxfId="675" priority="1131" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
@@ -18622,7 +18633,7 @@
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D31:D46 D3 D6:D16">
+  <conditionalFormatting sqref="D3 D6:D16">
     <cfRule type="containsText" dxfId="673" priority="1129" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
@@ -18630,7 +18641,7 @@
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D31:D46 D3 D6:D16">
+  <conditionalFormatting sqref="D3 D6:D16">
     <cfRule type="containsText" dxfId="671" priority="1127" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
@@ -18638,7 +18649,7 @@
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D31:D46 D3 D6:D16">
+  <conditionalFormatting sqref="D3 D6:D16">
     <cfRule type="containsText" dxfId="669" priority="1125" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
@@ -18646,7 +18657,7 @@
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D31:D46 D3 D6:D16">
+  <conditionalFormatting sqref="D3 D6:D16">
     <cfRule type="containsText" dxfId="667" priority="1123" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
@@ -18654,7 +18665,7 @@
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D31:D46 D3 D6:D16">
+  <conditionalFormatting sqref="D3 D6:D16">
     <cfRule type="containsText" dxfId="665" priority="1121" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
@@ -18662,7 +18673,7 @@
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D31:D46 D3 D6:D16">
+  <conditionalFormatting sqref="D3 D6:D16">
     <cfRule type="containsText" dxfId="663" priority="1119" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
@@ -18670,7 +18681,7 @@
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D31:D46 D3 D6:D16">
+  <conditionalFormatting sqref="D3 D6:D16">
     <cfRule type="containsText" dxfId="661" priority="1117" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
@@ -18678,7 +18689,7 @@
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D31:D46 D3 D6:D16">
+  <conditionalFormatting sqref="D3 D6:D16">
     <cfRule type="containsText" dxfId="659" priority="1115" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
@@ -18686,7 +18697,7 @@
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D31:D46 D3 D6:D16">
+  <conditionalFormatting sqref="D3 D6:D16">
     <cfRule type="containsText" dxfId="657" priority="1113" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
@@ -18694,7 +18705,7 @@
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D31:D46 D3 D6:D16">
+  <conditionalFormatting sqref="D3 D6:D16">
     <cfRule type="containsText" dxfId="655" priority="1111" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
@@ -18702,7 +18713,7 @@
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D31:D46 D3 D6:D16">
+  <conditionalFormatting sqref="D3 D6:D16">
     <cfRule type="containsText" dxfId="653" priority="1109" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
@@ -18710,7 +18721,7 @@
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D31:D46 D3 D6:D16">
+  <conditionalFormatting sqref="D3 D6:D16">
     <cfRule type="containsText" dxfId="651" priority="1107" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
@@ -18718,7 +18729,7 @@
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D31:D46 D3 D6:D16">
+  <conditionalFormatting sqref="D3 D6:D16">
     <cfRule type="containsText" dxfId="649" priority="1105" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
@@ -18726,7 +18737,7 @@
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D31:D46 D3 D6:D16">
+  <conditionalFormatting sqref="D3 D6:D16">
     <cfRule type="containsText" dxfId="647" priority="885" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
@@ -18734,7 +18745,7 @@
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D31:D46 D3 D6:D16">
+  <conditionalFormatting sqref="D3 D6:D16">
     <cfRule type="containsText" dxfId="645" priority="883" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
@@ -18742,7 +18753,7 @@
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D31:D46 D3 D6:D16">
+  <conditionalFormatting sqref="D3 D6:D16">
     <cfRule type="containsText" dxfId="643" priority="881" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
@@ -18750,7 +18761,7 @@
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D31:D46 D3 D6:D16">
+  <conditionalFormatting sqref="D3 D6:D16">
     <cfRule type="containsText" dxfId="641" priority="879" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
@@ -18758,7 +18769,7 @@
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D31:D46 D3 D6:D16">
+  <conditionalFormatting sqref="D3 D6:D16">
     <cfRule type="containsText" dxfId="639" priority="877" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
@@ -18766,7 +18777,7 @@
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D31:D46 D3 D6:D16">
+  <conditionalFormatting sqref="D3 D6:D16">
     <cfRule type="containsText" dxfId="637" priority="875" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
@@ -18774,7 +18785,7 @@
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D31:D46 D3 D6:D16">
+  <conditionalFormatting sqref="D3 D6:D16">
     <cfRule type="containsText" dxfId="635" priority="873" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
@@ -18782,7 +18793,7 @@
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D31:D46 D3 D6:D16">
+  <conditionalFormatting sqref="D3 D6:D16">
     <cfRule type="containsText" dxfId="633" priority="871" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
@@ -18790,7 +18801,7 @@
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D31:D46 D3 D6:D16">
+  <conditionalFormatting sqref="D3 D6:D16">
     <cfRule type="containsText" dxfId="631" priority="869" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
@@ -18798,7 +18809,7 @@
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D31:D46 D3 D6:D16">
+  <conditionalFormatting sqref="D3 D6:D16">
     <cfRule type="containsText" dxfId="629" priority="867" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
@@ -18806,7 +18817,7 @@
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D31:D46 D3 D6:D16">
+  <conditionalFormatting sqref="D3 D6:D16">
     <cfRule type="containsText" dxfId="627" priority="865" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
@@ -18814,7 +18825,7 @@
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D31:D46 D3 D6:D16">
+  <conditionalFormatting sqref="D3 D6:D16">
     <cfRule type="containsText" dxfId="625" priority="863" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
@@ -18822,7 +18833,7 @@
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D31:D46 D3 D6:D16">
+  <conditionalFormatting sqref="D3 D6:D16">
     <cfRule type="containsText" dxfId="623" priority="861" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
@@ -18830,7 +18841,7 @@
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D31:D46 D3 D6:D16">
+  <conditionalFormatting sqref="D3 D6:D16">
     <cfRule type="containsText" dxfId="621" priority="859" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
@@ -18838,7 +18849,7 @@
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D31:D46 D3 D6:D16">
+  <conditionalFormatting sqref="D3 D6:D16">
     <cfRule type="containsText" dxfId="619" priority="857" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
@@ -18846,7 +18857,7 @@
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D31:D46 D3 D6:D16">
+  <conditionalFormatting sqref="D3 D6:D16">
     <cfRule type="containsText" dxfId="617" priority="855" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
@@ -18854,7 +18865,7 @@
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D31:D46 D3 D6:D16">
+  <conditionalFormatting sqref="D3 D6:D16">
     <cfRule type="containsText" dxfId="615" priority="853" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
@@ -18862,7 +18873,7 @@
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D31:D46 D3 D6:D16">
+  <conditionalFormatting sqref="D3 D6:D16">
     <cfRule type="containsText" dxfId="613" priority="851" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
@@ -18870,7 +18881,7 @@
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D31:D46 D3 D6:D16">
+  <conditionalFormatting sqref="D3 D6:D16">
     <cfRule type="containsText" dxfId="611" priority="849" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
@@ -18878,7 +18889,7 @@
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D31:D46 D3 D6:D16">
+  <conditionalFormatting sqref="D3 D6:D16">
     <cfRule type="containsText" dxfId="609" priority="847" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
@@ -18886,7 +18897,7 @@
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D31:D46 D3 D6:D16">
+  <conditionalFormatting sqref="D3 D6:D16">
     <cfRule type="containsText" dxfId="607" priority="845" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
@@ -18894,7 +18905,7 @@
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D31:D46 D3 D6:D16">
+  <conditionalFormatting sqref="D3 D6:D16">
     <cfRule type="containsText" dxfId="605" priority="843" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
@@ -18902,7 +18913,7 @@
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D31:D46 D3 D6:D16">
+  <conditionalFormatting sqref="D3 D6:D16">
     <cfRule type="containsText" dxfId="603" priority="841" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
@@ -18910,7 +18921,7 @@
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D31:D46 D3 D6:D16">
+  <conditionalFormatting sqref="D3 D6:D16">
     <cfRule type="containsText" dxfId="601" priority="839" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
@@ -18918,7 +18929,7 @@
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D31:D46 D3 D6:D16">
+  <conditionalFormatting sqref="D3 D6:D16">
     <cfRule type="containsText" dxfId="599" priority="837" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
@@ -18926,7 +18937,7 @@
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D31:D46 D3 D6:D16">
+  <conditionalFormatting sqref="D3 D6:D16">
     <cfRule type="containsText" dxfId="597" priority="835" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
@@ -18934,7 +18945,7 @@
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D31:D46 D3 D6:D16">
+  <conditionalFormatting sqref="D3 D6:D16">
     <cfRule type="containsText" dxfId="595" priority="833" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
@@ -19211,7 +19222,7 @@
       <formula>NOT(ISERROR(SEARCH("Não",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D17:D19">
+  <conditionalFormatting sqref="D17 D19 D21">
     <cfRule type="containsText" dxfId="526" priority="645" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D17)))</formula>
     </cfRule>
@@ -19219,7 +19230,7 @@
       <formula>NOT(ISERROR(SEARCH("Não",D17)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D17:D19">
+  <conditionalFormatting sqref="D17 D19 D21">
     <cfRule type="containsText" dxfId="524" priority="643" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D17)))</formula>
     </cfRule>
@@ -19227,7 +19238,7 @@
       <formula>NOT(ISERROR(SEARCH("Não",D17)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D17:D19">
+  <conditionalFormatting sqref="D17 D19 D21">
     <cfRule type="containsText" dxfId="522" priority="641" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D17)))</formula>
     </cfRule>
@@ -19235,7 +19246,7 @@
       <formula>NOT(ISERROR(SEARCH("Não",D17)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D17:D19">
+  <conditionalFormatting sqref="D17 D19 D21">
     <cfRule type="containsText" dxfId="520" priority="639" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D17)))</formula>
     </cfRule>
@@ -19243,7 +19254,7 @@
       <formula>NOT(ISERROR(SEARCH("Não",D17)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D17:D19">
+  <conditionalFormatting sqref="D17 D19 D21">
     <cfRule type="containsText" dxfId="518" priority="637" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D17)))</formula>
     </cfRule>
@@ -19251,7 +19262,7 @@
       <formula>NOT(ISERROR(SEARCH("Não",D17)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D17:D19">
+  <conditionalFormatting sqref="D17 D19 D21">
     <cfRule type="containsText" dxfId="516" priority="635" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D17)))</formula>
     </cfRule>
@@ -19259,7 +19270,7 @@
       <formula>NOT(ISERROR(SEARCH("Não",D17)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D17:D19">
+  <conditionalFormatting sqref="D17 D19 D21">
     <cfRule type="containsText" dxfId="514" priority="633" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D17)))</formula>
     </cfRule>
@@ -19267,7 +19278,7 @@
       <formula>NOT(ISERROR(SEARCH("Não",D17)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D17:D19">
+  <conditionalFormatting sqref="D17 D19 D21">
     <cfRule type="containsText" dxfId="512" priority="631" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D17)))</formula>
     </cfRule>
@@ -19275,7 +19286,7 @@
       <formula>NOT(ISERROR(SEARCH("Não",D17)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D17:D19">
+  <conditionalFormatting sqref="D17 D19 D21">
     <cfRule type="containsText" dxfId="510" priority="629" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D17)))</formula>
     </cfRule>
@@ -19283,7 +19294,7 @@
       <formula>NOT(ISERROR(SEARCH("Não",D17)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D17:D19">
+  <conditionalFormatting sqref="D17 D19 D21">
     <cfRule type="containsText" dxfId="508" priority="627" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D17)))</formula>
     </cfRule>
@@ -19291,7 +19302,7 @@
       <formula>NOT(ISERROR(SEARCH("Não",D17)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D17:D19">
+  <conditionalFormatting sqref="D17 D19 D21">
     <cfRule type="containsText" dxfId="506" priority="625" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D17)))</formula>
     </cfRule>
@@ -19299,7 +19310,7 @@
       <formula>NOT(ISERROR(SEARCH("Não",D17)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D17:D19">
+  <conditionalFormatting sqref="D17 D19 D21">
     <cfRule type="containsText" dxfId="504" priority="623" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D17)))</formula>
     </cfRule>
@@ -19307,7 +19318,7 @@
       <formula>NOT(ISERROR(SEARCH("Não",D17)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D17:D19">
+  <conditionalFormatting sqref="D17 D19 D21">
     <cfRule type="containsText" dxfId="502" priority="621" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D17)))</formula>
     </cfRule>
@@ -19315,7 +19326,7 @@
       <formula>NOT(ISERROR(SEARCH("Não",D17)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D17:D19">
+  <conditionalFormatting sqref="D17 D19 D21">
     <cfRule type="containsText" dxfId="500" priority="619" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D17)))</formula>
     </cfRule>
@@ -19323,7 +19334,7 @@
       <formula>NOT(ISERROR(SEARCH("Não",D17)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D17:D19">
+  <conditionalFormatting sqref="D17 D19 D21">
     <cfRule type="containsText" dxfId="498" priority="617" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D17)))</formula>
     </cfRule>
@@ -19331,7 +19342,7 @@
       <formula>NOT(ISERROR(SEARCH("Não",D17)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D17:D19">
+  <conditionalFormatting sqref="D17 D19 D21">
     <cfRule type="containsText" dxfId="496" priority="615" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D17)))</formula>
     </cfRule>
@@ -19339,7 +19350,7 @@
       <formula>NOT(ISERROR(SEARCH("Não",D17)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D17:D19">
+  <conditionalFormatting sqref="D17 D19 D21">
     <cfRule type="containsText" dxfId="494" priority="613" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D17)))</formula>
     </cfRule>
@@ -19347,7 +19358,7 @@
       <formula>NOT(ISERROR(SEARCH("Não",D17)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D17:D19">
+  <conditionalFormatting sqref="D17 D19 D21">
     <cfRule type="containsText" dxfId="492" priority="611" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D17)))</formula>
     </cfRule>
@@ -19355,7 +19366,7 @@
       <formula>NOT(ISERROR(SEARCH("Não",D17)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D17:D19">
+  <conditionalFormatting sqref="D17 D19 D21">
     <cfRule type="containsText" dxfId="490" priority="609" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D17)))</formula>
     </cfRule>
@@ -19363,7 +19374,7 @@
       <formula>NOT(ISERROR(SEARCH("Não",D17)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D17:D19">
+  <conditionalFormatting sqref="D17 D19 D21">
     <cfRule type="containsText" dxfId="488" priority="607" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D17)))</formula>
     </cfRule>
@@ -19371,7 +19382,7 @@
       <formula>NOT(ISERROR(SEARCH("Não",D17)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D17:D19">
+  <conditionalFormatting sqref="D17 D19 D21">
     <cfRule type="containsText" dxfId="486" priority="605" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D17)))</formula>
     </cfRule>
@@ -19379,7 +19390,7 @@
       <formula>NOT(ISERROR(SEARCH("Não",D17)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D17:D19">
+  <conditionalFormatting sqref="D17 D19 D21">
     <cfRule type="containsText" dxfId="484" priority="603" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D17)))</formula>
     </cfRule>
@@ -19387,7 +19398,7 @@
       <formula>NOT(ISERROR(SEARCH("Não",D17)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D17:D19">
+  <conditionalFormatting sqref="D17 D19 D21">
     <cfRule type="containsText" dxfId="482" priority="601" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D17)))</formula>
     </cfRule>
@@ -19395,7 +19406,7 @@
       <formula>NOT(ISERROR(SEARCH("Não",D17)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D17:D19">
+  <conditionalFormatting sqref="D17 D19 D21">
     <cfRule type="containsText" dxfId="480" priority="599" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D17)))</formula>
     </cfRule>
@@ -19403,7 +19414,7 @@
       <formula>NOT(ISERROR(SEARCH("Não",D17)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D17:D19">
+  <conditionalFormatting sqref="D17 D19 D21">
     <cfRule type="containsText" dxfId="478" priority="597" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D17)))</formula>
     </cfRule>
@@ -19411,7 +19422,7 @@
       <formula>NOT(ISERROR(SEARCH("Não",D17)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D17:D19">
+  <conditionalFormatting sqref="D17 D19 D21">
     <cfRule type="containsText" dxfId="476" priority="595" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D17)))</formula>
     </cfRule>
@@ -19419,7 +19430,7 @@
       <formula>NOT(ISERROR(SEARCH("Não",D17)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D17:D19">
+  <conditionalFormatting sqref="D17 D19 D21">
     <cfRule type="containsText" dxfId="474" priority="593" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D17)))</formula>
     </cfRule>
@@ -19909,481 +19920,481 @@
       <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F48:H67">
+  <conditionalFormatting sqref="F50:H69">
     <cfRule type="containsText" dxfId="352" priority="352" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",F48)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Passed",F50)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="351" priority="353" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",F48)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I48:I67">
+      <formula>NOT(ISERROR(SEARCH("Failed",F50)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I50:I69">
     <cfRule type="containsText" dxfId="350" priority="350" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",I48)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Passed",I50)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="349" priority="351" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",I48)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K48:L67">
+      <formula>NOT(ISERROR(SEARCH("Failed",I50)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K50:L69">
     <cfRule type="containsText" dxfId="348" priority="348" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",K48)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Sim",K50)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="347" priority="349" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",K48)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J48:J67">
+      <formula>NOT(ISERROR(SEARCH("Não",K50)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J50:J69">
     <cfRule type="containsText" dxfId="346" priority="347" operator="containsText" text="Android">
-      <formula>NOT(ISERROR(SEARCH("Android",J48)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J48:J67">
+      <formula>NOT(ISERROR(SEARCH("Android",J50)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J50:J69">
     <cfRule type="containsText" dxfId="345" priority="345" operator="containsText" text="Web">
-      <formula>NOT(ISERROR(SEARCH("Web",J48)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Web",J50)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="344" priority="346" operator="containsText" text="iOS">
-      <formula>NOT(ISERROR(SEARCH("iOS",J48)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D48:D67">
+      <formula>NOT(ISERROR(SEARCH("iOS",J50)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D50:D69">
     <cfRule type="containsText" dxfId="343" priority="343" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D48)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Sim",D50)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="342" priority="344" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D48)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D48:D67">
+      <formula>NOT(ISERROR(SEARCH("Não",D50)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D50:D69">
     <cfRule type="containsText" dxfId="341" priority="341" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D48)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Sim",D50)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="340" priority="342" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D48)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D48:D67">
+      <formula>NOT(ISERROR(SEARCH("Não",D50)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D50:D69">
     <cfRule type="containsText" dxfId="339" priority="339" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D48)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Sim",D50)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="338" priority="340" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D48)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D48:D67">
+      <formula>NOT(ISERROR(SEARCH("Não",D50)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D50:D69">
     <cfRule type="containsText" dxfId="337" priority="337" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D48)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Sim",D50)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="336" priority="338" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D48)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D48:D67">
+      <formula>NOT(ISERROR(SEARCH("Não",D50)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D50:D69">
     <cfRule type="containsText" dxfId="335" priority="335" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D48)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Sim",D50)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="334" priority="336" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D48)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D48:D67">
+      <formula>NOT(ISERROR(SEARCH("Não",D50)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D50:D69">
     <cfRule type="containsText" dxfId="333" priority="333" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D48)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Sim",D50)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="332" priority="334" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D48)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D48:D67">
+      <formula>NOT(ISERROR(SEARCH("Não",D50)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D50:D69">
     <cfRule type="containsText" dxfId="331" priority="331" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D48)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Sim",D50)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="330" priority="332" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D48)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D48:D67">
+      <formula>NOT(ISERROR(SEARCH("Não",D50)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D50:D69">
     <cfRule type="containsText" dxfId="329" priority="329" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D48)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Sim",D50)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="328" priority="330" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D48)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D48:D67">
+      <formula>NOT(ISERROR(SEARCH("Não",D50)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D50:D69">
     <cfRule type="containsText" dxfId="327" priority="327" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D48)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Sim",D50)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="326" priority="328" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D48)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D48:D67">
+      <formula>NOT(ISERROR(SEARCH("Não",D50)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D50:D69">
     <cfRule type="containsText" dxfId="325" priority="325" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D48)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Sim",D50)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="324" priority="326" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D48)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D48:D67">
+      <formula>NOT(ISERROR(SEARCH("Não",D50)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D50:D69">
     <cfRule type="containsText" dxfId="323" priority="323" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D48)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Sim",D50)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="322" priority="324" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D48)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D48:D67">
+      <formula>NOT(ISERROR(SEARCH("Não",D50)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D50:D69">
     <cfRule type="containsText" dxfId="321" priority="321" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D48)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Sim",D50)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="320" priority="322" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D48)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D48:D67">
+      <formula>NOT(ISERROR(SEARCH("Não",D50)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D50:D69">
     <cfRule type="containsText" dxfId="319" priority="319" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D48)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Sim",D50)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="318" priority="320" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D48)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D48:D67">
+      <formula>NOT(ISERROR(SEARCH("Não",D50)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D50:D69">
     <cfRule type="containsText" dxfId="317" priority="317" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D48)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Sim",D50)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="316" priority="318" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D48)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D48:D67">
+      <formula>NOT(ISERROR(SEARCH("Não",D50)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D50:D69">
     <cfRule type="containsText" dxfId="315" priority="315" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D48)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Sim",D50)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="314" priority="316" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D48)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D48:D67">
+      <formula>NOT(ISERROR(SEARCH("Não",D50)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D50:D69">
     <cfRule type="containsText" dxfId="313" priority="313" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D48)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Sim",D50)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="312" priority="314" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D48)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D48:D67">
+      <formula>NOT(ISERROR(SEARCH("Não",D50)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D50:D69">
     <cfRule type="containsText" dxfId="311" priority="311" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D48)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Sim",D50)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="310" priority="312" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D48)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D48:D67">
+      <formula>NOT(ISERROR(SEARCH("Não",D50)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D50:D69">
     <cfRule type="containsText" dxfId="309" priority="309" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D48)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Sim",D50)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="308" priority="310" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D48)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D48:D67">
+      <formula>NOT(ISERROR(SEARCH("Não",D50)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D50:D69">
     <cfRule type="containsText" dxfId="307" priority="307" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D48)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Sim",D50)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="306" priority="308" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D48)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D48:D67">
+      <formula>NOT(ISERROR(SEARCH("Não",D50)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D50:D69">
     <cfRule type="containsText" dxfId="305" priority="305" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D48)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Sim",D50)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="304" priority="306" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D48)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D48:D67">
+      <formula>NOT(ISERROR(SEARCH("Não",D50)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D50:D69">
     <cfRule type="containsText" dxfId="303" priority="303" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D48)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Sim",D50)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="302" priority="304" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D48)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D48:D67">
+      <formula>NOT(ISERROR(SEARCH("Não",D50)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D50:D69">
     <cfRule type="containsText" dxfId="301" priority="301" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D48)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Sim",D50)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="300" priority="302" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D48)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D48:D67">
+      <formula>NOT(ISERROR(SEARCH("Não",D50)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D50:D69">
     <cfRule type="containsText" dxfId="299" priority="299" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D48)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Sim",D50)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="298" priority="300" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D48)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D48:D67">
+      <formula>NOT(ISERROR(SEARCH("Não",D50)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D50:D69">
     <cfRule type="containsText" dxfId="297" priority="297" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D48)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Sim",D50)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="296" priority="298" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D48)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D48:D67">
+      <formula>NOT(ISERROR(SEARCH("Não",D50)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D50:D69">
     <cfRule type="containsText" dxfId="295" priority="295" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D48)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Sim",D50)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="294" priority="296" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D48)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D48:D67">
+      <formula>NOT(ISERROR(SEARCH("Não",D50)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D50:D69">
     <cfRule type="containsText" dxfId="293" priority="293" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D48)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Sim",D50)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="292" priority="294" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D48)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D48:D67">
+      <formula>NOT(ISERROR(SEARCH("Não",D50)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D50:D69">
     <cfRule type="containsText" dxfId="291" priority="291" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D48)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Sim",D50)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="290" priority="292" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D48)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D48:D67">
+      <formula>NOT(ISERROR(SEARCH("Não",D50)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D50:D69">
     <cfRule type="containsText" dxfId="289" priority="289" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D48)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Sim",D50)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="288" priority="290" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D48)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D48:D67">
+      <formula>NOT(ISERROR(SEARCH("Não",D50)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D50:D69">
     <cfRule type="containsText" dxfId="287" priority="287" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D48)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Sim",D50)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="286" priority="288" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D48)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D48:D67">
+      <formula>NOT(ISERROR(SEARCH("Não",D50)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D50:D69">
     <cfRule type="containsText" dxfId="285" priority="285" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D48)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Sim",D50)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="284" priority="286" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D48)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D48:D67">
+      <formula>NOT(ISERROR(SEARCH("Não",D50)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D50:D69">
     <cfRule type="containsText" dxfId="283" priority="283" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D48)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Sim",D50)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="282" priority="284" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D48)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D48:D67">
+      <formula>NOT(ISERROR(SEARCH("Não",D50)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D50:D69">
     <cfRule type="containsText" dxfId="281" priority="281" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D48)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Sim",D50)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="280" priority="282" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D48)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D48:D67">
+      <formula>NOT(ISERROR(SEARCH("Não",D50)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D50:D69">
     <cfRule type="containsText" dxfId="279" priority="279" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D48)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Sim",D50)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="278" priority="280" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D48)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D48:D67">
+      <formula>NOT(ISERROR(SEARCH("Não",D50)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D50:D69">
     <cfRule type="containsText" dxfId="277" priority="277" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D48)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Sim",D50)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="276" priority="278" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D48)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D48:D67">
+      <formula>NOT(ISERROR(SEARCH("Não",D50)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D50:D69">
     <cfRule type="containsText" dxfId="275" priority="275" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D48)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Sim",D50)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="274" priority="276" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D48)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D48:D67">
+      <formula>NOT(ISERROR(SEARCH("Não",D50)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D50:D69">
     <cfRule type="containsText" dxfId="273" priority="273" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D48)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Sim",D50)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="272" priority="274" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D48)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D48:D67">
+      <formula>NOT(ISERROR(SEARCH("Não",D50)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D50:D69">
     <cfRule type="containsText" dxfId="271" priority="271" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D48)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Sim",D50)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="270" priority="272" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D48)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D48:D67">
+      <formula>NOT(ISERROR(SEARCH("Não",D50)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D50:D69">
     <cfRule type="containsText" dxfId="269" priority="269" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D48)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Sim",D50)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="268" priority="270" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D48)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D48:D67">
+      <formula>NOT(ISERROR(SEARCH("Não",D50)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D50:D69">
     <cfRule type="containsText" dxfId="267" priority="267" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D48)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Sim",D50)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="266" priority="268" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D48)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D48:D67">
+      <formula>NOT(ISERROR(SEARCH("Não",D50)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D50:D69">
     <cfRule type="containsText" dxfId="265" priority="265" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D48)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Sim",D50)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="264" priority="266" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D48)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D48:D67">
+      <formula>NOT(ISERROR(SEARCH("Não",D50)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D50:D69">
     <cfRule type="containsText" dxfId="263" priority="263" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D48)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Sim",D50)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="262" priority="264" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D48)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D48:D67">
+      <formula>NOT(ISERROR(SEARCH("Não",D50)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D50:D69">
     <cfRule type="containsText" dxfId="261" priority="261" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D48)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Sim",D50)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="260" priority="262" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D48)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D48:D67">
+      <formula>NOT(ISERROR(SEARCH("Não",D50)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D50:D69">
     <cfRule type="containsText" dxfId="259" priority="259" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D48)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Sim",D50)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="258" priority="260" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D48)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D48:D67">
+      <formula>NOT(ISERROR(SEARCH("Não",D50)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D50:D69">
     <cfRule type="containsText" dxfId="257" priority="257" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D48)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Sim",D50)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="256" priority="258" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D48)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D48:D67">
+      <formula>NOT(ISERROR(SEARCH("Não",D50)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D50:D69">
     <cfRule type="containsText" dxfId="255" priority="255" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D48)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Sim",D50)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="254" priority="256" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D48)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D48:D67">
+      <formula>NOT(ISERROR(SEARCH("Não",D50)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D50:D69">
     <cfRule type="containsText" dxfId="253" priority="253" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D48)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Sim",D50)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="252" priority="254" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D48)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D48:D67">
+      <formula>NOT(ISERROR(SEARCH("Não",D50)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D50:D69">
     <cfRule type="containsText" dxfId="251" priority="251" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D48)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Sim",D50)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="250" priority="252" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D48)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D48:D67">
+      <formula>NOT(ISERROR(SEARCH("Não",D50)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D50:D69">
     <cfRule type="containsText" dxfId="249" priority="249" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D48)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Sim",D50)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="248" priority="250" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D48)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D48:D67">
+      <formula>NOT(ISERROR(SEARCH("Não",D50)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D50:D69">
     <cfRule type="containsText" dxfId="247" priority="247" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D48)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Sim",D50)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="246" priority="248" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D48)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D48:D67">
+      <formula>NOT(ISERROR(SEARCH("Não",D50)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D50:D69">
     <cfRule type="containsText" dxfId="245" priority="245" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D48)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Sim",D50)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="244" priority="246" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D48)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D48:D67">
+      <formula>NOT(ISERROR(SEARCH("Não",D50)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D50:D69">
     <cfRule type="containsText" dxfId="243" priority="243" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D48)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Sim",D50)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="242" priority="244" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D48)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D48:D67">
+      <formula>NOT(ISERROR(SEARCH("Não",D50)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D50:D69">
     <cfRule type="containsText" dxfId="241" priority="241" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D48)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Sim",D50)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="240" priority="242" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D48)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D48:D67">
+      <formula>NOT(ISERROR(SEARCH("Não",D50)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D50:D69">
     <cfRule type="containsText" dxfId="239" priority="239" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D48)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Sim",D50)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="238" priority="240" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D48)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D48:D67">
+      <formula>NOT(ISERROR(SEARCH("Não",D50)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D50:D69">
     <cfRule type="containsText" dxfId="237" priority="237" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D48)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Sim",D50)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="236" priority="238" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D48)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E29">
+      <formula>NOT(ISERROR(SEARCH("Não",D50)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E31">
     <cfRule type="containsText" dxfId="235" priority="235" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",E29)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Passed",E31)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="234" priority="236" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",E29)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Failed",E31)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5:H5">
@@ -20855,492 +20866,492 @@
       <formula>NOT(ISERROR(SEARCH("Não",D5)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F47:H47">
+  <conditionalFormatting sqref="F49:H49">
     <cfRule type="containsText" dxfId="116" priority="116" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",F47)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Passed",F49)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="115" priority="117" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",F47)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I47">
+      <formula>NOT(ISERROR(SEARCH("Failed",F49)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I49">
     <cfRule type="containsText" dxfId="114" priority="114" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",I47)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Passed",I49)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="113" priority="115" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",I47)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K47:L47">
+      <formula>NOT(ISERROR(SEARCH("Failed",I49)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K49:L49">
     <cfRule type="containsText" dxfId="112" priority="112" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",K47)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Sim",K49)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="111" priority="113" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",K47)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J47">
+      <formula>NOT(ISERROR(SEARCH("Não",K49)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J49">
     <cfRule type="containsText" dxfId="110" priority="111" operator="containsText" text="Android">
-      <formula>NOT(ISERROR(SEARCH("Android",J47)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J47">
+      <formula>NOT(ISERROR(SEARCH("Android",J49)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J49">
     <cfRule type="containsText" dxfId="109" priority="109" operator="containsText" text="Web">
-      <formula>NOT(ISERROR(SEARCH("Web",J47)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Web",J49)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="108" priority="110" operator="containsText" text="iOS">
-      <formula>NOT(ISERROR(SEARCH("iOS",J47)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D47">
+      <formula>NOT(ISERROR(SEARCH("iOS",J49)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D49">
     <cfRule type="containsText" dxfId="107" priority="107" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D47)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Sim",D49)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="106" priority="108" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D47)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D47">
+      <formula>NOT(ISERROR(SEARCH("Não",D49)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D49">
     <cfRule type="containsText" dxfId="105" priority="105" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D47)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Sim",D49)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="104" priority="106" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D47)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D47">
+      <formula>NOT(ISERROR(SEARCH("Não",D49)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D49">
     <cfRule type="containsText" dxfId="103" priority="103" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D47)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Sim",D49)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="102" priority="104" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D47)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D47">
+      <formula>NOT(ISERROR(SEARCH("Não",D49)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D49">
     <cfRule type="containsText" dxfId="101" priority="101" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D47)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Sim",D49)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="100" priority="102" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D47)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D47">
+      <formula>NOT(ISERROR(SEARCH("Não",D49)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D49">
     <cfRule type="containsText" dxfId="99" priority="99" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D47)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Sim",D49)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="98" priority="100" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D47)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D47">
+      <formula>NOT(ISERROR(SEARCH("Não",D49)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D49">
     <cfRule type="containsText" dxfId="97" priority="97" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D47)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Sim",D49)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="96" priority="98" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D47)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D47">
+      <formula>NOT(ISERROR(SEARCH("Não",D49)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D49">
     <cfRule type="containsText" dxfId="95" priority="95" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D47)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Sim",D49)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="94" priority="96" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D47)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D47">
+      <formula>NOT(ISERROR(SEARCH("Não",D49)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D49">
     <cfRule type="containsText" dxfId="93" priority="93" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D47)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Sim",D49)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="92" priority="94" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D47)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D47">
+      <formula>NOT(ISERROR(SEARCH("Não",D49)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D49">
     <cfRule type="containsText" dxfId="91" priority="91" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D47)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Sim",D49)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="90" priority="92" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D47)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D47">
+      <formula>NOT(ISERROR(SEARCH("Não",D49)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D49">
     <cfRule type="containsText" dxfId="89" priority="89" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D47)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Sim",D49)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="88" priority="90" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D47)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D47">
+      <formula>NOT(ISERROR(SEARCH("Não",D49)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D49">
     <cfRule type="containsText" dxfId="87" priority="87" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D47)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Sim",D49)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="86" priority="88" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D47)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D47">
+      <formula>NOT(ISERROR(SEARCH("Não",D49)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D49">
     <cfRule type="containsText" dxfId="85" priority="85" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D47)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Sim",D49)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="84" priority="86" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D47)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D47">
+      <formula>NOT(ISERROR(SEARCH("Não",D49)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D49">
     <cfRule type="containsText" dxfId="83" priority="83" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D47)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Sim",D49)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="82" priority="84" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D47)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D47">
+      <formula>NOT(ISERROR(SEARCH("Não",D49)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D49">
     <cfRule type="containsText" dxfId="81" priority="81" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D47)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Sim",D49)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="80" priority="82" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D47)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D47">
+      <formula>NOT(ISERROR(SEARCH("Não",D49)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D49">
     <cfRule type="containsText" dxfId="79" priority="79" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D47)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Sim",D49)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="78" priority="80" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D47)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D47">
+      <formula>NOT(ISERROR(SEARCH("Não",D49)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D49">
     <cfRule type="containsText" dxfId="77" priority="77" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D47)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Sim",D49)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="76" priority="78" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D47)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D47">
+      <formula>NOT(ISERROR(SEARCH("Não",D49)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D49">
     <cfRule type="containsText" dxfId="75" priority="75" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D47)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Sim",D49)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="74" priority="76" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D47)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D47">
+      <formula>NOT(ISERROR(SEARCH("Não",D49)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D49">
     <cfRule type="containsText" dxfId="73" priority="73" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D47)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Sim",D49)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="72" priority="74" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D47)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D47">
+      <formula>NOT(ISERROR(SEARCH("Não",D49)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D49">
     <cfRule type="containsText" dxfId="71" priority="71" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D47)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Sim",D49)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="70" priority="72" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D47)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D47">
+      <formula>NOT(ISERROR(SEARCH("Não",D49)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D49">
     <cfRule type="containsText" dxfId="69" priority="69" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D47)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Sim",D49)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="68" priority="70" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D47)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D47">
+      <formula>NOT(ISERROR(SEARCH("Não",D49)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D49">
     <cfRule type="containsText" dxfId="67" priority="67" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D47)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Sim",D49)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="66" priority="68" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D47)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D47">
+      <formula>NOT(ISERROR(SEARCH("Não",D49)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D49">
     <cfRule type="containsText" dxfId="65" priority="65" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D47)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Sim",D49)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="64" priority="66" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D47)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D47">
+      <formula>NOT(ISERROR(SEARCH("Não",D49)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D49">
     <cfRule type="containsText" dxfId="63" priority="63" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D47)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Sim",D49)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="62" priority="64" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D47)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D47">
+      <formula>NOT(ISERROR(SEARCH("Não",D49)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D49">
     <cfRule type="containsText" dxfId="61" priority="61" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D47)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Sim",D49)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="60" priority="62" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D47)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D47">
+      <formula>NOT(ISERROR(SEARCH("Não",D49)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D49">
     <cfRule type="containsText" dxfId="59" priority="59" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D47)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Sim",D49)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="58" priority="60" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D47)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D47">
+      <formula>NOT(ISERROR(SEARCH("Não",D49)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D49">
     <cfRule type="containsText" dxfId="57" priority="57" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D47)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Sim",D49)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="56" priority="58" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D47)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D47">
+      <formula>NOT(ISERROR(SEARCH("Não",D49)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D49">
     <cfRule type="containsText" dxfId="55" priority="55" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D47)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Sim",D49)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="54" priority="56" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D47)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D47">
+      <formula>NOT(ISERROR(SEARCH("Não",D49)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D49">
     <cfRule type="containsText" dxfId="53" priority="53" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D47)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Sim",D49)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="52" priority="54" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D47)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D47">
+      <formula>NOT(ISERROR(SEARCH("Não",D49)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D49">
     <cfRule type="containsText" dxfId="51" priority="51" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D47)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Sim",D49)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="50" priority="52" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D47)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D47">
+      <formula>NOT(ISERROR(SEARCH("Não",D49)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D49">
     <cfRule type="containsText" dxfId="49" priority="49" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D47)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Sim",D49)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="48" priority="50" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D47)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D47">
+      <formula>NOT(ISERROR(SEARCH("Não",D49)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D49">
     <cfRule type="containsText" dxfId="47" priority="47" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D47)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Sim",D49)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="46" priority="48" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D47)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D47">
+      <formula>NOT(ISERROR(SEARCH("Não",D49)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D49">
     <cfRule type="containsText" dxfId="45" priority="45" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D47)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Sim",D49)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="44" priority="46" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D47)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D47">
+      <formula>NOT(ISERROR(SEARCH("Não",D49)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D49">
     <cfRule type="containsText" dxfId="43" priority="43" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D47)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Sim",D49)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="42" priority="44" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D47)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D47">
+      <formula>NOT(ISERROR(SEARCH("Não",D49)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D49">
     <cfRule type="containsText" dxfId="41" priority="41" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D47)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Sim",D49)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="40" priority="42" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D47)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D47">
+      <formula>NOT(ISERROR(SEARCH("Não",D49)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D49">
     <cfRule type="containsText" dxfId="39" priority="39" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D47)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Sim",D49)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="38" priority="40" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D47)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D47">
+      <formula>NOT(ISERROR(SEARCH("Não",D49)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D49">
     <cfRule type="containsText" dxfId="37" priority="37" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D47)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Sim",D49)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="36" priority="38" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D47)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D47">
+      <formula>NOT(ISERROR(SEARCH("Não",D49)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D49">
     <cfRule type="containsText" dxfId="35" priority="35" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D47)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Sim",D49)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="34" priority="36" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D47)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D47">
+      <formula>NOT(ISERROR(SEARCH("Não",D49)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D49">
     <cfRule type="containsText" dxfId="33" priority="33" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D47)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Sim",D49)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="32" priority="34" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D47)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D47">
+      <formula>NOT(ISERROR(SEARCH("Não",D49)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D49">
     <cfRule type="containsText" dxfId="31" priority="31" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D47)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Sim",D49)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="30" priority="32" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D47)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D47">
+      <formula>NOT(ISERROR(SEARCH("Não",D49)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D49">
     <cfRule type="containsText" dxfId="29" priority="29" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D47)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Sim",D49)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="28" priority="30" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D47)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D47">
+      <formula>NOT(ISERROR(SEARCH("Não",D49)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D49">
     <cfRule type="containsText" dxfId="27" priority="27" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D47)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Sim",D49)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="26" priority="28" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D47)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D47">
+      <formula>NOT(ISERROR(SEARCH("Não",D49)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D49">
     <cfRule type="containsText" dxfId="25" priority="25" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D47)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Sim",D49)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="24" priority="26" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D47)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D47">
+      <formula>NOT(ISERROR(SEARCH("Não",D49)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D49">
     <cfRule type="containsText" dxfId="23" priority="23" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D47)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Sim",D49)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="22" priority="24" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D47)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D47">
+      <formula>NOT(ISERROR(SEARCH("Não",D49)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D49">
     <cfRule type="containsText" dxfId="21" priority="21" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D47)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Sim",D49)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="20" priority="22" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D47)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D47">
+      <formula>NOT(ISERROR(SEARCH("Não",D49)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D49">
     <cfRule type="containsText" dxfId="19" priority="19" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D47)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Sim",D49)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="18" priority="20" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D47)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D47">
+      <formula>NOT(ISERROR(SEARCH("Não",D49)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D49">
     <cfRule type="containsText" dxfId="17" priority="17" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D47)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Sim",D49)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="16" priority="18" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D47)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D47">
+      <formula>NOT(ISERROR(SEARCH("Não",D49)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D49">
     <cfRule type="containsText" dxfId="15" priority="15" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D47)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Sim",D49)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="14" priority="16" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D47)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D47">
+      <formula>NOT(ISERROR(SEARCH("Não",D49)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D49">
     <cfRule type="containsText" dxfId="13" priority="13" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D47)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Sim",D49)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="12" priority="14" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D47)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D47">
+      <formula>NOT(ISERROR(SEARCH("Não",D49)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D49">
     <cfRule type="containsText" dxfId="11" priority="11" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D47)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Sim",D49)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="10" priority="12" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D47)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D47">
+      <formula>NOT(ISERROR(SEARCH("Não",D49)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D49">
     <cfRule type="containsText" dxfId="9" priority="9" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D47)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Sim",D49)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="8" priority="10" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D47)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D47">
+      <formula>NOT(ISERROR(SEARCH("Não",D49)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D49">
     <cfRule type="containsText" dxfId="7" priority="7" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D47)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Sim",D49)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="6" priority="8" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D47)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D47">
+      <formula>NOT(ISERROR(SEARCH("Não",D49)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D49">
     <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D47)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Sim",D49)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D47)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D47">
+      <formula>NOT(ISERROR(SEARCH("Não",D49)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D49">
     <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D47)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Sim",D49)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D47)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D47">
+      <formula>NOT(ISERROR(SEARCH("Não",D49)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D49">
     <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D47)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Sim",D49)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D47)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Não",D49)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K38:L40 K2:L36 K42:L67 D2:D67">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K40:L42 K44:L46 D2:D46 D49:D69 K2:L38 K49:L69">
       <formula1>"Sim,Não"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J67">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J46 J49:J69">
       <formula1>"Android,iOS,Web"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="R37" r:id="rId1" display="michael-net@hotmail.com"/>
-    <hyperlink ref="M28" r:id="rId2"/>
+    <hyperlink ref="R39" r:id="rId1" display="michael-net@hotmail.com"/>
+    <hyperlink ref="M30" r:id="rId2"/>
     <hyperlink ref="R8" r:id="rId3"/>
-    <hyperlink ref="B72" r:id="rId4"/>
+    <hyperlink ref="B74" r:id="rId4"/>
     <hyperlink ref="M3" r:id="rId5"/>
-    <hyperlink ref="M21" r:id="rId6"/>
-    <hyperlink ref="M36" r:id="rId7"/>
-    <hyperlink ref="M45" r:id="rId8"/>
+    <hyperlink ref="M23" r:id="rId6"/>
+    <hyperlink ref="M38" r:id="rId7"/>
+    <hyperlink ref="M18" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
@@ -21359,16 +21370,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="1.5703125" style="37" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14.5703125" style="37" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.85546875" style="37" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="5" width="15.85546875" style="37" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="19.28515625" style="37" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="1.5703125" style="37" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="15.85546875" style="37" customWidth="1" collapsed="1"/>
-    <col min="9" max="12" width="13.42578125" style="37" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="1.5703125" style="37" customWidth="1" collapsed="1"/>
-    <col min="14" max="16384" width="9.140625" style="37" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="37" width="1.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="37" width="14.5703125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="37" width="15.85546875" collapsed="true"/>
+    <col min="4" max="5" customWidth="true" style="37" width="15.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="37" width="19.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="37" width="1.5703125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="37" width="15.85546875" collapsed="true"/>
+    <col min="9" max="12" customWidth="true" style="37" width="13.42578125" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="37" width="1.5703125" collapsed="true"/>
+    <col min="14" max="16384" style="37" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="7.5" customHeight="1">
@@ -21494,15 +21505,15 @@
         <v>136</v>
       </c>
       <c r="I7" s="39">
-        <f>COUNTIF(Testes!J3:J46,"Android")</f>
+        <f>COUNTIF(Testes!J3:J47,"Android")</f>
         <v>41</v>
       </c>
       <c r="J7" s="39">
-        <f>COUNTIFS(Testes!G3:G46,"Passed",Testes!J3:J46,"Android")</f>
+        <f>COUNTIFS(Testes!G3:G47,"Passed",Testes!J3:J47,"Android")</f>
         <v>28</v>
       </c>
       <c r="K7" s="39">
-        <f>COUNTIFS(Testes!G3:G46,"Failed",Testes!J3:J46,"Android")</f>
+        <f>COUNTIFS(Testes!G3:G47,"Failed",Testes!J3:J47,"Android")</f>
         <v>9</v>
       </c>
       <c r="L7" s="39">
@@ -21513,7 +21524,7 @@
     <row r="8" spans="1:13" ht="18.75" customHeight="1">
       <c r="A8" s="44"/>
       <c r="B8" s="53">
-        <f>COUNTIF(Testes!A3:A46,"&lt;&gt;"&amp;"")</f>
+        <f>COUNTIF(Testes!A3:A47,"&lt;&gt;"&amp;"")</f>
         <v>44</v>
       </c>
       <c r="C8" s="112"/>
@@ -21525,15 +21536,15 @@
         <v>169</v>
       </c>
       <c r="I8" s="39">
-        <f>COUNTIF(Testes!J3:J46,"iOS")</f>
+        <f>COUNTIF(Testes!J3:J47,"iOS")</f>
         <v>0</v>
       </c>
       <c r="J8" s="39">
-        <f>COUNTIFS(Testes!G3:G46,"Passed",Testes!J3:J46,"iOS")</f>
+        <f>COUNTIFS(Testes!G3:G47,"Passed",Testes!J3:J47,"iOS")</f>
         <v>0</v>
       </c>
       <c r="K8" s="39">
-        <f>COUNTIFS(Testes!G3:G46,"Failed",Testes!J3:J46,"iOS")</f>
+        <f>COUNTIFS(Testes!G3:G47,"Failed",Testes!J3:J47,"iOS")</f>
         <v>0</v>
       </c>
       <c r="L8" s="39">
@@ -21548,7 +21559,7 @@
       <c r="D9" s="112"/>
       <c r="E9" s="112"/>
       <c r="F9" s="56">
-        <f>SUM(Testes!H3:H46)</f>
+        <f>SUM(Testes!H3:H47)</f>
         <v>0</v>
       </c>
       <c r="G9" s="44"/>
@@ -21556,15 +21567,15 @@
         <v>51</v>
       </c>
       <c r="I9" s="39">
-        <f>COUNTIF(Testes!J3:J46,"Web")</f>
+        <f>COUNTIF(Testes!J3:J47,"Web")</f>
         <v>2</v>
       </c>
       <c r="J9" s="39">
-        <f>COUNTIFS(Testes!G3:G46,"Passed",Testes!J3:J46,"Web")</f>
+        <f>COUNTIFS(Testes!G3:G47,"Passed",Testes!J3:J47,"Web")</f>
         <v>2</v>
       </c>
       <c r="K9" s="39">
-        <f>COUNTIFS(Testes!G3:G46,"Failed",Testes!J3:J46,"Web")</f>
+        <f>COUNTIFS(Testes!G3:G47,"Failed",Testes!J3:J47,"Web")</f>
         <v>0</v>
       </c>
       <c r="L9" s="39">
@@ -21712,9 +21723,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="29.5703125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="38.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="8.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" customWidth="true" width="29.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="38.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="8.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -21867,29 +21878,29 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="35.5703125" style="9" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="9.28515625" style="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="7.85546875" style="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="25.5703125" style="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12" style="13" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="20.140625" style="13" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="21.5703125" style="13" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="19.28515625" style="13" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.5703125" style="13" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="20.28515625" style="13" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="13.85546875" style="13" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="19" style="13" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="8.5703125" style="13" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="3.42578125" style="13" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="18.5703125" style="13" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="13.5703125" style="13" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="12" style="13" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="24.5703125" style="13" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="13.85546875" style="13" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="11.85546875" style="13" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="20.140625" style="13" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="20.42578125" style="13" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="16384" width="9.140625" style="13" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="9" width="35.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="9" width="9.28515625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="9" width="7.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="9" width="25.5703125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="13" width="12.0" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="13" width="20.140625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="13" width="21.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="13" width="19.28515625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="13" width="15.5703125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="13" width="20.28515625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="13" width="13.85546875" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="13" width="19.0" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="13" width="8.5703125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="13" width="3.42578125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="13" width="18.5703125" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="13" width="13.5703125" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="13" width="12.0" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="13" width="24.5703125" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" style="13" width="13.85546875" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="13" width="11.85546875" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="13" width="20.140625" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="13" width="20.42578125" collapsed="true"/>
+    <col min="23" max="16384" style="13" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" s="12" customFormat="1">
@@ -22343,11 +22354,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="10.5703125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.85546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.7109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11.28515625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="61.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="61.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">

--- a/data/backup/AutoVC.xlsx
+++ b/data/backup/AutoVC.xlsx
@@ -106,7 +106,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2269" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2270" uniqueCount="415">
   <si>
     <t>Telefone</t>
   </si>
@@ -673,9 +673,6 @@
     <t>Realizar login utilizando Facebook</t>
   </si>
   <si>
-    <t>Atenção: as linhas destacadas em amarelo precisam ter a massa de dados alterada antes da execução</t>
-  </si>
-  <si>
     <t>CT36</t>
   </si>
   <si>
@@ -962,9 +959,6 @@
   </si>
   <si>
     <t>00:01:05</t>
-  </si>
-  <si>
-    <t>falha ao pular tour inicial</t>
   </si>
   <si>
     <t>00:01:02</t>
@@ -1058,9 +1052,6 @@
     <t>00:01:34</t>
   </si>
   <si>
-    <t>1.0.0.1659227</t>
-  </si>
-  <si>
     <t>https://autovc.page.link/GcZk</t>
   </si>
   <si>
@@ -1202,157 +1193,166 @@
     <t>Realizar login utilizando E-mail viagens em andamento</t>
   </si>
   <si>
-    <t>00:01:11</t>
+    <t>30/07/2021</t>
+  </si>
+  <si>
+    <t>Captura tela dos cards</t>
+  </si>
+  <si>
+    <t>Captura tela dos cupons</t>
+  </si>
+  <si>
+    <t>CT63</t>
+  </si>
+  <si>
+    <t>CT64</t>
+  </si>
+  <si>
+    <t>CT65</t>
+  </si>
+  <si>
+    <t>00:00:06</t>
+  </si>
+  <si>
+    <t>28/07/2022</t>
+  </si>
+  <si>
+    <t>00:00:07</t>
+  </si>
+  <si>
+    <t>28/07/2023</t>
+  </si>
+  <si>
+    <t>00:00:08</t>
+  </si>
+  <si>
+    <t>28/07/2024</t>
+  </si>
+  <si>
+    <t>00:00:09</t>
+  </si>
+  <si>
+    <t>28/07/2025</t>
+  </si>
+  <si>
+    <t>00:00:10</t>
+  </si>
+  <si>
+    <t>28/07/2026</t>
+  </si>
+  <si>
+    <t>00:00:11</t>
+  </si>
+  <si>
+    <t>28/07/2027</t>
+  </si>
+  <si>
+    <t>00:00:13</t>
+  </si>
+  <si>
+    <t>28/07/2029</t>
+  </si>
+  <si>
+    <t>00:00:14</t>
+  </si>
+  <si>
+    <t>28/07/2030</t>
+  </si>
+  <si>
+    <t>00:00:15</t>
+  </si>
+  <si>
+    <t>28/07/2031</t>
+  </si>
+  <si>
+    <t>00:00:16</t>
+  </si>
+  <si>
+    <t>28/07/2032</t>
+  </si>
+  <si>
+    <t>00:00:17</t>
+  </si>
+  <si>
+    <t>28/07/2033</t>
+  </si>
+  <si>
+    <t>00:00:18</t>
+  </si>
+  <si>
+    <t>28/07/2034</t>
+  </si>
+  <si>
+    <t>00:00:20</t>
+  </si>
+  <si>
+    <t>28/07/2036</t>
+  </si>
+  <si>
+    <t>00:00:21</t>
+  </si>
+  <si>
+    <t>28/07/2037</t>
+  </si>
+  <si>
+    <t>00:00:22</t>
+  </si>
+  <si>
+    <t>28/07/2038</t>
+  </si>
+  <si>
+    <t>00:00:23</t>
+  </si>
+  <si>
+    <t>28/07/2039</t>
+  </si>
+  <si>
+    <t>Usuario sem viagem - Cards</t>
+  </si>
+  <si>
+    <t>Usuario sem viagem - Brindes</t>
+  </si>
+  <si>
+    <t>Usuario sem viagem - Cupons</t>
+  </si>
+  <si>
+    <t>00:00:38</t>
+  </si>
+  <si>
+    <t>02/08/2021</t>
+  </si>
+  <si>
+    <t>Selecionar o brinde 1 (Agenda do carro).  Validar tela, textos e links deste brinde. Teste Botão Car10</t>
+  </si>
+  <si>
+    <t>00:01:49</t>
+  </si>
+  <si>
+    <t>Selecionar o brinde 2 (Check Up Automotivo). Validar tela, textos e links deste brinde. Teste Botão Car10</t>
+  </si>
+  <si>
+    <t>00:00:47</t>
+  </si>
+  <si>
+    <t>efetuar reteste para refatoração ou validação de defeito</t>
+  </si>
+  <si>
+    <t>é necessário alterar a massa de dados alterada antes da execução</t>
+  </si>
+  <si>
+    <t>03/08/2021</t>
+  </si>
+  <si>
+    <t>00:01:09</t>
+  </si>
+  <si>
+    <t>1.0.0.1662005</t>
   </si>
   <si>
     <t>00:01:43</t>
   </si>
   <si>
-    <t>30/07/2021</t>
-  </si>
-  <si>
-    <t>Captura tela dos cards</t>
-  </si>
-  <si>
-    <t>Captura tela dos cupons</t>
-  </si>
-  <si>
-    <t>CT63</t>
-  </si>
-  <si>
-    <t>CT64</t>
-  </si>
-  <si>
-    <t>CT65</t>
-  </si>
-  <si>
-    <t>00:00:06</t>
-  </si>
-  <si>
-    <t>28/07/2022</t>
-  </si>
-  <si>
-    <t>00:00:07</t>
-  </si>
-  <si>
-    <t>28/07/2023</t>
-  </si>
-  <si>
-    <t>00:00:08</t>
-  </si>
-  <si>
-    <t>28/07/2024</t>
-  </si>
-  <si>
-    <t>00:00:09</t>
-  </si>
-  <si>
-    <t>28/07/2025</t>
-  </si>
-  <si>
-    <t>00:00:10</t>
-  </si>
-  <si>
-    <t>28/07/2026</t>
-  </si>
-  <si>
-    <t>00:00:11</t>
-  </si>
-  <si>
-    <t>28/07/2027</t>
-  </si>
-  <si>
-    <t>00:00:13</t>
-  </si>
-  <si>
-    <t>28/07/2029</t>
-  </si>
-  <si>
-    <t>00:00:14</t>
-  </si>
-  <si>
-    <t>28/07/2030</t>
-  </si>
-  <si>
-    <t>00:00:15</t>
-  </si>
-  <si>
-    <t>28/07/2031</t>
-  </si>
-  <si>
-    <t>00:00:16</t>
-  </si>
-  <si>
-    <t>28/07/2032</t>
-  </si>
-  <si>
-    <t>00:00:17</t>
-  </si>
-  <si>
-    <t>28/07/2033</t>
-  </si>
-  <si>
-    <t>00:00:18</t>
-  </si>
-  <si>
-    <t>28/07/2034</t>
-  </si>
-  <si>
-    <t>00:00:20</t>
-  </si>
-  <si>
-    <t>28/07/2036</t>
-  </si>
-  <si>
-    <t>00:00:21</t>
-  </si>
-  <si>
-    <t>28/07/2037</t>
-  </si>
-  <si>
-    <t>00:00:22</t>
-  </si>
-  <si>
-    <t>28/07/2038</t>
-  </si>
-  <si>
-    <t>00:00:23</t>
-  </si>
-  <si>
-    <t>28/07/2039</t>
-  </si>
-  <si>
-    <t>Usuario sem viagem - Cards</t>
-  </si>
-  <si>
-    <t>Usuario sem viagem - Brindes</t>
-  </si>
-  <si>
-    <t>Usuario sem viagem - Cupons</t>
-  </si>
-  <si>
-    <t>00:00:38</t>
-  </si>
-  <si>
-    <t>02/08/2021</t>
-  </si>
-  <si>
-    <t>00:01:30</t>
-  </si>
-  <si>
-    <t>00:01:13</t>
-  </si>
-  <si>
-    <t>Selecionar o brinde 1 (Agenda do carro).  Validar tela, textos e links deste brinde. Teste Botão Car10</t>
-  </si>
-  <si>
-    <t>00:01:49</t>
-  </si>
-  <si>
-    <t>Selecionar o brinde 2 (Check Up Automotivo). Validar tela, textos e links deste brinde. Teste Botão Car10</t>
-  </si>
-  <si>
-    <t>00:00:45</t>
+    <t>00:00:57</t>
   </si>
 </sst>
 </file>
@@ -1590,7 +1590,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="25">
+  <fills count="26">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1735,6 +1735,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="5">
     <border>
@@ -1806,7 +1812,7 @@
     <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -2007,6 +2013,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -10762,7 +10770,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
+      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10818,7 +10826,7 @@
         <v>123</v>
       </c>
       <c r="F1" s="20" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G1" s="20" t="s">
         <v>124</v>
@@ -10887,16 +10895,16 @@
         <v>16</v>
       </c>
       <c r="AC1" s="67" t="s">
+        <v>203</v>
+      </c>
+      <c r="AD1" s="67" t="s">
         <v>204</v>
       </c>
-      <c r="AD1" s="67" t="s">
+      <c r="AE1" s="67" t="s">
         <v>205</v>
       </c>
-      <c r="AE1" s="67" t="s">
-        <v>206</v>
-      </c>
       <c r="AF1" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AG1" s="2" t="s">
         <v>170</v>
@@ -10904,7 +10912,7 @@
     </row>
     <row r="2" spans="1:33">
       <c r="A2" s="14" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B2" s="83" t="s">
         <v>21</v>
@@ -10922,13 +10930,13 @@
         <v>111</v>
       </c>
       <c r="G2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H2" t="s">
-        <v>365</v>
+        <v>413</v>
       </c>
       <c r="I2" t="s">
-        <v>296</v>
+        <v>410</v>
       </c>
       <c r="J2" t="s">
         <v>133</v>
@@ -10940,10 +10948,10 @@
         <v>129</v>
       </c>
       <c r="M2" s="76" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O2" s="7" t="s">
         <v>131</v>
@@ -10979,7 +10987,7 @@
         <v>131</v>
       </c>
       <c r="Z2" s="92" t="s">
-        <v>316</v>
+        <v>412</v>
       </c>
       <c r="AA2" s="10">
         <v>44096</v>
@@ -11005,13 +11013,13 @@
     </row>
     <row r="3" spans="1:33">
       <c r="A3" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B3" s="104" t="s">
         <v>30</v>
       </c>
       <c r="C3" s="93" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="D3" t="s">
         <v>128</v>
@@ -11023,13 +11031,13 @@
         <v>111</v>
       </c>
       <c r="G3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H3" t="s">
+        <v>411</v>
+      </c>
+      <c r="I3" t="s">
         <v>410</v>
-      </c>
-      <c r="I3" t="s">
-        <v>408</v>
       </c>
       <c r="J3" t="s">
         <v>133</v>
@@ -11041,10 +11049,10 @@
         <v>129</v>
       </c>
       <c r="M3" s="90" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="N3" s="9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O3" s="7" t="s">
         <v>131</v>
@@ -11106,13 +11114,13 @@
     </row>
     <row r="4" spans="1:33">
       <c r="A4" s="14" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B4" s="104" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C4" s="93" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="D4" t="s">
         <v>128</v>
@@ -11124,13 +11132,13 @@
         <v>111</v>
       </c>
       <c r="G4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H4" t="s">
-        <v>364</v>
+        <v>411</v>
       </c>
       <c r="I4" t="s">
-        <v>366</v>
+        <v>410</v>
       </c>
       <c r="J4" t="s">
         <v>133</v>
@@ -11142,10 +11150,10 @@
         <v>129</v>
       </c>
       <c r="M4" s="73" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="N4" s="9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>131</v>
@@ -11207,13 +11215,13 @@
     </row>
     <row r="5" spans="1:33">
       <c r="A5" s="14" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B5" s="104" t="s">
+        <v>357</v>
+      </c>
+      <c r="C5" s="93" t="s">
         <v>360</v>
-      </c>
-      <c r="C5" s="93" t="s">
-        <v>363</v>
       </c>
       <c r="D5" t="s">
         <v>128</v>
@@ -11225,13 +11233,13 @@
         <v>111</v>
       </c>
       <c r="G5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H5" t="s">
-        <v>409</v>
+        <v>283</v>
       </c>
       <c r="I5" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="J5" t="s">
         <v>133</v>
@@ -11242,11 +11250,11 @@
       <c r="L5" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="M5" s="76" t="s">
-        <v>234</v>
+      <c r="M5" s="62" t="s">
+        <v>233</v>
       </c>
       <c r="N5" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>131</v>
@@ -11308,7 +11316,7 @@
     </row>
     <row r="6" spans="1:33">
       <c r="A6" s="14" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B6" s="16" t="s">
         <v>186</v>
@@ -11323,16 +11331,16 @@
         <v>111</v>
       </c>
       <c r="F6" t="s">
-        <v>285</v>
+        <v>111</v>
       </c>
       <c r="G6" t="s">
         <v>232</v>
       </c>
       <c r="H6" t="s">
-        <v>284</v>
+        <v>414</v>
       </c>
       <c r="I6" t="s">
-        <v>276</v>
+        <v>410</v>
       </c>
       <c r="J6" t="s">
         <v>133</v>
@@ -11409,7 +11417,7 @@
     </row>
     <row r="7" spans="1:33">
       <c r="A7" s="14" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B7" s="70" t="s">
         <v>29</v>
@@ -11427,13 +11435,13 @@
         <v>111</v>
       </c>
       <c r="G7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H7" t="s">
         <v>284</v>
       </c>
       <c r="I7" t="s">
-        <v>276</v>
+        <v>410</v>
       </c>
       <c r="J7" t="s">
         <v>133</v>
@@ -11510,7 +11518,7 @@
     </row>
     <row r="8" spans="1:33">
       <c r="A8" s="14" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B8" s="70" t="s">
         <v>31</v>
@@ -11525,16 +11533,16 @@
         <v>111</v>
       </c>
       <c r="F8" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I8" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="J8" t="s">
         <v>133</v>
@@ -11559,10 +11567,10 @@
       </c>
       <c r="Q8" s="8"/>
       <c r="R8" s="86" t="s">
+        <v>281</v>
+      </c>
+      <c r="S8" s="6" t="s">
         <v>282</v>
-      </c>
-      <c r="S8" s="6" t="s">
-        <v>283</v>
       </c>
       <c r="T8" t="s">
         <v>4</v>
@@ -11609,7 +11617,7 @@
     </row>
     <row r="9" spans="1:33">
       <c r="A9" s="14" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B9" s="82" t="s">
         <v>31</v>
@@ -11627,13 +11635,13 @@
         <v>148</v>
       </c>
       <c r="G9" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H9" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="I9" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J9" t="s">
         <v>133</v>
@@ -11661,7 +11669,7 @@
         <v>3</v>
       </c>
       <c r="S9" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="T9" t="s">
         <v>4</v>
@@ -11708,10 +11716,10 @@
     </row>
     <row r="10" spans="1:33">
       <c r="A10" s="14" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B10" s="82" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C10" s="74" t="s">
         <v>20</v>
@@ -11720,19 +11728,19 @@
         <v>128</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H10" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="I10" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J10" t="s">
         <v>133</v>
@@ -11757,10 +11765,10 @@
       </c>
       <c r="Q10" s="8"/>
       <c r="R10" s="62" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="S10" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="T10" s="68" t="s">
         <v>4</v>
@@ -11807,7 +11815,7 @@
     </row>
     <row r="11" spans="1:33">
       <c r="A11" s="14" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B11" s="16" t="s">
         <v>33</v>
@@ -11825,13 +11833,13 @@
         <v>111</v>
       </c>
       <c r="G11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H11" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="I11" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J11" t="s">
         <v>133</v>
@@ -11843,10 +11851,10 @@
         <v>129</v>
       </c>
       <c r="M11" s="76" t="s">
+        <v>251</v>
+      </c>
+      <c r="N11" s="77" t="s">
         <v>252</v>
-      </c>
-      <c r="N11" s="77" t="s">
-        <v>253</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>131</v>
@@ -11908,7 +11916,7 @@
     </row>
     <row r="12" spans="1:33">
       <c r="A12" s="14" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B12" s="16" t="s">
         <v>184</v>
@@ -11926,13 +11934,13 @@
         <v>111</v>
       </c>
       <c r="G12" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H12" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I12" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J12" t="s">
         <v>133</v>
@@ -11944,10 +11952,10 @@
         <v>129</v>
       </c>
       <c r="M12" s="76" t="s">
+        <v>251</v>
+      </c>
+      <c r="N12" s="77" t="s">
         <v>252</v>
-      </c>
-      <c r="N12" s="77" t="s">
-        <v>253</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>131</v>
@@ -12027,13 +12035,13 @@
         <v>111</v>
       </c>
       <c r="G13" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H13" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="I13" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J13" t="s">
         <v>133</v>
@@ -12045,10 +12053,10 @@
         <v>129</v>
       </c>
       <c r="M13" s="76" t="s">
+        <v>251</v>
+      </c>
+      <c r="N13" s="77" t="s">
         <v>252</v>
-      </c>
-      <c r="N13" s="77" t="s">
-        <v>253</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>131</v>
@@ -12128,13 +12136,13 @@
         <v>111</v>
       </c>
       <c r="G14" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H14" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="I14" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J14" t="s">
         <v>133</v>
@@ -12146,10 +12154,10 @@
         <v>129</v>
       </c>
       <c r="M14" s="76" t="s">
+        <v>251</v>
+      </c>
+      <c r="N14" s="77" t="s">
         <v>252</v>
-      </c>
-      <c r="N14" s="77" t="s">
-        <v>253</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>131</v>
@@ -12211,7 +12219,7 @@
     </row>
     <row r="15" spans="1:33">
       <c r="A15" s="14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B15" s="16" t="s">
         <v>138</v>
@@ -12229,13 +12237,13 @@
         <v>111</v>
       </c>
       <c r="G15" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H15" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="I15" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J15" t="s">
         <v>133</v>
@@ -12247,10 +12255,10 @@
         <v>128</v>
       </c>
       <c r="M15" s="76" t="s">
+        <v>251</v>
+      </c>
+      <c r="N15" s="77" t="s">
         <v>252</v>
-      </c>
-      <c r="N15" s="77" t="s">
-        <v>253</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>131</v>
@@ -12312,13 +12320,13 @@
     </row>
     <row r="16" spans="1:33">
       <c r="A16" s="14" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B16" s="16" t="s">
         <v>99</v>
       </c>
       <c r="C16" s="74" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D16" t="s">
         <v>128</v>
@@ -12330,13 +12338,13 @@
         <v>111</v>
       </c>
       <c r="G16" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H16" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="I16" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J16" t="s">
         <v>133</v>
@@ -12348,10 +12356,10 @@
         <v>129</v>
       </c>
       <c r="M16" s="76" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="N16" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>131</v>
@@ -12419,7 +12427,7 @@
         <v>42</v>
       </c>
       <c r="C17" s="74" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="D17" t="s">
         <v>128</v>
@@ -12431,13 +12439,13 @@
         <v>111</v>
       </c>
       <c r="G17" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H17" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="I17" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="J17" t="s">
         <v>133</v>
@@ -12449,10 +12457,10 @@
         <v>129</v>
       </c>
       <c r="M17" s="90" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="N17" s="77" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>131</v>
@@ -12520,7 +12528,7 @@
         <v>43</v>
       </c>
       <c r="C18" s="74" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="D18" t="s">
         <v>128</v>
@@ -12532,13 +12540,13 @@
         <v>111</v>
       </c>
       <c r="G18" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H18" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="I18" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="J18" t="s">
         <v>133</v>
@@ -12550,10 +12558,10 @@
         <v>129</v>
       </c>
       <c r="M18" s="109" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="N18" s="77" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>131</v>
@@ -12620,11 +12628,11 @@
       <c r="B19" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="C19" s="78" t="s">
+      <c r="C19" s="74" t="s">
         <v>101</v>
       </c>
       <c r="D19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>111</v>
@@ -12633,13 +12641,13 @@
         <v>111</v>
       </c>
       <c r="G19" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H19" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="I19" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="J19" t="s">
         <v>133</v>
@@ -12651,10 +12659,10 @@
         <v>129</v>
       </c>
       <c r="M19" s="109" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="N19" s="77" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>131</v>
@@ -12716,31 +12724,31 @@
     </row>
     <row r="20" spans="1:33">
       <c r="A20" s="14" t="s">
-        <v>263</v>
-      </c>
-      <c r="B20" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="B20" s="110" t="s">
         <v>14</v>
       </c>
       <c r="C20" s="94" t="s">
         <v>55</v>
       </c>
       <c r="D20" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>111</v>
       </c>
       <c r="F20" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G20" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H20" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="I20" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J20" t="s">
         <v>133</v>
@@ -12752,10 +12760,10 @@
         <v>129</v>
       </c>
       <c r="M20" s="76" t="s">
+        <v>251</v>
+      </c>
+      <c r="N20" s="77" t="s">
         <v>252</v>
-      </c>
-      <c r="N20" s="77" t="s">
-        <v>253</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>131</v>
@@ -12817,13 +12825,13 @@
     </row>
     <row r="21" spans="1:33">
       <c r="A21" s="14" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B21" s="16" t="s">
         <v>50</v>
       </c>
       <c r="C21" s="97" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D21" t="s">
         <v>128</v>
@@ -12835,13 +12843,13 @@
         <v>111</v>
       </c>
       <c r="G21" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H21" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="I21" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J21" t="s">
         <v>133</v>
@@ -12853,10 +12861,10 @@
         <v>129</v>
       </c>
       <c r="M21" s="90" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="N21" s="77" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>131</v>
@@ -12918,7 +12926,7 @@
     </row>
     <row r="22" spans="1:33">
       <c r="A22" s="14" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B22" s="16" t="s">
         <v>51</v>
@@ -12936,13 +12944,13 @@
         <v>111</v>
       </c>
       <c r="G22" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H22" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I22" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J22" t="s">
         <v>133</v>
@@ -12954,10 +12962,10 @@
         <v>129</v>
       </c>
       <c r="M22" s="76" t="s">
+        <v>251</v>
+      </c>
+      <c r="N22" s="77" t="s">
         <v>252</v>
-      </c>
-      <c r="N22" s="77" t="s">
-        <v>253</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>131</v>
@@ -13037,13 +13045,13 @@
         <v>111</v>
       </c>
       <c r="G23" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H23" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I23" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J23" t="s">
         <v>133</v>
@@ -13055,10 +13063,10 @@
         <v>129</v>
       </c>
       <c r="M23" s="76" t="s">
+        <v>251</v>
+      </c>
+      <c r="N23" s="77" t="s">
         <v>252</v>
-      </c>
-      <c r="N23" s="77" t="s">
-        <v>253</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>131</v>
@@ -13138,13 +13146,13 @@
         <v>111</v>
       </c>
       <c r="G24" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H24" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I24" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J24" t="s">
         <v>133</v>
@@ -13156,10 +13164,10 @@
         <v>129</v>
       </c>
       <c r="M24" s="76" t="s">
+        <v>251</v>
+      </c>
+      <c r="N24" s="77" t="s">
         <v>252</v>
-      </c>
-      <c r="N24" s="77" t="s">
-        <v>253</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>131</v>
@@ -13224,10 +13232,10 @@
         <v>45</v>
       </c>
       <c r="B25" s="91" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C25" s="89" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D25" t="s">
         <v>128</v>
@@ -13236,16 +13244,16 @@
         <v>111</v>
       </c>
       <c r="F25" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G25" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H25" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="I25" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J25" t="s">
         <v>133</v>
@@ -13257,10 +13265,10 @@
         <v>129</v>
       </c>
       <c r="M25" s="76" t="s">
+        <v>251</v>
+      </c>
+      <c r="N25" s="77" t="s">
         <v>252</v>
-      </c>
-      <c r="N25" s="77" t="s">
-        <v>253</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>131</v>
@@ -13325,10 +13333,10 @@
         <v>46</v>
       </c>
       <c r="B26" s="91" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C26" s="89" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D26" t="s">
         <v>128</v>
@@ -13337,16 +13345,16 @@
         <v>111</v>
       </c>
       <c r="F26" t="s">
+        <v>253</v>
+      </c>
+      <c r="G26" t="s">
+        <v>231</v>
+      </c>
+      <c r="H26" t="s">
         <v>254</v>
       </c>
-      <c r="G26" t="s">
-        <v>232</v>
-      </c>
-      <c r="H26" t="s">
-        <v>255</v>
-      </c>
       <c r="I26" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J26" t="s">
         <v>133</v>
@@ -13358,10 +13366,10 @@
         <v>129</v>
       </c>
       <c r="M26" s="76" t="s">
+        <v>251</v>
+      </c>
+      <c r="N26" s="77" t="s">
         <v>252</v>
-      </c>
-      <c r="N26" s="77" t="s">
-        <v>253</v>
       </c>
       <c r="O26" s="7" t="s">
         <v>131</v>
@@ -13426,7 +13434,7 @@
         <v>102</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C27" s="93" t="s">
         <v>109</v>
@@ -13441,13 +13449,13 @@
         <v>111</v>
       </c>
       <c r="G27" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H27" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="I27" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J27" t="s">
         <v>133</v>
@@ -13527,7 +13535,7 @@
         <v>103</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C28" s="74" t="s">
         <v>110</v>
@@ -13542,13 +13550,13 @@
         <v>111</v>
       </c>
       <c r="G28" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H28" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="I28" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J28" t="s">
         <v>133</v>
@@ -13560,10 +13568,10 @@
         <v>129</v>
       </c>
       <c r="M28" s="63" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="N28" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>131</v>
@@ -13628,28 +13636,28 @@
         <v>104</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C29" s="74" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D29" t="s">
         <v>128</v>
       </c>
       <c r="E29" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="F29" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G29" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H29" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="I29" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J29" t="s">
         <v>133</v>
@@ -13661,11 +13669,11 @@
         <v>129</v>
       </c>
       <c r="M29" s="76" t="s">
+        <v>251</v>
+      </c>
+      <c r="N29" s="77" t="s">
         <v>252</v>
       </c>
-      <c r="N29" s="77" t="s">
-        <v>253</v>
-      </c>
       <c r="O29" s="7" t="s">
         <v>131</v>
       </c>
@@ -13709,13 +13717,13 @@
         <v>131</v>
       </c>
       <c r="AC29" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="AD29" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="AE29" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="AD29" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="AE29" s="7" t="s">
-        <v>278</v>
       </c>
       <c r="AF29" s="7" t="s">
         <v>131</v>
@@ -13732,7 +13740,7 @@
         <v>113</v>
       </c>
       <c r="C30" s="74" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D30" t="s">
         <v>128</v>
@@ -13744,13 +13752,13 @@
         <v>111</v>
       </c>
       <c r="G30" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H30" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I30" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J30" t="s">
         <v>133</v>
@@ -13762,10 +13770,10 @@
         <v>129</v>
       </c>
       <c r="M30" s="79" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="N30" s="80" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>131</v>
@@ -13830,10 +13838,10 @@
         <v>106</v>
       </c>
       <c r="B31" s="91" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C31" s="75" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D31" t="s">
         <v>128</v>
@@ -13870,13 +13878,13 @@
     </row>
     <row r="32" spans="1:33">
       <c r="A32" s="14" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B32" s="91" t="s">
         <v>115</v>
       </c>
       <c r="C32" s="74" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D32" t="s">
         <v>128</v>
@@ -13888,13 +13896,13 @@
         <v>111</v>
       </c>
       <c r="G32" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H32" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="I32" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J32" t="s">
         <v>133</v>
@@ -13906,10 +13914,10 @@
         <v>129</v>
       </c>
       <c r="M32" s="76" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="N32" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O32" s="7" t="s">
         <v>131</v>
@@ -13933,7 +13941,7 @@
         <v>131</v>
       </c>
       <c r="W32" s="9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="X32" s="7" t="s">
         <v>131</v>
@@ -13968,13 +13976,13 @@
     </row>
     <row r="33" spans="1:33">
       <c r="A33" s="14" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B33" s="91" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C33" s="74" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D33" t="s">
         <v>128</v>
@@ -13986,13 +13994,13 @@
         <v>111</v>
       </c>
       <c r="G33" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H33" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I33" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J33" t="s">
         <v>133</v>
@@ -14004,10 +14012,10 @@
         <v>129</v>
       </c>
       <c r="M33" s="76" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="N33" s="84" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>131</v>
@@ -14031,7 +14039,7 @@
         <v>131</v>
       </c>
       <c r="W33" s="9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="X33" s="7" t="s">
         <v>131</v>
@@ -14066,7 +14074,7 @@
     </row>
     <row r="34" spans="1:33">
       <c r="A34" s="14" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B34" s="16" t="s">
         <v>27</v>
@@ -14084,13 +14092,13 @@
         <v>111</v>
       </c>
       <c r="G34" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H34" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="I34" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J34" t="s">
         <v>133</v>
@@ -14102,10 +14110,10 @@
         <v>129</v>
       </c>
       <c r="M34" s="76" t="s">
+        <v>251</v>
+      </c>
+      <c r="N34" s="77" t="s">
         <v>252</v>
-      </c>
-      <c r="N34" s="77" t="s">
-        <v>253</v>
       </c>
       <c r="O34" s="7" t="s">
         <v>131</v>
@@ -14173,7 +14181,7 @@
         <v>48</v>
       </c>
       <c r="C35" s="100" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D35" t="s">
         <v>128</v>
@@ -14182,16 +14190,16 @@
         <v>111</v>
       </c>
       <c r="F35" t="s">
+        <v>241</v>
+      </c>
+      <c r="G35" t="s">
+        <v>231</v>
+      </c>
+      <c r="H35" t="s">
         <v>242</v>
       </c>
-      <c r="G35" t="s">
-        <v>232</v>
-      </c>
-      <c r="H35" t="s">
-        <v>243</v>
-      </c>
       <c r="I35" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J35" t="s">
         <v>133</v>
@@ -14204,7 +14212,7 @@
       </c>
       <c r="M35" s="63"/>
       <c r="N35" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O35" s="7" t="s">
         <v>131</v>
@@ -14266,13 +14274,13 @@
     </row>
     <row r="36" spans="1:33">
       <c r="A36" s="14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B36" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="C36" s="74" t="s">
         <v>208</v>
-      </c>
-      <c r="C36" s="74" t="s">
-        <v>209</v>
       </c>
       <c r="D36" t="s">
         <v>128</v>
@@ -14284,13 +14292,13 @@
         <v>111</v>
       </c>
       <c r="G36" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H36" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="I36" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J36" t="s">
         <v>133</v>
@@ -14302,10 +14310,10 @@
         <v>129</v>
       </c>
       <c r="M36" s="90" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="N36" s="77" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O36" s="7" t="s">
         <v>131</v>
@@ -14367,7 +14375,7 @@
     </row>
     <row r="37" spans="1:33">
       <c r="A37" s="14" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B37" s="16" t="s">
         <v>119</v>
@@ -14385,13 +14393,13 @@
         <v>111</v>
       </c>
       <c r="G37" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H37" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="I37" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J37" s="85" t="s">
         <v>49</v>
@@ -14409,7 +14417,7 @@
         <v>131</v>
       </c>
       <c r="O37" s="79" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="P37" s="7" t="s">
         <v>131</v>
@@ -14421,7 +14429,7 @@
         <v>3</v>
       </c>
       <c r="S37" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="T37" s="85" t="s">
         <v>4</v>
@@ -14468,7 +14476,7 @@
     </row>
     <row r="38" spans="1:33">
       <c r="A38" s="14" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B38" s="91" t="s">
         <v>56</v>
@@ -14486,13 +14494,13 @@
         <v>111</v>
       </c>
       <c r="G38" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H38" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I38" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J38" t="s">
         <v>133</v>
@@ -14504,11 +14512,11 @@
         <v>129</v>
       </c>
       <c r="M38" s="76" t="s">
+        <v>251</v>
+      </c>
+      <c r="N38" s="77" t="s">
         <v>252</v>
       </c>
-      <c r="N38" s="77" t="s">
-        <v>253</v>
-      </c>
       <c r="O38" s="7" t="s">
         <v>131</v>
       </c>
@@ -14549,7 +14557,7 @@
         <v>131</v>
       </c>
       <c r="AB38" s="73" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="AC38" s="7" t="s">
         <v>131</v>
@@ -14569,7 +14577,7 @@
     </row>
     <row r="39" spans="1:33">
       <c r="A39" s="14" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B39" s="101" t="s">
         <v>58</v>
@@ -14584,16 +14592,16 @@
         <v>111</v>
       </c>
       <c r="F39" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="G39" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H39" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="I39" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J39" t="s">
         <v>133</v>
@@ -14605,10 +14613,10 @@
         <v>129</v>
       </c>
       <c r="M39" s="88" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="N39" s="77" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>131</v>
@@ -14685,16 +14693,16 @@
         <v>111</v>
       </c>
       <c r="F40" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G40" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H40" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I40" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J40" t="s">
         <v>133</v>
@@ -14706,10 +14714,10 @@
         <v>129</v>
       </c>
       <c r="M40" s="76" t="s">
+        <v>251</v>
+      </c>
+      <c r="N40" s="77" t="s">
         <v>252</v>
-      </c>
-      <c r="N40" s="77" t="s">
-        <v>253</v>
       </c>
       <c r="O40" s="7" t="s">
         <v>131</v>
@@ -14789,13 +14797,13 @@
         <v>111</v>
       </c>
       <c r="G41" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H41" t="s">
+        <v>238</v>
+      </c>
+      <c r="I41" t="s">
         <v>239</v>
-      </c>
-      <c r="I41" t="s">
-        <v>240</v>
       </c>
       <c r="J41" t="s">
         <v>49</v>
@@ -14864,10 +14872,10 @@
         <v>131</v>
       </c>
       <c r="AF41" s="17" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AG41" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="42" spans="1:33">
@@ -14878,25 +14886,25 @@
         <v>31</v>
       </c>
       <c r="C42" s="74" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D42" t="s">
         <v>128</v>
       </c>
       <c r="E42" s="65" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F42" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G42" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H42" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="I42" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J42" t="s">
         <v>133</v>
@@ -14924,10 +14932,10 @@
         <v>3</v>
       </c>
       <c r="S42" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="T42" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="U42" t="s">
         <v>5</v>
@@ -14971,13 +14979,13 @@
     </row>
     <row r="43" spans="1:33">
       <c r="A43" s="14" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B43" s="16" t="s">
         <v>31</v>
       </c>
       <c r="C43" s="74" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D43" t="s">
         <v>128</v>
@@ -14989,13 +14997,13 @@
         <v>172</v>
       </c>
       <c r="G43" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H43" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I43" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J43" t="s">
         <v>133</v>
@@ -15070,31 +15078,31 @@
     </row>
     <row r="44" spans="1:33">
       <c r="A44" s="14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B44" s="16" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C44" s="74" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D44" t="s">
         <v>128</v>
       </c>
       <c r="E44" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F44" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G44" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H44" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="I44" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J44" t="s">
         <v>133</v>
@@ -15119,10 +15127,10 @@
       </c>
       <c r="Q44" s="30"/>
       <c r="R44" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="S44" s="77" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="T44" t="s">
         <v>4</v>
@@ -15169,13 +15177,13 @@
     </row>
     <row r="47" spans="1:33">
       <c r="A47" s="107" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B47" s="105" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="C47" s="105" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="D47" t="s">
         <v>128</v>
@@ -15187,13 +15195,13 @@
         <v>111</v>
       </c>
       <c r="G47" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H47" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I47" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="J47" t="s">
         <v>133</v>
@@ -15205,10 +15213,10 @@
         <v>129</v>
       </c>
       <c r="M47" s="88" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="N47" s="77" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O47" s="7" t="s">
         <v>131</v>
@@ -15270,13 +15278,13 @@
     </row>
     <row r="48" spans="1:33">
       <c r="A48" s="14" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B48" s="105" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C48" s="105" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="D48" t="s">
         <v>128</v>
@@ -15285,16 +15293,16 @@
         <v>111</v>
       </c>
       <c r="F48" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G48" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H48" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="I48" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="J48" t="s">
         <v>133</v>
@@ -15306,10 +15314,10 @@
         <v>129</v>
       </c>
       <c r="M48" s="88" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="N48" s="77" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O48" s="7" t="s">
         <v>131</v>
@@ -15371,13 +15379,13 @@
     </row>
     <row r="49" spans="1:33">
       <c r="A49" s="14" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B49" s="105" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C49" s="105" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="D49" t="s">
         <v>128</v>
@@ -15386,16 +15394,16 @@
         <v>111</v>
       </c>
       <c r="F49" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G49" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H49" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="I49" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="J49" t="s">
         <v>133</v>
@@ -15407,10 +15415,10 @@
         <v>129</v>
       </c>
       <c r="M49" s="88" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="N49" s="77" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O49" s="7" t="s">
         <v>131</v>
@@ -15472,13 +15480,13 @@
     </row>
     <row r="50" spans="1:33">
       <c r="A50" s="14" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B50" s="105" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C50" s="105" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="D50" t="s">
         <v>128</v>
@@ -15487,16 +15495,16 @@
         <v>111</v>
       </c>
       <c r="F50" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G50" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H50" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="I50" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="J50" t="s">
         <v>133</v>
@@ -15508,10 +15516,10 @@
         <v>129</v>
       </c>
       <c r="M50" s="88" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="N50" s="77" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O50" s="7" t="s">
         <v>131</v>
@@ -15576,10 +15584,10 @@
         <v>60</v>
       </c>
       <c r="B51" s="105" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C51" s="105" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D51" t="s">
         <v>128</v>
@@ -15588,16 +15596,16 @@
         <v>111</v>
       </c>
       <c r="F51" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G51" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H51" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="I51" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="J51" t="s">
         <v>133</v>
@@ -15609,10 +15617,10 @@
         <v>129</v>
       </c>
       <c r="M51" s="88" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="N51" s="77" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O51" s="7" t="s">
         <v>131</v>
@@ -15677,10 +15685,10 @@
         <v>61</v>
       </c>
       <c r="B52" s="105" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C52" s="105" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D52" t="s">
         <v>128</v>
@@ -15689,16 +15697,16 @@
         <v>111</v>
       </c>
       <c r="F52" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G52" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H52" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="I52" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="J52" t="s">
         <v>133</v>
@@ -15710,10 +15718,10 @@
         <v>129</v>
       </c>
       <c r="M52" s="88" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="N52" s="77" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O52" s="7" t="s">
         <v>131</v>
@@ -15775,13 +15783,13 @@
     </row>
     <row r="53" spans="1:33">
       <c r="A53" s="14" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B53" s="105" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C53" s="105" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D53" t="s">
         <v>128</v>
@@ -15790,16 +15798,16 @@
         <v>111</v>
       </c>
       <c r="F53" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G53" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H53" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="I53" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="J53" t="s">
         <v>133</v>
@@ -15811,10 +15819,10 @@
         <v>129</v>
       </c>
       <c r="M53" s="88" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="N53" s="77" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O53" s="7" t="s">
         <v>131</v>
@@ -15876,13 +15884,13 @@
     </row>
     <row r="54" spans="1:33">
       <c r="A54" s="14" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B54" s="105" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C54" s="105" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="D54" t="s">
         <v>128</v>
@@ -15891,16 +15899,16 @@
         <v>111</v>
       </c>
       <c r="F54" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G54" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H54" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="I54" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="J54" t="s">
         <v>133</v>
@@ -15912,10 +15920,10 @@
         <v>129</v>
       </c>
       <c r="M54" s="88" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="N54" s="77" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O54" s="7" t="s">
         <v>131</v>
@@ -15977,13 +15985,13 @@
     </row>
     <row r="55" spans="1:33">
       <c r="A55" s="107" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B55" s="106" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="C55" s="106" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="D55" t="s">
         <v>128</v>
@@ -15995,13 +16003,13 @@
         <v>111</v>
       </c>
       <c r="G55" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H55" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I55" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="J55" t="s">
         <v>133</v>
@@ -16013,10 +16021,10 @@
         <v>129</v>
       </c>
       <c r="M55" s="88" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="N55" s="77" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O55" s="7" t="s">
         <v>131</v>
@@ -16078,13 +16086,13 @@
     </row>
     <row r="56" spans="1:33">
       <c r="A56" s="14" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B56" s="106" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C56" s="106" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="D56" t="s">
         <v>128</v>
@@ -16093,16 +16101,16 @@
         <v>111</v>
       </c>
       <c r="F56" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G56" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H56" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="I56" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="J56" t="s">
         <v>133</v>
@@ -16114,10 +16122,10 @@
         <v>129</v>
       </c>
       <c r="M56" s="88" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="N56" s="77" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O56" s="7" t="s">
         <v>131</v>
@@ -16179,13 +16187,13 @@
     </row>
     <row r="57" spans="1:33">
       <c r="A57" s="14" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B57" s="106" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C57" s="106" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="D57" t="s">
         <v>128</v>
@@ -16194,16 +16202,16 @@
         <v>111</v>
       </c>
       <c r="F57" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G57" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H57" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="I57" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="J57" t="s">
         <v>133</v>
@@ -16215,10 +16223,10 @@
         <v>129</v>
       </c>
       <c r="M57" s="88" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="N57" s="77" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O57" s="7" t="s">
         <v>131</v>
@@ -16280,13 +16288,13 @@
     </row>
     <row r="58" spans="1:33">
       <c r="A58" s="108" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B58" s="106" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C58" s="106" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="D58" t="s">
         <v>128</v>
@@ -16295,16 +16303,16 @@
         <v>111</v>
       </c>
       <c r="F58" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G58" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H58" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="I58" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="J58" t="s">
         <v>133</v>
@@ -16316,10 +16324,10 @@
         <v>129</v>
       </c>
       <c r="M58" s="88" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="N58" s="77" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O58" s="7" t="s">
         <v>131</v>
@@ -16381,13 +16389,13 @@
     </row>
     <row r="59" spans="1:33">
       <c r="A59" s="14" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B59" s="106" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C59" s="106" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="D59" t="s">
         <v>128</v>
@@ -16396,16 +16404,16 @@
         <v>111</v>
       </c>
       <c r="F59" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G59" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H59" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="I59" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="J59" t="s">
         <v>133</v>
@@ -16417,10 +16425,10 @@
         <v>129</v>
       </c>
       <c r="M59" s="88" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="N59" s="77" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O59" s="7" t="s">
         <v>131</v>
@@ -16482,13 +16490,13 @@
     </row>
     <row r="60" spans="1:33">
       <c r="A60" s="14" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B60" s="106" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C60" s="106" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="D60" t="s">
         <v>128</v>
@@ -16497,16 +16505,16 @@
         <v>111</v>
       </c>
       <c r="F60" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G60" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H60" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="I60" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="J60" t="s">
         <v>133</v>
@@ -16518,10 +16526,10 @@
         <v>129</v>
       </c>
       <c r="M60" s="88" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="N60" s="77" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O60" s="7" t="s">
         <v>131</v>
@@ -16583,13 +16591,13 @@
     </row>
     <row r="61" spans="1:33">
       <c r="A61" s="14" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B61" s="106" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C61" s="106" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="D61" t="s">
         <v>128</v>
@@ -16598,16 +16606,16 @@
         <v>111</v>
       </c>
       <c r="F61" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G61" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H61" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="I61" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="J61" t="s">
         <v>133</v>
@@ -16619,10 +16627,10 @@
         <v>129</v>
       </c>
       <c r="M61" s="88" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="N61" s="77" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O61" s="7" t="s">
         <v>131</v>
@@ -16684,13 +16692,13 @@
     </row>
     <row r="62" spans="1:33">
       <c r="A62" s="107" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B62" s="105" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="C62" s="105" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="D62" t="s">
         <v>128</v>
@@ -16702,13 +16710,13 @@
         <v>111</v>
       </c>
       <c r="G62" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H62" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="I62" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="J62" t="s">
         <v>133</v>
@@ -16720,10 +16728,10 @@
         <v>129</v>
       </c>
       <c r="M62" s="88" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="N62" s="77" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O62" s="7" t="s">
         <v>131</v>
@@ -16785,13 +16793,13 @@
     </row>
     <row r="63" spans="1:33">
       <c r="A63" s="14" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B63" s="105" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C63" s="105" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="D63" t="s">
         <v>128</v>
@@ -16800,16 +16808,16 @@
         <v>111</v>
       </c>
       <c r="F63" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G63" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H63" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="I63" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="J63" t="s">
         <v>133</v>
@@ -16821,10 +16829,10 @@
         <v>129</v>
       </c>
       <c r="M63" s="88" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="N63" s="77" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O63" s="7" t="s">
         <v>131</v>
@@ -16886,13 +16894,13 @@
     </row>
     <row r="64" spans="1:33">
       <c r="A64" s="14" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="B64" s="105" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C64" s="105" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="D64" t="s">
         <v>128</v>
@@ -16901,16 +16909,16 @@
         <v>111</v>
       </c>
       <c r="F64" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G64" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H64" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="I64" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="J64" t="s">
         <v>133</v>
@@ -16922,10 +16930,10 @@
         <v>129</v>
       </c>
       <c r="M64" s="88" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="N64" s="77" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O64" s="7" t="s">
         <v>131</v>
@@ -16987,13 +16995,13 @@
     </row>
     <row r="65" spans="1:35">
       <c r="A65" s="14" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="B65" s="105" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C65" s="105" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="D65" t="s">
         <v>128</v>
@@ -17002,16 +17010,16 @@
         <v>111</v>
       </c>
       <c r="F65" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G65" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H65" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="I65" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="J65" t="s">
         <v>133</v>
@@ -17023,10 +17031,10 @@
         <v>129</v>
       </c>
       <c r="M65" s="88" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="N65" s="77" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O65" s="7" t="s">
         <v>131</v>
@@ -17088,13 +17096,13 @@
     </row>
     <row r="66" spans="1:35">
       <c r="A66" s="14" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="B66" s="105" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C66" s="105" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="D66" t="s">
         <v>128</v>
@@ -17103,16 +17111,16 @@
         <v>111</v>
       </c>
       <c r="F66" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G66" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H66" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="I66" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="J66" t="s">
         <v>133</v>
@@ -17124,10 +17132,10 @@
         <v>129</v>
       </c>
       <c r="M66" s="88" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="N66" s="77" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O66" s="7" t="s">
         <v>131</v>
@@ -17221,39 +17229,45 @@
       <c r="AF67" s="7"/>
       <c r="AG67" s="7"/>
     </row>
+    <row r="68" spans="1:35">
+      <c r="B68" s="111"/>
+      <c r="C68" s="110" t="s">
+        <v>408</v>
+      </c>
+    </row>
     <row r="69" spans="1:35">
-      <c r="B69" s="98" t="s">
-        <v>188</v>
-      </c>
-      <c r="C69" s="75"/>
+      <c r="B69" s="98"/>
+      <c r="C69" s="98" t="s">
+        <v>409</v>
+      </c>
       <c r="AI69" s="40"/>
     </row>
     <row r="70" spans="1:35">
       <c r="B70" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="C70" s="73" t="s">
         <v>244</v>
-      </c>
-      <c r="C70" s="73" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="71" spans="1:35">
       <c r="B71" s="73" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C71" s="29" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="72" spans="1:35">
       <c r="B72" s="87" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C72" s="29" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
-    <row r="74" spans="1:35">
-      <c r="B74" s="63"/>
+    <row r="77" spans="1:35">
+      <c r="C77" s="88"/>
     </row>
     <row r="82" spans="2:2" ht="18">
       <c r="B82" s="71"/>
@@ -20904,10 +20918,11 @@
     <hyperlink ref="M17" r:id="rId8"/>
     <hyperlink ref="M18" r:id="rId9"/>
     <hyperlink ref="M19" r:id="rId10"/>
+    <hyperlink ref="M5" r:id="rId11"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
-  <legacyDrawing r:id="rId12"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId12"/>
+  <legacyDrawing r:id="rId13"/>
 </worksheet>
 </file>
 
@@ -20959,11 +20974,11 @@
       <c r="E2" s="41"/>
       <c r="F2" s="41"/>
       <c r="G2" s="41"/>
-      <c r="H2" s="111"/>
-      <c r="I2" s="111"/>
-      <c r="J2" s="111"/>
-      <c r="K2" s="111"/>
-      <c r="L2" s="111"/>
+      <c r="H2" s="113"/>
+      <c r="I2" s="113"/>
+      <c r="J2" s="113"/>
+      <c r="K2" s="113"/>
+      <c r="L2" s="113"/>
       <c r="M2" s="44"/>
     </row>
     <row r="3" spans="1:13" ht="7.5" customHeight="1">
@@ -20983,21 +20998,21 @@
     </row>
     <row r="4" spans="1:13" s="61" customFormat="1" ht="26.25" customHeight="1">
       <c r="A4" s="60"/>
-      <c r="B4" s="112" t="s">
+      <c r="B4" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="C4" s="112"/>
-      <c r="D4" s="112"/>
-      <c r="E4" s="112"/>
-      <c r="F4" s="112"/>
+      <c r="C4" s="114"/>
+      <c r="D4" s="114"/>
+      <c r="E4" s="114"/>
+      <c r="F4" s="114"/>
       <c r="G4" s="60"/>
-      <c r="H4" s="112" t="s">
+      <c r="H4" s="114" t="s">
         <v>162</v>
       </c>
-      <c r="I4" s="112"/>
-      <c r="J4" s="112"/>
-      <c r="K4" s="112"/>
-      <c r="L4" s="112"/>
+      <c r="I4" s="114"/>
+      <c r="J4" s="114"/>
+      <c r="K4" s="114"/>
+      <c r="L4" s="114"/>
       <c r="M4" s="60"/>
     </row>
     <row r="5" spans="1:13" ht="15">
@@ -21017,15 +21032,15 @@
     </row>
     <row r="6" spans="1:13" ht="30" customHeight="1">
       <c r="A6" s="44"/>
-      <c r="B6" s="114" t="s">
+      <c r="B6" s="116" t="s">
         <v>178</v>
       </c>
-      <c r="C6" s="113"/>
-      <c r="D6" s="113"/>
-      <c r="E6" s="113"/>
+      <c r="C6" s="115"/>
+      <c r="D6" s="115"/>
+      <c r="E6" s="115"/>
       <c r="F6" s="51">
         <f>(J11+K11)/I11</f>
-        <v>0.97560975609756095</v>
+        <v>1</v>
       </c>
       <c r="G6" s="44"/>
       <c r="H6" s="38"/>
@@ -21045,10 +21060,10 @@
     </row>
     <row r="7" spans="1:13" ht="25.5">
       <c r="A7" s="44"/>
-      <c r="B7" s="114"/>
-      <c r="C7" s="113"/>
-      <c r="D7" s="113"/>
-      <c r="E7" s="113"/>
+      <c r="B7" s="116"/>
+      <c r="C7" s="115"/>
+      <c r="D7" s="115"/>
+      <c r="E7" s="115"/>
       <c r="F7" s="52" t="s">
         <v>176</v>
       </c>
@@ -21062,7 +21077,7 @@
       </c>
       <c r="J7" s="39">
         <f>COUNTIFS(Testes!G3:G45,"Passed",Testes!J3:J45,"Android")</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K7" s="39">
         <f>COUNTIFS(Testes!G3:G45,"Failed",Testes!J3:J45,"Android")</f>
@@ -21079,9 +21094,9 @@
         <f>COUNTIF(Testes!A3:A45,"&lt;&gt;"&amp;"")</f>
         <v>42</v>
       </c>
-      <c r="C8" s="113"/>
-      <c r="D8" s="113"/>
-      <c r="E8" s="113"/>
+      <c r="C8" s="115"/>
+      <c r="D8" s="115"/>
+      <c r="E8" s="115"/>
       <c r="F8" s="54"/>
       <c r="G8" s="44"/>
       <c r="H8" s="48" t="s">
@@ -21107,9 +21122,9 @@
     <row r="9" spans="1:13" ht="23.25">
       <c r="A9" s="44"/>
       <c r="B9" s="55"/>
-      <c r="C9" s="113"/>
-      <c r="D9" s="113"/>
-      <c r="E9" s="113"/>
+      <c r="C9" s="115"/>
+      <c r="D9" s="115"/>
+      <c r="E9" s="115"/>
       <c r="F9" s="56">
         <f>SUM(Testes!H3:H45)</f>
         <v>0</v>
@@ -21140,17 +21155,17 @@
       <c r="B10" s="55"/>
       <c r="C10" s="39">
         <f>B8-(D10+E10)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10" s="39">
         <f>J11</f>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E10" s="39">
         <f>K11</f>
         <v>8</v>
       </c>
-      <c r="F10" s="110" t="s">
+      <c r="F10" s="112" t="s">
         <v>179</v>
       </c>
       <c r="G10" s="45"/>
@@ -21173,7 +21188,7 @@
       <c r="E11" s="57" t="s">
         <v>164</v>
       </c>
-      <c r="F11" s="110"/>
+      <c r="F11" s="112"/>
       <c r="G11" s="45"/>
       <c r="H11" s="39" t="s">
         <v>175</v>
@@ -21184,7 +21199,7 @@
       </c>
       <c r="J11" s="39">
         <f>SUM(J7:J9)</f>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K11" s="39">
         <f>SUM(K7:K9)</f>
@@ -21466,7 +21481,7 @@
         <v>93</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>2</v>
@@ -21484,7 +21499,7 @@
         <v>65</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>66</v>
@@ -21537,7 +21552,7 @@
         <v>131</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F2" s="30" t="s">
         <v>147</v>
@@ -21593,7 +21608,7 @@
     </row>
     <row r="3" spans="1:22">
       <c r="A3" s="31" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B3" s="23" t="s">
         <v>168</v>
@@ -21602,10 +21617,10 @@
         <v>167</v>
       </c>
       <c r="D3" s="24" t="s">
+        <v>216</v>
+      </c>
+      <c r="E3" s="25" t="s">
         <v>217</v>
-      </c>
-      <c r="E3" s="25" t="s">
-        <v>218</v>
       </c>
       <c r="F3" s="30" t="s">
         <v>147</v>
@@ -21614,7 +21629,7 @@
         <v>78</v>
       </c>
       <c r="H3" s="26" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I3" s="26" t="s">
         <v>79</v>
@@ -21843,30 +21858,30 @@
       <c r="D32" s="11"/>
     </row>
     <row r="33" spans="1:22">
-      <c r="A33" s="115" t="s">
+      <c r="A33" s="117" t="s">
         <v>95</v>
       </c>
-      <c r="B33" s="115"/>
-      <c r="C33" s="115"/>
-      <c r="D33" s="115"/>
-      <c r="E33" s="115"/>
-      <c r="F33" s="115"/>
-      <c r="G33" s="115"/>
-      <c r="H33" s="115"/>
-      <c r="I33" s="115"/>
-      <c r="J33" s="115"/>
-      <c r="K33" s="115"/>
-      <c r="L33" s="115"/>
-      <c r="M33" s="115"/>
-      <c r="N33" s="115"/>
-      <c r="O33" s="115"/>
-      <c r="P33" s="115"/>
-      <c r="Q33" s="115"/>
-      <c r="R33" s="115"/>
-      <c r="S33" s="115"/>
-      <c r="T33" s="115"/>
-      <c r="U33" s="115"/>
-      <c r="V33" s="115"/>
+      <c r="B33" s="117"/>
+      <c r="C33" s="117"/>
+      <c r="D33" s="117"/>
+      <c r="E33" s="117"/>
+      <c r="F33" s="117"/>
+      <c r="G33" s="117"/>
+      <c r="H33" s="117"/>
+      <c r="I33" s="117"/>
+      <c r="J33" s="117"/>
+      <c r="K33" s="117"/>
+      <c r="L33" s="117"/>
+      <c r="M33" s="117"/>
+      <c r="N33" s="117"/>
+      <c r="O33" s="117"/>
+      <c r="P33" s="117"/>
+      <c r="Q33" s="117"/>
+      <c r="R33" s="117"/>
+      <c r="S33" s="117"/>
+      <c r="T33" s="117"/>
+      <c r="U33" s="117"/>
+      <c r="V33" s="117"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/data/backup/AutoVC.xlsx
+++ b/data/backup/AutoVC.xlsx
@@ -15,8 +15,8 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Testes!$A$1:$AG$48</definedName>
-    <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="3" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT([0]!LOCAL_SECOND_FORMAT,2)</definedName>
-    <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="3" hidden="1"><![CDATA[REPT(LOCAL_YEAR_FORMAT,4)&LOCAL_DATE_SEPARATOR&REPT(LOCAL_MONTH_FORMAT,2)&LOCAL_DATE_SEPARATOR&REPT(LOCAL_DAY_FORMAT,2)&" "&REPT(LOCAL_HOUR_FORMAT,2)&LOCAL_TIME_SEPARATOR&REPT(LOCAL_MINUTE_FORMAT,2)&LOCAL_TIME_SEPARATOR&REPT([0]!LOCAL_SECOND_FORMAT,2)]]></definedName>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1"><![CDATA[REPT(LOCAL_YEAR_FORMAT,4)&LOCAL_DATE_SEPARATOR&REPT(LOCAL_MONTH_FORMAT,2)&LOCAL_DATE_SEPARATOR&REPT(LOCAL_DAY_FORMAT,2)&" "&REPT(LOCAL_HOUR_FORMAT,2)&LOCAL_TIME_SEPARATOR&REPT(LOCAL_MINUTE_FORMAT,2)&LOCAL_TIME_SEPARATOR&REPT(LOCAL_SECOND_FORMAT,2)]]></definedName>
     <definedName name="LOCAL_SECOND_FORMAT" hidden="1">" "</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -106,7 +106,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2270" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2290" uniqueCount="419">
   <si>
     <t>Telefone</t>
   </si>
@@ -1013,346 +1013,358 @@
     <t>00:01:12</t>
   </si>
   <si>
+    <t>00:01:31</t>
+  </si>
+  <si>
+    <t>Falha ao concordar com os termos</t>
+  </si>
+  <si>
+    <t>Selecionar ranking geral.  Validar que ranking está vindo ordenado pelo score dos usuários. ( todos os testes de filtro, os filtros são aplicados mas não é feita validação de ordem de score)</t>
+  </si>
+  <si>
+    <t>00:00:54</t>
+  </si>
+  <si>
+    <t>00:00:48</t>
+  </si>
+  <si>
+    <t>Inicio esperado[Ínicio - 08:57 hs.] recebido[Ínicio - 18:56 hs.]</t>
+  </si>
+  <si>
+    <t>Chegada - 18:56 hs.</t>
+  </si>
+  <si>
+    <t>00:01:48</t>
+  </si>
+  <si>
+    <t>00:01:00</t>
+  </si>
+  <si>
+    <t>00:02:01</t>
+  </si>
+  <si>
+    <t>00:01:34</t>
+  </si>
+  <si>
+    <t>https://autovc.page.link/GcZk</t>
+  </si>
+  <si>
+    <t>00:00:35</t>
+  </si>
+  <si>
+    <t>00:01:16</t>
+  </si>
+  <si>
+    <t>00:01:24</t>
+  </si>
+  <si>
+    <t>Usuário sem viagem - Ordem dos cards</t>
+  </si>
+  <si>
+    <t>Validar que ao logar com um usuário novo, os cards virão na seguinte ordem: Iniciante / Direção / Amizade / Agenda do carro / Check up do carro / Smiles</t>
+  </si>
+  <si>
+    <t>CT46</t>
+  </si>
+  <si>
+    <t>CT47</t>
+  </si>
+  <si>
+    <t>CT48</t>
+  </si>
+  <si>
+    <t>CT49</t>
+  </si>
+  <si>
+    <t>CT52</t>
+  </si>
+  <si>
+    <t>CT53</t>
+  </si>
+  <si>
+    <t>CT54</t>
+  </si>
+  <si>
+    <t>CT55</t>
+  </si>
+  <si>
+    <t>CT56</t>
+  </si>
+  <si>
+    <t>CT57</t>
+  </si>
+  <si>
+    <t>CT58</t>
+  </si>
+  <si>
+    <t>CT59</t>
+  </si>
+  <si>
+    <t>CT60</t>
+  </si>
+  <si>
+    <t>CT61</t>
+  </si>
+  <si>
+    <t>CT62</t>
+  </si>
+  <si>
+    <t>Usuário sem viagem - Card Desconto para iniciante</t>
+  </si>
+  <si>
+    <t>Validar que o  status do card é "Pendente"</t>
+  </si>
+  <si>
+    <t>Usuário sem viagem - Card Desconto por direção</t>
+  </si>
+  <si>
+    <t>Validar que o status  da progress bar é "0/20" e "0/300"</t>
+  </si>
+  <si>
+    <t>Usuário sem viagem - Card Desconto de amizade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validar que o status  da progress bar é "0/3" </t>
+  </si>
+  <si>
+    <t>Usuário sem viagem - Card Agenda do carro</t>
+  </si>
+  <si>
+    <t>Usuário sem viagem - Card Check up do carro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validar que o status  da progress bar é "0/15" </t>
+  </si>
+  <si>
+    <t>Usuário sem viagem - Card Smiles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validar que o status  da progress bar é "Fechar seguro com desconto de direção" </t>
+  </si>
+  <si>
+    <t>Usuário sem viagem - Brinde Iniciante</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validar que o status  do brinde é "Pendente" </t>
+  </si>
+  <si>
+    <t>Usuário sem viagem - Brinde Direção</t>
+  </si>
+  <si>
+    <t>Usuário sem viagem - Brinde Amizade</t>
+  </si>
+  <si>
+    <t>Usuário sem viagem - Brinde Agenda</t>
+  </si>
+  <si>
+    <t>Usuário sem viagem - Brinde Check Up</t>
+  </si>
+  <si>
+    <t>Usuário sem viagem - Brinde Smiles</t>
+  </si>
+  <si>
+    <t>Usuário sem viagem - Cupom Desconto Seguro</t>
+  </si>
+  <si>
+    <t>Usuário sem viagem - Cupom Agenda</t>
+  </si>
+  <si>
+    <t>Usuário sem viagem - Cupom Check up</t>
+  </si>
+  <si>
+    <t>Usuário sem viagem - Cupom Smiles</t>
+  </si>
+  <si>
+    <t>Login Email Manipulado 3 viagens &lt;70</t>
+  </si>
+  <si>
+    <t>Realizar login utilizando E-mail com viagens</t>
+  </si>
+  <si>
+    <t>Realizar login utilizando E-mail sem viagens</t>
+  </si>
+  <si>
+    <t>Realizar login utilizando E-mail viagens em andamento</t>
+  </si>
+  <si>
+    <t>30/07/2021</t>
+  </si>
+  <si>
+    <t>Captura tela dos cards</t>
+  </si>
+  <si>
+    <t>Captura tela dos cupons</t>
+  </si>
+  <si>
+    <t>CT63</t>
+  </si>
+  <si>
+    <t>CT64</t>
+  </si>
+  <si>
+    <t>CT65</t>
+  </si>
+  <si>
+    <t>00:00:06</t>
+  </si>
+  <si>
+    <t>28/07/2022</t>
+  </si>
+  <si>
+    <t>00:00:07</t>
+  </si>
+  <si>
+    <t>28/07/2023</t>
+  </si>
+  <si>
+    <t>00:00:08</t>
+  </si>
+  <si>
+    <t>28/07/2024</t>
+  </si>
+  <si>
+    <t>00:00:09</t>
+  </si>
+  <si>
+    <t>28/07/2025</t>
+  </si>
+  <si>
+    <t>00:00:10</t>
+  </si>
+  <si>
+    <t>28/07/2026</t>
+  </si>
+  <si>
+    <t>00:00:11</t>
+  </si>
+  <si>
+    <t>28/07/2027</t>
+  </si>
+  <si>
+    <t>00:00:13</t>
+  </si>
+  <si>
+    <t>28/07/2029</t>
+  </si>
+  <si>
+    <t>00:00:14</t>
+  </si>
+  <si>
+    <t>28/07/2030</t>
+  </si>
+  <si>
+    <t>00:00:15</t>
+  </si>
+  <si>
+    <t>28/07/2031</t>
+  </si>
+  <si>
+    <t>00:00:16</t>
+  </si>
+  <si>
+    <t>28/07/2032</t>
+  </si>
+  <si>
+    <t>00:00:17</t>
+  </si>
+  <si>
+    <t>28/07/2033</t>
+  </si>
+  <si>
+    <t>00:00:18</t>
+  </si>
+  <si>
+    <t>28/07/2034</t>
+  </si>
+  <si>
+    <t>00:00:20</t>
+  </si>
+  <si>
+    <t>28/07/2036</t>
+  </si>
+  <si>
+    <t>00:00:21</t>
+  </si>
+  <si>
+    <t>28/07/2037</t>
+  </si>
+  <si>
+    <t>00:00:22</t>
+  </si>
+  <si>
+    <t>28/07/2038</t>
+  </si>
+  <si>
+    <t>00:00:23</t>
+  </si>
+  <si>
+    <t>28/07/2039</t>
+  </si>
+  <si>
+    <t>Usuario sem viagem - Cards</t>
+  </si>
+  <si>
+    <t>Usuario sem viagem - Brindes</t>
+  </si>
+  <si>
+    <t>Usuario sem viagem - Cupons</t>
+  </si>
+  <si>
+    <t>00:00:38</t>
+  </si>
+  <si>
+    <t>02/08/2021</t>
+  </si>
+  <si>
+    <t>Selecionar o brinde 1 (Agenda do carro).  Validar tela, textos e links deste brinde. Teste Botão Car10</t>
+  </si>
+  <si>
+    <t>00:01:49</t>
+  </si>
+  <si>
+    <t>Selecionar o brinde 2 (Check Up Automotivo). Validar tela, textos e links deste brinde. Teste Botão Car10</t>
+  </si>
+  <si>
+    <t>00:00:47</t>
+  </si>
+  <si>
+    <t>efetuar reteste para refatoração ou validação de defeito</t>
+  </si>
+  <si>
+    <t>é necessário alterar a massa de dados alterada antes da execução</t>
+  </si>
+  <si>
+    <t>03/08/2021</t>
+  </si>
+  <si>
+    <t>00:01:09</t>
+  </si>
+  <si>
+    <t>1.0.0.1662005</t>
+  </si>
+  <si>
+    <t>00:01:43</t>
+  </si>
+  <si>
+    <t>00:00:57</t>
+  </si>
+  <si>
+    <t>Não esta na tela inicial</t>
+  </si>
+  <si>
     <t>Falha ao abrir manifestação</t>
   </si>
   <si>
-    <t>00:02:08</t>
-  </si>
-  <si>
-    <t>00:01:31</t>
-  </si>
-  <si>
-    <t>Falha ao concordar com os termos</t>
-  </si>
-  <si>
-    <t>Selecionar ranking geral.  Validar que ranking está vindo ordenado pelo score dos usuários. ( todos os testes de filtro, os filtros são aplicados mas não é feita validação de ordem de score)</t>
-  </si>
-  <si>
-    <t>00:00:54</t>
-  </si>
-  <si>
-    <t>00:00:48</t>
-  </si>
-  <si>
-    <t>Inicio esperado[Ínicio - 08:57 hs.] recebido[Ínicio - 18:56 hs.]</t>
-  </si>
-  <si>
-    <t>Chegada - 18:56 hs.</t>
-  </si>
-  <si>
-    <t>00:01:48</t>
-  </si>
-  <si>
-    <t>00:01:00</t>
-  </si>
-  <si>
-    <t>00:02:01</t>
-  </si>
-  <si>
-    <t>00:01:34</t>
-  </si>
-  <si>
-    <t>https://autovc.page.link/GcZk</t>
-  </si>
-  <si>
-    <t>00:00:35</t>
-  </si>
-  <si>
-    <t>00:01:16</t>
-  </si>
-  <si>
-    <t>00:01:24</t>
-  </si>
-  <si>
-    <t>Usuário sem viagem - Ordem dos cards</t>
-  </si>
-  <si>
-    <t>Validar que ao logar com um usuário novo, os cards virão na seguinte ordem: Iniciante / Direção / Amizade / Agenda do carro / Check up do carro / Smiles</t>
-  </si>
-  <si>
-    <t>CT46</t>
-  </si>
-  <si>
-    <t>CT47</t>
-  </si>
-  <si>
-    <t>CT48</t>
-  </si>
-  <si>
-    <t>CT49</t>
-  </si>
-  <si>
-    <t>CT52</t>
-  </si>
-  <si>
-    <t>CT53</t>
-  </si>
-  <si>
-    <t>CT54</t>
-  </si>
-  <si>
-    <t>CT55</t>
-  </si>
-  <si>
-    <t>CT56</t>
-  </si>
-  <si>
-    <t>CT57</t>
-  </si>
-  <si>
-    <t>CT58</t>
-  </si>
-  <si>
-    <t>CT59</t>
-  </si>
-  <si>
-    <t>CT60</t>
-  </si>
-  <si>
-    <t>CT61</t>
-  </si>
-  <si>
-    <t>CT62</t>
-  </si>
-  <si>
-    <t>Usuário sem viagem - Card Desconto para iniciante</t>
-  </si>
-  <si>
-    <t>Validar que o  status do card é "Pendente"</t>
-  </si>
-  <si>
-    <t>Usuário sem viagem - Card Desconto por direção</t>
-  </si>
-  <si>
-    <t>Validar que o status  da progress bar é "0/20" e "0/300"</t>
-  </si>
-  <si>
-    <t>Usuário sem viagem - Card Desconto de amizade</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Validar que o status  da progress bar é "0/3" </t>
-  </si>
-  <si>
-    <t>Usuário sem viagem - Card Agenda do carro</t>
-  </si>
-  <si>
-    <t>Usuário sem viagem - Card Check up do carro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Validar que o status  da progress bar é "0/15" </t>
-  </si>
-  <si>
-    <t>Usuário sem viagem - Card Smiles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Validar que o status  da progress bar é "Fechar seguro com desconto de direção" </t>
-  </si>
-  <si>
-    <t>Usuário sem viagem - Brinde Iniciante</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Validar que o status  do brinde é "Pendente" </t>
-  </si>
-  <si>
-    <t>Usuário sem viagem - Brinde Direção</t>
-  </si>
-  <si>
-    <t>Usuário sem viagem - Brinde Amizade</t>
-  </si>
-  <si>
-    <t>Usuário sem viagem - Brinde Agenda</t>
-  </si>
-  <si>
-    <t>Usuário sem viagem - Brinde Check Up</t>
-  </si>
-  <si>
-    <t>Usuário sem viagem - Brinde Smiles</t>
-  </si>
-  <si>
-    <t>Usuário sem viagem - Cupom Desconto Seguro</t>
-  </si>
-  <si>
-    <t>Usuário sem viagem - Cupom Agenda</t>
-  </si>
-  <si>
-    <t>Usuário sem viagem - Cupom Check up</t>
-  </si>
-  <si>
-    <t>Usuário sem viagem - Cupom Smiles</t>
-  </si>
-  <si>
-    <t>Login Email Manipulado 3 viagens &lt;70</t>
-  </si>
-  <si>
-    <t>Realizar login utilizando E-mail com viagens</t>
-  </si>
-  <si>
-    <t>Realizar login utilizando E-mail sem viagens</t>
-  </si>
-  <si>
-    <t>Realizar login utilizando E-mail viagens em andamento</t>
-  </si>
-  <si>
-    <t>30/07/2021</t>
-  </si>
-  <si>
-    <t>Captura tela dos cards</t>
-  </si>
-  <si>
-    <t>Captura tela dos cupons</t>
-  </si>
-  <si>
-    <t>CT63</t>
-  </si>
-  <si>
-    <t>CT64</t>
-  </si>
-  <si>
-    <t>CT65</t>
-  </si>
-  <si>
-    <t>00:00:06</t>
-  </si>
-  <si>
-    <t>28/07/2022</t>
-  </si>
-  <si>
-    <t>00:00:07</t>
-  </si>
-  <si>
-    <t>28/07/2023</t>
-  </si>
-  <si>
-    <t>00:00:08</t>
-  </si>
-  <si>
-    <t>28/07/2024</t>
-  </si>
-  <si>
-    <t>00:00:09</t>
-  </si>
-  <si>
-    <t>28/07/2025</t>
-  </si>
-  <si>
-    <t>00:00:10</t>
-  </si>
-  <si>
-    <t>28/07/2026</t>
-  </si>
-  <si>
-    <t>00:00:11</t>
-  </si>
-  <si>
-    <t>28/07/2027</t>
-  </si>
-  <si>
-    <t>00:00:13</t>
-  </si>
-  <si>
-    <t>28/07/2029</t>
-  </si>
-  <si>
-    <t>00:00:14</t>
-  </si>
-  <si>
-    <t>28/07/2030</t>
-  </si>
-  <si>
-    <t>00:00:15</t>
-  </si>
-  <si>
-    <t>28/07/2031</t>
-  </si>
-  <si>
-    <t>00:00:16</t>
-  </si>
-  <si>
-    <t>28/07/2032</t>
-  </si>
-  <si>
-    <t>00:00:17</t>
-  </si>
-  <si>
-    <t>28/07/2033</t>
-  </si>
-  <si>
-    <t>00:00:18</t>
-  </si>
-  <si>
-    <t>28/07/2034</t>
-  </si>
-  <si>
-    <t>00:00:20</t>
-  </si>
-  <si>
-    <t>28/07/2036</t>
-  </si>
-  <si>
-    <t>00:00:21</t>
-  </si>
-  <si>
-    <t>28/07/2037</t>
-  </si>
-  <si>
-    <t>00:00:22</t>
-  </si>
-  <si>
-    <t>28/07/2038</t>
-  </si>
-  <si>
-    <t>00:00:23</t>
-  </si>
-  <si>
-    <t>28/07/2039</t>
-  </si>
-  <si>
-    <t>Usuario sem viagem - Cards</t>
-  </si>
-  <si>
-    <t>Usuario sem viagem - Brindes</t>
-  </si>
-  <si>
-    <t>Usuario sem viagem - Cupons</t>
-  </si>
-  <si>
-    <t>00:00:38</t>
-  </si>
-  <si>
-    <t>02/08/2021</t>
-  </si>
-  <si>
-    <t>Selecionar o brinde 1 (Agenda do carro).  Validar tela, textos e links deste brinde. Teste Botão Car10</t>
-  </si>
-  <si>
-    <t>00:01:49</t>
-  </si>
-  <si>
-    <t>Selecionar o brinde 2 (Check Up Automotivo). Validar tela, textos e links deste brinde. Teste Botão Car10</t>
-  </si>
-  <si>
-    <t>00:00:47</t>
-  </si>
-  <si>
-    <t>efetuar reteste para refatoração ou validação de defeito</t>
-  </si>
-  <si>
-    <t>é necessário alterar a massa de dados alterada antes da execução</t>
-  </si>
-  <si>
-    <t>03/08/2021</t>
-  </si>
-  <si>
-    <t>00:01:09</t>
-  </si>
-  <si>
-    <t>1.0.0.1662005</t>
-  </si>
-  <si>
-    <t>00:01:43</t>
-  </si>
-  <si>
-    <t>00:00:57</t>
+    <t>00:02:11</t>
+  </si>
+  <si>
+    <t>04/08/2021</t>
+  </si>
+  <si>
+    <t>00:00:59</t>
+  </si>
+  <si>
+    <t>00:01:03</t>
   </si>
 </sst>
 </file>
@@ -10770,43 +10782,43 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
+      <selection pane="bottomLeft" activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="7.42578125" style="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="38.85546875" style="9" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="121.140625" style="73" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9.5703125" style="29" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="43.5703125" style="9" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="35.7109375" style="9" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11" style="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="11.7109375" style="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14" style="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="10.7109375" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="12" width="12.7109375" style="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="26.85546875" style="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="15.140625" style="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="23.28515625" style="9" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="8.28515625" style="9" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="12" style="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="23.5703125" style="9" customWidth="1" collapsed="1"/>
-    <col min="19" max="20" width="15" style="9" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="12" style="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="15.140625" style="9" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="13.28515625" style="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="23.85546875" style="9" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="24.5703125" style="9" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="19.140625" style="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="17.5703125" style="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="25.7109375" style="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="17.7109375" style="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="19.28515625" style="9" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="24" style="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="14" style="13" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="15.28515625" style="13" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="16384" width="9.140625" style="13" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="9" width="7.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="9" width="38.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="73" width="121.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="29" width="9.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="9" width="43.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="9" width="35.7109375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="9" width="11.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="9" width="11.7109375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="9" width="14.0" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="7" width="10.7109375" collapsed="true"/>
+    <col min="11" max="12" bestFit="true" customWidth="true" style="9" width="12.7109375" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="9" width="26.85546875" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="9" width="15.140625" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="9" width="23.28515625" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" style="9" width="8.28515625" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="9" width="12.0" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" style="9" width="23.5703125" collapsed="true"/>
+    <col min="19" max="20" customWidth="true" style="9" width="15.0" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="9" width="12.0" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" style="9" width="15.140625" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" style="9" width="13.28515625" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" style="9" width="23.85546875" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" style="9" width="24.5703125" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="9" width="19.140625" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="9" width="17.5703125" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" style="9" width="25.7109375" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" style="9" width="17.7109375" collapsed="true"/>
+    <col min="30" max="30" customWidth="true" style="9" width="19.28515625" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" style="9" width="24.0" collapsed="true"/>
+    <col min="32" max="32" customWidth="true" style="13" width="14.0" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" style="13" width="15.28515625" collapsed="true"/>
+    <col min="34" max="16384" style="13" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" s="12" customFormat="1">
@@ -10933,10 +10945,10 @@
         <v>232</v>
       </c>
       <c r="H2" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="I2" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="J2" t="s">
         <v>133</v>
@@ -10987,7 +10999,7 @@
         <v>131</v>
       </c>
       <c r="Z2" s="92" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="AA2" s="10">
         <v>44096</v>
@@ -11019,7 +11031,7 @@
         <v>30</v>
       </c>
       <c r="C3" s="93" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D3" t="s">
         <v>128</v>
@@ -11034,10 +11046,10 @@
         <v>232</v>
       </c>
       <c r="H3" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="I3" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="J3" t="s">
         <v>133</v>
@@ -11120,7 +11132,7 @@
         <v>292</v>
       </c>
       <c r="C4" s="93" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D4" t="s">
         <v>128</v>
@@ -11135,10 +11147,10 @@
         <v>232</v>
       </c>
       <c r="H4" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="I4" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="J4" t="s">
         <v>133</v>
@@ -11218,10 +11230,10 @@
         <v>257</v>
       </c>
       <c r="B5" s="104" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C5" s="93" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D5" t="s">
         <v>128</v>
@@ -11239,7 +11251,7 @@
         <v>283</v>
       </c>
       <c r="I5" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="J5" t="s">
         <v>133</v>
@@ -11321,7 +11333,7 @@
       <c r="B6" s="16" t="s">
         <v>186</v>
       </c>
-      <c r="C6" s="94" t="s">
+      <c r="C6" s="74" t="s">
         <v>187</v>
       </c>
       <c r="D6" t="s">
@@ -11337,10 +11349,10 @@
         <v>232</v>
       </c>
       <c r="H6" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="I6" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="J6" t="s">
         <v>133</v>
@@ -11422,7 +11434,7 @@
       <c r="B7" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="94" t="s">
+      <c r="C7" s="74" t="s">
         <v>17</v>
       </c>
       <c r="D7" t="s">
@@ -11441,7 +11453,7 @@
         <v>284</v>
       </c>
       <c r="I7" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="J7" t="s">
         <v>133</v>
@@ -11533,16 +11545,16 @@
         <v>111</v>
       </c>
       <c r="F8" t="s">
-        <v>288</v>
+        <v>413</v>
       </c>
       <c r="G8" t="s">
         <v>231</v>
       </c>
       <c r="H8" t="s">
-        <v>240</v>
+        <v>286</v>
       </c>
       <c r="I8" t="s">
-        <v>289</v>
+        <v>408</v>
       </c>
       <c r="J8" t="s">
         <v>133</v>
@@ -12427,7 +12439,7 @@
         <v>42</v>
       </c>
       <c r="C17" s="74" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D17" t="s">
         <v>128</v>
@@ -12442,10 +12454,10 @@
         <v>232</v>
       </c>
       <c r="H17" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="I17" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="J17" t="s">
         <v>133</v>
@@ -12528,7 +12540,7 @@
         <v>43</v>
       </c>
       <c r="C18" s="74" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D18" t="s">
         <v>128</v>
@@ -12543,10 +12555,10 @@
         <v>232</v>
       </c>
       <c r="H18" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="I18" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="J18" t="s">
         <v>133</v>
@@ -12644,10 +12656,10 @@
         <v>232</v>
       </c>
       <c r="H19" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="I19" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="J19" t="s">
         <v>133</v>
@@ -12739,22 +12751,22 @@
         <v>111</v>
       </c>
       <c r="F20" t="s">
-        <v>301</v>
+        <v>414</v>
       </c>
       <c r="G20" t="s">
         <v>231</v>
       </c>
       <c r="H20" t="s">
-        <v>302</v>
+        <v>284</v>
       </c>
       <c r="I20" t="s">
-        <v>294</v>
+        <v>416</v>
       </c>
       <c r="J20" t="s">
         <v>133</v>
       </c>
       <c r="K20" s="22" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L20" s="22" t="s">
         <v>129</v>
@@ -12831,7 +12843,7 @@
         <v>50</v>
       </c>
       <c r="C21" s="97" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D21" t="s">
         <v>128</v>
@@ -12846,7 +12858,7 @@
         <v>232</v>
       </c>
       <c r="H21" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="I21" t="s">
         <v>294</v>
@@ -13244,7 +13256,7 @@
         <v>111</v>
       </c>
       <c r="F25" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G25" t="s">
         <v>231</v>
@@ -13452,7 +13464,7 @@
         <v>232</v>
       </c>
       <c r="H27" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="I27" t="s">
         <v>294</v>
@@ -13553,7 +13565,7 @@
         <v>232</v>
       </c>
       <c r="H28" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="I28" t="s">
         <v>294</v>
@@ -13645,16 +13657,16 @@
         <v>128</v>
       </c>
       <c r="E29" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F29" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G29" t="s">
         <v>232</v>
       </c>
       <c r="H29" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="I29" t="s">
         <v>294</v>
@@ -13720,7 +13732,7 @@
         <v>276</v>
       </c>
       <c r="AD29" s="7" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="AE29" s="7" t="s">
         <v>277</v>
@@ -13755,7 +13767,7 @@
         <v>232</v>
       </c>
       <c r="H30" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="I30" t="s">
         <v>294</v>
@@ -14095,7 +14107,7 @@
         <v>232</v>
       </c>
       <c r="H34" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="I34" t="s">
         <v>294</v>
@@ -14295,7 +14307,7 @@
         <v>232</v>
       </c>
       <c r="H36" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I36" t="s">
         <v>294</v>
@@ -14396,7 +14408,7 @@
         <v>232</v>
       </c>
       <c r="H37" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="I37" t="s">
         <v>294</v>
@@ -14417,7 +14429,7 @@
         <v>131</v>
       </c>
       <c r="O37" s="79" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="P37" s="7" t="s">
         <v>131</v>
@@ -14598,7 +14610,7 @@
         <v>231</v>
       </c>
       <c r="H39" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="I39" t="s">
         <v>294</v>
@@ -14901,7 +14913,7 @@
         <v>232</v>
       </c>
       <c r="H42" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="I42" t="s">
         <v>294</v>
@@ -15099,7 +15111,7 @@
         <v>232</v>
       </c>
       <c r="H44" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="I44" t="s">
         <v>294</v>
@@ -15177,13 +15189,13 @@
     </row>
     <row r="47" spans="1:33">
       <c r="A47" s="107" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B47" s="105" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C47" s="105" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D47" t="s">
         <v>128</v>
@@ -15201,7 +15213,7 @@
         <v>240</v>
       </c>
       <c r="I47" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="J47" t="s">
         <v>133</v>
@@ -15278,13 +15290,13 @@
     </row>
     <row r="48" spans="1:33">
       <c r="A48" s="14" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B48" s="105" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C48" s="105" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D48" t="s">
         <v>128</v>
@@ -15379,13 +15391,13 @@
     </row>
     <row r="49" spans="1:33">
       <c r="A49" s="14" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B49" s="105" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C49" s="105" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D49" t="s">
         <v>128</v>
@@ -15400,10 +15412,10 @@
         <v>231</v>
       </c>
       <c r="H49" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="I49" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="J49" t="s">
         <v>133</v>
@@ -15480,13 +15492,13 @@
     </row>
     <row r="50" spans="1:33">
       <c r="A50" s="14" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B50" s="105" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C50" s="105" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D50" t="s">
         <v>128</v>
@@ -15501,10 +15513,10 @@
         <v>231</v>
       </c>
       <c r="H50" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="I50" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="J50" t="s">
         <v>133</v>
@@ -15584,10 +15596,10 @@
         <v>60</v>
       </c>
       <c r="B51" s="105" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C51" s="105" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D51" t="s">
         <v>128</v>
@@ -15602,10 +15614,10 @@
         <v>231</v>
       </c>
       <c r="H51" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I51" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="J51" t="s">
         <v>133</v>
@@ -15685,10 +15697,10 @@
         <v>61</v>
       </c>
       <c r="B52" s="105" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C52" s="105" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D52" t="s">
         <v>128</v>
@@ -15703,10 +15715,10 @@
         <v>231</v>
       </c>
       <c r="H52" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="I52" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="J52" t="s">
         <v>133</v>
@@ -15783,13 +15795,13 @@
     </row>
     <row r="53" spans="1:33">
       <c r="A53" s="14" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B53" s="105" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C53" s="105" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D53" t="s">
         <v>128</v>
@@ -15804,10 +15816,10 @@
         <v>231</v>
       </c>
       <c r="H53" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="I53" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="J53" t="s">
         <v>133</v>
@@ -15884,13 +15896,13 @@
     </row>
     <row r="54" spans="1:33">
       <c r="A54" s="14" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B54" s="105" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C54" s="105" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D54" t="s">
         <v>128</v>
@@ -15905,10 +15917,10 @@
         <v>231</v>
       </c>
       <c r="H54" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="I54" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="J54" t="s">
         <v>133</v>
@@ -15985,13 +15997,13 @@
     </row>
     <row r="55" spans="1:33">
       <c r="A55" s="107" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B55" s="106" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C55" s="106" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D55" t="s">
         <v>128</v>
@@ -16009,7 +16021,7 @@
         <v>269</v>
       </c>
       <c r="I55" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="J55" t="s">
         <v>133</v>
@@ -16086,13 +16098,13 @@
     </row>
     <row r="56" spans="1:33">
       <c r="A56" s="14" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B56" s="106" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C56" s="106" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D56" t="s">
         <v>128</v>
@@ -16107,10 +16119,10 @@
         <v>231</v>
       </c>
       <c r="H56" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="I56" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="J56" t="s">
         <v>133</v>
@@ -16187,13 +16199,13 @@
     </row>
     <row r="57" spans="1:33">
       <c r="A57" s="14" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B57" s="106" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C57" s="106" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D57" t="s">
         <v>128</v>
@@ -16208,10 +16220,10 @@
         <v>231</v>
       </c>
       <c r="H57" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="I57" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J57" t="s">
         <v>133</v>
@@ -16288,13 +16300,13 @@
     </row>
     <row r="58" spans="1:33">
       <c r="A58" s="108" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B58" s="106" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C58" s="106" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D58" t="s">
         <v>128</v>
@@ -16309,10 +16321,10 @@
         <v>231</v>
       </c>
       <c r="H58" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="I58" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="J58" t="s">
         <v>133</v>
@@ -16389,13 +16401,13 @@
     </row>
     <row r="59" spans="1:33">
       <c r="A59" s="14" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B59" s="106" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C59" s="106" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D59" t="s">
         <v>128</v>
@@ -16410,10 +16422,10 @@
         <v>231</v>
       </c>
       <c r="H59" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="I59" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="J59" t="s">
         <v>133</v>
@@ -16490,13 +16502,13 @@
     </row>
     <row r="60" spans="1:33">
       <c r="A60" s="14" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B60" s="106" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C60" s="106" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D60" t="s">
         <v>128</v>
@@ -16511,10 +16523,10 @@
         <v>231</v>
       </c>
       <c r="H60" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="I60" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="J60" t="s">
         <v>133</v>
@@ -16591,13 +16603,13 @@
     </row>
     <row r="61" spans="1:33">
       <c r="A61" s="14" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B61" s="106" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C61" s="106" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D61" t="s">
         <v>128</v>
@@ -16612,10 +16624,10 @@
         <v>231</v>
       </c>
       <c r="H61" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="I61" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="J61" t="s">
         <v>133</v>
@@ -16692,13 +16704,13 @@
     </row>
     <row r="62" spans="1:33">
       <c r="A62" s="107" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B62" s="105" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C62" s="105" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D62" t="s">
         <v>128</v>
@@ -16713,10 +16725,10 @@
         <v>232</v>
       </c>
       <c r="H62" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="I62" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="J62" t="s">
         <v>133</v>
@@ -16793,13 +16805,13 @@
     </row>
     <row r="63" spans="1:33">
       <c r="A63" s="14" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B63" s="105" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C63" s="105" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D63" t="s">
         <v>128</v>
@@ -16814,10 +16826,10 @@
         <v>231</v>
       </c>
       <c r="H63" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="I63" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="J63" t="s">
         <v>133</v>
@@ -16894,13 +16906,13 @@
     </row>
     <row r="64" spans="1:33">
       <c r="A64" s="14" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B64" s="105" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C64" s="105" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D64" t="s">
         <v>128</v>
@@ -16915,10 +16927,10 @@
         <v>231</v>
       </c>
       <c r="H64" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="I64" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="J64" t="s">
         <v>133</v>
@@ -16995,13 +17007,13 @@
     </row>
     <row r="65" spans="1:35">
       <c r="A65" s="14" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B65" s="105" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C65" s="105" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D65" t="s">
         <v>128</v>
@@ -17016,10 +17028,10 @@
         <v>231</v>
       </c>
       <c r="H65" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="I65" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="J65" t="s">
         <v>133</v>
@@ -17096,13 +17108,13 @@
     </row>
     <row r="66" spans="1:35">
       <c r="A66" s="14" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B66" s="105" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C66" s="105" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D66" t="s">
         <v>128</v>
@@ -17117,10 +17129,10 @@
         <v>231</v>
       </c>
       <c r="H66" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="I66" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="J66" t="s">
         <v>133</v>
@@ -17232,13 +17244,13 @@
     <row r="68" spans="1:35">
       <c r="B68" s="111"/>
       <c r="C68" s="110" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="69" spans="1:35">
       <c r="B69" s="98"/>
       <c r="C69" s="98" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="AI69" s="40"/>
     </row>
@@ -20937,16 +20949,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="1.5703125" style="37" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14.5703125" style="37" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.85546875" style="37" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="5" width="15.85546875" style="37" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="19.28515625" style="37" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="1.5703125" style="37" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="15.85546875" style="37" customWidth="1" collapsed="1"/>
-    <col min="9" max="12" width="13.42578125" style="37" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="1.5703125" style="37" customWidth="1" collapsed="1"/>
-    <col min="14" max="16384" width="9.140625" style="37" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="37" width="1.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="37" width="14.5703125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="37" width="15.85546875" collapsed="true"/>
+    <col min="4" max="5" customWidth="true" style="37" width="15.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="37" width="19.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="37" width="1.5703125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="37" width="15.85546875" collapsed="true"/>
+    <col min="9" max="12" customWidth="true" style="37" width="13.42578125" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="37" width="1.5703125" collapsed="true"/>
+    <col min="14" max="16384" style="37" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="7.5" customHeight="1">
@@ -21290,9 +21302,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="29.5703125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="38.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="8.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" customWidth="true" width="29.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="38.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="8.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -21445,29 +21457,29 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="35.5703125" style="9" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="9.28515625" style="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="7.85546875" style="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="25.5703125" style="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12" style="13" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="20.140625" style="13" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="21.5703125" style="13" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="19.28515625" style="13" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.5703125" style="13" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="20.28515625" style="13" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="13.85546875" style="13" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="19" style="13" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="8.5703125" style="13" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="3.42578125" style="13" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="18.5703125" style="13" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="13.5703125" style="13" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="12" style="13" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="24.5703125" style="13" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="13.85546875" style="13" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="11.85546875" style="13" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="20.140625" style="13" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="20.42578125" style="13" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="16384" width="9.140625" style="13" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="9" width="35.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="9" width="9.28515625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="9" width="7.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="9" width="25.5703125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="13" width="12.0" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="13" width="20.140625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="13" width="21.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="13" width="19.28515625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="13" width="15.5703125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="13" width="20.28515625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="13" width="13.85546875" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="13" width="19.0" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="13" width="8.5703125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="13" width="3.42578125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="13" width="18.5703125" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="13" width="13.5703125" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="13" width="12.0" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="13" width="24.5703125" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" style="13" width="13.85546875" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="13" width="11.85546875" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="13" width="20.140625" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="13" width="20.42578125" collapsed="true"/>
+    <col min="23" max="16384" style="13" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" s="12" customFormat="1">
@@ -21921,11 +21933,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="10.5703125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.85546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.7109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11.28515625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="61.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="61.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">

--- a/data/backup/AutoVC.xlsx
+++ b/data/backup/AutoVC.xlsx
@@ -106,7 +106,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2315" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2342" uniqueCount="427">
   <si>
     <t>Telefone</t>
   </si>
@@ -1395,13 +1395,13 @@
     <t>CT70</t>
   </si>
   <si>
+    <t>Usuario com 3 viagens - Brinde Desconto Iniciante</t>
+  </si>
+  <si>
+    <t>Captura brinde desconto para iniciantes</t>
+  </si>
+  <si>
     <t>00:00:33</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>00:00:00</t>
   </si>
 </sst>
 </file>
@@ -2092,7 +2092,67 @@
     <cellStyle name="Porcentagem" xfId="3" builtinId="5"/>
     <cellStyle name="Vírgula" xfId="4" builtinId="3"/>
   </cellStyles>
-  <dxfs count="903">
+  <dxfs count="910">
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C6500"/>
@@ -10508,8 +10568,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="902"/>
-      <tableStyleElement type="headerRow" dxfId="901"/>
+      <tableStyleElement type="wholeTable" dxfId="909"/>
+      <tableStyleElement type="headerRow" dxfId="908"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -10821,13 +10881,13 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="7.42578125" style="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="38.85546875" style="9" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="45.7109375" style="9" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="121.140625" style="73" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="9.5703125" style="29" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="43.5703125" style="9" customWidth="1" collapsed="1"/>
@@ -11679,7 +11739,7 @@
         <v>416</v>
       </c>
       <c r="D9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>111</v>
@@ -11691,7 +11751,7 @@
         <v>232</v>
       </c>
       <c r="H9" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="I9" t="s">
         <v>411</v>
@@ -11773,48 +11833,102 @@
       <c r="A10" s="14" t="s">
         <v>225</v>
       </c>
-      <c r="B10" s="16"/>
-      <c r="C10" s="93"/>
+      <c r="B10" s="16" t="s">
+        <v>424</v>
+      </c>
+      <c r="C10" s="93" t="s">
+        <v>425</v>
+      </c>
       <c r="D10" t="s">
-        <v>128</v>
-      </c>
-      <c r="E10" s="5"/>
+        <v>129</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="F10" t="s">
-        <v>425</v>
+        <v>111</v>
       </c>
       <c r="G10" t="s">
         <v>232</v>
       </c>
       <c r="H10" t="s">
-        <v>426</v>
+        <v>392</v>
       </c>
       <c r="I10" t="s">
         <v>411</v>
       </c>
-      <c r="J10"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="62"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
-      <c r="S10" s="7"/>
-      <c r="T10" s="7"/>
-      <c r="U10" s="7"/>
-      <c r="V10" s="7"/>
-      <c r="W10" s="7"/>
-      <c r="X10" s="7"/>
-      <c r="Y10" s="7"/>
-      <c r="Z10" s="7"/>
-      <c r="AA10" s="7"/>
-      <c r="AB10" s="7"/>
-      <c r="AC10" s="7"/>
-      <c r="AD10" s="7"/>
-      <c r="AE10" s="7"/>
-      <c r="AF10" s="7"/>
-      <c r="AG10" s="7"/>
+      <c r="J10" t="s">
+        <v>133</v>
+      </c>
+      <c r="K10" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="L10" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="M10" s="88" t="s">
+        <v>289</v>
+      </c>
+      <c r="N10" s="77" t="s">
+        <v>252</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q10" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="R10" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="S10" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="T10" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="U10" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="V10" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="W10" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="X10" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y10" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="Z10" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="AA10" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="AB10" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="AC10" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="AD10" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="AE10" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="AF10" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="AG10" s="7" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="11" spans="1:33">
       <c r="A11" s="14" t="s">
@@ -17504,3632 +17618,3661 @@
   </sheetData>
   <autoFilter ref="A1:AG53"/>
   <conditionalFormatting sqref="I14 F16:H16 F11:H12 F48:H48 G47:I47 F31:H32 G14:H21 F41:I46 F35:I39 F18:H29 F53:I59 F61:I66 F68:I72 F6:I7">
-    <cfRule type="containsText" dxfId="900" priority="2431" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="907" priority="2438" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",F6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="899" priority="2432" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="906" priority="2439" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",F6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I39">
-    <cfRule type="containsText" dxfId="898" priority="2423" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="905" priority="2430" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",I39)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="897" priority="2424" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="904" priority="2431" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",I39)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="containsText" dxfId="896" priority="2415" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="903" priority="2422" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",I11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="895" priority="2416" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="902" priority="2423" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",I11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="containsText" dxfId="894" priority="2407" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="901" priority="2414" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",I12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="893" priority="2408" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="900" priority="2415" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",I12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15">
-    <cfRule type="containsText" dxfId="892" priority="2403" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="899" priority="2410" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",I15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="891" priority="2404" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="898" priority="2411" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",I15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I16">
-    <cfRule type="containsText" dxfId="890" priority="2395" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="897" priority="2402" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",I16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="889" priority="2396" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="896" priority="2403" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",I16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I17:I18">
-    <cfRule type="containsText" dxfId="888" priority="2387" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="895" priority="2394" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",I17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="887" priority="2388" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="894" priority="2395" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",I17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I19">
-    <cfRule type="containsText" dxfId="886" priority="2383" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="893" priority="2390" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",I19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="885" priority="2384" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="892" priority="2391" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",I19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20">
-    <cfRule type="containsText" dxfId="884" priority="2379" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="891" priority="2386" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",I20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="883" priority="2380" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="890" priority="2387" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",I20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I41">
-    <cfRule type="containsText" dxfId="882" priority="2375" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="889" priority="2382" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",I41)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="881" priority="2376" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="888" priority="2383" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",I41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I23">
-    <cfRule type="containsText" dxfId="880" priority="2371" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="887" priority="2378" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",I23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="879" priority="2372" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="886" priority="2379" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",I23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I22">
-    <cfRule type="containsText" dxfId="878" priority="2367" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="885" priority="2374" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",I22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="877" priority="2368" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="884" priority="2375" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",I22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I25">
-    <cfRule type="containsText" dxfId="876" priority="2363" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="883" priority="2370" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",I25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="875" priority="2364" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="882" priority="2371" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",I25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I26">
-    <cfRule type="containsText" dxfId="874" priority="2357" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="881" priority="2364" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",I26)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="873" priority="2358" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="880" priority="2365" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",I26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I27">
-    <cfRule type="containsText" dxfId="872" priority="2353" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="879" priority="2360" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",I27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="871" priority="2354" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="878" priority="2361" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",I27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I28">
-    <cfRule type="containsText" dxfId="870" priority="2349" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="877" priority="2356" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",I28)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="869" priority="2350" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="876" priority="2357" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",I28)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I42">
-    <cfRule type="containsText" dxfId="868" priority="2345" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="875" priority="2352" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",I42)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="867" priority="2346" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="874" priority="2353" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",I42)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I43">
-    <cfRule type="containsText" dxfId="866" priority="2337" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="873" priority="2344" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",I43)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="865" priority="2338" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="872" priority="2345" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",I43)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I46">
-    <cfRule type="containsText" dxfId="864" priority="2329" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="871" priority="2336" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",I46)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="863" priority="2330" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="870" priority="2337" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",I46)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I44">
-    <cfRule type="containsText" dxfId="862" priority="2325" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="869" priority="2332" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",I44)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="861" priority="2326" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="868" priority="2333" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",I44)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I21">
-    <cfRule type="containsText" dxfId="860" priority="2321" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="867" priority="2328" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",I21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="859" priority="2322" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="866" priority="2329" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",I21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I24">
-    <cfRule type="containsText" dxfId="858" priority="2317" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="865" priority="2324" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",I24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="857" priority="2318" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="864" priority="2325" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",I24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I29">
-    <cfRule type="containsText" dxfId="856" priority="2313" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="863" priority="2320" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",I29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="855" priority="2314" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="862" priority="2321" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",I29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I32">
-    <cfRule type="containsText" dxfId="854" priority="2309" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="861" priority="2316" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",I32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="853" priority="2310" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="860" priority="2317" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",I32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I31">
-    <cfRule type="containsText" dxfId="852" priority="2305" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="859" priority="2312" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",I31)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="851" priority="2306" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="858" priority="2313" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",I31)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I35:I36">
-    <cfRule type="containsText" dxfId="850" priority="2301" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="857" priority="2308" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",I35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="849" priority="2302" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="856" priority="2309" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",I35)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I37:I38">
-    <cfRule type="containsText" dxfId="848" priority="2297" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="855" priority="2304" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",I37)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="847" priority="2298" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="854" priority="2305" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",I37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I45">
-    <cfRule type="containsText" dxfId="846" priority="2293" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="853" priority="2300" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",I45)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="845" priority="2294" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="852" priority="2301" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",I45)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I48">
-    <cfRule type="containsText" dxfId="844" priority="2257" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="851" priority="2264" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",I48)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="843" priority="2258" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="850" priority="2265" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",I48)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K43:L44 K48:L48 L31:L32 L41 L35:L39 K14:L23 D25:D49 L24:L29 K24 K53:L59 D53:D59 K61:L66 K68:L72 K6:L7 D61:D66 D68:D72 D6:D7 K11:L12">
-    <cfRule type="containsText" dxfId="842" priority="2249" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="849" priority="2256" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="841" priority="2250" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="848" priority="2257" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K31:K32">
-    <cfRule type="containsText" dxfId="840" priority="2145" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="847" priority="2152" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",K31)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="839" priority="2146" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="846" priority="2153" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",K31)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J14:J15 J31:J32 J41 J35:J39 J17:J29 J53:J59 J61:J66 J68:J72 J6:J7 J11:J12">
-    <cfRule type="containsText" dxfId="838" priority="2136" operator="containsText" text="Android">
+    <cfRule type="containsText" dxfId="845" priority="2143" operator="containsText" text="Android">
       <formula>NOT(ISERROR(SEARCH("Android",J6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J14:J15 J31:J32 J41 J35:J39 J17:J29 J53:J59 J61:J66 J68:J72 J6:J7 J11:J12">
-    <cfRule type="containsText" dxfId="837" priority="2134" operator="containsText" text="Web">
+    <cfRule type="containsText" dxfId="844" priority="2141" operator="containsText" text="Web">
       <formula>NOT(ISERROR(SEARCH("Web",J6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="836" priority="2135" operator="containsText" text="iOS">
+    <cfRule type="containsText" dxfId="843" priority="2142" operator="containsText" text="iOS">
       <formula>NOT(ISERROR(SEARCH("iOS",J6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J43">
-    <cfRule type="containsText" dxfId="835" priority="2127" operator="containsText" text="Android">
+    <cfRule type="containsText" dxfId="842" priority="2134" operator="containsText" text="Android">
       <formula>NOT(ISERROR(SEARCH("Android",J43)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J43">
-    <cfRule type="containsText" dxfId="834" priority="2125" operator="containsText" text="Web">
+    <cfRule type="containsText" dxfId="841" priority="2132" operator="containsText" text="Web">
       <formula>NOT(ISERROR(SEARCH("Web",J43)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="833" priority="2126" operator="containsText" text="iOS">
+    <cfRule type="containsText" dxfId="840" priority="2133" operator="containsText" text="iOS">
       <formula>NOT(ISERROR(SEARCH("iOS",J43)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J44">
-    <cfRule type="containsText" dxfId="832" priority="2124" operator="containsText" text="Android">
+    <cfRule type="containsText" dxfId="839" priority="2131" operator="containsText" text="Android">
       <formula>NOT(ISERROR(SEARCH("Android",J44)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J44">
-    <cfRule type="containsText" dxfId="831" priority="2122" operator="containsText" text="Web">
+    <cfRule type="containsText" dxfId="838" priority="2129" operator="containsText" text="Web">
       <formula>NOT(ISERROR(SEARCH("Web",J44)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="830" priority="2123" operator="containsText" text="iOS">
+    <cfRule type="containsText" dxfId="837" priority="2130" operator="containsText" text="iOS">
       <formula>NOT(ISERROR(SEARCH("iOS",J44)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J48">
-    <cfRule type="containsText" dxfId="829" priority="2109" operator="containsText" text="Android">
+    <cfRule type="containsText" dxfId="836" priority="2116" operator="containsText" text="Android">
       <formula>NOT(ISERROR(SEARCH("Android",J48)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J48">
-    <cfRule type="containsText" dxfId="828" priority="2107" operator="containsText" text="Web">
+    <cfRule type="containsText" dxfId="835" priority="2114" operator="containsText" text="Web">
       <formula>NOT(ISERROR(SEARCH("Web",J48)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="827" priority="2108" operator="containsText" text="iOS">
+    <cfRule type="containsText" dxfId="834" priority="2115" operator="containsText" text="iOS">
       <formula>NOT(ISERROR(SEARCH("iOS",J48)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J42">
-    <cfRule type="containsText" dxfId="826" priority="2106" operator="containsText" text="Android">
+    <cfRule type="containsText" dxfId="833" priority="2113" operator="containsText" text="Android">
       <formula>NOT(ISERROR(SEARCH("Android",J42)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J42">
-    <cfRule type="containsText" dxfId="825" priority="2104" operator="containsText" text="Web">
+    <cfRule type="containsText" dxfId="832" priority="2111" operator="containsText" text="Web">
       <formula>NOT(ISERROR(SEARCH("Web",J42)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="824" priority="2105" operator="containsText" text="iOS">
+    <cfRule type="containsText" dxfId="831" priority="2112" operator="containsText" text="iOS">
       <formula>NOT(ISERROR(SEARCH("iOS",J42)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J46">
-    <cfRule type="containsText" dxfId="823" priority="2100" operator="containsText" text="Android">
+    <cfRule type="containsText" dxfId="830" priority="2107" operator="containsText" text="Android">
       <formula>NOT(ISERROR(SEARCH("Android",J46)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J46">
-    <cfRule type="containsText" dxfId="822" priority="2098" operator="containsText" text="Web">
+    <cfRule type="containsText" dxfId="829" priority="2105" operator="containsText" text="Web">
       <formula>NOT(ISERROR(SEARCH("Web",J46)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="821" priority="2099" operator="containsText" text="iOS">
+    <cfRule type="containsText" dxfId="828" priority="2106" operator="containsText" text="iOS">
       <formula>NOT(ISERROR(SEARCH("iOS",J46)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I18">
-    <cfRule type="containsText" dxfId="820" priority="2092" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="827" priority="2099" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",I18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="819" priority="2093" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="826" priority="2100" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",I18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I19">
-    <cfRule type="containsText" dxfId="818" priority="2090" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="825" priority="2097" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",I19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="817" priority="2091" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="824" priority="2098" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",I19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K37:K38">
-    <cfRule type="containsText" dxfId="816" priority="2088" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="823" priority="2095" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",K37)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="815" priority="2089" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="822" priority="2096" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",K37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K35:K36">
-    <cfRule type="containsText" dxfId="814" priority="2086" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="821" priority="2093" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",K35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="813" priority="2087" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="820" priority="2094" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",K35)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J45">
-    <cfRule type="containsText" dxfId="812" priority="2085" operator="containsText" text="Android">
+    <cfRule type="containsText" dxfId="819" priority="2092" operator="containsText" text="Android">
       <formula>NOT(ISERROR(SEARCH("Android",J45)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J45">
-    <cfRule type="containsText" dxfId="811" priority="2083" operator="containsText" text="Web">
+    <cfRule type="containsText" dxfId="818" priority="2090" operator="containsText" text="Web">
       <formula>NOT(ISERROR(SEARCH("Web",J45)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="810" priority="2084" operator="containsText" text="iOS">
+    <cfRule type="containsText" dxfId="817" priority="2091" operator="containsText" text="iOS">
       <formula>NOT(ISERROR(SEARCH("iOS",J45)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L45">
-    <cfRule type="containsText" dxfId="809" priority="2079" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="816" priority="2086" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",L45)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="808" priority="2080" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="815" priority="2087" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",L45)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K45">
-    <cfRule type="containsText" dxfId="807" priority="1989" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="814" priority="1996" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",K45)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="806" priority="1990" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="813" priority="1997" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",K45)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H47">
-    <cfRule type="containsText" dxfId="805" priority="1985" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="812" priority="1992" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",H47)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="804" priority="1986" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="811" priority="1993" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",H47)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I47">
-    <cfRule type="containsText" dxfId="803" priority="1983" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="810" priority="1990" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",I47)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="802" priority="1984" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="809" priority="1991" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",I47)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L47">
-    <cfRule type="containsText" dxfId="801" priority="1981" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="808" priority="1988" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",L47)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="800" priority="1982" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="807" priority="1989" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",L47)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K47">
-    <cfRule type="containsText" dxfId="799" priority="1979" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="806" priority="1986" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",K47)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="798" priority="1980" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="805" priority="1987" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",K47)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J47">
-    <cfRule type="containsText" dxfId="797" priority="1978" operator="containsText" text="Android">
+    <cfRule type="containsText" dxfId="804" priority="1985" operator="containsText" text="Android">
       <formula>NOT(ISERROR(SEARCH("Android",J47)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J47">
-    <cfRule type="containsText" dxfId="796" priority="1976" operator="containsText" text="Web">
+    <cfRule type="containsText" dxfId="803" priority="1983" operator="containsText" text="Web">
       <formula>NOT(ISERROR(SEARCH("Web",J47)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="795" priority="1977" operator="containsText" text="iOS">
+    <cfRule type="containsText" dxfId="802" priority="1984" operator="containsText" text="iOS">
       <formula>NOT(ISERROR(SEARCH("iOS",J47)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G47">
-    <cfRule type="containsText" dxfId="794" priority="1955" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="801" priority="1962" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",G47)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="793" priority="1956" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="800" priority="1963" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",G47)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13:H13">
-    <cfRule type="containsText" dxfId="792" priority="1942" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="799" priority="1949" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",G13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="791" priority="1943" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="798" priority="1950" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",G13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13 I13">
-    <cfRule type="containsText" dxfId="790" priority="1938" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="797" priority="1945" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",F13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="789" priority="1939" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="796" priority="1946" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",F13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K13:L13">
-    <cfRule type="containsText" dxfId="788" priority="1936" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="795" priority="1943" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",K13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="787" priority="1937" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="794" priority="1944" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",K13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J13">
-    <cfRule type="containsText" dxfId="786" priority="1935" operator="containsText" text="Android">
+    <cfRule type="containsText" dxfId="793" priority="1942" operator="containsText" text="Android">
       <formula>NOT(ISERROR(SEARCH("Android",J13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J13">
-    <cfRule type="containsText" dxfId="785" priority="1933" operator="containsText" text="Web">
+    <cfRule type="containsText" dxfId="792" priority="1940" operator="containsText" text="Web">
       <formula>NOT(ISERROR(SEARCH("Web",J13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="784" priority="1934" operator="containsText" text="iOS">
+    <cfRule type="containsText" dxfId="791" priority="1941" operator="containsText" text="iOS">
       <formula>NOT(ISERROR(SEARCH("iOS",J13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:H3">
-    <cfRule type="containsText" dxfId="783" priority="1921" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="790" priority="1928" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",F3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="782" priority="1922" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="789" priority="1929" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",F3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="containsText" dxfId="781" priority="1919" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="788" priority="1926" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",I3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="780" priority="1920" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="787" priority="1927" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",I3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:L3">
-    <cfRule type="containsText" dxfId="779" priority="1917" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="786" priority="1924" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",K3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="778" priority="1918" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="785" priority="1925" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",K3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3">
-    <cfRule type="containsText" dxfId="777" priority="1916" operator="containsText" text="Android">
+    <cfRule type="containsText" dxfId="784" priority="1923" operator="containsText" text="Android">
       <formula>NOT(ISERROR(SEARCH("Android",J3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3">
-    <cfRule type="containsText" dxfId="776" priority="1914" operator="containsText" text="Web">
+    <cfRule type="containsText" dxfId="783" priority="1921" operator="containsText" text="Web">
       <formula>NOT(ISERROR(SEARCH("Web",J3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="775" priority="1915" operator="containsText" text="iOS">
+    <cfRule type="containsText" dxfId="782" priority="1922" operator="containsText" text="iOS">
       <formula>NOT(ISERROR(SEARCH("iOS",J3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F33:H33">
-    <cfRule type="containsText" dxfId="774" priority="1910" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="781" priority="1917" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",F33)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="773" priority="1911" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="780" priority="1918" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",F33)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I33">
-    <cfRule type="containsText" dxfId="772" priority="1908" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="779" priority="1915" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",I33)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="771" priority="1909" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="778" priority="1916" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",I33)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L33">
-    <cfRule type="containsText" dxfId="770" priority="1906" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="777" priority="1913" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",L33)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="769" priority="1907" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="776" priority="1914" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",L33)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K33">
-    <cfRule type="containsText" dxfId="768" priority="1904" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="775" priority="1911" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",K33)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="767" priority="1905" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="774" priority="1912" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",K33)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J33">
-    <cfRule type="containsText" dxfId="766" priority="1903" operator="containsText" text="Android">
+    <cfRule type="containsText" dxfId="773" priority="1910" operator="containsText" text="Android">
       <formula>NOT(ISERROR(SEARCH("Android",J33)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J33">
-    <cfRule type="containsText" dxfId="765" priority="1901" operator="containsText" text="Web">
+    <cfRule type="containsText" dxfId="772" priority="1908" operator="containsText" text="Web">
       <formula>NOT(ISERROR(SEARCH("Web",J33)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="764" priority="1902" operator="containsText" text="iOS">
+    <cfRule type="containsText" dxfId="771" priority="1909" operator="containsText" text="iOS">
       <formula>NOT(ISERROR(SEARCH("iOS",J33)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F30:H30">
-    <cfRule type="containsText" dxfId="763" priority="1899" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="770" priority="1906" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",F30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="762" priority="1900" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="769" priority="1907" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",F30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I30">
-    <cfRule type="containsText" dxfId="761" priority="1897" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="768" priority="1904" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",I30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="760" priority="1898" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="767" priority="1905" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",I30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L30">
-    <cfRule type="containsText" dxfId="759" priority="1895" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="766" priority="1902" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",L30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="758" priority="1896" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="765" priority="1903" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",L30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K30">
-    <cfRule type="containsText" dxfId="757" priority="1893" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="764" priority="1900" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",K30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="756" priority="1894" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="763" priority="1901" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",K30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J30">
-    <cfRule type="containsText" dxfId="755" priority="1892" operator="containsText" text="Android">
+    <cfRule type="containsText" dxfId="762" priority="1899" operator="containsText" text="Android">
       <formula>NOT(ISERROR(SEARCH("Android",J30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J30">
-    <cfRule type="containsText" dxfId="754" priority="1890" operator="containsText" text="Web">
+    <cfRule type="containsText" dxfId="761" priority="1897" operator="containsText" text="Web">
       <formula>NOT(ISERROR(SEARCH("Web",J30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="753" priority="1891" operator="containsText" text="iOS">
+    <cfRule type="containsText" dxfId="760" priority="1898" operator="containsText" text="iOS">
       <formula>NOT(ISERROR(SEARCH("iOS",J30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K25">
-    <cfRule type="containsText" dxfId="752" priority="1882" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="759" priority="1889" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",K25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="751" priority="1883" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="758" priority="1890" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",K25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K26">
-    <cfRule type="containsText" dxfId="750" priority="1880" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="757" priority="1887" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",K26)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="749" priority="1881" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="756" priority="1888" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",K26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F49:H49">
-    <cfRule type="containsText" dxfId="748" priority="1878" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="755" priority="1885" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",F49)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="747" priority="1879" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="754" priority="1886" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",F49)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I49">
-    <cfRule type="containsText" dxfId="746" priority="1876" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="753" priority="1883" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",I49)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="745" priority="1877" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="752" priority="1884" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",I49)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L49">
-    <cfRule type="containsText" dxfId="744" priority="1872" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="751" priority="1879" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",L49)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="743" priority="1873" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="750" priority="1880" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",L49)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K49">
-    <cfRule type="containsText" dxfId="742" priority="1870" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="749" priority="1877" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",K49)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="741" priority="1871" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="748" priority="1878" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",K49)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J49">
-    <cfRule type="containsText" dxfId="740" priority="1869" operator="containsText" text="Android">
+    <cfRule type="containsText" dxfId="747" priority="1876" operator="containsText" text="Android">
       <formula>NOT(ISERROR(SEARCH("Android",J49)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J49">
-    <cfRule type="containsText" dxfId="739" priority="1867" operator="containsText" text="Web">
+    <cfRule type="containsText" dxfId="746" priority="1874" operator="containsText" text="Web">
       <formula>NOT(ISERROR(SEARCH("Web",J49)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="738" priority="1868" operator="containsText" text="iOS">
+    <cfRule type="containsText" dxfId="745" priority="1875" operator="containsText" text="iOS">
       <formula>NOT(ISERROR(SEARCH("iOS",J49)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G46">
-    <cfRule type="containsText" dxfId="737" priority="1832" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="744" priority="1839" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",G46)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="736" priority="1833" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="743" priority="1840" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",G46)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E49">
-    <cfRule type="containsText" dxfId="735" priority="1826" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="742" priority="1833" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",E49)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="734" priority="1827" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="741" priority="1834" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",E49)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K39">
-    <cfRule type="containsText" dxfId="733" priority="1824" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="740" priority="1831" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",K39)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="732" priority="1825" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="739" priority="1832" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",K39)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K29">
-    <cfRule type="containsText" dxfId="731" priority="1764" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="738" priority="1771" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",K29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="730" priority="1765" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="737" priority="1772" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",K29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K28">
-    <cfRule type="containsText" dxfId="729" priority="1762" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="736" priority="1769" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",K28)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="728" priority="1763" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="735" priority="1770" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",K28)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K27">
-    <cfRule type="containsText" dxfId="727" priority="1760" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="734" priority="1767" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",K27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="726" priority="1761" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="733" priority="1768" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",K27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F34:H34">
-    <cfRule type="containsText" dxfId="725" priority="1758" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="732" priority="1765" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",F34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="724" priority="1759" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="731" priority="1766" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",F34)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I34">
-    <cfRule type="containsText" dxfId="723" priority="1756" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="730" priority="1763" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",I34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="722" priority="1757" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="729" priority="1764" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",I34)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L34">
-    <cfRule type="containsText" dxfId="721" priority="1754" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="728" priority="1761" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",L34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="720" priority="1755" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="727" priority="1762" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",L34)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K34">
-    <cfRule type="containsText" dxfId="719" priority="1752" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="726" priority="1759" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",K34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="718" priority="1753" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="725" priority="1760" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",K34)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J34">
-    <cfRule type="containsText" dxfId="717" priority="1751" operator="containsText" text="Android">
+    <cfRule type="containsText" dxfId="724" priority="1758" operator="containsText" text="Android">
       <formula>NOT(ISERROR(SEARCH("Android",J34)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J34">
-    <cfRule type="containsText" dxfId="716" priority="1749" operator="containsText" text="Web">
+    <cfRule type="containsText" dxfId="723" priority="1756" operator="containsText" text="Web">
       <formula>NOT(ISERROR(SEARCH("Web",J34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="715" priority="1750" operator="containsText" text="iOS">
+    <cfRule type="containsText" dxfId="722" priority="1757" operator="containsText" text="iOS">
       <formula>NOT(ISERROR(SEARCH("iOS",J34)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F40:I40">
-    <cfRule type="containsText" dxfId="714" priority="1733" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="721" priority="1740" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",F40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="713" priority="1734" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="720" priority="1741" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",F40)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I40">
-    <cfRule type="containsText" dxfId="712" priority="1731" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="719" priority="1738" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",I40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="711" priority="1732" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="718" priority="1739" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",I40)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L40">
-    <cfRule type="containsText" dxfId="710" priority="1729" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="717" priority="1736" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",L40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="709" priority="1730" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="716" priority="1737" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",L40)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J40">
-    <cfRule type="containsText" dxfId="708" priority="1728" operator="containsText" text="Android">
+    <cfRule type="containsText" dxfId="715" priority="1735" operator="containsText" text="Android">
       <formula>NOT(ISERROR(SEARCH("Android",J40)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J40">
-    <cfRule type="containsText" dxfId="707" priority="1726" operator="containsText" text="Web">
+    <cfRule type="containsText" dxfId="714" priority="1733" operator="containsText" text="Web">
       <formula>NOT(ISERROR(SEARCH("Web",J40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="706" priority="1727" operator="containsText" text="iOS">
+    <cfRule type="containsText" dxfId="713" priority="1734" operator="containsText" text="iOS">
       <formula>NOT(ISERROR(SEARCH("iOS",J40)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K41">
-    <cfRule type="containsText" dxfId="705" priority="1718" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="712" priority="1725" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",K41)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="704" priority="1719" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="711" priority="1726" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",K41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K40">
-    <cfRule type="containsText" dxfId="703" priority="1683" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="710" priority="1690" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",K40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="702" priority="1684" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="709" priority="1691" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",K40)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3 D11:D21">
-    <cfRule type="containsText" dxfId="701" priority="1274" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="708" priority="1281" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="700" priority="1275" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="707" priority="1282" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3 D11:D21">
-    <cfRule type="containsText" dxfId="699" priority="1272" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="706" priority="1279" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="698" priority="1273" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="705" priority="1280" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3 D11:D21">
-    <cfRule type="containsText" dxfId="697" priority="1270" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="704" priority="1277" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="696" priority="1271" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="703" priority="1278" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3 D11:D21">
-    <cfRule type="containsText" dxfId="695" priority="1268" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="702" priority="1275" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="694" priority="1269" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="701" priority="1276" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3 D11:D21">
-    <cfRule type="containsText" dxfId="693" priority="1266" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="700" priority="1273" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="692" priority="1267" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="699" priority="1274" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3 D11:D21">
-    <cfRule type="containsText" dxfId="691" priority="1264" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="698" priority="1271" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="690" priority="1265" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="697" priority="1272" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3 D11:D21">
-    <cfRule type="containsText" dxfId="689" priority="1262" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="696" priority="1269" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="688" priority="1263" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="695" priority="1270" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3 D11:D21">
-    <cfRule type="containsText" dxfId="687" priority="1260" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="694" priority="1267" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="686" priority="1261" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="693" priority="1268" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3 D11:D21">
-    <cfRule type="containsText" dxfId="685" priority="1258" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="692" priority="1265" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="684" priority="1259" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="691" priority="1266" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3 D11:D21">
-    <cfRule type="containsText" dxfId="683" priority="1256" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="690" priority="1263" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="682" priority="1257" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="689" priority="1264" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3 D11:D21">
-    <cfRule type="containsText" dxfId="681" priority="1254" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="688" priority="1261" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="680" priority="1255" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="687" priority="1262" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3 D11:D21">
-    <cfRule type="containsText" dxfId="679" priority="1252" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="686" priority="1259" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="678" priority="1253" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="685" priority="1260" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3 D11:D21">
-    <cfRule type="containsText" dxfId="677" priority="1250" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="684" priority="1257" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="676" priority="1251" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="683" priority="1258" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3 D11:D21">
-    <cfRule type="containsText" dxfId="675" priority="1248" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="682" priority="1255" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="674" priority="1249" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="681" priority="1256" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3 D11:D21">
-    <cfRule type="containsText" dxfId="673" priority="1246" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="680" priority="1253" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="672" priority="1247" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="679" priority="1254" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3 D11:D21">
-    <cfRule type="containsText" dxfId="671" priority="1244" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="678" priority="1251" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="670" priority="1245" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="677" priority="1252" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3 D11:D21">
-    <cfRule type="containsText" dxfId="669" priority="1242" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="676" priority="1249" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="668" priority="1243" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="675" priority="1250" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3 D11:D21">
-    <cfRule type="containsText" dxfId="667" priority="1240" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="674" priority="1247" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="666" priority="1241" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="673" priority="1248" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3 D11:D21">
-    <cfRule type="containsText" dxfId="665" priority="1238" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="672" priority="1245" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="664" priority="1239" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="671" priority="1246" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3 D11:D21">
-    <cfRule type="containsText" dxfId="663" priority="1236" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="670" priority="1243" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="662" priority="1237" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="669" priority="1244" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3 D11:D21">
-    <cfRule type="containsText" dxfId="661" priority="1234" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="668" priority="1241" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="660" priority="1235" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="667" priority="1242" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3 D11:D21">
-    <cfRule type="containsText" dxfId="659" priority="1232" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="666" priority="1239" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="658" priority="1233" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="665" priority="1240" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3 D11:D21">
-    <cfRule type="containsText" dxfId="657" priority="1230" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="664" priority="1237" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="656" priority="1231" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="663" priority="1238" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3 D11:D21">
-    <cfRule type="containsText" dxfId="655" priority="1228" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="662" priority="1235" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="654" priority="1229" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="661" priority="1236" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3 D11:D21">
-    <cfRule type="containsText" dxfId="653" priority="1226" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="660" priority="1233" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="652" priority="1227" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="659" priority="1234" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3 D11:D21">
-    <cfRule type="containsText" dxfId="651" priority="1224" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="658" priority="1231" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="650" priority="1225" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="657" priority="1232" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3 D11:D21">
-    <cfRule type="containsText" dxfId="649" priority="1222" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="656" priority="1229" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="648" priority="1223" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="655" priority="1230" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3 D11:D21">
-    <cfRule type="containsText" dxfId="647" priority="1002" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="654" priority="1009" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="646" priority="1003" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="653" priority="1010" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3 D11:D21">
-    <cfRule type="containsText" dxfId="645" priority="1000" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="652" priority="1007" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="644" priority="1001" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="651" priority="1008" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3 D11:D21">
-    <cfRule type="containsText" dxfId="643" priority="998" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="650" priority="1005" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="642" priority="999" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="649" priority="1006" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3 D11:D21">
-    <cfRule type="containsText" dxfId="641" priority="996" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="648" priority="1003" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="640" priority="997" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="647" priority="1004" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3 D11:D21">
-    <cfRule type="containsText" dxfId="639" priority="994" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="646" priority="1001" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="638" priority="995" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="645" priority="1002" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3 D11:D21">
-    <cfRule type="containsText" dxfId="637" priority="992" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="644" priority="999" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="636" priority="993" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="643" priority="1000" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3 D11:D21">
-    <cfRule type="containsText" dxfId="635" priority="990" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="642" priority="997" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="634" priority="991" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="641" priority="998" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3 D11:D21">
-    <cfRule type="containsText" dxfId="633" priority="988" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="640" priority="995" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="632" priority="989" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="639" priority="996" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3 D11:D21">
-    <cfRule type="containsText" dxfId="631" priority="986" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="638" priority="993" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="630" priority="987" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="637" priority="994" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3 D11:D21">
-    <cfRule type="containsText" dxfId="629" priority="984" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="636" priority="991" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="628" priority="985" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="635" priority="992" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3 D11:D21">
-    <cfRule type="containsText" dxfId="627" priority="982" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="634" priority="989" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="626" priority="983" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="633" priority="990" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3 D11:D21">
-    <cfRule type="containsText" dxfId="625" priority="980" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="632" priority="987" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="624" priority="981" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="631" priority="988" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3 D11:D21">
-    <cfRule type="containsText" dxfId="623" priority="978" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="630" priority="985" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="622" priority="979" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="629" priority="986" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3 D11:D21">
-    <cfRule type="containsText" dxfId="621" priority="976" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="628" priority="983" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="620" priority="977" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="627" priority="984" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3 D11:D21">
-    <cfRule type="containsText" dxfId="619" priority="974" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="626" priority="981" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="618" priority="975" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="625" priority="982" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3 D11:D21">
-    <cfRule type="containsText" dxfId="617" priority="972" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="624" priority="979" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="616" priority="973" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="623" priority="980" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3 D11:D21">
-    <cfRule type="containsText" dxfId="615" priority="970" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="622" priority="977" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="614" priority="971" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="621" priority="978" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3 D11:D21">
-    <cfRule type="containsText" dxfId="613" priority="968" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="620" priority="975" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="612" priority="969" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="619" priority="976" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3 D11:D21">
-    <cfRule type="containsText" dxfId="611" priority="966" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="618" priority="973" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="610" priority="967" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="617" priority="974" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3 D11:D21">
-    <cfRule type="containsText" dxfId="609" priority="964" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="616" priority="971" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="608" priority="965" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="615" priority="972" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3 D11:D21">
-    <cfRule type="containsText" dxfId="607" priority="962" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="614" priority="969" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="606" priority="963" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="613" priority="970" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3 D11:D21">
-    <cfRule type="containsText" dxfId="605" priority="960" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="612" priority="967" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="604" priority="961" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="611" priority="968" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3 D11:D21">
-    <cfRule type="containsText" dxfId="603" priority="958" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="610" priority="965" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="602" priority="959" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="609" priority="966" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3 D11:D21">
-    <cfRule type="containsText" dxfId="601" priority="956" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="608" priority="963" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="600" priority="957" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="607" priority="964" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3 D11:D21">
-    <cfRule type="containsText" dxfId="599" priority="954" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="606" priority="961" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="598" priority="955" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="605" priority="962" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3 D11:D21">
-    <cfRule type="containsText" dxfId="597" priority="952" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="604" priority="959" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="596" priority="953" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="603" priority="960" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3 D11:D21">
-    <cfRule type="containsText" dxfId="595" priority="950" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="602" priority="957" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="594" priority="951" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="601" priority="958" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2">
-    <cfRule type="containsText" dxfId="593" priority="946" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="600" priority="953" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",H2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="592" priority="947" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="599" priority="954" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",H2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2">
+    <cfRule type="containsText" dxfId="598" priority="951" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",I2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="597" priority="952" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",I2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L2">
+    <cfRule type="containsText" dxfId="596" priority="949" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",L2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="595" priority="950" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",L2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2">
+    <cfRule type="containsText" dxfId="594" priority="948" operator="containsText" text="Android">
+      <formula>NOT(ISERROR(SEARCH("Android",J2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2">
+    <cfRule type="containsText" dxfId="593" priority="946" operator="containsText" text="Web">
+      <formula>NOT(ISERROR(SEARCH("Web",J2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="592" priority="947" operator="containsText" text="iOS">
+      <formula>NOT(ISERROR(SEARCH("iOS",J2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2">
     <cfRule type="containsText" dxfId="591" priority="944" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",I2)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Passed",G2)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="590" priority="945" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",I2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L2">
+      <formula>NOT(ISERROR(SEARCH("Failed",G2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2">
     <cfRule type="containsText" dxfId="589" priority="942" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",L2)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Sim",K2)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="588" priority="943" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",L2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J2">
-    <cfRule type="containsText" dxfId="587" priority="941" operator="containsText" text="Android">
-      <formula>NOT(ISERROR(SEARCH("Android",J2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J2">
-    <cfRule type="containsText" dxfId="586" priority="939" operator="containsText" text="Web">
-      <formula>NOT(ISERROR(SEARCH("Web",J2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="585" priority="940" operator="containsText" text="iOS">
-      <formula>NOT(ISERROR(SEARCH("iOS",J2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G2">
-    <cfRule type="containsText" dxfId="584" priority="937" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",G2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="583" priority="938" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",G2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K2">
-    <cfRule type="containsText" dxfId="582" priority="935" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",K2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="581" priority="936" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",K2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="containsText" dxfId="580" priority="933" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="587" priority="940" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="579" priority="934" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="586" priority="941" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="containsText" dxfId="578" priority="931" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="585" priority="938" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="577" priority="932" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="584" priority="939" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="containsText" dxfId="576" priority="929" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="583" priority="936" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="575" priority="930" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="582" priority="937" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="containsText" dxfId="574" priority="927" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="581" priority="934" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="573" priority="928" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="580" priority="935" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="containsText" dxfId="572" priority="925" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="579" priority="932" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="571" priority="926" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="578" priority="933" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="containsText" dxfId="570" priority="923" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="577" priority="930" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="569" priority="924" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="576" priority="931" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="containsText" dxfId="568" priority="921" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="575" priority="928" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="567" priority="922" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="574" priority="929" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="containsText" dxfId="566" priority="919" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="573" priority="926" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="565" priority="920" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="572" priority="927" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="containsText" dxfId="564" priority="917" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="571" priority="924" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="563" priority="918" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="570" priority="925" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="containsText" dxfId="562" priority="915" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="569" priority="922" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="561" priority="916" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="568" priority="923" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="containsText" dxfId="560" priority="913" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="567" priority="920" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="559" priority="914" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="566" priority="921" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="containsText" dxfId="558" priority="911" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="565" priority="918" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="557" priority="912" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="564" priority="919" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="containsText" dxfId="556" priority="909" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="563" priority="916" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="555" priority="910" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="562" priority="917" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="containsText" dxfId="554" priority="907" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="561" priority="914" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="553" priority="908" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="560" priority="915" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="containsText" dxfId="552" priority="905" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="559" priority="912" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="551" priority="906" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="558" priority="913" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="containsText" dxfId="550" priority="903" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="557" priority="910" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="549" priority="904" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="556" priority="911" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="containsText" dxfId="548" priority="901" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="555" priority="908" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="547" priority="902" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="554" priority="909" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="containsText" dxfId="546" priority="899" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="553" priority="906" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="545" priority="900" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="552" priority="907" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="containsText" dxfId="544" priority="897" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="551" priority="904" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="543" priority="898" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="550" priority="905" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="containsText" dxfId="542" priority="895" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="549" priority="902" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="541" priority="896" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="548" priority="903" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="containsText" dxfId="540" priority="893" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="547" priority="900" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="539" priority="894" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="546" priority="901" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="containsText" dxfId="538" priority="891" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="545" priority="898" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="537" priority="892" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="544" priority="899" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="containsText" dxfId="536" priority="889" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="543" priority="896" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="535" priority="890" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="542" priority="897" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="containsText" dxfId="534" priority="887" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="541" priority="894" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="533" priority="888" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="540" priority="895" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="containsText" dxfId="532" priority="885" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="539" priority="892" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="531" priority="886" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="538" priority="893" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="containsText" dxfId="530" priority="883" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="537" priority="890" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="529" priority="884" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="536" priority="891" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="containsText" dxfId="528" priority="881" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="535" priority="888" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="527" priority="882" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="534" priority="889" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22:D24">
-    <cfRule type="containsText" dxfId="526" priority="762" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="533" priority="769" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="525" priority="763" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="532" priority="770" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22:D24">
-    <cfRule type="containsText" dxfId="524" priority="760" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="531" priority="767" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="523" priority="761" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="530" priority="768" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22:D24">
-    <cfRule type="containsText" dxfId="522" priority="758" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="529" priority="765" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="521" priority="759" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="528" priority="766" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22:D24">
-    <cfRule type="containsText" dxfId="520" priority="756" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="527" priority="763" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="519" priority="757" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="526" priority="764" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22:D24">
-    <cfRule type="containsText" dxfId="518" priority="754" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="525" priority="761" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="517" priority="755" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="524" priority="762" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22:D24">
-    <cfRule type="containsText" dxfId="516" priority="752" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="523" priority="759" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="515" priority="753" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="522" priority="760" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22:D24">
-    <cfRule type="containsText" dxfId="514" priority="750" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="521" priority="757" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="513" priority="751" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="520" priority="758" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22:D24">
-    <cfRule type="containsText" dxfId="512" priority="748" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="519" priority="755" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="511" priority="749" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="518" priority="756" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22:D24">
-    <cfRule type="containsText" dxfId="510" priority="746" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="517" priority="753" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="509" priority="747" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="516" priority="754" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22:D24">
-    <cfRule type="containsText" dxfId="508" priority="744" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="515" priority="751" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="507" priority="745" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="514" priority="752" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22:D24">
-    <cfRule type="containsText" dxfId="506" priority="742" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="513" priority="749" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="505" priority="743" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="512" priority="750" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22:D24">
-    <cfRule type="containsText" dxfId="504" priority="740" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="511" priority="747" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="503" priority="741" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="510" priority="748" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22:D24">
-    <cfRule type="containsText" dxfId="502" priority="738" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="509" priority="745" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="501" priority="739" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="508" priority="746" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22:D24">
-    <cfRule type="containsText" dxfId="500" priority="736" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="507" priority="743" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="499" priority="737" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="506" priority="744" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22:D24">
-    <cfRule type="containsText" dxfId="498" priority="734" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="505" priority="741" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="497" priority="735" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="504" priority="742" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22:D24">
-    <cfRule type="containsText" dxfId="496" priority="732" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="503" priority="739" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="495" priority="733" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="502" priority="740" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22:D24">
-    <cfRule type="containsText" dxfId="494" priority="730" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="501" priority="737" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="493" priority="731" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="500" priority="738" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22:D24">
-    <cfRule type="containsText" dxfId="492" priority="728" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="499" priority="735" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="491" priority="729" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="498" priority="736" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22:D24">
-    <cfRule type="containsText" dxfId="490" priority="726" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="497" priority="733" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="489" priority="727" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="496" priority="734" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22:D24">
-    <cfRule type="containsText" dxfId="488" priority="724" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="495" priority="731" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="487" priority="725" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="494" priority="732" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22:D24">
-    <cfRule type="containsText" dxfId="486" priority="722" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="493" priority="729" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="485" priority="723" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="492" priority="730" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22:D24">
-    <cfRule type="containsText" dxfId="484" priority="720" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="491" priority="727" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="483" priority="721" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="490" priority="728" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22:D24">
-    <cfRule type="containsText" dxfId="482" priority="718" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="489" priority="725" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="481" priority="719" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="488" priority="726" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22:D24">
-    <cfRule type="containsText" dxfId="480" priority="716" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="487" priority="723" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="479" priority="717" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="486" priority="724" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22:D24">
-    <cfRule type="containsText" dxfId="478" priority="714" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="485" priority="721" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="477" priority="715" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="484" priority="722" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22:D24">
-    <cfRule type="containsText" dxfId="476" priority="712" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="483" priority="719" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="475" priority="713" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="482" priority="720" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22:D24">
-    <cfRule type="containsText" dxfId="474" priority="710" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="481" priority="717" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="473" priority="711" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="480" priority="718" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J16">
-    <cfRule type="containsText" dxfId="472" priority="709" operator="containsText" text="Android">
+    <cfRule type="containsText" dxfId="479" priority="716" operator="containsText" text="Android">
       <formula>NOT(ISERROR(SEARCH("Android",J16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J16">
-    <cfRule type="containsText" dxfId="471" priority="707" operator="containsText" text="Web">
+    <cfRule type="containsText" dxfId="478" priority="714" operator="containsText" text="Web">
       <formula>NOT(ISERROR(SEARCH("Web",J16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="470" priority="708" operator="containsText" text="iOS">
+    <cfRule type="containsText" dxfId="477" priority="715" operator="containsText" text="iOS">
       <formula>NOT(ISERROR(SEARCH("iOS",J16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:H4">
-    <cfRule type="containsText" dxfId="469" priority="586" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="476" priority="593" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",F4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="468" priority="587" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="475" priority="594" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",F4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="containsText" dxfId="467" priority="584" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="474" priority="591" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",I4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="466" priority="585" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="473" priority="592" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",I4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:L4">
+    <cfRule type="containsText" dxfId="472" priority="589" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",K4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="471" priority="590" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",K4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J4">
+    <cfRule type="containsText" dxfId="470" priority="588" operator="containsText" text="Android">
+      <formula>NOT(ISERROR(SEARCH("Android",J4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J4">
+    <cfRule type="containsText" dxfId="469" priority="586" operator="containsText" text="Web">
+      <formula>NOT(ISERROR(SEARCH("Web",J4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="468" priority="587" operator="containsText" text="iOS">
+      <formula>NOT(ISERROR(SEARCH("iOS",J4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4">
+    <cfRule type="containsText" dxfId="467" priority="584" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="466" priority="585" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4">
     <cfRule type="containsText" dxfId="465" priority="582" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",K4)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="464" priority="583" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",K4)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J4">
-    <cfRule type="containsText" dxfId="463" priority="581" operator="containsText" text="Android">
-      <formula>NOT(ISERROR(SEARCH("Android",J4)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J4">
-    <cfRule type="containsText" dxfId="462" priority="579" operator="containsText" text="Web">
-      <formula>NOT(ISERROR(SEARCH("Web",J4)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="461" priority="580" operator="containsText" text="iOS">
-      <formula>NOT(ISERROR(SEARCH("iOS",J4)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="460" priority="577" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="463" priority="580" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="459" priority="578" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="462" priority="581" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="458" priority="575" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="461" priority="578" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="457" priority="576" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="460" priority="579" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="456" priority="573" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="459" priority="576" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="455" priority="574" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="458" priority="577" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="454" priority="571" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="457" priority="574" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="453" priority="572" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="456" priority="575" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="452" priority="569" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="455" priority="572" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="451" priority="570" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="454" priority="573" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="450" priority="567" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="453" priority="570" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="449" priority="568" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="452" priority="571" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="448" priority="565" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="451" priority="568" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="447" priority="566" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="450" priority="569" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="446" priority="563" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="449" priority="566" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="445" priority="564" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="448" priority="567" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="444" priority="561" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="447" priority="564" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="443" priority="562" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="446" priority="565" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="442" priority="559" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="445" priority="562" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="441" priority="560" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="444" priority="563" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="440" priority="557" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="443" priority="560" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="439" priority="558" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="442" priority="561" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="438" priority="555" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="441" priority="558" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="437" priority="556" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="440" priority="559" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="436" priority="553" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="439" priority="556" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="435" priority="554" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="438" priority="557" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="434" priority="551" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="437" priority="554" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="433" priority="552" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="436" priority="555" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="432" priority="549" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="435" priority="552" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="431" priority="550" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="434" priority="553" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="430" priority="547" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="433" priority="550" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="429" priority="548" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="432" priority="551" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="428" priority="545" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="431" priority="548" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="427" priority="546" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="430" priority="549" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="426" priority="543" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="429" priority="546" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="425" priority="544" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="428" priority="547" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="424" priority="541" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="427" priority="544" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="423" priority="542" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="426" priority="545" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="422" priority="539" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="425" priority="542" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="421" priority="540" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="424" priority="543" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="420" priority="537" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="423" priority="540" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="419" priority="538" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="422" priority="541" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="418" priority="535" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="421" priority="538" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="417" priority="536" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="420" priority="539" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="416" priority="533" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="419" priority="536" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="415" priority="534" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="418" priority="537" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="414" priority="531" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="417" priority="534" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="413" priority="532" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="416" priority="535" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="412" priority="529" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="415" priority="532" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="411" priority="530" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="414" priority="533" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="410" priority="527" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="413" priority="530" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="409" priority="528" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="412" priority="531" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="408" priority="525" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="411" priority="528" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="407" priority="526" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="410" priority="529" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="406" priority="523" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="409" priority="526" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="405" priority="524" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="408" priority="527" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="404" priority="521" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="407" priority="524" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="403" priority="522" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="406" priority="525" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="402" priority="519" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="405" priority="522" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="401" priority="520" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="404" priority="523" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="400" priority="517" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="403" priority="520" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="399" priority="518" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="402" priority="521" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="398" priority="515" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="401" priority="518" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="397" priority="516" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="400" priority="519" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="396" priority="513" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="399" priority="516" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="395" priority="514" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="398" priority="517" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="394" priority="511" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="397" priority="514" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="393" priority="512" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="396" priority="515" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="392" priority="509" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="395" priority="512" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="391" priority="510" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="394" priority="513" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="390" priority="507" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="393" priority="510" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="389" priority="508" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="392" priority="511" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="388" priority="505" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="391" priority="508" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="387" priority="506" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="390" priority="509" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="386" priority="503" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="389" priority="506" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="385" priority="504" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="388" priority="507" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="384" priority="501" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="387" priority="504" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="383" priority="502" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="386" priority="505" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="382" priority="499" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="385" priority="502" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="381" priority="500" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="384" priority="503" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="380" priority="497" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="383" priority="500" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="379" priority="498" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="382" priority="501" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="378" priority="495" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="381" priority="498" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="377" priority="496" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="380" priority="499" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="376" priority="493" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="379" priority="496" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="375" priority="494" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="378" priority="497" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="374" priority="491" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="377" priority="494" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="373" priority="492" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="376" priority="495" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="372" priority="489" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="375" priority="492" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="371" priority="490" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="374" priority="493" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="370" priority="487" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="373" priority="490" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="369" priority="488" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="372" priority="491" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="368" priority="485" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="371" priority="488" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="367" priority="486" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="370" priority="489" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="366" priority="483" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="369" priority="486" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="365" priority="484" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="368" priority="487" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="364" priority="481" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="367" priority="484" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="363" priority="482" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="366" priority="485" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="362" priority="479" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="365" priority="482" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="361" priority="480" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="364" priority="483" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="360" priority="477" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="363" priority="480" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="359" priority="478" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="362" priority="481" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="358" priority="475" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="361" priority="478" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="357" priority="476" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="360" priority="479" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="356" priority="473" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="355" priority="474" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="354" priority="471" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="353" priority="472" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E34">
-    <cfRule type="containsText" dxfId="352" priority="352" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="359" priority="359" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",E34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="351" priority="353" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="358" priority="360" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",E34)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F8:H8 F10:H10">
-    <cfRule type="containsText" dxfId="350" priority="350" operator="containsText" text="Passed">
+  <conditionalFormatting sqref="F8:H8">
+    <cfRule type="containsText" dxfId="357" priority="357" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",F8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="349" priority="351" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="356" priority="358" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",F8)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I8 I10">
-    <cfRule type="containsText" dxfId="348" priority="348" operator="containsText" text="Passed">
+  <conditionalFormatting sqref="I8">
+    <cfRule type="containsText" dxfId="355" priority="355" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",I8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="347" priority="349" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="354" priority="356" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",I8)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K8:L8 K10:L10">
+  <conditionalFormatting sqref="K8:L8">
+    <cfRule type="containsText" dxfId="353" priority="353" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",K8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="352" priority="354" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",K8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J8">
+    <cfRule type="containsText" dxfId="351" priority="352" operator="containsText" text="Android">
+      <formula>NOT(ISERROR(SEARCH("Android",J8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J8">
+    <cfRule type="containsText" dxfId="350" priority="350" operator="containsText" text="Web">
+      <formula>NOT(ISERROR(SEARCH("Web",J8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="349" priority="351" operator="containsText" text="iOS">
+      <formula>NOT(ISERROR(SEARCH("iOS",J8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8">
+    <cfRule type="containsText" dxfId="348" priority="348" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",D8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="347" priority="349" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",D8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8">
     <cfRule type="containsText" dxfId="346" priority="346" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",K8)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Sim",D8)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="345" priority="347" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",K8)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J8 J10">
-    <cfRule type="containsText" dxfId="344" priority="345" operator="containsText" text="Android">
-      <formula>NOT(ISERROR(SEARCH("Android",J8)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J8 J10">
-    <cfRule type="containsText" dxfId="343" priority="343" operator="containsText" text="Web">
-      <formula>NOT(ISERROR(SEARCH("Web",J8)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="342" priority="344" operator="containsText" text="iOS">
-      <formula>NOT(ISERROR(SEARCH("iOS",J8)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D8 D10">
-    <cfRule type="containsText" dxfId="341" priority="341" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Não",D8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8">
+    <cfRule type="containsText" dxfId="344" priority="344" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="340" priority="342" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="343" priority="345" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D8 D10">
-    <cfRule type="containsText" dxfId="339" priority="339" operator="containsText" text="Sim">
+  <conditionalFormatting sqref="D8">
+    <cfRule type="containsText" dxfId="342" priority="342" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="338" priority="340" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="341" priority="343" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D8 D10">
-    <cfRule type="containsText" dxfId="337" priority="337" operator="containsText" text="Sim">
+  <conditionalFormatting sqref="D8">
+    <cfRule type="containsText" dxfId="340" priority="340" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="336" priority="338" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="339" priority="341" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D8 D10">
-    <cfRule type="containsText" dxfId="335" priority="335" operator="containsText" text="Sim">
+  <conditionalFormatting sqref="D8">
+    <cfRule type="containsText" dxfId="338" priority="338" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="334" priority="336" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="337" priority="339" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D8 D10">
-    <cfRule type="containsText" dxfId="333" priority="333" operator="containsText" text="Sim">
+  <conditionalFormatting sqref="D8">
+    <cfRule type="containsText" dxfId="336" priority="336" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="332" priority="334" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="335" priority="337" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D8 D10">
-    <cfRule type="containsText" dxfId="331" priority="331" operator="containsText" text="Sim">
+  <conditionalFormatting sqref="D8">
+    <cfRule type="containsText" dxfId="334" priority="334" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="330" priority="332" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="333" priority="335" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D8 D10">
-    <cfRule type="containsText" dxfId="329" priority="329" operator="containsText" text="Sim">
+  <conditionalFormatting sqref="D8">
+    <cfRule type="containsText" dxfId="332" priority="332" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="328" priority="330" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="331" priority="333" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D8 D10">
-    <cfRule type="containsText" dxfId="327" priority="327" operator="containsText" text="Sim">
+  <conditionalFormatting sqref="D8">
+    <cfRule type="containsText" dxfId="330" priority="330" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="326" priority="328" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="329" priority="331" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D8 D10">
-    <cfRule type="containsText" dxfId="325" priority="325" operator="containsText" text="Sim">
+  <conditionalFormatting sqref="D8">
+    <cfRule type="containsText" dxfId="328" priority="328" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="324" priority="326" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="327" priority="329" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D8 D10">
-    <cfRule type="containsText" dxfId="323" priority="323" operator="containsText" text="Sim">
+  <conditionalFormatting sqref="D8">
+    <cfRule type="containsText" dxfId="326" priority="326" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="322" priority="324" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="325" priority="327" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D8 D10">
-    <cfRule type="containsText" dxfId="321" priority="321" operator="containsText" text="Sim">
+  <conditionalFormatting sqref="D8">
+    <cfRule type="containsText" dxfId="324" priority="324" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="320" priority="322" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="323" priority="325" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D8 D10">
-    <cfRule type="containsText" dxfId="319" priority="319" operator="containsText" text="Sim">
+  <conditionalFormatting sqref="D8">
+    <cfRule type="containsText" dxfId="322" priority="322" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="318" priority="320" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="321" priority="323" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D8 D10">
-    <cfRule type="containsText" dxfId="317" priority="317" operator="containsText" text="Sim">
+  <conditionalFormatting sqref="D8">
+    <cfRule type="containsText" dxfId="320" priority="320" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="316" priority="318" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="319" priority="321" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D8 D10">
-    <cfRule type="containsText" dxfId="315" priority="315" operator="containsText" text="Sim">
+  <conditionalFormatting sqref="D8">
+    <cfRule type="containsText" dxfId="318" priority="318" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="314" priority="316" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="317" priority="319" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D8 D10">
-    <cfRule type="containsText" dxfId="313" priority="313" operator="containsText" text="Sim">
+  <conditionalFormatting sqref="D8">
+    <cfRule type="containsText" dxfId="316" priority="316" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="312" priority="314" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="315" priority="317" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D8 D10">
-    <cfRule type="containsText" dxfId="311" priority="311" operator="containsText" text="Sim">
+  <conditionalFormatting sqref="D8">
+    <cfRule type="containsText" dxfId="314" priority="314" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="310" priority="312" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="313" priority="315" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D8 D10">
-    <cfRule type="containsText" dxfId="309" priority="309" operator="containsText" text="Sim">
+  <conditionalFormatting sqref="D8">
+    <cfRule type="containsText" dxfId="312" priority="312" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="308" priority="310" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="311" priority="313" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D8 D10">
-    <cfRule type="containsText" dxfId="307" priority="307" operator="containsText" text="Sim">
+  <conditionalFormatting sqref="D8">
+    <cfRule type="containsText" dxfId="310" priority="310" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="306" priority="308" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="309" priority="311" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D8 D10">
-    <cfRule type="containsText" dxfId="305" priority="305" operator="containsText" text="Sim">
+  <conditionalFormatting sqref="D8">
+    <cfRule type="containsText" dxfId="308" priority="308" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="304" priority="306" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="307" priority="309" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D8 D10">
-    <cfRule type="containsText" dxfId="303" priority="303" operator="containsText" text="Sim">
+  <conditionalFormatting sqref="D8">
+    <cfRule type="containsText" dxfId="306" priority="306" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="302" priority="304" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="305" priority="307" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D8 D10">
-    <cfRule type="containsText" dxfId="301" priority="301" operator="containsText" text="Sim">
+  <conditionalFormatting sqref="D8">
+    <cfRule type="containsText" dxfId="304" priority="304" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="300" priority="302" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="303" priority="305" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D8 D10">
-    <cfRule type="containsText" dxfId="299" priority="299" operator="containsText" text="Sim">
+  <conditionalFormatting sqref="D8">
+    <cfRule type="containsText" dxfId="302" priority="302" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="298" priority="300" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="301" priority="303" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D8 D10">
-    <cfRule type="containsText" dxfId="297" priority="297" operator="containsText" text="Sim">
+  <conditionalFormatting sqref="D8">
+    <cfRule type="containsText" dxfId="300" priority="300" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="296" priority="298" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="299" priority="301" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D8 D10">
-    <cfRule type="containsText" dxfId="295" priority="295" operator="containsText" text="Sim">
+  <conditionalFormatting sqref="D8">
+    <cfRule type="containsText" dxfId="298" priority="298" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="294" priority="296" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="297" priority="299" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D8 D10">
-    <cfRule type="containsText" dxfId="293" priority="293" operator="containsText" text="Sim">
+  <conditionalFormatting sqref="D8">
+    <cfRule type="containsText" dxfId="296" priority="296" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="292" priority="294" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="295" priority="297" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D8 D10">
-    <cfRule type="containsText" dxfId="291" priority="291" operator="containsText" text="Sim">
+  <conditionalFormatting sqref="D8">
+    <cfRule type="containsText" dxfId="294" priority="294" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="290" priority="292" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="293" priority="295" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D8 D10">
-    <cfRule type="containsText" dxfId="289" priority="289" operator="containsText" text="Sim">
+  <conditionalFormatting sqref="D8">
+    <cfRule type="containsText" dxfId="292" priority="292" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="288" priority="290" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="291" priority="293" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D8 D10">
-    <cfRule type="containsText" dxfId="287" priority="287" operator="containsText" text="Sim">
+  <conditionalFormatting sqref="D8">
+    <cfRule type="containsText" dxfId="290" priority="290" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="286" priority="288" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="289" priority="291" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D8 D10">
-    <cfRule type="containsText" dxfId="285" priority="285" operator="containsText" text="Sim">
+  <conditionalFormatting sqref="D8">
+    <cfRule type="containsText" dxfId="288" priority="288" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="284" priority="286" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="287" priority="289" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D8 D10">
-    <cfRule type="containsText" dxfId="283" priority="283" operator="containsText" text="Sim">
+  <conditionalFormatting sqref="D8">
+    <cfRule type="containsText" dxfId="286" priority="286" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="282" priority="284" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="285" priority="287" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D8 D10">
-    <cfRule type="containsText" dxfId="281" priority="281" operator="containsText" text="Sim">
+  <conditionalFormatting sqref="D8">
+    <cfRule type="containsText" dxfId="284" priority="284" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="280" priority="282" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="283" priority="285" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D8 D10">
-    <cfRule type="containsText" dxfId="279" priority="279" operator="containsText" text="Sim">
+  <conditionalFormatting sqref="D8">
+    <cfRule type="containsText" dxfId="282" priority="282" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="278" priority="280" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="281" priority="283" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D8 D10">
-    <cfRule type="containsText" dxfId="277" priority="277" operator="containsText" text="Sim">
+  <conditionalFormatting sqref="D8">
+    <cfRule type="containsText" dxfId="280" priority="280" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="276" priority="278" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="279" priority="281" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D8 D10">
-    <cfRule type="containsText" dxfId="275" priority="275" operator="containsText" text="Sim">
+  <conditionalFormatting sqref="D8">
+    <cfRule type="containsText" dxfId="278" priority="278" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="274" priority="276" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="277" priority="279" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D8 D10">
-    <cfRule type="containsText" dxfId="273" priority="273" operator="containsText" text="Sim">
+  <conditionalFormatting sqref="D8">
+    <cfRule type="containsText" dxfId="276" priority="276" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="272" priority="274" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="275" priority="277" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D8 D10">
-    <cfRule type="containsText" dxfId="271" priority="271" operator="containsText" text="Sim">
+  <conditionalFormatting sqref="D8">
+    <cfRule type="containsText" dxfId="274" priority="274" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="270" priority="272" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="273" priority="275" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D8 D10">
-    <cfRule type="containsText" dxfId="269" priority="269" operator="containsText" text="Sim">
+  <conditionalFormatting sqref="D8">
+    <cfRule type="containsText" dxfId="272" priority="272" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="268" priority="270" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="271" priority="273" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D8 D10">
-    <cfRule type="containsText" dxfId="267" priority="267" operator="containsText" text="Sim">
+  <conditionalFormatting sqref="D8">
+    <cfRule type="containsText" dxfId="270" priority="270" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="266" priority="268" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="269" priority="271" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D8 D10">
-    <cfRule type="containsText" dxfId="265" priority="265" operator="containsText" text="Sim">
+  <conditionalFormatting sqref="D8">
+    <cfRule type="containsText" dxfId="268" priority="268" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="264" priority="266" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="267" priority="269" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D8 D10">
-    <cfRule type="containsText" dxfId="263" priority="263" operator="containsText" text="Sim">
+  <conditionalFormatting sqref="D8">
+    <cfRule type="containsText" dxfId="266" priority="266" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="262" priority="264" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="265" priority="267" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D8 D10">
-    <cfRule type="containsText" dxfId="261" priority="261" operator="containsText" text="Sim">
+  <conditionalFormatting sqref="D8">
+    <cfRule type="containsText" dxfId="264" priority="264" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="260" priority="262" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="263" priority="265" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D8 D10">
-    <cfRule type="containsText" dxfId="259" priority="259" operator="containsText" text="Sim">
+  <conditionalFormatting sqref="D8">
+    <cfRule type="containsText" dxfId="262" priority="262" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="258" priority="260" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="261" priority="263" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D8 D10">
-    <cfRule type="containsText" dxfId="257" priority="257" operator="containsText" text="Sim">
+  <conditionalFormatting sqref="D8">
+    <cfRule type="containsText" dxfId="260" priority="260" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="256" priority="258" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="259" priority="261" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D8 D10">
-    <cfRule type="containsText" dxfId="255" priority="255" operator="containsText" text="Sim">
+  <conditionalFormatting sqref="D8">
+    <cfRule type="containsText" dxfId="258" priority="258" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="254" priority="256" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="257" priority="259" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D8 D10">
-    <cfRule type="containsText" dxfId="253" priority="253" operator="containsText" text="Sim">
+  <conditionalFormatting sqref="D8">
+    <cfRule type="containsText" dxfId="256" priority="256" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="252" priority="254" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="255" priority="257" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D8 D10">
-    <cfRule type="containsText" dxfId="251" priority="251" operator="containsText" text="Sim">
+  <conditionalFormatting sqref="D8">
+    <cfRule type="containsText" dxfId="254" priority="254" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="250" priority="252" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="253" priority="255" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D8 D10">
-    <cfRule type="containsText" dxfId="249" priority="249" operator="containsText" text="Sim">
+  <conditionalFormatting sqref="D8">
+    <cfRule type="containsText" dxfId="252" priority="252" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="248" priority="250" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="251" priority="253" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D8 D10">
-    <cfRule type="containsText" dxfId="247" priority="247" operator="containsText" text="Sim">
+  <conditionalFormatting sqref="D8">
+    <cfRule type="containsText" dxfId="250" priority="250" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="246" priority="248" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="249" priority="251" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D8 D10">
-    <cfRule type="containsText" dxfId="245" priority="245" operator="containsText" text="Sim">
+  <conditionalFormatting sqref="D8">
+    <cfRule type="containsText" dxfId="248" priority="248" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="244" priority="246" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="247" priority="249" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D8 D10">
-    <cfRule type="containsText" dxfId="243" priority="243" operator="containsText" text="Sim">
+  <conditionalFormatting sqref="D8">
+    <cfRule type="containsText" dxfId="246" priority="246" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="242" priority="244" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="245" priority="247" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D8 D10">
-    <cfRule type="containsText" dxfId="241" priority="241" operator="containsText" text="Sim">
+  <conditionalFormatting sqref="D8">
+    <cfRule type="containsText" dxfId="244" priority="244" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="240" priority="242" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="243" priority="245" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D8 D10">
-    <cfRule type="containsText" dxfId="239" priority="239" operator="containsText" text="Sim">
+  <conditionalFormatting sqref="D8">
+    <cfRule type="containsText" dxfId="242" priority="242" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="238" priority="240" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="241" priority="243" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D8 D10">
-    <cfRule type="containsText" dxfId="237" priority="237" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D8)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="236" priority="238" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D8)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D8 D10">
-    <cfRule type="containsText" dxfId="235" priority="235" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D8)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="234" priority="236" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D8)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="F5:H5">
-    <cfRule type="containsText" dxfId="233" priority="233" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="240" priority="240" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",F5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="232" priority="234" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="239" priority="241" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",F5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="containsText" dxfId="231" priority="231" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="238" priority="238" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",I5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="230" priority="232" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="237" priority="239" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",I5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5:L5">
+    <cfRule type="containsText" dxfId="236" priority="236" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",K5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="235" priority="237" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",K5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J5">
+    <cfRule type="containsText" dxfId="234" priority="235" operator="containsText" text="Android">
+      <formula>NOT(ISERROR(SEARCH("Android",J5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J5">
+    <cfRule type="containsText" dxfId="233" priority="233" operator="containsText" text="Web">
+      <formula>NOT(ISERROR(SEARCH("Web",J5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="232" priority="234" operator="containsText" text="iOS">
+      <formula>NOT(ISERROR(SEARCH("iOS",J5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5">
+    <cfRule type="containsText" dxfId="231" priority="231" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",D5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="230" priority="232" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",D5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5">
     <cfRule type="containsText" dxfId="229" priority="229" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",K5)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Sim",D5)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="228" priority="230" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",K5)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J5">
-    <cfRule type="containsText" dxfId="227" priority="228" operator="containsText" text="Android">
-      <formula>NOT(ISERROR(SEARCH("Android",J5)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J5">
-    <cfRule type="containsText" dxfId="226" priority="226" operator="containsText" text="Web">
-      <formula>NOT(ISERROR(SEARCH("Web",J5)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="225" priority="227" operator="containsText" text="iOS">
-      <formula>NOT(ISERROR(SEARCH("iOS",J5)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Não",D5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="containsText" dxfId="224" priority="224" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="227" priority="227" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="223" priority="225" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="226" priority="228" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="containsText" dxfId="222" priority="222" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="225" priority="225" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="221" priority="223" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="224" priority="226" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="containsText" dxfId="220" priority="220" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="223" priority="223" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="219" priority="221" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="222" priority="224" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="containsText" dxfId="218" priority="218" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="221" priority="221" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="217" priority="219" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="220" priority="222" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="containsText" dxfId="216" priority="216" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="219" priority="219" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="215" priority="217" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="218" priority="220" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="containsText" dxfId="214" priority="214" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="217" priority="217" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="213" priority="215" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="216" priority="218" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="containsText" dxfId="212" priority="212" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="215" priority="215" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="211" priority="213" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="214" priority="216" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="containsText" dxfId="210" priority="210" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="213" priority="213" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="209" priority="211" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="212" priority="214" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="containsText" dxfId="208" priority="208" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="211" priority="211" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="207" priority="209" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="210" priority="212" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="containsText" dxfId="206" priority="206" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="209" priority="209" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="205" priority="207" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="208" priority="210" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="containsText" dxfId="204" priority="204" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="207" priority="207" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="203" priority="205" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="206" priority="208" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="containsText" dxfId="202" priority="202" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="205" priority="205" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="201" priority="203" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="204" priority="206" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="containsText" dxfId="200" priority="200" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="203" priority="203" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="199" priority="201" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="202" priority="204" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="containsText" dxfId="198" priority="198" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="201" priority="201" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="197" priority="199" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="200" priority="202" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="containsText" dxfId="196" priority="196" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="199" priority="199" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="195" priority="197" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="198" priority="200" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="containsText" dxfId="194" priority="194" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="197" priority="197" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="193" priority="195" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="196" priority="198" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="containsText" dxfId="192" priority="192" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="195" priority="195" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="191" priority="193" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="194" priority="196" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="containsText" dxfId="190" priority="190" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="193" priority="193" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="189" priority="191" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="192" priority="194" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="containsText" dxfId="188" priority="188" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="191" priority="191" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="187" priority="189" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="190" priority="192" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="containsText" dxfId="186" priority="186" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="189" priority="189" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="185" priority="187" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="188" priority="190" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="containsText" dxfId="184" priority="184" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="187" priority="187" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="183" priority="185" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="186" priority="188" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="containsText" dxfId="182" priority="182" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="185" priority="185" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="181" priority="183" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="184" priority="186" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="containsText" dxfId="180" priority="180" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="183" priority="183" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="179" priority="181" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="182" priority="184" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="containsText" dxfId="178" priority="178" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="181" priority="181" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="177" priority="179" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="180" priority="182" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="containsText" dxfId="176" priority="176" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="179" priority="179" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="175" priority="177" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="178" priority="180" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="containsText" dxfId="174" priority="174" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="177" priority="177" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="173" priority="175" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="176" priority="178" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="containsText" dxfId="172" priority="172" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="175" priority="175" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="171" priority="173" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="174" priority="176" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="containsText" dxfId="170" priority="170" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="173" priority="173" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="169" priority="171" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="172" priority="174" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="containsText" dxfId="168" priority="168" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="171" priority="171" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="167" priority="169" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="170" priority="172" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="containsText" dxfId="166" priority="166" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="169" priority="169" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="165" priority="167" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="168" priority="170" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="containsText" dxfId="164" priority="164" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="167" priority="167" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="163" priority="165" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="166" priority="168" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="containsText" dxfId="162" priority="162" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="165" priority="165" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="161" priority="163" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="164" priority="166" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="containsText" dxfId="160" priority="160" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="163" priority="163" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="159" priority="161" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="162" priority="164" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="containsText" dxfId="158" priority="158" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="161" priority="161" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="157" priority="159" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="160" priority="162" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="containsText" dxfId="156" priority="156" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="159" priority="159" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="155" priority="157" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="158" priority="160" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="containsText" dxfId="154" priority="154" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="157" priority="157" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="153" priority="155" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="156" priority="158" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="containsText" dxfId="152" priority="152" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="155" priority="155" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="151" priority="153" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="154" priority="156" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="containsText" dxfId="150" priority="150" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="153" priority="153" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="149" priority="151" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="152" priority="154" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="containsText" dxfId="148" priority="148" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="151" priority="151" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="147" priority="149" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="150" priority="152" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="containsText" dxfId="146" priority="146" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="149" priority="149" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="145" priority="147" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="148" priority="150" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="containsText" dxfId="144" priority="144" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="147" priority="147" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="143" priority="145" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="146" priority="148" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="containsText" dxfId="142" priority="142" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="145" priority="145" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="141" priority="143" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="144" priority="146" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="containsText" dxfId="140" priority="140" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="143" priority="143" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="139" priority="141" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="142" priority="144" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="containsText" dxfId="138" priority="138" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="141" priority="141" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="137" priority="139" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="140" priority="142" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="containsText" dxfId="136" priority="136" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="139" priority="139" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="135" priority="137" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="138" priority="140" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="containsText" dxfId="134" priority="134" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="137" priority="137" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="133" priority="135" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="136" priority="138" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="containsText" dxfId="132" priority="132" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="135" priority="135" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="131" priority="133" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="134" priority="136" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="containsText" dxfId="130" priority="130" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="133" priority="133" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="129" priority="131" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="132" priority="134" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="containsText" dxfId="128" priority="128" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="131" priority="131" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="127" priority="129" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="130" priority="132" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="containsText" dxfId="126" priority="126" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="129" priority="129" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="125" priority="127" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="128" priority="130" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="containsText" dxfId="124" priority="124" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="127" priority="127" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="123" priority="125" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="126" priority="128" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="containsText" dxfId="122" priority="122" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="125" priority="125" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="121" priority="123" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="124" priority="126" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D5)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D5">
-    <cfRule type="containsText" dxfId="120" priority="120" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D5)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="119" priority="121" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D5)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5">
-    <cfRule type="containsText" dxfId="118" priority="118" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D5)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="117" priority="119" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D5)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="F9:H9">
-    <cfRule type="containsText" dxfId="116" priority="116" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="123" priority="123" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",F9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="115" priority="117" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="122" priority="124" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",F9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="containsText" dxfId="114" priority="114" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="121" priority="121" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",I9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="113" priority="115" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="120" priority="122" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",I9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K9:L9">
+    <cfRule type="containsText" dxfId="119" priority="119" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",K9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="118" priority="120" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",K9)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J9">
+    <cfRule type="containsText" dxfId="117" priority="118" operator="containsText" text="Android">
+      <formula>NOT(ISERROR(SEARCH("Android",J9)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J9">
+    <cfRule type="containsText" dxfId="116" priority="116" operator="containsText" text="Web">
+      <formula>NOT(ISERROR(SEARCH("Web",J9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="115" priority="117" operator="containsText" text="iOS">
+      <formula>NOT(ISERROR(SEARCH("iOS",J9)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9">
+    <cfRule type="containsText" dxfId="114" priority="114" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",D9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="113" priority="115" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",D9)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9">
     <cfRule type="containsText" dxfId="112" priority="112" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",K9)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Sim",D9)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="111" priority="113" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",K9)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J9">
-    <cfRule type="containsText" dxfId="110" priority="111" operator="containsText" text="Android">
-      <formula>NOT(ISERROR(SEARCH("Android",J9)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J9">
-    <cfRule type="containsText" dxfId="109" priority="109" operator="containsText" text="Web">
-      <formula>NOT(ISERROR(SEARCH("Web",J9)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="108" priority="110" operator="containsText" text="iOS">
-      <formula>NOT(ISERROR(SEARCH("iOS",J9)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Não",D9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="containsText" dxfId="107" priority="107" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="110" priority="110" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="106" priority="108" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="109" priority="111" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="containsText" dxfId="105" priority="105" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="108" priority="108" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="104" priority="106" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="107" priority="109" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="containsText" dxfId="103" priority="103" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="106" priority="106" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="102" priority="104" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="105" priority="107" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="containsText" dxfId="101" priority="101" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="104" priority="104" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="100" priority="102" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="103" priority="105" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="containsText" dxfId="99" priority="99" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="102" priority="102" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="98" priority="100" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="101" priority="103" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="containsText" dxfId="97" priority="97" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="100" priority="100" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="96" priority="98" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="99" priority="101" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="containsText" dxfId="95" priority="95" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="98" priority="98" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="94" priority="96" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="97" priority="99" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="containsText" dxfId="93" priority="93" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="96" priority="96" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="92" priority="94" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="95" priority="97" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="containsText" dxfId="91" priority="91" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="94" priority="94" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="90" priority="92" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="93" priority="95" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="containsText" dxfId="89" priority="89" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="92" priority="92" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="88" priority="90" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="91" priority="93" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="containsText" dxfId="87" priority="87" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="90" priority="90" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="86" priority="88" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="89" priority="91" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="containsText" dxfId="85" priority="85" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="88" priority="88" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="84" priority="86" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="87" priority="89" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="containsText" dxfId="83" priority="83" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="86" priority="86" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="82" priority="84" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="85" priority="87" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="containsText" dxfId="81" priority="81" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="84" priority="84" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="80" priority="82" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="83" priority="85" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="containsText" dxfId="79" priority="79" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="82" priority="82" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="78" priority="80" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="81" priority="83" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="containsText" dxfId="77" priority="77" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="80" priority="80" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="76" priority="78" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="79" priority="81" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="containsText" dxfId="75" priority="75" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="78" priority="78" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="74" priority="76" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="77" priority="79" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="containsText" dxfId="73" priority="73" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="76" priority="76" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="72" priority="74" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="75" priority="77" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="containsText" dxfId="71" priority="71" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="74" priority="74" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="70" priority="72" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="73" priority="75" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="containsText" dxfId="69" priority="69" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="72" priority="72" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="68" priority="70" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="71" priority="73" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="containsText" dxfId="67" priority="67" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="70" priority="70" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="66" priority="68" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="69" priority="71" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="containsText" dxfId="65" priority="65" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="68" priority="68" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="64" priority="66" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="67" priority="69" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="containsText" dxfId="63" priority="63" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="66" priority="66" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="62" priority="64" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="65" priority="67" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="containsText" dxfId="61" priority="61" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="64" priority="64" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="60" priority="62" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="63" priority="65" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="containsText" dxfId="59" priority="59" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="62" priority="62" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="58" priority="60" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="61" priority="63" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="containsText" dxfId="57" priority="57" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="60" priority="60" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="56" priority="58" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="59" priority="61" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="containsText" dxfId="55" priority="55" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="58" priority="58" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="54" priority="56" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="57" priority="59" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="containsText" dxfId="53" priority="53" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="56" priority="56" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="54" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="55" priority="57" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="containsText" dxfId="51" priority="51" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="54" priority="54" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="50" priority="52" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="53" priority="55" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="containsText" dxfId="49" priority="49" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="52" priority="52" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="50" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="51" priority="53" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="containsText" dxfId="47" priority="47" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="50" priority="50" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="48" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="49" priority="51" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="containsText" dxfId="45" priority="45" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="48" priority="48" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="44" priority="46" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="47" priority="49" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="containsText" dxfId="43" priority="43" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="46" priority="46" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="44" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="45" priority="47" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="containsText" dxfId="41" priority="41" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="44" priority="44" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="42" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="43" priority="45" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="containsText" dxfId="39" priority="39" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="42" priority="42" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="40" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="41" priority="43" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="containsText" dxfId="37" priority="37" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="40" priority="40" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="38" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="39" priority="41" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="containsText" dxfId="35" priority="35" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="38" priority="38" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="36" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="37" priority="39" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="containsText" dxfId="33" priority="33" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="36" priority="36" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="34" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="35" priority="37" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="containsText" dxfId="31" priority="31" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="34" priority="34" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="32" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="33" priority="35" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="containsText" dxfId="29" priority="29" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="32" priority="32" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="30" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="31" priority="33" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="containsText" dxfId="27" priority="27" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="30" priority="30" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="28" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="29" priority="31" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="containsText" dxfId="25" priority="25" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="28" priority="28" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="26" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="27" priority="29" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="containsText" dxfId="23" priority="23" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="26" priority="26" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="24" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="25" priority="27" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="containsText" dxfId="21" priority="21" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="24" priority="24" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="22" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="23" priority="25" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="containsText" dxfId="19" priority="19" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="22" priority="22" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="20" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="21" priority="23" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="containsText" dxfId="17" priority="17" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="20" priority="20" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="18" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="19" priority="21" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="containsText" dxfId="15" priority="15" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="18" priority="18" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="16" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="17" priority="19" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="containsText" dxfId="13" priority="13" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="16" priority="16" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="14" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="15" priority="17" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="containsText" dxfId="11" priority="11" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="14" priority="14" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="12" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="13" priority="15" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="containsText" dxfId="9" priority="9" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="12" priority="12" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="10" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="11" priority="13" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="containsText" dxfId="7" priority="7" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="10" priority="10" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="8" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="9" priority="11" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="8" priority="8" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D9)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D9">
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D9)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D9)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D9">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D9)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D9)))</formula>
+  <conditionalFormatting sqref="F10:I10">
+    <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",F10)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",F10)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K10:L10 D10">
+    <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",D10)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="5" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",D10)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J10">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="Android">
+      <formula>NOT(ISERROR(SEARCH("Android",J10)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J10">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Web">
+      <formula>NOT(ISERROR(SEARCH("Web",J10)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="iOS">
+      <formula>NOT(ISERROR(SEARCH("iOS",J10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K43:L45 K47:L49 D53:D59 K53:L59 K61:L66 K68:L72 D68:D72 D61:D66 D2:D49 K2:L41">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K43:L45 K47:L49 D53:D59 K53:L59 K61:L66 K68:L72 D68:D72 D61:D66 K2:L41 D2:D49">
       <formula1>"Sim,Não"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J53:J59 J68:J72 J61:J66 J2:J49">
@@ -21303,11 +21446,11 @@
       </c>
       <c r="I7" s="39">
         <f>COUNTIF(Testes!J3:J50,"Android")</f>
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J7" s="39">
         <f>COUNTIFS(Testes!G3:G50,"Passed",Testes!J3:J50,"Android")</f>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K7" s="39">
         <f>COUNTIFS(Testes!G3:G50,"Failed",Testes!J3:J50,"Android")</f>
@@ -21385,11 +21528,11 @@
       <c r="B10" s="55"/>
       <c r="C10" s="39">
         <f>B8-(D10+E10)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10" s="39">
         <f>J11</f>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E10" s="39">
         <f>K11</f>
@@ -21425,11 +21568,11 @@
       </c>
       <c r="I11" s="39">
         <f>SUM(I7:I9)</f>
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J11" s="39">
         <f>SUM(J7:J9)</f>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K11" s="39">
         <f>SUM(K7:K9)</f>

--- a/data/backup/AutoVC.xlsx
+++ b/data/backup/AutoVC.xlsx
@@ -106,7 +106,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2342" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2375" uniqueCount="429">
   <si>
     <t>Telefone</t>
   </si>
@@ -1396,6 +1396,18 @@
   </si>
   <si>
     <t>samtesteaz03@gmail.com</t>
+  </si>
+  <si>
+    <t>00:01:15</t>
+  </si>
+  <si>
+    <t>Cards desconto por direção, amizade e 800 milhas não cumprida</t>
+  </si>
+  <si>
+    <t>Usuario 20 viagens score &lt;70 - Missoes Não Cumpridas</t>
+  </si>
+  <si>
+    <t>00:00:39</t>
   </si>
 </sst>
 </file>
@@ -2109,6 +2121,46 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C6500"/>
       </font>
       <fill>
@@ -2139,63 +2191,23 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -9832,16 +9844,16 @@
   <sheetPr codeName="Plan3"/>
   <dimension ref="A1:AI88"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
+      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="7.42578125" style="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="45.7109375" style="9" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="49.140625" style="9" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="121.140625" style="73" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="9.5703125" style="29" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="43.5703125" style="9" customWidth="1" collapsed="1"/>
@@ -10895,7 +10907,7 @@
         <v>423</v>
       </c>
       <c r="D11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>110</v>
@@ -10907,10 +10919,10 @@
         <v>231</v>
       </c>
       <c r="H11" t="s">
-        <v>401</v>
+        <v>425</v>
       </c>
       <c r="I11" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="J11" t="s">
         <v>132</v>
@@ -10986,38 +10998,105 @@
       </c>
     </row>
     <row r="12" spans="1:33">
-      <c r="A12" s="14"/>
-      <c r="B12" s="104"/>
-      <c r="C12" s="93"/>
-      <c r="D12"/>
-      <c r="E12" s="5"/>
-      <c r="F12"/>
-      <c r="G12"/>
-      <c r="H12"/>
-      <c r="I12"/>
-      <c r="J12"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="22"/>
-      <c r="M12" s="90"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="7"/>
-      <c r="R12" s="7"/>
-      <c r="S12" s="7"/>
-      <c r="T12" s="7"/>
-      <c r="U12" s="7"/>
-      <c r="V12" s="7"/>
-      <c r="W12" s="7"/>
-      <c r="X12" s="7"/>
-      <c r="Y12" s="7"/>
-      <c r="Z12" s="7"/>
-      <c r="AA12" s="7"/>
-      <c r="AB12" s="7"/>
-      <c r="AC12" s="7"/>
-      <c r="AD12" s="7"/>
-      <c r="AE12" s="7"/>
-      <c r="AF12" s="7"/>
-      <c r="AG12" s="7"/>
+      <c r="A12" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>427</v>
+      </c>
+      <c r="C12" s="93" t="s">
+        <v>426</v>
+      </c>
+      <c r="D12" t="s">
+        <v>128</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="F12" t="s">
+        <v>110</v>
+      </c>
+      <c r="G12" t="s">
+        <v>231</v>
+      </c>
+      <c r="H12" t="s">
+        <v>428</v>
+      </c>
+      <c r="I12" t="s">
+        <v>406</v>
+      </c>
+      <c r="J12" t="s">
+        <v>132</v>
+      </c>
+      <c r="K12" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="L12" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="M12" s="90" t="s">
+        <v>424</v>
+      </c>
+      <c r="N12" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q12" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="R12" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="S12" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="T12" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="U12" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="V12" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="W12" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="X12" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y12" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="Z12" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="AA12" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB12" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="AC12" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="AD12" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE12" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="AF12" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="AG12" s="7" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="13" spans="1:33">
       <c r="A13" s="14" t="s">
@@ -16605,3214 +16684,3243 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AG54"/>
-  <conditionalFormatting sqref="I16 F18:H18 F13:H14 F49:H49 G48:I48 F32:H33 G16:H22 F42:I47 F36:I40 F54:I60 F62:I67 F69:I73 F5:I6 F20:H30 F10:I10 F12:I12">
-    <cfRule type="containsText" dxfId="802" priority="2445" operator="containsText" text="Passed">
+  <conditionalFormatting sqref="I16 F18:H18 F13:H14 F49:H49 G48:I48 F32:H33 G16:H22 F42:I47 F36:I40 F54:I60 F62:I67 F69:I73 F5:I6 F20:H30 F10:I10">
+    <cfRule type="containsText" dxfId="802" priority="2452" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",F5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="801" priority="2446" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="801" priority="2453" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",F5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I40">
-    <cfRule type="containsText" dxfId="800" priority="2437" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="800" priority="2444" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",I40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="799" priority="2438" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="799" priority="2445" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",I40)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13">
-    <cfRule type="containsText" dxfId="798" priority="2429" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="798" priority="2436" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",I13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="797" priority="2430" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="797" priority="2437" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",I13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I14">
-    <cfRule type="containsText" dxfId="796" priority="2421" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="796" priority="2428" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",I14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="795" priority="2422" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="795" priority="2429" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",I14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I17">
-    <cfRule type="containsText" dxfId="794" priority="2417" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="794" priority="2424" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",I17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="793" priority="2418" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="793" priority="2425" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",I17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I18">
-    <cfRule type="containsText" dxfId="792" priority="2409" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="792" priority="2416" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",I18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="791" priority="2410" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="791" priority="2417" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",I18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I19:I20">
-    <cfRule type="containsText" dxfId="790" priority="2401" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="790" priority="2408" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",I19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="789" priority="2402" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="789" priority="2409" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",I19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I21">
-    <cfRule type="containsText" dxfId="788" priority="2397" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="788" priority="2404" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",I21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="787" priority="2398" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="787" priority="2405" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",I21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I22">
-    <cfRule type="containsText" dxfId="786" priority="2393" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="786" priority="2400" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",I22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="785" priority="2394" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="785" priority="2401" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",I22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I42">
-    <cfRule type="containsText" dxfId="784" priority="2389" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="784" priority="2396" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",I42)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="783" priority="2390" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="783" priority="2397" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",I42)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I24">
-    <cfRule type="containsText" dxfId="782" priority="2385" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="782" priority="2392" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",I24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="781" priority="2386" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="781" priority="2393" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",I24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I23">
-    <cfRule type="containsText" dxfId="780" priority="2381" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="780" priority="2388" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",I23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="779" priority="2382" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="779" priority="2389" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",I23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I26">
-    <cfRule type="containsText" dxfId="778" priority="2377" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="778" priority="2384" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",I26)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="777" priority="2378" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="777" priority="2385" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",I26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I27">
-    <cfRule type="containsText" dxfId="776" priority="2371" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="776" priority="2378" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",I27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="775" priority="2372" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="775" priority="2379" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",I27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I28">
-    <cfRule type="containsText" dxfId="774" priority="2367" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="774" priority="2374" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",I28)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="773" priority="2368" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="773" priority="2375" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",I28)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I29">
-    <cfRule type="containsText" dxfId="772" priority="2363" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="772" priority="2370" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",I29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="771" priority="2364" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="771" priority="2371" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",I29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I43">
-    <cfRule type="containsText" dxfId="770" priority="2359" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="770" priority="2366" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",I43)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="769" priority="2360" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="769" priority="2367" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",I43)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I44">
-    <cfRule type="containsText" dxfId="768" priority="2351" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="768" priority="2358" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",I44)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="767" priority="2352" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="767" priority="2359" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",I44)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I47">
-    <cfRule type="containsText" dxfId="766" priority="2343" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="766" priority="2350" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",I47)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="765" priority="2344" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="765" priority="2351" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",I47)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I45">
-    <cfRule type="containsText" dxfId="764" priority="2339" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="764" priority="2346" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",I45)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="763" priority="2340" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="763" priority="2347" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",I45)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I25">
-    <cfRule type="containsText" dxfId="762" priority="2331" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="762" priority="2338" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",I25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="761" priority="2332" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="761" priority="2339" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",I25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I30">
-    <cfRule type="containsText" dxfId="760" priority="2327" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="760" priority="2334" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",I30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="759" priority="2328" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="759" priority="2335" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",I30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I33">
-    <cfRule type="containsText" dxfId="758" priority="2323" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="758" priority="2330" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",I33)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="757" priority="2324" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="757" priority="2331" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",I33)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I32">
-    <cfRule type="containsText" dxfId="756" priority="2319" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="756" priority="2326" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",I32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="755" priority="2320" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="755" priority="2327" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",I32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I36:I37">
-    <cfRule type="containsText" dxfId="754" priority="2315" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="754" priority="2322" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",I36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="753" priority="2316" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="753" priority="2323" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",I36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I38:I39">
-    <cfRule type="containsText" dxfId="752" priority="2311" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="752" priority="2318" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",I38)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="751" priority="2312" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="751" priority="2319" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",I38)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I46">
-    <cfRule type="containsText" dxfId="750" priority="2307" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="750" priority="2314" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",I46)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="749" priority="2308" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="749" priority="2315" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",I46)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I49">
-    <cfRule type="containsText" dxfId="748" priority="2271" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="748" priority="2278" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",I49)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="747" priority="2272" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="747" priority="2279" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",I49)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K44:L45 K49:L49 L32:L33 L42 L36:L40 D26:D50 L25:L30 K25 K54:L60 D54:D60 K62:L67 K69:L73 K5:L6 D62:D67 D69:D73 D5:D6 K16:L24 K10:L10 D10 D12:D22 K12:L14">
-    <cfRule type="containsText" dxfId="746" priority="2263" operator="containsText" text="Sim">
+  <conditionalFormatting sqref="K44:L45 K49:L49 L32:L33 L42 L36:L40 D26:D50 L25:L30 K25 K54:L60 D54:D60 K62:L67 K69:L73 K5:L6 D62:D67 D69:D73 D5:D6 K16:L24 K10:L10 D10 D13:D22 K13:L14">
+    <cfRule type="containsText" dxfId="746" priority="2270" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="745" priority="2264" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="745" priority="2271" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K32:K33">
-    <cfRule type="containsText" dxfId="744" priority="2159" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="744" priority="2166" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",K32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="743" priority="2160" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="743" priority="2167" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",K32)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J16:J17 J32:J33 J42 J36:J40 J54:J60 J62:J67 J69:J73 J5:J6 J19:J30 J10 J12:J14">
-    <cfRule type="containsText" dxfId="742" priority="2150" operator="containsText" text="Android">
+  <conditionalFormatting sqref="J16:J17 J32:J33 J42 J36:J40 J54:J60 J62:J67 J69:J73 J5:J6 J19:J30 J10 J13:J14">
+    <cfRule type="containsText" dxfId="742" priority="2157" operator="containsText" text="Android">
       <formula>NOT(ISERROR(SEARCH("Android",J5)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J16:J17 J32:J33 J42 J36:J40 J54:J60 J62:J67 J69:J73 J5:J6 J19:J30 J10 J12:J14">
-    <cfRule type="containsText" dxfId="741" priority="2148" operator="containsText" text="Web">
+  <conditionalFormatting sqref="J16:J17 J32:J33 J42 J36:J40 J54:J60 J62:J67 J69:J73 J5:J6 J19:J30 J10 J13:J14">
+    <cfRule type="containsText" dxfId="741" priority="2155" operator="containsText" text="Web">
       <formula>NOT(ISERROR(SEARCH("Web",J5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="740" priority="2149" operator="containsText" text="iOS">
+    <cfRule type="containsText" dxfId="740" priority="2156" operator="containsText" text="iOS">
       <formula>NOT(ISERROR(SEARCH("iOS",J5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J44">
-    <cfRule type="containsText" dxfId="739" priority="2141" operator="containsText" text="Android">
+    <cfRule type="containsText" dxfId="739" priority="2148" operator="containsText" text="Android">
       <formula>NOT(ISERROR(SEARCH("Android",J44)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J44">
-    <cfRule type="containsText" dxfId="738" priority="2139" operator="containsText" text="Web">
+    <cfRule type="containsText" dxfId="738" priority="2146" operator="containsText" text="Web">
       <formula>NOT(ISERROR(SEARCH("Web",J44)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="737" priority="2140" operator="containsText" text="iOS">
+    <cfRule type="containsText" dxfId="737" priority="2147" operator="containsText" text="iOS">
       <formula>NOT(ISERROR(SEARCH("iOS",J44)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J45">
-    <cfRule type="containsText" dxfId="736" priority="2138" operator="containsText" text="Android">
+    <cfRule type="containsText" dxfId="736" priority="2145" operator="containsText" text="Android">
       <formula>NOT(ISERROR(SEARCH("Android",J45)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J45">
-    <cfRule type="containsText" dxfId="735" priority="2136" operator="containsText" text="Web">
+    <cfRule type="containsText" dxfId="735" priority="2143" operator="containsText" text="Web">
       <formula>NOT(ISERROR(SEARCH("Web",J45)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="734" priority="2137" operator="containsText" text="iOS">
+    <cfRule type="containsText" dxfId="734" priority="2144" operator="containsText" text="iOS">
       <formula>NOT(ISERROR(SEARCH("iOS",J45)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J49">
-    <cfRule type="containsText" dxfId="733" priority="2123" operator="containsText" text="Android">
+    <cfRule type="containsText" dxfId="733" priority="2130" operator="containsText" text="Android">
       <formula>NOT(ISERROR(SEARCH("Android",J49)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J49">
-    <cfRule type="containsText" dxfId="732" priority="2121" operator="containsText" text="Web">
+    <cfRule type="containsText" dxfId="732" priority="2128" operator="containsText" text="Web">
       <formula>NOT(ISERROR(SEARCH("Web",J49)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="731" priority="2122" operator="containsText" text="iOS">
+    <cfRule type="containsText" dxfId="731" priority="2129" operator="containsText" text="iOS">
       <formula>NOT(ISERROR(SEARCH("iOS",J49)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J43">
-    <cfRule type="containsText" dxfId="730" priority="2120" operator="containsText" text="Android">
+    <cfRule type="containsText" dxfId="730" priority="2127" operator="containsText" text="Android">
       <formula>NOT(ISERROR(SEARCH("Android",J43)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J43">
-    <cfRule type="containsText" dxfId="729" priority="2118" operator="containsText" text="Web">
+    <cfRule type="containsText" dxfId="729" priority="2125" operator="containsText" text="Web">
       <formula>NOT(ISERROR(SEARCH("Web",J43)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="728" priority="2119" operator="containsText" text="iOS">
+    <cfRule type="containsText" dxfId="728" priority="2126" operator="containsText" text="iOS">
       <formula>NOT(ISERROR(SEARCH("iOS",J43)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J47">
-    <cfRule type="containsText" dxfId="727" priority="2114" operator="containsText" text="Android">
+    <cfRule type="containsText" dxfId="727" priority="2121" operator="containsText" text="Android">
       <formula>NOT(ISERROR(SEARCH("Android",J47)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J47">
-    <cfRule type="containsText" dxfId="726" priority="2112" operator="containsText" text="Web">
+    <cfRule type="containsText" dxfId="726" priority="2119" operator="containsText" text="Web">
       <formula>NOT(ISERROR(SEARCH("Web",J47)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="725" priority="2113" operator="containsText" text="iOS">
+    <cfRule type="containsText" dxfId="725" priority="2120" operator="containsText" text="iOS">
       <formula>NOT(ISERROR(SEARCH("iOS",J47)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20">
-    <cfRule type="containsText" dxfId="724" priority="2106" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="724" priority="2113" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",I20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="723" priority="2107" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="723" priority="2114" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",I20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I21">
-    <cfRule type="containsText" dxfId="722" priority="2104" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="722" priority="2111" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",I21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="721" priority="2105" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="721" priority="2112" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",I21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K38:K39">
-    <cfRule type="containsText" dxfId="720" priority="2102" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="720" priority="2109" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",K38)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="719" priority="2103" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="719" priority="2110" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",K38)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K36:K37">
-    <cfRule type="containsText" dxfId="718" priority="2100" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="718" priority="2107" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",K36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="717" priority="2101" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="717" priority="2108" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",K36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J46">
-    <cfRule type="containsText" dxfId="716" priority="2099" operator="containsText" text="Android">
+    <cfRule type="containsText" dxfId="716" priority="2106" operator="containsText" text="Android">
       <formula>NOT(ISERROR(SEARCH("Android",J46)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J46">
-    <cfRule type="containsText" dxfId="715" priority="2097" operator="containsText" text="Web">
+    <cfRule type="containsText" dxfId="715" priority="2104" operator="containsText" text="Web">
       <formula>NOT(ISERROR(SEARCH("Web",J46)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="714" priority="2098" operator="containsText" text="iOS">
+    <cfRule type="containsText" dxfId="714" priority="2105" operator="containsText" text="iOS">
       <formula>NOT(ISERROR(SEARCH("iOS",J46)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L46">
-    <cfRule type="containsText" dxfId="713" priority="2093" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="713" priority="2100" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",L46)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="712" priority="2094" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="712" priority="2101" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",L46)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K46">
-    <cfRule type="containsText" dxfId="711" priority="2003" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="711" priority="2010" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",K46)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="710" priority="2004" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="710" priority="2011" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",K46)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H48">
-    <cfRule type="containsText" dxfId="709" priority="1999" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="709" priority="2006" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",H48)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="708" priority="2000" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="708" priority="2007" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",H48)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I48">
-    <cfRule type="containsText" dxfId="707" priority="1997" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="707" priority="2004" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",I48)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="706" priority="1998" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="706" priority="2005" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",I48)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L48">
-    <cfRule type="containsText" dxfId="705" priority="1995" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="705" priority="2002" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",L48)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="704" priority="1996" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="704" priority="2003" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",L48)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K48">
-    <cfRule type="containsText" dxfId="703" priority="1993" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="703" priority="2000" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",K48)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="702" priority="1994" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="702" priority="2001" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",K48)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J48">
-    <cfRule type="containsText" dxfId="701" priority="1992" operator="containsText" text="Android">
+    <cfRule type="containsText" dxfId="701" priority="1999" operator="containsText" text="Android">
       <formula>NOT(ISERROR(SEARCH("Android",J48)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J48">
-    <cfRule type="containsText" dxfId="700" priority="1990" operator="containsText" text="Web">
+    <cfRule type="containsText" dxfId="700" priority="1997" operator="containsText" text="Web">
       <formula>NOT(ISERROR(SEARCH("Web",J48)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="699" priority="1991" operator="containsText" text="iOS">
+    <cfRule type="containsText" dxfId="699" priority="1998" operator="containsText" text="iOS">
       <formula>NOT(ISERROR(SEARCH("iOS",J48)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G48">
-    <cfRule type="containsText" dxfId="698" priority="1969" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="698" priority="1976" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",G48)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="697" priority="1970" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="697" priority="1977" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",G48)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15:H15">
-    <cfRule type="containsText" dxfId="696" priority="1956" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="696" priority="1963" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",G15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="695" priority="1957" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="695" priority="1964" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",G15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15 I15">
-    <cfRule type="containsText" dxfId="694" priority="1952" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="694" priority="1959" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",F15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="693" priority="1953" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="693" priority="1960" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",F15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K15:L15">
-    <cfRule type="containsText" dxfId="692" priority="1950" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="692" priority="1957" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",K15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="691" priority="1951" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="691" priority="1958" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",K15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J15">
-    <cfRule type="containsText" dxfId="690" priority="1949" operator="containsText" text="Android">
+    <cfRule type="containsText" dxfId="690" priority="1956" operator="containsText" text="Android">
       <formula>NOT(ISERROR(SEARCH("Android",J15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J15">
-    <cfRule type="containsText" dxfId="689" priority="1947" operator="containsText" text="Web">
+    <cfRule type="containsText" dxfId="689" priority="1954" operator="containsText" text="Web">
       <formula>NOT(ISERROR(SEARCH("Web",J15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="688" priority="1948" operator="containsText" text="iOS">
+    <cfRule type="containsText" dxfId="688" priority="1955" operator="containsText" text="iOS">
       <formula>NOT(ISERROR(SEARCH("iOS",J15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F34:H34">
-    <cfRule type="containsText" dxfId="687" priority="1924" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="687" priority="1931" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",F34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="686" priority="1925" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="686" priority="1932" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",F34)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I34">
-    <cfRule type="containsText" dxfId="685" priority="1922" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="685" priority="1929" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",I34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="684" priority="1923" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="684" priority="1930" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",I34)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L34">
-    <cfRule type="containsText" dxfId="683" priority="1920" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="683" priority="1927" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",L34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="682" priority="1921" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="682" priority="1928" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",L34)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K34">
-    <cfRule type="containsText" dxfId="681" priority="1918" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="681" priority="1925" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",K34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="680" priority="1919" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="680" priority="1926" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",K34)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J34">
-    <cfRule type="containsText" dxfId="679" priority="1917" operator="containsText" text="Android">
+    <cfRule type="containsText" dxfId="679" priority="1924" operator="containsText" text="Android">
       <formula>NOT(ISERROR(SEARCH("Android",J34)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J34">
-    <cfRule type="containsText" dxfId="678" priority="1915" operator="containsText" text="Web">
+    <cfRule type="containsText" dxfId="678" priority="1922" operator="containsText" text="Web">
       <formula>NOT(ISERROR(SEARCH("Web",J34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="677" priority="1916" operator="containsText" text="iOS">
+    <cfRule type="containsText" dxfId="677" priority="1923" operator="containsText" text="iOS">
       <formula>NOT(ISERROR(SEARCH("iOS",J34)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F31:H31">
-    <cfRule type="containsText" dxfId="676" priority="1913" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="676" priority="1920" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",F31)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="675" priority="1914" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="675" priority="1921" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",F31)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I31">
-    <cfRule type="containsText" dxfId="674" priority="1911" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="674" priority="1918" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",I31)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="673" priority="1912" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="673" priority="1919" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",I31)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L31">
-    <cfRule type="containsText" dxfId="672" priority="1909" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="672" priority="1916" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",L31)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="671" priority="1910" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="671" priority="1917" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",L31)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K31">
-    <cfRule type="containsText" dxfId="670" priority="1907" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="670" priority="1914" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",K31)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="669" priority="1908" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="669" priority="1915" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",K31)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J31">
-    <cfRule type="containsText" dxfId="668" priority="1906" operator="containsText" text="Android">
+    <cfRule type="containsText" dxfId="668" priority="1913" operator="containsText" text="Android">
       <formula>NOT(ISERROR(SEARCH("Android",J31)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J31">
-    <cfRule type="containsText" dxfId="667" priority="1904" operator="containsText" text="Web">
+    <cfRule type="containsText" dxfId="667" priority="1911" operator="containsText" text="Web">
       <formula>NOT(ISERROR(SEARCH("Web",J31)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="666" priority="1905" operator="containsText" text="iOS">
+    <cfRule type="containsText" dxfId="666" priority="1912" operator="containsText" text="iOS">
       <formula>NOT(ISERROR(SEARCH("iOS",J31)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K26">
-    <cfRule type="containsText" dxfId="665" priority="1896" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="665" priority="1903" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",K26)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="664" priority="1897" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="664" priority="1904" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",K26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K27">
-    <cfRule type="containsText" dxfId="663" priority="1894" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="663" priority="1901" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",K27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="662" priority="1895" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="662" priority="1902" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",K27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F50:H50">
-    <cfRule type="containsText" dxfId="661" priority="1892" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="661" priority="1899" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",F50)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="660" priority="1893" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="660" priority="1900" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",F50)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I50">
-    <cfRule type="containsText" dxfId="659" priority="1890" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="659" priority="1897" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",I50)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="658" priority="1891" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="658" priority="1898" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",I50)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L50">
-    <cfRule type="containsText" dxfId="657" priority="1886" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="657" priority="1893" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",L50)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="656" priority="1887" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="656" priority="1894" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",L50)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K50">
-    <cfRule type="containsText" dxfId="655" priority="1884" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="655" priority="1891" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",K50)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="654" priority="1885" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="654" priority="1892" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",K50)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J50">
-    <cfRule type="containsText" dxfId="653" priority="1883" operator="containsText" text="Android">
+    <cfRule type="containsText" dxfId="653" priority="1890" operator="containsText" text="Android">
       <formula>NOT(ISERROR(SEARCH("Android",J50)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J50">
-    <cfRule type="containsText" dxfId="652" priority="1881" operator="containsText" text="Web">
+    <cfRule type="containsText" dxfId="652" priority="1888" operator="containsText" text="Web">
       <formula>NOT(ISERROR(SEARCH("Web",J50)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="651" priority="1882" operator="containsText" text="iOS">
+    <cfRule type="containsText" dxfId="651" priority="1889" operator="containsText" text="iOS">
       <formula>NOT(ISERROR(SEARCH("iOS",J50)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G47">
-    <cfRule type="containsText" dxfId="650" priority="1846" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="650" priority="1853" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",G47)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="649" priority="1847" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="649" priority="1854" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",G47)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E50">
-    <cfRule type="containsText" dxfId="648" priority="1840" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="648" priority="1847" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",E50)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="647" priority="1841" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="647" priority="1848" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",E50)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K40">
-    <cfRule type="containsText" dxfId="646" priority="1838" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="646" priority="1845" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",K40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="645" priority="1839" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="645" priority="1846" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",K40)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K30">
-    <cfRule type="containsText" dxfId="644" priority="1778" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="644" priority="1785" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",K30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="643" priority="1779" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="643" priority="1786" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",K30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K29">
-    <cfRule type="containsText" dxfId="642" priority="1776" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="642" priority="1783" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",K29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="641" priority="1777" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="641" priority="1784" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",K29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K28">
-    <cfRule type="containsText" dxfId="640" priority="1774" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="640" priority="1781" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",K28)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="639" priority="1775" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="639" priority="1782" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",K28)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F35:H35">
-    <cfRule type="containsText" dxfId="638" priority="1772" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="638" priority="1779" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",F35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="637" priority="1773" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="637" priority="1780" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",F35)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I35">
-    <cfRule type="containsText" dxfId="636" priority="1770" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="636" priority="1777" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",I35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="635" priority="1771" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="635" priority="1778" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",I35)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L35">
-    <cfRule type="containsText" dxfId="634" priority="1768" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="634" priority="1775" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",L35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="633" priority="1769" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="633" priority="1776" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",L35)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K35">
-    <cfRule type="containsText" dxfId="632" priority="1766" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="632" priority="1773" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",K35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="631" priority="1767" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="631" priority="1774" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",K35)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J35">
-    <cfRule type="containsText" dxfId="630" priority="1765" operator="containsText" text="Android">
+    <cfRule type="containsText" dxfId="630" priority="1772" operator="containsText" text="Android">
       <formula>NOT(ISERROR(SEARCH("Android",J35)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J35">
-    <cfRule type="containsText" dxfId="629" priority="1763" operator="containsText" text="Web">
+    <cfRule type="containsText" dxfId="629" priority="1770" operator="containsText" text="Web">
       <formula>NOT(ISERROR(SEARCH("Web",J35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="628" priority="1764" operator="containsText" text="iOS">
+    <cfRule type="containsText" dxfId="628" priority="1771" operator="containsText" text="iOS">
       <formula>NOT(ISERROR(SEARCH("iOS",J35)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F41:I41">
-    <cfRule type="containsText" dxfId="627" priority="1747" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="627" priority="1754" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",F41)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="626" priority="1748" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="626" priority="1755" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",F41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I41">
-    <cfRule type="containsText" dxfId="625" priority="1745" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="625" priority="1752" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",I41)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="624" priority="1746" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="624" priority="1753" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",I41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L41">
-    <cfRule type="containsText" dxfId="623" priority="1743" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="623" priority="1750" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",L41)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="622" priority="1744" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="622" priority="1751" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",L41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J41">
-    <cfRule type="containsText" dxfId="621" priority="1742" operator="containsText" text="Android">
+    <cfRule type="containsText" dxfId="621" priority="1749" operator="containsText" text="Android">
       <formula>NOT(ISERROR(SEARCH("Android",J41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J41">
-    <cfRule type="containsText" dxfId="620" priority="1740" operator="containsText" text="Web">
+    <cfRule type="containsText" dxfId="620" priority="1747" operator="containsText" text="Web">
       <formula>NOT(ISERROR(SEARCH("Web",J41)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="619" priority="1741" operator="containsText" text="iOS">
+    <cfRule type="containsText" dxfId="619" priority="1748" operator="containsText" text="iOS">
       <formula>NOT(ISERROR(SEARCH("iOS",J41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K42">
-    <cfRule type="containsText" dxfId="618" priority="1732" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="618" priority="1739" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",K42)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="617" priority="1733" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="617" priority="1740" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",K42)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K41">
-    <cfRule type="containsText" dxfId="616" priority="1697" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="616" priority="1704" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",K41)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="615" priority="1698" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="615" priority="1705" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",K41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2">
-    <cfRule type="containsText" dxfId="614" priority="960" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="614" priority="967" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",H2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="613" priority="961" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="613" priority="968" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",H2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2">
-    <cfRule type="containsText" dxfId="612" priority="958" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="612" priority="965" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",I2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="611" priority="959" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="611" priority="966" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",I2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2">
-    <cfRule type="containsText" dxfId="610" priority="956" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="610" priority="963" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",L2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="609" priority="957" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="609" priority="964" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",L2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2">
-    <cfRule type="containsText" dxfId="608" priority="955" operator="containsText" text="Android">
+    <cfRule type="containsText" dxfId="608" priority="962" operator="containsText" text="Android">
       <formula>NOT(ISERROR(SEARCH("Android",J2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2">
-    <cfRule type="containsText" dxfId="607" priority="953" operator="containsText" text="Web">
+    <cfRule type="containsText" dxfId="607" priority="960" operator="containsText" text="Web">
       <formula>NOT(ISERROR(SEARCH("Web",J2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="606" priority="954" operator="containsText" text="iOS">
+    <cfRule type="containsText" dxfId="606" priority="961" operator="containsText" text="iOS">
       <formula>NOT(ISERROR(SEARCH("iOS",J2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2">
-    <cfRule type="containsText" dxfId="605" priority="951" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="605" priority="958" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",G2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="604" priority="952" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="604" priority="959" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",G2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2">
-    <cfRule type="containsText" dxfId="603" priority="949" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="603" priority="956" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",K2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="602" priority="950" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="602" priority="957" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",K2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="containsText" dxfId="601" priority="947" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="601" priority="954" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="600" priority="948" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="600" priority="955" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="containsText" dxfId="599" priority="945" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="599" priority="952" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="598" priority="946" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="598" priority="953" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="containsText" dxfId="597" priority="943" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="597" priority="950" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="596" priority="944" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="596" priority="951" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="containsText" dxfId="595" priority="941" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="595" priority="948" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="594" priority="942" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="594" priority="949" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="containsText" dxfId="593" priority="939" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="593" priority="946" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="592" priority="940" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="592" priority="947" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="containsText" dxfId="591" priority="937" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="591" priority="944" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="590" priority="938" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="590" priority="945" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="containsText" dxfId="589" priority="935" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="589" priority="942" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="588" priority="936" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="588" priority="943" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="containsText" dxfId="587" priority="933" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="587" priority="940" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="586" priority="934" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="586" priority="941" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="containsText" dxfId="585" priority="931" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="585" priority="938" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="584" priority="932" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="584" priority="939" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="containsText" dxfId="583" priority="929" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="583" priority="936" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="582" priority="930" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="582" priority="937" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="containsText" dxfId="581" priority="927" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="581" priority="934" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="580" priority="928" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="580" priority="935" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="containsText" dxfId="579" priority="925" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="579" priority="932" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="578" priority="926" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="578" priority="933" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="containsText" dxfId="577" priority="923" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="577" priority="930" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="576" priority="924" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="576" priority="931" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="containsText" dxfId="575" priority="921" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="575" priority="928" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="574" priority="922" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="574" priority="929" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="containsText" dxfId="573" priority="919" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="573" priority="926" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="572" priority="920" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="572" priority="927" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="containsText" dxfId="571" priority="917" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="571" priority="924" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="570" priority="918" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="570" priority="925" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="containsText" dxfId="569" priority="915" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="569" priority="922" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="568" priority="916" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="568" priority="923" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="containsText" dxfId="567" priority="913" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="567" priority="920" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="566" priority="914" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="566" priority="921" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="containsText" dxfId="565" priority="911" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="565" priority="918" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="564" priority="912" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="564" priority="919" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="containsText" dxfId="563" priority="909" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="563" priority="916" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="562" priority="910" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="562" priority="917" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="containsText" dxfId="561" priority="907" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="561" priority="914" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="560" priority="908" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="560" priority="915" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="containsText" dxfId="559" priority="905" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="559" priority="912" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="558" priority="906" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="558" priority="913" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="containsText" dxfId="557" priority="903" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="557" priority="910" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="556" priority="904" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="556" priority="911" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="containsText" dxfId="555" priority="901" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="555" priority="908" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="554" priority="902" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="554" priority="909" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="containsText" dxfId="553" priority="899" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="553" priority="906" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="552" priority="900" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="552" priority="907" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="containsText" dxfId="551" priority="897" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="551" priority="904" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="550" priority="898" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="550" priority="905" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="containsText" dxfId="549" priority="895" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="549" priority="902" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="548" priority="896" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="548" priority="903" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:D25">
-    <cfRule type="containsText" dxfId="547" priority="776" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="547" priority="783" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="546" priority="777" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="546" priority="784" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:D25">
-    <cfRule type="containsText" dxfId="545" priority="774" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="545" priority="781" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="544" priority="775" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="544" priority="782" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:D25">
-    <cfRule type="containsText" dxfId="543" priority="772" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="543" priority="779" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="542" priority="773" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="542" priority="780" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:D25">
-    <cfRule type="containsText" dxfId="541" priority="770" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="541" priority="777" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="540" priority="771" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="540" priority="778" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:D25">
-    <cfRule type="containsText" dxfId="539" priority="768" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="539" priority="775" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="538" priority="769" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="538" priority="776" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:D25">
-    <cfRule type="containsText" dxfId="537" priority="766" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="537" priority="773" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="536" priority="767" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="536" priority="774" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:D25">
-    <cfRule type="containsText" dxfId="535" priority="764" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="535" priority="771" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="534" priority="765" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="534" priority="772" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:D25">
-    <cfRule type="containsText" dxfId="533" priority="762" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="533" priority="769" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="532" priority="763" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="532" priority="770" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:D25">
-    <cfRule type="containsText" dxfId="531" priority="760" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="531" priority="767" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="530" priority="761" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="530" priority="768" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:D25">
-    <cfRule type="containsText" dxfId="529" priority="758" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="529" priority="765" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="528" priority="759" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="528" priority="766" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:D25">
-    <cfRule type="containsText" dxfId="527" priority="756" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="527" priority="763" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="526" priority="757" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="526" priority="764" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:D25">
-    <cfRule type="containsText" dxfId="525" priority="754" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="525" priority="761" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="524" priority="755" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="524" priority="762" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:D25">
-    <cfRule type="containsText" dxfId="523" priority="752" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="523" priority="759" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="522" priority="753" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="522" priority="760" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:D25">
-    <cfRule type="containsText" dxfId="521" priority="750" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="521" priority="757" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="520" priority="751" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="520" priority="758" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:D25">
-    <cfRule type="containsText" dxfId="519" priority="748" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="519" priority="755" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="518" priority="749" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="518" priority="756" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:D25">
-    <cfRule type="containsText" dxfId="517" priority="746" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="517" priority="753" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="516" priority="747" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="516" priority="754" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:D25">
-    <cfRule type="containsText" dxfId="515" priority="744" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="515" priority="751" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="514" priority="745" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="514" priority="752" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:D25">
-    <cfRule type="containsText" dxfId="513" priority="742" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="513" priority="749" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="512" priority="743" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="512" priority="750" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:D25">
-    <cfRule type="containsText" dxfId="511" priority="740" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="511" priority="747" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="510" priority="741" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="510" priority="748" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:D25">
-    <cfRule type="containsText" dxfId="509" priority="738" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="509" priority="745" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="508" priority="739" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="508" priority="746" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:D25">
-    <cfRule type="containsText" dxfId="507" priority="736" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="507" priority="743" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="506" priority="737" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="506" priority="744" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:D25">
-    <cfRule type="containsText" dxfId="505" priority="734" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="505" priority="741" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="504" priority="735" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="504" priority="742" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:D25">
-    <cfRule type="containsText" dxfId="503" priority="732" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="503" priority="739" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="502" priority="733" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="502" priority="740" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:D25">
-    <cfRule type="containsText" dxfId="501" priority="730" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="501" priority="737" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="500" priority="731" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="500" priority="738" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:D25">
-    <cfRule type="containsText" dxfId="499" priority="728" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="499" priority="735" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="498" priority="729" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="498" priority="736" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:D25">
-    <cfRule type="containsText" dxfId="497" priority="726" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="497" priority="733" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="496" priority="727" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="496" priority="734" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:D25">
-    <cfRule type="containsText" dxfId="495" priority="724" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="495" priority="731" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="494" priority="725" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="494" priority="732" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J18">
-    <cfRule type="containsText" dxfId="493" priority="723" operator="containsText" text="Android">
+    <cfRule type="containsText" dxfId="493" priority="730" operator="containsText" text="Android">
       <formula>NOT(ISERROR(SEARCH("Android",J18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J18">
-    <cfRule type="containsText" dxfId="492" priority="721" operator="containsText" text="Web">
+    <cfRule type="containsText" dxfId="492" priority="728" operator="containsText" text="Web">
       <formula>NOT(ISERROR(SEARCH("Web",J18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="491" priority="722" operator="containsText" text="iOS">
+    <cfRule type="containsText" dxfId="491" priority="729" operator="containsText" text="iOS">
       <formula>NOT(ISERROR(SEARCH("iOS",J18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:H3">
-    <cfRule type="containsText" dxfId="490" priority="600" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="490" priority="607" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",F3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="489" priority="601" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="489" priority="608" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",F3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="containsText" dxfId="488" priority="598" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="488" priority="605" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",I3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="487" priority="599" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="487" priority="606" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",I3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:L3">
-    <cfRule type="containsText" dxfId="486" priority="596" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="486" priority="603" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",K3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="485" priority="597" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="485" priority="604" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",K3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3">
-    <cfRule type="containsText" dxfId="484" priority="595" operator="containsText" text="Android">
+    <cfRule type="containsText" dxfId="484" priority="602" operator="containsText" text="Android">
       <formula>NOT(ISERROR(SEARCH("Android",J3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3">
-    <cfRule type="containsText" dxfId="483" priority="593" operator="containsText" text="Web">
+    <cfRule type="containsText" dxfId="483" priority="600" operator="containsText" text="Web">
       <formula>NOT(ISERROR(SEARCH("Web",J3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="482" priority="594" operator="containsText" text="iOS">
+    <cfRule type="containsText" dxfId="482" priority="601" operator="containsText" text="iOS">
       <formula>NOT(ISERROR(SEARCH("iOS",J3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="481" priority="591" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="481" priority="598" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="480" priority="592" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="480" priority="599" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="479" priority="589" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="479" priority="596" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="478" priority="590" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="478" priority="597" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="477" priority="587" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="477" priority="594" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="476" priority="588" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="476" priority="595" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="475" priority="585" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="475" priority="592" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="474" priority="586" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="474" priority="593" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="473" priority="583" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="473" priority="590" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="472" priority="584" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="472" priority="591" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="471" priority="581" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="471" priority="588" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="470" priority="582" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="470" priority="589" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="469" priority="579" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="469" priority="586" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="468" priority="580" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="468" priority="587" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="467" priority="577" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="467" priority="584" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="466" priority="578" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="466" priority="585" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="465" priority="575" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="465" priority="582" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="464" priority="576" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="464" priority="583" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="463" priority="573" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="463" priority="580" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="462" priority="574" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="462" priority="581" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="461" priority="571" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="461" priority="578" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="460" priority="572" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="460" priority="579" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="459" priority="569" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="459" priority="576" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="458" priority="570" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="458" priority="577" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="457" priority="567" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="457" priority="574" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="456" priority="568" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="456" priority="575" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="455" priority="565" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="455" priority="572" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="454" priority="566" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="454" priority="573" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="453" priority="563" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="453" priority="570" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="452" priority="564" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="452" priority="571" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="451" priority="561" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="451" priority="568" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="450" priority="562" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="450" priority="569" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="449" priority="559" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="449" priority="566" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="448" priority="560" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="448" priority="567" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="447" priority="557" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="447" priority="564" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="446" priority="558" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="446" priority="565" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="445" priority="555" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="445" priority="562" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="444" priority="556" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="444" priority="563" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="443" priority="553" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="443" priority="560" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="442" priority="554" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="442" priority="561" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="441" priority="551" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="441" priority="558" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="440" priority="552" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="440" priority="559" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="439" priority="549" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="439" priority="556" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="438" priority="550" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="438" priority="557" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="437" priority="547" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="437" priority="554" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="436" priority="548" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="436" priority="555" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="435" priority="545" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="435" priority="552" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="434" priority="546" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="434" priority="553" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="433" priority="543" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="433" priority="550" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="432" priority="544" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="432" priority="551" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="431" priority="541" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="431" priority="548" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="430" priority="542" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="430" priority="549" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="429" priority="539" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="429" priority="546" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="428" priority="540" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="428" priority="547" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="427" priority="537" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="427" priority="544" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="426" priority="538" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="426" priority="545" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="425" priority="535" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="425" priority="542" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="424" priority="536" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="424" priority="543" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="423" priority="533" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="423" priority="540" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="422" priority="534" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="422" priority="541" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="421" priority="531" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="421" priority="538" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="420" priority="532" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="420" priority="539" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="419" priority="529" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="419" priority="536" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="418" priority="530" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="418" priority="537" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="417" priority="527" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="417" priority="534" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="416" priority="528" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="416" priority="535" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="415" priority="525" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="415" priority="532" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="414" priority="526" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="414" priority="533" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="413" priority="523" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="413" priority="530" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="412" priority="524" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="412" priority="531" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="411" priority="521" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="411" priority="528" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="410" priority="522" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="410" priority="529" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="409" priority="519" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="409" priority="526" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="408" priority="520" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="408" priority="527" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="407" priority="517" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="407" priority="524" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="406" priority="518" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="406" priority="525" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="405" priority="515" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="405" priority="522" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="404" priority="516" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="404" priority="523" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="403" priority="513" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="403" priority="520" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="402" priority="514" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="402" priority="521" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="401" priority="511" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="401" priority="518" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="400" priority="512" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="400" priority="519" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="399" priority="509" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="399" priority="516" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="398" priority="510" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="398" priority="517" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="397" priority="507" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="397" priority="514" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="396" priority="508" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="396" priority="515" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="395" priority="505" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="395" priority="512" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="394" priority="506" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="394" priority="513" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="393" priority="503" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="393" priority="510" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="392" priority="504" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="392" priority="511" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="391" priority="501" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="391" priority="508" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="390" priority="502" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="390" priority="509" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="389" priority="499" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="389" priority="506" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="388" priority="500" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="388" priority="507" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="387" priority="497" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="387" priority="504" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="386" priority="498" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="386" priority="505" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="385" priority="495" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="385" priority="502" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="384" priority="496" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="384" priority="503" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="383" priority="493" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="383" priority="500" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="382" priority="494" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="382" priority="501" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="381" priority="491" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="381" priority="498" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="380" priority="492" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="380" priority="499" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="379" priority="489" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="379" priority="496" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="378" priority="490" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="378" priority="497" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="377" priority="487" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="377" priority="494" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="376" priority="488" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="376" priority="495" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="375" priority="485" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="375" priority="492" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="374" priority="486" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="374" priority="493" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E35">
-    <cfRule type="containsText" dxfId="373" priority="366" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="373" priority="373" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",E35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="372" priority="367" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="372" priority="374" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",E35)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7:H7">
-    <cfRule type="containsText" dxfId="371" priority="364" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="371" priority="371" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",F7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="370" priority="365" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="370" priority="372" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",F7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="containsText" dxfId="369" priority="362" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="369" priority="369" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",I7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="368" priority="363" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="368" priority="370" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",I7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K7:L7">
-    <cfRule type="containsText" dxfId="367" priority="360" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="367" priority="367" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",K7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="366" priority="361" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="366" priority="368" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",K7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7">
-    <cfRule type="containsText" dxfId="365" priority="359" operator="containsText" text="Android">
+    <cfRule type="containsText" dxfId="365" priority="366" operator="containsText" text="Android">
       <formula>NOT(ISERROR(SEARCH("Android",J7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7">
-    <cfRule type="containsText" dxfId="364" priority="357" operator="containsText" text="Web">
+    <cfRule type="containsText" dxfId="364" priority="364" operator="containsText" text="Web">
       <formula>NOT(ISERROR(SEARCH("Web",J7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="363" priority="358" operator="containsText" text="iOS">
+    <cfRule type="containsText" dxfId="363" priority="365" operator="containsText" text="iOS">
       <formula>NOT(ISERROR(SEARCH("iOS",J7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="containsText" dxfId="362" priority="355" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="362" priority="362" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="361" priority="356" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="361" priority="363" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="containsText" dxfId="360" priority="353" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="360" priority="360" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="359" priority="354" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="359" priority="361" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="containsText" dxfId="358" priority="351" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="358" priority="358" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="357" priority="352" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="357" priority="359" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="containsText" dxfId="356" priority="349" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="356" priority="356" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="355" priority="350" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="355" priority="357" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="containsText" dxfId="354" priority="347" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="354" priority="354" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="353" priority="348" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="353" priority="355" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="containsText" dxfId="352" priority="345" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="352" priority="352" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="351" priority="346" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="351" priority="353" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="containsText" dxfId="350" priority="343" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="350" priority="350" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="349" priority="344" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="349" priority="351" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="containsText" dxfId="348" priority="341" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="348" priority="348" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="347" priority="342" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="347" priority="349" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="containsText" dxfId="346" priority="339" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="346" priority="346" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="345" priority="340" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="345" priority="347" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="containsText" dxfId="344" priority="337" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="344" priority="344" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="343" priority="338" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="343" priority="345" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="containsText" dxfId="342" priority="335" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="342" priority="342" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="341" priority="336" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="341" priority="343" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="containsText" dxfId="340" priority="333" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="340" priority="340" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="339" priority="334" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="339" priority="341" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="containsText" dxfId="338" priority="331" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="338" priority="338" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="337" priority="332" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="337" priority="339" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="containsText" dxfId="336" priority="329" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="336" priority="336" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="335" priority="330" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="335" priority="337" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="containsText" dxfId="334" priority="327" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="334" priority="334" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="333" priority="328" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="333" priority="335" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="containsText" dxfId="332" priority="325" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="332" priority="332" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="331" priority="326" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="331" priority="333" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="containsText" dxfId="330" priority="323" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="330" priority="330" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="329" priority="324" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="329" priority="331" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="containsText" dxfId="328" priority="321" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="328" priority="328" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="327" priority="322" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="327" priority="329" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="containsText" dxfId="326" priority="319" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="326" priority="326" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="325" priority="320" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="325" priority="327" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="containsText" dxfId="324" priority="317" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="324" priority="324" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="323" priority="318" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="323" priority="325" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="containsText" dxfId="322" priority="315" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="322" priority="322" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="321" priority="316" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="321" priority="323" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="containsText" dxfId="320" priority="313" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="320" priority="320" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="319" priority="314" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="319" priority="321" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="containsText" dxfId="318" priority="311" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="318" priority="318" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="317" priority="312" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="317" priority="319" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="containsText" dxfId="316" priority="309" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="316" priority="316" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="315" priority="310" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="315" priority="317" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="containsText" dxfId="314" priority="307" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="314" priority="314" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="313" priority="308" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="313" priority="315" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="containsText" dxfId="312" priority="305" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="312" priority="312" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="311" priority="306" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="311" priority="313" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="containsText" dxfId="310" priority="303" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="310" priority="310" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="309" priority="304" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="309" priority="311" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="containsText" dxfId="308" priority="301" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="308" priority="308" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="307" priority="302" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="307" priority="309" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="containsText" dxfId="306" priority="299" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="306" priority="306" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="305" priority="300" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="305" priority="307" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="containsText" dxfId="304" priority="297" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="304" priority="304" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="303" priority="298" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="303" priority="305" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="containsText" dxfId="302" priority="295" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="302" priority="302" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="301" priority="296" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="301" priority="303" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="containsText" dxfId="300" priority="293" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="300" priority="300" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="299" priority="294" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="299" priority="301" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="containsText" dxfId="298" priority="291" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="298" priority="298" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="297" priority="292" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="297" priority="299" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="containsText" dxfId="296" priority="289" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="296" priority="296" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="295" priority="290" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="295" priority="297" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="containsText" dxfId="294" priority="287" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="294" priority="294" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="293" priority="288" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="293" priority="295" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="containsText" dxfId="292" priority="285" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="292" priority="292" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="291" priority="286" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="291" priority="293" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="containsText" dxfId="290" priority="283" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="290" priority="290" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="289" priority="284" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="289" priority="291" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="containsText" dxfId="288" priority="281" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="288" priority="288" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="287" priority="282" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="287" priority="289" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="containsText" dxfId="286" priority="279" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="286" priority="286" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="285" priority="280" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="285" priority="287" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="containsText" dxfId="284" priority="277" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="284" priority="284" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="283" priority="278" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="283" priority="285" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="containsText" dxfId="282" priority="275" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="282" priority="282" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="281" priority="276" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="281" priority="283" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="containsText" dxfId="280" priority="273" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="280" priority="280" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="279" priority="274" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="279" priority="281" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="containsText" dxfId="278" priority="271" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="278" priority="278" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="277" priority="272" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="277" priority="279" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="containsText" dxfId="276" priority="269" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="276" priority="276" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="275" priority="270" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="275" priority="277" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="containsText" dxfId="274" priority="267" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="274" priority="274" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="273" priority="268" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="273" priority="275" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="containsText" dxfId="272" priority="265" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="272" priority="272" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="271" priority="266" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="271" priority="273" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="containsText" dxfId="270" priority="263" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="270" priority="270" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="269" priority="264" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="269" priority="271" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="containsText" dxfId="268" priority="261" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="268" priority="268" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="267" priority="262" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="267" priority="269" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="containsText" dxfId="266" priority="259" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="266" priority="266" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="265" priority="260" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="265" priority="267" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="containsText" dxfId="264" priority="257" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="264" priority="264" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="263" priority="258" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="263" priority="265" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="containsText" dxfId="262" priority="255" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="262" priority="262" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="261" priority="256" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="261" priority="263" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="containsText" dxfId="260" priority="253" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="260" priority="260" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="259" priority="254" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="259" priority="261" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="containsText" dxfId="258" priority="251" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="258" priority="258" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="257" priority="252" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="257" priority="259" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="containsText" dxfId="256" priority="249" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="256" priority="256" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="255" priority="250" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="255" priority="257" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:H4">
-    <cfRule type="containsText" dxfId="254" priority="247" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="254" priority="254" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",F4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="253" priority="248" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="253" priority="255" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",F4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="containsText" dxfId="252" priority="245" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="252" priority="252" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",I4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="251" priority="246" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="251" priority="253" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",I4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:L4">
-    <cfRule type="containsText" dxfId="250" priority="243" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="250" priority="250" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",K4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="249" priority="244" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="249" priority="251" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",K4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4">
-    <cfRule type="containsText" dxfId="248" priority="242" operator="containsText" text="Android">
+    <cfRule type="containsText" dxfId="248" priority="249" operator="containsText" text="Android">
       <formula>NOT(ISERROR(SEARCH("Android",J4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4">
-    <cfRule type="containsText" dxfId="247" priority="240" operator="containsText" text="Web">
+    <cfRule type="containsText" dxfId="247" priority="247" operator="containsText" text="Web">
       <formula>NOT(ISERROR(SEARCH("Web",J4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="246" priority="241" operator="containsText" text="iOS">
+    <cfRule type="containsText" dxfId="246" priority="248" operator="containsText" text="iOS">
       <formula>NOT(ISERROR(SEARCH("iOS",J4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="245" priority="238" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="245" priority="245" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="244" priority="239" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="244" priority="246" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="243" priority="236" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="243" priority="243" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="242" priority="237" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="242" priority="244" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="241" priority="234" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="241" priority="241" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="240" priority="235" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="240" priority="242" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="239" priority="232" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="239" priority="239" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="238" priority="233" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="238" priority="240" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="237" priority="230" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="237" priority="237" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="236" priority="231" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="236" priority="238" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="235" priority="228" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="235" priority="235" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="234" priority="229" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="234" priority="236" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="233" priority="226" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="233" priority="233" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="232" priority="227" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="232" priority="234" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="231" priority="224" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="231" priority="231" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="230" priority="225" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="230" priority="232" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="229" priority="222" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="229" priority="229" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="228" priority="223" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="228" priority="230" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="227" priority="220" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="227" priority="227" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="226" priority="221" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="226" priority="228" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="225" priority="218" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="225" priority="225" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="224" priority="219" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="224" priority="226" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="223" priority="216" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="223" priority="223" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="222" priority="217" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="222" priority="224" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="221" priority="214" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="221" priority="221" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="220" priority="215" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="220" priority="222" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="219" priority="212" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="219" priority="219" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="218" priority="213" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="218" priority="220" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="217" priority="210" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="217" priority="217" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="216" priority="211" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="216" priority="218" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="215" priority="208" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="215" priority="215" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="214" priority="209" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="214" priority="216" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="213" priority="206" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="213" priority="213" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="212" priority="207" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="212" priority="214" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="211" priority="204" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="211" priority="211" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="210" priority="205" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="210" priority="212" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="209" priority="202" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="209" priority="209" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="208" priority="203" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="208" priority="210" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="207" priority="200" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="207" priority="207" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="206" priority="201" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="206" priority="208" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="205" priority="198" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="205" priority="205" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="204" priority="199" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="204" priority="206" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="203" priority="196" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="203" priority="203" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="202" priority="197" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="202" priority="204" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="201" priority="194" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="201" priority="201" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="200" priority="195" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="200" priority="202" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="199" priority="192" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="199" priority="199" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="198" priority="193" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="198" priority="200" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="197" priority="190" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="197" priority="197" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="196" priority="191" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="196" priority="198" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="195" priority="188" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="195" priority="195" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="194" priority="189" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="194" priority="196" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="193" priority="186" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="193" priority="193" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="192" priority="187" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="192" priority="194" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="191" priority="184" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="191" priority="191" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="190" priority="185" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="190" priority="192" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="189" priority="182" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="189" priority="189" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="188" priority="183" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="188" priority="190" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="187" priority="180" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="187" priority="187" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="186" priority="181" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="186" priority="188" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="185" priority="178" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="185" priority="185" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="184" priority="179" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="184" priority="186" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="183" priority="176" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="183" priority="183" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="182" priority="177" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="182" priority="184" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="181" priority="174" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="181" priority="181" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="180" priority="175" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="180" priority="182" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="179" priority="172" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="179" priority="179" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="178" priority="173" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="178" priority="180" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="177" priority="170" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="177" priority="177" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="176" priority="171" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="176" priority="178" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="175" priority="168" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="175" priority="175" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="174" priority="169" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="174" priority="176" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="173" priority="166" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="173" priority="173" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="172" priority="167" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="172" priority="174" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="171" priority="164" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="171" priority="171" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="170" priority="165" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="170" priority="172" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="169" priority="162" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="169" priority="169" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="168" priority="163" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="168" priority="170" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="167" priority="160" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="167" priority="167" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="166" priority="161" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="166" priority="168" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="165" priority="158" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="165" priority="165" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="164" priority="159" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="164" priority="166" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="163" priority="156" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="163" priority="163" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="162" priority="157" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="162" priority="164" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="161" priority="154" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="161" priority="161" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="160" priority="155" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="160" priority="162" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="159" priority="152" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="159" priority="159" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="158" priority="153" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="158" priority="160" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="157" priority="150" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="157" priority="157" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="156" priority="151" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="156" priority="158" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="155" priority="148" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="155" priority="155" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="154" priority="149" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="154" priority="156" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="153" priority="146" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="153" priority="153" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="152" priority="147" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="152" priority="154" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="151" priority="144" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="151" priority="151" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="150" priority="145" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="150" priority="152" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="149" priority="142" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="149" priority="149" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="148" priority="143" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="148" priority="150" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="147" priority="140" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="147" priority="147" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="146" priority="141" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="146" priority="148" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="145" priority="138" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="145" priority="145" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="144" priority="139" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="144" priority="146" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="143" priority="136" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="143" priority="143" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="142" priority="137" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="142" priority="144" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="141" priority="134" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="141" priority="141" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="140" priority="135" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="140" priority="142" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="139" priority="132" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="139" priority="139" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="138" priority="133" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="138" priority="140" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8:H8">
-    <cfRule type="containsText" dxfId="137" priority="130" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="137" priority="137" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",F8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="136" priority="131" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="136" priority="138" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",F8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="containsText" dxfId="135" priority="128" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="135" priority="135" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",I8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="134" priority="129" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="134" priority="136" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",I8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8:L8">
-    <cfRule type="containsText" dxfId="133" priority="126" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="133" priority="133" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",K8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="132" priority="127" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="132" priority="134" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",K8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8">
-    <cfRule type="containsText" dxfId="131" priority="125" operator="containsText" text="Android">
+    <cfRule type="containsText" dxfId="131" priority="132" operator="containsText" text="Android">
       <formula>NOT(ISERROR(SEARCH("Android",J8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8">
-    <cfRule type="containsText" dxfId="130" priority="123" operator="containsText" text="Web">
+    <cfRule type="containsText" dxfId="130" priority="130" operator="containsText" text="Web">
       <formula>NOT(ISERROR(SEARCH("Web",J8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="129" priority="124" operator="containsText" text="iOS">
+    <cfRule type="containsText" dxfId="129" priority="131" operator="containsText" text="iOS">
       <formula>NOT(ISERROR(SEARCH("iOS",J8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="containsText" dxfId="128" priority="121" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="128" priority="128" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="127" priority="122" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="127" priority="129" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="containsText" dxfId="126" priority="119" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="126" priority="126" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="125" priority="120" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="125" priority="127" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="containsText" dxfId="124" priority="117" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="124" priority="124" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="123" priority="118" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="123" priority="125" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="containsText" dxfId="122" priority="115" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="122" priority="122" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="121" priority="116" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="121" priority="123" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="containsText" dxfId="120" priority="113" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="120" priority="120" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="119" priority="114" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="119" priority="121" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="containsText" dxfId="118" priority="111" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="118" priority="118" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="117" priority="112" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="117" priority="119" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="containsText" dxfId="116" priority="109" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="116" priority="116" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="115" priority="110" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="115" priority="117" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="containsText" dxfId="114" priority="107" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="114" priority="114" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="113" priority="108" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="113" priority="115" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="containsText" dxfId="112" priority="105" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="112" priority="112" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="111" priority="106" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="111" priority="113" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="containsText" dxfId="110" priority="103" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="110" priority="110" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="109" priority="104" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="109" priority="111" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="containsText" dxfId="108" priority="101" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="108" priority="108" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="107" priority="102" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="107" priority="109" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="containsText" dxfId="106" priority="99" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="106" priority="106" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="105" priority="100" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="105" priority="107" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="containsText" dxfId="104" priority="97" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="104" priority="104" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="103" priority="98" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="103" priority="105" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="containsText" dxfId="102" priority="95" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="102" priority="102" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="101" priority="96" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="101" priority="103" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="containsText" dxfId="100" priority="93" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="100" priority="100" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="99" priority="94" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="99" priority="101" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="containsText" dxfId="98" priority="91" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="98" priority="98" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="97" priority="92" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="97" priority="99" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="containsText" dxfId="96" priority="89" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="96" priority="96" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="95" priority="90" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="95" priority="97" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="containsText" dxfId="94" priority="87" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="94" priority="94" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="93" priority="88" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="93" priority="95" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="containsText" dxfId="92" priority="85" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="92" priority="92" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="91" priority="86" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="91" priority="93" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="containsText" dxfId="90" priority="83" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="90" priority="90" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="89" priority="84" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="89" priority="91" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="containsText" dxfId="88" priority="81" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="88" priority="88" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="87" priority="82" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="87" priority="89" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="containsText" dxfId="86" priority="79" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="86" priority="86" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="85" priority="80" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="85" priority="87" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="containsText" dxfId="84" priority="77" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="84" priority="84" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="83" priority="78" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="83" priority="85" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="containsText" dxfId="82" priority="75" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="82" priority="82" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="81" priority="76" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="81" priority="83" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="containsText" dxfId="80" priority="73" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="80" priority="80" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="79" priority="74" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="79" priority="81" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="containsText" dxfId="78" priority="71" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="78" priority="78" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="77" priority="72" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="77" priority="79" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="containsText" dxfId="76" priority="69" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="76" priority="76" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="75" priority="70" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="75" priority="77" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="containsText" dxfId="74" priority="67" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="74" priority="74" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="73" priority="68" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="73" priority="75" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="containsText" dxfId="72" priority="65" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="72" priority="72" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="71" priority="66" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="71" priority="73" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="containsText" dxfId="70" priority="63" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="70" priority="70" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="69" priority="64" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="69" priority="71" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="containsText" dxfId="68" priority="61" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="68" priority="68" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="67" priority="62" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="67" priority="69" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="containsText" dxfId="66" priority="59" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="66" priority="66" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="65" priority="60" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="65" priority="67" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="containsText" dxfId="64" priority="57" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="64" priority="64" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="63" priority="58" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="63" priority="65" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="containsText" dxfId="62" priority="55" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="62" priority="62" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="61" priority="56" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="61" priority="63" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="containsText" dxfId="60" priority="53" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="60" priority="60" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="59" priority="54" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="59" priority="61" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="containsText" dxfId="58" priority="51" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="58" priority="58" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="57" priority="52" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="57" priority="59" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="containsText" dxfId="56" priority="49" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="56" priority="56" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="55" priority="50" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="55" priority="57" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="containsText" dxfId="54" priority="47" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="54" priority="54" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="53" priority="48" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="53" priority="55" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="containsText" dxfId="52" priority="45" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="52" priority="52" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="51" priority="46" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="51" priority="53" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="containsText" dxfId="50" priority="43" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="50" priority="50" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="49" priority="44" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="49" priority="51" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="containsText" dxfId="48" priority="41" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="48" priority="48" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="47" priority="42" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="47" priority="49" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="containsText" dxfId="46" priority="39" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="46" priority="46" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="40" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="45" priority="47" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="containsText" dxfId="44" priority="37" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="44" priority="44" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="38" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="43" priority="45" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="containsText" dxfId="42" priority="35" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="42" priority="42" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="41" priority="36" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="41" priority="43" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="containsText" dxfId="40" priority="33" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="40" priority="40" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="39" priority="34" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="39" priority="41" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="containsText" dxfId="38" priority="31" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="38" priority="38" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="32" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="37" priority="39" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="containsText" dxfId="36" priority="29" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="36" priority="36" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="35" priority="30" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="35" priority="37" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="containsText" dxfId="34" priority="27" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="34" priority="34" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="28" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="33" priority="35" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="containsText" dxfId="32" priority="25" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="32" priority="32" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="26" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="31" priority="33" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="containsText" dxfId="30" priority="23" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="30" priority="30" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="24" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="29" priority="31" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="containsText" dxfId="28" priority="21" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="28" priority="28" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="22" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="27" priority="29" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="containsText" dxfId="26" priority="19" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="26" priority="26" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="20" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="25" priority="27" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="containsText" dxfId="24" priority="17" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="24" priority="24" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="18" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="23" priority="25" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="containsText" dxfId="22" priority="15" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="22" priority="22" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="16" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="21" priority="23" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9:I9">
-    <cfRule type="containsText" dxfId="20" priority="13" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="20" priority="20" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",F9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="14" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="19" priority="21" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",F9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K9:L9 D9">
-    <cfRule type="containsText" dxfId="18" priority="11" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="18" priority="18" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="12" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="17" priority="19" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J9">
-    <cfRule type="containsText" dxfId="16" priority="10" operator="containsText" text="Android">
+    <cfRule type="containsText" dxfId="16" priority="17" operator="containsText" text="Android">
       <formula>NOT(ISERROR(SEARCH("Android",J9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J9">
-    <cfRule type="containsText" dxfId="15" priority="8" operator="containsText" text="Web">
+    <cfRule type="containsText" dxfId="15" priority="15" operator="containsText" text="Web">
       <formula>NOT(ISERROR(SEARCH("Web",J9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="9" operator="containsText" text="iOS">
+    <cfRule type="containsText" dxfId="14" priority="16" operator="containsText" text="iOS">
       <formula>NOT(ISERROR(SEARCH("iOS",J9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:I11">
-    <cfRule type="containsText" dxfId="13" priority="6" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="13" priority="13" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",F11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="7" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="12" priority="14" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",F11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11:L11 D11">
-    <cfRule type="containsText" dxfId="9" priority="4" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="11" priority="11" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="5" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="10" priority="12" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11">
-    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="Android">
+    <cfRule type="containsText" dxfId="9" priority="10" operator="containsText" text="Android">
       <formula>NOT(ISERROR(SEARCH("Android",J11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Web">
+    <cfRule type="containsText" dxfId="8" priority="8" operator="containsText" text="Web">
       <formula>NOT(ISERROR(SEARCH("Web",J11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="iOS">
+    <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="iOS">
       <formula>NOT(ISERROR(SEARCH("iOS",J11)))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="F12:I12">
+    <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",F12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",F12)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K12:L12 D12">
+    <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",D12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="5" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",D12)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J12">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="Android">
+      <formula>NOT(ISERROR(SEARCH("Android",J12)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J12">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Web">
+      <formula>NOT(ISERROR(SEARCH("Web",J12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="iOS">
+      <formula>NOT(ISERROR(SEARCH("iOS",J12)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K44:L46 K48:L50 D54:D60 K54:L60 K62:L67 K69:L73 D69:D73 D62:D67 D2:D50 K2:L42">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K44:L46 K48:L50 D54:D60 K54:L60 K62:L67 K69:L73 D69:D73 D62:D67 K2:L42 D2:D50">
       <formula1>"Sim,Não"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J54:J60 J69:J73 J62:J67 J2:J50">
@@ -19986,11 +20094,11 @@
       </c>
       <c r="I7" s="39">
         <f>COUNTIF(Testes!J3:J51,"Android")</f>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J7" s="39">
         <f>COUNTIFS(Testes!G3:G51,"Passed",Testes!J3:J51,"Android")</f>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K7" s="39">
         <f>COUNTIFS(Testes!G3:G51,"Failed",Testes!J3:J51,"Android")</f>
@@ -20005,7 +20113,7 @@
       <c r="A8" s="44"/>
       <c r="B8" s="53">
         <f>COUNTIF(Testes!A3:A51,"&lt;&gt;"&amp;"")</f>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C8" s="113"/>
       <c r="D8" s="113"/>
@@ -20072,7 +20180,7 @@
       </c>
       <c r="D10" s="39">
         <f>J11</f>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E10" s="39">
         <f>K11</f>
@@ -20108,11 +20216,11 @@
       </c>
       <c r="I11" s="39">
         <f>SUM(I7:I9)</f>
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J11" s="39">
         <f>SUM(J7:J9)</f>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K11" s="39">
         <f>SUM(K7:K9)</f>

--- a/data/backup/AutoVC.xlsx
+++ b/data/backup/AutoVC.xlsx
@@ -14,7 +14,7 @@
     <sheet name="Montagem" sheetId="12" state="hidden" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Testes!$A$1:$AG$54</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Testes!$A$1:$AG$56</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="3" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT([0]!LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_SECOND_FORMAT" hidden="1">" "</definedName>
@@ -37,7 +37,7 @@
     <author>Autor</author>
   </authors>
   <commentList>
-    <comment ref="C27" authorId="0" shapeId="0">
+    <comment ref="C29" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -61,7 +61,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B31" authorId="0" shapeId="0">
+    <comment ref="B33" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -75,7 +75,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q43" authorId="0" shapeId="0">
+    <comment ref="Q45" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -106,7 +106,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2375" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2441" uniqueCount="433">
   <si>
     <t>Telefone</t>
   </si>
@@ -1398,16 +1398,28 @@
     <t>samtesteaz03@gmail.com</t>
   </si>
   <si>
-    <t>00:01:15</t>
-  </si>
-  <si>
-    <t>Cards desconto por direção, amizade e 800 milhas não cumprida</t>
-  </si>
-  <si>
     <t>Usuario 20 viagens score &lt;70 - Missoes Não Cumpridas</t>
   </si>
   <si>
-    <t>00:00:39</t>
+    <t>00:00:41</t>
+  </si>
+  <si>
+    <t>Captura dos Cards desconto por direção, amizade e 800 milhas não cumprida</t>
+  </si>
+  <si>
+    <t>Captura tela dos brindes não conquistados, desconto por direção, amizade e 800 milhas não cumprida</t>
+  </si>
+  <si>
+    <t>Usuario 20 viagens score &lt;70 - Brindes Não Conquistados</t>
+  </si>
+  <si>
+    <t>Captura cupom não consquistado, Smiles</t>
+  </si>
+  <si>
+    <t>Usuario 20 viagens score &lt;70 - Cupom smiles Não Conquistado</t>
+  </si>
+  <si>
+    <t>00:01:08</t>
   </si>
 </sst>
 </file>
@@ -1653,7 +1665,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="26">
+  <fills count="27">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1804,6 +1816,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="5">
     <border>
@@ -1875,7 +1893,7 @@
     <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -2090,6 +2108,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hiperlink" xfId="2" builtinId="8"/>
@@ -2098,7 +2117,67 @@
     <cellStyle name="Porcentagem" xfId="3" builtinId="5"/>
     <cellStyle name="Vírgula" xfId="4" builtinId="3"/>
   </cellStyles>
-  <dxfs count="805">
+  <dxfs count="812">
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C6500"/>
@@ -9534,8 +9613,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="804"/>
-      <tableStyleElement type="headerRow" dxfId="803"/>
+      <tableStyleElement type="wholeTable" dxfId="811"/>
+      <tableStyleElement type="headerRow" dxfId="810"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -9842,19 +9921,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Plan3"/>
-  <dimension ref="A1:AI88"/>
+  <dimension ref="A1:AI90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
+      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="7.42578125" style="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="49.140625" style="9" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="121.140625" style="73" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="51.140625" style="9" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="114.28515625" style="73" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="9.5703125" style="29" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="43.5703125" style="9" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="35.7109375" style="9" customWidth="1" collapsed="1"/>
@@ -10193,7 +10272,7 @@
       <c r="A4" s="14" t="s">
         <v>256</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="116" t="s">
         <v>389</v>
       </c>
       <c r="C4" s="93" t="s">
@@ -10294,7 +10373,7 @@
       <c r="A5" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="116" t="s">
         <v>390</v>
       </c>
       <c r="C5" s="93" t="s">
@@ -10395,7 +10474,7 @@
       <c r="A6" s="14" t="s">
         <v>222</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="116" t="s">
         <v>391</v>
       </c>
       <c r="C6" s="93" t="s">
@@ -10597,7 +10676,7 @@
       <c r="A8" s="14" t="s">
         <v>257</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="116" t="s">
         <v>409</v>
       </c>
       <c r="C8" s="93" t="s">
@@ -10698,7 +10777,7 @@
       <c r="A9" s="14" t="s">
         <v>224</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="116" t="s">
         <v>418</v>
       </c>
       <c r="C9" s="93" t="s">
@@ -10919,7 +10998,7 @@
         <v>231</v>
       </c>
       <c r="H11" t="s">
-        <v>425</v>
+        <v>432</v>
       </c>
       <c r="I11" t="s">
         <v>406</v>
@@ -11001,14 +11080,14 @@
       <c r="A12" s="14" t="s">
         <v>220</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="116" t="s">
+        <v>425</v>
+      </c>
+      <c r="C12" s="93" t="s">
         <v>427</v>
       </c>
-      <c r="C12" s="93" t="s">
-        <v>426</v>
-      </c>
       <c r="D12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>110</v>
@@ -11020,7 +11099,7 @@
         <v>231</v>
       </c>
       <c r="H12" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="I12" t="s">
         <v>406</v>
@@ -11100,16 +11179,16 @@
     </row>
     <row r="13" spans="1:33">
       <c r="A13" s="14" t="s">
-        <v>258</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>185</v>
-      </c>
-      <c r="C13" s="74" t="s">
-        <v>186</v>
+        <v>221</v>
+      </c>
+      <c r="B13" s="116" t="s">
+        <v>429</v>
+      </c>
+      <c r="C13" s="93" t="s">
+        <v>428</v>
       </c>
       <c r="D13" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>110</v>
@@ -11121,25 +11200,25 @@
         <v>231</v>
       </c>
       <c r="H13" t="s">
-        <v>404</v>
+        <v>420</v>
       </c>
       <c r="I13" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="J13" t="s">
         <v>132</v>
       </c>
       <c r="K13" s="22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L13" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="M13" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="N13" s="7" t="s">
-        <v>130</v>
+      <c r="M13" s="90" t="s">
+        <v>424</v>
+      </c>
+      <c r="N13" s="77" t="s">
+        <v>251</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>130</v>
@@ -11153,7 +11232,7 @@
       <c r="R13" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="S13" s="66" t="s">
+      <c r="S13" s="7" t="s">
         <v>130</v>
       </c>
       <c r="T13" s="7" t="s">
@@ -11201,13 +11280,13 @@
     </row>
     <row r="14" spans="1:33">
       <c r="A14" s="14" t="s">
-        <v>259</v>
-      </c>
-      <c r="B14" s="70" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="74" t="s">
-        <v>17</v>
+        <v>222</v>
+      </c>
+      <c r="B14" s="116" t="s">
+        <v>431</v>
+      </c>
+      <c r="C14" s="93" t="s">
+        <v>430</v>
       </c>
       <c r="D14" t="s">
         <v>127</v>
@@ -11222,25 +11301,25 @@
         <v>231</v>
       </c>
       <c r="H14" t="s">
-        <v>280</v>
+        <v>392</v>
       </c>
       <c r="I14" t="s">
-        <v>400</v>
+        <v>351</v>
       </c>
       <c r="J14" t="s">
         <v>132</v>
       </c>
       <c r="K14" s="22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L14" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="M14" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="N14" s="7" t="s">
-        <v>130</v>
+      <c r="M14" s="90" t="s">
+        <v>424</v>
+      </c>
+      <c r="N14" s="77" t="s">
+        <v>251</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>130</v>
@@ -11302,13 +11381,13 @@
     </row>
     <row r="15" spans="1:33">
       <c r="A15" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="70" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="94" t="s">
-        <v>140</v>
+        <v>258</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="C15" s="74" t="s">
+        <v>186</v>
       </c>
       <c r="D15" t="s">
         <v>127</v>
@@ -11317,13 +11396,13 @@
         <v>110</v>
       </c>
       <c r="F15" t="s">
-        <v>405</v>
+        <v>110</v>
       </c>
       <c r="G15" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H15" t="s">
-        <v>282</v>
+        <v>404</v>
       </c>
       <c r="I15" t="s">
         <v>400</v>
@@ -11337,10 +11416,10 @@
       <c r="L15" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="M15" s="66" t="s">
-        <v>130</v>
-      </c>
-      <c r="N15" s="66" t="s">
+      <c r="M15" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="N15" s="7" t="s">
         <v>130</v>
       </c>
       <c r="O15" s="7" t="s">
@@ -11349,18 +11428,20 @@
       <c r="P15" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="Q15" s="8"/>
-      <c r="R15" s="86" t="s">
-        <v>278</v>
-      </c>
-      <c r="S15" s="6" t="s">
-        <v>279</v>
-      </c>
-      <c r="T15" t="s">
-        <v>4</v>
-      </c>
-      <c r="U15" t="s">
-        <v>5</v>
+      <c r="Q15" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="R15" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="S15" s="66" t="s">
+        <v>130</v>
+      </c>
+      <c r="T15" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="U15" s="7" t="s">
+        <v>130</v>
       </c>
       <c r="V15" s="7" t="s">
         <v>130</v>
@@ -11401,31 +11482,31 @@
     </row>
     <row r="16" spans="1:33">
       <c r="A16" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="B16" s="82" t="s">
-        <v>31</v>
+        <v>259</v>
+      </c>
+      <c r="B16" s="70" t="s">
+        <v>29</v>
       </c>
       <c r="C16" s="74" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D16" t="s">
         <v>127</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>147</v>
+        <v>110</v>
       </c>
       <c r="F16" t="s">
-        <v>147</v>
+        <v>110</v>
       </c>
       <c r="G16" t="s">
         <v>231</v>
       </c>
       <c r="H16" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="I16" t="s">
-        <v>290</v>
+        <v>400</v>
       </c>
       <c r="J16" t="s">
         <v>132</v>
@@ -11448,18 +11529,20 @@
       <c r="P16" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="Q16" s="8"/>
-      <c r="R16" t="s">
-        <v>3</v>
-      </c>
-      <c r="S16" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="T16" t="s">
-        <v>4</v>
-      </c>
-      <c r="U16" s="9">
-        <v>70971335036</v>
+      <c r="Q16" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="R16" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="S16" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="T16" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="U16" s="7" t="s">
+        <v>130</v>
       </c>
       <c r="V16" s="7" t="s">
         <v>130</v>
@@ -11500,31 +11583,31 @@
     </row>
     <row r="17" spans="1:33">
       <c r="A17" s="14" t="s">
-        <v>191</v>
-      </c>
-      <c r="B17" s="82" t="s">
-        <v>234</v>
-      </c>
-      <c r="C17" s="74" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="B17" s="70" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="94" t="s">
+        <v>140</v>
       </c>
       <c r="D17" t="s">
         <v>127</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>244</v>
+        <v>110</v>
       </c>
       <c r="F17" t="s">
-        <v>244</v>
+        <v>405</v>
       </c>
       <c r="G17" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H17" t="s">
         <v>282</v>
       </c>
       <c r="I17" t="s">
-        <v>290</v>
+        <v>400</v>
       </c>
       <c r="J17" t="s">
         <v>132</v>
@@ -11535,10 +11618,10 @@
       <c r="L17" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="M17" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="N17" s="7" t="s">
+      <c r="M17" s="66" t="s">
+        <v>130</v>
+      </c>
+      <c r="N17" s="66" t="s">
         <v>130</v>
       </c>
       <c r="O17" s="7" t="s">
@@ -11548,13 +11631,13 @@
         <v>130</v>
       </c>
       <c r="Q17" s="8"/>
-      <c r="R17" s="62" t="s">
-        <v>232</v>
-      </c>
-      <c r="S17" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="T17" s="68" t="s">
+      <c r="R17" s="86" t="s">
+        <v>278</v>
+      </c>
+      <c r="S17" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="T17" t="s">
         <v>4</v>
       </c>
       <c r="U17" t="s">
@@ -11599,28 +11682,28 @@
     </row>
     <row r="18" spans="1:33">
       <c r="A18" s="14" t="s">
-        <v>225</v>
-      </c>
-      <c r="B18" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="93" t="s">
-        <v>97</v>
+        <v>96</v>
+      </c>
+      <c r="B18" s="82" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="74" t="s">
+        <v>18</v>
       </c>
       <c r="D18" t="s">
         <v>127</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>110</v>
+        <v>147</v>
       </c>
       <c r="F18" t="s">
-        <v>110</v>
+        <v>147</v>
       </c>
       <c r="G18" t="s">
         <v>231</v>
       </c>
       <c r="H18" t="s">
-        <v>280</v>
+        <v>291</v>
       </c>
       <c r="I18" t="s">
         <v>290</v>
@@ -11631,14 +11714,14 @@
       <c r="K18" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="L18" s="66" t="s">
+      <c r="L18" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="M18" s="76" t="s">
-        <v>250</v>
-      </c>
-      <c r="N18" s="77" t="s">
-        <v>251</v>
+      <c r="M18" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="N18" s="7" t="s">
+        <v>130</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>130</v>
@@ -11646,20 +11729,18 @@
       <c r="P18" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="Q18" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="R18" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="S18" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="T18" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="U18" s="17" t="s">
-        <v>184</v>
+      <c r="Q18" s="8"/>
+      <c r="R18" t="s">
+        <v>3</v>
+      </c>
+      <c r="S18" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="T18" t="s">
+        <v>4</v>
+      </c>
+      <c r="U18" s="9">
+        <v>70971335036</v>
       </c>
       <c r="V18" s="7" t="s">
         <v>130</v>
@@ -11700,28 +11781,28 @@
     </row>
     <row r="19" spans="1:33">
       <c r="A19" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" s="16" t="s">
-        <v>183</v>
+        <v>191</v>
+      </c>
+      <c r="B19" s="82" t="s">
+        <v>234</v>
       </c>
       <c r="C19" s="74" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="D19" t="s">
         <v>127</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>110</v>
+        <v>244</v>
       </c>
       <c r="F19" t="s">
-        <v>110</v>
+        <v>244</v>
       </c>
       <c r="G19" t="s">
         <v>231</v>
       </c>
       <c r="H19" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="I19" t="s">
         <v>290</v>
@@ -11735,11 +11816,11 @@
       <c r="L19" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="M19" s="76" t="s">
-        <v>250</v>
-      </c>
-      <c r="N19" s="77" t="s">
-        <v>251</v>
+      <c r="M19" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="N19" s="7" t="s">
+        <v>130</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>130</v>
@@ -11747,20 +11828,18 @@
       <c r="P19" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="Q19" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="R19" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="S19" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="T19" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="U19" s="7" t="s">
-        <v>130</v>
+      <c r="Q19" s="8"/>
+      <c r="R19" s="62" t="s">
+        <v>232</v>
+      </c>
+      <c r="S19" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="T19" s="68" t="s">
+        <v>4</v>
+      </c>
+      <c r="U19" t="s">
+        <v>5</v>
       </c>
       <c r="V19" s="7" t="s">
         <v>130</v>
@@ -11801,18 +11880,18 @@
     </row>
     <row r="20" spans="1:33">
       <c r="A20" s="14" t="s">
-        <v>98</v>
+        <v>225</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" s="95" t="s">
-        <v>38</v>
+        <v>33</v>
+      </c>
+      <c r="C20" s="93" t="s">
+        <v>97</v>
       </c>
       <c r="D20" t="s">
         <v>127</v>
       </c>
-      <c r="E20" s="69" t="s">
+      <c r="E20" s="5" t="s">
         <v>110</v>
       </c>
       <c r="F20" t="s">
@@ -11822,7 +11901,7 @@
         <v>231</v>
       </c>
       <c r="H20" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
       <c r="I20" t="s">
         <v>290</v>
@@ -11833,7 +11912,7 @@
       <c r="K20" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="L20" s="22" t="s">
+      <c r="L20" s="66" t="s">
         <v>128</v>
       </c>
       <c r="M20" s="76" t="s">
@@ -11860,8 +11939,8 @@
       <c r="T20" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="U20" s="7" t="s">
-        <v>130</v>
+      <c r="U20" s="17" t="s">
+        <v>184</v>
       </c>
       <c r="V20" s="7" t="s">
         <v>130</v>
@@ -11902,15 +11981,15 @@
     </row>
     <row r="21" spans="1:33">
       <c r="A21" s="14" t="s">
-        <v>136</v>
+        <v>32</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>40</v>
+        <v>183</v>
       </c>
       <c r="C21" s="74" t="s">
-        <v>39</v>
-      </c>
-      <c r="D21" s="96" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" t="s">
         <v>127</v>
       </c>
       <c r="E21" s="5" t="s">
@@ -11923,7 +12002,7 @@
         <v>231</v>
       </c>
       <c r="H21" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="I21" t="s">
         <v>290</v>
@@ -12003,18 +12082,18 @@
     </row>
     <row r="22" spans="1:33">
       <c r="A22" s="14" t="s">
-        <v>261</v>
+        <v>98</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="C22" s="74" t="s">
-        <v>138</v>
+        <v>37</v>
+      </c>
+      <c r="C22" s="95" t="s">
+        <v>38</v>
       </c>
       <c r="D22" t="s">
         <v>127</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" s="69" t="s">
         <v>110</v>
       </c>
       <c r="F22" t="s">
@@ -12024,7 +12103,7 @@
         <v>231</v>
       </c>
       <c r="H22" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="I22" t="s">
         <v>290</v>
@@ -12036,7 +12115,7 @@
         <v>128</v>
       </c>
       <c r="L22" s="22" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M22" s="76" t="s">
         <v>250</v>
@@ -12104,15 +12183,15 @@
     </row>
     <row r="23" spans="1:33">
       <c r="A23" s="14" t="s">
-        <v>262</v>
+        <v>136</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C23" s="74" t="s">
-        <v>394</v>
-      </c>
-      <c r="D23" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="96" t="s">
         <v>127</v>
       </c>
       <c r="E23" s="5" t="s">
@@ -12125,22 +12204,22 @@
         <v>231</v>
       </c>
       <c r="H23" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="I23" t="s">
-        <v>393</v>
+        <v>290</v>
       </c>
       <c r="J23" t="s">
         <v>132</v>
       </c>
       <c r="K23" s="22" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L23" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="M23" s="90" t="s">
-        <v>287</v>
+      <c r="M23" s="76" t="s">
+        <v>250</v>
       </c>
       <c r="N23" s="77" t="s">
         <v>251</v>
@@ -12205,13 +12284,13 @@
     </row>
     <row r="24" spans="1:33">
       <c r="A24" s="14" t="s">
-        <v>41</v>
+        <v>261</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>43</v>
+        <v>137</v>
       </c>
       <c r="C24" s="74" t="s">
-        <v>396</v>
+        <v>138</v>
       </c>
       <c r="D24" t="s">
         <v>127</v>
@@ -12226,22 +12305,22 @@
         <v>231</v>
       </c>
       <c r="H24" t="s">
-        <v>395</v>
+        <v>295</v>
       </c>
       <c r="I24" t="s">
-        <v>393</v>
+        <v>290</v>
       </c>
       <c r="J24" t="s">
         <v>132</v>
       </c>
       <c r="K24" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="L24" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="L24" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="M24" s="107" t="s">
-        <v>287</v>
+      <c r="M24" s="76" t="s">
+        <v>250</v>
       </c>
       <c r="N24" s="77" t="s">
         <v>251</v>
@@ -12306,13 +12385,13 @@
     </row>
     <row r="25" spans="1:33">
       <c r="A25" s="14" t="s">
-        <v>44</v>
+        <v>262</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>99</v>
+        <v>42</v>
       </c>
       <c r="C25" s="74" t="s">
-        <v>100</v>
+        <v>394</v>
       </c>
       <c r="D25" t="s">
         <v>127</v>
@@ -12327,7 +12406,7 @@
         <v>231</v>
       </c>
       <c r="H25" t="s">
-        <v>397</v>
+        <v>299</v>
       </c>
       <c r="I25" t="s">
         <v>393</v>
@@ -12341,7 +12420,7 @@
       <c r="L25" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="M25" s="107" t="s">
+      <c r="M25" s="90" t="s">
         <v>287</v>
       </c>
       <c r="N25" s="77" t="s">
@@ -12407,13 +12486,13 @@
     </row>
     <row r="26" spans="1:33">
       <c r="A26" s="14" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="C26" s="74" t="s">
-        <v>55</v>
+        <v>396</v>
       </c>
       <c r="D26" t="s">
         <v>127</v>
@@ -12428,10 +12507,10 @@
         <v>231</v>
       </c>
       <c r="H26" t="s">
-        <v>309</v>
+        <v>395</v>
       </c>
       <c r="I26" t="s">
-        <v>406</v>
+        <v>393</v>
       </c>
       <c r="J26" t="s">
         <v>132</v>
@@ -12442,8 +12521,8 @@
       <c r="L26" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="M26" s="76" t="s">
-        <v>250</v>
+      <c r="M26" s="107" t="s">
+        <v>287</v>
       </c>
       <c r="N26" s="77" t="s">
         <v>251</v>
@@ -12475,11 +12554,11 @@
       <c r="W26" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="X26" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y26" s="9" t="s">
-        <v>13</v>
+      <c r="X26" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y26" s="7" t="s">
+        <v>130</v>
       </c>
       <c r="Z26" s="7" t="s">
         <v>130</v>
@@ -12508,13 +12587,13 @@
     </row>
     <row r="27" spans="1:33">
       <c r="A27" s="14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="C27" s="97" t="s">
-        <v>298</v>
+        <v>99</v>
+      </c>
+      <c r="C27" s="74" t="s">
+        <v>100</v>
       </c>
       <c r="D27" t="s">
         <v>127</v>
@@ -12529,21 +12608,21 @@
         <v>231</v>
       </c>
       <c r="H27" t="s">
-        <v>296</v>
+        <v>397</v>
       </c>
       <c r="I27" t="s">
-        <v>290</v>
+        <v>393</v>
       </c>
       <c r="J27" t="s">
         <v>132</v>
       </c>
       <c r="K27" s="22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L27" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="M27" s="90" t="s">
+      <c r="M27" s="107" t="s">
         <v>287</v>
       </c>
       <c r="N27" s="77" t="s">
@@ -12609,13 +12688,13 @@
     </row>
     <row r="28" spans="1:33">
       <c r="A28" s="14" t="s">
-        <v>101</v>
+        <v>45</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="C28" s="99" t="s">
-        <v>53</v>
+        <v>14</v>
+      </c>
+      <c r="C28" s="74" t="s">
+        <v>55</v>
       </c>
       <c r="D28" t="s">
         <v>127</v>
@@ -12630,10 +12709,10 @@
         <v>231</v>
       </c>
       <c r="H28" t="s">
-        <v>267</v>
+        <v>309</v>
       </c>
       <c r="I28" t="s">
-        <v>290</v>
+        <v>406</v>
       </c>
       <c r="J28" t="s">
         <v>132</v>
@@ -12677,11 +12756,11 @@
       <c r="W28" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="X28" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="Y28" s="7" t="s">
-        <v>130</v>
+      <c r="X28" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y28" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="Z28" s="7" t="s">
         <v>130</v>
@@ -12710,13 +12789,13 @@
     </row>
     <row r="29" spans="1:33">
       <c r="A29" s="14" t="s">
-        <v>102</v>
+        <v>46</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="C29" s="99" t="s">
-        <v>54</v>
+        <v>50</v>
+      </c>
+      <c r="C29" s="97" t="s">
+        <v>298</v>
       </c>
       <c r="D29" t="s">
         <v>127</v>
@@ -12731,7 +12810,7 @@
         <v>231</v>
       </c>
       <c r="H29" t="s">
-        <v>268</v>
+        <v>296</v>
       </c>
       <c r="I29" t="s">
         <v>290</v>
@@ -12740,13 +12819,13 @@
         <v>132</v>
       </c>
       <c r="K29" s="22" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L29" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="M29" s="76" t="s">
-        <v>250</v>
+      <c r="M29" s="90" t="s">
+        <v>287</v>
       </c>
       <c r="N29" s="77" t="s">
         <v>251</v>
@@ -12811,13 +12890,13 @@
     </row>
     <row r="30" spans="1:33">
       <c r="A30" s="14" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>106</v>
+        <v>51</v>
       </c>
       <c r="C30" s="99" t="s">
-        <v>107</v>
+        <v>53</v>
       </c>
       <c r="D30" t="s">
         <v>127</v>
@@ -12832,7 +12911,7 @@
         <v>231</v>
       </c>
       <c r="H30" t="s">
-        <v>239</v>
+        <v>267</v>
       </c>
       <c r="I30" t="s">
         <v>290</v>
@@ -12912,13 +12991,13 @@
     </row>
     <row r="31" spans="1:33">
       <c r="A31" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="B31" s="91" t="s">
-        <v>199</v>
-      </c>
-      <c r="C31" s="89" t="s">
-        <v>188</v>
+        <v>102</v>
+      </c>
+      <c r="B31" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="C31" s="99" t="s">
+        <v>54</v>
       </c>
       <c r="D31" t="s">
         <v>127</v>
@@ -12927,13 +13006,13 @@
         <v>110</v>
       </c>
       <c r="F31" t="s">
-        <v>297</v>
+        <v>110</v>
       </c>
       <c r="G31" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H31" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="I31" t="s">
         <v>290</v>
@@ -13013,13 +13092,13 @@
     </row>
     <row r="32" spans="1:33">
       <c r="A32" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="B32" s="91" t="s">
-        <v>198</v>
-      </c>
-      <c r="C32" s="89" t="s">
-        <v>189</v>
+        <v>103</v>
+      </c>
+      <c r="B32" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="C32" s="99" t="s">
+        <v>107</v>
       </c>
       <c r="D32" t="s">
         <v>127</v>
@@ -13028,13 +13107,13 @@
         <v>110</v>
       </c>
       <c r="F32" t="s">
-        <v>252</v>
+        <v>110</v>
       </c>
       <c r="G32" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H32" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
       <c r="I32" t="s">
         <v>290</v>
@@ -13114,13 +13193,13 @@
     </row>
     <row r="33" spans="1:33">
       <c r="A33" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="B33" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C33" s="93" t="s">
-        <v>108</v>
+        <v>104</v>
+      </c>
+      <c r="B33" s="91" t="s">
+        <v>199</v>
+      </c>
+      <c r="C33" s="89" t="s">
+        <v>188</v>
       </c>
       <c r="D33" t="s">
         <v>127</v>
@@ -13129,13 +13208,13 @@
         <v>110</v>
       </c>
       <c r="F33" t="s">
-        <v>110</v>
+        <v>297</v>
       </c>
       <c r="G33" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H33" t="s">
-        <v>299</v>
+        <v>280</v>
       </c>
       <c r="I33" t="s">
         <v>290</v>
@@ -13149,11 +13228,11 @@
       <c r="L33" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="M33" s="66" t="s">
-        <v>130</v>
-      </c>
-      <c r="N33" s="66" t="s">
-        <v>130</v>
+      <c r="M33" s="76" t="s">
+        <v>250</v>
+      </c>
+      <c r="N33" s="77" t="s">
+        <v>251</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>130</v>
@@ -13215,13 +13294,13 @@
     </row>
     <row r="34" spans="1:33">
       <c r="A34" s="14" t="s">
-        <v>263</v>
-      </c>
-      <c r="B34" s="16" t="s">
-        <v>246</v>
-      </c>
-      <c r="C34" s="74" t="s">
-        <v>109</v>
+        <v>105</v>
+      </c>
+      <c r="B34" s="91" t="s">
+        <v>198</v>
+      </c>
+      <c r="C34" s="89" t="s">
+        <v>189</v>
       </c>
       <c r="D34" t="s">
         <v>127</v>
@@ -13230,13 +13309,13 @@
         <v>110</v>
       </c>
       <c r="F34" t="s">
-        <v>110</v>
+        <v>252</v>
       </c>
       <c r="G34" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H34" t="s">
-        <v>300</v>
+        <v>253</v>
       </c>
       <c r="I34" t="s">
         <v>290</v>
@@ -13250,11 +13329,11 @@
       <c r="L34" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="M34" s="63" t="s">
-        <v>209</v>
-      </c>
-      <c r="N34" s="6" t="s">
-        <v>190</v>
+      <c r="M34" s="76" t="s">
+        <v>250</v>
+      </c>
+      <c r="N34" s="77" t="s">
+        <v>251</v>
       </c>
       <c r="O34" s="7" t="s">
         <v>130</v>
@@ -13316,28 +13395,28 @@
     </row>
     <row r="35" spans="1:33">
       <c r="A35" s="14" t="s">
-        <v>226</v>
+        <v>192</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>201</v>
-      </c>
-      <c r="C35" s="74" t="s">
-        <v>212</v>
+        <v>245</v>
+      </c>
+      <c r="C35" s="93" t="s">
+        <v>108</v>
       </c>
       <c r="D35" t="s">
         <v>127</v>
       </c>
-      <c r="E35" t="s">
-        <v>301</v>
+      <c r="E35" s="5" t="s">
+        <v>110</v>
       </c>
       <c r="F35" t="s">
-        <v>301</v>
+        <v>110</v>
       </c>
       <c r="G35" t="s">
         <v>231</v>
       </c>
       <c r="H35" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I35" t="s">
         <v>290</v>
@@ -13346,16 +13425,16 @@
         <v>132</v>
       </c>
       <c r="K35" s="22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L35" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="M35" s="76" t="s">
-        <v>250</v>
-      </c>
-      <c r="N35" s="77" t="s">
-        <v>251</v>
+      <c r="M35" s="66" t="s">
+        <v>130</v>
+      </c>
+      <c r="N35" s="66" t="s">
+        <v>130</v>
       </c>
       <c r="O35" s="7" t="s">
         <v>130</v>
@@ -13400,13 +13479,13 @@
         <v>130</v>
       </c>
       <c r="AC35" s="7" t="s">
-        <v>273</v>
+        <v>130</v>
       </c>
       <c r="AD35" s="7" t="s">
-        <v>302</v>
+        <v>130</v>
       </c>
       <c r="AE35" s="7" t="s">
-        <v>274</v>
+        <v>130</v>
       </c>
       <c r="AF35" s="7" t="s">
         <v>130</v>
@@ -13417,13 +13496,13 @@
     </row>
     <row r="36" spans="1:33">
       <c r="A36" s="14" t="s">
-        <v>52</v>
+        <v>263</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>112</v>
+        <v>246</v>
       </c>
       <c r="C36" s="74" t="s">
-        <v>269</v>
+        <v>109</v>
       </c>
       <c r="D36" t="s">
         <v>127</v>
@@ -13438,7 +13517,7 @@
         <v>231</v>
       </c>
       <c r="H36" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="I36" t="s">
         <v>290</v>
@@ -13452,17 +13531,17 @@
       <c r="L36" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="M36" s="79" t="s">
-        <v>232</v>
-      </c>
-      <c r="N36" s="80" t="s">
+      <c r="M36" s="63" t="s">
+        <v>209</v>
+      </c>
+      <c r="N36" s="6" t="s">
         <v>190</v>
       </c>
       <c r="O36" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="P36" s="17">
-        <v>3</v>
+      <c r="P36" s="7" t="s">
+        <v>130</v>
       </c>
       <c r="Q36" s="7" t="s">
         <v>130</v>
@@ -13518,56 +13597,114 @@
     </row>
     <row r="37" spans="1:33">
       <c r="A37" s="14" t="s">
-        <v>276</v>
-      </c>
-      <c r="B37" s="91" t="s">
-        <v>260</v>
-      </c>
-      <c r="C37" s="75" t="s">
-        <v>270</v>
+        <v>226</v>
+      </c>
+      <c r="B37" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="C37" s="74" t="s">
+        <v>212</v>
       </c>
       <c r="D37" t="s">
         <v>127</v>
       </c>
-      <c r="E37" s="5"/>
-      <c r="F37"/>
-      <c r="G37"/>
-      <c r="H37"/>
-      <c r="I37"/>
-      <c r="J37"/>
-      <c r="K37" s="22"/>
-      <c r="L37" s="22"/>
-      <c r="M37" s="79"/>
-      <c r="N37" s="80"/>
-      <c r="O37" s="7"/>
-      <c r="P37" s="17"/>
-      <c r="Q37" s="7"/>
-      <c r="R37" s="7"/>
-      <c r="S37" s="7"/>
-      <c r="T37" s="7"/>
-      <c r="U37" s="7"/>
-      <c r="V37" s="7"/>
-      <c r="W37" s="7"/>
-      <c r="X37" s="7"/>
-      <c r="Y37" s="7"/>
-      <c r="Z37" s="7"/>
-      <c r="AA37" s="7"/>
-      <c r="AB37" s="7"/>
-      <c r="AC37" s="7"/>
-      <c r="AD37" s="7"/>
-      <c r="AE37" s="7"/>
-      <c r="AF37" s="7"/>
-      <c r="AG37" s="7"/>
+      <c r="E37" t="s">
+        <v>301</v>
+      </c>
+      <c r="F37" t="s">
+        <v>301</v>
+      </c>
+      <c r="G37" t="s">
+        <v>231</v>
+      </c>
+      <c r="H37" t="s">
+        <v>300</v>
+      </c>
+      <c r="I37" t="s">
+        <v>290</v>
+      </c>
+      <c r="J37" t="s">
+        <v>132</v>
+      </c>
+      <c r="K37" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="L37" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="M37" s="76" t="s">
+        <v>250</v>
+      </c>
+      <c r="N37" s="77" t="s">
+        <v>251</v>
+      </c>
+      <c r="O37" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q37" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="R37" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="S37" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="T37" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="U37" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="V37" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="W37" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="X37" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y37" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="Z37" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="AA37" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB37" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="AC37" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="AD37" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="AE37" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="AF37" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="AG37" s="7" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="38" spans="1:33">
       <c r="A38" s="14" t="s">
-        <v>187</v>
-      </c>
-      <c r="B38" s="91" t="s">
-        <v>114</v>
+        <v>52</v>
+      </c>
+      <c r="B38" s="16" t="s">
+        <v>112</v>
       </c>
       <c r="C38" s="74" t="s">
-        <v>248</v>
+        <v>269</v>
       </c>
       <c r="D38" t="s">
         <v>127</v>
@@ -13582,31 +13719,31 @@
         <v>231</v>
       </c>
       <c r="H38" t="s">
-        <v>281</v>
+        <v>303</v>
       </c>
       <c r="I38" t="s">
-        <v>272</v>
+        <v>290</v>
       </c>
       <c r="J38" t="s">
         <v>132</v>
       </c>
       <c r="K38" s="22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L38" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="M38" s="76" t="s">
+      <c r="M38" s="79" t="s">
         <v>232</v>
       </c>
-      <c r="N38" s="6" t="s">
+      <c r="N38" s="80" t="s">
         <v>190</v>
       </c>
       <c r="O38" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="P38" s="66" t="s">
-        <v>130</v>
+      <c r="P38" s="17">
+        <v>3</v>
       </c>
       <c r="Q38" s="7" t="s">
         <v>130</v>
@@ -13623,8 +13760,11 @@
       <c r="U38" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="W38" s="9" t="s">
-        <v>266</v>
+      <c r="V38" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="W38" s="7" t="s">
+        <v>130</v>
       </c>
       <c r="X38" s="7" t="s">
         <v>130</v>
@@ -13659,111 +13799,56 @@
     </row>
     <row r="39" spans="1:33">
       <c r="A39" s="14" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="B39" s="91" t="s">
-        <v>247</v>
-      </c>
-      <c r="C39" s="74" t="s">
-        <v>249</v>
+        <v>260</v>
+      </c>
+      <c r="C39" s="75" t="s">
+        <v>270</v>
       </c>
       <c r="D39" t="s">
         <v>127</v>
       </c>
-      <c r="E39" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="F39" t="s">
-        <v>110</v>
-      </c>
-      <c r="G39" t="s">
-        <v>231</v>
-      </c>
-      <c r="H39" t="s">
-        <v>268</v>
-      </c>
-      <c r="I39" t="s">
-        <v>272</v>
-      </c>
-      <c r="J39" t="s">
-        <v>132</v>
-      </c>
-      <c r="K39" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="L39" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="M39" s="76" t="s">
-        <v>232</v>
-      </c>
-      <c r="N39" s="84" t="s">
-        <v>190</v>
-      </c>
-      <c r="O39" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="P39" s="66" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q39" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="R39" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="S39" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="T39" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="U39" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="W39" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="X39" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="Y39" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="Z39" s="66" t="s">
-        <v>130</v>
-      </c>
-      <c r="AA39" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="AB39" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="AC39" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="AD39" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="AE39" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="AF39" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="AG39" s="7" t="s">
-        <v>130</v>
-      </c>
+      <c r="E39" s="5"/>
+      <c r="F39"/>
+      <c r="G39"/>
+      <c r="H39"/>
+      <c r="I39"/>
+      <c r="J39"/>
+      <c r="K39" s="22"/>
+      <c r="L39" s="22"/>
+      <c r="M39" s="79"/>
+      <c r="N39" s="80"/>
+      <c r="O39" s="7"/>
+      <c r="P39" s="17"/>
+      <c r="Q39" s="7"/>
+      <c r="R39" s="7"/>
+      <c r="S39" s="7"/>
+      <c r="T39" s="7"/>
+      <c r="U39" s="7"/>
+      <c r="V39" s="7"/>
+      <c r="W39" s="7"/>
+      <c r="X39" s="7"/>
+      <c r="Y39" s="7"/>
+      <c r="Z39" s="7"/>
+      <c r="AA39" s="7"/>
+      <c r="AB39" s="7"/>
+      <c r="AC39" s="7"/>
+      <c r="AD39" s="7"/>
+      <c r="AE39" s="7"/>
+      <c r="AF39" s="7"/>
+      <c r="AG39" s="7"/>
     </row>
     <row r="40" spans="1:33">
       <c r="A40" s="14" t="s">
-        <v>265</v>
-      </c>
-      <c r="B40" s="16" t="s">
-        <v>27</v>
+        <v>187</v>
+      </c>
+      <c r="B40" s="91" t="s">
+        <v>114</v>
       </c>
       <c r="C40" s="74" t="s">
-        <v>28</v>
+        <v>248</v>
       </c>
       <c r="D40" t="s">
         <v>127</v>
@@ -13778,10 +13863,10 @@
         <v>231</v>
       </c>
       <c r="H40" t="s">
-        <v>304</v>
+        <v>281</v>
       </c>
       <c r="I40" t="s">
-        <v>290</v>
+        <v>272</v>
       </c>
       <c r="J40" t="s">
         <v>132</v>
@@ -13793,15 +13878,15 @@
         <v>128</v>
       </c>
       <c r="M40" s="76" t="s">
-        <v>250</v>
-      </c>
-      <c r="N40" s="77" t="s">
-        <v>251</v>
+        <v>232</v>
+      </c>
+      <c r="N40" s="6" t="s">
+        <v>190</v>
       </c>
       <c r="O40" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="P40" s="7" t="s">
+      <c r="P40" s="66" t="s">
         <v>130</v>
       </c>
       <c r="Q40" s="7" t="s">
@@ -13819,11 +13904,8 @@
       <c r="U40" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="V40" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="W40" s="7" t="s">
-        <v>130</v>
+      <c r="W40" s="9" t="s">
+        <v>266</v>
       </c>
       <c r="X40" s="7" t="s">
         <v>130</v>
@@ -13858,13 +13940,13 @@
     </row>
     <row r="41" spans="1:33">
       <c r="A41" s="14" t="s">
-        <v>180</v>
+        <v>264</v>
       </c>
       <c r="B41" s="91" t="s">
-        <v>48</v>
-      </c>
-      <c r="C41" s="100" t="s">
-        <v>208</v>
+        <v>247</v>
+      </c>
+      <c r="C41" s="74" t="s">
+        <v>249</v>
       </c>
       <c r="D41" t="s">
         <v>127</v>
@@ -13873,16 +13955,16 @@
         <v>110</v>
       </c>
       <c r="F41" t="s">
-        <v>240</v>
+        <v>110</v>
       </c>
       <c r="G41" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H41" t="s">
-        <v>241</v>
+        <v>268</v>
       </c>
       <c r="I41" t="s">
-        <v>238</v>
+        <v>272</v>
       </c>
       <c r="J41" t="s">
         <v>132</v>
@@ -13893,14 +13975,16 @@
       <c r="L41" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="M41" s="63"/>
-      <c r="N41" s="6" t="s">
+      <c r="M41" s="76" t="s">
+        <v>232</v>
+      </c>
+      <c r="N41" s="84" t="s">
         <v>190</v>
       </c>
       <c r="O41" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="P41" s="7" t="s">
+      <c r="P41" s="66" t="s">
         <v>130</v>
       </c>
       <c r="Q41" s="7" t="s">
@@ -13918,11 +14002,8 @@
       <c r="U41" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="V41" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="W41" s="7" t="s">
-        <v>130</v>
+      <c r="W41" s="9" t="s">
+        <v>266</v>
       </c>
       <c r="X41" s="7" t="s">
         <v>130</v>
@@ -13930,7 +14011,7 @@
       <c r="Y41" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="Z41" s="7" t="s">
+      <c r="Z41" s="66" t="s">
         <v>130</v>
       </c>
       <c r="AA41" s="7" t="s">
@@ -13957,13 +14038,13 @@
     </row>
     <row r="42" spans="1:33">
       <c r="A42" s="14" t="s">
-        <v>111</v>
+        <v>265</v>
       </c>
       <c r="B42" s="16" t="s">
-        <v>206</v>
+        <v>27</v>
       </c>
       <c r="C42" s="74" t="s">
-        <v>207</v>
+        <v>28</v>
       </c>
       <c r="D42" t="s">
         <v>127</v>
@@ -13978,7 +14059,7 @@
         <v>231</v>
       </c>
       <c r="H42" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I42" t="s">
         <v>290</v>
@@ -13992,8 +14073,8 @@
       <c r="L42" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="M42" s="90" t="s">
-        <v>287</v>
+      <c r="M42" s="76" t="s">
+        <v>250</v>
       </c>
       <c r="N42" s="77" t="s">
         <v>251</v>
@@ -14058,13 +14139,13 @@
     </row>
     <row r="43" spans="1:33">
       <c r="A43" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="B43" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="C43" s="99" t="s">
-        <v>47</v>
+        <v>180</v>
+      </c>
+      <c r="B43" s="91" t="s">
+        <v>48</v>
+      </c>
+      <c r="C43" s="100" t="s">
+        <v>208</v>
       </c>
       <c r="D43" t="s">
         <v>127</v>
@@ -14073,52 +14154,50 @@
         <v>110</v>
       </c>
       <c r="F43" t="s">
-        <v>110</v>
+        <v>240</v>
       </c>
       <c r="G43" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H43" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
       <c r="I43" t="s">
-        <v>290</v>
-      </c>
-      <c r="J43" s="85" t="s">
-        <v>49</v>
-      </c>
-      <c r="K43" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="L43" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="M43" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="N43" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="O43" s="79" t="s">
-        <v>307</v>
+        <v>238</v>
+      </c>
+      <c r="J43" t="s">
+        <v>132</v>
+      </c>
+      <c r="K43" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="L43" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="M43" s="63"/>
+      <c r="N43" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="O43" s="7" t="s">
+        <v>130</v>
       </c>
       <c r="P43" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="Q43" s="81">
-        <v>34998713322</v>
-      </c>
-      <c r="R43" s="79" t="s">
-        <v>3</v>
-      </c>
-      <c r="S43" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="T43" s="85" t="s">
-        <v>4</v>
-      </c>
-      <c r="U43" s="85" t="s">
-        <v>5</v>
+      <c r="Q43" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="R43" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="S43" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="T43" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="U43" s="7" t="s">
+        <v>130</v>
       </c>
       <c r="V43" s="7" t="s">
         <v>130</v>
@@ -14159,18 +14238,18 @@
     </row>
     <row r="44" spans="1:33">
       <c r="A44" s="14" t="s">
-        <v>205</v>
-      </c>
-      <c r="B44" s="91" t="s">
-        <v>56</v>
+        <v>111</v>
+      </c>
+      <c r="B44" s="16" t="s">
+        <v>206</v>
       </c>
       <c r="C44" s="74" t="s">
-        <v>57</v>
+        <v>207</v>
       </c>
       <c r="D44" t="s">
         <v>127</v>
       </c>
-      <c r="E44" s="69" t="s">
+      <c r="E44" s="5" t="s">
         <v>110</v>
       </c>
       <c r="F44" t="s">
@@ -14180,10 +14259,10 @@
         <v>231</v>
       </c>
       <c r="H44" t="s">
-        <v>271</v>
+        <v>305</v>
       </c>
       <c r="I44" t="s">
-        <v>272</v>
+        <v>290</v>
       </c>
       <c r="J44" t="s">
         <v>132</v>
@@ -14194,8 +14273,8 @@
       <c r="L44" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="M44" s="76" t="s">
-        <v>250</v>
+      <c r="M44" s="90" t="s">
+        <v>287</v>
       </c>
       <c r="N44" s="77" t="s">
         <v>251</v>
@@ -14239,8 +14318,8 @@
       <c r="AA44" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="AB44" s="73" t="s">
-        <v>286</v>
+      <c r="AB44" s="7" t="s">
+        <v>130</v>
       </c>
       <c r="AC44" s="7" t="s">
         <v>130</v>
@@ -14260,13 +14339,13 @@
     </row>
     <row r="45" spans="1:33">
       <c r="A45" s="14" t="s">
-        <v>227</v>
-      </c>
-      <c r="B45" s="101" t="s">
-        <v>58</v>
-      </c>
-      <c r="C45" s="74" t="s">
-        <v>59</v>
+        <v>113</v>
+      </c>
+      <c r="B45" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="C45" s="99" t="s">
+        <v>47</v>
       </c>
       <c r="D45" t="s">
         <v>127</v>
@@ -14275,52 +14354,52 @@
         <v>110</v>
       </c>
       <c r="F45" t="s">
-        <v>283</v>
+        <v>110</v>
       </c>
       <c r="G45" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H45" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="I45" t="s">
         <v>290</v>
       </c>
-      <c r="J45" t="s">
-        <v>132</v>
-      </c>
-      <c r="K45" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="L45" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="M45" s="88" t="s">
-        <v>286</v>
-      </c>
-      <c r="N45" s="77" t="s">
-        <v>251</v>
-      </c>
-      <c r="O45" s="7" t="s">
-        <v>130</v>
+      <c r="J45" s="85" t="s">
+        <v>49</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="L45" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="M45" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="N45" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="O45" s="79" t="s">
+        <v>307</v>
       </c>
       <c r="P45" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="Q45" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="R45" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="S45" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="T45" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="U45" s="7" t="s">
-        <v>130</v>
+      <c r="Q45" s="81">
+        <v>34998713322</v>
+      </c>
+      <c r="R45" s="79" t="s">
+        <v>3</v>
+      </c>
+      <c r="S45" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="T45" s="85" t="s">
+        <v>4</v>
+      </c>
+      <c r="U45" s="85" t="s">
+        <v>5</v>
       </c>
       <c r="V45" s="7" t="s">
         <v>130</v>
@@ -14361,28 +14440,28 @@
     </row>
     <row r="46" spans="1:33">
       <c r="A46" s="14" t="s">
-        <v>411</v>
-      </c>
-      <c r="B46" s="83" t="s">
-        <v>115</v>
-      </c>
-      <c r="C46" s="78" t="s">
-        <v>116</v>
+        <v>205</v>
+      </c>
+      <c r="B46" s="91" t="s">
+        <v>56</v>
+      </c>
+      <c r="C46" s="74" t="s">
+        <v>57</v>
       </c>
       <c r="D46" t="s">
         <v>127</v>
       </c>
-      <c r="E46" s="5" t="s">
+      <c r="E46" s="69" t="s">
         <v>110</v>
       </c>
       <c r="F46" t="s">
-        <v>275</v>
+        <v>110</v>
       </c>
       <c r="G46" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H46" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="I46" t="s">
         <v>272</v>
@@ -14441,8 +14520,8 @@
       <c r="AA46" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="AB46" s="7" t="s">
-        <v>130</v>
+      <c r="AB46" s="73" t="s">
+        <v>286</v>
       </c>
       <c r="AC46" s="7" t="s">
         <v>130</v>
@@ -14462,13 +14541,13 @@
     </row>
     <row r="47" spans="1:33">
       <c r="A47" s="14" t="s">
-        <v>412</v>
-      </c>
-      <c r="B47" s="103" t="s">
-        <v>89</v>
-      </c>
-      <c r="C47" s="94" t="s">
-        <v>139</v>
+        <v>227</v>
+      </c>
+      <c r="B47" s="101" t="s">
+        <v>58</v>
+      </c>
+      <c r="C47" s="74" t="s">
+        <v>59</v>
       </c>
       <c r="D47" t="s">
         <v>127</v>
@@ -14477,31 +14556,31 @@
         <v>110</v>
       </c>
       <c r="F47" t="s">
-        <v>110</v>
+        <v>283</v>
       </c>
       <c r="G47" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H47" t="s">
-        <v>237</v>
+        <v>306</v>
       </c>
       <c r="I47" t="s">
-        <v>238</v>
+        <v>290</v>
       </c>
       <c r="J47" t="s">
-        <v>49</v>
-      </c>
-      <c r="K47" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="L47" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="M47" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="N47" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
+      </c>
+      <c r="K47" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="L47" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="M47" s="88" t="s">
+        <v>286</v>
+      </c>
+      <c r="N47" s="77" t="s">
+        <v>251</v>
       </c>
       <c r="O47" s="7" t="s">
         <v>130</v>
@@ -14554,40 +14633,40 @@
       <c r="AE47" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="AF47" s="17" t="s">
-        <v>219</v>
-      </c>
-      <c r="AG47" t="s">
-        <v>229</v>
+      <c r="AF47" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="AG47" s="7" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="48" spans="1:33">
       <c r="A48" s="14" t="s">
-        <v>313</v>
-      </c>
-      <c r="B48" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="C48" s="74" t="s">
-        <v>195</v>
+        <v>411</v>
+      </c>
+      <c r="B48" s="83" t="s">
+        <v>115</v>
+      </c>
+      <c r="C48" s="78" t="s">
+        <v>116</v>
       </c>
       <c r="D48" t="s">
         <v>127</v>
       </c>
-      <c r="E48" s="65" t="s">
-        <v>200</v>
+      <c r="E48" s="5" t="s">
+        <v>110</v>
       </c>
       <c r="F48" t="s">
-        <v>200</v>
+        <v>275</v>
       </c>
       <c r="G48" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H48" t="s">
-        <v>309</v>
+        <v>277</v>
       </c>
       <c r="I48" t="s">
-        <v>290</v>
+        <v>272</v>
       </c>
       <c r="J48" t="s">
         <v>132</v>
@@ -14598,11 +14677,11 @@
       <c r="L48" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="M48" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="N48" s="7" t="s">
-        <v>130</v>
+      <c r="M48" s="76" t="s">
+        <v>250</v>
+      </c>
+      <c r="N48" s="77" t="s">
+        <v>251</v>
       </c>
       <c r="O48" s="7" t="s">
         <v>130</v>
@@ -14610,18 +14689,20 @@
       <c r="P48" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="Q48" s="30"/>
-      <c r="R48" t="s">
-        <v>3</v>
-      </c>
-      <c r="S48" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="T48" t="s">
-        <v>193</v>
-      </c>
-      <c r="U48" t="s">
-        <v>5</v>
+      <c r="Q48" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="R48" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="S48" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="T48" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="U48" s="7" t="s">
+        <v>130</v>
       </c>
       <c r="V48" s="7" t="s">
         <v>130</v>
@@ -14662,40 +14743,40 @@
     </row>
     <row r="49" spans="1:33">
       <c r="A49" s="14" t="s">
-        <v>314</v>
-      </c>
-      <c r="B49" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="C49" s="74" t="s">
-        <v>194</v>
+        <v>412</v>
+      </c>
+      <c r="B49" s="103" t="s">
+        <v>89</v>
+      </c>
+      <c r="C49" s="94" t="s">
+        <v>139</v>
       </c>
       <c r="D49" t="s">
         <v>127</v>
       </c>
-      <c r="E49" s="64" t="s">
-        <v>171</v>
+      <c r="E49" s="5" t="s">
+        <v>110</v>
       </c>
       <c r="F49" t="s">
-        <v>171</v>
+        <v>110</v>
       </c>
       <c r="G49" t="s">
         <v>231</v>
       </c>
       <c r="H49" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="I49" t="s">
-        <v>290</v>
+        <v>238</v>
       </c>
       <c r="J49" t="s">
-        <v>132</v>
-      </c>
-      <c r="K49" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="L49" s="22" t="s">
-        <v>128</v>
+        <v>49</v>
+      </c>
+      <c r="K49" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="L49" s="7" t="s">
+        <v>130</v>
       </c>
       <c r="M49" s="7" t="s">
         <v>130</v>
@@ -14709,18 +14790,20 @@
       <c r="P49" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="Q49" s="30"/>
-      <c r="R49" t="s">
-        <v>3</v>
-      </c>
-      <c r="S49" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="T49" t="s">
-        <v>4</v>
-      </c>
-      <c r="U49" t="s">
-        <v>5</v>
+      <c r="Q49" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="R49" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="S49" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="T49" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="U49" s="7" t="s">
+        <v>130</v>
       </c>
       <c r="V49" s="7" t="s">
         <v>130</v>
@@ -14752,37 +14835,37 @@
       <c r="AE49" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="AF49" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="AG49" s="7" t="s">
-        <v>130</v>
+      <c r="AF49" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="AG49" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="50" spans="1:33">
       <c r="A50" s="14" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B50" s="16" t="s">
-        <v>235</v>
+        <v>31</v>
       </c>
       <c r="C50" s="74" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D50" t="s">
         <v>127</v>
       </c>
-      <c r="E50" t="s">
-        <v>236</v>
+      <c r="E50" s="65" t="s">
+        <v>200</v>
       </c>
       <c r="F50" t="s">
-        <v>236</v>
+        <v>200</v>
       </c>
       <c r="G50" t="s">
         <v>231</v>
       </c>
       <c r="H50" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="I50" t="s">
         <v>290</v>
@@ -14810,13 +14893,13 @@
       </c>
       <c r="Q50" s="30"/>
       <c r="R50" t="s">
-        <v>197</v>
-      </c>
-      <c r="S50" s="77" t="s">
+        <v>3</v>
+      </c>
+      <c r="S50" s="9" t="s">
         <v>190</v>
       </c>
       <c r="T50" t="s">
-        <v>4</v>
+        <v>193</v>
       </c>
       <c r="U50" t="s">
         <v>5</v>
@@ -14860,230 +14943,226 @@
     </row>
     <row r="51" spans="1:33">
       <c r="A51" s="14" t="s">
-        <v>316</v>
+        <v>314</v>
+      </c>
+      <c r="B51" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C51" s="74" t="s">
+        <v>194</v>
+      </c>
+      <c r="D51" t="s">
+        <v>127</v>
+      </c>
+      <c r="E51" s="64" t="s">
+        <v>171</v>
+      </c>
+      <c r="F51" t="s">
+        <v>171</v>
+      </c>
+      <c r="G51" t="s">
+        <v>231</v>
+      </c>
+      <c r="H51" t="s">
+        <v>233</v>
+      </c>
+      <c r="I51" t="s">
+        <v>290</v>
+      </c>
+      <c r="J51" t="s">
+        <v>132</v>
+      </c>
+      <c r="K51" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="L51" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="M51" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="N51" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="O51" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P51" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q51" s="30"/>
+      <c r="R51" t="s">
+        <v>3</v>
+      </c>
+      <c r="S51" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="T51" t="s">
+        <v>4</v>
+      </c>
+      <c r="U51" t="s">
+        <v>5</v>
+      </c>
+      <c r="V51" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="W51" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="X51" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y51" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="Z51" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="AA51" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB51" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="AC51" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="AD51" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE51" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="AF51" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="AG51" s="7" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="52" spans="1:33">
       <c r="A52" s="14" t="s">
-        <v>60</v>
+        <v>315</v>
+      </c>
+      <c r="B52" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="C52" s="74" t="s">
+        <v>196</v>
+      </c>
+      <c r="D52" t="s">
+        <v>127</v>
+      </c>
+      <c r="E52" t="s">
+        <v>236</v>
+      </c>
+      <c r="F52" t="s">
+        <v>236</v>
+      </c>
+      <c r="G52" t="s">
+        <v>231</v>
+      </c>
+      <c r="H52" t="s">
+        <v>310</v>
+      </c>
+      <c r="I52" t="s">
+        <v>290</v>
+      </c>
+      <c r="J52" t="s">
+        <v>132</v>
+      </c>
+      <c r="K52" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="L52" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="M52" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="N52" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="O52" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P52" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q52" s="30"/>
+      <c r="R52" t="s">
+        <v>197</v>
+      </c>
+      <c r="S52" s="77" t="s">
+        <v>190</v>
+      </c>
+      <c r="T52" t="s">
+        <v>4</v>
+      </c>
+      <c r="U52" t="s">
+        <v>5</v>
+      </c>
+      <c r="V52" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="W52" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="X52" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y52" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="Z52" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="AA52" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB52" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="AC52" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="AD52" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE52" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="AF52" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="AG52" s="7" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="53" spans="1:33">
       <c r="A53" s="14" t="s">
-        <v>61</v>
+        <v>316</v>
       </c>
     </row>
     <row r="54" spans="1:33">
       <c r="A54" s="14" t="s">
-        <v>317</v>
-      </c>
-      <c r="B54" s="105" t="s">
-        <v>311</v>
-      </c>
-      <c r="C54" s="105" t="s">
-        <v>312</v>
-      </c>
-      <c r="D54" t="s">
-        <v>127</v>
-      </c>
-      <c r="E54" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="F54" t="s">
-        <v>284</v>
-      </c>
-      <c r="G54" t="s">
-        <v>230</v>
-      </c>
-      <c r="H54" t="s">
-        <v>289</v>
-      </c>
-      <c r="I54" t="s">
-        <v>285</v>
-      </c>
-      <c r="J54" t="s">
-        <v>132</v>
-      </c>
-      <c r="K54" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="L54" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="M54" s="88" t="s">
-        <v>286</v>
-      </c>
-      <c r="N54" s="77" t="s">
-        <v>251</v>
-      </c>
-      <c r="O54" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="P54" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q54" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="R54" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="S54" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="T54" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="U54" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="V54" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="W54" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="X54" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="Y54" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="Z54" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="AA54" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="AB54" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="AC54" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="AD54" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="AE54" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="AF54" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="AG54" s="7" t="s">
-        <v>130</v>
+        <v>60</v>
       </c>
     </row>
     <row r="55" spans="1:33">
       <c r="A55" s="14" t="s">
-        <v>318</v>
-      </c>
-      <c r="B55" s="105" t="s">
-        <v>328</v>
-      </c>
-      <c r="C55" s="105" t="s">
-        <v>329</v>
-      </c>
-      <c r="D55" t="s">
-        <v>127</v>
-      </c>
-      <c r="E55" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="F55" t="s">
-        <v>284</v>
-      </c>
-      <c r="G55" t="s">
-        <v>230</v>
-      </c>
-      <c r="H55" t="s">
-        <v>357</v>
-      </c>
-      <c r="I55" t="s">
-        <v>358</v>
-      </c>
-      <c r="J55" t="s">
-        <v>132</v>
-      </c>
-      <c r="K55" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="L55" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="M55" s="88" t="s">
-        <v>286</v>
-      </c>
-      <c r="N55" s="77" t="s">
-        <v>251</v>
-      </c>
-      <c r="O55" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="P55" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q55" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="R55" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="S55" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="T55" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="U55" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="V55" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="W55" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="X55" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="Y55" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="Z55" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="AA55" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="AB55" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="AC55" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="AD55" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="AE55" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="AF55" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="AG55" s="7" t="s">
-        <v>130</v>
+        <v>61</v>
       </c>
     </row>
     <row r="56" spans="1:33">
       <c r="A56" s="14" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B56" s="105" t="s">
-        <v>330</v>
+        <v>311</v>
       </c>
       <c r="C56" s="105" t="s">
-        <v>331</v>
+        <v>312</v>
       </c>
       <c r="D56" t="s">
         <v>127</v>
@@ -15098,10 +15177,10 @@
         <v>230</v>
       </c>
       <c r="H56" t="s">
-        <v>359</v>
+        <v>289</v>
       </c>
       <c r="I56" t="s">
-        <v>360</v>
+        <v>285</v>
       </c>
       <c r="J56" t="s">
         <v>132</v>
@@ -15178,13 +15257,13 @@
     </row>
     <row r="57" spans="1:33">
       <c r="A57" s="14" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B57" s="105" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="C57" s="105" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="D57" t="s">
         <v>127</v>
@@ -15199,10 +15278,10 @@
         <v>230</v>
       </c>
       <c r="H57" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="I57" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="J57" t="s">
         <v>132</v>
@@ -15279,13 +15358,13 @@
     </row>
     <row r="58" spans="1:33">
       <c r="A58" s="14" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B58" s="105" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C58" s="105" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D58" t="s">
         <v>127</v>
@@ -15300,10 +15379,10 @@
         <v>230</v>
       </c>
       <c r="H58" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="I58" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="J58" t="s">
         <v>132</v>
@@ -15380,13 +15459,13 @@
     </row>
     <row r="59" spans="1:33">
       <c r="A59" s="14" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B59" s="105" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C59" s="105" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="D59" t="s">
         <v>127</v>
@@ -15401,10 +15480,10 @@
         <v>230</v>
       </c>
       <c r="H59" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="I59" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="J59" t="s">
         <v>132</v>
@@ -15481,13 +15560,13 @@
     </row>
     <row r="60" spans="1:33">
       <c r="A60" s="14" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B60" s="105" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C60" s="105" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="D60" t="s">
         <v>127</v>
@@ -15502,10 +15581,10 @@
         <v>230</v>
       </c>
       <c r="H60" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="I60" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="J60" t="s">
         <v>132</v>
@@ -15582,18 +15661,114 @@
     </row>
     <row r="61" spans="1:33">
       <c r="A61" s="14" t="s">
-        <v>324</v>
+        <v>322</v>
+      </c>
+      <c r="B61" s="105" t="s">
+        <v>335</v>
+      </c>
+      <c r="C61" s="105" t="s">
+        <v>336</v>
+      </c>
+      <c r="D61" t="s">
+        <v>127</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="F61" t="s">
+        <v>284</v>
+      </c>
+      <c r="G61" t="s">
+        <v>230</v>
+      </c>
+      <c r="H61" t="s">
+        <v>365</v>
+      </c>
+      <c r="I61" t="s">
+        <v>366</v>
+      </c>
+      <c r="J61" t="s">
+        <v>132</v>
+      </c>
+      <c r="K61" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="L61" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="M61" s="88" t="s">
+        <v>286</v>
+      </c>
+      <c r="N61" s="77" t="s">
+        <v>251</v>
+      </c>
+      <c r="O61" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P61" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q61" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="R61" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="S61" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="T61" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="U61" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="V61" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="W61" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="X61" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y61" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="Z61" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="AA61" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB61" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="AC61" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="AD61" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE61" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="AF61" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="AG61" s="7" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="62" spans="1:33">
       <c r="A62" s="14" t="s">
-        <v>325</v>
-      </c>
-      <c r="B62" s="106" t="s">
-        <v>339</v>
-      </c>
-      <c r="C62" s="106" t="s">
-        <v>340</v>
+        <v>323</v>
+      </c>
+      <c r="B62" s="105" t="s">
+        <v>337</v>
+      </c>
+      <c r="C62" s="105" t="s">
+        <v>338</v>
       </c>
       <c r="D62" t="s">
         <v>127</v>
@@ -15608,10 +15783,10 @@
         <v>230</v>
       </c>
       <c r="H62" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="I62" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="J62" t="s">
         <v>132</v>
@@ -15688,111 +15863,15 @@
     </row>
     <row r="63" spans="1:33">
       <c r="A63" s="14" t="s">
-        <v>326</v>
-      </c>
-      <c r="B63" s="106" t="s">
-        <v>341</v>
-      </c>
-      <c r="C63" s="106" t="s">
-        <v>340</v>
-      </c>
-      <c r="D63" t="s">
-        <v>127</v>
-      </c>
-      <c r="E63" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="F63" t="s">
-        <v>284</v>
-      </c>
-      <c r="G63" t="s">
-        <v>230</v>
-      </c>
-      <c r="H63" t="s">
-        <v>371</v>
-      </c>
-      <c r="I63" t="s">
-        <v>372</v>
-      </c>
-      <c r="J63" t="s">
-        <v>132</v>
-      </c>
-      <c r="K63" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="L63" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="M63" s="88" t="s">
-        <v>286</v>
-      </c>
-      <c r="N63" s="77" t="s">
-        <v>251</v>
-      </c>
-      <c r="O63" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="P63" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q63" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="R63" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="S63" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="T63" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="U63" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="V63" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="W63" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="X63" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="Y63" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="Z63" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="AA63" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="AB63" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="AC63" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="AD63" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="AE63" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="AF63" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="AG63" s="7" t="s">
-        <v>130</v>
+        <v>324</v>
       </c>
     </row>
     <row r="64" spans="1:33">
       <c r="A64" s="14" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B64" s="106" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C64" s="106" t="s">
         <v>340</v>
@@ -15810,10 +15889,10 @@
         <v>230</v>
       </c>
       <c r="H64" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="I64" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="J64" t="s">
         <v>132</v>
@@ -15890,10 +15969,10 @@
     </row>
     <row r="65" spans="1:35">
       <c r="A65" s="14" t="s">
-        <v>354</v>
+        <v>326</v>
       </c>
       <c r="B65" s="106" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C65" s="106" t="s">
         <v>340</v>
@@ -15911,10 +15990,10 @@
         <v>230</v>
       </c>
       <c r="H65" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="I65" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="J65" t="s">
         <v>132</v>
@@ -15991,10 +16070,10 @@
     </row>
     <row r="66" spans="1:35">
       <c r="A66" s="14" t="s">
-        <v>355</v>
+        <v>327</v>
       </c>
       <c r="B66" s="106" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C66" s="106" t="s">
         <v>340</v>
@@ -16012,10 +16091,10 @@
         <v>230</v>
       </c>
       <c r="H66" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="I66" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="J66" t="s">
         <v>132</v>
@@ -16092,10 +16171,10 @@
     </row>
     <row r="67" spans="1:35">
       <c r="A67" s="14" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B67" s="106" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C67" s="106" t="s">
         <v>340</v>
@@ -16113,10 +16192,10 @@
         <v>230</v>
       </c>
       <c r="H67" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="I67" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="J67" t="s">
         <v>132</v>
@@ -16193,17 +16272,113 @@
     </row>
     <row r="68" spans="1:35">
       <c r="A68" s="14" t="s">
-        <v>413</v>
+        <v>355</v>
+      </c>
+      <c r="B68" s="106" t="s">
+        <v>344</v>
+      </c>
+      <c r="C68" s="106" t="s">
+        <v>340</v>
+      </c>
+      <c r="D68" t="s">
+        <v>127</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="F68" t="s">
+        <v>284</v>
+      </c>
+      <c r="G68" t="s">
+        <v>230</v>
+      </c>
+      <c r="H68" t="s">
+        <v>377</v>
+      </c>
+      <c r="I68" t="s">
+        <v>378</v>
+      </c>
+      <c r="J68" t="s">
+        <v>132</v>
+      </c>
+      <c r="K68" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="L68" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="M68" s="88" t="s">
+        <v>286</v>
+      </c>
+      <c r="N68" s="77" t="s">
+        <v>251</v>
+      </c>
+      <c r="O68" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P68" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q68" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="R68" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="S68" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="T68" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="U68" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="V68" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="W68" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="X68" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y68" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="Z68" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="AA68" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB68" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="AC68" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="AD68" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE68" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="AF68" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="AG68" s="7" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="69" spans="1:35">
       <c r="A69" s="14" t="s">
-        <v>414</v>
-      </c>
-      <c r="B69" s="105" t="s">
-        <v>346</v>
-      </c>
-      <c r="C69" s="105" t="s">
+        <v>356</v>
+      </c>
+      <c r="B69" s="106" t="s">
+        <v>345</v>
+      </c>
+      <c r="C69" s="106" t="s">
         <v>340</v>
       </c>
       <c r="D69" t="s">
@@ -16219,10 +16394,10 @@
         <v>230</v>
       </c>
       <c r="H69" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="I69" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J69" t="s">
         <v>132</v>
@@ -16299,111 +16474,15 @@
     </row>
     <row r="70" spans="1:35">
       <c r="A70" s="14" t="s">
-        <v>415</v>
-      </c>
-      <c r="B70" s="105" t="s">
-        <v>347</v>
-      </c>
-      <c r="C70" s="105" t="s">
-        <v>340</v>
-      </c>
-      <c r="D70" t="s">
-        <v>127</v>
-      </c>
-      <c r="E70" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="F70" t="s">
-        <v>284</v>
-      </c>
-      <c r="G70" t="s">
-        <v>230</v>
-      </c>
-      <c r="H70" t="s">
-        <v>383</v>
-      </c>
-      <c r="I70" t="s">
-        <v>384</v>
-      </c>
-      <c r="J70" t="s">
-        <v>132</v>
-      </c>
-      <c r="K70" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="L70" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="M70" s="88" t="s">
-        <v>286</v>
-      </c>
-      <c r="N70" s="77" t="s">
-        <v>251</v>
-      </c>
-      <c r="O70" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="P70" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q70" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="R70" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="S70" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="T70" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="U70" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="V70" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="W70" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="X70" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="Y70" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="Z70" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="AA70" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="AB70" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="AC70" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="AD70" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="AE70" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="AF70" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="AG70" s="7" t="s">
-        <v>130</v>
+        <v>413</v>
       </c>
     </row>
     <row r="71" spans="1:35">
       <c r="A71" s="14" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B71" s="105" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C71" s="105" t="s">
         <v>340</v>
@@ -16421,10 +16500,10 @@
         <v>230</v>
       </c>
       <c r="H71" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="I71" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="J71" t="s">
         <v>132</v>
@@ -16501,10 +16580,10 @@
     </row>
     <row r="72" spans="1:35">
       <c r="A72" s="14" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B72" s="105" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C72" s="105" t="s">
         <v>340</v>
@@ -16522,10 +16601,10 @@
         <v>230</v>
       </c>
       <c r="H72" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="I72" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="J72" t="s">
         <v>132</v>
@@ -16601,3343 +16680,3574 @@
       </c>
     </row>
     <row r="73" spans="1:35">
-      <c r="A73" s="102"/>
-      <c r="B73" s="102"/>
-      <c r="D73"/>
-      <c r="E73" s="5"/>
-      <c r="F73"/>
-      <c r="G73"/>
-      <c r="H73"/>
-      <c r="I73"/>
-      <c r="J73"/>
-      <c r="K73" s="22"/>
-      <c r="L73" s="22"/>
-      <c r="M73" s="88"/>
-      <c r="N73" s="6"/>
-      <c r="O73" s="7"/>
-      <c r="P73" s="7"/>
-      <c r="Q73" s="7"/>
-      <c r="R73" s="7"/>
-      <c r="S73" s="7"/>
-      <c r="T73" s="7"/>
-      <c r="U73" s="7"/>
-      <c r="V73" s="7"/>
-      <c r="W73" s="7"/>
-      <c r="X73" s="7"/>
-      <c r="Y73" s="7"/>
-      <c r="Z73" s="7"/>
-      <c r="AA73" s="7"/>
-      <c r="AB73" s="7"/>
-      <c r="AC73" s="7"/>
-      <c r="AD73" s="7"/>
-      <c r="AE73" s="7"/>
-      <c r="AF73" s="7"/>
-      <c r="AG73" s="7"/>
+      <c r="A73" s="14" t="s">
+        <v>416</v>
+      </c>
+      <c r="B73" s="105" t="s">
+        <v>348</v>
+      </c>
+      <c r="C73" s="105" t="s">
+        <v>340</v>
+      </c>
+      <c r="D73" t="s">
+        <v>127</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="F73" t="s">
+        <v>284</v>
+      </c>
+      <c r="G73" t="s">
+        <v>230</v>
+      </c>
+      <c r="H73" t="s">
+        <v>385</v>
+      </c>
+      <c r="I73" t="s">
+        <v>386</v>
+      </c>
+      <c r="J73" t="s">
+        <v>132</v>
+      </c>
+      <c r="K73" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="L73" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="M73" s="88" t="s">
+        <v>286</v>
+      </c>
+      <c r="N73" s="77" t="s">
+        <v>251</v>
+      </c>
+      <c r="O73" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P73" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q73" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="R73" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="S73" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="T73" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="U73" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="V73" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="W73" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="X73" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y73" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="Z73" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="AA73" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB73" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="AC73" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="AD73" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE73" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="AF73" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="AG73" s="7" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="74" spans="1:35">
-      <c r="B74" s="109"/>
-      <c r="C74" s="108" t="s">
-        <v>398</v>
+      <c r="A74" s="14" t="s">
+        <v>417</v>
+      </c>
+      <c r="B74" s="105" t="s">
+        <v>349</v>
+      </c>
+      <c r="C74" s="105" t="s">
+        <v>340</v>
+      </c>
+      <c r="D74" t="s">
+        <v>127</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="F74" t="s">
+        <v>284</v>
+      </c>
+      <c r="G74" t="s">
+        <v>230</v>
+      </c>
+      <c r="H74" t="s">
+        <v>387</v>
+      </c>
+      <c r="I74" t="s">
+        <v>388</v>
+      </c>
+      <c r="J74" t="s">
+        <v>132</v>
+      </c>
+      <c r="K74" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="L74" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="M74" s="88" t="s">
+        <v>286</v>
+      </c>
+      <c r="N74" s="77" t="s">
+        <v>251</v>
+      </c>
+      <c r="O74" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P74" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q74" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="R74" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="S74" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="T74" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="U74" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="V74" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="W74" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="X74" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y74" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="Z74" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="AA74" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB74" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="AC74" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="AD74" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE74" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="AF74" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="AG74" s="7" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="75" spans="1:35">
-      <c r="B75" s="98"/>
-      <c r="C75" s="98" t="s">
-        <v>399</v>
-      </c>
-      <c r="AI75" s="40"/>
+      <c r="A75" s="102"/>
+      <c r="B75" s="102"/>
+      <c r="D75"/>
+      <c r="E75" s="5"/>
+      <c r="F75"/>
+      <c r="G75"/>
+      <c r="H75"/>
+      <c r="I75"/>
+      <c r="J75"/>
+      <c r="K75" s="22"/>
+      <c r="L75" s="22"/>
+      <c r="M75" s="88"/>
+      <c r="N75" s="6"/>
+      <c r="O75" s="7"/>
+      <c r="P75" s="7"/>
+      <c r="Q75" s="7"/>
+      <c r="R75" s="7"/>
+      <c r="S75" s="7"/>
+      <c r="T75" s="7"/>
+      <c r="U75" s="7"/>
+      <c r="V75" s="7"/>
+      <c r="W75" s="7"/>
+      <c r="X75" s="7"/>
+      <c r="Y75" s="7"/>
+      <c r="Z75" s="7"/>
+      <c r="AA75" s="7"/>
+      <c r="AB75" s="7"/>
+      <c r="AC75" s="7"/>
+      <c r="AD75" s="7"/>
+      <c r="AE75" s="7"/>
+      <c r="AF75" s="7"/>
+      <c r="AG75" s="7"/>
     </row>
     <row r="76" spans="1:35">
-      <c r="B76" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="C76" s="73" t="s">
-        <v>243</v>
+      <c r="B76" s="109"/>
+      <c r="C76" s="108" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="77" spans="1:35">
-      <c r="B77" s="73" t="s">
-        <v>286</v>
-      </c>
-      <c r="C77" s="29" t="s">
-        <v>251</v>
-      </c>
+      <c r="B77" s="98"/>
+      <c r="C77" s="98" t="s">
+        <v>399</v>
+      </c>
+      <c r="AI77" s="40"/>
     </row>
     <row r="78" spans="1:35">
-      <c r="B78" s="87" t="s">
+      <c r="B78" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="C78" s="73" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="79" spans="1:35">
+      <c r="B79" s="73" t="s">
+        <v>286</v>
+      </c>
+      <c r="C79" s="29" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="80" spans="1:35">
+      <c r="B80" s="87" t="s">
         <v>287</v>
       </c>
-      <c r="C78" s="29" t="s">
+      <c r="C80" s="29" t="s">
         <v>251</v>
-      </c>
-    </row>
-    <row r="81" spans="2:3">
-      <c r="C81" s="73" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="83" spans="2:3">
-      <c r="C83" s="88"/>
+      <c r="C83" s="73" t="s">
+        <v>409</v>
+      </c>
     </row>
-    <row r="88" spans="2:3" ht="18">
-      <c r="B88" s="71"/>
+    <row r="85" spans="2:3">
+      <c r="C85" s="88"/>
+    </row>
+    <row r="90" spans="2:3" ht="18">
+      <c r="B90" s="71"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AG54"/>
-  <conditionalFormatting sqref="I16 F18:H18 F13:H14 F49:H49 G48:I48 F32:H33 G16:H22 F42:I47 F36:I40 F54:I60 F62:I67 F69:I73 F5:I6 F20:H30 F10:I10">
-    <cfRule type="containsText" dxfId="802" priority="2452" operator="containsText" text="Passed">
+  <autoFilter ref="A1:AG56"/>
+  <conditionalFormatting sqref="I18 F20:H20 F15:H16 F51:H51 G50:I50 F34:H35 G18:H24 F44:I49 F38:I42 F56:I62 F64:I69 F71:I75 F5:I6 F22:H32 F10:I10">
+    <cfRule type="containsText" dxfId="809" priority="2459" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",F5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="801" priority="2453" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="808" priority="2460" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",F5)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I40">
-    <cfRule type="containsText" dxfId="800" priority="2444" operator="containsText" text="Passed">
+  <conditionalFormatting sqref="I42">
+    <cfRule type="containsText" dxfId="807" priority="2451" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",I42)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="806" priority="2452" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",I42)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I15">
+    <cfRule type="containsText" dxfId="805" priority="2443" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",I15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="804" priority="2444" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",I15)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I16">
+    <cfRule type="containsText" dxfId="803" priority="2435" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",I16)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="802" priority="2436" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",I16)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I19">
+    <cfRule type="containsText" dxfId="801" priority="2431" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",I19)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="800" priority="2432" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",I19)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I20">
+    <cfRule type="containsText" dxfId="799" priority="2423" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",I20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="798" priority="2424" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",I20)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I21:I22">
+    <cfRule type="containsText" dxfId="797" priority="2415" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",I21)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="796" priority="2416" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",I21)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I23">
+    <cfRule type="containsText" dxfId="795" priority="2411" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",I23)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="794" priority="2412" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",I23)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I24">
+    <cfRule type="containsText" dxfId="793" priority="2407" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",I24)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="792" priority="2408" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",I24)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I44">
+    <cfRule type="containsText" dxfId="791" priority="2403" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",I44)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="790" priority="2404" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",I44)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I26">
+    <cfRule type="containsText" dxfId="789" priority="2399" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",I26)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="788" priority="2400" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",I26)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I25">
+    <cfRule type="containsText" dxfId="787" priority="2395" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",I25)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="786" priority="2396" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",I25)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I28">
+    <cfRule type="containsText" dxfId="785" priority="2391" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",I28)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="784" priority="2392" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",I28)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I29">
+    <cfRule type="containsText" dxfId="783" priority="2385" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",I29)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="782" priority="2386" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",I29)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I30">
+    <cfRule type="containsText" dxfId="781" priority="2381" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",I30)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="780" priority="2382" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",I30)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I31">
+    <cfRule type="containsText" dxfId="779" priority="2377" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",I31)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="778" priority="2378" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",I31)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I45">
+    <cfRule type="containsText" dxfId="777" priority="2373" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",I45)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="776" priority="2374" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",I45)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I46">
+    <cfRule type="containsText" dxfId="775" priority="2365" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",I46)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="774" priority="2366" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",I46)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I49">
+    <cfRule type="containsText" dxfId="773" priority="2357" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",I49)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="772" priority="2358" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",I49)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I47">
+    <cfRule type="containsText" dxfId="771" priority="2353" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",I47)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="770" priority="2354" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",I47)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I27">
+    <cfRule type="containsText" dxfId="769" priority="2345" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",I27)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="768" priority="2346" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",I27)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I32">
+    <cfRule type="containsText" dxfId="767" priority="2341" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",I32)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="766" priority="2342" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",I32)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I35">
+    <cfRule type="containsText" dxfId="765" priority="2337" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",I35)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="764" priority="2338" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",I35)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I34">
+    <cfRule type="containsText" dxfId="763" priority="2333" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",I34)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="762" priority="2334" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",I34)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I38:I39">
+    <cfRule type="containsText" dxfId="761" priority="2329" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",I38)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="760" priority="2330" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",I38)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I40:I41">
+    <cfRule type="containsText" dxfId="759" priority="2325" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",I40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="799" priority="2445" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="758" priority="2326" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",I40)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I13">
-    <cfRule type="containsText" dxfId="798" priority="2436" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",I13)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="797" priority="2437" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",I13)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I14">
-    <cfRule type="containsText" dxfId="796" priority="2428" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",I14)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="795" priority="2429" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",I14)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I17">
-    <cfRule type="containsText" dxfId="794" priority="2424" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",I17)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="793" priority="2425" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",I17)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I18">
-    <cfRule type="containsText" dxfId="792" priority="2416" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",I18)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="791" priority="2417" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",I18)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I19:I20">
-    <cfRule type="containsText" dxfId="790" priority="2408" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",I19)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="789" priority="2409" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",I19)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I21">
-    <cfRule type="containsText" dxfId="788" priority="2404" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",I21)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="787" priority="2405" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",I21)))</formula>
+  <conditionalFormatting sqref="I48">
+    <cfRule type="containsText" dxfId="757" priority="2321" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",I48)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="756" priority="2322" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",I48)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I51">
+    <cfRule type="containsText" dxfId="755" priority="2285" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",I51)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="754" priority="2286" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",I51)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K46:L47 K51:L51 L34:L35 L44 L38:L42 D28:D52 L27:L32 K27 K56:L62 D56:D62 K64:L69 K71:L75 K5:L6 D64:D69 D71:D75 D5:D6 K18:L26 K10:L10 D10 D15:D24 K15:L16">
+    <cfRule type="containsText" dxfId="753" priority="2277" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",D5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="752" priority="2278" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",D5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K34:K35">
+    <cfRule type="containsText" dxfId="751" priority="2173" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",K34)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="750" priority="2174" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",K34)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J18:J19 J34:J35 J44 J38:J42 J56:J62 J64:J69 J71:J75 J5:J6 J21:J32 J10 J15:J16">
+    <cfRule type="containsText" dxfId="749" priority="2164" operator="containsText" text="Android">
+      <formula>NOT(ISERROR(SEARCH("Android",J5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J18:J19 J34:J35 J44 J38:J42 J56:J62 J64:J69 J71:J75 J5:J6 J21:J32 J10 J15:J16">
+    <cfRule type="containsText" dxfId="748" priority="2162" operator="containsText" text="Web">
+      <formula>NOT(ISERROR(SEARCH("Web",J5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="747" priority="2163" operator="containsText" text="iOS">
+      <formula>NOT(ISERROR(SEARCH("iOS",J5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J46">
+    <cfRule type="containsText" dxfId="746" priority="2155" operator="containsText" text="Android">
+      <formula>NOT(ISERROR(SEARCH("Android",J46)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J46">
+    <cfRule type="containsText" dxfId="745" priority="2153" operator="containsText" text="Web">
+      <formula>NOT(ISERROR(SEARCH("Web",J46)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="744" priority="2154" operator="containsText" text="iOS">
+      <formula>NOT(ISERROR(SEARCH("iOS",J46)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J47">
+    <cfRule type="containsText" dxfId="743" priority="2152" operator="containsText" text="Android">
+      <formula>NOT(ISERROR(SEARCH("Android",J47)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J47">
+    <cfRule type="containsText" dxfId="742" priority="2150" operator="containsText" text="Web">
+      <formula>NOT(ISERROR(SEARCH("Web",J47)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="741" priority="2151" operator="containsText" text="iOS">
+      <formula>NOT(ISERROR(SEARCH("iOS",J47)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J51">
+    <cfRule type="containsText" dxfId="740" priority="2137" operator="containsText" text="Android">
+      <formula>NOT(ISERROR(SEARCH("Android",J51)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J51">
+    <cfRule type="containsText" dxfId="739" priority="2135" operator="containsText" text="Web">
+      <formula>NOT(ISERROR(SEARCH("Web",J51)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="738" priority="2136" operator="containsText" text="iOS">
+      <formula>NOT(ISERROR(SEARCH("iOS",J51)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J45">
+    <cfRule type="containsText" dxfId="737" priority="2134" operator="containsText" text="Android">
+      <formula>NOT(ISERROR(SEARCH("Android",J45)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J45">
+    <cfRule type="containsText" dxfId="736" priority="2132" operator="containsText" text="Web">
+      <formula>NOT(ISERROR(SEARCH("Web",J45)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="735" priority="2133" operator="containsText" text="iOS">
+      <formula>NOT(ISERROR(SEARCH("iOS",J45)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J49">
+    <cfRule type="containsText" dxfId="734" priority="2128" operator="containsText" text="Android">
+      <formula>NOT(ISERROR(SEARCH("Android",J49)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J49">
+    <cfRule type="containsText" dxfId="733" priority="2126" operator="containsText" text="Web">
+      <formula>NOT(ISERROR(SEARCH("Web",J49)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="732" priority="2127" operator="containsText" text="iOS">
+      <formula>NOT(ISERROR(SEARCH("iOS",J49)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I22">
-    <cfRule type="containsText" dxfId="786" priority="2400" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="731" priority="2120" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",I22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="785" priority="2401" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="730" priority="2121" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",I22)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I42">
-    <cfRule type="containsText" dxfId="784" priority="2396" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",I42)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="783" priority="2397" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",I42)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I24">
-    <cfRule type="containsText" dxfId="782" priority="2392" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",I24)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="781" priority="2393" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",I24)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="I23">
-    <cfRule type="containsText" dxfId="780" priority="2388" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="729" priority="2118" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",I23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="779" priority="2389" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="728" priority="2119" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",I23)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I26">
-    <cfRule type="containsText" dxfId="778" priority="2384" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",I26)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="777" priority="2385" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",I26)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I27">
-    <cfRule type="containsText" dxfId="776" priority="2378" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",I27)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="775" priority="2379" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",I27)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I28">
-    <cfRule type="containsText" dxfId="774" priority="2374" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",I28)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="773" priority="2375" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",I28)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I29">
-    <cfRule type="containsText" dxfId="772" priority="2370" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",I29)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="771" priority="2371" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",I29)))</formula>
+  <conditionalFormatting sqref="K40:K41">
+    <cfRule type="containsText" dxfId="727" priority="2116" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",K40)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="726" priority="2117" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",K40)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K38:K39">
+    <cfRule type="containsText" dxfId="725" priority="2114" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",K38)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="724" priority="2115" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",K38)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J48">
+    <cfRule type="containsText" dxfId="723" priority="2113" operator="containsText" text="Android">
+      <formula>NOT(ISERROR(SEARCH("Android",J48)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J48">
+    <cfRule type="containsText" dxfId="722" priority="2111" operator="containsText" text="Web">
+      <formula>NOT(ISERROR(SEARCH("Web",J48)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="721" priority="2112" operator="containsText" text="iOS">
+      <formula>NOT(ISERROR(SEARCH("iOS",J48)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L48">
+    <cfRule type="containsText" dxfId="720" priority="2107" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",L48)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="719" priority="2108" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",L48)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K48">
+    <cfRule type="containsText" dxfId="718" priority="2017" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",K48)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="717" priority="2018" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",K48)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H50">
+    <cfRule type="containsText" dxfId="716" priority="2013" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",H50)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="715" priority="2014" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",H50)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I50">
+    <cfRule type="containsText" dxfId="714" priority="2011" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",I50)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="713" priority="2012" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",I50)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L50">
+    <cfRule type="containsText" dxfId="712" priority="2009" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",L50)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="711" priority="2010" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",L50)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K50">
+    <cfRule type="containsText" dxfId="710" priority="2007" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",K50)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="709" priority="2008" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",K50)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J50">
+    <cfRule type="containsText" dxfId="708" priority="2006" operator="containsText" text="Android">
+      <formula>NOT(ISERROR(SEARCH("Android",J50)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J50">
+    <cfRule type="containsText" dxfId="707" priority="2004" operator="containsText" text="Web">
+      <formula>NOT(ISERROR(SEARCH("Web",J50)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="706" priority="2005" operator="containsText" text="iOS">
+      <formula>NOT(ISERROR(SEARCH("iOS",J50)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G50">
+    <cfRule type="containsText" dxfId="705" priority="1983" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",G50)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="704" priority="1984" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",G50)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G17:H17">
+    <cfRule type="containsText" dxfId="703" priority="1970" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",G17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="702" priority="1971" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",G17)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F17 I17">
+    <cfRule type="containsText" dxfId="701" priority="1966" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",F17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="700" priority="1967" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",F17)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K17:L17">
+    <cfRule type="containsText" dxfId="699" priority="1964" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",K17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="698" priority="1965" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",K17)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J17">
+    <cfRule type="containsText" dxfId="697" priority="1963" operator="containsText" text="Android">
+      <formula>NOT(ISERROR(SEARCH("Android",J17)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J17">
+    <cfRule type="containsText" dxfId="696" priority="1961" operator="containsText" text="Web">
+      <formula>NOT(ISERROR(SEARCH("Web",J17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="695" priority="1962" operator="containsText" text="iOS">
+      <formula>NOT(ISERROR(SEARCH("iOS",J17)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F36:H36">
+    <cfRule type="containsText" dxfId="694" priority="1938" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",F36)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="693" priority="1939" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",F36)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I36">
+    <cfRule type="containsText" dxfId="692" priority="1936" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",I36)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="691" priority="1937" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",I36)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L36">
+    <cfRule type="containsText" dxfId="690" priority="1934" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",L36)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="689" priority="1935" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",L36)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K36">
+    <cfRule type="containsText" dxfId="688" priority="1932" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",K36)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="687" priority="1933" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",K36)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J36">
+    <cfRule type="containsText" dxfId="686" priority="1931" operator="containsText" text="Android">
+      <formula>NOT(ISERROR(SEARCH("Android",J36)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J36">
+    <cfRule type="containsText" dxfId="685" priority="1929" operator="containsText" text="Web">
+      <formula>NOT(ISERROR(SEARCH("Web",J36)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="684" priority="1930" operator="containsText" text="iOS">
+      <formula>NOT(ISERROR(SEARCH("iOS",J36)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F33:H33">
+    <cfRule type="containsText" dxfId="683" priority="1927" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",F33)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="682" priority="1928" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",F33)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I33">
+    <cfRule type="containsText" dxfId="681" priority="1925" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",I33)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="680" priority="1926" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",I33)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L33">
+    <cfRule type="containsText" dxfId="679" priority="1923" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",L33)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="678" priority="1924" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",L33)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K33">
+    <cfRule type="containsText" dxfId="677" priority="1921" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",K33)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="676" priority="1922" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",K33)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J33">
+    <cfRule type="containsText" dxfId="675" priority="1920" operator="containsText" text="Android">
+      <formula>NOT(ISERROR(SEARCH("Android",J33)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J33">
+    <cfRule type="containsText" dxfId="674" priority="1918" operator="containsText" text="Web">
+      <formula>NOT(ISERROR(SEARCH("Web",J33)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="673" priority="1919" operator="containsText" text="iOS">
+      <formula>NOT(ISERROR(SEARCH("iOS",J33)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K28">
+    <cfRule type="containsText" dxfId="672" priority="1910" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",K28)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="671" priority="1911" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",K28)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K29">
+    <cfRule type="containsText" dxfId="670" priority="1908" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",K29)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="669" priority="1909" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",K29)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F52:H52">
+    <cfRule type="containsText" dxfId="668" priority="1906" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",F52)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="667" priority="1907" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",F52)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I52">
+    <cfRule type="containsText" dxfId="666" priority="1904" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",I52)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="665" priority="1905" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",I52)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L52">
+    <cfRule type="containsText" dxfId="664" priority="1900" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",L52)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="663" priority="1901" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",L52)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K52">
+    <cfRule type="containsText" dxfId="662" priority="1898" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",K52)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="661" priority="1899" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",K52)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J52">
+    <cfRule type="containsText" dxfId="660" priority="1897" operator="containsText" text="Android">
+      <formula>NOT(ISERROR(SEARCH("Android",J52)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J52">
+    <cfRule type="containsText" dxfId="659" priority="1895" operator="containsText" text="Web">
+      <formula>NOT(ISERROR(SEARCH("Web",J52)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="658" priority="1896" operator="containsText" text="iOS">
+      <formula>NOT(ISERROR(SEARCH("iOS",J52)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G49">
+    <cfRule type="containsText" dxfId="657" priority="1860" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",G49)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="656" priority="1861" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",G49)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E52">
+    <cfRule type="containsText" dxfId="655" priority="1854" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",E52)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="654" priority="1855" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",E52)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K42">
+    <cfRule type="containsText" dxfId="653" priority="1852" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",K42)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="652" priority="1853" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",K42)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K32">
+    <cfRule type="containsText" dxfId="651" priority="1792" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",K32)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="650" priority="1793" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",K32)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K31">
+    <cfRule type="containsText" dxfId="649" priority="1790" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",K31)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="648" priority="1791" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",K31)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K30">
+    <cfRule type="containsText" dxfId="647" priority="1788" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",K30)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="646" priority="1789" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",K30)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F37:H37">
+    <cfRule type="containsText" dxfId="645" priority="1786" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",F37)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="644" priority="1787" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",F37)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I37">
+    <cfRule type="containsText" dxfId="643" priority="1784" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",I37)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="642" priority="1785" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",I37)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L37">
+    <cfRule type="containsText" dxfId="641" priority="1782" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",L37)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="640" priority="1783" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",L37)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K37">
+    <cfRule type="containsText" dxfId="639" priority="1780" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",K37)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="638" priority="1781" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",K37)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J37">
+    <cfRule type="containsText" dxfId="637" priority="1779" operator="containsText" text="Android">
+      <formula>NOT(ISERROR(SEARCH("Android",J37)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J37">
+    <cfRule type="containsText" dxfId="636" priority="1777" operator="containsText" text="Web">
+      <formula>NOT(ISERROR(SEARCH("Web",J37)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="635" priority="1778" operator="containsText" text="iOS">
+      <formula>NOT(ISERROR(SEARCH("iOS",J37)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F43:I43">
+    <cfRule type="containsText" dxfId="634" priority="1761" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",F43)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="633" priority="1762" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",F43)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I43">
-    <cfRule type="containsText" dxfId="770" priority="2366" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="632" priority="1759" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",I43)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="769" priority="2367" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="631" priority="1760" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",I43)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I44">
-    <cfRule type="containsText" dxfId="768" priority="2358" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",I44)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="767" priority="2359" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",I44)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I47">
-    <cfRule type="containsText" dxfId="766" priority="2350" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",I47)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="765" priority="2351" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",I47)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I45">
-    <cfRule type="containsText" dxfId="764" priority="2346" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",I45)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="763" priority="2347" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",I45)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I25">
-    <cfRule type="containsText" dxfId="762" priority="2338" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",I25)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="761" priority="2339" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",I25)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I30">
-    <cfRule type="containsText" dxfId="760" priority="2334" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",I30)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="759" priority="2335" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",I30)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I33">
-    <cfRule type="containsText" dxfId="758" priority="2330" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",I33)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="757" priority="2331" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",I33)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I32">
-    <cfRule type="containsText" dxfId="756" priority="2326" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",I32)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="755" priority="2327" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",I32)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I36:I37">
-    <cfRule type="containsText" dxfId="754" priority="2322" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",I36)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="753" priority="2323" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",I36)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I38:I39">
-    <cfRule type="containsText" dxfId="752" priority="2318" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",I38)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="751" priority="2319" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",I38)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I46">
-    <cfRule type="containsText" dxfId="750" priority="2314" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",I46)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="749" priority="2315" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",I46)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I49">
-    <cfRule type="containsText" dxfId="748" priority="2278" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",I49)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="747" priority="2279" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",I49)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K44:L45 K49:L49 L32:L33 L42 L36:L40 D26:D50 L25:L30 K25 K54:L60 D54:D60 K62:L67 K69:L73 K5:L6 D62:D67 D69:D73 D5:D6 K16:L24 K10:L10 D10 D13:D22 K13:L14">
-    <cfRule type="containsText" dxfId="746" priority="2270" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D5)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="745" priority="2271" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D5)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K32:K33">
-    <cfRule type="containsText" dxfId="744" priority="2166" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",K32)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="743" priority="2167" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",K32)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J16:J17 J32:J33 J42 J36:J40 J54:J60 J62:J67 J69:J73 J5:J6 J19:J30 J10 J13:J14">
-    <cfRule type="containsText" dxfId="742" priority="2157" operator="containsText" text="Android">
-      <formula>NOT(ISERROR(SEARCH("Android",J5)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J16:J17 J32:J33 J42 J36:J40 J54:J60 J62:J67 J69:J73 J5:J6 J19:J30 J10 J13:J14">
-    <cfRule type="containsText" dxfId="741" priority="2155" operator="containsText" text="Web">
-      <formula>NOT(ISERROR(SEARCH("Web",J5)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="740" priority="2156" operator="containsText" text="iOS">
-      <formula>NOT(ISERROR(SEARCH("iOS",J5)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J44">
-    <cfRule type="containsText" dxfId="739" priority="2148" operator="containsText" text="Android">
-      <formula>NOT(ISERROR(SEARCH("Android",J44)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J44">
-    <cfRule type="containsText" dxfId="738" priority="2146" operator="containsText" text="Web">
-      <formula>NOT(ISERROR(SEARCH("Web",J44)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="737" priority="2147" operator="containsText" text="iOS">
-      <formula>NOT(ISERROR(SEARCH("iOS",J44)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J45">
-    <cfRule type="containsText" dxfId="736" priority="2145" operator="containsText" text="Android">
-      <formula>NOT(ISERROR(SEARCH("Android",J45)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J45">
-    <cfRule type="containsText" dxfId="735" priority="2143" operator="containsText" text="Web">
-      <formula>NOT(ISERROR(SEARCH("Web",J45)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="734" priority="2144" operator="containsText" text="iOS">
-      <formula>NOT(ISERROR(SEARCH("iOS",J45)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J49">
-    <cfRule type="containsText" dxfId="733" priority="2130" operator="containsText" text="Android">
-      <formula>NOT(ISERROR(SEARCH("Android",J49)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J49">
-    <cfRule type="containsText" dxfId="732" priority="2128" operator="containsText" text="Web">
-      <formula>NOT(ISERROR(SEARCH("Web",J49)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="731" priority="2129" operator="containsText" text="iOS">
-      <formula>NOT(ISERROR(SEARCH("iOS",J49)))</formula>
+  <conditionalFormatting sqref="L43">
+    <cfRule type="containsText" dxfId="630" priority="1757" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",L43)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="629" priority="1758" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",L43)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J43">
-    <cfRule type="containsText" dxfId="730" priority="2127" operator="containsText" text="Android">
+    <cfRule type="containsText" dxfId="628" priority="1756" operator="containsText" text="Android">
       <formula>NOT(ISERROR(SEARCH("Android",J43)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J43">
-    <cfRule type="containsText" dxfId="729" priority="2125" operator="containsText" text="Web">
+    <cfRule type="containsText" dxfId="627" priority="1754" operator="containsText" text="Web">
       <formula>NOT(ISERROR(SEARCH("Web",J43)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="728" priority="2126" operator="containsText" text="iOS">
+    <cfRule type="containsText" dxfId="626" priority="1755" operator="containsText" text="iOS">
       <formula>NOT(ISERROR(SEARCH("iOS",J43)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J47">
-    <cfRule type="containsText" dxfId="727" priority="2121" operator="containsText" text="Android">
-      <formula>NOT(ISERROR(SEARCH("Android",J47)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J47">
-    <cfRule type="containsText" dxfId="726" priority="2119" operator="containsText" text="Web">
-      <formula>NOT(ISERROR(SEARCH("Web",J47)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="725" priority="2120" operator="containsText" text="iOS">
-      <formula>NOT(ISERROR(SEARCH("iOS",J47)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I20">
-    <cfRule type="containsText" dxfId="724" priority="2113" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",I20)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="723" priority="2114" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",I20)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I21">
-    <cfRule type="containsText" dxfId="722" priority="2111" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",I21)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="721" priority="2112" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",I21)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K38:K39">
-    <cfRule type="containsText" dxfId="720" priority="2109" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",K38)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="719" priority="2110" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",K38)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K36:K37">
-    <cfRule type="containsText" dxfId="718" priority="2107" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",K36)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="717" priority="2108" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",K36)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J46">
-    <cfRule type="containsText" dxfId="716" priority="2106" operator="containsText" text="Android">
-      <formula>NOT(ISERROR(SEARCH("Android",J46)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J46">
-    <cfRule type="containsText" dxfId="715" priority="2104" operator="containsText" text="Web">
-      <formula>NOT(ISERROR(SEARCH("Web",J46)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="714" priority="2105" operator="containsText" text="iOS">
-      <formula>NOT(ISERROR(SEARCH("iOS",J46)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L46">
-    <cfRule type="containsText" dxfId="713" priority="2100" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",L46)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="712" priority="2101" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",L46)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K46">
-    <cfRule type="containsText" dxfId="711" priority="2010" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",K46)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="710" priority="2011" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",K46)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H48">
-    <cfRule type="containsText" dxfId="709" priority="2006" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",H48)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="708" priority="2007" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",H48)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I48">
-    <cfRule type="containsText" dxfId="707" priority="2004" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",I48)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="706" priority="2005" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",I48)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L48">
-    <cfRule type="containsText" dxfId="705" priority="2002" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",L48)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="704" priority="2003" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",L48)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K48">
-    <cfRule type="containsText" dxfId="703" priority="2000" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",K48)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="702" priority="2001" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",K48)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J48">
-    <cfRule type="containsText" dxfId="701" priority="1999" operator="containsText" text="Android">
-      <formula>NOT(ISERROR(SEARCH("Android",J48)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J48">
-    <cfRule type="containsText" dxfId="700" priority="1997" operator="containsText" text="Web">
-      <formula>NOT(ISERROR(SEARCH("Web",J48)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="699" priority="1998" operator="containsText" text="iOS">
-      <formula>NOT(ISERROR(SEARCH("iOS",J48)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G48">
-    <cfRule type="containsText" dxfId="698" priority="1976" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",G48)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="697" priority="1977" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",G48)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G15:H15">
-    <cfRule type="containsText" dxfId="696" priority="1963" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",G15)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="695" priority="1964" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",G15)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F15 I15">
-    <cfRule type="containsText" dxfId="694" priority="1959" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",F15)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="693" priority="1960" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",F15)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K15:L15">
-    <cfRule type="containsText" dxfId="692" priority="1957" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",K15)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="691" priority="1958" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",K15)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J15">
-    <cfRule type="containsText" dxfId="690" priority="1956" operator="containsText" text="Android">
-      <formula>NOT(ISERROR(SEARCH("Android",J15)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J15">
-    <cfRule type="containsText" dxfId="689" priority="1954" operator="containsText" text="Web">
-      <formula>NOT(ISERROR(SEARCH("Web",J15)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="688" priority="1955" operator="containsText" text="iOS">
-      <formula>NOT(ISERROR(SEARCH("iOS",J15)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F34:H34">
-    <cfRule type="containsText" dxfId="687" priority="1931" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",F34)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="686" priority="1932" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",F34)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I34">
-    <cfRule type="containsText" dxfId="685" priority="1929" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",I34)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="684" priority="1930" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",I34)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L34">
-    <cfRule type="containsText" dxfId="683" priority="1927" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",L34)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="682" priority="1928" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",L34)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K34">
-    <cfRule type="containsText" dxfId="681" priority="1925" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",K34)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="680" priority="1926" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",K34)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J34">
-    <cfRule type="containsText" dxfId="679" priority="1924" operator="containsText" text="Android">
-      <formula>NOT(ISERROR(SEARCH("Android",J34)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J34">
-    <cfRule type="containsText" dxfId="678" priority="1922" operator="containsText" text="Web">
-      <formula>NOT(ISERROR(SEARCH("Web",J34)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="677" priority="1923" operator="containsText" text="iOS">
-      <formula>NOT(ISERROR(SEARCH("iOS",J34)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F31:H31">
-    <cfRule type="containsText" dxfId="676" priority="1920" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",F31)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="675" priority="1921" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",F31)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I31">
-    <cfRule type="containsText" dxfId="674" priority="1918" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",I31)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="673" priority="1919" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",I31)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L31">
-    <cfRule type="containsText" dxfId="672" priority="1916" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",L31)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="671" priority="1917" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",L31)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K31">
-    <cfRule type="containsText" dxfId="670" priority="1914" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",K31)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="669" priority="1915" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",K31)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J31">
-    <cfRule type="containsText" dxfId="668" priority="1913" operator="containsText" text="Android">
-      <formula>NOT(ISERROR(SEARCH("Android",J31)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J31">
-    <cfRule type="containsText" dxfId="667" priority="1911" operator="containsText" text="Web">
-      <formula>NOT(ISERROR(SEARCH("Web",J31)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="666" priority="1912" operator="containsText" text="iOS">
-      <formula>NOT(ISERROR(SEARCH("iOS",J31)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K26">
-    <cfRule type="containsText" dxfId="665" priority="1903" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",K26)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="664" priority="1904" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",K26)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K27">
-    <cfRule type="containsText" dxfId="663" priority="1901" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",K27)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="662" priority="1902" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",K27)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F50:H50">
-    <cfRule type="containsText" dxfId="661" priority="1899" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",F50)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="660" priority="1900" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",F50)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I50">
-    <cfRule type="containsText" dxfId="659" priority="1897" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",I50)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="658" priority="1898" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",I50)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L50">
-    <cfRule type="containsText" dxfId="657" priority="1893" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",L50)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="656" priority="1894" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",L50)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K50">
-    <cfRule type="containsText" dxfId="655" priority="1891" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",K50)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="654" priority="1892" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",K50)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J50">
-    <cfRule type="containsText" dxfId="653" priority="1890" operator="containsText" text="Android">
-      <formula>NOT(ISERROR(SEARCH("Android",J50)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J50">
-    <cfRule type="containsText" dxfId="652" priority="1888" operator="containsText" text="Web">
-      <formula>NOT(ISERROR(SEARCH("Web",J50)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="651" priority="1889" operator="containsText" text="iOS">
-      <formula>NOT(ISERROR(SEARCH("iOS",J50)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G47">
-    <cfRule type="containsText" dxfId="650" priority="1853" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",G47)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="649" priority="1854" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",G47)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E50">
-    <cfRule type="containsText" dxfId="648" priority="1847" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",E50)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="647" priority="1848" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",E50)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K40">
-    <cfRule type="containsText" dxfId="646" priority="1845" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",K40)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="645" priority="1846" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",K40)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K30">
-    <cfRule type="containsText" dxfId="644" priority="1785" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",K30)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="643" priority="1786" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",K30)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K29">
-    <cfRule type="containsText" dxfId="642" priority="1783" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",K29)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="641" priority="1784" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",K29)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K28">
-    <cfRule type="containsText" dxfId="640" priority="1781" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",K28)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="639" priority="1782" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",K28)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F35:H35">
-    <cfRule type="containsText" dxfId="638" priority="1779" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",F35)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="637" priority="1780" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",F35)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I35">
-    <cfRule type="containsText" dxfId="636" priority="1777" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",I35)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="635" priority="1778" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",I35)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L35">
-    <cfRule type="containsText" dxfId="634" priority="1775" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",L35)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="633" priority="1776" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",L35)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K35">
-    <cfRule type="containsText" dxfId="632" priority="1773" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",K35)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="631" priority="1774" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",K35)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J35">
-    <cfRule type="containsText" dxfId="630" priority="1772" operator="containsText" text="Android">
-      <formula>NOT(ISERROR(SEARCH("Android",J35)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J35">
-    <cfRule type="containsText" dxfId="629" priority="1770" operator="containsText" text="Web">
-      <formula>NOT(ISERROR(SEARCH("Web",J35)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="628" priority="1771" operator="containsText" text="iOS">
-      <formula>NOT(ISERROR(SEARCH("iOS",J35)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F41:I41">
-    <cfRule type="containsText" dxfId="627" priority="1754" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",F41)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="626" priority="1755" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",F41)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I41">
-    <cfRule type="containsText" dxfId="625" priority="1752" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",I41)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="624" priority="1753" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",I41)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L41">
-    <cfRule type="containsText" dxfId="623" priority="1750" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",L41)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="622" priority="1751" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",L41)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J41">
-    <cfRule type="containsText" dxfId="621" priority="1749" operator="containsText" text="Android">
-      <formula>NOT(ISERROR(SEARCH("Android",J41)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J41">
-    <cfRule type="containsText" dxfId="620" priority="1747" operator="containsText" text="Web">
-      <formula>NOT(ISERROR(SEARCH("Web",J41)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="619" priority="1748" operator="containsText" text="iOS">
-      <formula>NOT(ISERROR(SEARCH("iOS",J41)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K42">
-    <cfRule type="containsText" dxfId="618" priority="1739" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",K42)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="617" priority="1740" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",K42)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K41">
-    <cfRule type="containsText" dxfId="616" priority="1704" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",K41)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="615" priority="1705" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",K41)))</formula>
+  <conditionalFormatting sqref="K44">
+    <cfRule type="containsText" dxfId="625" priority="1746" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",K44)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="624" priority="1747" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",K44)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K43">
+    <cfRule type="containsText" dxfId="623" priority="1711" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",K43)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="622" priority="1712" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",K43)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2">
-    <cfRule type="containsText" dxfId="614" priority="967" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="621" priority="974" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",H2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="613" priority="968" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="620" priority="975" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",H2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2">
+    <cfRule type="containsText" dxfId="619" priority="972" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",I2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="618" priority="973" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",I2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L2">
+    <cfRule type="containsText" dxfId="617" priority="970" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",L2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="616" priority="971" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",L2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2">
+    <cfRule type="containsText" dxfId="615" priority="969" operator="containsText" text="Android">
+      <formula>NOT(ISERROR(SEARCH("Android",J2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2">
+    <cfRule type="containsText" dxfId="614" priority="967" operator="containsText" text="Web">
+      <formula>NOT(ISERROR(SEARCH("Web",J2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="613" priority="968" operator="containsText" text="iOS">
+      <formula>NOT(ISERROR(SEARCH("iOS",J2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2">
     <cfRule type="containsText" dxfId="612" priority="965" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",I2)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Passed",G2)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="611" priority="966" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",I2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L2">
+      <formula>NOT(ISERROR(SEARCH("Failed",G2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2">
     <cfRule type="containsText" dxfId="610" priority="963" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",L2)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Sim",K2)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="609" priority="964" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",L2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J2">
-    <cfRule type="containsText" dxfId="608" priority="962" operator="containsText" text="Android">
-      <formula>NOT(ISERROR(SEARCH("Android",J2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J2">
-    <cfRule type="containsText" dxfId="607" priority="960" operator="containsText" text="Web">
-      <formula>NOT(ISERROR(SEARCH("Web",J2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="606" priority="961" operator="containsText" text="iOS">
-      <formula>NOT(ISERROR(SEARCH("iOS",J2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G2">
-    <cfRule type="containsText" dxfId="605" priority="958" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",G2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="604" priority="959" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",G2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K2">
-    <cfRule type="containsText" dxfId="603" priority="956" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",K2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="602" priority="957" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",K2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="containsText" dxfId="601" priority="954" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="608" priority="961" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="600" priority="955" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="607" priority="962" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="containsText" dxfId="599" priority="952" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="606" priority="959" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="598" priority="953" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="605" priority="960" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="containsText" dxfId="597" priority="950" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="604" priority="957" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="596" priority="951" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="603" priority="958" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="containsText" dxfId="595" priority="948" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="602" priority="955" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="594" priority="949" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="601" priority="956" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="containsText" dxfId="593" priority="946" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="600" priority="953" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="592" priority="947" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="599" priority="954" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="containsText" dxfId="591" priority="944" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="598" priority="951" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="590" priority="945" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="597" priority="952" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="containsText" dxfId="589" priority="942" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="596" priority="949" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="588" priority="943" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="595" priority="950" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="containsText" dxfId="587" priority="940" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="594" priority="947" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="586" priority="941" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="593" priority="948" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="containsText" dxfId="585" priority="938" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="592" priority="945" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="584" priority="939" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="591" priority="946" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="containsText" dxfId="583" priority="936" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="590" priority="943" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="582" priority="937" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="589" priority="944" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="containsText" dxfId="581" priority="934" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="588" priority="941" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="580" priority="935" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="587" priority="942" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="containsText" dxfId="579" priority="932" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="586" priority="939" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="578" priority="933" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="585" priority="940" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="containsText" dxfId="577" priority="930" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="584" priority="937" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="576" priority="931" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="583" priority="938" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="containsText" dxfId="575" priority="928" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="582" priority="935" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="574" priority="929" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="581" priority="936" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="containsText" dxfId="573" priority="926" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="580" priority="933" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="572" priority="927" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="579" priority="934" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="containsText" dxfId="571" priority="924" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="578" priority="931" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="570" priority="925" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="577" priority="932" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="containsText" dxfId="569" priority="922" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="576" priority="929" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="568" priority="923" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="575" priority="930" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="containsText" dxfId="567" priority="920" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="574" priority="927" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="566" priority="921" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="573" priority="928" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="containsText" dxfId="565" priority="918" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="572" priority="925" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="564" priority="919" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="571" priority="926" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="containsText" dxfId="563" priority="916" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="570" priority="923" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="562" priority="917" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="569" priority="924" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="containsText" dxfId="561" priority="914" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="568" priority="921" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="560" priority="915" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="567" priority="922" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="containsText" dxfId="559" priority="912" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="566" priority="919" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="558" priority="913" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="565" priority="920" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="containsText" dxfId="557" priority="910" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="564" priority="917" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="556" priority="911" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="563" priority="918" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="containsText" dxfId="555" priority="908" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="562" priority="915" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="554" priority="909" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="561" priority="916" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="containsText" dxfId="553" priority="906" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="560" priority="913" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="552" priority="907" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="559" priority="914" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="containsText" dxfId="551" priority="904" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="558" priority="911" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="550" priority="905" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="557" priority="912" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="containsText" dxfId="549" priority="902" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="556" priority="909" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="548" priority="903" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="555" priority="910" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D23:D25">
-    <cfRule type="containsText" dxfId="547" priority="783" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D23)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="546" priority="784" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D23)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D23:D25">
-    <cfRule type="containsText" dxfId="545" priority="781" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D23)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="544" priority="782" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D23)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D23:D25">
-    <cfRule type="containsText" dxfId="543" priority="779" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D23)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="542" priority="780" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D23)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D23:D25">
-    <cfRule type="containsText" dxfId="541" priority="777" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D23)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="540" priority="778" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D23)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D23:D25">
-    <cfRule type="containsText" dxfId="539" priority="775" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D23)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="538" priority="776" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D23)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D23:D25">
-    <cfRule type="containsText" dxfId="537" priority="773" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D23)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="536" priority="774" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D23)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D23:D25">
-    <cfRule type="containsText" dxfId="535" priority="771" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D23)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="534" priority="772" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D23)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D23:D25">
-    <cfRule type="containsText" dxfId="533" priority="769" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D23)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="532" priority="770" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D23)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D23:D25">
-    <cfRule type="containsText" dxfId="531" priority="767" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D23)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="530" priority="768" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D23)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D23:D25">
-    <cfRule type="containsText" dxfId="529" priority="765" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D23)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="528" priority="766" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D23)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D23:D25">
-    <cfRule type="containsText" dxfId="527" priority="763" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D23)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="526" priority="764" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D23)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D23:D25">
-    <cfRule type="containsText" dxfId="525" priority="761" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D23)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="524" priority="762" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D23)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D23:D25">
-    <cfRule type="containsText" dxfId="523" priority="759" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D23)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="522" priority="760" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D23)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D23:D25">
-    <cfRule type="containsText" dxfId="521" priority="757" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D23)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="520" priority="758" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D23)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D23:D25">
-    <cfRule type="containsText" dxfId="519" priority="755" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D23)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="518" priority="756" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D23)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D23:D25">
-    <cfRule type="containsText" dxfId="517" priority="753" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D23)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="516" priority="754" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D23)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D23:D25">
-    <cfRule type="containsText" dxfId="515" priority="751" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D23)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="514" priority="752" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D23)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D23:D25">
-    <cfRule type="containsText" dxfId="513" priority="749" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D23)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="512" priority="750" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D23)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D23:D25">
-    <cfRule type="containsText" dxfId="511" priority="747" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D23)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="510" priority="748" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D23)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D23:D25">
-    <cfRule type="containsText" dxfId="509" priority="745" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D23)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="508" priority="746" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D23)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D23:D25">
-    <cfRule type="containsText" dxfId="507" priority="743" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D23)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="506" priority="744" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D23)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D23:D25">
-    <cfRule type="containsText" dxfId="505" priority="741" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D23)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="504" priority="742" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D23)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D23:D25">
-    <cfRule type="containsText" dxfId="503" priority="739" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D23)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="502" priority="740" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D23)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D23:D25">
-    <cfRule type="containsText" dxfId="501" priority="737" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D23)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="500" priority="738" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D23)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D23:D25">
-    <cfRule type="containsText" dxfId="499" priority="735" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D23)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="498" priority="736" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D23)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D23:D25">
-    <cfRule type="containsText" dxfId="497" priority="733" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D23)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="496" priority="734" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D23)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D23:D25">
-    <cfRule type="containsText" dxfId="495" priority="731" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D23)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="494" priority="732" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D23)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J18">
-    <cfRule type="containsText" dxfId="493" priority="730" operator="containsText" text="Android">
-      <formula>NOT(ISERROR(SEARCH("Android",J18)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J18">
-    <cfRule type="containsText" dxfId="492" priority="728" operator="containsText" text="Web">
-      <formula>NOT(ISERROR(SEARCH("Web",J18)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="491" priority="729" operator="containsText" text="iOS">
-      <formula>NOT(ISERROR(SEARCH("iOS",J18)))</formula>
+  <conditionalFormatting sqref="D25:D27">
+    <cfRule type="containsText" dxfId="554" priority="790" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",D25)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="553" priority="791" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",D25)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D25:D27">
+    <cfRule type="containsText" dxfId="552" priority="788" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",D25)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="551" priority="789" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",D25)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D25:D27">
+    <cfRule type="containsText" dxfId="550" priority="786" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",D25)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="549" priority="787" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",D25)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D25:D27">
+    <cfRule type="containsText" dxfId="548" priority="784" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",D25)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="547" priority="785" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",D25)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D25:D27">
+    <cfRule type="containsText" dxfId="546" priority="782" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",D25)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="545" priority="783" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",D25)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D25:D27">
+    <cfRule type="containsText" dxfId="544" priority="780" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",D25)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="543" priority="781" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",D25)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D25:D27">
+    <cfRule type="containsText" dxfId="542" priority="778" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",D25)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="541" priority="779" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",D25)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D25:D27">
+    <cfRule type="containsText" dxfId="540" priority="776" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",D25)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="539" priority="777" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",D25)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D25:D27">
+    <cfRule type="containsText" dxfId="538" priority="774" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",D25)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="537" priority="775" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",D25)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D25:D27">
+    <cfRule type="containsText" dxfId="536" priority="772" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",D25)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="535" priority="773" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",D25)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D25:D27">
+    <cfRule type="containsText" dxfId="534" priority="770" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",D25)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="533" priority="771" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",D25)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D25:D27">
+    <cfRule type="containsText" dxfId="532" priority="768" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",D25)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="531" priority="769" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",D25)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D25:D27">
+    <cfRule type="containsText" dxfId="530" priority="766" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",D25)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="529" priority="767" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",D25)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D25:D27">
+    <cfRule type="containsText" dxfId="528" priority="764" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",D25)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="527" priority="765" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",D25)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D25:D27">
+    <cfRule type="containsText" dxfId="526" priority="762" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",D25)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="525" priority="763" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",D25)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D25:D27">
+    <cfRule type="containsText" dxfId="524" priority="760" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",D25)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="523" priority="761" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",D25)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D25:D27">
+    <cfRule type="containsText" dxfId="522" priority="758" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",D25)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="521" priority="759" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",D25)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D25:D27">
+    <cfRule type="containsText" dxfId="520" priority="756" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",D25)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="519" priority="757" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",D25)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D25:D27">
+    <cfRule type="containsText" dxfId="518" priority="754" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",D25)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="517" priority="755" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",D25)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D25:D27">
+    <cfRule type="containsText" dxfId="516" priority="752" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",D25)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="515" priority="753" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",D25)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D25:D27">
+    <cfRule type="containsText" dxfId="514" priority="750" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",D25)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="513" priority="751" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",D25)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D25:D27">
+    <cfRule type="containsText" dxfId="512" priority="748" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",D25)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="511" priority="749" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",D25)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D25:D27">
+    <cfRule type="containsText" dxfId="510" priority="746" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",D25)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="509" priority="747" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",D25)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D25:D27">
+    <cfRule type="containsText" dxfId="508" priority="744" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",D25)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="507" priority="745" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",D25)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D25:D27">
+    <cfRule type="containsText" dxfId="506" priority="742" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",D25)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="505" priority="743" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",D25)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D25:D27">
+    <cfRule type="containsText" dxfId="504" priority="740" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",D25)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="503" priority="741" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",D25)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D25:D27">
+    <cfRule type="containsText" dxfId="502" priority="738" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",D25)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="501" priority="739" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",D25)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J20">
+    <cfRule type="containsText" dxfId="500" priority="737" operator="containsText" text="Android">
+      <formula>NOT(ISERROR(SEARCH("Android",J20)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J20">
+    <cfRule type="containsText" dxfId="499" priority="735" operator="containsText" text="Web">
+      <formula>NOT(ISERROR(SEARCH("Web",J20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="498" priority="736" operator="containsText" text="iOS">
+      <formula>NOT(ISERROR(SEARCH("iOS",J20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:H3">
-    <cfRule type="containsText" dxfId="490" priority="607" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="497" priority="614" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",F3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="489" priority="608" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="496" priority="615" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",F3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="containsText" dxfId="488" priority="605" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="495" priority="612" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",I3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="487" priority="606" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="494" priority="613" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",I3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:L3">
+    <cfRule type="containsText" dxfId="493" priority="610" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",K3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="492" priority="611" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",K3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J3">
+    <cfRule type="containsText" dxfId="491" priority="609" operator="containsText" text="Android">
+      <formula>NOT(ISERROR(SEARCH("Android",J3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J3">
+    <cfRule type="containsText" dxfId="490" priority="607" operator="containsText" text="Web">
+      <formula>NOT(ISERROR(SEARCH("Web",J3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="489" priority="608" operator="containsText" text="iOS">
+      <formula>NOT(ISERROR(SEARCH("iOS",J3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3">
+    <cfRule type="containsText" dxfId="488" priority="605" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="487" priority="606" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3">
     <cfRule type="containsText" dxfId="486" priority="603" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",K3)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="485" priority="604" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",K3)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J3">
-    <cfRule type="containsText" dxfId="484" priority="602" operator="containsText" text="Android">
-      <formula>NOT(ISERROR(SEARCH("Android",J3)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J3">
-    <cfRule type="containsText" dxfId="483" priority="600" operator="containsText" text="Web">
-      <formula>NOT(ISERROR(SEARCH("Web",J3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="482" priority="601" operator="containsText" text="iOS">
-      <formula>NOT(ISERROR(SEARCH("iOS",J3)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="481" priority="598" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="484" priority="601" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="480" priority="599" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="483" priority="602" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="479" priority="596" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="482" priority="599" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="478" priority="597" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="481" priority="600" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="477" priority="594" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="480" priority="597" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="476" priority="595" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="479" priority="598" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="475" priority="592" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="478" priority="595" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="474" priority="593" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="477" priority="596" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="473" priority="590" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="476" priority="593" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="472" priority="591" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="475" priority="594" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="471" priority="588" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="474" priority="591" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="470" priority="589" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="473" priority="592" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="469" priority="586" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="472" priority="589" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="468" priority="587" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="471" priority="590" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="467" priority="584" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="470" priority="587" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="466" priority="585" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="469" priority="588" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="465" priority="582" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="468" priority="585" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="464" priority="583" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="467" priority="586" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="463" priority="580" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="466" priority="583" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="462" priority="581" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="465" priority="584" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="461" priority="578" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="464" priority="581" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="460" priority="579" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="463" priority="582" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="459" priority="576" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="462" priority="579" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="458" priority="577" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="461" priority="580" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="457" priority="574" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="460" priority="577" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="456" priority="575" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="459" priority="578" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="455" priority="572" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="458" priority="575" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="454" priority="573" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="457" priority="576" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="453" priority="570" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="456" priority="573" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="452" priority="571" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="455" priority="574" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="451" priority="568" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="454" priority="571" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="450" priority="569" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="453" priority="572" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="449" priority="566" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="452" priority="569" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="448" priority="567" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="451" priority="570" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="447" priority="564" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="450" priority="567" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="446" priority="565" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="449" priority="568" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="445" priority="562" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="448" priority="565" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="444" priority="563" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="447" priority="566" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="443" priority="560" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="446" priority="563" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="442" priority="561" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="445" priority="564" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="441" priority="558" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="444" priority="561" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="440" priority="559" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="443" priority="562" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="439" priority="556" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="442" priority="559" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="438" priority="557" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="441" priority="560" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="437" priority="554" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="440" priority="557" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="436" priority="555" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="439" priority="558" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="435" priority="552" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="438" priority="555" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="434" priority="553" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="437" priority="556" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="433" priority="550" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="436" priority="553" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="432" priority="551" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="435" priority="554" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="431" priority="548" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="434" priority="551" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="430" priority="549" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="433" priority="552" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="429" priority="546" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="432" priority="549" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="428" priority="547" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="431" priority="550" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="427" priority="544" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="430" priority="547" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="426" priority="545" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="429" priority="548" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="425" priority="542" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="428" priority="545" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="424" priority="543" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="427" priority="546" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="423" priority="540" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="426" priority="543" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="422" priority="541" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="425" priority="544" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="421" priority="538" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="424" priority="541" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="420" priority="539" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="423" priority="542" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="419" priority="536" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="422" priority="539" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="418" priority="537" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="421" priority="540" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="417" priority="534" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="420" priority="537" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="416" priority="535" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="419" priority="538" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="415" priority="532" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="418" priority="535" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="414" priority="533" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="417" priority="536" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="413" priority="530" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="416" priority="533" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="412" priority="531" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="415" priority="534" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="411" priority="528" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="414" priority="531" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="410" priority="529" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="413" priority="532" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="409" priority="526" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="412" priority="529" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="408" priority="527" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="411" priority="530" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="407" priority="524" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="410" priority="527" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="406" priority="525" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="409" priority="528" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="405" priority="522" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="408" priority="525" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="404" priority="523" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="407" priority="526" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="403" priority="520" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="406" priority="523" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="402" priority="521" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="405" priority="524" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="401" priority="518" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="404" priority="521" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="400" priority="519" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="403" priority="522" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="399" priority="516" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="402" priority="519" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="398" priority="517" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="401" priority="520" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="397" priority="514" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="400" priority="517" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="396" priority="515" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="399" priority="518" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="395" priority="512" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="398" priority="515" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="394" priority="513" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="397" priority="516" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="393" priority="510" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="396" priority="513" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="392" priority="511" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="395" priority="514" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="391" priority="508" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="394" priority="511" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="390" priority="509" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="393" priority="512" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="389" priority="506" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="392" priority="509" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="388" priority="507" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="391" priority="510" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="387" priority="504" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="390" priority="507" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="386" priority="505" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="389" priority="508" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="385" priority="502" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="388" priority="505" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="384" priority="503" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="387" priority="506" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="383" priority="500" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="386" priority="503" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="382" priority="501" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="385" priority="504" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="381" priority="498" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="384" priority="501" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="380" priority="499" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="383" priority="502" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="379" priority="496" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="382" priority="499" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="378" priority="497" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="381" priority="500" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="377" priority="494" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="376" priority="495" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="375" priority="492" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="374" priority="493" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D3)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E35">
-    <cfRule type="containsText" dxfId="373" priority="373" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",E35)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="372" priority="374" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",E35)))</formula>
+  <conditionalFormatting sqref="E37">
+    <cfRule type="containsText" dxfId="380" priority="380" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",E37)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="379" priority="381" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",E37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7:H7">
-    <cfRule type="containsText" dxfId="371" priority="371" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="378" priority="378" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",F7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="370" priority="372" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="377" priority="379" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",F7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="containsText" dxfId="369" priority="369" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="376" priority="376" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",I7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="368" priority="370" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="375" priority="377" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",I7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K7:L7">
+    <cfRule type="containsText" dxfId="374" priority="374" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",K7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="373" priority="375" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",K7)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J7">
+    <cfRule type="containsText" dxfId="372" priority="373" operator="containsText" text="Android">
+      <formula>NOT(ISERROR(SEARCH("Android",J7)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J7">
+    <cfRule type="containsText" dxfId="371" priority="371" operator="containsText" text="Web">
+      <formula>NOT(ISERROR(SEARCH("Web",J7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="370" priority="372" operator="containsText" text="iOS">
+      <formula>NOT(ISERROR(SEARCH("iOS",J7)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7">
+    <cfRule type="containsText" dxfId="369" priority="369" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",D7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="368" priority="370" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",D7)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7">
     <cfRule type="containsText" dxfId="367" priority="367" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",K7)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Sim",D7)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="366" priority="368" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",K7)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J7">
-    <cfRule type="containsText" dxfId="365" priority="366" operator="containsText" text="Android">
-      <formula>NOT(ISERROR(SEARCH("Android",J7)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J7">
-    <cfRule type="containsText" dxfId="364" priority="364" operator="containsText" text="Web">
-      <formula>NOT(ISERROR(SEARCH("Web",J7)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="363" priority="365" operator="containsText" text="iOS">
-      <formula>NOT(ISERROR(SEARCH("iOS",J7)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Não",D7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="containsText" dxfId="362" priority="362" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="365" priority="365" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="361" priority="363" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="364" priority="366" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="containsText" dxfId="360" priority="360" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="363" priority="363" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="359" priority="361" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="362" priority="364" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="containsText" dxfId="358" priority="358" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="361" priority="361" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="357" priority="359" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="360" priority="362" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="containsText" dxfId="356" priority="356" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="359" priority="359" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="355" priority="357" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="358" priority="360" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="containsText" dxfId="354" priority="354" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="357" priority="357" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="353" priority="355" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="356" priority="358" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="containsText" dxfId="352" priority="352" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="355" priority="355" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="351" priority="353" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="354" priority="356" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="containsText" dxfId="350" priority="350" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="353" priority="353" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="349" priority="351" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="352" priority="354" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="containsText" dxfId="348" priority="348" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="351" priority="351" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="347" priority="349" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="350" priority="352" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="containsText" dxfId="346" priority="346" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="349" priority="349" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="345" priority="347" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="348" priority="350" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="containsText" dxfId="344" priority="344" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="347" priority="347" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="343" priority="345" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="346" priority="348" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="containsText" dxfId="342" priority="342" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="345" priority="345" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="341" priority="343" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="344" priority="346" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="containsText" dxfId="340" priority="340" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="343" priority="343" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="339" priority="341" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="342" priority="344" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="containsText" dxfId="338" priority="338" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="341" priority="341" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="337" priority="339" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="340" priority="342" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="containsText" dxfId="336" priority="336" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="339" priority="339" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="335" priority="337" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="338" priority="340" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="containsText" dxfId="334" priority="334" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="337" priority="337" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="333" priority="335" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="336" priority="338" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="containsText" dxfId="332" priority="332" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="335" priority="335" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="331" priority="333" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="334" priority="336" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="containsText" dxfId="330" priority="330" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="333" priority="333" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="329" priority="331" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="332" priority="334" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="containsText" dxfId="328" priority="328" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="331" priority="331" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="327" priority="329" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="330" priority="332" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="containsText" dxfId="326" priority="326" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="329" priority="329" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="325" priority="327" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="328" priority="330" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="containsText" dxfId="324" priority="324" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="327" priority="327" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="323" priority="325" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="326" priority="328" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="containsText" dxfId="322" priority="322" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="325" priority="325" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="321" priority="323" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="324" priority="326" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="containsText" dxfId="320" priority="320" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="323" priority="323" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="319" priority="321" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="322" priority="324" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="containsText" dxfId="318" priority="318" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="321" priority="321" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="317" priority="319" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="320" priority="322" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="containsText" dxfId="316" priority="316" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="319" priority="319" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="315" priority="317" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="318" priority="320" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="containsText" dxfId="314" priority="314" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="317" priority="317" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="313" priority="315" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="316" priority="318" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="containsText" dxfId="312" priority="312" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="315" priority="315" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="311" priority="313" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="314" priority="316" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="containsText" dxfId="310" priority="310" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="313" priority="313" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="309" priority="311" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="312" priority="314" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="containsText" dxfId="308" priority="308" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="311" priority="311" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="307" priority="309" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="310" priority="312" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="containsText" dxfId="306" priority="306" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="309" priority="309" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="305" priority="307" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="308" priority="310" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="containsText" dxfId="304" priority="304" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="307" priority="307" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="303" priority="305" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="306" priority="308" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="containsText" dxfId="302" priority="302" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="305" priority="305" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="301" priority="303" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="304" priority="306" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="containsText" dxfId="300" priority="300" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="303" priority="303" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="299" priority="301" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="302" priority="304" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="containsText" dxfId="298" priority="298" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="301" priority="301" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="297" priority="299" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="300" priority="302" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="containsText" dxfId="296" priority="296" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="299" priority="299" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="295" priority="297" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="298" priority="300" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="containsText" dxfId="294" priority="294" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="297" priority="297" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="293" priority="295" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="296" priority="298" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="containsText" dxfId="292" priority="292" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="295" priority="295" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="291" priority="293" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="294" priority="296" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="containsText" dxfId="290" priority="290" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="293" priority="293" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="289" priority="291" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="292" priority="294" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="containsText" dxfId="288" priority="288" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="291" priority="291" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="287" priority="289" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="290" priority="292" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="containsText" dxfId="286" priority="286" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="289" priority="289" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="285" priority="287" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="288" priority="290" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="containsText" dxfId="284" priority="284" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="287" priority="287" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="283" priority="285" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="286" priority="288" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="containsText" dxfId="282" priority="282" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="285" priority="285" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="281" priority="283" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="284" priority="286" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="containsText" dxfId="280" priority="280" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="283" priority="283" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="279" priority="281" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="282" priority="284" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="containsText" dxfId="278" priority="278" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="281" priority="281" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="277" priority="279" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="280" priority="282" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="containsText" dxfId="276" priority="276" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="279" priority="279" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="275" priority="277" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="278" priority="280" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="containsText" dxfId="274" priority="274" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="277" priority="277" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="273" priority="275" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="276" priority="278" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="containsText" dxfId="272" priority="272" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="275" priority="275" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="271" priority="273" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="274" priority="276" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="containsText" dxfId="270" priority="270" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="273" priority="273" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="269" priority="271" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="272" priority="274" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="containsText" dxfId="268" priority="268" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="271" priority="271" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="267" priority="269" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="270" priority="272" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="containsText" dxfId="266" priority="266" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="269" priority="269" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="265" priority="267" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="268" priority="270" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="containsText" dxfId="264" priority="264" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="267" priority="267" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="263" priority="265" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="266" priority="268" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="containsText" dxfId="262" priority="262" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="265" priority="265" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="261" priority="263" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="264" priority="266" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="containsText" dxfId="260" priority="260" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="263" priority="263" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="259" priority="261" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="262" priority="264" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D7)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D7">
-    <cfRule type="containsText" dxfId="258" priority="258" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D7)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="257" priority="259" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D7)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D7">
-    <cfRule type="containsText" dxfId="256" priority="256" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D7)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="255" priority="257" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D7)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="F4:H4">
-    <cfRule type="containsText" dxfId="254" priority="254" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="261" priority="261" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",F4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="253" priority="255" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="260" priority="262" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",F4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="containsText" dxfId="252" priority="252" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="259" priority="259" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",I4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="251" priority="253" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="258" priority="260" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",I4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:L4">
+    <cfRule type="containsText" dxfId="257" priority="257" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",K4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="256" priority="258" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",K4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J4">
+    <cfRule type="containsText" dxfId="255" priority="256" operator="containsText" text="Android">
+      <formula>NOT(ISERROR(SEARCH("Android",J4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J4">
+    <cfRule type="containsText" dxfId="254" priority="254" operator="containsText" text="Web">
+      <formula>NOT(ISERROR(SEARCH("Web",J4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="253" priority="255" operator="containsText" text="iOS">
+      <formula>NOT(ISERROR(SEARCH("iOS",J4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4">
+    <cfRule type="containsText" dxfId="252" priority="252" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="251" priority="253" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4">
     <cfRule type="containsText" dxfId="250" priority="250" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",K4)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="249" priority="251" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",K4)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J4">
-    <cfRule type="containsText" dxfId="248" priority="249" operator="containsText" text="Android">
-      <formula>NOT(ISERROR(SEARCH("Android",J4)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J4">
-    <cfRule type="containsText" dxfId="247" priority="247" operator="containsText" text="Web">
-      <formula>NOT(ISERROR(SEARCH("Web",J4)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="246" priority="248" operator="containsText" text="iOS">
-      <formula>NOT(ISERROR(SEARCH("iOS",J4)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="245" priority="245" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="248" priority="248" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="244" priority="246" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="247" priority="249" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="243" priority="243" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="246" priority="246" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="242" priority="244" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="245" priority="247" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="241" priority="241" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="244" priority="244" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="240" priority="242" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="243" priority="245" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="239" priority="239" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="242" priority="242" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="238" priority="240" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="241" priority="243" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="237" priority="237" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="240" priority="240" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="236" priority="238" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="239" priority="241" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="235" priority="235" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="238" priority="238" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="234" priority="236" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="237" priority="239" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="233" priority="233" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="236" priority="236" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="232" priority="234" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="235" priority="237" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="231" priority="231" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="234" priority="234" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="230" priority="232" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="233" priority="235" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="229" priority="229" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="232" priority="232" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="228" priority="230" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="231" priority="233" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="227" priority="227" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="230" priority="230" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="226" priority="228" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="229" priority="231" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="225" priority="225" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="228" priority="228" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="224" priority="226" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="227" priority="229" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="223" priority="223" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="226" priority="226" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="222" priority="224" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="225" priority="227" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="221" priority="221" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="224" priority="224" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="220" priority="222" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="223" priority="225" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="219" priority="219" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="222" priority="222" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="218" priority="220" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="221" priority="223" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="217" priority="217" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="220" priority="220" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="216" priority="218" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="219" priority="221" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="215" priority="215" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="218" priority="218" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="214" priority="216" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="217" priority="219" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="213" priority="213" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="216" priority="216" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="212" priority="214" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="215" priority="217" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="211" priority="211" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="214" priority="214" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="210" priority="212" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="213" priority="215" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="209" priority="209" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="212" priority="212" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="208" priority="210" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="211" priority="213" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="207" priority="207" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="210" priority="210" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="206" priority="208" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="209" priority="211" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="205" priority="205" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="208" priority="208" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="204" priority="206" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="207" priority="209" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="203" priority="203" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="206" priority="206" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="202" priority="204" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="205" priority="207" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="201" priority="201" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="204" priority="204" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="200" priority="202" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="203" priority="205" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="199" priority="199" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="202" priority="202" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="198" priority="200" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="201" priority="203" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="197" priority="197" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="200" priority="200" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="196" priority="198" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="199" priority="201" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="195" priority="195" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="198" priority="198" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="194" priority="196" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="197" priority="199" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="193" priority="193" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="196" priority="196" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="192" priority="194" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="195" priority="197" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="191" priority="191" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="194" priority="194" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="190" priority="192" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="193" priority="195" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="189" priority="189" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="192" priority="192" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="188" priority="190" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="191" priority="193" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="187" priority="187" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="190" priority="190" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="186" priority="188" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="189" priority="191" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="185" priority="185" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="188" priority="188" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="184" priority="186" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="187" priority="189" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="183" priority="183" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="186" priority="186" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="182" priority="184" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="185" priority="187" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="181" priority="181" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="184" priority="184" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="180" priority="182" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="183" priority="185" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="179" priority="179" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="182" priority="182" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="178" priority="180" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="181" priority="183" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="177" priority="177" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="180" priority="180" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="176" priority="178" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="179" priority="181" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="175" priority="175" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="178" priority="178" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="174" priority="176" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="177" priority="179" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="173" priority="173" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="176" priority="176" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="172" priority="174" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="175" priority="177" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="171" priority="171" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="174" priority="174" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="170" priority="172" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="173" priority="175" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="169" priority="169" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="172" priority="172" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="168" priority="170" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="171" priority="173" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="167" priority="167" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="170" priority="170" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="166" priority="168" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="169" priority="171" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="165" priority="165" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="168" priority="168" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="164" priority="166" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="167" priority="169" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="163" priority="163" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="166" priority="166" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="162" priority="164" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="165" priority="167" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="161" priority="161" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="164" priority="164" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="160" priority="162" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="163" priority="165" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="159" priority="159" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="162" priority="162" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="158" priority="160" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="161" priority="163" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="157" priority="157" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="160" priority="160" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="156" priority="158" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="159" priority="161" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="155" priority="155" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="158" priority="158" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="154" priority="156" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="157" priority="159" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="153" priority="153" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="156" priority="156" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="152" priority="154" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="155" priority="157" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="151" priority="151" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="154" priority="154" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="150" priority="152" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="153" priority="155" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="149" priority="149" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="152" priority="152" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="148" priority="150" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="151" priority="153" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="147" priority="147" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="150" priority="150" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="146" priority="148" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="149" priority="151" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="145" priority="145" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="148" priority="148" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="144" priority="146" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="147" priority="149" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="143" priority="143" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="146" priority="146" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="142" priority="144" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="145" priority="147" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="141" priority="141" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="140" priority="142" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="139" priority="139" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D4)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="138" priority="140" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D4)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="F8:H8">
-    <cfRule type="containsText" dxfId="137" priority="137" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="144" priority="144" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",F8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="136" priority="138" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="143" priority="145" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",F8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="containsText" dxfId="135" priority="135" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="142" priority="142" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",I8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="134" priority="136" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="141" priority="143" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",I8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8:L8">
+    <cfRule type="containsText" dxfId="140" priority="140" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",K8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="139" priority="141" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",K8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J8">
+    <cfRule type="containsText" dxfId="138" priority="139" operator="containsText" text="Android">
+      <formula>NOT(ISERROR(SEARCH("Android",J8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J8">
+    <cfRule type="containsText" dxfId="137" priority="137" operator="containsText" text="Web">
+      <formula>NOT(ISERROR(SEARCH("Web",J8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="136" priority="138" operator="containsText" text="iOS">
+      <formula>NOT(ISERROR(SEARCH("iOS",J8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8">
+    <cfRule type="containsText" dxfId="135" priority="135" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",D8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="134" priority="136" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",D8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8">
     <cfRule type="containsText" dxfId="133" priority="133" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",K8)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Sim",D8)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="132" priority="134" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",K8)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J8">
-    <cfRule type="containsText" dxfId="131" priority="132" operator="containsText" text="Android">
-      <formula>NOT(ISERROR(SEARCH("Android",J8)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J8">
-    <cfRule type="containsText" dxfId="130" priority="130" operator="containsText" text="Web">
-      <formula>NOT(ISERROR(SEARCH("Web",J8)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="129" priority="131" operator="containsText" text="iOS">
-      <formula>NOT(ISERROR(SEARCH("iOS",J8)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Não",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="containsText" dxfId="128" priority="128" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="131" priority="131" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="127" priority="129" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="130" priority="132" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="containsText" dxfId="126" priority="126" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="129" priority="129" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="125" priority="127" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="128" priority="130" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="containsText" dxfId="124" priority="124" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="127" priority="127" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="123" priority="125" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="126" priority="128" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="containsText" dxfId="122" priority="122" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="125" priority="125" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="121" priority="123" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="124" priority="126" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="containsText" dxfId="120" priority="120" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="123" priority="123" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="119" priority="121" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="122" priority="124" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="containsText" dxfId="118" priority="118" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="121" priority="121" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="117" priority="119" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="120" priority="122" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="containsText" dxfId="116" priority="116" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="119" priority="119" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="115" priority="117" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="118" priority="120" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="containsText" dxfId="114" priority="114" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="117" priority="117" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="113" priority="115" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="116" priority="118" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="containsText" dxfId="112" priority="112" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="115" priority="115" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="111" priority="113" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="114" priority="116" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="containsText" dxfId="110" priority="110" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="113" priority="113" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="109" priority="111" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="112" priority="114" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="containsText" dxfId="108" priority="108" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="111" priority="111" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="107" priority="109" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="110" priority="112" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="containsText" dxfId="106" priority="106" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="109" priority="109" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="105" priority="107" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="108" priority="110" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="containsText" dxfId="104" priority="104" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="107" priority="107" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="103" priority="105" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="106" priority="108" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="containsText" dxfId="102" priority="102" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="105" priority="105" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="101" priority="103" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="104" priority="106" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="containsText" dxfId="100" priority="100" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="103" priority="103" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="99" priority="101" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="102" priority="104" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="containsText" dxfId="98" priority="98" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="101" priority="101" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="97" priority="99" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="100" priority="102" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="containsText" dxfId="96" priority="96" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="99" priority="99" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="95" priority="97" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="98" priority="100" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="containsText" dxfId="94" priority="94" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="97" priority="97" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="93" priority="95" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="96" priority="98" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="containsText" dxfId="92" priority="92" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="95" priority="95" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="91" priority="93" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="94" priority="96" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="containsText" dxfId="90" priority="90" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="93" priority="93" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="89" priority="91" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="92" priority="94" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="containsText" dxfId="88" priority="88" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="91" priority="91" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="87" priority="89" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="90" priority="92" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="containsText" dxfId="86" priority="86" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="89" priority="89" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="85" priority="87" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="88" priority="90" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="containsText" dxfId="84" priority="84" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="87" priority="87" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="83" priority="85" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="86" priority="88" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="containsText" dxfId="82" priority="82" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="85" priority="85" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="81" priority="83" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="84" priority="86" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="containsText" dxfId="80" priority="80" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="83" priority="83" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="79" priority="81" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="82" priority="84" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="containsText" dxfId="78" priority="78" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="81" priority="81" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="77" priority="79" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="80" priority="82" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="containsText" dxfId="76" priority="76" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="79" priority="79" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="75" priority="77" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="78" priority="80" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="containsText" dxfId="74" priority="74" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="77" priority="77" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="73" priority="75" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="76" priority="78" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="containsText" dxfId="72" priority="72" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="75" priority="75" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="71" priority="73" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="74" priority="76" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="containsText" dxfId="70" priority="70" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="73" priority="73" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="69" priority="71" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="72" priority="74" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="containsText" dxfId="68" priority="68" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="71" priority="71" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="67" priority="69" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="70" priority="72" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="containsText" dxfId="66" priority="66" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="69" priority="69" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="65" priority="67" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="68" priority="70" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="containsText" dxfId="64" priority="64" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="67" priority="67" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="63" priority="65" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="66" priority="68" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="containsText" dxfId="62" priority="62" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="65" priority="65" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="61" priority="63" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="64" priority="66" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="containsText" dxfId="60" priority="60" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="63" priority="63" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="59" priority="61" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="62" priority="64" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="containsText" dxfId="58" priority="58" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="61" priority="61" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="57" priority="59" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="60" priority="62" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="containsText" dxfId="56" priority="56" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="59" priority="59" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="55" priority="57" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="58" priority="60" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="containsText" dxfId="54" priority="54" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="57" priority="57" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="53" priority="55" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="56" priority="58" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="containsText" dxfId="52" priority="52" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="55" priority="55" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="51" priority="53" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="54" priority="56" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="containsText" dxfId="50" priority="50" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="53" priority="53" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="49" priority="51" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="52" priority="54" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="containsText" dxfId="48" priority="48" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="51" priority="51" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="47" priority="49" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="50" priority="52" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="containsText" dxfId="46" priority="46" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="49" priority="49" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="47" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="48" priority="50" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="containsText" dxfId="44" priority="44" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="47" priority="47" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="45" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="46" priority="48" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="containsText" dxfId="42" priority="42" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="45" priority="45" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="41" priority="43" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="44" priority="46" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="containsText" dxfId="40" priority="40" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="43" priority="43" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="39" priority="41" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="42" priority="44" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="containsText" dxfId="38" priority="38" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="41" priority="41" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="39" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="40" priority="42" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="containsText" dxfId="36" priority="36" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="39" priority="39" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="35" priority="37" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="38" priority="40" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="containsText" dxfId="34" priority="34" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="37" priority="37" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="35" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="36" priority="38" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="containsText" dxfId="32" priority="32" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="35" priority="35" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="33" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="34" priority="36" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="containsText" dxfId="30" priority="30" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="33" priority="33" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="31" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="32" priority="34" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="containsText" dxfId="28" priority="28" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="31" priority="31" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="29" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="30" priority="32" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="containsText" dxfId="26" priority="26" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="29" priority="29" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="27" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="28" priority="30" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D8">
-    <cfRule type="containsText" dxfId="24" priority="24" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D8)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="25" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D8)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D8">
-    <cfRule type="containsText" dxfId="22" priority="22" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D8)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="23" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D8)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="F9:I9">
+    <cfRule type="containsText" dxfId="27" priority="27" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",F9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="26" priority="28" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",F9)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K9:L9 D9">
+    <cfRule type="containsText" dxfId="25" priority="25" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",D9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="24" priority="26" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",D9)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J9">
+    <cfRule type="containsText" dxfId="23" priority="24" operator="containsText" text="Android">
+      <formula>NOT(ISERROR(SEARCH("Android",J9)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J9">
+    <cfRule type="containsText" dxfId="22" priority="22" operator="containsText" text="Web">
+      <formula>NOT(ISERROR(SEARCH("Web",J9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="21" priority="23" operator="containsText" text="iOS">
+      <formula>NOT(ISERROR(SEARCH("iOS",J9)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F11:I11">
     <cfRule type="containsText" dxfId="20" priority="20" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",F9)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Passed",F11)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="19" priority="21" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",F9)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K9:L9 D9">
+      <formula>NOT(ISERROR(SEARCH("Failed",F11)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K11:L11 D11">
     <cfRule type="containsText" dxfId="18" priority="18" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D9)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Sim",D11)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="17" priority="19" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D9)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J9">
+      <formula>NOT(ISERROR(SEARCH("Não",D11)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J11">
     <cfRule type="containsText" dxfId="16" priority="17" operator="containsText" text="Android">
-      <formula>NOT(ISERROR(SEARCH("Android",J9)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J9">
+      <formula>NOT(ISERROR(SEARCH("Android",J11)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J11">
     <cfRule type="containsText" dxfId="15" priority="15" operator="containsText" text="Web">
-      <formula>NOT(ISERROR(SEARCH("Web",J9)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Web",J11)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="14" priority="16" operator="containsText" text="iOS">
-      <formula>NOT(ISERROR(SEARCH("iOS",J9)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F11:I11">
+      <formula>NOT(ISERROR(SEARCH("iOS",J11)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F12:I12">
     <cfRule type="containsText" dxfId="13" priority="13" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",F11)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Passed",F12)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="12" priority="14" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",F11)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K11:L11 D11">
+      <formula>NOT(ISERROR(SEARCH("Failed",F12)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K12:L12 D12">
     <cfRule type="containsText" dxfId="11" priority="11" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D11)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Sim",D12)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="10" priority="12" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D11)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J11">
+      <formula>NOT(ISERROR(SEARCH("Não",D12)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J12">
     <cfRule type="containsText" dxfId="9" priority="10" operator="containsText" text="Android">
-      <formula>NOT(ISERROR(SEARCH("Android",J11)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J11">
+      <formula>NOT(ISERROR(SEARCH("Android",J12)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J12">
     <cfRule type="containsText" dxfId="8" priority="8" operator="containsText" text="Web">
-      <formula>NOT(ISERROR(SEARCH("Web",J11)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Web",J12)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="iOS">
-      <formula>NOT(ISERROR(SEARCH("iOS",J11)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F12:I12">
+      <formula>NOT(ISERROR(SEARCH("iOS",J12)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F13:I14">
     <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",F12)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Passed",F13)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",F12)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K12:L12 D12">
+      <formula>NOT(ISERROR(SEARCH("Failed",F13)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K13:L14 D13:D14">
     <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",D12)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Sim",D13)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="3" priority="5" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",D12)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J12">
+      <formula>NOT(ISERROR(SEARCH("Não",D13)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J13:J14">
     <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="Android">
-      <formula>NOT(ISERROR(SEARCH("Android",J12)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J12">
+      <formula>NOT(ISERROR(SEARCH("Android",J13)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J13:J14">
     <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Web">
-      <formula>NOT(ISERROR(SEARCH("Web",J12)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Web",J13)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="iOS">
-      <formula>NOT(ISERROR(SEARCH("iOS",J12)))</formula>
+      <formula>NOT(ISERROR(SEARCH("iOS",J13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K44:L46 K48:L50 D54:D60 K54:L60 K62:L67 K69:L73 D69:D73 D62:D67 K2:L42 D2:D50">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K46:L48 K50:L52 D56:D62 K56:L62 K64:L69 K71:L75 D71:D75 D64:D69 D2:D52 K2:L44">
       <formula1>"Sim,Não"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J54:J60 J69:J73 J62:J67 J2:J50">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J56:J62 J71:J75 J64:J69 J2:J52">
       <formula1>"Android,iOS,Web"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="R43" r:id="rId1" display="michael-net@hotmail.com"/>
-    <hyperlink ref="M34" r:id="rId2"/>
-    <hyperlink ref="R15" r:id="rId3"/>
-    <hyperlink ref="B78" r:id="rId4"/>
+    <hyperlink ref="R45" r:id="rId1" display="michael-net@hotmail.com"/>
+    <hyperlink ref="M36" r:id="rId2"/>
+    <hyperlink ref="R17" r:id="rId3"/>
+    <hyperlink ref="B80" r:id="rId4"/>
     <hyperlink ref="M10" r:id="rId5"/>
-    <hyperlink ref="M27" r:id="rId6"/>
-    <hyperlink ref="M42" r:id="rId7"/>
-    <hyperlink ref="M23" r:id="rId8"/>
-    <hyperlink ref="M24" r:id="rId9"/>
-    <hyperlink ref="M25" r:id="rId10"/>
+    <hyperlink ref="M29" r:id="rId6"/>
+    <hyperlink ref="M44" r:id="rId7"/>
+    <hyperlink ref="M25" r:id="rId8"/>
+    <hyperlink ref="M26" r:id="rId9"/>
+    <hyperlink ref="M27" r:id="rId10"/>
     <hyperlink ref="M7" r:id="rId11"/>
     <hyperlink ref="M8" r:id="rId12"/>
   </hyperlinks>
@@ -20093,15 +20403,15 @@
         <v>132</v>
       </c>
       <c r="I7" s="39">
-        <f>COUNTIF(Testes!J3:J51,"Android")</f>
-        <v>45</v>
+        <f>COUNTIF(Testes!J3:J53,"Android")</f>
+        <v>47</v>
       </c>
       <c r="J7" s="39">
-        <f>COUNTIFS(Testes!G3:G51,"Passed",Testes!J3:J51,"Android")</f>
-        <v>39</v>
+        <f>COUNTIFS(Testes!G3:G53,"Passed",Testes!J3:J53,"Android")</f>
+        <v>41</v>
       </c>
       <c r="K7" s="39">
-        <f>COUNTIFS(Testes!G3:G51,"Failed",Testes!J3:J51,"Android")</f>
+        <f>COUNTIFS(Testes!G3:G53,"Failed",Testes!J3:J53,"Android")</f>
         <v>6</v>
       </c>
       <c r="L7" s="39">
@@ -20112,8 +20422,8 @@
     <row r="8" spans="1:13" ht="18.75" customHeight="1">
       <c r="A8" s="44"/>
       <c r="B8" s="53">
-        <f>COUNTIF(Testes!A3:A51,"&lt;&gt;"&amp;"")</f>
-        <v>49</v>
+        <f>COUNTIF(Testes!A3:A53,"&lt;&gt;"&amp;"")</f>
+        <v>51</v>
       </c>
       <c r="C8" s="113"/>
       <c r="D8" s="113"/>
@@ -20124,15 +20434,15 @@
         <v>165</v>
       </c>
       <c r="I8" s="39">
-        <f>COUNTIF(Testes!J3:J51,"iOS")</f>
+        <f>COUNTIF(Testes!J3:J53,"iOS")</f>
         <v>0</v>
       </c>
       <c r="J8" s="39">
-        <f>COUNTIFS(Testes!G3:G51,"Passed",Testes!J3:J51,"iOS")</f>
+        <f>COUNTIFS(Testes!G3:G53,"Passed",Testes!J3:J53,"iOS")</f>
         <v>0</v>
       </c>
       <c r="K8" s="39">
-        <f>COUNTIFS(Testes!G3:G51,"Failed",Testes!J3:J51,"iOS")</f>
+        <f>COUNTIFS(Testes!G3:G53,"Failed",Testes!J3:J53,"iOS")</f>
         <v>0</v>
       </c>
       <c r="L8" s="39">
@@ -20147,7 +20457,7 @@
       <c r="D9" s="113"/>
       <c r="E9" s="113"/>
       <c r="F9" s="56">
-        <f>SUM(Testes!H3:H51)</f>
+        <f>SUM(Testes!H3:H53)</f>
         <v>0</v>
       </c>
       <c r="G9" s="44"/>
@@ -20155,15 +20465,15 @@
         <v>49</v>
       </c>
       <c r="I9" s="39">
-        <f>COUNTIF(Testes!J3:J51,"Web")</f>
+        <f>COUNTIF(Testes!J3:J53,"Web")</f>
         <v>2</v>
       </c>
 